--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.019845</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0198904</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0199411</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0199892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201312</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0202981</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0205168</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0208663</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194247</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0196249</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0198597</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019879</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0201309</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201944</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204396</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204292</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206016</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0208694</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0208716</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.021266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0221654</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0254766</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.0204662</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0205747</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0208946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211401</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213119</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0214143</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0217806</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0218731</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0220813</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.022994</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0248609</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0303561</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0334795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0213853</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0215081</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0216916</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0218279</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0223725</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.0226982</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0230858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0235639</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0246222</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0261523</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.028148</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0310283</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0349552</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0411047</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0235334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0233996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0240147</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0237518</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0243179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0246823</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.0250545</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0256238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0266776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0281548</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0303362</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0330569</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0370665</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0420454</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0292569</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0293821</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.0294515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0297582</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0298101</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0302477</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0307674</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0314948</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0322669</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0336498</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.0353674</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0379218</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0413547</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.045947</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0557759</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0559223</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0561782</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0562248</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0564335</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0568433</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0571164</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0573685</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0579423</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0585424</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.0597217</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0613516</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.0637716</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.0674956</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.0857108</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085729</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.08582099999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.085891</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.08591310000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.0952533</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0900392</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.0865544</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.08702120000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08758929999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0884514</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.08982080000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0916886</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0949089</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.09997010000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107963</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.108243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.108225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10822</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.108618</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108608</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.109047</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109454</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110007</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.110855</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.112081</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.113914</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.116949</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.121459</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.134045</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141735</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.14386</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141993</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.141564</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.141767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.142252</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.142466</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.143005</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.143627</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.144639</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.146121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.148787</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.153145</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.160222</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.15805</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.158093</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158066</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158317</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158434</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0207816</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0208667</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0208241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.0207476</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.020652</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.0209277</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0208354</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.021057</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0207722</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0211993</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.021061</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0212452</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0215641</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0219941</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0221573</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.022048</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.022091</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0224619</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0229443</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0236086</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0218909</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0220636</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0222406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0225907</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.022887</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0230842</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0234928</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.0237357</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0239547</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.0241213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.0246092</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.0256069</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.0258742</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0314078</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0231422</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0232697</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0236008</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0239637</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0241731</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.024655</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.0250199</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0254471</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.0257887</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.026411</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.0273266</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.0288305</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.0310001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0354398</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0403807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0246173</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0249205</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0252809</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.0256266</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.0260148</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.0264257</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.0269137</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.0274746</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.0282353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.0295079</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.0309257</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.0332921</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0365299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0415142</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0269617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0268134</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.0271091</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.028098</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.028241</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0283238</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.0289933</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.0297943</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.0305728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.0318959</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.0330477</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.0355949</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.0380312</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0422199</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0358291</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0366934</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0371542</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0385504</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0397275</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.0406958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.0420235</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.043628</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.0448497</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.0467952</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.0485398</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.050625</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.0531723</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.0575467</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0690796</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0695586</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.07006270000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.0706492</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.0712165</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.0719084</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.0726926</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.073481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.0744592</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.0757119</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.0771091</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.0789149</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.08129740000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.085034</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.0910459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.08287219999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.08375249999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.0846664</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.0856579</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.08681120000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.08786919999999999</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.0892593</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.0907998</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.0923614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.0942355</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.096293</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.0990901</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.102927</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.108871</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.0958808</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.09704169999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.0989488</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.100162</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.101129</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.102743</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.10443</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.106431</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.108216</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.110255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.112815</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.11575</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.119701</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.126693</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.109886</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.111216</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.112687</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.114154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.115713</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0197621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0199124</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.0199636</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0200411</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0201853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0205493</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0212255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0196114</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0196542</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0197311</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0200198</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0202983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0206514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0208261</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0213814</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.021683</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0218647</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0217385</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0221793</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0234999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.025596</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0208572</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0211474</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0213952</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0216285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0219129</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0221909</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0226314</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.02287</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0232938</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.0236459</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0243776</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0256094</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0280099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0318825</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0222322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0224761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0226406</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0229219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0232372</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0235604</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0239217</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0243675</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0249258</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0256372</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0267547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0285161</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0309254</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.03463</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0230982</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0233375</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.023593</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0238201</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0241227</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.024922</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0253022</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0259853</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0267356</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.0278598</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0296228</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0320613</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0356651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0410615</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0247871</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0249031</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0256338</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0258881</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0259173</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0262823</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0271444</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0274852</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0283927</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0298077</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0311471</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0336077</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0368424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0414916</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0365337</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.037033</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0385276</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0385709</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0392564</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.0399463</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.040702</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.041626</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0423938</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0433475</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0447666</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0465736</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0493242</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.0542457</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.07123119999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.071656</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.0721349</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.07265770000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0729856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0736991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0742898</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.07498199999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.07573630000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.0766086</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.077876</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.07924580000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.08156239999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0852509</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.08773590000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0884414</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0892877</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0899992</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.0907741</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.0918117</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.092913</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.09400500000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.100748</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.09656720000000001</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.0981248</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.100153</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.10274</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.106587</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.112472</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.106248</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.107515</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.108771</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.110258</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.111363</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.112139</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.113529</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.114912</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.116482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.120533</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.123365</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.127277</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.133589</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.119571</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.123522</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.120321</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.121365</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.122535</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.123827</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.125232</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.114547</v>
+        <v>0.137835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103262</v>
+        <v>0.123145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108041</v>
+        <v>0.133832</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11446</v>
+        <v>0.131851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104475</v>
+        <v>0.119616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107653</v>
+        <v>0.132436</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116062</v>
+        <v>0.129029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.103583</v>
+        <v>0.129343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.107847</v>
+        <v>0.133194</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116045</v>
+        <v>0.129167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.103771</v>
+        <v>0.127386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.108532</v>
+        <v>0.134248</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117394</v>
+        <v>0.129395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104029</v>
+        <v>0.122864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108838</v>
+        <v>0.133617</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1176</v>
+        <v>0.13012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104027</v>
+        <v>0.12785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.109631</v>
+        <v>0.133711</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120633</v>
+        <v>0.128642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107142</v>
+        <v>0.130518</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111687</v>
+        <v>0.137791</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124517</v>
+        <v>0.135445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107201</v>
+        <v>0.124591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114774</v>
+        <v>0.138014</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123074</v>
+        <v>0.134888</v>
       </c>
       <c r="C10" t="n">
-        <v>0.111036</v>
+        <v>0.126777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112973</v>
+        <v>0.137633</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124544</v>
+        <v>0.129105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111911</v>
+        <v>0.128441</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113935</v>
+        <v>0.138387</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124193</v>
+        <v>0.130774</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112166</v>
+        <v>0.126294</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114119</v>
+        <v>0.136582</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123915</v>
+        <v>0.130407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.112586</v>
+        <v>0.130309</v>
       </c>
       <c r="D13" t="n">
-        <v>0.114763</v>
+        <v>0.135961</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125638</v>
+        <v>0.130493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11366</v>
+        <v>0.12875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.115373</v>
+        <v>0.136342</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126198</v>
+        <v>0.128775</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112996</v>
+        <v>0.127218</v>
       </c>
       <c r="D15" t="n">
-        <v>0.115455</v>
+        <v>0.135872</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125324</v>
+        <v>0.127596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113734</v>
+        <v>0.128642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.115056</v>
+        <v>0.135804</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125991</v>
+        <v>0.130857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114057</v>
+        <v>0.127927</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115512</v>
+        <v>0.136587</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126439</v>
+        <v>0.131339</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114141</v>
+        <v>0.12698</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11642</v>
+        <v>0.137003</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.128452</v>
+        <v>0.130949</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114466</v>
+        <v>0.128735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116592</v>
+        <v>0.137815</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128705</v>
+        <v>0.131937</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11494</v>
+        <v>0.123892</v>
       </c>
       <c r="D20" t="n">
-        <v>0.118011</v>
+        <v>0.138014</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130851</v>
+        <v>0.133027</v>
       </c>
       <c r="C21" t="n">
-        <v>0.116919</v>
+        <v>0.130923</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119735</v>
+        <v>0.139568</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1343</v>
+        <v>0.137467</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11853</v>
+        <v>0.135611</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125057</v>
+        <v>0.144394</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142427</v>
+        <v>0.146077</v>
       </c>
       <c r="C23" t="n">
-        <v>0.123377</v>
+        <v>0.133766</v>
       </c>
       <c r="D23" t="n">
-        <v>0.121672</v>
+        <v>0.143169</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132846</v>
+        <v>0.13889</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121937</v>
+        <v>0.127779</v>
       </c>
       <c r="D24" t="n">
-        <v>0.122322</v>
+        <v>0.142059</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134355</v>
+        <v>0.134717</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121627</v>
+        <v>0.128313</v>
       </c>
       <c r="D25" t="n">
-        <v>0.122477</v>
+        <v>0.142133</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133998</v>
+        <v>0.13285</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122674</v>
+        <v>0.132028</v>
       </c>
       <c r="D26" t="n">
-        <v>0.122346</v>
+        <v>0.141985</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134091</v>
+        <v>0.132859</v>
       </c>
       <c r="C27" t="n">
-        <v>0.12292</v>
+        <v>0.126619</v>
       </c>
       <c r="D27" t="n">
-        <v>0.122662</v>
+        <v>0.142399</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134236</v>
+        <v>0.133433</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122406</v>
+        <v>0.126646</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122856</v>
+        <v>0.14232</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134417</v>
+        <v>0.133846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122686</v>
+        <v>0.127892</v>
       </c>
       <c r="D29" t="n">
-        <v>0.122895</v>
+        <v>0.142852</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134759</v>
+        <v>0.134821</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122441</v>
+        <v>0.130889</v>
       </c>
       <c r="D30" t="n">
-        <v>0.123145</v>
+        <v>0.14296</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13565</v>
+        <v>0.135106</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122785</v>
+        <v>0.127936</v>
       </c>
       <c r="D31" t="n">
-        <v>0.123586</v>
+        <v>0.14236</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13637</v>
+        <v>0.134834</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123479</v>
+        <v>0.129074</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124197</v>
+        <v>0.144083</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137318</v>
+        <v>0.1363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123643</v>
+        <v>0.13081</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124321</v>
+        <v>0.144786</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139337</v>
+        <v>0.138405</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125498</v>
+        <v>0.130343</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126052</v>
+        <v>0.145358</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143346</v>
+        <v>0.140554</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127798</v>
+        <v>0.138096</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129621</v>
+        <v>0.148897</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148082</v>
+        <v>0.146703</v>
       </c>
       <c r="C36" t="n">
-        <v>0.132045</v>
+        <v>0.139318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136411</v>
+        <v>0.15558</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154117</v>
+        <v>0.153893</v>
       </c>
       <c r="C37" t="n">
-        <v>0.137439</v>
+        <v>0.139489</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132098</v>
+        <v>0.156757</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144019</v>
+        <v>0.145347</v>
       </c>
       <c r="C38" t="n">
-        <v>0.132578</v>
+        <v>0.139757</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13098</v>
+        <v>0.157836</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145699</v>
+        <v>0.144937</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138716</v>
+        <v>0.139089</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134073</v>
+        <v>0.156623</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146072</v>
+        <v>0.14716</v>
       </c>
       <c r="C40" t="n">
-        <v>0.138801</v>
+        <v>0.140988</v>
       </c>
       <c r="D40" t="n">
-        <v>0.132947</v>
+        <v>0.156714</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145227</v>
+        <v>0.147423</v>
       </c>
       <c r="C41" t="n">
-        <v>0.134853</v>
+        <v>0.141468</v>
       </c>
       <c r="D41" t="n">
-        <v>0.135536</v>
+        <v>0.156459</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146559</v>
+        <v>0.146632</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135676</v>
+        <v>0.140525</v>
       </c>
       <c r="D42" t="n">
-        <v>0.136365</v>
+        <v>0.15582</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146483</v>
+        <v>0.145436</v>
       </c>
       <c r="C43" t="n">
-        <v>0.135867</v>
+        <v>0.139824</v>
       </c>
       <c r="D43" t="n">
-        <v>0.135325</v>
+        <v>0.156471</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147726</v>
+        <v>0.149856</v>
       </c>
       <c r="C44" t="n">
-        <v>0.134411</v>
+        <v>0.141512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.136824</v>
+        <v>0.156752</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.14859</v>
+        <v>0.148756</v>
       </c>
       <c r="C45" t="n">
-        <v>0.136585</v>
+        <v>0.140047</v>
       </c>
       <c r="D45" t="n">
-        <v>0.135839</v>
+        <v>0.155709</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.146458</v>
+        <v>0.145938</v>
       </c>
       <c r="C46" t="n">
-        <v>0.138116</v>
+        <v>0.138646</v>
       </c>
       <c r="D46" t="n">
-        <v>0.13763</v>
+        <v>0.157415</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150912</v>
+        <v>0.149099</v>
       </c>
       <c r="C47" t="n">
-        <v>0.139164</v>
+        <v>0.142527</v>
       </c>
       <c r="D47" t="n">
-        <v>0.138559</v>
+        <v>0.159966</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152159</v>
+        <v>0.151129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.138924</v>
+        <v>0.141718</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140971</v>
+        <v>0.163166</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156756</v>
+        <v>0.154833</v>
       </c>
       <c r="C49" t="n">
-        <v>0.144417</v>
+        <v>0.148597</v>
       </c>
       <c r="D49" t="n">
-        <v>0.145313</v>
+        <v>0.16518</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160834</v>
+        <v>0.159149</v>
       </c>
       <c r="C50" t="n">
-        <v>0.146002</v>
+        <v>0.152462</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14961</v>
+        <v>0.170644</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166428</v>
+        <v>0.165319</v>
       </c>
       <c r="C51" t="n">
-        <v>0.153927</v>
+        <v>0.150475</v>
       </c>
       <c r="D51" t="n">
-        <v>0.145549</v>
+        <v>0.169314</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175454</v>
+        <v>0.176354</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155949</v>
+        <v>0.150739</v>
       </c>
       <c r="D52" t="n">
-        <v>0.147751</v>
+        <v>0.169302</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159303</v>
+        <v>0.165991</v>
       </c>
       <c r="C53" t="n">
-        <v>0.143198</v>
+        <v>0.153167</v>
       </c>
       <c r="D53" t="n">
-        <v>0.147584</v>
+        <v>0.170213</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160195</v>
+        <v>0.164341</v>
       </c>
       <c r="C54" t="n">
-        <v>0.143581</v>
+        <v>0.152097</v>
       </c>
       <c r="D54" t="n">
-        <v>0.148776</v>
+        <v>0.170631</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159941</v>
+        <v>0.168229</v>
       </c>
       <c r="C55" t="n">
-        <v>0.144179</v>
+        <v>0.154046</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148561</v>
+        <v>0.171429</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161634</v>
+        <v>0.167393</v>
       </c>
       <c r="C56" t="n">
-        <v>0.144054</v>
+        <v>0.15454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.148698</v>
+        <v>0.170858</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161559</v>
+        <v>0.167392</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144917</v>
+        <v>0.1551</v>
       </c>
       <c r="D57" t="n">
-        <v>0.149136</v>
+        <v>0.17114</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161515</v>
+        <v>0.169922</v>
       </c>
       <c r="C58" t="n">
-        <v>0.144584</v>
+        <v>0.156753</v>
       </c>
       <c r="D58" t="n">
-        <v>0.149464</v>
+        <v>0.171376</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.16296</v>
+        <v>0.169987</v>
       </c>
       <c r="C59" t="n">
-        <v>0.146592</v>
+        <v>0.155316</v>
       </c>
       <c r="D59" t="n">
-        <v>0.149218</v>
+        <v>0.172586</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163799</v>
+        <v>0.165767</v>
       </c>
       <c r="C60" t="n">
-        <v>0.147765</v>
+        <v>0.154873</v>
       </c>
       <c r="D60" t="n">
-        <v>0.150697</v>
+        <v>0.174482</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165942</v>
+        <v>0.168489</v>
       </c>
       <c r="C61" t="n">
-        <v>0.149138</v>
+        <v>0.156682</v>
       </c>
       <c r="D61" t="n">
-        <v>0.152317</v>
+        <v>0.177182</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168133</v>
+        <v>0.176736</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15004</v>
+        <v>0.15746</v>
       </c>
       <c r="D62" t="n">
-        <v>0.154415</v>
+        <v>0.178909</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171092</v>
+        <v>0.176246</v>
       </c>
       <c r="C63" t="n">
-        <v>0.15212</v>
+        <v>0.16322</v>
       </c>
       <c r="D63" t="n">
-        <v>0.157329</v>
+        <v>0.182719</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176051</v>
+        <v>0.179589</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155687</v>
+        <v>0.166547</v>
       </c>
       <c r="D64" t="n">
-        <v>0.161383</v>
+        <v>0.187347</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180179</v>
+        <v>0.189297</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159695</v>
+        <v>0.175182</v>
       </c>
       <c r="D65" t="n">
-        <v>0.167922</v>
+        <v>0.193768</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188375</v>
+        <v>0.195922</v>
       </c>
       <c r="C66" t="n">
-        <v>0.165667</v>
+        <v>0.171308</v>
       </c>
       <c r="D66" t="n">
-        <v>0.158335</v>
+        <v>0.184951</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.177513</v>
+        <v>0.200107</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158278</v>
+        <v>0.168594</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158742</v>
+        <v>0.193705</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.176741</v>
+        <v>0.21169</v>
       </c>
       <c r="C68" t="n">
-        <v>0.160715</v>
+        <v>0.183182</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159526</v>
+        <v>0.190062</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.182466</v>
+        <v>0.231407</v>
       </c>
       <c r="C69" t="n">
-        <v>0.162154</v>
+        <v>0.175198</v>
       </c>
       <c r="D69" t="n">
-        <v>0.159437</v>
+        <v>0.195905</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183277</v>
+        <v>0.214724</v>
       </c>
       <c r="C70" t="n">
-        <v>0.158636</v>
+        <v>0.178686</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158774</v>
+        <v>0.193239</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.177919</v>
+        <v>0.233509</v>
       </c>
       <c r="C71" t="n">
-        <v>0.160639</v>
+        <v>0.185943</v>
       </c>
       <c r="D71" t="n">
-        <v>0.158912</v>
+        <v>0.197362</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.178334</v>
+        <v>0.219941</v>
       </c>
       <c r="C72" t="n">
-        <v>0.16312</v>
+        <v>0.174948</v>
       </c>
       <c r="D72" t="n">
-        <v>0.159966</v>
+        <v>0.195636</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180284</v>
+        <v>0.228619</v>
       </c>
       <c r="C73" t="n">
-        <v>0.162815</v>
+        <v>0.174129</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161149</v>
+        <v>0.194118</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181846</v>
+        <v>0.219088</v>
       </c>
       <c r="C74" t="n">
-        <v>0.163182</v>
+        <v>0.173648</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161435</v>
+        <v>0.195497</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.185309</v>
+        <v>0.220912</v>
       </c>
       <c r="C75" t="n">
-        <v>0.164792</v>
+        <v>0.176474</v>
       </c>
       <c r="D75" t="n">
-        <v>0.163368</v>
+        <v>0.19599</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18825</v>
+        <v>0.219044</v>
       </c>
       <c r="C76" t="n">
-        <v>0.166608</v>
+        <v>0.175201</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164841</v>
+        <v>0.192279</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188027</v>
+        <v>0.212048</v>
       </c>
       <c r="C77" t="n">
-        <v>0.167693</v>
+        <v>0.17658</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167215</v>
+        <v>0.197072</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.196093</v>
+        <v>0.222365</v>
       </c>
       <c r="C78" t="n">
-        <v>0.168925</v>
+        <v>0.180465</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170546</v>
+        <v>0.200038</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.195872</v>
+        <v>0.234331</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173633</v>
+        <v>0.184182</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175861</v>
+        <v>0.200967</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206339</v>
+        <v>0.211726</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179954</v>
+        <v>0.23374</v>
       </c>
       <c r="D80" t="n">
-        <v>0.23791</v>
+        <v>0.257776</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.34323</v>
+        <v>0.336991</v>
       </c>
       <c r="C81" t="n">
-        <v>0.291965</v>
+        <v>0.242127</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234764</v>
+        <v>0.241155</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341661</v>
+        <v>0.339471</v>
       </c>
       <c r="C82" t="n">
-        <v>0.287767</v>
+        <v>0.240357</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236735</v>
+        <v>0.260595</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34517</v>
+        <v>0.336233</v>
       </c>
       <c r="C83" t="n">
-        <v>0.284441</v>
+        <v>0.241844</v>
       </c>
       <c r="D83" t="n">
-        <v>0.238023</v>
+        <v>0.263431</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3442</v>
+        <v>0.338702</v>
       </c>
       <c r="C84" t="n">
-        <v>0.287866</v>
+        <v>0.240318</v>
       </c>
       <c r="D84" t="n">
-        <v>0.238084</v>
+        <v>0.263598</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343812</v>
+        <v>0.339017</v>
       </c>
       <c r="C85" t="n">
-        <v>0.287515</v>
+        <v>0.226031</v>
       </c>
       <c r="D85" t="n">
-        <v>0.237527</v>
+        <v>0.238411</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.346505</v>
+        <v>0.342268</v>
       </c>
       <c r="C86" t="n">
-        <v>0.286218</v>
+        <v>0.222375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.237787</v>
+        <v>0.264842</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347734</v>
+        <v>0.341237</v>
       </c>
       <c r="C87" t="n">
-        <v>0.283883</v>
+        <v>0.237314</v>
       </c>
       <c r="D87" t="n">
-        <v>0.237423</v>
+        <v>0.260835</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.349842</v>
+        <v>0.338036</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283234</v>
+        <v>0.239847</v>
       </c>
       <c r="D88" t="n">
-        <v>0.236734</v>
+        <v>0.260167</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.349943</v>
+        <v>0.338514</v>
       </c>
       <c r="C89" t="n">
-        <v>0.280627</v>
+        <v>0.234366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.234155</v>
+        <v>0.25633</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35211</v>
+        <v>0.342046</v>
       </c>
       <c r="C90" t="n">
-        <v>0.284601</v>
+        <v>0.216536</v>
       </c>
       <c r="D90" t="n">
-        <v>0.236222</v>
+        <v>0.255447</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353259</v>
+        <v>0.343297</v>
       </c>
       <c r="C91" t="n">
-        <v>0.282267</v>
+        <v>0.239364</v>
       </c>
       <c r="D91" t="n">
-        <v>0.235439</v>
+        <v>0.256085</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353437</v>
+        <v>0.347261</v>
       </c>
       <c r="C92" t="n">
-        <v>0.285419</v>
+        <v>0.236609</v>
       </c>
       <c r="D92" t="n">
-        <v>0.237178</v>
+        <v>0.258648</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360429</v>
+        <v>0.351226</v>
       </c>
       <c r="C93" t="n">
-        <v>0.282933</v>
+        <v>0.245699</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242994</v>
+        <v>0.259527</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362437</v>
+        <v>0.357616</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288294</v>
+        <v>0.401687</v>
       </c>
       <c r="D94" t="n">
-        <v>0.397466</v>
+        <v>0.463291</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.501646</v>
+        <v>0.50398</v>
       </c>
       <c r="C95" t="n">
-        <v>0.45527</v>
+        <v>0.399963</v>
       </c>
       <c r="D95" t="n">
-        <v>0.396617</v>
+        <v>0.44676</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.502861</v>
+        <v>0.50523</v>
       </c>
       <c r="C96" t="n">
-        <v>0.455984</v>
+        <v>0.401272</v>
       </c>
       <c r="D96" t="n">
-        <v>0.396368</v>
+        <v>0.462405</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.502146</v>
+        <v>0.504775</v>
       </c>
       <c r="C97" t="n">
-        <v>0.45464</v>
+        <v>0.401773</v>
       </c>
       <c r="D97" t="n">
-        <v>0.395437</v>
+        <v>0.464895</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502196</v>
+        <v>0.506031</v>
       </c>
       <c r="C98" t="n">
-        <v>0.453993</v>
+        <v>0.39083</v>
       </c>
       <c r="D98" t="n">
-        <v>0.388029</v>
+        <v>0.446268</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.502857</v>
+        <v>0.5073839999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.443678</v>
+        <v>0.400471</v>
       </c>
       <c r="D99" t="n">
-        <v>0.387459</v>
+        <v>0.463422</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503105</v>
+        <v>0.50579</v>
       </c>
       <c r="C100" t="n">
-        <v>0.453267</v>
+        <v>0.393384</v>
       </c>
       <c r="D100" t="n">
-        <v>0.395606</v>
+        <v>0.446018</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.503707</v>
+        <v>0.506676</v>
       </c>
       <c r="C101" t="n">
-        <v>0.453205</v>
+        <v>0.401123</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396248</v>
+        <v>0.460059</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.504939</v>
+        <v>0.507746</v>
       </c>
       <c r="C102" t="n">
-        <v>0.442429</v>
+        <v>0.399882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.396105</v>
+        <v>0.460099</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506286</v>
+        <v>0.5099900000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.444099</v>
+        <v>0.401181</v>
       </c>
       <c r="D103" t="n">
-        <v>0.396642</v>
+        <v>0.459824</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.508014</v>
+        <v>0.5109939999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.453818</v>
+        <v>0.393319</v>
       </c>
       <c r="D104" t="n">
-        <v>0.38822</v>
+        <v>0.445328</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.51074</v>
+        <v>0.513256</v>
       </c>
       <c r="C105" t="n">
-        <v>0.456517</v>
+        <v>0.398092</v>
       </c>
       <c r="D105" t="n">
-        <v>0.400599</v>
+        <v>0.448139</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.514471</v>
+        <v>0.517289</v>
       </c>
       <c r="C106" t="n">
-        <v>0.448755</v>
+        <v>0.405931</v>
       </c>
       <c r="D106" t="n">
-        <v>0.393327</v>
+        <v>0.46456</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519313</v>
+        <v>0.523259</v>
       </c>
       <c r="C107" t="n">
-        <v>0.461216</v>
+        <v>0.409187</v>
       </c>
       <c r="D107" t="n">
-        <v>0.406449</v>
+        <v>0.466933</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526997</v>
+        <v>0.52871</v>
       </c>
       <c r="C108" t="n">
-        <v>0.456775</v>
+        <v>0.537922</v>
       </c>
       <c r="D108" t="n">
-        <v>0.527562</v>
+        <v>0.630435</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.535873</v>
+        <v>0.539972</v>
       </c>
       <c r="C109" t="n">
-        <v>0.473637</v>
+        <v>0.534046</v>
       </c>
       <c r="D109" t="n">
-        <v>0.533717</v>
+        <v>0.641463</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585208</v>
+        <v>0.588432</v>
       </c>
       <c r="C110" t="n">
-        <v>0.56141</v>
+        <v>0.537398</v>
       </c>
       <c r="D110" t="n">
-        <v>0.535657</v>
+        <v>0.631896</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.588116</v>
+        <v>0.588641</v>
       </c>
       <c r="C111" t="n">
-        <v>0.563991</v>
+        <v>0.535252</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5344410000000001</v>
+        <v>0.64403</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.585931</v>
+        <v>0.590483</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5595830000000001</v>
+        <v>0.5366300000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.534612</v>
+        <v>0.644191</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.588452</v>
+        <v>0.591337</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565963</v>
+        <v>0.541529</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5368270000000001</v>
+        <v>0.646356</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.590363</v>
+        <v>0.590736</v>
       </c>
       <c r="C114" t="n">
-        <v>0.565327</v>
+        <v>0.539575</v>
       </c>
       <c r="D114" t="n">
-        <v>0.535508</v>
+        <v>0.636452</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5880609999999999</v>
+        <v>0.595061</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5687</v>
+        <v>0.540982</v>
       </c>
       <c r="D115" t="n">
-        <v>0.536776</v>
+        <v>0.648607</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.590101</v>
+        <v>0.592407</v>
       </c>
       <c r="C116" t="n">
-        <v>0.56675</v>
+        <v>0.543802</v>
       </c>
       <c r="D116" t="n">
-        <v>0.532204</v>
+        <v>0.648269</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.593868</v>
+        <v>0.593835</v>
       </c>
       <c r="C117" t="n">
-        <v>0.568317</v>
+        <v>0.542829</v>
       </c>
       <c r="D117" t="n">
-        <v>0.540768</v>
+        <v>0.638363</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.594944</v>
+        <v>0.599893</v>
       </c>
       <c r="C118" t="n">
-        <v>0.566111</v>
+        <v>0.545314</v>
       </c>
       <c r="D118" t="n">
-        <v>0.543095</v>
+        <v>0.6492289999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.597174</v>
+        <v>0.603707</v>
       </c>
       <c r="C119" t="n">
-        <v>0.572993</v>
+        <v>0.551096</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545304</v>
+        <v>0.653235</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6037130000000001</v>
+        <v>0.607934</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5768450000000001</v>
+        <v>0.55199</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5491239999999999</v>
+        <v>0.6455149999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.60988</v>
+        <v>0.61527</v>
       </c>
       <c r="C121" t="n">
-        <v>0.581267</v>
+        <v>0.559424</v>
       </c>
       <c r="D121" t="n">
-        <v>0.551751</v>
+        <v>0.6485</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.618528</v>
+        <v>0.622443</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5863</v>
+        <v>0.565866</v>
       </c>
       <c r="D122" t="n">
-        <v>0.554816</v>
+        <v>0.6547230000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628461</v>
+        <v>0.635907</v>
       </c>
       <c r="C123" t="n">
-        <v>0.593981</v>
+        <v>0.709193</v>
       </c>
       <c r="D123" t="n">
-        <v>0.696323</v>
+        <v>0.798046</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.729162</v>
+        <v>0.743381</v>
       </c>
       <c r="C124" t="n">
-        <v>0.687674</v>
+        <v>0.714442</v>
       </c>
       <c r="D124" t="n">
-        <v>0.695404</v>
+        <v>0.801275</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.733324</v>
+        <v>0.740787</v>
       </c>
       <c r="C125" t="n">
-        <v>0.693412</v>
+        <v>0.712652</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6933319999999999</v>
+        <v>0.795563</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.733295</v>
+        <v>0.7522450000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.69572</v>
+        <v>0.71892</v>
       </c>
       <c r="D126" t="n">
-        <v>0.698753</v>
+        <v>0.803872</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.73444</v>
+        <v>0.743501</v>
       </c>
       <c r="C127" t="n">
-        <v>0.697316</v>
+        <v>0.717932</v>
       </c>
       <c r="D127" t="n">
-        <v>0.697877</v>
+        <v>0.801072</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.733021</v>
+        <v>0.74626</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698479</v>
+        <v>0.714589</v>
       </c>
       <c r="D128" t="n">
-        <v>0.697393</v>
+        <v>0.804858</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.737049</v>
+        <v>0.7442569999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6956560000000001</v>
+        <v>0.715048</v>
       </c>
       <c r="D129" t="n">
-        <v>0.697506</v>
+        <v>0.8062319999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.738148</v>
+        <v>0.748771</v>
       </c>
       <c r="C130" t="n">
-        <v>0.699339</v>
+        <v>0.71885</v>
       </c>
       <c r="D130" t="n">
-        <v>0.700186</v>
+        <v>0.8078920000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.742072</v>
+        <v>0.750943</v>
       </c>
       <c r="C131" t="n">
-        <v>0.701288</v>
+        <v>0.716885</v>
       </c>
       <c r="D131" t="n">
-        <v>0.698838</v>
+        <v>0.805615</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.742354</v>
+        <v>0.7518899999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.707436</v>
+        <v>0.722446</v>
       </c>
       <c r="D132" t="n">
-        <v>0.705091</v>
+        <v>0.806518</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.746512</v>
+        <v>0.755414</v>
       </c>
       <c r="C133" t="n">
-        <v>0.709019</v>
+        <v>0.724288</v>
       </c>
       <c r="D133" t="n">
-        <v>0.710747</v>
+        <v>0.811899</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.751152</v>
+        <v>0.759178</v>
       </c>
       <c r="C134" t="n">
-        <v>0.713046</v>
+        <v>0.727448</v>
       </c>
       <c r="D134" t="n">
-        <v>0.710941</v>
+        <v>0.816481</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.757596</v>
+        <v>0.770356</v>
       </c>
       <c r="C135" t="n">
-        <v>0.717087</v>
+        <v>0.729982</v>
       </c>
       <c r="D135" t="n">
-        <v>0.718403</v>
+        <v>0.820819</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.766313</v>
+        <v>0.774853</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7209140000000001</v>
+        <v>0.738527</v>
       </c>
       <c r="D136" t="n">
-        <v>0.72521</v>
+        <v>0.828269</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.77905</v>
+        <v>0.7899080000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.733061</v>
+        <v>0.844751</v>
       </c>
       <c r="D137" t="n">
-        <v>0.834238</v>
+        <v>0.9008890000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.862986</v>
+        <v>0.866672</v>
       </c>
       <c r="C138" t="n">
-        <v>0.815928</v>
+        <v>0.845291</v>
       </c>
       <c r="D138" t="n">
-        <v>0.835195</v>
+        <v>0.899764</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.863093</v>
+        <v>0.86834</v>
       </c>
       <c r="C139" t="n">
-        <v>0.817542</v>
+        <v>0.844064</v>
       </c>
       <c r="D139" t="n">
-        <v>0.835875</v>
+        <v>0.9000050000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864072</v>
+        <v>0.870384</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821391</v>
+        <v>0.845009</v>
       </c>
       <c r="D140" t="n">
-        <v>0.835517</v>
+        <v>0.902884</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865104</v>
+        <v>0.870445</v>
       </c>
       <c r="C141" t="n">
-        <v>0.822156</v>
+        <v>0.842655</v>
       </c>
       <c r="D141" t="n">
-        <v>0.83751</v>
+        <v>0.903356</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865681</v>
+        <v>0.872532</v>
       </c>
       <c r="C142" t="n">
-        <v>0.821236</v>
+        <v>0.847267</v>
       </c>
       <c r="D142" t="n">
-        <v>0.837571</v>
+        <v>0.90396</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.861285</v>
+        <v>0.873844</v>
       </c>
       <c r="C143" t="n">
-        <v>0.81609</v>
+        <v>0.84892</v>
       </c>
       <c r="D143" t="n">
-        <v>0.831063</v>
+        <v>0.906343</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.137835</v>
+        <v>0.116291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.123145</v>
+        <v>0.111959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.133832</v>
+        <v>0.125487</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.131851</v>
+        <v>0.115278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.119616</v>
+        <v>0.111501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132436</v>
+        <v>0.124977</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.129029</v>
+        <v>0.114712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.129343</v>
+        <v>0.112187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.133194</v>
+        <v>0.124859</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.129167</v>
+        <v>0.113078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127386</v>
+        <v>0.111356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.134248</v>
+        <v>0.124677</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.129395</v>
+        <v>0.114372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.122864</v>
+        <v>0.111527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.133617</v>
+        <v>0.125176</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.13012</v>
+        <v>0.115908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12785</v>
+        <v>0.112692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.133711</v>
+        <v>0.126265</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128642</v>
+        <v>0.119434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130518</v>
+        <v>0.115543</v>
       </c>
       <c r="D8" t="n">
-        <v>0.137791</v>
+        <v>0.129299</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.135445</v>
+        <v>0.12339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.124591</v>
+        <v>0.116514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.138014</v>
+        <v>0.129905</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.134888</v>
+        <v>0.121732</v>
       </c>
       <c r="C10" t="n">
-        <v>0.126777</v>
+        <v>0.116493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.137633</v>
+        <v>0.130033</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.129105</v>
+        <v>0.122143</v>
       </c>
       <c r="C11" t="n">
-        <v>0.128441</v>
+        <v>0.116935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.138387</v>
+        <v>0.130276</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130774</v>
+        <v>0.122381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.126294</v>
+        <v>0.116725</v>
       </c>
       <c r="D12" t="n">
-        <v>0.136582</v>
+        <v>0.130101</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130407</v>
+        <v>0.122681</v>
       </c>
       <c r="C13" t="n">
-        <v>0.130309</v>
+        <v>0.117725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.135961</v>
+        <v>0.131462</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.130493</v>
+        <v>0.123019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.12875</v>
+        <v>0.116936</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136342</v>
+        <v>0.130718</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128775</v>
+        <v>0.123392</v>
       </c>
       <c r="C15" t="n">
-        <v>0.127218</v>
+        <v>0.117512</v>
       </c>
       <c r="D15" t="n">
-        <v>0.135872</v>
+        <v>0.130419</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127596</v>
+        <v>0.123798</v>
       </c>
       <c r="C16" t="n">
-        <v>0.128642</v>
+        <v>0.117778</v>
       </c>
       <c r="D16" t="n">
-        <v>0.135804</v>
+        <v>0.130813</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130857</v>
+        <v>0.124428</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127927</v>
+        <v>0.117682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.136587</v>
+        <v>0.131439</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131339</v>
+        <v>0.124725</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12698</v>
+        <v>0.1184</v>
       </c>
       <c r="D18" t="n">
-        <v>0.137003</v>
+        <v>0.131635</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130949</v>
+        <v>0.125432</v>
       </c>
       <c r="C19" t="n">
-        <v>0.128735</v>
+        <v>0.118037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.137815</v>
+        <v>0.132153</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.131937</v>
+        <v>0.126465</v>
       </c>
       <c r="C20" t="n">
-        <v>0.123892</v>
+        <v>0.119018</v>
       </c>
       <c r="D20" t="n">
-        <v>0.138014</v>
+        <v>0.132944</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.133027</v>
+        <v>0.128692</v>
       </c>
       <c r="C21" t="n">
-        <v>0.130923</v>
+        <v>0.120429</v>
       </c>
       <c r="D21" t="n">
-        <v>0.139568</v>
+        <v>0.134796</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.137467</v>
+        <v>0.132669</v>
       </c>
       <c r="C22" t="n">
-        <v>0.135611</v>
+        <v>0.123931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.144394</v>
+        <v>0.138241</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.146077</v>
+        <v>0.140419</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133766</v>
+        <v>0.127414</v>
       </c>
       <c r="D23" t="n">
-        <v>0.143169</v>
+        <v>0.141579</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13889</v>
+        <v>0.134943</v>
       </c>
       <c r="C24" t="n">
-        <v>0.127779</v>
+        <v>0.128123</v>
       </c>
       <c r="D24" t="n">
-        <v>0.142059</v>
+        <v>0.142731</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134717</v>
+        <v>0.138559</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128313</v>
+        <v>0.128864</v>
       </c>
       <c r="D25" t="n">
-        <v>0.142133</v>
+        <v>0.142359</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13285</v>
+        <v>0.134471</v>
       </c>
       <c r="C26" t="n">
-        <v>0.132028</v>
+        <v>0.127912</v>
       </c>
       <c r="D26" t="n">
-        <v>0.141985</v>
+        <v>0.142253</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.132859</v>
+        <v>0.136897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.126619</v>
+        <v>0.129866</v>
       </c>
       <c r="D27" t="n">
-        <v>0.142399</v>
+        <v>0.142892</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133433</v>
+        <v>0.135205</v>
       </c>
       <c r="C28" t="n">
-        <v>0.126646</v>
+        <v>0.127669</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14232</v>
+        <v>0.142126</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.133846</v>
+        <v>0.138199</v>
       </c>
       <c r="C29" t="n">
-        <v>0.127892</v>
+        <v>0.128571</v>
       </c>
       <c r="D29" t="n">
-        <v>0.142852</v>
+        <v>0.142071</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134821</v>
+        <v>0.134762</v>
       </c>
       <c r="C30" t="n">
-        <v>0.130889</v>
+        <v>0.128192</v>
       </c>
       <c r="D30" t="n">
-        <v>0.14296</v>
+        <v>0.142546</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135106</v>
+        <v>0.135955</v>
       </c>
       <c r="C31" t="n">
-        <v>0.127936</v>
+        <v>0.129261</v>
       </c>
       <c r="D31" t="n">
-        <v>0.14236</v>
+        <v>0.142715</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.134834</v>
+        <v>0.13749</v>
       </c>
       <c r="C32" t="n">
-        <v>0.129074</v>
+        <v>0.128458</v>
       </c>
       <c r="D32" t="n">
-        <v>0.144083</v>
+        <v>0.143331</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1363</v>
+        <v>0.137638</v>
       </c>
       <c r="C33" t="n">
-        <v>0.13081</v>
+        <v>0.128969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.144786</v>
+        <v>0.143707</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138405</v>
+        <v>0.140391</v>
       </c>
       <c r="C34" t="n">
-        <v>0.130343</v>
+        <v>0.130241</v>
       </c>
       <c r="D34" t="n">
-        <v>0.145358</v>
+        <v>0.146148</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140554</v>
+        <v>0.14212</v>
       </c>
       <c r="C35" t="n">
-        <v>0.138096</v>
+        <v>0.13352</v>
       </c>
       <c r="D35" t="n">
-        <v>0.148897</v>
+        <v>0.148162</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146703</v>
+        <v>0.146724</v>
       </c>
       <c r="C36" t="n">
-        <v>0.139318</v>
+        <v>0.139651</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15558</v>
+        <v>0.155158</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.153893</v>
+        <v>0.154855</v>
       </c>
       <c r="C37" t="n">
-        <v>0.139489</v>
+        <v>0.139038</v>
       </c>
       <c r="D37" t="n">
-        <v>0.156757</v>
+        <v>0.15398</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145347</v>
+        <v>0.144254</v>
       </c>
       <c r="C38" t="n">
-        <v>0.139757</v>
+        <v>0.139634</v>
       </c>
       <c r="D38" t="n">
-        <v>0.157836</v>
+        <v>0.154885</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.144937</v>
+        <v>0.146283</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139089</v>
+        <v>0.14021</v>
       </c>
       <c r="D39" t="n">
-        <v>0.156623</v>
+        <v>0.154658</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14716</v>
+        <v>0.144668</v>
       </c>
       <c r="C40" t="n">
-        <v>0.140988</v>
+        <v>0.137001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.156714</v>
+        <v>0.157266</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147423</v>
+        <v>0.147848</v>
       </c>
       <c r="C41" t="n">
-        <v>0.141468</v>
+        <v>0.137961</v>
       </c>
       <c r="D41" t="n">
-        <v>0.156459</v>
+        <v>0.156736</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146632</v>
+        <v>0.146574</v>
       </c>
       <c r="C42" t="n">
-        <v>0.140525</v>
+        <v>0.139526</v>
       </c>
       <c r="D42" t="n">
-        <v>0.15582</v>
+        <v>0.155577</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.145436</v>
+        <v>0.144692</v>
       </c>
       <c r="C43" t="n">
-        <v>0.139824</v>
+        <v>0.138009</v>
       </c>
       <c r="D43" t="n">
-        <v>0.156471</v>
+        <v>0.155883</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149856</v>
+        <v>0.150079</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141512</v>
+        <v>0.13851</v>
       </c>
       <c r="D44" t="n">
-        <v>0.156752</v>
+        <v>0.156932</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148756</v>
+        <v>0.1489</v>
       </c>
       <c r="C45" t="n">
-        <v>0.140047</v>
+        <v>0.142491</v>
       </c>
       <c r="D45" t="n">
-        <v>0.155709</v>
+        <v>0.159325</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.145938</v>
+        <v>0.151567</v>
       </c>
       <c r="C46" t="n">
-        <v>0.138646</v>
+        <v>0.141001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.157415</v>
+        <v>0.157588</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149099</v>
+        <v>0.150275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142527</v>
+        <v>0.143068</v>
       </c>
       <c r="D47" t="n">
-        <v>0.159966</v>
+        <v>0.157766</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151129</v>
+        <v>0.153739</v>
       </c>
       <c r="C48" t="n">
-        <v>0.141718</v>
+        <v>0.14368</v>
       </c>
       <c r="D48" t="n">
-        <v>0.163166</v>
+        <v>0.160478</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.154833</v>
+        <v>0.157251</v>
       </c>
       <c r="C49" t="n">
-        <v>0.148597</v>
+        <v>0.148823</v>
       </c>
       <c r="D49" t="n">
-        <v>0.16518</v>
+        <v>0.165563</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.159149</v>
+        <v>0.160857</v>
       </c>
       <c r="C50" t="n">
-        <v>0.152462</v>
+        <v>0.153133</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170644</v>
+        <v>0.17097</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.165319</v>
+        <v>0.168373</v>
       </c>
       <c r="C51" t="n">
-        <v>0.150475</v>
+        <v>0.152057</v>
       </c>
       <c r="D51" t="n">
-        <v>0.169314</v>
+        <v>0.167629</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176354</v>
+        <v>0.176976</v>
       </c>
       <c r="C52" t="n">
-        <v>0.150739</v>
+        <v>0.149891</v>
       </c>
       <c r="D52" t="n">
-        <v>0.169302</v>
+        <v>0.167267</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.165991</v>
+        <v>0.166512</v>
       </c>
       <c r="C53" t="n">
-        <v>0.153167</v>
+        <v>0.151005</v>
       </c>
       <c r="D53" t="n">
-        <v>0.170213</v>
+        <v>0.167794</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.164341</v>
+        <v>0.161614</v>
       </c>
       <c r="C54" t="n">
-        <v>0.152097</v>
+        <v>0.150585</v>
       </c>
       <c r="D54" t="n">
-        <v>0.170631</v>
+        <v>0.166961</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168229</v>
+        <v>0.163203</v>
       </c>
       <c r="C55" t="n">
-        <v>0.154046</v>
+        <v>0.151741</v>
       </c>
       <c r="D55" t="n">
-        <v>0.171429</v>
+        <v>0.167402</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.167393</v>
+        <v>0.162204</v>
       </c>
       <c r="C56" t="n">
-        <v>0.15454</v>
+        <v>0.150794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.170858</v>
+        <v>0.168614</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.167392</v>
+        <v>0.162062</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1551</v>
+        <v>0.151522</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17114</v>
+        <v>0.170522</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.169922</v>
+        <v>0.163147</v>
       </c>
       <c r="C58" t="n">
-        <v>0.156753</v>
+        <v>0.153244</v>
       </c>
       <c r="D58" t="n">
-        <v>0.171376</v>
+        <v>0.171844</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.169987</v>
+        <v>0.165418</v>
       </c>
       <c r="C59" t="n">
-        <v>0.155316</v>
+        <v>0.15004</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172586</v>
+        <v>0.171716</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.165767</v>
+        <v>0.163847</v>
       </c>
       <c r="C60" t="n">
-        <v>0.154873</v>
+        <v>0.15316</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174482</v>
+        <v>0.173375</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.168489</v>
+        <v>0.165211</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156682</v>
+        <v>0.153621</v>
       </c>
       <c r="D61" t="n">
-        <v>0.177182</v>
+        <v>0.173479</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.176736</v>
+        <v>0.171782</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15746</v>
+        <v>0.15807</v>
       </c>
       <c r="D62" t="n">
-        <v>0.178909</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176246</v>
+        <v>0.172034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16322</v>
+        <v>0.16122</v>
       </c>
       <c r="D63" t="n">
-        <v>0.182719</v>
+        <v>0.179197</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.179589</v>
+        <v>0.174021</v>
       </c>
       <c r="C64" t="n">
-        <v>0.166547</v>
+        <v>0.164258</v>
       </c>
       <c r="D64" t="n">
-        <v>0.187347</v>
+        <v>0.184125</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189297</v>
+        <v>0.180411</v>
       </c>
       <c r="C65" t="n">
-        <v>0.175182</v>
+        <v>0.170981</v>
       </c>
       <c r="D65" t="n">
-        <v>0.193768</v>
+        <v>0.188903</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.195922</v>
+        <v>0.188702</v>
       </c>
       <c r="C66" t="n">
-        <v>0.171308</v>
+        <v>0.165514</v>
       </c>
       <c r="D66" t="n">
-        <v>0.184951</v>
+        <v>0.184539</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.200107</v>
+        <v>0.186954</v>
       </c>
       <c r="C67" t="n">
-        <v>0.168594</v>
+        <v>0.170152</v>
       </c>
       <c r="D67" t="n">
-        <v>0.193705</v>
+        <v>0.180428</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.21169</v>
+        <v>0.196747</v>
       </c>
       <c r="C68" t="n">
-        <v>0.183182</v>
+        <v>0.166766</v>
       </c>
       <c r="D68" t="n">
-        <v>0.190062</v>
+        <v>0.183802</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231407</v>
+        <v>0.186912</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175198</v>
+        <v>0.168642</v>
       </c>
       <c r="D69" t="n">
-        <v>0.195905</v>
+        <v>0.182361</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.214724</v>
+        <v>0.203442</v>
       </c>
       <c r="C70" t="n">
-        <v>0.178686</v>
+        <v>0.17081</v>
       </c>
       <c r="D70" t="n">
-        <v>0.193239</v>
+        <v>0.185171</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.233509</v>
+        <v>0.189429</v>
       </c>
       <c r="C71" t="n">
-        <v>0.185943</v>
+        <v>0.168611</v>
       </c>
       <c r="D71" t="n">
-        <v>0.197362</v>
+        <v>0.184135</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219941</v>
+        <v>0.199227</v>
       </c>
       <c r="C72" t="n">
-        <v>0.174948</v>
+        <v>0.168659</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195636</v>
+        <v>0.185132</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.228619</v>
+        <v>0.189895</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174129</v>
+        <v>0.170356</v>
       </c>
       <c r="D73" t="n">
-        <v>0.194118</v>
+        <v>0.187055</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.219088</v>
+        <v>0.197196</v>
       </c>
       <c r="C74" t="n">
-        <v>0.173648</v>
+        <v>0.168778</v>
       </c>
       <c r="D74" t="n">
-        <v>0.195497</v>
+        <v>0.18862</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.220912</v>
+        <v>0.199786</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176474</v>
+        <v>0.173259</v>
       </c>
       <c r="D75" t="n">
-        <v>0.19599</v>
+        <v>0.187582</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.219044</v>
+        <v>0.20508</v>
       </c>
       <c r="C76" t="n">
-        <v>0.175201</v>
+        <v>0.172509</v>
       </c>
       <c r="D76" t="n">
-        <v>0.192279</v>
+        <v>0.190375</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.212048</v>
+        <v>0.198899</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17658</v>
+        <v>0.172456</v>
       </c>
       <c r="D77" t="n">
-        <v>0.197072</v>
+        <v>0.191411</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.222365</v>
+        <v>0.206866</v>
       </c>
       <c r="C78" t="n">
-        <v>0.180465</v>
+        <v>0.176262</v>
       </c>
       <c r="D78" t="n">
-        <v>0.200038</v>
+        <v>0.19441</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234331</v>
+        <v>0.208105</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184182</v>
+        <v>0.183499</v>
       </c>
       <c r="D79" t="n">
-        <v>0.200967</v>
+        <v>0.200147</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.211726</v>
+        <v>0.217633</v>
       </c>
       <c r="C80" t="n">
-        <v>0.23374</v>
+        <v>0.215433</v>
       </c>
       <c r="D80" t="n">
-        <v>0.257776</v>
+        <v>0.239767</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.336991</v>
+        <v>0.341008</v>
       </c>
       <c r="C81" t="n">
-        <v>0.242127</v>
+        <v>0.22293</v>
       </c>
       <c r="D81" t="n">
-        <v>0.241155</v>
+        <v>0.240863</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.339471</v>
+        <v>0.340767</v>
       </c>
       <c r="C82" t="n">
-        <v>0.240357</v>
+        <v>0.239414</v>
       </c>
       <c r="D82" t="n">
-        <v>0.260595</v>
+        <v>0.263751</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336233</v>
+        <v>0.339775</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241844</v>
+        <v>0.225954</v>
       </c>
       <c r="D83" t="n">
-        <v>0.263431</v>
+        <v>0.241615</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338702</v>
+        <v>0.347887</v>
       </c>
       <c r="C84" t="n">
-        <v>0.240318</v>
+        <v>0.224478</v>
       </c>
       <c r="D84" t="n">
-        <v>0.263598</v>
+        <v>0.243827</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.339017</v>
+        <v>0.343491</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226031</v>
+        <v>0.223643</v>
       </c>
       <c r="D85" t="n">
-        <v>0.238411</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.342268</v>
+        <v>0.346831</v>
       </c>
       <c r="C86" t="n">
-        <v>0.222375</v>
+        <v>0.237027</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264842</v>
+        <v>0.261287</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.341237</v>
+        <v>0.348964</v>
       </c>
       <c r="C87" t="n">
-        <v>0.237314</v>
+        <v>0.23823</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260835</v>
+        <v>0.261968</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.338036</v>
+        <v>0.348646</v>
       </c>
       <c r="C88" t="n">
-        <v>0.239847</v>
+        <v>0.236191</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260167</v>
+        <v>0.257787</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.338514</v>
+        <v>0.347095</v>
       </c>
       <c r="C89" t="n">
-        <v>0.234366</v>
+        <v>0.237285</v>
       </c>
       <c r="D89" t="n">
-        <v>0.25633</v>
+        <v>0.258936</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.342046</v>
+        <v>0.347827</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216536</v>
+        <v>0.236659</v>
       </c>
       <c r="D90" t="n">
-        <v>0.255447</v>
+        <v>0.256085</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.343297</v>
+        <v>0.350526</v>
       </c>
       <c r="C91" t="n">
-        <v>0.239364</v>
+        <v>0.233545</v>
       </c>
       <c r="D91" t="n">
-        <v>0.256085</v>
+        <v>0.258132</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.347261</v>
+        <v>0.354972</v>
       </c>
       <c r="C92" t="n">
-        <v>0.236609</v>
+        <v>0.240468</v>
       </c>
       <c r="D92" t="n">
-        <v>0.258648</v>
+        <v>0.26109</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.351226</v>
+        <v>0.3589</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245699</v>
+        <v>0.23975</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259527</v>
+        <v>0.259012</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.357616</v>
+        <v>0.365576</v>
       </c>
       <c r="C94" t="n">
-        <v>0.401687</v>
+        <v>0.401632</v>
       </c>
       <c r="D94" t="n">
-        <v>0.463291</v>
+        <v>0.462257</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.50398</v>
+        <v>0.504437</v>
       </c>
       <c r="C95" t="n">
-        <v>0.399963</v>
+        <v>0.401338</v>
       </c>
       <c r="D95" t="n">
-        <v>0.44676</v>
+        <v>0.460727</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.50523</v>
+        <v>0.505162</v>
       </c>
       <c r="C96" t="n">
-        <v>0.401272</v>
+        <v>0.401618</v>
       </c>
       <c r="D96" t="n">
-        <v>0.462405</v>
+        <v>0.458862</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.504775</v>
+        <v>0.505558</v>
       </c>
       <c r="C97" t="n">
-        <v>0.401773</v>
+        <v>0.393607</v>
       </c>
       <c r="D97" t="n">
-        <v>0.464895</v>
+        <v>0.447879</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.506031</v>
+        <v>0.505149</v>
       </c>
       <c r="C98" t="n">
-        <v>0.39083</v>
+        <v>0.40095</v>
       </c>
       <c r="D98" t="n">
-        <v>0.446268</v>
+        <v>0.4642</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5073839999999999</v>
+        <v>0.505968</v>
       </c>
       <c r="C99" t="n">
-        <v>0.400471</v>
+        <v>0.399943</v>
       </c>
       <c r="D99" t="n">
-        <v>0.463422</v>
+        <v>0.444044</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.50579</v>
+        <v>0.506011</v>
       </c>
       <c r="C100" t="n">
-        <v>0.393384</v>
+        <v>0.398848</v>
       </c>
       <c r="D100" t="n">
-        <v>0.446018</v>
+        <v>0.460599</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.506676</v>
+        <v>0.507033</v>
       </c>
       <c r="C101" t="n">
-        <v>0.401123</v>
+        <v>0.401035</v>
       </c>
       <c r="D101" t="n">
-        <v>0.460059</v>
+        <v>0.460489</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.507746</v>
+        <v>0.508157</v>
       </c>
       <c r="C102" t="n">
-        <v>0.399882</v>
+        <v>0.400502</v>
       </c>
       <c r="D102" t="n">
-        <v>0.460099</v>
+        <v>0.46056</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5099900000000001</v>
+        <v>0.509704</v>
       </c>
       <c r="C103" t="n">
-        <v>0.401181</v>
+        <v>0.400941</v>
       </c>
       <c r="D103" t="n">
-        <v>0.459824</v>
+        <v>0.460132</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5109939999999999</v>
+        <v>0.512418</v>
       </c>
       <c r="C104" t="n">
-        <v>0.393319</v>
+        <v>0.402432</v>
       </c>
       <c r="D104" t="n">
-        <v>0.445328</v>
+        <v>0.448056</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.513256</v>
+        <v>0.513912</v>
       </c>
       <c r="C105" t="n">
-        <v>0.398092</v>
+        <v>0.404119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.448139</v>
+        <v>0.446949</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.517289</v>
+        <v>0.516865</v>
       </c>
       <c r="C106" t="n">
-        <v>0.405931</v>
+        <v>0.408287</v>
       </c>
       <c r="D106" t="n">
-        <v>0.46456</v>
+        <v>0.465513</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.523259</v>
+        <v>0.522778</v>
       </c>
       <c r="C107" t="n">
-        <v>0.409187</v>
+        <v>0.410715</v>
       </c>
       <c r="D107" t="n">
-        <v>0.466933</v>
+        <v>0.468807</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.52871</v>
+        <v>0.529626</v>
       </c>
       <c r="C108" t="n">
-        <v>0.537922</v>
+        <v>0.532956</v>
       </c>
       <c r="D108" t="n">
-        <v>0.630435</v>
+        <v>0.633433</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.539972</v>
+        <v>0.539801</v>
       </c>
       <c r="C109" t="n">
-        <v>0.534046</v>
+        <v>0.53854</v>
       </c>
       <c r="D109" t="n">
-        <v>0.641463</v>
+        <v>0.640313</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.588432</v>
+        <v>0.59014</v>
       </c>
       <c r="C110" t="n">
-        <v>0.537398</v>
+        <v>0.540349</v>
       </c>
       <c r="D110" t="n">
-        <v>0.631896</v>
+        <v>0.643742</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.588641</v>
+        <v>0.592803</v>
       </c>
       <c r="C111" t="n">
-        <v>0.535252</v>
+        <v>0.536385</v>
       </c>
       <c r="D111" t="n">
-        <v>0.64403</v>
+        <v>0.643226</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.590483</v>
+        <v>0.591983</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5366300000000001</v>
+        <v>0.5372130000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.644191</v>
+        <v>0.632087</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.591337</v>
+        <v>0.591432</v>
       </c>
       <c r="C113" t="n">
-        <v>0.541529</v>
+        <v>0.541466</v>
       </c>
       <c r="D113" t="n">
-        <v>0.646356</v>
+        <v>0.6440439999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.590736</v>
+        <v>0.590067</v>
       </c>
       <c r="C114" t="n">
-        <v>0.539575</v>
+        <v>0.5429310000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.636452</v>
+        <v>0.63344</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.595061</v>
+        <v>0.595485</v>
       </c>
       <c r="C115" t="n">
-        <v>0.540982</v>
+        <v>0.542853</v>
       </c>
       <c r="D115" t="n">
-        <v>0.648607</v>
+        <v>0.645481</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.592407</v>
+        <v>0.594866</v>
       </c>
       <c r="C116" t="n">
-        <v>0.543802</v>
+        <v>0.544969</v>
       </c>
       <c r="D116" t="n">
-        <v>0.648269</v>
+        <v>0.639599</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.593835</v>
+        <v>0.596809</v>
       </c>
       <c r="C117" t="n">
-        <v>0.542829</v>
+        <v>0.544864</v>
       </c>
       <c r="D117" t="n">
-        <v>0.638363</v>
+        <v>0.648378</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.599893</v>
+        <v>0.600267</v>
       </c>
       <c r="C118" t="n">
-        <v>0.545314</v>
+        <v>0.549772</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6492289999999999</v>
+        <v>0.6423720000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.603707</v>
+        <v>0.603689</v>
       </c>
       <c r="C119" t="n">
-        <v>0.551096</v>
+        <v>0.5502280000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.653235</v>
+        <v>0.654606</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.607934</v>
+        <v>0.605775</v>
       </c>
       <c r="C120" t="n">
-        <v>0.55199</v>
+        <v>0.54953</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6455149999999999</v>
+        <v>0.642644</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.61527</v>
+        <v>0.611293</v>
       </c>
       <c r="C121" t="n">
-        <v>0.559424</v>
+        <v>0.559161</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6485</v>
+        <v>0.6593</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.622443</v>
+        <v>0.620601</v>
       </c>
       <c r="C122" t="n">
-        <v>0.565866</v>
+        <v>0.562658</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6547230000000001</v>
+        <v>0.656061</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.635907</v>
+        <v>0.634996</v>
       </c>
       <c r="C123" t="n">
-        <v>0.709193</v>
+        <v>0.708637</v>
       </c>
       <c r="D123" t="n">
-        <v>0.798046</v>
+        <v>0.7955100000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.743381</v>
+        <v>0.738739</v>
       </c>
       <c r="C124" t="n">
-        <v>0.714442</v>
+        <v>0.7077</v>
       </c>
       <c r="D124" t="n">
-        <v>0.801275</v>
+        <v>0.798327</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740787</v>
+        <v>0.7404269999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.712652</v>
+        <v>0.709636</v>
       </c>
       <c r="D125" t="n">
-        <v>0.795563</v>
+        <v>0.797833</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7522450000000001</v>
+        <v>0.740307</v>
       </c>
       <c r="C126" t="n">
-        <v>0.71892</v>
+        <v>0.70468</v>
       </c>
       <c r="D126" t="n">
-        <v>0.803872</v>
+        <v>0.800028</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.743501</v>
+        <v>0.740054</v>
       </c>
       <c r="C127" t="n">
-        <v>0.717932</v>
+        <v>0.70849</v>
       </c>
       <c r="D127" t="n">
-        <v>0.801072</v>
+        <v>0.800258</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.74626</v>
+        <v>0.739289</v>
       </c>
       <c r="C128" t="n">
-        <v>0.714589</v>
+        <v>0.710508</v>
       </c>
       <c r="D128" t="n">
-        <v>0.804858</v>
+        <v>0.8024790000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7442569999999999</v>
+        <v>0.743273</v>
       </c>
       <c r="C129" t="n">
-        <v>0.715048</v>
+        <v>0.710897</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8062319999999999</v>
+        <v>0.802105</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.748771</v>
+        <v>0.7428940000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.71885</v>
+        <v>0.710842</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8078920000000001</v>
+        <v>0.803714</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.750943</v>
+        <v>0.746871</v>
       </c>
       <c r="C131" t="n">
-        <v>0.716885</v>
+        <v>0.714545</v>
       </c>
       <c r="D131" t="n">
-        <v>0.805615</v>
+        <v>0.806498</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7518899999999999</v>
+        <v>0.749219</v>
       </c>
       <c r="C132" t="n">
-        <v>0.722446</v>
+        <v>0.715599</v>
       </c>
       <c r="D132" t="n">
-        <v>0.806518</v>
+        <v>0.809596</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755414</v>
+        <v>0.753996</v>
       </c>
       <c r="C133" t="n">
-        <v>0.724288</v>
+        <v>0.720603</v>
       </c>
       <c r="D133" t="n">
-        <v>0.811899</v>
+        <v>0.8104170000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.759178</v>
+        <v>0.760732</v>
       </c>
       <c r="C134" t="n">
-        <v>0.727448</v>
+        <v>0.723397</v>
       </c>
       <c r="D134" t="n">
-        <v>0.816481</v>
+        <v>0.8141119999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.770356</v>
+        <v>0.764472</v>
       </c>
       <c r="C135" t="n">
-        <v>0.729982</v>
+        <v>0.729172</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820819</v>
+        <v>0.819869</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.774853</v>
+        <v>0.772116</v>
       </c>
       <c r="C136" t="n">
-        <v>0.738527</v>
+        <v>0.736077</v>
       </c>
       <c r="D136" t="n">
-        <v>0.828269</v>
+        <v>0.8254050000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7899080000000001</v>
+        <v>0.783583</v>
       </c>
       <c r="C137" t="n">
-        <v>0.844751</v>
+        <v>0.8403</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9008890000000001</v>
+        <v>0.896147</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.866672</v>
+        <v>0.865335</v>
       </c>
       <c r="C138" t="n">
-        <v>0.845291</v>
+        <v>0.840431</v>
       </c>
       <c r="D138" t="n">
-        <v>0.899764</v>
+        <v>0.898044</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.86834</v>
+        <v>0.865985</v>
       </c>
       <c r="C139" t="n">
-        <v>0.844064</v>
+        <v>0.841906</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9000050000000001</v>
+        <v>0.900706</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.870384</v>
+        <v>0.869959</v>
       </c>
       <c r="C140" t="n">
-        <v>0.845009</v>
+        <v>0.84407</v>
       </c>
       <c r="D140" t="n">
-        <v>0.902884</v>
+        <v>0.900813</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.870445</v>
+        <v>0.869779</v>
       </c>
       <c r="C141" t="n">
-        <v>0.842655</v>
+        <v>0.842647</v>
       </c>
       <c r="D141" t="n">
-        <v>0.903356</v>
+        <v>0.900034</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.872532</v>
+        <v>0.870528</v>
       </c>
       <c r="C142" t="n">
-        <v>0.847267</v>
+        <v>0.84301</v>
       </c>
       <c r="D142" t="n">
-        <v>0.90396</v>
+        <v>0.901964</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.873844</v>
+        <v>0.872556</v>
       </c>
       <c r="C143" t="n">
-        <v>0.84892</v>
+        <v>0.8459179999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.906343</v>
+        <v>0.902467</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116291</v>
+        <v>0.112182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111959</v>
+        <v>0.109232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.125487</v>
+        <v>0.122873</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115278</v>
+        <v>0.113103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111501</v>
+        <v>0.110171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.124977</v>
+        <v>0.123757</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.114712</v>
+        <v>0.114537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112187</v>
+        <v>0.110258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124859</v>
+        <v>0.124165</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113078</v>
+        <v>0.11295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.111356</v>
+        <v>0.110204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.124677</v>
+        <v>0.123793</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.114372</v>
+        <v>0.112557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.111527</v>
+        <v>0.110297</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125176</v>
+        <v>0.124498</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115908</v>
+        <v>0.115325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112692</v>
+        <v>0.111403</v>
       </c>
       <c r="D7" t="n">
-        <v>0.126265</v>
+        <v>0.125973</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119434</v>
+        <v>0.117824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115543</v>
+        <v>0.113091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.129299</v>
+        <v>0.128073</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12339</v>
+        <v>0.123365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116514</v>
+        <v>0.1187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.129905</v>
+        <v>0.131262</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121732</v>
+        <v>0.123035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116493</v>
+        <v>0.116352</v>
       </c>
       <c r="D10" t="n">
-        <v>0.130033</v>
+        <v>0.131459</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122143</v>
+        <v>0.123715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116935</v>
+        <v>0.117223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.130276</v>
+        <v>0.131602</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122381</v>
+        <v>0.124525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.116725</v>
+        <v>0.117253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.130101</v>
+        <v>0.131404</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122681</v>
+        <v>0.124004</v>
       </c>
       <c r="C13" t="n">
-        <v>0.117725</v>
+        <v>0.117699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131462</v>
+        <v>0.132138</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123019</v>
+        <v>0.124379</v>
       </c>
       <c r="C14" t="n">
-        <v>0.116936</v>
+        <v>0.117528</v>
       </c>
       <c r="D14" t="n">
-        <v>0.130718</v>
+        <v>0.132768</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123392</v>
+        <v>0.125223</v>
       </c>
       <c r="C15" t="n">
-        <v>0.117512</v>
+        <v>0.117789</v>
       </c>
       <c r="D15" t="n">
-        <v>0.130419</v>
+        <v>0.132875</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123798</v>
+        <v>0.125475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.117778</v>
+        <v>0.118098</v>
       </c>
       <c r="D16" t="n">
-        <v>0.130813</v>
+        <v>0.13286</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124428</v>
+        <v>0.125622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117682</v>
+        <v>0.118425</v>
       </c>
       <c r="D17" t="n">
-        <v>0.131439</v>
+        <v>0.133714</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124725</v>
+        <v>0.126883</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1184</v>
+        <v>0.118942</v>
       </c>
       <c r="D18" t="n">
-        <v>0.131635</v>
+        <v>0.13295</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125432</v>
+        <v>0.127262</v>
       </c>
       <c r="C19" t="n">
-        <v>0.118037</v>
+        <v>0.120038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.132153</v>
+        <v>0.133788</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126465</v>
+        <v>0.128635</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119018</v>
+        <v>0.119863</v>
       </c>
       <c r="D20" t="n">
-        <v>0.132944</v>
+        <v>0.133562</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128692</v>
+        <v>0.130058</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120429</v>
+        <v>0.122043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.134796</v>
+        <v>0.136104</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132669</v>
+        <v>0.134153</v>
       </c>
       <c r="C22" t="n">
-        <v>0.123931</v>
+        <v>0.125531</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138241</v>
+        <v>0.140872</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140419</v>
+        <v>0.142251</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127414</v>
+        <v>0.13166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.141579</v>
+        <v>0.142705</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134943</v>
+        <v>0.140007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.128123</v>
+        <v>0.129046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.142731</v>
+        <v>0.142089</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.138559</v>
+        <v>0.139726</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128864</v>
+        <v>0.128036</v>
       </c>
       <c r="D25" t="n">
-        <v>0.142359</v>
+        <v>0.141506</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134471</v>
+        <v>0.133731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.127912</v>
+        <v>0.128843</v>
       </c>
       <c r="D26" t="n">
-        <v>0.142253</v>
+        <v>0.141784</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136897</v>
+        <v>0.136096</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129866</v>
+        <v>0.125324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.142892</v>
+        <v>0.141105</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135205</v>
+        <v>0.134248</v>
       </c>
       <c r="C28" t="n">
-        <v>0.127669</v>
+        <v>0.12583</v>
       </c>
       <c r="D28" t="n">
-        <v>0.142126</v>
+        <v>0.141399</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138199</v>
+        <v>0.134762</v>
       </c>
       <c r="C29" t="n">
-        <v>0.128571</v>
+        <v>0.125607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.142071</v>
+        <v>0.141232</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134762</v>
+        <v>0.135536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.128192</v>
+        <v>0.127811</v>
       </c>
       <c r="D30" t="n">
-        <v>0.142546</v>
+        <v>0.14149</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135955</v>
+        <v>0.135044</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129261</v>
+        <v>0.126768</v>
       </c>
       <c r="D31" t="n">
-        <v>0.142715</v>
+        <v>0.141995</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13749</v>
+        <v>0.137783</v>
       </c>
       <c r="C32" t="n">
-        <v>0.128458</v>
+        <v>0.127502</v>
       </c>
       <c r="D32" t="n">
-        <v>0.143331</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137638</v>
+        <v>0.137676</v>
       </c>
       <c r="C33" t="n">
-        <v>0.128969</v>
+        <v>0.128376</v>
       </c>
       <c r="D33" t="n">
-        <v>0.143707</v>
+        <v>0.143499</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140391</v>
+        <v>0.138916</v>
       </c>
       <c r="C34" t="n">
-        <v>0.130241</v>
+        <v>0.129062</v>
       </c>
       <c r="D34" t="n">
-        <v>0.146148</v>
+        <v>0.144292</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14212</v>
+        <v>0.141542</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13352</v>
+        <v>0.13284</v>
       </c>
       <c r="D35" t="n">
-        <v>0.148162</v>
+        <v>0.147081</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146724</v>
+        <v>0.147133</v>
       </c>
       <c r="C36" t="n">
-        <v>0.139651</v>
+        <v>0.13979</v>
       </c>
       <c r="D36" t="n">
-        <v>0.155158</v>
+        <v>0.153492</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154855</v>
+        <v>0.154752</v>
       </c>
       <c r="C37" t="n">
-        <v>0.139038</v>
+        <v>0.135963</v>
       </c>
       <c r="D37" t="n">
-        <v>0.15398</v>
+        <v>0.154001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144254</v>
+        <v>0.147304</v>
       </c>
       <c r="C38" t="n">
-        <v>0.139634</v>
+        <v>0.138617</v>
       </c>
       <c r="D38" t="n">
-        <v>0.154885</v>
+        <v>0.159675</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146283</v>
+        <v>0.150889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.14021</v>
+        <v>0.137353</v>
       </c>
       <c r="D39" t="n">
-        <v>0.154658</v>
+        <v>0.158132</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144668</v>
+        <v>0.149094</v>
       </c>
       <c r="C40" t="n">
-        <v>0.137001</v>
+        <v>0.1395</v>
       </c>
       <c r="D40" t="n">
-        <v>0.157266</v>
+        <v>0.156248</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147848</v>
+        <v>0.146572</v>
       </c>
       <c r="C41" t="n">
-        <v>0.137961</v>
+        <v>0.139322</v>
       </c>
       <c r="D41" t="n">
-        <v>0.156736</v>
+        <v>0.158001</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146574</v>
+        <v>0.149072</v>
       </c>
       <c r="C42" t="n">
-        <v>0.139526</v>
+        <v>0.140517</v>
       </c>
       <c r="D42" t="n">
-        <v>0.155577</v>
+        <v>0.159305</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.144692</v>
+        <v>0.14966</v>
       </c>
       <c r="C43" t="n">
-        <v>0.138009</v>
+        <v>0.140594</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155883</v>
+        <v>0.156359</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150079</v>
+        <v>0.148271</v>
       </c>
       <c r="C44" t="n">
-        <v>0.13851</v>
+        <v>0.141671</v>
       </c>
       <c r="D44" t="n">
-        <v>0.156932</v>
+        <v>0.157657</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1489</v>
+        <v>0.148351</v>
       </c>
       <c r="C45" t="n">
-        <v>0.142491</v>
+        <v>0.139014</v>
       </c>
       <c r="D45" t="n">
-        <v>0.159325</v>
+        <v>0.155382</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151567</v>
+        <v>0.149072</v>
       </c>
       <c r="C46" t="n">
-        <v>0.141001</v>
+        <v>0.139038</v>
       </c>
       <c r="D46" t="n">
-        <v>0.157588</v>
+        <v>0.155393</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150275</v>
+        <v>0.149194</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143068</v>
+        <v>0.141265</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157766</v>
+        <v>0.160399</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153739</v>
+        <v>0.153669</v>
       </c>
       <c r="C48" t="n">
-        <v>0.14368</v>
+        <v>0.142373</v>
       </c>
       <c r="D48" t="n">
-        <v>0.160478</v>
+        <v>0.159077</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157251</v>
+        <v>0.154299</v>
       </c>
       <c r="C49" t="n">
-        <v>0.148823</v>
+        <v>0.14827</v>
       </c>
       <c r="D49" t="n">
-        <v>0.165563</v>
+        <v>0.167119</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160857</v>
+        <v>0.163204</v>
       </c>
       <c r="C50" t="n">
-        <v>0.153133</v>
+        <v>0.15358</v>
       </c>
       <c r="D50" t="n">
-        <v>0.17097</v>
+        <v>0.171976</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168373</v>
+        <v>0.166793</v>
       </c>
       <c r="C51" t="n">
-        <v>0.152057</v>
+        <v>0.151511</v>
       </c>
       <c r="D51" t="n">
-        <v>0.167629</v>
+        <v>0.168561</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176976</v>
+        <v>0.175279</v>
       </c>
       <c r="C52" t="n">
-        <v>0.149891</v>
+        <v>0.148319</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167267</v>
+        <v>0.166636</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166512</v>
+        <v>0.164231</v>
       </c>
       <c r="C53" t="n">
-        <v>0.151005</v>
+        <v>0.153378</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167794</v>
+        <v>0.167244</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161614</v>
+        <v>0.168422</v>
       </c>
       <c r="C54" t="n">
-        <v>0.150585</v>
+        <v>0.150108</v>
       </c>
       <c r="D54" t="n">
-        <v>0.166961</v>
+        <v>0.168351</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.163203</v>
+        <v>0.169253</v>
       </c>
       <c r="C55" t="n">
-        <v>0.151741</v>
+        <v>0.151228</v>
       </c>
       <c r="D55" t="n">
-        <v>0.167402</v>
+        <v>0.170758</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162204</v>
+        <v>0.164178</v>
       </c>
       <c r="C56" t="n">
-        <v>0.150794</v>
+        <v>0.152798</v>
       </c>
       <c r="D56" t="n">
-        <v>0.168614</v>
+        <v>0.169832</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162062</v>
+        <v>0.167726</v>
       </c>
       <c r="C57" t="n">
-        <v>0.151522</v>
+        <v>0.150468</v>
       </c>
       <c r="D57" t="n">
-        <v>0.170522</v>
+        <v>0.172015</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163147</v>
+        <v>0.173212</v>
       </c>
       <c r="C58" t="n">
-        <v>0.153244</v>
+        <v>0.152226</v>
       </c>
       <c r="D58" t="n">
-        <v>0.171844</v>
+        <v>0.170638</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165418</v>
+        <v>0.166634</v>
       </c>
       <c r="C59" t="n">
-        <v>0.15004</v>
+        <v>0.151519</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171716</v>
+        <v>0.173388</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163847</v>
+        <v>0.16107</v>
       </c>
       <c r="C60" t="n">
-        <v>0.15316</v>
+        <v>0.154543</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173375</v>
+        <v>0.174748</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165211</v>
+        <v>0.165726</v>
       </c>
       <c r="C61" t="n">
-        <v>0.153621</v>
+        <v>0.156622</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173479</v>
+        <v>0.175559</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171782</v>
+        <v>0.167961</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15807</v>
+        <v>0.157963</v>
       </c>
       <c r="D62" t="n">
-        <v>0.175815</v>
+        <v>0.176402</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172034</v>
+        <v>0.171796</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16122</v>
+        <v>0.16091</v>
       </c>
       <c r="D63" t="n">
-        <v>0.179197</v>
+        <v>0.180143</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174021</v>
+        <v>0.175942</v>
       </c>
       <c r="C64" t="n">
-        <v>0.164258</v>
+        <v>0.165754</v>
       </c>
       <c r="D64" t="n">
-        <v>0.184125</v>
+        <v>0.183115</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180411</v>
+        <v>0.180195</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170981</v>
+        <v>0.170889</v>
       </c>
       <c r="D65" t="n">
-        <v>0.188903</v>
+        <v>0.189338</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188702</v>
+        <v>0.187735</v>
       </c>
       <c r="C66" t="n">
-        <v>0.165514</v>
+        <v>0.167363</v>
       </c>
       <c r="D66" t="n">
-        <v>0.184539</v>
+        <v>0.17998</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.186954</v>
+        <v>0.195296</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170152</v>
+        <v>0.161535</v>
       </c>
       <c r="D67" t="n">
-        <v>0.180428</v>
+        <v>0.183681</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.196747</v>
+        <v>0.181238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.166766</v>
+        <v>0.165822</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183802</v>
+        <v>0.183033</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186912</v>
+        <v>0.194595</v>
       </c>
       <c r="C69" t="n">
-        <v>0.168642</v>
+        <v>0.164102</v>
       </c>
       <c r="D69" t="n">
-        <v>0.182361</v>
+        <v>0.185797</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.203442</v>
+        <v>0.185099</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17081</v>
+        <v>0.167453</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185171</v>
+        <v>0.183268</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.189429</v>
+        <v>0.190303</v>
       </c>
       <c r="C71" t="n">
-        <v>0.168611</v>
+        <v>0.168056</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184135</v>
+        <v>0.184882</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.199227</v>
+        <v>0.197182</v>
       </c>
       <c r="C72" t="n">
-        <v>0.168659</v>
+        <v>0.16992</v>
       </c>
       <c r="D72" t="n">
-        <v>0.185132</v>
+        <v>0.184112</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.189895</v>
+        <v>0.199046</v>
       </c>
       <c r="C73" t="n">
-        <v>0.170356</v>
+        <v>0.169967</v>
       </c>
       <c r="D73" t="n">
-        <v>0.187055</v>
+        <v>0.186104</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.197196</v>
+        <v>0.19156</v>
       </c>
       <c r="C74" t="n">
-        <v>0.168778</v>
+        <v>0.16917</v>
       </c>
       <c r="D74" t="n">
-        <v>0.18862</v>
+        <v>0.187707</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199786</v>
+        <v>0.19335</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173259</v>
+        <v>0.17128</v>
       </c>
       <c r="D75" t="n">
-        <v>0.187582</v>
+        <v>0.186912</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20508</v>
+        <v>0.201038</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172509</v>
+        <v>0.172423</v>
       </c>
       <c r="D76" t="n">
-        <v>0.190375</v>
+        <v>0.190591</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198899</v>
+        <v>0.199132</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172456</v>
+        <v>0.173956</v>
       </c>
       <c r="D77" t="n">
-        <v>0.191411</v>
+        <v>0.191968</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206866</v>
+        <v>0.204504</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176262</v>
+        <v>0.177654</v>
       </c>
       <c r="D78" t="n">
-        <v>0.19441</v>
+        <v>0.196452</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208105</v>
+        <v>0.211492</v>
       </c>
       <c r="C79" t="n">
-        <v>0.183499</v>
+        <v>0.184408</v>
       </c>
       <c r="D79" t="n">
-        <v>0.200147</v>
+        <v>0.202575</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217633</v>
+        <v>0.21566</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215433</v>
+        <v>0.244729</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239767</v>
+        <v>0.270597</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.341008</v>
+        <v>0.355606</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22293</v>
+        <v>0.245501</v>
       </c>
       <c r="D81" t="n">
-        <v>0.240863</v>
+        <v>0.270191</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.340767</v>
+        <v>0.358487</v>
       </c>
       <c r="C82" t="n">
-        <v>0.239414</v>
+        <v>0.249126</v>
       </c>
       <c r="D82" t="n">
-        <v>0.263751</v>
+        <v>0.274398</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339775</v>
+        <v>0.358384</v>
       </c>
       <c r="C83" t="n">
-        <v>0.225954</v>
+        <v>0.246001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.241615</v>
+        <v>0.271113</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.347887</v>
+        <v>0.362089</v>
       </c>
       <c r="C84" t="n">
-        <v>0.224478</v>
+        <v>0.248083</v>
       </c>
       <c r="D84" t="n">
-        <v>0.243827</v>
+        <v>0.272512</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343491</v>
+        <v>0.36048</v>
       </c>
       <c r="C85" t="n">
-        <v>0.223643</v>
+        <v>0.246468</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2627</v>
+        <v>0.268628</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.346831</v>
+        <v>0.360382</v>
       </c>
       <c r="C86" t="n">
-        <v>0.237027</v>
+        <v>0.246029</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261287</v>
+        <v>0.268213</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348964</v>
+        <v>0.361532</v>
       </c>
       <c r="C87" t="n">
-        <v>0.23823</v>
+        <v>0.243839</v>
       </c>
       <c r="D87" t="n">
-        <v>0.261968</v>
+        <v>0.267804</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.348646</v>
+        <v>0.362894</v>
       </c>
       <c r="C88" t="n">
-        <v>0.236191</v>
+        <v>0.24472</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257787</v>
+        <v>0.268455</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.347095</v>
+        <v>0.364439</v>
       </c>
       <c r="C89" t="n">
-        <v>0.237285</v>
+        <v>0.246243</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258936</v>
+        <v>0.267143</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.347827</v>
+        <v>0.367368</v>
       </c>
       <c r="C90" t="n">
-        <v>0.236659</v>
+        <v>0.228772</v>
       </c>
       <c r="D90" t="n">
-        <v>0.256085</v>
+        <v>0.245402</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350526</v>
+        <v>0.36943</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233545</v>
+        <v>0.230745</v>
       </c>
       <c r="D91" t="n">
-        <v>0.258132</v>
+        <v>0.245189</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.354972</v>
+        <v>0.372766</v>
       </c>
       <c r="C92" t="n">
-        <v>0.240468</v>
+        <v>0.248452</v>
       </c>
       <c r="D92" t="n">
-        <v>0.26109</v>
+        <v>0.269489</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3589</v>
+        <v>0.378142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23975</v>
+        <v>0.248449</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259012</v>
+        <v>0.267868</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365576</v>
+        <v>0.383663</v>
       </c>
       <c r="C94" t="n">
-        <v>0.401632</v>
+        <v>0.42436</v>
       </c>
       <c r="D94" t="n">
-        <v>0.462257</v>
+        <v>0.494963</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.504437</v>
+        <v>0.535363</v>
       </c>
       <c r="C95" t="n">
-        <v>0.401338</v>
+        <v>0.422883</v>
       </c>
       <c r="D95" t="n">
-        <v>0.460727</v>
+        <v>0.494198</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.505162</v>
+        <v>0.535348</v>
       </c>
       <c r="C96" t="n">
-        <v>0.401618</v>
+        <v>0.422138</v>
       </c>
       <c r="D96" t="n">
-        <v>0.458862</v>
+        <v>0.490951</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.505558</v>
+        <v>0.53469</v>
       </c>
       <c r="C97" t="n">
-        <v>0.393607</v>
+        <v>0.422362</v>
       </c>
       <c r="D97" t="n">
-        <v>0.447879</v>
+        <v>0.491033</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505149</v>
+        <v>0.535812</v>
       </c>
       <c r="C98" t="n">
-        <v>0.40095</v>
+        <v>0.424473</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4642</v>
+        <v>0.488113</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.505968</v>
+        <v>0.5355</v>
       </c>
       <c r="C99" t="n">
-        <v>0.399943</v>
+        <v>0.421319</v>
       </c>
       <c r="D99" t="n">
-        <v>0.444044</v>
+        <v>0.488989</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506011</v>
+        <v>0.536151</v>
       </c>
       <c r="C100" t="n">
-        <v>0.398848</v>
+        <v>0.422675</v>
       </c>
       <c r="D100" t="n">
-        <v>0.460599</v>
+        <v>0.488723</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507033</v>
+        <v>0.537476</v>
       </c>
       <c r="C101" t="n">
-        <v>0.401035</v>
+        <v>0.42275</v>
       </c>
       <c r="D101" t="n">
-        <v>0.460489</v>
+        <v>0.488629</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508157</v>
+        <v>0.537981</v>
       </c>
       <c r="C102" t="n">
-        <v>0.400502</v>
+        <v>0.424339</v>
       </c>
       <c r="D102" t="n">
-        <v>0.46056</v>
+        <v>0.488354</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.509704</v>
+        <v>0.53873</v>
       </c>
       <c r="C103" t="n">
-        <v>0.400941</v>
+        <v>0.424544</v>
       </c>
       <c r="D103" t="n">
-        <v>0.460132</v>
+        <v>0.488932</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.512418</v>
+        <v>0.542266</v>
       </c>
       <c r="C104" t="n">
-        <v>0.402432</v>
+        <v>0.424973</v>
       </c>
       <c r="D104" t="n">
-        <v>0.448056</v>
+        <v>0.490779</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.513912</v>
+        <v>0.544434</v>
       </c>
       <c r="C105" t="n">
-        <v>0.404119</v>
+        <v>0.425319</v>
       </c>
       <c r="D105" t="n">
-        <v>0.446949</v>
+        <v>0.487866</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.516865</v>
+        <v>0.547195</v>
       </c>
       <c r="C106" t="n">
-        <v>0.408287</v>
+        <v>0.428846</v>
       </c>
       <c r="D106" t="n">
-        <v>0.465513</v>
+        <v>0.474693</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.522778</v>
+        <v>0.552669</v>
       </c>
       <c r="C107" t="n">
-        <v>0.410715</v>
+        <v>0.433179</v>
       </c>
       <c r="D107" t="n">
-        <v>0.468807</v>
+        <v>0.492251</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.529626</v>
+        <v>0.560012</v>
       </c>
       <c r="C108" t="n">
-        <v>0.532956</v>
+        <v>0.569029</v>
       </c>
       <c r="D108" t="n">
-        <v>0.633433</v>
+        <v>0.67561</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.539801</v>
+        <v>0.57119</v>
       </c>
       <c r="C109" t="n">
-        <v>0.53854</v>
+        <v>0.570308</v>
       </c>
       <c r="D109" t="n">
-        <v>0.640313</v>
+        <v>0.677551</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.59014</v>
+        <v>0.626261</v>
       </c>
       <c r="C110" t="n">
-        <v>0.540349</v>
+        <v>0.570087</v>
       </c>
       <c r="D110" t="n">
-        <v>0.643742</v>
+        <v>0.685698</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.592803</v>
+        <v>0.627464</v>
       </c>
       <c r="C111" t="n">
-        <v>0.536385</v>
+        <v>0.574906</v>
       </c>
       <c r="D111" t="n">
-        <v>0.643226</v>
+        <v>0.691474</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.591983</v>
+        <v>0.626252</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5372130000000001</v>
+        <v>0.570999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.632087</v>
+        <v>0.688616</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.591432</v>
+        <v>0.628897</v>
       </c>
       <c r="C113" t="n">
-        <v>0.541466</v>
+        <v>0.575884</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6440439999999999</v>
+        <v>0.6900309999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.590067</v>
+        <v>0.6269670000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5429310000000001</v>
+        <v>0.5779530000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.63344</v>
+        <v>0.676728</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.595485</v>
+        <v>0.62954</v>
       </c>
       <c r="C115" t="n">
-        <v>0.542853</v>
+        <v>0.5744089999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.645481</v>
+        <v>0.691993</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.594866</v>
+        <v>0.629574</v>
       </c>
       <c r="C116" t="n">
-        <v>0.544969</v>
+        <v>0.576951</v>
       </c>
       <c r="D116" t="n">
-        <v>0.639599</v>
+        <v>0.690519</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.596809</v>
+        <v>0.631948</v>
       </c>
       <c r="C117" t="n">
-        <v>0.544864</v>
+        <v>0.584766</v>
       </c>
       <c r="D117" t="n">
-        <v>0.648378</v>
+        <v>0.6949379999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.600267</v>
+        <v>0.634011</v>
       </c>
       <c r="C118" t="n">
-        <v>0.549772</v>
+        <v>0.578421</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6423720000000001</v>
+        <v>0.683371</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.603689</v>
+        <v>0.641328</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5502280000000001</v>
+        <v>0.5863080000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.654606</v>
+        <v>0.700377</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.605775</v>
+        <v>0.6452329999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.54953</v>
+        <v>0.583544</v>
       </c>
       <c r="D120" t="n">
-        <v>0.642644</v>
+        <v>0.6996790000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.611293</v>
+        <v>0.648156</v>
       </c>
       <c r="C121" t="n">
-        <v>0.559161</v>
+        <v>0.594483</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6593</v>
+        <v>0.706082</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.620601</v>
+        <v>0.659766</v>
       </c>
       <c r="C122" t="n">
-        <v>0.562658</v>
+        <v>0.601568</v>
       </c>
       <c r="D122" t="n">
-        <v>0.656061</v>
+        <v>0.711557</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.634996</v>
+        <v>0.672519</v>
       </c>
       <c r="C123" t="n">
-        <v>0.708637</v>
+        <v>0.7507740000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7955100000000001</v>
+        <v>0.848732</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.738739</v>
+        <v>0.785127</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7077</v>
+        <v>0.75199</v>
       </c>
       <c r="D124" t="n">
-        <v>0.798327</v>
+        <v>0.8556589999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7404269999999999</v>
+        <v>0.787317</v>
       </c>
       <c r="C125" t="n">
-        <v>0.709636</v>
+        <v>0.751485</v>
       </c>
       <c r="D125" t="n">
-        <v>0.797833</v>
+        <v>0.854583</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.740307</v>
+        <v>0.789584</v>
       </c>
       <c r="C126" t="n">
-        <v>0.70468</v>
+        <v>0.756022</v>
       </c>
       <c r="D126" t="n">
-        <v>0.800028</v>
+        <v>0.856653</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740054</v>
+        <v>0.789054</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70849</v>
+        <v>0.754498</v>
       </c>
       <c r="D127" t="n">
-        <v>0.800258</v>
+        <v>0.855391</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.739289</v>
+        <v>0.790869</v>
       </c>
       <c r="C128" t="n">
-        <v>0.710508</v>
+        <v>0.75535</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8024790000000001</v>
+        <v>0.85791</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.743273</v>
+        <v>0.789836</v>
       </c>
       <c r="C129" t="n">
-        <v>0.710897</v>
+        <v>0.758917</v>
       </c>
       <c r="D129" t="n">
-        <v>0.802105</v>
+        <v>0.859137</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7428940000000001</v>
+        <v>0.791593</v>
       </c>
       <c r="C130" t="n">
-        <v>0.710842</v>
+        <v>0.76069</v>
       </c>
       <c r="D130" t="n">
-        <v>0.803714</v>
+        <v>0.861038</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.746871</v>
+        <v>0.791694</v>
       </c>
       <c r="C131" t="n">
-        <v>0.714545</v>
+        <v>0.762462</v>
       </c>
       <c r="D131" t="n">
-        <v>0.806498</v>
+        <v>0.862447</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.749219</v>
+        <v>0.795758</v>
       </c>
       <c r="C132" t="n">
-        <v>0.715599</v>
+        <v>0.760771</v>
       </c>
       <c r="D132" t="n">
-        <v>0.809596</v>
+        <v>0.864066</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.753996</v>
+        <v>0.805048</v>
       </c>
       <c r="C133" t="n">
-        <v>0.720603</v>
+        <v>0.769284</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8104170000000001</v>
+        <v>0.867538</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.760732</v>
+        <v>0.807843</v>
       </c>
       <c r="C134" t="n">
-        <v>0.723397</v>
+        <v>0.770313</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8141119999999999</v>
+        <v>0.8715349999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.764472</v>
+        <v>0.8148919999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.729172</v>
+        <v>0.775409</v>
       </c>
       <c r="D135" t="n">
-        <v>0.819869</v>
+        <v>0.873223</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.772116</v>
+        <v>0.8233740000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.736077</v>
+        <v>0.783191</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8254050000000001</v>
+        <v>0.882863</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.783583</v>
+        <v>0.8341460000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8403</v>
+        <v>0.8955689999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.896147</v>
+        <v>0.962866</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.865335</v>
+        <v>0.926538</v>
       </c>
       <c r="C138" t="n">
-        <v>0.840431</v>
+        <v>0.89721</v>
       </c>
       <c r="D138" t="n">
-        <v>0.898044</v>
+        <v>0.963264</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.865985</v>
+        <v>0.926569</v>
       </c>
       <c r="C139" t="n">
-        <v>0.841906</v>
+        <v>0.894583</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900706</v>
+        <v>0.960804</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.869959</v>
+        <v>0.927054</v>
       </c>
       <c r="C140" t="n">
-        <v>0.84407</v>
+        <v>0.899338</v>
       </c>
       <c r="D140" t="n">
-        <v>0.900813</v>
+        <v>0.964871</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.869779</v>
+        <v>0.927017</v>
       </c>
       <c r="C141" t="n">
-        <v>0.842647</v>
+        <v>0.899741</v>
       </c>
       <c r="D141" t="n">
-        <v>0.900034</v>
+        <v>0.964611</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.870528</v>
+        <v>0.92622</v>
       </c>
       <c r="C142" t="n">
-        <v>0.84301</v>
+        <v>0.9000050000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.901964</v>
+        <v>0.960423</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.872556</v>
+        <v>0.92999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8459179999999999</v>
+        <v>0.900928</v>
       </c>
       <c r="D143" t="n">
-        <v>0.902467</v>
+        <v>0.964299</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112182</v>
+        <v>0.110858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109232</v>
+        <v>0.109557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.122873</v>
+        <v>0.123231</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113103</v>
+        <v>0.110215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.110171</v>
+        <v>0.109346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123757</v>
+        <v>0.128334</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.114537</v>
+        <v>0.11108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.110258</v>
+        <v>0.109754</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124165</v>
+        <v>0.133709</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11295</v>
+        <v>0.111536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.110204</v>
+        <v>0.109902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123793</v>
+        <v>0.142484</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112557</v>
+        <v>0.113231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110297</v>
+        <v>0.110647</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124498</v>
+        <v>0.147794</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115325</v>
+        <v>0.113652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111403</v>
+        <v>0.111634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.125973</v>
+        <v>0.120107</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117824</v>
+        <v>0.117261</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113091</v>
+        <v>0.113515</v>
       </c>
       <c r="D8" t="n">
-        <v>0.128073</v>
+        <v>0.123455</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123365</v>
+        <v>0.119902</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1187</v>
+        <v>0.122646</v>
       </c>
       <c r="D9" t="n">
-        <v>0.131262</v>
+        <v>0.129873</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123035</v>
+        <v>0.132268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116352</v>
+        <v>0.123863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.131459</v>
+        <v>0.132773</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123715</v>
+        <v>0.130001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.117223</v>
+        <v>0.12405</v>
       </c>
       <c r="D11" t="n">
-        <v>0.131602</v>
+        <v>0.137293</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124525</v>
+        <v>0.130511</v>
       </c>
       <c r="C12" t="n">
-        <v>0.117253</v>
+        <v>0.124808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131404</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124004</v>
+        <v>0.129777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.117699</v>
+        <v>0.126273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132138</v>
+        <v>0.145878</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.124379</v>
+        <v>0.131139</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117528</v>
+        <v>0.124929</v>
       </c>
       <c r="D14" t="n">
-        <v>0.132768</v>
+        <v>0.150733</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.125223</v>
+        <v>0.13162</v>
       </c>
       <c r="C15" t="n">
-        <v>0.117789</v>
+        <v>0.125731</v>
       </c>
       <c r="D15" t="n">
-        <v>0.132875</v>
+        <v>0.156556</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125475</v>
+        <v>0.131138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.118098</v>
+        <v>0.125597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.13286</v>
+        <v>0.161933</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125622</v>
+        <v>0.135602</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118425</v>
+        <v>0.125915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.133714</v>
+        <v>0.169392</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126883</v>
+        <v>0.13131</v>
       </c>
       <c r="C18" t="n">
-        <v>0.118942</v>
+        <v>0.125187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.13295</v>
+        <v>0.17346</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127262</v>
+        <v>0.132485</v>
       </c>
       <c r="C19" t="n">
-        <v>0.120038</v>
+        <v>0.125212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.133788</v>
+        <v>0.177872</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128635</v>
+        <v>0.134287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119863</v>
+        <v>0.126203</v>
       </c>
       <c r="D20" t="n">
-        <v>0.133562</v>
+        <v>0.183125</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130058</v>
+        <v>0.135608</v>
       </c>
       <c r="C21" t="n">
-        <v>0.122043</v>
+        <v>0.127938</v>
       </c>
       <c r="D21" t="n">
-        <v>0.136104</v>
+        <v>0.142442</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134153</v>
+        <v>0.136771</v>
       </c>
       <c r="C22" t="n">
-        <v>0.125531</v>
+        <v>0.129179</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140872</v>
+        <v>0.146778</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142251</v>
+        <v>0.145596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13166</v>
+        <v>0.1255</v>
       </c>
       <c r="D23" t="n">
-        <v>0.142705</v>
+        <v>0.150771</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.140007</v>
+        <v>0.134258</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129046</v>
+        <v>0.127257</v>
       </c>
       <c r="D24" t="n">
-        <v>0.142089</v>
+        <v>0.15512</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.139726</v>
+        <v>0.133198</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128036</v>
+        <v>0.12709</v>
       </c>
       <c r="D25" t="n">
-        <v>0.141506</v>
+        <v>0.155377</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133731</v>
+        <v>0.138169</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128843</v>
+        <v>0.128346</v>
       </c>
       <c r="D26" t="n">
-        <v>0.141784</v>
+        <v>0.159743</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136096</v>
+        <v>0.140113</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125324</v>
+        <v>0.130355</v>
       </c>
       <c r="D27" t="n">
-        <v>0.141105</v>
+        <v>0.165228</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134248</v>
+        <v>0.138264</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12583</v>
+        <v>0.130673</v>
       </c>
       <c r="D28" t="n">
-        <v>0.141399</v>
+        <v>0.17182</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134762</v>
+        <v>0.134861</v>
       </c>
       <c r="C29" t="n">
-        <v>0.125607</v>
+        <v>0.128266</v>
       </c>
       <c r="D29" t="n">
-        <v>0.141232</v>
+        <v>0.175132</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135536</v>
+        <v>0.134428</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127811</v>
+        <v>0.128856</v>
       </c>
       <c r="D30" t="n">
-        <v>0.14149</v>
+        <v>0.180502</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135044</v>
+        <v>0.135367</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126768</v>
+        <v>0.127521</v>
       </c>
       <c r="D31" t="n">
-        <v>0.141995</v>
+        <v>0.183713</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137783</v>
+        <v>0.138127</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127502</v>
+        <v>0.12765</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1427</v>
+        <v>0.188401</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137676</v>
+        <v>0.135965</v>
       </c>
       <c r="C33" t="n">
-        <v>0.128376</v>
+        <v>0.128225</v>
       </c>
       <c r="D33" t="n">
-        <v>0.143499</v>
+        <v>0.192679</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138916</v>
+        <v>0.138803</v>
       </c>
       <c r="C34" t="n">
-        <v>0.129062</v>
+        <v>0.132362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.144292</v>
+        <v>0.197579</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141542</v>
+        <v>0.140486</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13284</v>
+        <v>0.132359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.147081</v>
+        <v>0.154524</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147133</v>
+        <v>0.146074</v>
       </c>
       <c r="C36" t="n">
-        <v>0.13979</v>
+        <v>0.139791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153492</v>
+        <v>0.15771</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154752</v>
+        <v>0.153016</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135963</v>
+        <v>0.137448</v>
       </c>
       <c r="D37" t="n">
-        <v>0.154001</v>
+        <v>0.165663</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147304</v>
+        <v>0.147299</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138617</v>
+        <v>0.13953</v>
       </c>
       <c r="D38" t="n">
-        <v>0.159675</v>
+        <v>0.166163</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150889</v>
+        <v>0.146435</v>
       </c>
       <c r="C39" t="n">
-        <v>0.137353</v>
+        <v>0.138755</v>
       </c>
       <c r="D39" t="n">
-        <v>0.158132</v>
+        <v>0.169343</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149094</v>
+        <v>0.152323</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1395</v>
+        <v>0.13766</v>
       </c>
       <c r="D40" t="n">
-        <v>0.156248</v>
+        <v>0.174075</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146572</v>
+        <v>0.146692</v>
       </c>
       <c r="C41" t="n">
-        <v>0.139322</v>
+        <v>0.142459</v>
       </c>
       <c r="D41" t="n">
-        <v>0.158001</v>
+        <v>0.178512</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149072</v>
+        <v>0.147467</v>
       </c>
       <c r="C42" t="n">
-        <v>0.140517</v>
+        <v>0.141724</v>
       </c>
       <c r="D42" t="n">
-        <v>0.159305</v>
+        <v>0.182822</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14966</v>
+        <v>0.145882</v>
       </c>
       <c r="C43" t="n">
-        <v>0.140594</v>
+        <v>0.137597</v>
       </c>
       <c r="D43" t="n">
-        <v>0.156359</v>
+        <v>0.188911</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148271</v>
+        <v>0.147463</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141671</v>
+        <v>0.138659</v>
       </c>
       <c r="D44" t="n">
-        <v>0.157657</v>
+        <v>0.193679</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148351</v>
+        <v>0.147974</v>
       </c>
       <c r="C45" t="n">
-        <v>0.139014</v>
+        <v>0.143638</v>
       </c>
       <c r="D45" t="n">
-        <v>0.155382</v>
+        <v>0.19779</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149072</v>
+        <v>0.149044</v>
       </c>
       <c r="C46" t="n">
-        <v>0.139038</v>
+        <v>0.139722</v>
       </c>
       <c r="D46" t="n">
-        <v>0.155393</v>
+        <v>0.202283</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149194</v>
+        <v>0.150334</v>
       </c>
       <c r="C47" t="n">
-        <v>0.141265</v>
+        <v>0.142097</v>
       </c>
       <c r="D47" t="n">
-        <v>0.160399</v>
+        <v>0.206802</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153669</v>
+        <v>0.156121</v>
       </c>
       <c r="C48" t="n">
-        <v>0.142373</v>
+        <v>0.14697</v>
       </c>
       <c r="D48" t="n">
-        <v>0.159077</v>
+        <v>0.212032</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.154299</v>
+        <v>0.157841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.14827</v>
+        <v>0.148409</v>
       </c>
       <c r="D49" t="n">
-        <v>0.167119</v>
+        <v>0.216136</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163204</v>
+        <v>0.161178</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15358</v>
+        <v>0.152696</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171976</v>
+        <v>0.158273</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166793</v>
+        <v>0.166307</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151511</v>
+        <v>0.150946</v>
       </c>
       <c r="D51" t="n">
-        <v>0.168561</v>
+        <v>0.161565</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175279</v>
+        <v>0.175802</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148319</v>
+        <v>0.148484</v>
       </c>
       <c r="D52" t="n">
-        <v>0.166636</v>
+        <v>0.164953</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.164231</v>
+        <v>0.159288</v>
       </c>
       <c r="C53" t="n">
-        <v>0.153378</v>
+        <v>0.148409</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167244</v>
+        <v>0.169039</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.168422</v>
+        <v>0.161452</v>
       </c>
       <c r="C54" t="n">
-        <v>0.150108</v>
+        <v>0.15158</v>
       </c>
       <c r="D54" t="n">
-        <v>0.168351</v>
+        <v>0.172516</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.169253</v>
+        <v>0.161544</v>
       </c>
       <c r="C55" t="n">
-        <v>0.151228</v>
+        <v>0.150988</v>
       </c>
       <c r="D55" t="n">
-        <v>0.170758</v>
+        <v>0.176594</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164178</v>
+        <v>0.166134</v>
       </c>
       <c r="C56" t="n">
-        <v>0.152798</v>
+        <v>0.15589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169832</v>
+        <v>0.182436</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.167726</v>
+        <v>0.159254</v>
       </c>
       <c r="C57" t="n">
-        <v>0.150468</v>
+        <v>0.15457</v>
       </c>
       <c r="D57" t="n">
-        <v>0.172015</v>
+        <v>0.185668</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.173212</v>
+        <v>0.161081</v>
       </c>
       <c r="C58" t="n">
-        <v>0.152226</v>
+        <v>0.151253</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170638</v>
+        <v>0.190158</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166634</v>
+        <v>0.163076</v>
       </c>
       <c r="C59" t="n">
-        <v>0.151519</v>
+        <v>0.15298</v>
       </c>
       <c r="D59" t="n">
-        <v>0.173388</v>
+        <v>0.194953</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16107</v>
+        <v>0.166035</v>
       </c>
       <c r="C60" t="n">
-        <v>0.154543</v>
+        <v>0.156545</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174748</v>
+        <v>0.199311</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165726</v>
+        <v>0.165477</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156622</v>
+        <v>0.156155</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175559</v>
+        <v>0.203556</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167961</v>
+        <v>0.169242</v>
       </c>
       <c r="C62" t="n">
-        <v>0.157963</v>
+        <v>0.159223</v>
       </c>
       <c r="D62" t="n">
-        <v>0.176402</v>
+        <v>0.209354</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171796</v>
+        <v>0.170748</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16091</v>
+        <v>0.161588</v>
       </c>
       <c r="D63" t="n">
-        <v>0.180143</v>
+        <v>0.212801</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175942</v>
+        <v>0.177066</v>
       </c>
       <c r="C64" t="n">
-        <v>0.165754</v>
+        <v>0.163897</v>
       </c>
       <c r="D64" t="n">
-        <v>0.183115</v>
+        <v>0.163142</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180195</v>
+        <v>0.182505</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170889</v>
+        <v>0.17215</v>
       </c>
       <c r="D65" t="n">
-        <v>0.189338</v>
+        <v>0.167033</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187735</v>
+        <v>0.187904</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167363</v>
+        <v>0.161972</v>
       </c>
       <c r="D66" t="n">
-        <v>0.17998</v>
+        <v>0.171142</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.195296</v>
+        <v>0.181557</v>
       </c>
       <c r="C67" t="n">
-        <v>0.161535</v>
+        <v>0.165172</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183681</v>
+        <v>0.174815</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.181238</v>
+        <v>0.192749</v>
       </c>
       <c r="C68" t="n">
-        <v>0.165822</v>
+        <v>0.168337</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183033</v>
+        <v>0.180627</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.194595</v>
+        <v>0.192142</v>
       </c>
       <c r="C69" t="n">
-        <v>0.164102</v>
+        <v>0.166804</v>
       </c>
       <c r="D69" t="n">
-        <v>0.185797</v>
+        <v>0.186917</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.185099</v>
+        <v>0.197702</v>
       </c>
       <c r="C70" t="n">
-        <v>0.167453</v>
+        <v>0.165628</v>
       </c>
       <c r="D70" t="n">
-        <v>0.183268</v>
+        <v>0.18986</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.190303</v>
+        <v>0.19549</v>
       </c>
       <c r="C71" t="n">
-        <v>0.168056</v>
+        <v>0.168071</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184882</v>
+        <v>0.199375</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.197182</v>
+        <v>0.190441</v>
       </c>
       <c r="C72" t="n">
-        <v>0.16992</v>
+        <v>0.171489</v>
       </c>
       <c r="D72" t="n">
-        <v>0.184112</v>
+        <v>0.207076</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199046</v>
+        <v>0.190271</v>
       </c>
       <c r="C73" t="n">
-        <v>0.169967</v>
+        <v>0.167646</v>
       </c>
       <c r="D73" t="n">
-        <v>0.186104</v>
+        <v>0.214079</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19156</v>
+        <v>0.18897</v>
       </c>
       <c r="C74" t="n">
-        <v>0.16917</v>
+        <v>0.168652</v>
       </c>
       <c r="D74" t="n">
-        <v>0.187707</v>
+        <v>0.221978</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.19335</v>
+        <v>0.197138</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17128</v>
+        <v>0.170829</v>
       </c>
       <c r="D75" t="n">
-        <v>0.186912</v>
+        <v>0.230561</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201038</v>
+        <v>0.20118</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172423</v>
+        <v>0.172655</v>
       </c>
       <c r="D76" t="n">
-        <v>0.190591</v>
+        <v>0.242194</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199132</v>
+        <v>0.195124</v>
       </c>
       <c r="C77" t="n">
-        <v>0.173956</v>
+        <v>0.172703</v>
       </c>
       <c r="D77" t="n">
-        <v>0.191968</v>
+        <v>0.262145</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204504</v>
+        <v>0.19407</v>
       </c>
       <c r="C78" t="n">
-        <v>0.177654</v>
+        <v>0.176414</v>
       </c>
       <c r="D78" t="n">
-        <v>0.196452</v>
+        <v>0.216668</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.211492</v>
+        <v>0.194915</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184408</v>
+        <v>0.181014</v>
       </c>
       <c r="D79" t="n">
-        <v>0.202575</v>
+        <v>0.221075</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21566</v>
+        <v>0.201727</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244729</v>
+        <v>0.219966</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270597</v>
+        <v>0.230338</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.355606</v>
+        <v>0.33784</v>
       </c>
       <c r="C81" t="n">
-        <v>0.245501</v>
+        <v>0.215249</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270191</v>
+        <v>0.242469</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.358487</v>
+        <v>0.339707</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249126</v>
+        <v>0.235496</v>
       </c>
       <c r="D82" t="n">
-        <v>0.274398</v>
+        <v>0.252501</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.358384</v>
+        <v>0.341308</v>
       </c>
       <c r="C83" t="n">
-        <v>0.246001</v>
+        <v>0.215715</v>
       </c>
       <c r="D83" t="n">
-        <v>0.271113</v>
+        <v>0.263367</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.362089</v>
+        <v>0.347239</v>
       </c>
       <c r="C84" t="n">
-        <v>0.248083</v>
+        <v>0.238913</v>
       </c>
       <c r="D84" t="n">
-        <v>0.272512</v>
+        <v>0.275817</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.36048</v>
+        <v>0.348701</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246468</v>
+        <v>0.221743</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268628</v>
+        <v>0.294852</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.360382</v>
+        <v>0.348366</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246029</v>
+        <v>0.242187</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268213</v>
+        <v>0.302238</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.361532</v>
+        <v>0.348653</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243839</v>
+        <v>0.241519</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267804</v>
+        <v>0.320096</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.362894</v>
+        <v>0.346657</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24472</v>
+        <v>0.239606</v>
       </c>
       <c r="D88" t="n">
-        <v>0.268455</v>
+        <v>0.33406</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.364439</v>
+        <v>0.348218</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246243</v>
+        <v>0.23943</v>
       </c>
       <c r="D89" t="n">
-        <v>0.267143</v>
+        <v>0.350568</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.367368</v>
+        <v>0.354822</v>
       </c>
       <c r="C90" t="n">
-        <v>0.228772</v>
+        <v>0.23973</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245402</v>
+        <v>0.367602</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.36943</v>
+        <v>0.34516</v>
       </c>
       <c r="C91" t="n">
-        <v>0.230745</v>
+        <v>0.216195</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245189</v>
+        <v>0.383102</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.372766</v>
+        <v>0.356183</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248452</v>
+        <v>0.238588</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269489</v>
+        <v>0.329195</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378142</v>
+        <v>0.358517</v>
       </c>
       <c r="C93" t="n">
-        <v>0.248449</v>
+        <v>0.221259</v>
       </c>
       <c r="D93" t="n">
-        <v>0.267868</v>
+        <v>0.338659</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.383663</v>
+        <v>0.365798</v>
       </c>
       <c r="C94" t="n">
-        <v>0.42436</v>
+        <v>0.399342</v>
       </c>
       <c r="D94" t="n">
-        <v>0.494963</v>
+        <v>0.349067</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.535363</v>
+        <v>0.504579</v>
       </c>
       <c r="C95" t="n">
-        <v>0.422883</v>
+        <v>0.390148</v>
       </c>
       <c r="D95" t="n">
-        <v>0.494198</v>
+        <v>0.359732</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535348</v>
+        <v>0.505155</v>
       </c>
       <c r="C96" t="n">
-        <v>0.422138</v>
+        <v>0.387539</v>
       </c>
       <c r="D96" t="n">
-        <v>0.490951</v>
+        <v>0.371069</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.53469</v>
+        <v>0.505657</v>
       </c>
       <c r="C97" t="n">
-        <v>0.422362</v>
+        <v>0.402293</v>
       </c>
       <c r="D97" t="n">
-        <v>0.491033</v>
+        <v>0.383061</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.535812</v>
+        <v>0.505884</v>
       </c>
       <c r="C98" t="n">
-        <v>0.424473</v>
+        <v>0.393539</v>
       </c>
       <c r="D98" t="n">
-        <v>0.488113</v>
+        <v>0.392262</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5355</v>
+        <v>0.5057430000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.421319</v>
+        <v>0.39271</v>
       </c>
       <c r="D99" t="n">
-        <v>0.488989</v>
+        <v>0.412534</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.536151</v>
+        <v>0.506568</v>
       </c>
       <c r="C100" t="n">
-        <v>0.422675</v>
+        <v>0.394274</v>
       </c>
       <c r="D100" t="n">
-        <v>0.488723</v>
+        <v>0.419269</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.537476</v>
+        <v>0.5069630000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.42275</v>
+        <v>0.402464</v>
       </c>
       <c r="D101" t="n">
-        <v>0.488629</v>
+        <v>0.43914</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.537981</v>
+        <v>0.504144</v>
       </c>
       <c r="C102" t="n">
-        <v>0.424339</v>
+        <v>0.401053</v>
       </c>
       <c r="D102" t="n">
-        <v>0.488354</v>
+        <v>0.450779</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.53873</v>
+        <v>0.509977</v>
       </c>
       <c r="C103" t="n">
-        <v>0.424544</v>
+        <v>0.390803</v>
       </c>
       <c r="D103" t="n">
-        <v>0.488932</v>
+        <v>0.472796</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.542266</v>
+        <v>0.511372</v>
       </c>
       <c r="C104" t="n">
-        <v>0.424973</v>
+        <v>0.392487</v>
       </c>
       <c r="D104" t="n">
-        <v>0.490779</v>
+        <v>0.490193</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.544434</v>
+        <v>0.514038</v>
       </c>
       <c r="C105" t="n">
-        <v>0.425319</v>
+        <v>0.391978</v>
       </c>
       <c r="D105" t="n">
-        <v>0.487866</v>
+        <v>0.507071</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.547195</v>
+        <v>0.514127</v>
       </c>
       <c r="C106" t="n">
-        <v>0.428846</v>
+        <v>0.408068</v>
       </c>
       <c r="D106" t="n">
-        <v>0.474693</v>
+        <v>0.522933</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.552669</v>
+        <v>0.5220089999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.433179</v>
+        <v>0.410635</v>
       </c>
       <c r="D107" t="n">
-        <v>0.492251</v>
+        <v>0.530749</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.560012</v>
+        <v>0.529068</v>
       </c>
       <c r="C108" t="n">
-        <v>0.569029</v>
+        <v>0.53939</v>
       </c>
       <c r="D108" t="n">
-        <v>0.67561</v>
+        <v>0.543396</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.57119</v>
+        <v>0.54164</v>
       </c>
       <c r="C109" t="n">
-        <v>0.570308</v>
+        <v>0.540887</v>
       </c>
       <c r="D109" t="n">
-        <v>0.677551</v>
+        <v>0.542781</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.626261</v>
+        <v>0.591715</v>
       </c>
       <c r="C110" t="n">
-        <v>0.570087</v>
+        <v>0.542099</v>
       </c>
       <c r="D110" t="n">
-        <v>0.685698</v>
+        <v>0.55601</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.627464</v>
+        <v>0.588678</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574906</v>
+        <v>0.540724</v>
       </c>
       <c r="D111" t="n">
-        <v>0.691474</v>
+        <v>0.562603</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.626252</v>
+        <v>0.5896709999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.570999</v>
+        <v>0.54177</v>
       </c>
       <c r="D112" t="n">
-        <v>0.688616</v>
+        <v>0.589307</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.628897</v>
+        <v>0.583962</v>
       </c>
       <c r="C113" t="n">
-        <v>0.575884</v>
+        <v>0.528741</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6900309999999999</v>
+        <v>0.6006320000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6269670000000001</v>
+        <v>0.583568</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5779530000000001</v>
+        <v>0.5433249999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.676728</v>
+        <v>0.613336</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.62954</v>
+        <v>0.592318</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5744089999999999</v>
+        <v>0.542099</v>
       </c>
       <c r="D115" t="n">
-        <v>0.691993</v>
+        <v>0.616854</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.629574</v>
+        <v>0.595534</v>
       </c>
       <c r="C116" t="n">
-        <v>0.576951</v>
+        <v>0.544916</v>
       </c>
       <c r="D116" t="n">
-        <v>0.690519</v>
+        <v>0.6415149999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.631948</v>
+        <v>0.595252</v>
       </c>
       <c r="C117" t="n">
-        <v>0.584766</v>
+        <v>0.534616</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6949379999999999</v>
+        <v>0.654568</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.634011</v>
+        <v>0.598795</v>
       </c>
       <c r="C118" t="n">
-        <v>0.578421</v>
+        <v>0.547742</v>
       </c>
       <c r="D118" t="n">
-        <v>0.683371</v>
+        <v>0.6717379999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.641328</v>
+        <v>0.60792</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5863080000000001</v>
+        <v>0.549916</v>
       </c>
       <c r="D119" t="n">
-        <v>0.700377</v>
+        <v>0.699636</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6452329999999999</v>
+        <v>0.608531</v>
       </c>
       <c r="C120" t="n">
-        <v>0.583544</v>
+        <v>0.5560659999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6996790000000001</v>
+        <v>0.708267</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.648156</v>
+        <v>0.613394</v>
       </c>
       <c r="C121" t="n">
-        <v>0.594483</v>
+        <v>0.561119</v>
       </c>
       <c r="D121" t="n">
-        <v>0.706082</v>
+        <v>0.638808</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.659766</v>
+        <v>0.621965</v>
       </c>
       <c r="C122" t="n">
-        <v>0.601568</v>
+        <v>0.563523</v>
       </c>
       <c r="D122" t="n">
-        <v>0.711557</v>
+        <v>0.648648</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.672519</v>
+        <v>0.633906</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7507740000000001</v>
+        <v>0.702249</v>
       </c>
       <c r="D123" t="n">
-        <v>0.848732</v>
+        <v>0.64412</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.785127</v>
+        <v>0.735795</v>
       </c>
       <c r="C124" t="n">
-        <v>0.75199</v>
+        <v>0.703987</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8556589999999999</v>
+        <v>0.671365</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.787317</v>
+        <v>0.7341</v>
       </c>
       <c r="C125" t="n">
-        <v>0.751485</v>
+        <v>0.707785</v>
       </c>
       <c r="D125" t="n">
-        <v>0.854583</v>
+        <v>0.686573</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.789584</v>
+        <v>0.73534</v>
       </c>
       <c r="C126" t="n">
-        <v>0.756022</v>
+        <v>0.70436</v>
       </c>
       <c r="D126" t="n">
-        <v>0.856653</v>
+        <v>0.6864130000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.789054</v>
+        <v>0.73177</v>
       </c>
       <c r="C127" t="n">
-        <v>0.754498</v>
+        <v>0.696368</v>
       </c>
       <c r="D127" t="n">
-        <v>0.855391</v>
+        <v>0.712385</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.790869</v>
+        <v>0.745052</v>
       </c>
       <c r="C128" t="n">
-        <v>0.75535</v>
+        <v>0.709221</v>
       </c>
       <c r="D128" t="n">
-        <v>0.85791</v>
+        <v>0.706527</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.789836</v>
+        <v>0.740761</v>
       </c>
       <c r="C129" t="n">
-        <v>0.758917</v>
+        <v>0.686906</v>
       </c>
       <c r="D129" t="n">
-        <v>0.859137</v>
+        <v>0.738928</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.791593</v>
+        <v>0.73005</v>
       </c>
       <c r="C130" t="n">
-        <v>0.76069</v>
+        <v>0.708353</v>
       </c>
       <c r="D130" t="n">
-        <v>0.861038</v>
+        <v>0.743625</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.791694</v>
+        <v>0.7431219999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.762462</v>
+        <v>0.693785</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862447</v>
+        <v>0.7619939999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.795758</v>
+        <v>0.741158</v>
       </c>
       <c r="C132" t="n">
-        <v>0.760771</v>
+        <v>0.709425</v>
       </c>
       <c r="D132" t="n">
-        <v>0.864066</v>
+        <v>0.788798</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.805048</v>
+        <v>0.750686</v>
       </c>
       <c r="C133" t="n">
-        <v>0.769284</v>
+        <v>0.713356</v>
       </c>
       <c r="D133" t="n">
-        <v>0.867538</v>
+        <v>0.79864</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.807843</v>
+        <v>0.75087</v>
       </c>
       <c r="C134" t="n">
-        <v>0.770313</v>
+        <v>0.708438</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8715349999999999</v>
+        <v>0.8151620000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8148919999999999</v>
+        <v>0.7579360000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.775409</v>
+        <v>0.721727</v>
       </c>
       <c r="D135" t="n">
-        <v>0.873223</v>
+        <v>0.586386</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8233740000000001</v>
+        <v>0.7644</v>
       </c>
       <c r="C136" t="n">
-        <v>0.783191</v>
+        <v>0.731294</v>
       </c>
       <c r="D136" t="n">
-        <v>0.882863</v>
+        <v>0.6027400000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8341460000000001</v>
+        <v>0.786171</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8955689999999999</v>
+        <v>0.831087</v>
       </c>
       <c r="D137" t="n">
-        <v>0.962866</v>
+        <v>0.611559</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.926538</v>
+        <v>0.868899</v>
       </c>
       <c r="C138" t="n">
-        <v>0.89721</v>
+        <v>0.841622</v>
       </c>
       <c r="D138" t="n">
-        <v>0.963264</v>
+        <v>0.622437</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.926569</v>
+        <v>0.869793</v>
       </c>
       <c r="C139" t="n">
-        <v>0.894583</v>
+        <v>0.84172</v>
       </c>
       <c r="D139" t="n">
-        <v>0.960804</v>
+        <v>0.633341</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.927054</v>
+        <v>0.869071</v>
       </c>
       <c r="C140" t="n">
-        <v>0.899338</v>
+        <v>0.832866</v>
       </c>
       <c r="D140" t="n">
-        <v>0.964871</v>
+        <v>0.64479</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.927017</v>
+        <v>0.869484</v>
       </c>
       <c r="C141" t="n">
-        <v>0.899741</v>
+        <v>0.844059</v>
       </c>
       <c r="D141" t="n">
-        <v>0.964611</v>
+        <v>0.657064</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.92622</v>
+        <v>0.858329</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9000050000000001</v>
+        <v>0.844569</v>
       </c>
       <c r="D142" t="n">
-        <v>0.960423</v>
+        <v>0.6708730000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.92999</v>
+        <v>0.872244</v>
       </c>
       <c r="C143" t="n">
-        <v>0.900928</v>
+        <v>0.845423</v>
       </c>
       <c r="D143" t="n">
-        <v>0.964299</v>
+        <v>0.685217</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.019845</v>
+                  <v>0.0196861</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198904</v>
+                  <v>0.0197442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199411</v>
+                  <v>0.0197441</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199892</v>
+                  <v>0.0197505</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201312</v>
+                  <v>0.0199072</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0202981</v>
+                  <v>0.020167</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0205168</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0208663</v>
+                  <v>0.0205995</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194247</v>
+                  <v>0.0193044</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196249</v>
+                  <v>0.0194655</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198597</v>
+                  <v>0.0196123</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019879</v>
+                  <v>0.0198252</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0201309</v>
+                  <v>0.0198606</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201944</v>
+                  <v>0.0200329</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0204396</v>
+                  <v>0.0200361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0204292</v>
+                  <v>0.020201</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0206016</v>
+                  <v>0.0201688</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0208694</v>
+                  <v>0.0204639</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208716</v>
+                  <v>0.020687</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.021266</v>
+                  <v>0.0209861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0221654</v>
+                  <v>0.0214982</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0254766</v>
+                  <v>0.0232463</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0204662</v>
+                  <v>0.0203659</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0205747</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207285</v>
+                  <v>0.0206548</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208946</v>
+                  <v>0.0208464</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0211401</v>
+                  <v>0.0210504</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0213119</v>
+                  <v>0.0212226</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214143</v>
+                  <v>0.0216188</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0217806</v>
+                  <v>0.0218555</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218731</v>
+                  <v>0.0220454</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0220813</v>
+                  <v>0.0221091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.022994</v>
+                  <v>0.0229123</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248609</v>
+                  <v>0.023554</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0303561</v>
+                  <v>0.025525</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0334795</v>
+                  <v>0.0295991</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0213853</v>
+                  <v>0.0226652</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0215081</v>
+                  <v>0.0226726</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0216916</v>
+                  <v>0.0230688</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0218279</v>
+                  <v>0.0220955</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0219942</v>
+                  <v>0.0221313</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0223725</v>
+                  <v>0.0224242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226982</v>
+                  <v>0.0226252</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230858</v>
+                  <v>0.0229498</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235639</v>
+                  <v>0.0233683</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0246222</v>
+                  <v>0.024254</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0261523</v>
+                  <v>0.0251133</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.028148</v>
+                  <v>0.0266522</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310283</v>
+                  <v>0.029904</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0349552</v>
+                  <v>0.0329878</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0411047</v>
+                  <v>0.0389153</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0235334</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233996</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240147</v>
+                  <v>0.0234553</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237518</v>
+                  <v>0.0236761</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0243179</v>
+                  <v>0.0239042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0246823</v>
+                  <v>0.0242977</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0250545</v>
+                  <v>0.0246093</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256238</v>
+                  <v>0.0252684</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0266776</v>
+                  <v>0.0261573</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0281548</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0303362</v>
+                  <v>0.0293145</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0330569</v>
+                  <v>0.0323043</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0370665</v>
+                  <v>0.0357062</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420454</v>
+                  <v>0.0407992</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292569</v>
+                  <v>0.0291067</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293821</v>
+                  <v>0.0292957</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294515</v>
+                  <v>0.0294658</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297582</v>
+                  <v>0.0296458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298101</v>
+                  <v>0.0298446</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302477</v>
+                  <v>0.0303077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0307674</v>
+                  <v>0.0305738</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0314948</v>
+                  <v>0.0311089</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0322669</v>
+                  <v>0.031958</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0336498</v>
+                  <v>0.0331584</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353674</v>
+                  <v>0.0348142</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0379218</v>
+                  <v>0.0371248</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0413547</v>
+                  <v>0.0406293</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.045947</v>
+                  <v>0.0455093</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0557759</v>
+                  <v>0.054876</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0559223</v>
+                  <v>0.0551749</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0561782</v>
+                  <v>0.0552561</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0562248</v>
+                  <v>0.0555251</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0564335</v>
+                  <v>0.0557353</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0568433</v>
+                  <v>0.0559444</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0571164</v>
+                  <v>0.056275</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0573685</v>
+                  <v>0.0565668</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0579423</v>
+                  <v>0.0570285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0585424</v>
+                  <v>0.0577995</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0597217</v>
+                  <v>0.0587407</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0613516</v>
+                  <v>0.0605897</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0637716</v>
+                  <v>0.0631306</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0674956</v>
+                  <v>0.06695570000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0857108</v>
+                  <v>0.09221509999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.085729</v>
+                  <v>0.0858753</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08582099999999999</v>
+                  <v>0.08594309999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.085891</v>
+                  <v>0.0860457</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08591310000000001</v>
+                  <v>0.0861672</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0952533</v>
+                  <v>0.0863088</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0900392</v>
+                  <v>0.0865691</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0865544</v>
+                  <v>0.0868321</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08702120000000001</v>
+                  <v>0.08713460000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08758929999999999</v>
+                  <v>0.08769159999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0884514</v>
+                  <v>0.0958198</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08982080000000001</v>
+                  <v>0.0898485</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0916886</v>
+                  <v>0.095514</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949089</v>
+                  <v>0.09515</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.09997010000000001</v>
+                  <v>0.100163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.107963</v>
+                  <v>0.1074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108243</v>
+                  <v>0.10739</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.108225</v>
+                  <v>0.107504</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.10822</v>
+                  <v>0.107377</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.108618</v>
+                  <v>0.114714</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108608</v>
+                  <v>0.108009</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109047</v>
+                  <v>0.108717</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109454</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110007</v>
+                  <v>0.110397</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110855</v>
+                  <v>0.111361</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112081</v>
+                  <v>0.112842</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.113914</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.116949</v>
+                  <v>0.117867</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.121459</v>
+                  <v>0.124715</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.134045</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.141735</v>
+                  <v>0.140249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.14386</v>
+                  <v>0.139831</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.141993</v>
+                  <v>0.139692</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.141564</v>
+                  <v>0.139658</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.141767</v>
+                  <v>0.139443</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142252</v>
+                  <v>0.139582</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142466</v>
+                  <v>0.139867</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.143005</v>
+                  <v>0.14053</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.143627</v>
+                  <v>0.141002</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144639</v>
+                  <v>0.142003</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.146121</v>
+                  <v>0.143615</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.148787</v>
+                  <v>0.145983</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.153145</v>
+                  <v>0.150084</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.160222</v>
+                  <v>0.158033</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15805</v>
+                  <v>0.157812</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.158093</v>
+                  <v>0.157958</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158066</v>
+                  <v>0.158179</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158317</v>
+                  <v>0.158157</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158434</v>
+                  <v>0.158476</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0207816</v>
+                  <v>0.021348</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0208667</v>
+                  <v>0.0214877</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208241</v>
+                  <v>0.0216247</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207476</v>
+                  <v>0.0218795</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.020652</v>
+                  <v>0.0221566</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0209277</v>
+                  <v>0.0227802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0208354</v>
+                  <v>0.0236896</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021057</v>
+                  <v>0.0202692</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207722</v>
+                  <v>0.0207092</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211993</v>
+                  <v>0.0210303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.021061</v>
+                  <v>0.0213025</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0212452</v>
+                  <v>0.0213527</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0215641</v>
+                  <v>0.0218472</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0219941</v>
+                  <v>0.0222591</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0221573</v>
+                  <v>0.0226628</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022048</v>
+                  <v>0.022977</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.022091</v>
+                  <v>0.0233228</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223514</v>
+                  <v>0.0238671</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224619</v>
+                  <v>0.0246036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0226031</v>
+                  <v>0.0252305</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229443</v>
+                  <v>0.0277472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0236086</v>
+                  <v>0.0217618</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218909</v>
+                  <v>0.0219587</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0220636</v>
+                  <v>0.0222026</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222406</v>
+                  <v>0.0224898</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225907</v>
+                  <v>0.0228074</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.022887</v>
+                  <v>0.0232103</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0230842</v>
+                  <v>0.0236661</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234928</v>
+                  <v>0.0240376</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0237357</v>
+                  <v>0.0245248</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0239547</v>
+                  <v>0.0252023</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0241213</v>
+                  <v>0.0257564</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0246092</v>
+                  <v>0.0270565</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0256069</v>
+                  <v>0.0287934</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0258742</v>
+                  <v>0.0324096</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0314078</v>
+                  <v>0.0236684</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231422</v>
+                  <v>0.0241302</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0232697</v>
+                  <v>0.0244332</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0236008</v>
+                  <v>0.0245736</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239637</v>
+                  <v>0.0239295</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0241731</v>
+                  <v>0.0243207</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.024655</v>
+                  <v>0.0252591</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0250199</v>
+                  <v>0.0256591</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0254471</v>
+                  <v>0.0259074</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0257887</v>
+                  <v>0.0266036</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.026411</v>
+                  <v>0.027689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273266</v>
+                  <v>0.0291986</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288305</v>
+                  <v>0.0317988</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310001</v>
+                  <v>0.0360721</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0354398</v>
+                  <v>0.023394</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0403807</v>
+                  <v>0.0236044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246173</v>
+                  <v>0.023867</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0249205</v>
+                  <v>0.0241515</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0252809</v>
+                  <v>0.0244875</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0256266</v>
+                  <v>0.0249477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0260148</v>
+                  <v>0.0253774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0264257</v>
+                  <v>0.0259302</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0269137</v>
+                  <v>0.0265094</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274746</v>
+                  <v>0.0274929</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0282353</v>
+                  <v>0.0286629</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0295079</v>
+                  <v>0.0303873</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0309257</v>
+                  <v>0.0330881</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0332921</v>
+                  <v>0.0367975</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0365299</v>
+                  <v>0.0428056</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0415142</v>
+                  <v>0.0248565</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0269617</v>
+                  <v>0.0254945</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0268134</v>
+                  <v>0.025829</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0271091</v>
+                  <v>0.0266013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.028098</v>
+                  <v>0.0265404</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.028241</v>
+                  <v>0.0270211</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0283238</v>
+                  <v>0.027483</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0289933</v>
+                  <v>0.0281629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0297943</v>
+                  <v>0.0291473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0305728</v>
+                  <v>0.0302343</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0318959</v>
+                  <v>0.0321709</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0330477</v>
+                  <v>0.0346453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0355949</v>
+                  <v>0.038211</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0380312</v>
+                  <v>0.0437751</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0422199</v>
+                  <v>0.0369618</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0358291</v>
+                  <v>0.0377666</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0366934</v>
+                  <v>0.0385693</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0371542</v>
+                  <v>0.0393414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0385504</v>
+                  <v>0.0400166</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0397275</v>
+                  <v>0.0406419</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0406958</v>
+                  <v>0.0415556</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0420235</v>
+                  <v>0.0424017</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.043628</v>
+                  <v>0.0449697</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0448497</v>
+                  <v>0.0442997</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0467952</v>
+                  <v>0.0456659</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0485398</v>
+                  <v>0.047738</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.050625</v>
+                  <v>0.0505484</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0531723</v>
+                  <v>0.0549595</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0575467</v>
+                  <v>0.0715803</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0690796</v>
+                  <v>0.0719887</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0695586</v>
+                  <v>0.0723747</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07006270000000001</v>
+                  <v>0.0728399</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0706492</v>
+                  <v>0.07350520000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0712165</v>
+                  <v>0.0740489</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0719084</v>
+                  <v>0.0746351</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0726926</v>
+                  <v>0.0754398</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.073481</v>
+                  <v>0.07621650000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0744592</v>
+                  <v>0.0796057</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0757119</v>
+                  <v>0.07860830000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0771091</v>
+                  <v>0.0804361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0789149</v>
+                  <v>0.0829439</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08129740000000001</v>
+                  <v>0.08686770000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.085034</v>
+                  <v>0.0889514</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0910459</v>
+                  <v>0.089729</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.08287219999999999</v>
+                  <v>0.0904097</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.08375249999999999</v>
+                  <v>0.0913191</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0846664</v>
+                  <v>0.0921503</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0856579</v>
+                  <v>0.0931935</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.08681120000000001</v>
+                  <v>0.09714059999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.08786919999999999</v>
+                  <v>0.09524050000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0892593</v>
+                  <v>0.096618</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0907998</v>
+                  <v>0.0979674</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0923614</v>
+                  <v>0.0996447</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0942355</v>
+                  <v>0.101745</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.096293</v>
+                  <v>0.104375</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0990901</v>
+                  <v>0.108312</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102927</v>
+                  <v>0.114594</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.108871</v>
+                  <v>0.106984</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0958808</v>
+                  <v>0.119349</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.09704169999999999</v>
+                  <v>0.109142</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0989488</v>
+                  <v>0.110214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.100162</v>
+                  <v>0.111475</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.101129</v>
+                  <v>0.112737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.102743</v>
+                  <v>0.11413</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.10443</v>
+                  <v>0.115719</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.106431</v>
+                  <v>0.117336</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.108216</v>
+                  <v>0.119263</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.110255</v>
+                  <v>0.121651</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112815</v>
+                  <v>0.124577</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.11575</v>
+                  <v>0.128814</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.119701</v>
+                  <v>0.13534</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.126693</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.108481</v>
+                  <v>0.119444</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.109886</v>
+                  <v>0.120531</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.111216</v>
+                  <v>0.121662</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.112687</v>
+                  <v>0.122894</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.114154</v>
+                  <v>0.12405</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.115713</v>
+                  <v>0.125504</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0197621</v>
+                  <v>0.0336857</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0199124</v>
+                  <v>0.0394849</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199636</v>
+                  <v>0.0423094</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0200411</v>
+                  <v>0.0461472</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201853</v>
+                  <v>0.0507523</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0205493</v>
+                  <v>0.030305</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212255</v>
+                  <v>0.0319421</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0196114</v>
+                  <v>0.0344693</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196542</v>
+                  <v>0.0368055</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197311</v>
+                  <v>0.0393418</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200198</v>
+                  <v>0.0427875</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202983</v>
+                  <v>0.0475742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206514</v>
+                  <v>0.0488059</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208261</v>
+                  <v>0.0525665</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0213814</v>
+                  <v>0.0568101</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.021683</v>
+                  <v>0.0604767</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0218647</v>
+                  <v>0.0639252</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0217385</v>
+                  <v>0.0675722</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0221793</v>
+                  <v>0.0692373</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234999</v>
+                  <v>0.0444481</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.025596</v>
+                  <v>0.0475408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0208572</v>
+                  <v>0.0489493</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0211474</v>
+                  <v>0.0508013</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0213952</v>
+                  <v>0.0535126</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0216285</v>
+                  <v>0.0556632</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0219129</v>
+                  <v>0.0589148</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221909</v>
+                  <v>0.0614351</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226314</v>
+                  <v>0.06435200000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.02287</v>
+                  <v>0.0664998</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0232938</v>
+                  <v>0.07017470000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236459</v>
+                  <v>0.0725022</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243776</v>
+                  <v>0.0762954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0256094</v>
+                  <v>0.0772482</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0280099</v>
+                  <v>0.0518274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0318825</v>
+                  <v>0.0539981</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0222322</v>
+                  <v>0.0569381</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224761</v>
+                  <v>0.0590617</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226406</v>
+                  <v>0.0616864</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229219</v>
+                  <v>0.0607154</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0232372</v>
+                  <v>0.06472219999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235604</v>
+                  <v>0.0669053</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239217</v>
+                  <v>0.06983350000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0243675</v>
+                  <v>0.0728838</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0249258</v>
+                  <v>0.0752324</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0256372</v>
+                  <v>0.07806680000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0267547</v>
+                  <v>0.0802983</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0285161</v>
+                  <v>0.0828279</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0309254</v>
+                  <v>0.0846045</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.03463</v>
+                  <v>0.0575865</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0230982</v>
+                  <v>0.0593047</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0233375</v>
+                  <v>0.0611502</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023593</v>
+                  <v>0.0636737</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0238201</v>
+                  <v>0.0657292</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0241227</v>
+                  <v>0.06833930000000001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244723</v>
+                  <v>0.0707661</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.024922</v>
+                  <v>0.073903</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0253022</v>
+                  <v>0.0761425</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0259853</v>
+                  <v>0.078791</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0267356</v>
+                  <v>0.08170040000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0278598</v>
+                  <v>0.0839515</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0296228</v>
+                  <v>0.0861381</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0320613</v>
+                  <v>0.088853</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0356651</v>
+                  <v>0.0638098</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0410615</v>
+                  <v>0.06650739999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0247871</v>
+                  <v>0.0691383</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0249031</v>
+                  <v>0.0715653</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0256338</v>
+                  <v>0.0745817</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0258881</v>
+                  <v>0.07851610000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0259173</v>
+                  <v>0.0814839</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0262823</v>
+                  <v>0.0860113</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0271444</v>
+                  <v>0.09014419999999999</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0274852</v>
+                  <v>0.0948281</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283927</v>
+                  <v>0.0981105</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0298077</v>
+                  <v>0.101526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0311471</v>
+                  <v>0.107487</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0336077</v>
+                  <v>0.112807</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0368424</v>
+                  <v>0.0965601</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0414916</v>
+                  <v>0.101097</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0365337</v>
+                  <v>0.106082</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.037033</v>
+                  <v>0.110975</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385276</v>
+                  <v>0.114995</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0385709</v>
+                  <v>0.120023</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0392564</v>
+                  <v>0.125893</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0399463</v>
+                  <v>0.130762</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.040702</v>
+                  <v>0.136855</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.041626</v>
+                  <v>0.142491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0423938</v>
+                  <v>0.148735</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0433475</v>
+                  <v>0.154806</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0447666</v>
+                  <v>0.160276</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0465736</v>
+                  <v>0.165942</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0493242</v>
+                  <v>0.145194</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0542457</v>
+                  <v>0.148853</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.07123119999999999</v>
+                  <v>0.152457</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.071656</v>
+                  <v>0.156847</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721349</v>
+                  <v>0.16093</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07265770000000001</v>
+                  <v>0.165502</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0729856</v>
+                  <v>0.171025</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0736991</v>
+                  <v>0.176145</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0742898</v>
+                  <v>0.181854</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07498199999999999</v>
+                  <v>0.187152</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07573630000000001</v>
+                  <v>0.192849</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0766086</v>
+                  <v>0.199082</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.077876</v>
+                  <v>0.205029</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.07924580000000001</v>
+                  <v>0.211115</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08156239999999999</v>
+                  <v>0.217795</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0852509</v>
+                  <v>0.181761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08773590000000001</v>
+                  <v>0.184875</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0884414</v>
+                  <v>0.18853</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0892877</v>
+                  <v>0.193379</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0899992</v>
+                  <v>0.196792</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0907741</v>
+                  <v>0.201399</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0918117</v>
+                  <v>0.206374</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.092913</v>
+                  <v>0.211734</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09400500000000001</v>
+                  <v>0.218001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.100748</v>
+                  <v>0.223144</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.09656720000000001</v>
+                  <v>0.229767</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0981248</v>
+                  <v>0.235872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.100153</v>
+                  <v>0.240776</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.10274</v>
+                  <v>0.247637</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106587</v>
+                  <v>0.198997</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.112472</v>
+                  <v>0.202385</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106248</v>
+                  <v>0.205971</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.107515</v>
+                  <v>0.209681</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108771</v>
+                  <v>0.213857</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110258</v>
+                  <v>0.218441</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111363</v>
+                  <v>0.223282</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112139</v>
+                  <v>0.228864</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.113529</v>
+                  <v>0.234598</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.114912</v>
+                  <v>0.240649</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.116482</v>
+                  <v>0.251617</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.118414</v>
+                  <v>0.252683</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.120533</v>
+                  <v>0.258786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.123365</v>
+                  <v>0.264415</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.127277</v>
+                  <v>0.20958</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.133589</v>
+                  <v>0.21278</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.119571</v>
+                  <v>0.216352</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.123522</v>
+                  <v>0.219749</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120321</v>
+                  <v>0.224359</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121365</v>
+                  <v>0.228913</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122535</v>
+                  <v>0.236829</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123827</v>
+                  <v>0.239299</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125232</v>
+                  <v>0.2453</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112182</v>
+        <v>0.110401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109232</v>
+        <v>0.124868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.122873</v>
+        <v>0.124084</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113103</v>
+        <v>0.11073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.110171</v>
+        <v>0.125232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.123757</v>
+        <v>0.124398</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.114537</v>
+        <v>0.111473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.110258</v>
+        <v>0.125234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124165</v>
+        <v>0.124419</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11295</v>
+        <v>0.112031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.110204</v>
+        <v>0.125687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123793</v>
+        <v>0.124854</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112557</v>
+        <v>0.113233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110297</v>
+        <v>0.12654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124498</v>
+        <v>0.126031</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115325</v>
+        <v>0.11418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111403</v>
+        <v>0.127727</v>
       </c>
       <c r="D7" t="n">
-        <v>0.125973</v>
+        <v>0.126751</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117824</v>
+        <v>0.11623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113091</v>
+        <v>0.129878</v>
       </c>
       <c r="D8" t="n">
-        <v>0.128073</v>
+        <v>0.128945</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123365</v>
+        <v>0.120733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1187</v>
+        <v>0.129582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.131262</v>
+        <v>0.129511</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123035</v>
+        <v>0.121384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116352</v>
+        <v>0.130335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.131459</v>
+        <v>0.129597</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123715</v>
+        <v>0.12177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.117223</v>
+        <v>0.130293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.131602</v>
+        <v>0.130228</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124525</v>
+        <v>0.122084</v>
       </c>
       <c r="C12" t="n">
-        <v>0.117253</v>
+        <v>0.131083</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131404</v>
+        <v>0.131117</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124004</v>
+        <v>0.122735</v>
       </c>
       <c r="C13" t="n">
-        <v>0.117699</v>
+        <v>0.131473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132138</v>
+        <v>0.131302</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.124379</v>
+        <v>0.122889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117528</v>
+        <v>0.131255</v>
       </c>
       <c r="D14" t="n">
-        <v>0.132768</v>
+        <v>0.131089</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.125223</v>
+        <v>0.123449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.117789</v>
+        <v>0.131922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.132875</v>
+        <v>0.131845</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125475</v>
+        <v>0.123593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.118098</v>
+        <v>0.132175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.13286</v>
+        <v>0.131878</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125622</v>
+        <v>0.124091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118425</v>
+        <v>0.132782</v>
       </c>
       <c r="D17" t="n">
-        <v>0.133714</v>
+        <v>0.132118</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126883</v>
+        <v>0.12453</v>
       </c>
       <c r="C18" t="n">
-        <v>0.118942</v>
+        <v>0.132413</v>
       </c>
       <c r="D18" t="n">
-        <v>0.13295</v>
+        <v>0.132544</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127262</v>
+        <v>0.125424</v>
       </c>
       <c r="C19" t="n">
-        <v>0.120038</v>
+        <v>0.133025</v>
       </c>
       <c r="D19" t="n">
-        <v>0.133788</v>
+        <v>0.133052</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128635</v>
+        <v>0.12676</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119863</v>
+        <v>0.133917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.133562</v>
+        <v>0.133849</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130058</v>
+        <v>0.129091</v>
       </c>
       <c r="C21" t="n">
-        <v>0.122043</v>
+        <v>0.136414</v>
       </c>
       <c r="D21" t="n">
-        <v>0.136104</v>
+        <v>0.136154</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134153</v>
+        <v>0.133577</v>
       </c>
       <c r="C22" t="n">
-        <v>0.125531</v>
+        <v>0.141586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140872</v>
+        <v>0.140417</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142251</v>
+        <v>0.141062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13166</v>
+        <v>0.141412</v>
       </c>
       <c r="D23" t="n">
-        <v>0.142705</v>
+        <v>0.140174</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.140007</v>
+        <v>0.133126</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129046</v>
+        <v>0.141025</v>
       </c>
       <c r="D24" t="n">
-        <v>0.142089</v>
+        <v>0.140425</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.139726</v>
+        <v>0.134874</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128036</v>
+        <v>0.142043</v>
       </c>
       <c r="D25" t="n">
-        <v>0.141506</v>
+        <v>0.140702</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133731</v>
+        <v>0.134394</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128843</v>
+        <v>0.142184</v>
       </c>
       <c r="D26" t="n">
-        <v>0.141784</v>
+        <v>0.141355</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136096</v>
+        <v>0.136114</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125324</v>
+        <v>0.143233</v>
       </c>
       <c r="D27" t="n">
-        <v>0.141105</v>
+        <v>0.140778</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134248</v>
+        <v>0.133846</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12583</v>
+        <v>0.141793</v>
       </c>
       <c r="D28" t="n">
-        <v>0.141399</v>
+        <v>0.141112</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134762</v>
+        <v>0.135532</v>
       </c>
       <c r="C29" t="n">
-        <v>0.125607</v>
+        <v>0.141829</v>
       </c>
       <c r="D29" t="n">
-        <v>0.141232</v>
+        <v>0.141402</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135536</v>
+        <v>0.134482</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127811</v>
+        <v>0.142398</v>
       </c>
       <c r="D30" t="n">
-        <v>0.14149</v>
+        <v>0.141993</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135044</v>
+        <v>0.135567</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126768</v>
+        <v>0.142656</v>
       </c>
       <c r="D31" t="n">
-        <v>0.141995</v>
+        <v>0.142496</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137783</v>
+        <v>0.136251</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127502</v>
+        <v>0.142521</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1427</v>
+        <v>0.142157</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137676</v>
+        <v>0.136676</v>
       </c>
       <c r="C33" t="n">
-        <v>0.128376</v>
+        <v>0.143661</v>
       </c>
       <c r="D33" t="n">
-        <v>0.143499</v>
+        <v>0.143087</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138916</v>
+        <v>0.138627</v>
       </c>
       <c r="C34" t="n">
-        <v>0.129062</v>
+        <v>0.14533</v>
       </c>
       <c r="D34" t="n">
-        <v>0.144292</v>
+        <v>0.144529</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141542</v>
+        <v>0.142043</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13284</v>
+        <v>0.150242</v>
       </c>
       <c r="D35" t="n">
-        <v>0.147081</v>
+        <v>0.14839</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147133</v>
+        <v>0.147526</v>
       </c>
       <c r="C36" t="n">
-        <v>0.13979</v>
+        <v>0.156706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153492</v>
+        <v>0.154945</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154752</v>
+        <v>0.153629</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135963</v>
+        <v>0.155495</v>
       </c>
       <c r="D37" t="n">
-        <v>0.154001</v>
+        <v>0.154275</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147304</v>
+        <v>0.143769</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138617</v>
+        <v>0.1537</v>
       </c>
       <c r="D38" t="n">
-        <v>0.159675</v>
+        <v>0.153339</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150889</v>
+        <v>0.145458</v>
       </c>
       <c r="C39" t="n">
-        <v>0.137353</v>
+        <v>0.154643</v>
       </c>
       <c r="D39" t="n">
-        <v>0.158132</v>
+        <v>0.152519</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149094</v>
+        <v>0.144474</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1395</v>
+        <v>0.153472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.156248</v>
+        <v>0.153189</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146572</v>
+        <v>0.145372</v>
       </c>
       <c r="C41" t="n">
-        <v>0.139322</v>
+        <v>0.154717</v>
       </c>
       <c r="D41" t="n">
-        <v>0.158001</v>
+        <v>0.154061</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149072</v>
+        <v>0.145921</v>
       </c>
       <c r="C42" t="n">
-        <v>0.140517</v>
+        <v>0.154379</v>
       </c>
       <c r="D42" t="n">
-        <v>0.159305</v>
+        <v>0.15409</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14966</v>
+        <v>0.147166</v>
       </c>
       <c r="C43" t="n">
-        <v>0.140594</v>
+        <v>0.154816</v>
       </c>
       <c r="D43" t="n">
-        <v>0.156359</v>
+        <v>0.153871</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148271</v>
+        <v>0.146822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141671</v>
+        <v>0.155972</v>
       </c>
       <c r="D44" t="n">
-        <v>0.157657</v>
+        <v>0.154752</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148351</v>
+        <v>0.147629</v>
       </c>
       <c r="C45" t="n">
-        <v>0.139014</v>
+        <v>0.156095</v>
       </c>
       <c r="D45" t="n">
-        <v>0.155382</v>
+        <v>0.154959</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149072</v>
+        <v>0.147574</v>
       </c>
       <c r="C46" t="n">
-        <v>0.139038</v>
+        <v>0.158207</v>
       </c>
       <c r="D46" t="n">
-        <v>0.155393</v>
+        <v>0.154839</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149194</v>
+        <v>0.150139</v>
       </c>
       <c r="C47" t="n">
-        <v>0.141265</v>
+        <v>0.158874</v>
       </c>
       <c r="D47" t="n">
-        <v>0.160399</v>
+        <v>0.157882</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153669</v>
+        <v>0.152788</v>
       </c>
       <c r="C48" t="n">
-        <v>0.142373</v>
+        <v>0.161528</v>
       </c>
       <c r="D48" t="n">
-        <v>0.159077</v>
+        <v>0.159394</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.154299</v>
+        <v>0.156435</v>
       </c>
       <c r="C49" t="n">
-        <v>0.14827</v>
+        <v>0.167341</v>
       </c>
       <c r="D49" t="n">
-        <v>0.167119</v>
+        <v>0.163844</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163204</v>
+        <v>0.159094</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15358</v>
+        <v>0.171491</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171976</v>
+        <v>0.169436</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166793</v>
+        <v>0.166364</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151511</v>
+        <v>0.167488</v>
       </c>
       <c r="D51" t="n">
-        <v>0.168561</v>
+        <v>0.167371</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175279</v>
+        <v>0.175694</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148319</v>
+        <v>0.167366</v>
       </c>
       <c r="D52" t="n">
-        <v>0.166636</v>
+        <v>0.167966</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.164231</v>
+        <v>0.159625</v>
       </c>
       <c r="C53" t="n">
-        <v>0.153378</v>
+        <v>0.168378</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167244</v>
+        <v>0.167622</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.168422</v>
+        <v>0.159004</v>
       </c>
       <c r="C54" t="n">
-        <v>0.150108</v>
+        <v>0.168211</v>
       </c>
       <c r="D54" t="n">
-        <v>0.168351</v>
+        <v>0.167804</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.169253</v>
+        <v>0.160977</v>
       </c>
       <c r="C55" t="n">
-        <v>0.151228</v>
+        <v>0.168791</v>
       </c>
       <c r="D55" t="n">
-        <v>0.170758</v>
+        <v>0.167967</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164178</v>
+        <v>0.157808</v>
       </c>
       <c r="C56" t="n">
-        <v>0.152798</v>
+        <v>0.168168</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169832</v>
+        <v>0.167397</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.167726</v>
+        <v>0.160217</v>
       </c>
       <c r="C57" t="n">
-        <v>0.150468</v>
+        <v>0.169694</v>
       </c>
       <c r="D57" t="n">
-        <v>0.172015</v>
+        <v>0.167721</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.173212</v>
+        <v>0.16098</v>
       </c>
       <c r="C58" t="n">
-        <v>0.152226</v>
+        <v>0.169949</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170638</v>
+        <v>0.168544</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166634</v>
+        <v>0.160165</v>
       </c>
       <c r="C59" t="n">
-        <v>0.151519</v>
+        <v>0.168513</v>
       </c>
       <c r="D59" t="n">
-        <v>0.173388</v>
+        <v>0.169839</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16107</v>
+        <v>0.161779</v>
       </c>
       <c r="C60" t="n">
-        <v>0.154543</v>
+        <v>0.170454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174748</v>
+        <v>0.171714</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165726</v>
+        <v>0.165292</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156622</v>
+        <v>0.171355</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175559</v>
+        <v>0.174111</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167961</v>
+        <v>0.169799</v>
       </c>
       <c r="C62" t="n">
-        <v>0.157963</v>
+        <v>0.175331</v>
       </c>
       <c r="D62" t="n">
-        <v>0.176402</v>
+        <v>0.175555</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171796</v>
+        <v>0.170819</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16091</v>
+        <v>0.1783</v>
       </c>
       <c r="D63" t="n">
-        <v>0.180143</v>
+        <v>0.178444</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175942</v>
+        <v>0.174342</v>
       </c>
       <c r="C64" t="n">
-        <v>0.165754</v>
+        <v>0.182111</v>
       </c>
       <c r="D64" t="n">
-        <v>0.183115</v>
+        <v>0.18275</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180195</v>
+        <v>0.180684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170889</v>
+        <v>0.187655</v>
       </c>
       <c r="D65" t="n">
-        <v>0.189338</v>
+        <v>0.188963</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187735</v>
+        <v>0.187819</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167363</v>
+        <v>0.181874</v>
       </c>
       <c r="D66" t="n">
-        <v>0.17998</v>
+        <v>0.183575</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.195296</v>
+        <v>0.194026</v>
       </c>
       <c r="C67" t="n">
-        <v>0.161535</v>
+        <v>0.200378</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183681</v>
+        <v>0.187278</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.181238</v>
+        <v>0.188555</v>
       </c>
       <c r="C68" t="n">
-        <v>0.165822</v>
+        <v>0.195237</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183033</v>
+        <v>0.189117</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.194595</v>
+        <v>0.198514</v>
       </c>
       <c r="C69" t="n">
-        <v>0.164102</v>
+        <v>0.195028</v>
       </c>
       <c r="D69" t="n">
-        <v>0.185797</v>
+        <v>0.189128</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.185099</v>
+        <v>0.191777</v>
       </c>
       <c r="C70" t="n">
-        <v>0.167453</v>
+        <v>0.195634</v>
       </c>
       <c r="D70" t="n">
-        <v>0.183268</v>
+        <v>0.191546</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.190303</v>
+        <v>0.19158</v>
       </c>
       <c r="C71" t="n">
-        <v>0.168056</v>
+        <v>0.185977</v>
       </c>
       <c r="D71" t="n">
-        <v>0.184882</v>
+        <v>0.189551</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.197182</v>
+        <v>0.192592</v>
       </c>
       <c r="C72" t="n">
-        <v>0.16992</v>
+        <v>0.190303</v>
       </c>
       <c r="D72" t="n">
-        <v>0.184112</v>
+        <v>0.190343</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.199046</v>
+        <v>0.192865</v>
       </c>
       <c r="C73" t="n">
-        <v>0.169967</v>
+        <v>0.192726</v>
       </c>
       <c r="D73" t="n">
-        <v>0.186104</v>
+        <v>0.193685</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19156</v>
+        <v>0.194009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.16917</v>
+        <v>0.1877</v>
       </c>
       <c r="D74" t="n">
-        <v>0.187707</v>
+        <v>0.186972</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.19335</v>
+        <v>0.188159</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17128</v>
+        <v>0.192592</v>
       </c>
       <c r="D75" t="n">
-        <v>0.186912</v>
+        <v>0.190895</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201038</v>
+        <v>0.20046</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172423</v>
+        <v>0.190345</v>
       </c>
       <c r="D76" t="n">
-        <v>0.190591</v>
+        <v>0.192265</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199132</v>
+        <v>0.208997</v>
       </c>
       <c r="C77" t="n">
-        <v>0.173956</v>
+        <v>0.192585</v>
       </c>
       <c r="D77" t="n">
-        <v>0.191968</v>
+        <v>0.195675</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204504</v>
+        <v>0.211353</v>
       </c>
       <c r="C78" t="n">
-        <v>0.177654</v>
+        <v>0.197718</v>
       </c>
       <c r="D78" t="n">
-        <v>0.196452</v>
+        <v>0.194999</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.211492</v>
+        <v>0.214856</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184408</v>
+        <v>0.203767</v>
       </c>
       <c r="D79" t="n">
-        <v>0.202575</v>
+        <v>0.198931</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21566</v>
+        <v>0.241131</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244729</v>
+        <v>0.257808</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270597</v>
+        <v>0.250939</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.355606</v>
+        <v>0.349037</v>
       </c>
       <c r="C81" t="n">
-        <v>0.245501</v>
+        <v>0.270341</v>
       </c>
       <c r="D81" t="n">
-        <v>0.270191</v>
+        <v>0.253646</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.358487</v>
+        <v>0.351084</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249126</v>
+        <v>0.267387</v>
       </c>
       <c r="D82" t="n">
-        <v>0.274398</v>
+        <v>0.265239</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.358384</v>
+        <v>0.352121</v>
       </c>
       <c r="C83" t="n">
-        <v>0.246001</v>
+        <v>0.256398</v>
       </c>
       <c r="D83" t="n">
-        <v>0.271113</v>
+        <v>0.266974</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.362089</v>
+        <v>0.351633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.248083</v>
+        <v>0.257457</v>
       </c>
       <c r="D84" t="n">
-        <v>0.272512</v>
+        <v>0.26484</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.36048</v>
+        <v>0.353538</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246468</v>
+        <v>0.257664</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268628</v>
+        <v>0.263835</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.360382</v>
+        <v>0.352685</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246029</v>
+        <v>0.254684</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268213</v>
+        <v>0.264372</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.361532</v>
+        <v>0.354936</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243839</v>
+        <v>0.257</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267804</v>
+        <v>0.261202</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.362894</v>
+        <v>0.357482</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24472</v>
+        <v>0.262447</v>
       </c>
       <c r="D88" t="n">
-        <v>0.268455</v>
+        <v>0.261782</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.364439</v>
+        <v>0.356834</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246243</v>
+        <v>0.2538</v>
       </c>
       <c r="D89" t="n">
-        <v>0.267143</v>
+        <v>0.260586</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.367368</v>
+        <v>0.357684</v>
       </c>
       <c r="C90" t="n">
-        <v>0.228772</v>
+        <v>0.262526</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245402</v>
+        <v>0.261719</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.36943</v>
+        <v>0.354777</v>
       </c>
       <c r="C91" t="n">
-        <v>0.230745</v>
+        <v>0.262496</v>
       </c>
       <c r="D91" t="n">
-        <v>0.245189</v>
+        <v>0.263257</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.372766</v>
+        <v>0.36069</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248452</v>
+        <v>0.261065</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269489</v>
+        <v>0.263121</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378142</v>
+        <v>0.36563</v>
       </c>
       <c r="C93" t="n">
-        <v>0.248449</v>
+        <v>0.272403</v>
       </c>
       <c r="D93" t="n">
-        <v>0.267868</v>
+        <v>0.250048</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.383663</v>
+        <v>0.371282</v>
       </c>
       <c r="C94" t="n">
-        <v>0.42436</v>
+        <v>0.406707</v>
       </c>
       <c r="D94" t="n">
-        <v>0.494963</v>
+        <v>0.407573</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.535363</v>
+        <v>0.5067160000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.422883</v>
+        <v>0.407642</v>
       </c>
       <c r="D95" t="n">
-        <v>0.494198</v>
+        <v>0.409427</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535348</v>
+        <v>0.507542</v>
       </c>
       <c r="C96" t="n">
-        <v>0.422138</v>
+        <v>0.405472</v>
       </c>
       <c r="D96" t="n">
-        <v>0.490951</v>
+        <v>0.421742</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.53469</v>
+        <v>0.507986</v>
       </c>
       <c r="C97" t="n">
-        <v>0.422362</v>
+        <v>0.405568</v>
       </c>
       <c r="D97" t="n">
-        <v>0.491033</v>
+        <v>0.422267</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.535812</v>
+        <v>0.508777</v>
       </c>
       <c r="C98" t="n">
-        <v>0.424473</v>
+        <v>0.421218</v>
       </c>
       <c r="D98" t="n">
-        <v>0.488113</v>
+        <v>0.42352</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5355</v>
+        <v>0.508111</v>
       </c>
       <c r="C99" t="n">
-        <v>0.421319</v>
+        <v>0.407597</v>
       </c>
       <c r="D99" t="n">
-        <v>0.488989</v>
+        <v>0.421958</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.536151</v>
+        <v>0.508807</v>
       </c>
       <c r="C100" t="n">
-        <v>0.422675</v>
+        <v>0.419885</v>
       </c>
       <c r="D100" t="n">
-        <v>0.488723</v>
+        <v>0.421553</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.537476</v>
+        <v>0.509354</v>
       </c>
       <c r="C101" t="n">
-        <v>0.42275</v>
+        <v>0.425959</v>
       </c>
       <c r="D101" t="n">
-        <v>0.488629</v>
+        <v>0.422308</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.537981</v>
+        <v>0.509921</v>
       </c>
       <c r="C102" t="n">
-        <v>0.424339</v>
+        <v>0.42006</v>
       </c>
       <c r="D102" t="n">
-        <v>0.488354</v>
+        <v>0.407961</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.53873</v>
+        <v>0.511637</v>
       </c>
       <c r="C103" t="n">
-        <v>0.424544</v>
+        <v>0.405604</v>
       </c>
       <c r="D103" t="n">
-        <v>0.488932</v>
+        <v>0.417442</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.542266</v>
+        <v>0.512815</v>
       </c>
       <c r="C104" t="n">
-        <v>0.424973</v>
+        <v>0.421228</v>
       </c>
       <c r="D104" t="n">
-        <v>0.490779</v>
+        <v>0.421354</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.544434</v>
+        <v>0.515526</v>
       </c>
       <c r="C105" t="n">
-        <v>0.425319</v>
+        <v>0.423692</v>
       </c>
       <c r="D105" t="n">
-        <v>0.487866</v>
+        <v>0.423679</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.547195</v>
+        <v>0.5197270000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.428846</v>
+        <v>0.427076</v>
       </c>
       <c r="D106" t="n">
-        <v>0.474693</v>
+        <v>0.425393</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.552669</v>
+        <v>0.524494</v>
       </c>
       <c r="C107" t="n">
-        <v>0.433179</v>
+        <v>0.431421</v>
       </c>
       <c r="D107" t="n">
-        <v>0.492251</v>
+        <v>0.43101</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.560012</v>
+        <v>0.5323020000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.569029</v>
+        <v>0.558262</v>
       </c>
       <c r="D108" t="n">
-        <v>0.67561</v>
+        <v>0.561727</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.57119</v>
+        <v>0.542896</v>
       </c>
       <c r="C109" t="n">
-        <v>0.570308</v>
+        <v>0.558588</v>
       </c>
       <c r="D109" t="n">
-        <v>0.677551</v>
+        <v>0.560681</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.626261</v>
+        <v>0.590911</v>
       </c>
       <c r="C110" t="n">
-        <v>0.570087</v>
+        <v>0.557906</v>
       </c>
       <c r="D110" t="n">
-        <v>0.685698</v>
+        <v>0.560981</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.627464</v>
+        <v>0.591432</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574906</v>
+        <v>0.559173</v>
       </c>
       <c r="D111" t="n">
-        <v>0.691474</v>
+        <v>0.5615250000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.626252</v>
+        <v>0.596411</v>
       </c>
       <c r="C112" t="n">
-        <v>0.570999</v>
+        <v>0.558206</v>
       </c>
       <c r="D112" t="n">
-        <v>0.688616</v>
+        <v>0.560461</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.628897</v>
+        <v>0.594684</v>
       </c>
       <c r="C113" t="n">
-        <v>0.575884</v>
+        <v>0.560526</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6900309999999999</v>
+        <v>0.562373</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6269670000000001</v>
+        <v>0.595767</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5779530000000001</v>
+        <v>0.561697</v>
       </c>
       <c r="D114" t="n">
-        <v>0.676728</v>
+        <v>0.562643</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.62954</v>
+        <v>0.596068</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5744089999999999</v>
+        <v>0.5620540000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.691993</v>
+        <v>0.566437</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.629574</v>
+        <v>0.5971919999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.576951</v>
+        <v>0.565678</v>
       </c>
       <c r="D116" t="n">
-        <v>0.690519</v>
+        <v>0.5565020000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.631948</v>
+        <v>0.601196</v>
       </c>
       <c r="C117" t="n">
-        <v>0.584766</v>
+        <v>0.567974</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6949379999999999</v>
+        <v>0.566912</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.634011</v>
+        <v>0.601513</v>
       </c>
       <c r="C118" t="n">
-        <v>0.578421</v>
+        <v>0.569245</v>
       </c>
       <c r="D118" t="n">
-        <v>0.683371</v>
+        <v>0.563266</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.641328</v>
+        <v>0.607677</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5863080000000001</v>
+        <v>0.569363</v>
       </c>
       <c r="D119" t="n">
-        <v>0.700377</v>
+        <v>0.563507</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6452329999999999</v>
+        <v>0.608972</v>
       </c>
       <c r="C120" t="n">
-        <v>0.583544</v>
+        <v>0.575296</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6996790000000001</v>
+        <v>0.57736</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.648156</v>
+        <v>0.619221</v>
       </c>
       <c r="C121" t="n">
-        <v>0.594483</v>
+        <v>0.579991</v>
       </c>
       <c r="D121" t="n">
-        <v>0.706082</v>
+        <v>0.580098</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.659766</v>
+        <v>0.624309</v>
       </c>
       <c r="C122" t="n">
-        <v>0.601568</v>
+        <v>0.589068</v>
       </c>
       <c r="D122" t="n">
-        <v>0.711557</v>
+        <v>0.590279</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.672519</v>
+        <v>0.636954</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7507740000000001</v>
+        <v>0.731784</v>
       </c>
       <c r="D123" t="n">
-        <v>0.848732</v>
+        <v>0.727241</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.785127</v>
+        <v>0.7445000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.75199</v>
+        <v>0.725875</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8556589999999999</v>
+        <v>0.733433</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.787317</v>
+        <v>0.743749</v>
       </c>
       <c r="C125" t="n">
-        <v>0.751485</v>
+        <v>0.724342</v>
       </c>
       <c r="D125" t="n">
-        <v>0.854583</v>
+        <v>0.727461</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.789584</v>
+        <v>0.740196</v>
       </c>
       <c r="C126" t="n">
-        <v>0.756022</v>
+        <v>0.727214</v>
       </c>
       <c r="D126" t="n">
-        <v>0.856653</v>
+        <v>0.722896</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.789054</v>
+        <v>0.74287</v>
       </c>
       <c r="C127" t="n">
-        <v>0.754498</v>
+        <v>0.727779</v>
       </c>
       <c r="D127" t="n">
-        <v>0.855391</v>
+        <v>0.727804</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.790869</v>
+        <v>0.745883</v>
       </c>
       <c r="C128" t="n">
-        <v>0.75535</v>
+        <v>0.73068</v>
       </c>
       <c r="D128" t="n">
-        <v>0.85791</v>
+        <v>0.7314619999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.789836</v>
+        <v>0.746264</v>
       </c>
       <c r="C129" t="n">
-        <v>0.758917</v>
+        <v>0.730146</v>
       </c>
       <c r="D129" t="n">
-        <v>0.859137</v>
+        <v>0.733065</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.791593</v>
+        <v>0.75185</v>
       </c>
       <c r="C130" t="n">
-        <v>0.76069</v>
+        <v>0.734541</v>
       </c>
       <c r="D130" t="n">
-        <v>0.861038</v>
+        <v>0.7333460000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.791694</v>
+        <v>0.7521640000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.762462</v>
+        <v>0.733743</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862447</v>
+        <v>0.7312</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.795758</v>
+        <v>0.752821</v>
       </c>
       <c r="C132" t="n">
-        <v>0.760771</v>
+        <v>0.7364309999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.864066</v>
+        <v>0.735343</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.805048</v>
+        <v>0.757084</v>
       </c>
       <c r="C133" t="n">
-        <v>0.769284</v>
+        <v>0.737003</v>
       </c>
       <c r="D133" t="n">
-        <v>0.867538</v>
+        <v>0.738259</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.807843</v>
+        <v>0.7590170000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.770313</v>
+        <v>0.742296</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8715349999999999</v>
+        <v>0.74076</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8148919999999999</v>
+        <v>0.769887</v>
       </c>
       <c r="C135" t="n">
-        <v>0.775409</v>
+        <v>0.749354</v>
       </c>
       <c r="D135" t="n">
-        <v>0.873223</v>
+        <v>0.74515</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8233740000000001</v>
+        <v>0.777832</v>
       </c>
       <c r="C136" t="n">
-        <v>0.783191</v>
+        <v>0.755013</v>
       </c>
       <c r="D136" t="n">
-        <v>0.882863</v>
+        <v>0.76085</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8341460000000001</v>
+        <v>0.788122</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8955689999999999</v>
+        <v>0.862725</v>
       </c>
       <c r="D137" t="n">
-        <v>0.962866</v>
+        <v>0.863002</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.926538</v>
+        <v>0.874983</v>
       </c>
       <c r="C138" t="n">
-        <v>0.89721</v>
+        <v>0.8633420000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.963264</v>
+        <v>0.865895</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.926569</v>
+        <v>0.87497</v>
       </c>
       <c r="C139" t="n">
-        <v>0.894583</v>
+        <v>0.864229</v>
       </c>
       <c r="D139" t="n">
-        <v>0.960804</v>
+        <v>0.864437</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.927054</v>
+        <v>0.87486</v>
       </c>
       <c r="C140" t="n">
-        <v>0.899338</v>
+        <v>0.8653189999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.964871</v>
+        <v>0.863749</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.927017</v>
+        <v>0.876186</v>
       </c>
       <c r="C141" t="n">
-        <v>0.899741</v>
+        <v>0.86512</v>
       </c>
       <c r="D141" t="n">
-        <v>0.964611</v>
+        <v>0.864096</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.92622</v>
+        <v>0.877797</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9000050000000001</v>
+        <v>0.866217</v>
       </c>
       <c r="D142" t="n">
-        <v>0.960423</v>
+        <v>0.866209</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.92999</v>
+        <v>0.87806</v>
       </c>
       <c r="C143" t="n">
-        <v>0.900928</v>
+        <v>0.867631</v>
       </c>
       <c r="D143" t="n">
-        <v>0.964299</v>
+        <v>0.867086</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110401</v>
+        <v>0.119669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.124868</v>
+        <v>0.13132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.124084</v>
+        <v>0.129431</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11073</v>
+        <v>0.117366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.125232</v>
+        <v>0.127252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.124398</v>
+        <v>0.126537</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111473</v>
+        <v>0.117617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125234</v>
+        <v>0.128583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124419</v>
+        <v>0.127672</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112031</v>
+        <v>0.119461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125687</v>
+        <v>0.129506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.124854</v>
+        <v>0.127926</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113233</v>
+        <v>0.12056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12654</v>
+        <v>0.130612</v>
       </c>
       <c r="D6" t="n">
-        <v>0.126031</v>
+        <v>0.128954</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11418</v>
+        <v>0.119871</v>
       </c>
       <c r="C7" t="n">
-        <v>0.127727</v>
+        <v>0.130827</v>
       </c>
       <c r="D7" t="n">
-        <v>0.126751</v>
+        <v>0.129411</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11623</v>
+        <v>0.123614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129878</v>
+        <v>0.133483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.128945</v>
+        <v>0.131693</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120733</v>
+        <v>0.128602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.129582</v>
+        <v>0.136382</v>
       </c>
       <c r="D9" t="n">
-        <v>0.129511</v>
+        <v>0.131672</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121384</v>
+        <v>0.125889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.130335</v>
+        <v>0.133043</v>
       </c>
       <c r="D10" t="n">
-        <v>0.129597</v>
+        <v>0.132223</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12177</v>
+        <v>0.125106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.130293</v>
+        <v>0.133468</v>
       </c>
       <c r="D11" t="n">
-        <v>0.130228</v>
+        <v>0.132322</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122084</v>
+        <v>0.126092</v>
       </c>
       <c r="C12" t="n">
-        <v>0.131083</v>
+        <v>0.134361</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131117</v>
+        <v>0.132737</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122735</v>
+        <v>0.125755</v>
       </c>
       <c r="C13" t="n">
-        <v>0.131473</v>
+        <v>0.13424</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131302</v>
+        <v>0.132986</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122889</v>
+        <v>0.125749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.131255</v>
+        <v>0.13413</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131089</v>
+        <v>0.133465</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123449</v>
+        <v>0.126108</v>
       </c>
       <c r="C15" t="n">
-        <v>0.131922</v>
+        <v>0.134125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.131845</v>
+        <v>0.133215</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123593</v>
+        <v>0.126685</v>
       </c>
       <c r="C16" t="n">
-        <v>0.132175</v>
+        <v>0.134708</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131878</v>
+        <v>0.134077</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124091</v>
+        <v>0.127487</v>
       </c>
       <c r="C17" t="n">
-        <v>0.132782</v>
+        <v>0.13488</v>
       </c>
       <c r="D17" t="n">
-        <v>0.132118</v>
+        <v>0.134388</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12453</v>
+        <v>0.128683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.132413</v>
+        <v>0.135467</v>
       </c>
       <c r="D18" t="n">
-        <v>0.132544</v>
+        <v>0.133846</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125424</v>
+        <v>0.129904</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133025</v>
+        <v>0.13748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.133052</v>
+        <v>0.135044</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.12676</v>
+        <v>0.130852</v>
       </c>
       <c r="C20" t="n">
-        <v>0.133917</v>
+        <v>0.137714</v>
       </c>
       <c r="D20" t="n">
-        <v>0.133849</v>
+        <v>0.135841</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129091</v>
+        <v>0.132997</v>
       </c>
       <c r="C21" t="n">
-        <v>0.136414</v>
+        <v>0.140685</v>
       </c>
       <c r="D21" t="n">
-        <v>0.136154</v>
+        <v>0.137393</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133577</v>
+        <v>0.136362</v>
       </c>
       <c r="C22" t="n">
-        <v>0.141586</v>
+        <v>0.145249</v>
       </c>
       <c r="D22" t="n">
-        <v>0.140417</v>
+        <v>0.142684</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141062</v>
+        <v>0.144239</v>
       </c>
       <c r="C23" t="n">
-        <v>0.141412</v>
+        <v>0.146083</v>
       </c>
       <c r="D23" t="n">
-        <v>0.140174</v>
+        <v>0.141036</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133126</v>
+        <v>0.137414</v>
       </c>
       <c r="C24" t="n">
-        <v>0.141025</v>
+        <v>0.144453</v>
       </c>
       <c r="D24" t="n">
-        <v>0.140425</v>
+        <v>0.142165</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134874</v>
+        <v>0.142023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.142043</v>
+        <v>0.145621</v>
       </c>
       <c r="D25" t="n">
-        <v>0.140702</v>
+        <v>0.142125</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134394</v>
+        <v>0.13441</v>
       </c>
       <c r="C26" t="n">
-        <v>0.142184</v>
+        <v>0.14413</v>
       </c>
       <c r="D26" t="n">
-        <v>0.141355</v>
+        <v>0.143436</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136114</v>
+        <v>0.13386</v>
       </c>
       <c r="C27" t="n">
-        <v>0.143233</v>
+        <v>0.143388</v>
       </c>
       <c r="D27" t="n">
-        <v>0.140778</v>
+        <v>0.142386</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133846</v>
+        <v>0.135835</v>
       </c>
       <c r="C28" t="n">
-        <v>0.141793</v>
+        <v>0.143036</v>
       </c>
       <c r="D28" t="n">
-        <v>0.141112</v>
+        <v>0.141905</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135532</v>
+        <v>0.134615</v>
       </c>
       <c r="C29" t="n">
-        <v>0.141829</v>
+        <v>0.143028</v>
       </c>
       <c r="D29" t="n">
-        <v>0.141402</v>
+        <v>0.142885</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134482</v>
+        <v>0.13479</v>
       </c>
       <c r="C30" t="n">
-        <v>0.142398</v>
+        <v>0.143561</v>
       </c>
       <c r="D30" t="n">
-        <v>0.141993</v>
+        <v>0.143449</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135567</v>
+        <v>0.137072</v>
       </c>
       <c r="C31" t="n">
-        <v>0.142656</v>
+        <v>0.142687</v>
       </c>
       <c r="D31" t="n">
-        <v>0.142496</v>
+        <v>0.143352</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136251</v>
+        <v>0.135618</v>
       </c>
       <c r="C32" t="n">
-        <v>0.142521</v>
+        <v>0.143291</v>
       </c>
       <c r="D32" t="n">
-        <v>0.142157</v>
+        <v>0.144543</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136676</v>
+        <v>0.136482</v>
       </c>
       <c r="C33" t="n">
-        <v>0.143661</v>
+        <v>0.144061</v>
       </c>
       <c r="D33" t="n">
-        <v>0.143087</v>
+        <v>0.144213</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138627</v>
+        <v>0.138134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.14533</v>
+        <v>0.145599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.144529</v>
+        <v>0.145819</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142043</v>
+        <v>0.142077</v>
       </c>
       <c r="C35" t="n">
-        <v>0.150242</v>
+        <v>0.151576</v>
       </c>
       <c r="D35" t="n">
-        <v>0.14839</v>
+        <v>0.149085</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147526</v>
+        <v>0.147278</v>
       </c>
       <c r="C36" t="n">
-        <v>0.156706</v>
+        <v>0.157011</v>
       </c>
       <c r="D36" t="n">
-        <v>0.154945</v>
+        <v>0.155846</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.153629</v>
+        <v>0.155213</v>
       </c>
       <c r="C37" t="n">
-        <v>0.155495</v>
+        <v>0.153325</v>
       </c>
       <c r="D37" t="n">
-        <v>0.154275</v>
+        <v>0.153399</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.143769</v>
+        <v>0.145952</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1537</v>
+        <v>0.155113</v>
       </c>
       <c r="D38" t="n">
-        <v>0.153339</v>
+        <v>0.154245</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145458</v>
+        <v>0.144879</v>
       </c>
       <c r="C39" t="n">
-        <v>0.154643</v>
+        <v>0.157271</v>
       </c>
       <c r="D39" t="n">
-        <v>0.152519</v>
+        <v>0.154723</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144474</v>
+        <v>0.146185</v>
       </c>
       <c r="C40" t="n">
-        <v>0.153472</v>
+        <v>0.153605</v>
       </c>
       <c r="D40" t="n">
-        <v>0.153189</v>
+        <v>0.153823</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145372</v>
+        <v>0.146044</v>
       </c>
       <c r="C41" t="n">
-        <v>0.154717</v>
+        <v>0.157681</v>
       </c>
       <c r="D41" t="n">
-        <v>0.154061</v>
+        <v>0.154399</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145921</v>
+        <v>0.147896</v>
       </c>
       <c r="C42" t="n">
-        <v>0.154379</v>
+        <v>0.156216</v>
       </c>
       <c r="D42" t="n">
-        <v>0.15409</v>
+        <v>0.155141</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147166</v>
+        <v>0.146531</v>
       </c>
       <c r="C43" t="n">
-        <v>0.154816</v>
+        <v>0.155398</v>
       </c>
       <c r="D43" t="n">
-        <v>0.153871</v>
+        <v>0.154878</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.146822</v>
+        <v>0.1489</v>
       </c>
       <c r="C44" t="n">
-        <v>0.155972</v>
+        <v>0.156839</v>
       </c>
       <c r="D44" t="n">
-        <v>0.154752</v>
+        <v>0.155599</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147629</v>
+        <v>0.147807</v>
       </c>
       <c r="C45" t="n">
-        <v>0.156095</v>
+        <v>0.157841</v>
       </c>
       <c r="D45" t="n">
-        <v>0.154959</v>
+        <v>0.1564</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.147574</v>
+        <v>0.150201</v>
       </c>
       <c r="C46" t="n">
-        <v>0.158207</v>
+        <v>0.15838</v>
       </c>
       <c r="D46" t="n">
-        <v>0.154839</v>
+        <v>0.156197</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150139</v>
+        <v>0.149254</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158874</v>
+        <v>0.15867</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157882</v>
+        <v>0.157379</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152788</v>
+        <v>0.154212</v>
       </c>
       <c r="C48" t="n">
-        <v>0.161528</v>
+        <v>0.164064</v>
       </c>
       <c r="D48" t="n">
-        <v>0.159394</v>
+        <v>0.160438</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156435</v>
+        <v>0.158736</v>
       </c>
       <c r="C49" t="n">
-        <v>0.167341</v>
+        <v>0.167987</v>
       </c>
       <c r="D49" t="n">
-        <v>0.163844</v>
+        <v>0.163325</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.159094</v>
+        <v>0.160378</v>
       </c>
       <c r="C50" t="n">
-        <v>0.171491</v>
+        <v>0.172194</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169436</v>
+        <v>0.169627</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166364</v>
+        <v>0.168032</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167488</v>
+        <v>0.167608</v>
       </c>
       <c r="D51" t="n">
-        <v>0.167371</v>
+        <v>0.167248</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175694</v>
+        <v>0.179269</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167366</v>
+        <v>0.16751</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167966</v>
+        <v>0.168296</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159625</v>
+        <v>0.158982</v>
       </c>
       <c r="C53" t="n">
-        <v>0.168378</v>
+        <v>0.167743</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167622</v>
+        <v>0.168329</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159004</v>
+        <v>0.159979</v>
       </c>
       <c r="C54" t="n">
-        <v>0.168211</v>
+        <v>0.16898</v>
       </c>
       <c r="D54" t="n">
-        <v>0.167804</v>
+        <v>0.16861</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160977</v>
+        <v>0.159464</v>
       </c>
       <c r="C55" t="n">
-        <v>0.168791</v>
+        <v>0.169457</v>
       </c>
       <c r="D55" t="n">
-        <v>0.167967</v>
+        <v>0.168612</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.157808</v>
+        <v>0.160597</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168168</v>
+        <v>0.168641</v>
       </c>
       <c r="D56" t="n">
-        <v>0.167397</v>
+        <v>0.169026</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160217</v>
+        <v>0.160152</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169694</v>
+        <v>0.169724</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167721</v>
+        <v>0.169517</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.16098</v>
+        <v>0.159683</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169949</v>
+        <v>0.169774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.168544</v>
+        <v>0.170236</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.160165</v>
+        <v>0.161118</v>
       </c>
       <c r="C59" t="n">
-        <v>0.168513</v>
+        <v>0.171352</v>
       </c>
       <c r="D59" t="n">
-        <v>0.169839</v>
+        <v>0.170228</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.161779</v>
+        <v>0.162665</v>
       </c>
       <c r="C60" t="n">
-        <v>0.170454</v>
+        <v>0.172433</v>
       </c>
       <c r="D60" t="n">
-        <v>0.171714</v>
+        <v>0.17151</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165292</v>
+        <v>0.165534</v>
       </c>
       <c r="C61" t="n">
-        <v>0.171355</v>
+        <v>0.173245</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174111</v>
+        <v>0.17323</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169799</v>
+        <v>0.169952</v>
       </c>
       <c r="C62" t="n">
-        <v>0.175331</v>
+        <v>0.175756</v>
       </c>
       <c r="D62" t="n">
-        <v>0.175555</v>
+        <v>0.175771</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170819</v>
+        <v>0.171034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1783</v>
+        <v>0.180076</v>
       </c>
       <c r="D63" t="n">
-        <v>0.178444</v>
+        <v>0.178879</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174342</v>
+        <v>0.174258</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182111</v>
+        <v>0.183103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18275</v>
+        <v>0.182906</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180684</v>
+        <v>0.179974</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187655</v>
+        <v>0.191082</v>
       </c>
       <c r="D65" t="n">
-        <v>0.188963</v>
+        <v>0.19111</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187819</v>
+        <v>0.190316</v>
       </c>
       <c r="C66" t="n">
-        <v>0.181874</v>
+        <v>0.179522</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183575</v>
+        <v>0.179029</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.194026</v>
+        <v>0.178593</v>
       </c>
       <c r="C67" t="n">
-        <v>0.200378</v>
+        <v>0.179914</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187278</v>
+        <v>0.179615</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.188555</v>
+        <v>0.184711</v>
       </c>
       <c r="C68" t="n">
-        <v>0.195237</v>
+        <v>0.183521</v>
       </c>
       <c r="D68" t="n">
-        <v>0.189117</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.198514</v>
+        <v>0.18505</v>
       </c>
       <c r="C69" t="n">
-        <v>0.195028</v>
+        <v>0.180213</v>
       </c>
       <c r="D69" t="n">
-        <v>0.189128</v>
+        <v>0.181708</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.191777</v>
+        <v>0.180061</v>
       </c>
       <c r="C70" t="n">
-        <v>0.195634</v>
+        <v>0.180881</v>
       </c>
       <c r="D70" t="n">
-        <v>0.191546</v>
+        <v>0.181342</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.19158</v>
+        <v>0.184268</v>
       </c>
       <c r="C71" t="n">
-        <v>0.185977</v>
+        <v>0.182967</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189551</v>
+        <v>0.182931</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192592</v>
+        <v>0.186259</v>
       </c>
       <c r="C72" t="n">
-        <v>0.190303</v>
+        <v>0.182193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190343</v>
+        <v>0.182178</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.192865</v>
+        <v>0.184624</v>
       </c>
       <c r="C73" t="n">
-        <v>0.192726</v>
+        <v>0.184621</v>
       </c>
       <c r="D73" t="n">
-        <v>0.193685</v>
+        <v>0.184777</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.194009</v>
+        <v>0.183124</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1877</v>
+        <v>0.184237</v>
       </c>
       <c r="D74" t="n">
-        <v>0.186972</v>
+        <v>0.184115</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188159</v>
+        <v>0.184984</v>
       </c>
       <c r="C75" t="n">
-        <v>0.192592</v>
+        <v>0.187093</v>
       </c>
       <c r="D75" t="n">
-        <v>0.190895</v>
+        <v>0.183032</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20046</v>
+        <v>0.19141</v>
       </c>
       <c r="C76" t="n">
-        <v>0.190345</v>
+        <v>0.189585</v>
       </c>
       <c r="D76" t="n">
-        <v>0.192265</v>
+        <v>0.186774</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.208997</v>
+        <v>0.190883</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192585</v>
+        <v>0.191737</v>
       </c>
       <c r="D77" t="n">
-        <v>0.195675</v>
+        <v>0.191306</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.211353</v>
+        <v>0.196139</v>
       </c>
       <c r="C78" t="n">
-        <v>0.197718</v>
+        <v>0.194818</v>
       </c>
       <c r="D78" t="n">
-        <v>0.194999</v>
+        <v>0.192462</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.214856</v>
+        <v>0.197917</v>
       </c>
       <c r="C79" t="n">
-        <v>0.203767</v>
+        <v>0.200726</v>
       </c>
       <c r="D79" t="n">
-        <v>0.198931</v>
+        <v>0.197007</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.241131</v>
+        <v>0.208951</v>
       </c>
       <c r="C80" t="n">
-        <v>0.257808</v>
+        <v>0.248301</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250939</v>
+        <v>0.239693</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349037</v>
+        <v>0.342074</v>
       </c>
       <c r="C81" t="n">
-        <v>0.270341</v>
+        <v>0.260374</v>
       </c>
       <c r="D81" t="n">
-        <v>0.253646</v>
+        <v>0.261023</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351084</v>
+        <v>0.345271</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267387</v>
+        <v>0.261509</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265239</v>
+        <v>0.26105</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.352121</v>
+        <v>0.344724</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256398</v>
+        <v>0.263026</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266974</v>
+        <v>0.240845</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.351633</v>
+        <v>0.350774</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257457</v>
+        <v>0.261423</v>
       </c>
       <c r="D84" t="n">
-        <v>0.26484</v>
+        <v>0.239932</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.353538</v>
+        <v>0.347256</v>
       </c>
       <c r="C85" t="n">
-        <v>0.257664</v>
+        <v>0.258019</v>
       </c>
       <c r="D85" t="n">
-        <v>0.263835</v>
+        <v>0.259861</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.352685</v>
+        <v>0.350428</v>
       </c>
       <c r="C86" t="n">
-        <v>0.254684</v>
+        <v>0.259653</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264372</v>
+        <v>0.259598</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.354936</v>
+        <v>0.349838</v>
       </c>
       <c r="C87" t="n">
-        <v>0.257</v>
+        <v>0.25549</v>
       </c>
       <c r="D87" t="n">
-        <v>0.261202</v>
+        <v>0.255668</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.357482</v>
+        <v>0.346286</v>
       </c>
       <c r="C88" t="n">
-        <v>0.262447</v>
+        <v>0.247593</v>
       </c>
       <c r="D88" t="n">
-        <v>0.261782</v>
+        <v>0.255369</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.356834</v>
+        <v>0.349701</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2538</v>
+        <v>0.24765</v>
       </c>
       <c r="D89" t="n">
-        <v>0.260586</v>
+        <v>0.256077</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.357684</v>
+        <v>0.35147</v>
       </c>
       <c r="C90" t="n">
-        <v>0.262526</v>
+        <v>0.259929</v>
       </c>
       <c r="D90" t="n">
-        <v>0.261719</v>
+        <v>0.255524</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.354777</v>
+        <v>0.35402</v>
       </c>
       <c r="C91" t="n">
-        <v>0.262496</v>
+        <v>0.2612</v>
       </c>
       <c r="D91" t="n">
-        <v>0.263257</v>
+        <v>0.254835</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.36069</v>
+        <v>0.356345</v>
       </c>
       <c r="C92" t="n">
-        <v>0.261065</v>
+        <v>0.263073</v>
       </c>
       <c r="D92" t="n">
-        <v>0.263121</v>
+        <v>0.259126</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.36563</v>
+        <v>0.357869</v>
       </c>
       <c r="C93" t="n">
-        <v>0.272403</v>
+        <v>0.258673</v>
       </c>
       <c r="D93" t="n">
-        <v>0.250048</v>
+        <v>0.263866</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.371282</v>
+        <v>0.368981</v>
       </c>
       <c r="C94" t="n">
-        <v>0.406707</v>
+        <v>0.405967</v>
       </c>
       <c r="D94" t="n">
-        <v>0.407573</v>
+        <v>0.420389</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5067160000000001</v>
+        <v>0.504976</v>
       </c>
       <c r="C95" t="n">
-        <v>0.407642</v>
+        <v>0.421856</v>
       </c>
       <c r="D95" t="n">
-        <v>0.409427</v>
+        <v>0.421139</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.507542</v>
+        <v>0.5047739999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.405472</v>
+        <v>0.420813</v>
       </c>
       <c r="D96" t="n">
-        <v>0.421742</v>
+        <v>0.419354</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.507986</v>
+        <v>0.505078</v>
       </c>
       <c r="C97" t="n">
-        <v>0.405568</v>
+        <v>0.421255</v>
       </c>
       <c r="D97" t="n">
-        <v>0.422267</v>
+        <v>0.407441</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.508777</v>
+        <v>0.505429</v>
       </c>
       <c r="C98" t="n">
-        <v>0.421218</v>
+        <v>0.41889</v>
       </c>
       <c r="D98" t="n">
-        <v>0.42352</v>
+        <v>0.417049</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.508111</v>
+        <v>0.5061639999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.407597</v>
+        <v>0.404374</v>
       </c>
       <c r="D99" t="n">
-        <v>0.421958</v>
+        <v>0.403832</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.508807</v>
+        <v>0.507101</v>
       </c>
       <c r="C100" t="n">
-        <v>0.419885</v>
+        <v>0.417278</v>
       </c>
       <c r="D100" t="n">
-        <v>0.421553</v>
+        <v>0.419858</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.509354</v>
+        <v>0.507335</v>
       </c>
       <c r="C101" t="n">
-        <v>0.425959</v>
+        <v>0.418632</v>
       </c>
       <c r="D101" t="n">
-        <v>0.422308</v>
+        <v>0.418133</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.509921</v>
+        <v>0.508555</v>
       </c>
       <c r="C102" t="n">
-        <v>0.42006</v>
+        <v>0.418272</v>
       </c>
       <c r="D102" t="n">
-        <v>0.407961</v>
+        <v>0.41966</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.511637</v>
+        <v>0.509544</v>
       </c>
       <c r="C103" t="n">
-        <v>0.405604</v>
+        <v>0.41956</v>
       </c>
       <c r="D103" t="n">
-        <v>0.417442</v>
+        <v>0.407514</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.512815</v>
+        <v>0.511729</v>
       </c>
       <c r="C104" t="n">
-        <v>0.421228</v>
+        <v>0.421077</v>
       </c>
       <c r="D104" t="n">
-        <v>0.421354</v>
+        <v>0.420963</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.515526</v>
+        <v>0.5137699999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.423692</v>
+        <v>0.421358</v>
       </c>
       <c r="D105" t="n">
-        <v>0.423679</v>
+        <v>0.423211</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5197270000000001</v>
+        <v>0.517633</v>
       </c>
       <c r="C106" t="n">
-        <v>0.427076</v>
+        <v>0.411506</v>
       </c>
       <c r="D106" t="n">
-        <v>0.425393</v>
+        <v>0.412553</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.524494</v>
+        <v>0.521889</v>
       </c>
       <c r="C107" t="n">
-        <v>0.431421</v>
+        <v>0.429822</v>
       </c>
       <c r="D107" t="n">
-        <v>0.43101</v>
+        <v>0.429694</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5323020000000001</v>
+        <v>0.52941</v>
       </c>
       <c r="C108" t="n">
-        <v>0.558262</v>
+        <v>0.552343</v>
       </c>
       <c r="D108" t="n">
-        <v>0.561727</v>
+        <v>0.550586</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.542896</v>
+        <v>0.539694</v>
       </c>
       <c r="C109" t="n">
-        <v>0.558588</v>
+        <v>0.557653</v>
       </c>
       <c r="D109" t="n">
-        <v>0.560681</v>
+        <v>0.547739</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.590911</v>
+        <v>0.5896400000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557906</v>
+        <v>0.557891</v>
       </c>
       <c r="D110" t="n">
-        <v>0.560981</v>
+        <v>0.556718</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591432</v>
+        <v>0.591442</v>
       </c>
       <c r="C111" t="n">
-        <v>0.559173</v>
+        <v>0.559745</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5615250000000001</v>
+        <v>0.550551</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.596411</v>
+        <v>0.591637</v>
       </c>
       <c r="C112" t="n">
-        <v>0.558206</v>
+        <v>0.561868</v>
       </c>
       <c r="D112" t="n">
-        <v>0.560461</v>
+        <v>0.5614209999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.594684</v>
+        <v>0.592276</v>
       </c>
       <c r="C113" t="n">
-        <v>0.560526</v>
+        <v>0.559105</v>
       </c>
       <c r="D113" t="n">
-        <v>0.562373</v>
+        <v>0.561096</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.595767</v>
+        <v>0.591702</v>
       </c>
       <c r="C114" t="n">
-        <v>0.561697</v>
+        <v>0.562972</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562643</v>
+        <v>0.560771</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.596068</v>
+        <v>0.593835</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5620540000000001</v>
+        <v>0.561831</v>
       </c>
       <c r="D115" t="n">
-        <v>0.566437</v>
+        <v>0.561964</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5971919999999999</v>
+        <v>0.596746</v>
       </c>
       <c r="C116" t="n">
-        <v>0.565678</v>
+        <v>0.563627</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5565020000000001</v>
+        <v>0.566972</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.601196</v>
+        <v>0.598819</v>
       </c>
       <c r="C117" t="n">
-        <v>0.567974</v>
+        <v>0.56746</v>
       </c>
       <c r="D117" t="n">
-        <v>0.566912</v>
+        <v>0.564059</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.601513</v>
+        <v>0.60025</v>
       </c>
       <c r="C118" t="n">
-        <v>0.569245</v>
+        <v>0.5673859999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.563266</v>
+        <v>0.567186</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.607677</v>
+        <v>0.603353</v>
       </c>
       <c r="C119" t="n">
-        <v>0.569363</v>
+        <v>0.572078</v>
       </c>
       <c r="D119" t="n">
-        <v>0.563507</v>
+        <v>0.568066</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.608972</v>
+        <v>0.609135</v>
       </c>
       <c r="C120" t="n">
-        <v>0.575296</v>
+        <v>0.574123</v>
       </c>
       <c r="D120" t="n">
-        <v>0.57736</v>
+        <v>0.573114</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.619221</v>
+        <v>0.613248</v>
       </c>
       <c r="C121" t="n">
-        <v>0.579991</v>
+        <v>0.573506</v>
       </c>
       <c r="D121" t="n">
-        <v>0.580098</v>
+        <v>0.57986</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.624309</v>
+        <v>0.624221</v>
       </c>
       <c r="C122" t="n">
-        <v>0.589068</v>
+        <v>0.585738</v>
       </c>
       <c r="D122" t="n">
-        <v>0.590279</v>
+        <v>0.585584</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.636954</v>
+        <v>0.633277</v>
       </c>
       <c r="C123" t="n">
-        <v>0.731784</v>
+        <v>0.720517</v>
       </c>
       <c r="D123" t="n">
-        <v>0.727241</v>
+        <v>0.723255</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7445000000000001</v>
+        <v>0.737229</v>
       </c>
       <c r="C124" t="n">
-        <v>0.725875</v>
+        <v>0.722735</v>
       </c>
       <c r="D124" t="n">
-        <v>0.733433</v>
+        <v>0.7207</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.743749</v>
+        <v>0.7403690000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.724342</v>
+        <v>0.724177</v>
       </c>
       <c r="D125" t="n">
-        <v>0.727461</v>
+        <v>0.719523</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.740196</v>
+        <v>0.740287</v>
       </c>
       <c r="C126" t="n">
-        <v>0.727214</v>
+        <v>0.726517</v>
       </c>
       <c r="D126" t="n">
-        <v>0.722896</v>
+        <v>0.723483</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.74287</v>
+        <v>0.742062</v>
       </c>
       <c r="C127" t="n">
-        <v>0.727779</v>
+        <v>0.723607</v>
       </c>
       <c r="D127" t="n">
-        <v>0.727804</v>
+        <v>0.725742</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.745883</v>
+        <v>0.74234</v>
       </c>
       <c r="C128" t="n">
-        <v>0.73068</v>
+        <v>0.723804</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7314619999999999</v>
+        <v>0.725788</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746264</v>
+        <v>0.744544</v>
       </c>
       <c r="C129" t="n">
-        <v>0.730146</v>
+        <v>0.724722</v>
       </c>
       <c r="D129" t="n">
-        <v>0.733065</v>
+        <v>0.728149</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.75185</v>
+        <v>0.743561</v>
       </c>
       <c r="C130" t="n">
-        <v>0.734541</v>
+        <v>0.72841</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7333460000000001</v>
+        <v>0.730688</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7521640000000001</v>
+        <v>0.745279</v>
       </c>
       <c r="C131" t="n">
-        <v>0.733743</v>
+        <v>0.729281</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7312</v>
+        <v>0.7302729999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.752821</v>
+        <v>0.7508</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7364309999999999</v>
+        <v>0.734989</v>
       </c>
       <c r="D132" t="n">
-        <v>0.735343</v>
+        <v>0.733538</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.757084</v>
+        <v>0.753049</v>
       </c>
       <c r="C133" t="n">
-        <v>0.737003</v>
+        <v>0.736418</v>
       </c>
       <c r="D133" t="n">
-        <v>0.738259</v>
+        <v>0.7343769999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7590170000000001</v>
+        <v>0.75958</v>
       </c>
       <c r="C134" t="n">
-        <v>0.742296</v>
+        <v>0.736725</v>
       </c>
       <c r="D134" t="n">
-        <v>0.74076</v>
+        <v>0.735589</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.769887</v>
+        <v>0.7608470000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.749354</v>
+        <v>0.743327</v>
       </c>
       <c r="D135" t="n">
-        <v>0.74515</v>
+        <v>0.743831</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.777832</v>
+        <v>0.7724760000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.755013</v>
+        <v>0.751326</v>
       </c>
       <c r="D136" t="n">
-        <v>0.76085</v>
+        <v>0.748371</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.788122</v>
+        <v>0.782083</v>
       </c>
       <c r="C137" t="n">
-        <v>0.862725</v>
+        <v>0.858769</v>
       </c>
       <c r="D137" t="n">
-        <v>0.863002</v>
+        <v>0.858135</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.874983</v>
+        <v>0.870139</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8633420000000001</v>
+        <v>0.857478</v>
       </c>
       <c r="D138" t="n">
-        <v>0.865895</v>
+        <v>0.8583809999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.87497</v>
+        <v>0.870465</v>
       </c>
       <c r="C139" t="n">
-        <v>0.864229</v>
+        <v>0.86043</v>
       </c>
       <c r="D139" t="n">
-        <v>0.864437</v>
+        <v>0.860866</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.87486</v>
+        <v>0.870916</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8653189999999999</v>
+        <v>0.858433</v>
       </c>
       <c r="D140" t="n">
-        <v>0.863749</v>
+        <v>0.859893</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.876186</v>
+        <v>0.871524</v>
       </c>
       <c r="C141" t="n">
-        <v>0.86512</v>
+        <v>0.857643</v>
       </c>
       <c r="D141" t="n">
-        <v>0.864096</v>
+        <v>0.859989</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.877797</v>
+        <v>0.874091</v>
       </c>
       <c r="C142" t="n">
-        <v>0.866217</v>
+        <v>0.862493</v>
       </c>
       <c r="D142" t="n">
-        <v>0.866209</v>
+        <v>0.860644</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.87806</v>
+        <v>0.874708</v>
       </c>
       <c r="C143" t="n">
-        <v>0.867631</v>
+        <v>0.861364</v>
       </c>
       <c r="D143" t="n">
-        <v>0.867086</v>
+        <v>0.861148</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119669</v>
+        <v>0.11547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.13132</v>
+        <v>0.127397</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129431</v>
+        <v>0.126586</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117366</v>
+        <v>0.116799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.127252</v>
+        <v>0.127474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.126537</v>
+        <v>0.126137</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117617</v>
+        <v>0.116174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.128583</v>
+        <v>0.128165</v>
       </c>
       <c r="D4" t="n">
-        <v>0.127672</v>
+        <v>0.126546</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.119461</v>
+        <v>0.117794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.129506</v>
+        <v>0.128919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.127926</v>
+        <v>0.127314</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12056</v>
+        <v>0.117397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.130612</v>
+        <v>0.128705</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128954</v>
+        <v>0.127372</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.119871</v>
+        <v>0.119685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130827</v>
+        <v>0.131107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.129411</v>
+        <v>0.129559</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.123614</v>
+        <v>0.122146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133483</v>
+        <v>0.132716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131693</v>
+        <v>0.131815</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.128602</v>
+        <v>0.12642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.136382</v>
+        <v>0.135518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.131672</v>
+        <v>0.134465</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125889</v>
+        <v>0.126137</v>
       </c>
       <c r="C10" t="n">
-        <v>0.133043</v>
+        <v>0.137165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.132223</v>
+        <v>0.135552</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125106</v>
+        <v>0.126434</v>
       </c>
       <c r="C11" t="n">
-        <v>0.133468</v>
+        <v>0.135373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.132322</v>
+        <v>0.135179</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126092</v>
+        <v>0.126105</v>
       </c>
       <c r="C12" t="n">
-        <v>0.134361</v>
+        <v>0.136655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.132737</v>
+        <v>0.134322</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125755</v>
+        <v>0.126172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.13424</v>
+        <v>0.136968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132986</v>
+        <v>0.135033</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125749</v>
+        <v>0.126719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.13413</v>
+        <v>0.135972</v>
       </c>
       <c r="D14" t="n">
-        <v>0.133465</v>
+        <v>0.135262</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126108</v>
+        <v>0.126443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.134125</v>
+        <v>0.137476</v>
       </c>
       <c r="D15" t="n">
-        <v>0.133215</v>
+        <v>0.135431</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126685</v>
+        <v>0.127781</v>
       </c>
       <c r="C16" t="n">
-        <v>0.134708</v>
+        <v>0.136839</v>
       </c>
       <c r="D16" t="n">
-        <v>0.134077</v>
+        <v>0.136196</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127487</v>
+        <v>0.128141</v>
       </c>
       <c r="C17" t="n">
-        <v>0.13488</v>
+        <v>0.137482</v>
       </c>
       <c r="D17" t="n">
-        <v>0.134388</v>
+        <v>0.135958</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128683</v>
+        <v>0.128284</v>
       </c>
       <c r="C18" t="n">
-        <v>0.135467</v>
+        <v>0.137442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.133846</v>
+        <v>0.135907</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129904</v>
+        <v>0.128917</v>
       </c>
       <c r="C19" t="n">
-        <v>0.13748</v>
+        <v>0.138684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.135044</v>
+        <v>0.137147</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.130852</v>
+        <v>0.13034</v>
       </c>
       <c r="C20" t="n">
-        <v>0.137714</v>
+        <v>0.138925</v>
       </c>
       <c r="D20" t="n">
-        <v>0.135841</v>
+        <v>0.137919</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.132997</v>
+        <v>0.132741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.140685</v>
+        <v>0.141961</v>
       </c>
       <c r="D21" t="n">
-        <v>0.137393</v>
+        <v>0.139696</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136362</v>
+        <v>0.137322</v>
       </c>
       <c r="C22" t="n">
-        <v>0.145249</v>
+        <v>0.146969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.142684</v>
+        <v>0.144246</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144239</v>
+        <v>0.144721</v>
       </c>
       <c r="C23" t="n">
-        <v>0.146083</v>
+        <v>0.151222</v>
       </c>
       <c r="D23" t="n">
-        <v>0.141036</v>
+        <v>0.141083</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137414</v>
+        <v>0.134538</v>
       </c>
       <c r="C24" t="n">
-        <v>0.144453</v>
+        <v>0.143722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.142165</v>
+        <v>0.140783</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.142023</v>
+        <v>0.13726</v>
       </c>
       <c r="C25" t="n">
-        <v>0.145621</v>
+        <v>0.144532</v>
       </c>
       <c r="D25" t="n">
-        <v>0.142125</v>
+        <v>0.140703</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13441</v>
+        <v>0.133721</v>
       </c>
       <c r="C26" t="n">
-        <v>0.14413</v>
+        <v>0.142295</v>
       </c>
       <c r="D26" t="n">
-        <v>0.143436</v>
+        <v>0.141461</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13386</v>
+        <v>0.13316</v>
       </c>
       <c r="C27" t="n">
-        <v>0.143388</v>
+        <v>0.143615</v>
       </c>
       <c r="D27" t="n">
-        <v>0.142386</v>
+        <v>0.140872</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135835</v>
+        <v>0.135347</v>
       </c>
       <c r="C28" t="n">
-        <v>0.143036</v>
+        <v>0.143982</v>
       </c>
       <c r="D28" t="n">
-        <v>0.141905</v>
+        <v>0.14142</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134615</v>
+        <v>0.13466</v>
       </c>
       <c r="C29" t="n">
-        <v>0.143028</v>
+        <v>0.142485</v>
       </c>
       <c r="D29" t="n">
-        <v>0.142885</v>
+        <v>0.141694</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13479</v>
+        <v>0.134108</v>
       </c>
       <c r="C30" t="n">
-        <v>0.143561</v>
+        <v>0.143662</v>
       </c>
       <c r="D30" t="n">
-        <v>0.143449</v>
+        <v>0.141389</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.137072</v>
+        <v>0.134301</v>
       </c>
       <c r="C31" t="n">
-        <v>0.142687</v>
+        <v>0.143995</v>
       </c>
       <c r="D31" t="n">
-        <v>0.143352</v>
+        <v>0.142325</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135618</v>
+        <v>0.135387</v>
       </c>
       <c r="C32" t="n">
-        <v>0.143291</v>
+        <v>0.143714</v>
       </c>
       <c r="D32" t="n">
-        <v>0.144543</v>
+        <v>0.142713</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136482</v>
+        <v>0.13616</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144061</v>
+        <v>0.146112</v>
       </c>
       <c r="D33" t="n">
-        <v>0.144213</v>
+        <v>0.143258</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138134</v>
+        <v>0.1376</v>
       </c>
       <c r="C34" t="n">
-        <v>0.145599</v>
+        <v>0.14739</v>
       </c>
       <c r="D34" t="n">
-        <v>0.145819</v>
+        <v>0.145308</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142077</v>
+        <v>0.140799</v>
       </c>
       <c r="C35" t="n">
-        <v>0.151576</v>
+        <v>0.150792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.149085</v>
+        <v>0.148459</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147278</v>
+        <v>0.147907</v>
       </c>
       <c r="C36" t="n">
-        <v>0.157011</v>
+        <v>0.160386</v>
       </c>
       <c r="D36" t="n">
-        <v>0.155846</v>
+        <v>0.155227</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155213</v>
+        <v>0.153288</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153325</v>
+        <v>0.15295</v>
       </c>
       <c r="D37" t="n">
-        <v>0.153399</v>
+        <v>0.155836</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145952</v>
+        <v>0.148314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.155113</v>
+        <v>0.157715</v>
       </c>
       <c r="D38" t="n">
-        <v>0.154245</v>
+        <v>0.160558</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.144879</v>
+        <v>0.146237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.157271</v>
+        <v>0.156743</v>
       </c>
       <c r="D39" t="n">
-        <v>0.154723</v>
+        <v>0.159958</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146185</v>
+        <v>0.149055</v>
       </c>
       <c r="C40" t="n">
-        <v>0.153605</v>
+        <v>0.157563</v>
       </c>
       <c r="D40" t="n">
-        <v>0.153823</v>
+        <v>0.157345</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146044</v>
+        <v>0.149153</v>
       </c>
       <c r="C41" t="n">
-        <v>0.157681</v>
+        <v>0.159122</v>
       </c>
       <c r="D41" t="n">
-        <v>0.154399</v>
+        <v>0.155923</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147896</v>
+        <v>0.149252</v>
       </c>
       <c r="C42" t="n">
-        <v>0.156216</v>
+        <v>0.157301</v>
       </c>
       <c r="D42" t="n">
-        <v>0.155141</v>
+        <v>0.155699</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146531</v>
+        <v>0.146583</v>
       </c>
       <c r="C43" t="n">
-        <v>0.155398</v>
+        <v>0.154763</v>
       </c>
       <c r="D43" t="n">
-        <v>0.154878</v>
+        <v>0.155826</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1489</v>
+        <v>0.148068</v>
       </c>
       <c r="C44" t="n">
-        <v>0.156839</v>
+        <v>0.156039</v>
       </c>
       <c r="D44" t="n">
-        <v>0.155599</v>
+        <v>0.158244</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147807</v>
+        <v>0.148538</v>
       </c>
       <c r="C45" t="n">
-        <v>0.157841</v>
+        <v>0.15846</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1564</v>
+        <v>0.157535</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.150201</v>
+        <v>0.151276</v>
       </c>
       <c r="C46" t="n">
-        <v>0.15838</v>
+        <v>0.158721</v>
       </c>
       <c r="D46" t="n">
-        <v>0.156197</v>
+        <v>0.161199</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149254</v>
+        <v>0.152897</v>
       </c>
       <c r="C47" t="n">
-        <v>0.15867</v>
+        <v>0.16175</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157379</v>
+        <v>0.161004</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154212</v>
+        <v>0.154705</v>
       </c>
       <c r="C48" t="n">
-        <v>0.164064</v>
+        <v>0.161302</v>
       </c>
       <c r="D48" t="n">
-        <v>0.160438</v>
+        <v>0.163029</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.158736</v>
+        <v>0.160626</v>
       </c>
       <c r="C49" t="n">
-        <v>0.167987</v>
+        <v>0.16778</v>
       </c>
       <c r="D49" t="n">
-        <v>0.163325</v>
+        <v>0.166596</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160378</v>
+        <v>0.161298</v>
       </c>
       <c r="C50" t="n">
-        <v>0.172194</v>
+        <v>0.170848</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169627</v>
+        <v>0.17219</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168032</v>
+        <v>0.167519</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167608</v>
+        <v>0.167615</v>
       </c>
       <c r="D51" t="n">
-        <v>0.167248</v>
+        <v>0.168419</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179269</v>
+        <v>0.181229</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16751</v>
+        <v>0.168343</v>
       </c>
       <c r="D52" t="n">
-        <v>0.168296</v>
+        <v>0.169676</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158982</v>
+        <v>0.167843</v>
       </c>
       <c r="C53" t="n">
-        <v>0.167743</v>
+        <v>0.171195</v>
       </c>
       <c r="D53" t="n">
-        <v>0.168329</v>
+        <v>0.17109</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159979</v>
+        <v>0.167584</v>
       </c>
       <c r="C54" t="n">
-        <v>0.16898</v>
+        <v>0.171373</v>
       </c>
       <c r="D54" t="n">
-        <v>0.16861</v>
+        <v>0.170897</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159464</v>
+        <v>0.165884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.169457</v>
+        <v>0.172086</v>
       </c>
       <c r="D55" t="n">
-        <v>0.168612</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160597</v>
+        <v>0.166408</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168641</v>
+        <v>0.16719</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169026</v>
+        <v>0.168005</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160152</v>
+        <v>0.159118</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169724</v>
+        <v>0.167322</v>
       </c>
       <c r="D57" t="n">
-        <v>0.169517</v>
+        <v>0.169776</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.159683</v>
+        <v>0.166104</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169774</v>
+        <v>0.171266</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170236</v>
+        <v>0.170214</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161118</v>
+        <v>0.166526</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171352</v>
+        <v>0.170552</v>
       </c>
       <c r="D59" t="n">
-        <v>0.170228</v>
+        <v>0.170677</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162665</v>
+        <v>0.165393</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172433</v>
+        <v>0.17257</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17151</v>
+        <v>0.17252</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165534</v>
+        <v>0.169622</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173245</v>
+        <v>0.175402</v>
       </c>
       <c r="D61" t="n">
-        <v>0.17323</v>
+        <v>0.172683</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169952</v>
+        <v>0.172143</v>
       </c>
       <c r="C62" t="n">
-        <v>0.175756</v>
+        <v>0.179033</v>
       </c>
       <c r="D62" t="n">
-        <v>0.175771</v>
+        <v>0.176089</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171034</v>
+        <v>0.173852</v>
       </c>
       <c r="C63" t="n">
-        <v>0.180076</v>
+        <v>0.180087</v>
       </c>
       <c r="D63" t="n">
-        <v>0.178879</v>
+        <v>0.178489</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174258</v>
+        <v>0.177224</v>
       </c>
       <c r="C64" t="n">
-        <v>0.183103</v>
+        <v>0.185604</v>
       </c>
       <c r="D64" t="n">
-        <v>0.182906</v>
+        <v>0.18167</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179974</v>
+        <v>0.183503</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191082</v>
+        <v>0.188091</v>
       </c>
       <c r="D65" t="n">
-        <v>0.19111</v>
+        <v>0.187846</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.190316</v>
+        <v>0.18823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179522</v>
+        <v>0.203583</v>
       </c>
       <c r="D66" t="n">
-        <v>0.179029</v>
+        <v>0.188775</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178593</v>
+        <v>0.231834</v>
       </c>
       <c r="C67" t="n">
-        <v>0.179914</v>
+        <v>0.205749</v>
       </c>
       <c r="D67" t="n">
-        <v>0.179615</v>
+        <v>0.192087</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184711</v>
+        <v>0.224337</v>
       </c>
       <c r="C68" t="n">
-        <v>0.183521</v>
+        <v>0.204478</v>
       </c>
       <c r="D68" t="n">
-        <v>0.180312</v>
+        <v>0.191638</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.18505</v>
+        <v>0.221933</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180213</v>
+        <v>0.197275</v>
       </c>
       <c r="D69" t="n">
-        <v>0.181708</v>
+        <v>0.190252</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.180061</v>
+        <v>0.233393</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180881</v>
+        <v>0.203407</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181342</v>
+        <v>0.195831</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.184268</v>
+        <v>0.226198</v>
       </c>
       <c r="C71" t="n">
-        <v>0.182967</v>
+        <v>0.201893</v>
       </c>
       <c r="D71" t="n">
-        <v>0.182931</v>
+        <v>0.194854</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186259</v>
+        <v>0.217543</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182193</v>
+        <v>0.190144</v>
       </c>
       <c r="D72" t="n">
-        <v>0.182178</v>
+        <v>0.190013</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.184624</v>
+        <v>0.218459</v>
       </c>
       <c r="C73" t="n">
-        <v>0.184621</v>
+        <v>0.195321</v>
       </c>
       <c r="D73" t="n">
-        <v>0.184777</v>
+        <v>0.193472</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.183124</v>
+        <v>0.219076</v>
       </c>
       <c r="C74" t="n">
-        <v>0.184237</v>
+        <v>0.194388</v>
       </c>
       <c r="D74" t="n">
-        <v>0.184115</v>
+        <v>0.193956</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184984</v>
+        <v>0.225628</v>
       </c>
       <c r="C75" t="n">
-        <v>0.187093</v>
+        <v>0.197414</v>
       </c>
       <c r="D75" t="n">
-        <v>0.183032</v>
+        <v>0.1973</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19141</v>
+        <v>0.226646</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189585</v>
+        <v>0.196603</v>
       </c>
       <c r="D76" t="n">
-        <v>0.186774</v>
+        <v>0.194143</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190883</v>
+        <v>0.22585</v>
       </c>
       <c r="C77" t="n">
-        <v>0.191737</v>
+        <v>0.199393</v>
       </c>
       <c r="D77" t="n">
-        <v>0.191306</v>
+        <v>0.195727</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.196139</v>
+        <v>0.230129</v>
       </c>
       <c r="C78" t="n">
-        <v>0.194818</v>
+        <v>0.201289</v>
       </c>
       <c r="D78" t="n">
-        <v>0.192462</v>
+        <v>0.203605</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197917</v>
+        <v>0.228263</v>
       </c>
       <c r="C79" t="n">
-        <v>0.200726</v>
+        <v>0.203317</v>
       </c>
       <c r="D79" t="n">
-        <v>0.197007</v>
+        <v>0.203054</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.208951</v>
+        <v>0.208964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.248301</v>
+        <v>0.245058</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239693</v>
+        <v>0.254978</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.342074</v>
+        <v>0.340321</v>
       </c>
       <c r="C81" t="n">
-        <v>0.260374</v>
+        <v>0.252126</v>
       </c>
       <c r="D81" t="n">
-        <v>0.261023</v>
+        <v>0.258147</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345271</v>
+        <v>0.344862</v>
       </c>
       <c r="C82" t="n">
-        <v>0.261509</v>
+        <v>0.24593</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26105</v>
+        <v>0.233386</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344724</v>
+        <v>0.345683</v>
       </c>
       <c r="C83" t="n">
-        <v>0.263026</v>
+        <v>0.257644</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240845</v>
+        <v>0.234406</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.350774</v>
+        <v>0.349576</v>
       </c>
       <c r="C84" t="n">
-        <v>0.261423</v>
+        <v>0.249466</v>
       </c>
       <c r="D84" t="n">
-        <v>0.239932</v>
+        <v>0.257222</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.347256</v>
+        <v>0.34316</v>
       </c>
       <c r="C85" t="n">
-        <v>0.258019</v>
+        <v>0.257826</v>
       </c>
       <c r="D85" t="n">
-        <v>0.259861</v>
+        <v>0.234377</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.350428</v>
+        <v>0.343983</v>
       </c>
       <c r="C86" t="n">
-        <v>0.259653</v>
+        <v>0.249164</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259598</v>
+        <v>0.254332</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.349838</v>
+        <v>0.346097</v>
       </c>
       <c r="C87" t="n">
-        <v>0.25549</v>
+        <v>0.248191</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255668</v>
+        <v>0.254008</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346286</v>
+        <v>0.349109</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247593</v>
+        <v>0.247011</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255369</v>
+        <v>0.253906</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.349701</v>
+        <v>0.347023</v>
       </c>
       <c r="C89" t="n">
-        <v>0.24765</v>
+        <v>0.248667</v>
       </c>
       <c r="D89" t="n">
-        <v>0.256077</v>
+        <v>0.2546</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35147</v>
+        <v>0.3512</v>
       </c>
       <c r="C90" t="n">
-        <v>0.259929</v>
+        <v>0.255658</v>
       </c>
       <c r="D90" t="n">
-        <v>0.255524</v>
+        <v>0.254155</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.35402</v>
+        <v>0.35194</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2612</v>
+        <v>0.246655</v>
       </c>
       <c r="D91" t="n">
-        <v>0.254835</v>
+        <v>0.25408</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.356345</v>
+        <v>0.355693</v>
       </c>
       <c r="C92" t="n">
-        <v>0.263073</v>
+        <v>0.258906</v>
       </c>
       <c r="D92" t="n">
-        <v>0.259126</v>
+        <v>0.255145</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.357869</v>
+        <v>0.357372</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258673</v>
+        <v>0.260094</v>
       </c>
       <c r="D93" t="n">
-        <v>0.263866</v>
+        <v>0.237533</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.368981</v>
+        <v>0.36096</v>
       </c>
       <c r="C94" t="n">
-        <v>0.405967</v>
+        <v>0.42122</v>
       </c>
       <c r="D94" t="n">
-        <v>0.420389</v>
+        <v>0.422043</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.504976</v>
+        <v>0.505447</v>
       </c>
       <c r="C95" t="n">
-        <v>0.421856</v>
+        <v>0.419686</v>
       </c>
       <c r="D95" t="n">
-        <v>0.421139</v>
+        <v>0.407363</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5047739999999999</v>
+        <v>0.506148</v>
       </c>
       <c r="C96" t="n">
-        <v>0.420813</v>
+        <v>0.418784</v>
       </c>
       <c r="D96" t="n">
-        <v>0.419354</v>
+        <v>0.419788</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.505078</v>
+        <v>0.504897</v>
       </c>
       <c r="C97" t="n">
-        <v>0.421255</v>
+        <v>0.406751</v>
       </c>
       <c r="D97" t="n">
-        <v>0.407441</v>
+        <v>0.407507</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505429</v>
+        <v>0.506085</v>
       </c>
       <c r="C98" t="n">
-        <v>0.41889</v>
+        <v>0.418688</v>
       </c>
       <c r="D98" t="n">
-        <v>0.417049</v>
+        <v>0.407152</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5061639999999999</v>
+        <v>0.506029</v>
       </c>
       <c r="C99" t="n">
-        <v>0.404374</v>
+        <v>0.418855</v>
       </c>
       <c r="D99" t="n">
-        <v>0.403832</v>
+        <v>0.407084</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.507101</v>
+        <v>0.507647</v>
       </c>
       <c r="C100" t="n">
-        <v>0.417278</v>
+        <v>0.405576</v>
       </c>
       <c r="D100" t="n">
-        <v>0.419858</v>
+        <v>0.407259</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507335</v>
+        <v>0.5065460000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.418632</v>
+        <v>0.405234</v>
       </c>
       <c r="D101" t="n">
-        <v>0.418133</v>
+        <v>0.421051</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508555</v>
+        <v>0.5081329999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.418272</v>
+        <v>0.419382</v>
       </c>
       <c r="D102" t="n">
-        <v>0.41966</v>
+        <v>0.419147</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.509544</v>
+        <v>0.511069</v>
       </c>
       <c r="C103" t="n">
-        <v>0.41956</v>
+        <v>0.419945</v>
       </c>
       <c r="D103" t="n">
-        <v>0.407514</v>
+        <v>0.420162</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.511729</v>
+        <v>0.510938</v>
       </c>
       <c r="C104" t="n">
-        <v>0.421077</v>
+        <v>0.420697</v>
       </c>
       <c r="D104" t="n">
-        <v>0.420963</v>
+        <v>0.420621</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5137699999999999</v>
+        <v>0.513841</v>
       </c>
       <c r="C105" t="n">
-        <v>0.421358</v>
+        <v>0.422274</v>
       </c>
       <c r="D105" t="n">
-        <v>0.423211</v>
+        <v>0.411065</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.517633</v>
+        <v>0.515557</v>
       </c>
       <c r="C106" t="n">
-        <v>0.411506</v>
+        <v>0.424676</v>
       </c>
       <c r="D106" t="n">
-        <v>0.412553</v>
+        <v>0.425771</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.521889</v>
+        <v>0.522029</v>
       </c>
       <c r="C107" t="n">
-        <v>0.429822</v>
+        <v>0.417404</v>
       </c>
       <c r="D107" t="n">
-        <v>0.429694</v>
+        <v>0.429589</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.52941</v>
+        <v>0.529289</v>
       </c>
       <c r="C108" t="n">
-        <v>0.552343</v>
+        <v>0.557317</v>
       </c>
       <c r="D108" t="n">
-        <v>0.550586</v>
+        <v>0.559242</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.539694</v>
+        <v>0.540211</v>
       </c>
       <c r="C109" t="n">
-        <v>0.557653</v>
+        <v>0.55672</v>
       </c>
       <c r="D109" t="n">
-        <v>0.547739</v>
+        <v>0.558331</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5896400000000001</v>
+        <v>0.589503</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557891</v>
+        <v>0.5571</v>
       </c>
       <c r="D110" t="n">
-        <v>0.556718</v>
+        <v>0.548623</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591442</v>
+        <v>0.590626</v>
       </c>
       <c r="C111" t="n">
-        <v>0.559745</v>
+        <v>0.555522</v>
       </c>
       <c r="D111" t="n">
-        <v>0.550551</v>
+        <v>0.550299</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.591637</v>
+        <v>0.590858</v>
       </c>
       <c r="C112" t="n">
-        <v>0.561868</v>
+        <v>0.556345</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5614209999999999</v>
+        <v>0.558627</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.592276</v>
+        <v>0.589858</v>
       </c>
       <c r="C113" t="n">
-        <v>0.559105</v>
+        <v>0.557899</v>
       </c>
       <c r="D113" t="n">
-        <v>0.561096</v>
+        <v>0.560682</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.591702</v>
+        <v>0.594326</v>
       </c>
       <c r="C114" t="n">
-        <v>0.562972</v>
+        <v>0.553525</v>
       </c>
       <c r="D114" t="n">
-        <v>0.560771</v>
+        <v>0.558674</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.593835</v>
+        <v>0.59477</v>
       </c>
       <c r="C115" t="n">
-        <v>0.561831</v>
+        <v>0.561974</v>
       </c>
       <c r="D115" t="n">
-        <v>0.561964</v>
+        <v>0.561897</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.596746</v>
+        <v>0.594054</v>
       </c>
       <c r="C116" t="n">
-        <v>0.563627</v>
+        <v>0.5633590000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.566972</v>
+        <v>0.552861</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.598819</v>
+        <v>0.5965240000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.56746</v>
+        <v>0.55918</v>
       </c>
       <c r="D117" t="n">
-        <v>0.564059</v>
+        <v>0.556686</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.60025</v>
+        <v>0.599337</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5673859999999999</v>
+        <v>0.568156</v>
       </c>
       <c r="D118" t="n">
-        <v>0.567186</v>
+        <v>0.5564210000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.603353</v>
+        <v>0.600831</v>
       </c>
       <c r="C119" t="n">
-        <v>0.572078</v>
+        <v>0.563192</v>
       </c>
       <c r="D119" t="n">
-        <v>0.568066</v>
+        <v>0.557467</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.609135</v>
+        <v>0.605031</v>
       </c>
       <c r="C120" t="n">
-        <v>0.574123</v>
+        <v>0.571919</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573114</v>
+        <v>0.572905</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.613248</v>
+        <v>0.6133420000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.573506</v>
+        <v>0.577375</v>
       </c>
       <c r="D121" t="n">
-        <v>0.57986</v>
+        <v>0.5698299999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.624221</v>
+        <v>0.620587</v>
       </c>
       <c r="C122" t="n">
-        <v>0.585738</v>
+        <v>0.584325</v>
       </c>
       <c r="D122" t="n">
-        <v>0.585584</v>
+        <v>0.583199</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.633277</v>
+        <v>0.6333760000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.720517</v>
+        <v>0.732137</v>
       </c>
       <c r="D123" t="n">
-        <v>0.723255</v>
+        <v>0.7238560000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.737229</v>
+        <v>0.744459</v>
       </c>
       <c r="C124" t="n">
-        <v>0.722735</v>
+        <v>0.728579</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7207</v>
+        <v>0.727135</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7403690000000001</v>
+        <v>0.745494</v>
       </c>
       <c r="C125" t="n">
-        <v>0.724177</v>
+        <v>0.732667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.719523</v>
+        <v>0.7270720000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.740287</v>
+        <v>0.74417</v>
       </c>
       <c r="C126" t="n">
-        <v>0.726517</v>
+        <v>0.728866</v>
       </c>
       <c r="D126" t="n">
-        <v>0.723483</v>
+        <v>0.726422</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742062</v>
+        <v>0.743254</v>
       </c>
       <c r="C127" t="n">
-        <v>0.723607</v>
+        <v>0.731704</v>
       </c>
       <c r="D127" t="n">
-        <v>0.725742</v>
+        <v>0.729639</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.74234</v>
+        <v>0.740224</v>
       </c>
       <c r="C128" t="n">
-        <v>0.723804</v>
+        <v>0.73399</v>
       </c>
       <c r="D128" t="n">
-        <v>0.725788</v>
+        <v>0.730577</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.744544</v>
+        <v>0.744252</v>
       </c>
       <c r="C129" t="n">
-        <v>0.724722</v>
+        <v>0.734579</v>
       </c>
       <c r="D129" t="n">
-        <v>0.728149</v>
+        <v>0.731066</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.743561</v>
+        <v>0.745852</v>
       </c>
       <c r="C130" t="n">
-        <v>0.72841</v>
+        <v>0.7316510000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.730688</v>
+        <v>0.727096</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.745279</v>
+        <v>0.74778</v>
       </c>
       <c r="C131" t="n">
-        <v>0.729281</v>
+        <v>0.734742</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7302729999999999</v>
+        <v>0.731668</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7508</v>
+        <v>0.751386</v>
       </c>
       <c r="C132" t="n">
-        <v>0.734989</v>
+        <v>0.739347</v>
       </c>
       <c r="D132" t="n">
-        <v>0.733538</v>
+        <v>0.73447</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.753049</v>
+        <v>0.75659</v>
       </c>
       <c r="C133" t="n">
-        <v>0.736418</v>
+        <v>0.741482</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7343769999999999</v>
+        <v>0.740994</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.75958</v>
+        <v>0.760688</v>
       </c>
       <c r="C134" t="n">
-        <v>0.736725</v>
+        <v>0.747925</v>
       </c>
       <c r="D134" t="n">
-        <v>0.735589</v>
+        <v>0.742688</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7608470000000001</v>
+        <v>0.765972</v>
       </c>
       <c r="C135" t="n">
-        <v>0.743327</v>
+        <v>0.748708</v>
       </c>
       <c r="D135" t="n">
-        <v>0.743831</v>
+        <v>0.746506</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7724760000000001</v>
+        <v>0.773625</v>
       </c>
       <c r="C136" t="n">
-        <v>0.751326</v>
+        <v>0.759821</v>
       </c>
       <c r="D136" t="n">
-        <v>0.748371</v>
+        <v>0.749106</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.782083</v>
+        <v>0.783565</v>
       </c>
       <c r="C137" t="n">
-        <v>0.858769</v>
+        <v>0.858335</v>
       </c>
       <c r="D137" t="n">
-        <v>0.858135</v>
+        <v>0.858706</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.870139</v>
+        <v>0.866046</v>
       </c>
       <c r="C138" t="n">
-        <v>0.857478</v>
+        <v>0.859721</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8583809999999999</v>
+        <v>0.859043</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.870465</v>
+        <v>0.869623</v>
       </c>
       <c r="C139" t="n">
-        <v>0.86043</v>
+        <v>0.85593</v>
       </c>
       <c r="D139" t="n">
-        <v>0.860866</v>
+        <v>0.860181</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.870916</v>
+        <v>0.87086</v>
       </c>
       <c r="C140" t="n">
-        <v>0.858433</v>
+        <v>0.856949</v>
       </c>
       <c r="D140" t="n">
-        <v>0.859893</v>
+        <v>0.862129</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.871524</v>
+        <v>0.865842</v>
       </c>
       <c r="C141" t="n">
-        <v>0.857643</v>
+        <v>0.861329</v>
       </c>
       <c r="D141" t="n">
-        <v>0.859989</v>
+        <v>0.859666</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.874091</v>
+        <v>0.873037</v>
       </c>
       <c r="C142" t="n">
-        <v>0.862493</v>
+        <v>0.863719</v>
       </c>
       <c r="D142" t="n">
-        <v>0.860644</v>
+        <v>0.860154</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.874708</v>
+        <v>0.873515</v>
       </c>
       <c r="C143" t="n">
-        <v>0.861364</v>
+        <v>0.862151</v>
       </c>
       <c r="D143" t="n">
-        <v>0.861148</v>
+        <v>0.85723</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110858</v>
+        <v>0.125546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109557</v>
+        <v>0.132567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.123231</v>
+        <v>0.144722</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110215</v>
+        <v>0.125158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.109346</v>
+        <v>0.132469</v>
       </c>
       <c r="D3" t="n">
-        <v>0.128334</v>
+        <v>0.155586</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11108</v>
+        <v>0.123624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.109754</v>
+        <v>0.133551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.133709</v>
+        <v>0.156138</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111536</v>
+        <v>0.12526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109902</v>
+        <v>0.133933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.142484</v>
+        <v>0.170173</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113231</v>
+        <v>0.124545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110647</v>
+        <v>0.132503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147794</v>
+        <v>0.175686</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113652</v>
+        <v>0.127989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111634</v>
+        <v>0.135995</v>
       </c>
       <c r="D7" t="n">
-        <v>0.120107</v>
+        <v>0.147444</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117261</v>
+        <v>0.130325</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113515</v>
+        <v>0.138015</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123455</v>
+        <v>0.151235</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119902</v>
+        <v>0.133369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.122646</v>
+        <v>0.137391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.129873</v>
+        <v>0.157609</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.132268</v>
+        <v>0.128046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.123863</v>
+        <v>0.136854</v>
       </c>
       <c r="D10" t="n">
-        <v>0.132773</v>
+        <v>0.160261</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.130001</v>
+        <v>0.127696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.12405</v>
+        <v>0.137496</v>
       </c>
       <c r="D11" t="n">
-        <v>0.137293</v>
+        <v>0.165263</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130511</v>
+        <v>0.127792</v>
       </c>
       <c r="C12" t="n">
-        <v>0.124808</v>
+        <v>0.137644</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1411</v>
+        <v>0.17008</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129777</v>
+        <v>0.128253</v>
       </c>
       <c r="C13" t="n">
-        <v>0.126273</v>
+        <v>0.137943</v>
       </c>
       <c r="D13" t="n">
-        <v>0.145878</v>
+        <v>0.175119</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.131139</v>
+        <v>0.128368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.124929</v>
+        <v>0.138198</v>
       </c>
       <c r="D14" t="n">
-        <v>0.150733</v>
+        <v>0.180472</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.13162</v>
+        <v>0.128442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.125731</v>
+        <v>0.138518</v>
       </c>
       <c r="D15" t="n">
-        <v>0.156556</v>
+        <v>0.187018</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131138</v>
+        <v>0.128861</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125597</v>
+        <v>0.139137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161933</v>
+        <v>0.192442</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.135602</v>
+        <v>0.129289</v>
       </c>
       <c r="C17" t="n">
-        <v>0.125915</v>
+        <v>0.139456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.169392</v>
+        <v>0.192805</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13131</v>
+        <v>0.128964</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125187</v>
+        <v>0.138645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17346</v>
+        <v>0.204191</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132485</v>
+        <v>0.130122</v>
       </c>
       <c r="C19" t="n">
-        <v>0.125212</v>
+        <v>0.139211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177872</v>
+        <v>0.20646</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.134287</v>
+        <v>0.131386</v>
       </c>
       <c r="C20" t="n">
-        <v>0.126203</v>
+        <v>0.140274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.183125</v>
+        <v>0.209633</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.135608</v>
+        <v>0.133119</v>
       </c>
       <c r="C21" t="n">
-        <v>0.127938</v>
+        <v>0.142748</v>
       </c>
       <c r="D21" t="n">
-        <v>0.142442</v>
+        <v>0.154627</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136771</v>
+        <v>0.136099</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129179</v>
+        <v>0.147601</v>
       </c>
       <c r="D22" t="n">
-        <v>0.146778</v>
+        <v>0.158345</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.145596</v>
+        <v>0.144266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1255</v>
+        <v>0.141294</v>
       </c>
       <c r="D23" t="n">
-        <v>0.150771</v>
+        <v>0.16307</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134258</v>
+        <v>0.136166</v>
       </c>
       <c r="C24" t="n">
-        <v>0.127257</v>
+        <v>0.14218</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15512</v>
+        <v>0.168195</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133198</v>
+        <v>0.132384</v>
       </c>
       <c r="C25" t="n">
-        <v>0.12709</v>
+        <v>0.141662</v>
       </c>
       <c r="D25" t="n">
-        <v>0.155377</v>
+        <v>0.179682</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138169</v>
+        <v>0.134919</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128346</v>
+        <v>0.143136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.159743</v>
+        <v>0.177097</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140113</v>
+        <v>0.135061</v>
       </c>
       <c r="C27" t="n">
-        <v>0.130355</v>
+        <v>0.143605</v>
       </c>
       <c r="D27" t="n">
-        <v>0.165228</v>
+        <v>0.182226</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138264</v>
+        <v>0.133489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.130673</v>
+        <v>0.142449</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17182</v>
+        <v>0.187007</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134861</v>
+        <v>0.136206</v>
       </c>
       <c r="C29" t="n">
-        <v>0.128266</v>
+        <v>0.14292</v>
       </c>
       <c r="D29" t="n">
-        <v>0.175132</v>
+        <v>0.192512</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134428</v>
+        <v>0.134916</v>
       </c>
       <c r="C30" t="n">
-        <v>0.128856</v>
+        <v>0.142524</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180502</v>
+        <v>0.197808</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135367</v>
+        <v>0.134951</v>
       </c>
       <c r="C31" t="n">
-        <v>0.127521</v>
+        <v>0.142646</v>
       </c>
       <c r="D31" t="n">
-        <v>0.183713</v>
+        <v>0.201892</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138127</v>
+        <v>0.136375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12765</v>
+        <v>0.14361</v>
       </c>
       <c r="D32" t="n">
-        <v>0.188401</v>
+        <v>0.207851</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135965</v>
+        <v>0.136074</v>
       </c>
       <c r="C33" t="n">
-        <v>0.128225</v>
+        <v>0.144782</v>
       </c>
       <c r="D33" t="n">
-        <v>0.192679</v>
+        <v>0.212427</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138803</v>
+        <v>0.137722</v>
       </c>
       <c r="C34" t="n">
-        <v>0.132362</v>
+        <v>0.146514</v>
       </c>
       <c r="D34" t="n">
-        <v>0.197579</v>
+        <v>0.217775</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140486</v>
+        <v>0.14257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.132359</v>
+        <v>0.152759</v>
       </c>
       <c r="D35" t="n">
-        <v>0.154524</v>
+        <v>0.168692</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146074</v>
+        <v>0.146925</v>
       </c>
       <c r="C36" t="n">
-        <v>0.139791</v>
+        <v>0.160106</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15771</v>
+        <v>0.171979</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.153016</v>
+        <v>0.154617</v>
       </c>
       <c r="C37" t="n">
-        <v>0.137448</v>
+        <v>0.151621</v>
       </c>
       <c r="D37" t="n">
-        <v>0.165663</v>
+        <v>0.176865</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147299</v>
+        <v>0.147914</v>
       </c>
       <c r="C38" t="n">
-        <v>0.13953</v>
+        <v>0.15694</v>
       </c>
       <c r="D38" t="n">
-        <v>0.166163</v>
+        <v>0.181715</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146435</v>
+        <v>0.145299</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138755</v>
+        <v>0.15656</v>
       </c>
       <c r="D39" t="n">
-        <v>0.169343</v>
+        <v>0.185649</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.152323</v>
+        <v>0.147548</v>
       </c>
       <c r="C40" t="n">
-        <v>0.13766</v>
+        <v>0.157005</v>
       </c>
       <c r="D40" t="n">
-        <v>0.174075</v>
+        <v>0.190123</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146692</v>
+        <v>0.150072</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142459</v>
+        <v>0.159005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178512</v>
+        <v>0.194439</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147467</v>
+        <v>0.150301</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141724</v>
+        <v>0.162481</v>
       </c>
       <c r="D42" t="n">
-        <v>0.182822</v>
+        <v>0.197379</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.145882</v>
+        <v>0.151687</v>
       </c>
       <c r="C43" t="n">
-        <v>0.137597</v>
+        <v>0.161385</v>
       </c>
       <c r="D43" t="n">
-        <v>0.188911</v>
+        <v>0.20181</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147463</v>
+        <v>0.149327</v>
       </c>
       <c r="C44" t="n">
-        <v>0.138659</v>
+        <v>0.162585</v>
       </c>
       <c r="D44" t="n">
-        <v>0.193679</v>
+        <v>0.207638</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147974</v>
+        <v>0.152968</v>
       </c>
       <c r="C45" t="n">
-        <v>0.143638</v>
+        <v>0.159087</v>
       </c>
       <c r="D45" t="n">
-        <v>0.19779</v>
+        <v>0.213499</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149044</v>
+        <v>0.15182</v>
       </c>
       <c r="C46" t="n">
-        <v>0.139722</v>
+        <v>0.161305</v>
       </c>
       <c r="D46" t="n">
-        <v>0.202283</v>
+        <v>0.219231</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150334</v>
+        <v>0.149474</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142097</v>
+        <v>0.158173</v>
       </c>
       <c r="D47" t="n">
-        <v>0.206802</v>
+        <v>0.224521</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.156121</v>
+        <v>0.153856</v>
       </c>
       <c r="C48" t="n">
-        <v>0.14697</v>
+        <v>0.165617</v>
       </c>
       <c r="D48" t="n">
-        <v>0.212032</v>
+        <v>0.234842</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157841</v>
+        <v>0.159929</v>
       </c>
       <c r="C49" t="n">
-        <v>0.148409</v>
+        <v>0.168017</v>
       </c>
       <c r="D49" t="n">
-        <v>0.216136</v>
+        <v>0.233568</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161178</v>
+        <v>0.164358</v>
       </c>
       <c r="C50" t="n">
-        <v>0.152696</v>
+        <v>0.174003</v>
       </c>
       <c r="D50" t="n">
-        <v>0.158273</v>
+        <v>0.172352</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166307</v>
+        <v>0.166178</v>
       </c>
       <c r="C51" t="n">
-        <v>0.150946</v>
+        <v>0.170471</v>
       </c>
       <c r="D51" t="n">
-        <v>0.161565</v>
+        <v>0.175321</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175802</v>
+        <v>0.175701</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148484</v>
+        <v>0.166152</v>
       </c>
       <c r="D52" t="n">
-        <v>0.164953</v>
+        <v>0.179311</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159288</v>
+        <v>0.159358</v>
       </c>
       <c r="C53" t="n">
-        <v>0.148409</v>
+        <v>0.168219</v>
       </c>
       <c r="D53" t="n">
-        <v>0.169039</v>
+        <v>0.183278</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161452</v>
+        <v>0.157724</v>
       </c>
       <c r="C54" t="n">
-        <v>0.15158</v>
+        <v>0.1696</v>
       </c>
       <c r="D54" t="n">
-        <v>0.172516</v>
+        <v>0.187639</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161544</v>
+        <v>0.159151</v>
       </c>
       <c r="C55" t="n">
-        <v>0.150988</v>
+        <v>0.169072</v>
       </c>
       <c r="D55" t="n">
-        <v>0.176594</v>
+        <v>0.193002</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.166134</v>
+        <v>0.160856</v>
       </c>
       <c r="C56" t="n">
-        <v>0.15589</v>
+        <v>0.169355</v>
       </c>
       <c r="D56" t="n">
-        <v>0.182436</v>
+        <v>0.197456</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.159254</v>
+        <v>0.160299</v>
       </c>
       <c r="C57" t="n">
-        <v>0.15457</v>
+        <v>0.168976</v>
       </c>
       <c r="D57" t="n">
-        <v>0.185668</v>
+        <v>0.202734</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161081</v>
+        <v>0.160923</v>
       </c>
       <c r="C58" t="n">
-        <v>0.151253</v>
+        <v>0.169758</v>
       </c>
       <c r="D58" t="n">
-        <v>0.190158</v>
+        <v>0.207832</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.163076</v>
+        <v>0.161062</v>
       </c>
       <c r="C59" t="n">
-        <v>0.15298</v>
+        <v>0.16976</v>
       </c>
       <c r="D59" t="n">
-        <v>0.194953</v>
+        <v>0.212789</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166035</v>
+        <v>0.162915</v>
       </c>
       <c r="C60" t="n">
-        <v>0.156545</v>
+        <v>0.172895</v>
       </c>
       <c r="D60" t="n">
-        <v>0.199311</v>
+        <v>0.217867</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165477</v>
+        <v>0.166811</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156155</v>
+        <v>0.173747</v>
       </c>
       <c r="D61" t="n">
-        <v>0.203556</v>
+        <v>0.223366</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169242</v>
+        <v>0.166703</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159223</v>
+        <v>0.178073</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209354</v>
+        <v>0.22826</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170748</v>
+        <v>0.171873</v>
       </c>
       <c r="C63" t="n">
-        <v>0.161588</v>
+        <v>0.182356</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212801</v>
+        <v>0.23423</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177066</v>
+        <v>0.172899</v>
       </c>
       <c r="C64" t="n">
-        <v>0.163897</v>
+        <v>0.183991</v>
       </c>
       <c r="D64" t="n">
-        <v>0.163142</v>
+        <v>0.178431</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.182505</v>
+        <v>0.178052</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17215</v>
+        <v>0.19031</v>
       </c>
       <c r="D65" t="n">
-        <v>0.167033</v>
+        <v>0.182026</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187904</v>
+        <v>0.186649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.161972</v>
+        <v>0.17971</v>
       </c>
       <c r="D66" t="n">
-        <v>0.171142</v>
+        <v>0.187967</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181557</v>
+        <v>0.185001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.165172</v>
+        <v>0.18232</v>
       </c>
       <c r="D67" t="n">
-        <v>0.174815</v>
+        <v>0.193665</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.192749</v>
+        <v>0.177667</v>
       </c>
       <c r="C68" t="n">
-        <v>0.168337</v>
+        <v>0.181155</v>
       </c>
       <c r="D68" t="n">
-        <v>0.180627</v>
+        <v>0.19903</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.192142</v>
+        <v>0.181727</v>
       </c>
       <c r="C69" t="n">
-        <v>0.166804</v>
+        <v>0.181486</v>
       </c>
       <c r="D69" t="n">
-        <v>0.186917</v>
+        <v>0.205868</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.197702</v>
+        <v>0.17844</v>
       </c>
       <c r="C70" t="n">
-        <v>0.165628</v>
+        <v>0.181341</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18986</v>
+        <v>0.21061</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.19549</v>
+        <v>0.181418</v>
       </c>
       <c r="C71" t="n">
-        <v>0.168071</v>
+        <v>0.183021</v>
       </c>
       <c r="D71" t="n">
-        <v>0.199375</v>
+        <v>0.21975</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.190441</v>
+        <v>0.186026</v>
       </c>
       <c r="C72" t="n">
-        <v>0.171489</v>
+        <v>0.183736</v>
       </c>
       <c r="D72" t="n">
-        <v>0.207076</v>
+        <v>0.224302</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.190271</v>
+        <v>0.185952</v>
       </c>
       <c r="C73" t="n">
-        <v>0.167646</v>
+        <v>0.183498</v>
       </c>
       <c r="D73" t="n">
-        <v>0.214079</v>
+        <v>0.23212</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18897</v>
+        <v>0.181893</v>
       </c>
       <c r="C74" t="n">
-        <v>0.168652</v>
+        <v>0.185137</v>
       </c>
       <c r="D74" t="n">
-        <v>0.221978</v>
+        <v>0.240551</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.197138</v>
+        <v>0.184326</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170829</v>
+        <v>0.185995</v>
       </c>
       <c r="D75" t="n">
-        <v>0.230561</v>
+        <v>0.253991</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20118</v>
+        <v>0.189541</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172655</v>
+        <v>0.188743</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242194</v>
+        <v>0.261284</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195124</v>
+        <v>0.191994</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172703</v>
+        <v>0.192815</v>
       </c>
       <c r="D77" t="n">
-        <v>0.262145</v>
+        <v>0.270675</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.19407</v>
+        <v>0.198609</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176414</v>
+        <v>0.197191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216668</v>
+        <v>0.228693</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.194915</v>
+        <v>0.196414</v>
       </c>
       <c r="C79" t="n">
-        <v>0.181014</v>
+        <v>0.201337</v>
       </c>
       <c r="D79" t="n">
-        <v>0.221075</v>
+        <v>0.234126</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.201727</v>
+        <v>0.204007</v>
       </c>
       <c r="C80" t="n">
-        <v>0.219966</v>
+        <v>0.25833</v>
       </c>
       <c r="D80" t="n">
-        <v>0.230338</v>
+        <v>0.245939</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.33784</v>
+        <v>0.341322</v>
       </c>
       <c r="C81" t="n">
-        <v>0.215249</v>
+        <v>0.256106</v>
       </c>
       <c r="D81" t="n">
-        <v>0.242469</v>
+        <v>0.258494</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.339707</v>
+        <v>0.345278</v>
       </c>
       <c r="C82" t="n">
-        <v>0.235496</v>
+        <v>0.257338</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252501</v>
+        <v>0.269233</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341308</v>
+        <v>0.34554</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215715</v>
+        <v>0.241863</v>
       </c>
       <c r="D83" t="n">
-        <v>0.263367</v>
+        <v>0.285967</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.347239</v>
+        <v>0.342881</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238913</v>
+        <v>0.25793</v>
       </c>
       <c r="D84" t="n">
-        <v>0.275817</v>
+        <v>0.300123</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.348701</v>
+        <v>0.343649</v>
       </c>
       <c r="C85" t="n">
-        <v>0.221743</v>
+        <v>0.257482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.294852</v>
+        <v>0.314231</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.348366</v>
+        <v>0.343598</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242187</v>
+        <v>0.238155</v>
       </c>
       <c r="D86" t="n">
-        <v>0.302238</v>
+        <v>0.330286</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348653</v>
+        <v>0.344196</v>
       </c>
       <c r="C87" t="n">
-        <v>0.241519</v>
+        <v>0.255802</v>
       </c>
       <c r="D87" t="n">
-        <v>0.320096</v>
+        <v>0.346861</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346657</v>
+        <v>0.353516</v>
       </c>
       <c r="C88" t="n">
-        <v>0.239606</v>
+        <v>0.243133</v>
       </c>
       <c r="D88" t="n">
-        <v>0.33406</v>
+        <v>0.362119</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348218</v>
+        <v>0.350103</v>
       </c>
       <c r="C89" t="n">
-        <v>0.23943</v>
+        <v>0.246296</v>
       </c>
       <c r="D89" t="n">
-        <v>0.350568</v>
+        <v>0.381287</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.354822</v>
+        <v>0.34342</v>
       </c>
       <c r="C90" t="n">
-        <v>0.23973</v>
+        <v>0.241339</v>
       </c>
       <c r="D90" t="n">
-        <v>0.367602</v>
+        <v>0.39374</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.34516</v>
+        <v>0.346586</v>
       </c>
       <c r="C91" t="n">
-        <v>0.216195</v>
+        <v>0.246146</v>
       </c>
       <c r="D91" t="n">
-        <v>0.383102</v>
+        <v>0.411268</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.356183</v>
+        <v>0.353597</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238588</v>
+        <v>0.247991</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329195</v>
+        <v>0.360925</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358517</v>
+        <v>0.35831</v>
       </c>
       <c r="C93" t="n">
-        <v>0.221259</v>
+        <v>0.24521</v>
       </c>
       <c r="D93" t="n">
-        <v>0.338659</v>
+        <v>0.370555</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365798</v>
+        <v>0.363714</v>
       </c>
       <c r="C94" t="n">
-        <v>0.399342</v>
+        <v>0.419166</v>
       </c>
       <c r="D94" t="n">
-        <v>0.349067</v>
+        <v>0.377875</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.504579</v>
+        <v>0.5055539999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.390148</v>
+        <v>0.415697</v>
       </c>
       <c r="D95" t="n">
-        <v>0.359732</v>
+        <v>0.394862</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.505155</v>
+        <v>0.504735</v>
       </c>
       <c r="C96" t="n">
-        <v>0.387539</v>
+        <v>0.418807</v>
       </c>
       <c r="D96" t="n">
-        <v>0.371069</v>
+        <v>0.407849</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.505657</v>
+        <v>0.501252</v>
       </c>
       <c r="C97" t="n">
-        <v>0.402293</v>
+        <v>0.414835</v>
       </c>
       <c r="D97" t="n">
-        <v>0.383061</v>
+        <v>0.424761</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505884</v>
+        <v>0.50588</v>
       </c>
       <c r="C98" t="n">
-        <v>0.393539</v>
+        <v>0.402545</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392262</v>
+        <v>0.432594</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5057430000000001</v>
+        <v>0.505636</v>
       </c>
       <c r="C99" t="n">
-        <v>0.39271</v>
+        <v>0.403005</v>
       </c>
       <c r="D99" t="n">
-        <v>0.412534</v>
+        <v>0.449998</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506568</v>
+        <v>0.507485</v>
       </c>
       <c r="C100" t="n">
-        <v>0.394274</v>
+        <v>0.402488</v>
       </c>
       <c r="D100" t="n">
-        <v>0.419269</v>
+        <v>0.466417</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5069630000000001</v>
+        <v>0.5074959999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.402464</v>
+        <v>0.402563</v>
       </c>
       <c r="D101" t="n">
-        <v>0.43914</v>
+        <v>0.480398</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.504144</v>
+        <v>0.508961</v>
       </c>
       <c r="C102" t="n">
-        <v>0.401053</v>
+        <v>0.419062</v>
       </c>
       <c r="D102" t="n">
-        <v>0.450779</v>
+        <v>0.495054</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.509977</v>
+        <v>0.505279</v>
       </c>
       <c r="C103" t="n">
-        <v>0.390803</v>
+        <v>0.417013</v>
       </c>
       <c r="D103" t="n">
-        <v>0.472796</v>
+        <v>0.5155960000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.511372</v>
+        <v>0.511894</v>
       </c>
       <c r="C104" t="n">
-        <v>0.392487</v>
+        <v>0.419316</v>
       </c>
       <c r="D104" t="n">
-        <v>0.490193</v>
+        <v>0.530589</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514038</v>
+        <v>0.514551</v>
       </c>
       <c r="C105" t="n">
-        <v>0.391978</v>
+        <v>0.407646</v>
       </c>
       <c r="D105" t="n">
-        <v>0.507071</v>
+        <v>0.548818</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.514127</v>
+        <v>0.51758</v>
       </c>
       <c r="C106" t="n">
-        <v>0.408068</v>
+        <v>0.426139</v>
       </c>
       <c r="D106" t="n">
-        <v>0.522933</v>
+        <v>0.566798</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5220089999999999</v>
+        <v>0.522496</v>
       </c>
       <c r="C107" t="n">
-        <v>0.410635</v>
+        <v>0.428692</v>
       </c>
       <c r="D107" t="n">
-        <v>0.530749</v>
+        <v>0.535869</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.529068</v>
+        <v>0.530703</v>
       </c>
       <c r="C108" t="n">
-        <v>0.53939</v>
+        <v>0.557175</v>
       </c>
       <c r="D108" t="n">
-        <v>0.543396</v>
+        <v>0.542326</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.54164</v>
+        <v>0.540307</v>
       </c>
       <c r="C109" t="n">
-        <v>0.540887</v>
+        <v>0.5524</v>
       </c>
       <c r="D109" t="n">
-        <v>0.542781</v>
+        <v>0.554744</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.591715</v>
+        <v>0.585811</v>
       </c>
       <c r="C110" t="n">
-        <v>0.542099</v>
+        <v>0.5554829999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.55601</v>
+        <v>0.568895</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.588678</v>
+        <v>0.588353</v>
       </c>
       <c r="C111" t="n">
-        <v>0.540724</v>
+        <v>0.55808</v>
       </c>
       <c r="D111" t="n">
-        <v>0.562603</v>
+        <v>0.581694</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5896709999999999</v>
+        <v>0.592062</v>
       </c>
       <c r="C112" t="n">
-        <v>0.54177</v>
+        <v>0.552952</v>
       </c>
       <c r="D112" t="n">
-        <v>0.589307</v>
+        <v>0.596823</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.583962</v>
+        <v>0.589166</v>
       </c>
       <c r="C113" t="n">
-        <v>0.528741</v>
+        <v>0.555978</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6006320000000001</v>
+        <v>0.6134500000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.583568</v>
+        <v>0.580788</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5433249999999999</v>
+        <v>0.553915</v>
       </c>
       <c r="D114" t="n">
-        <v>0.613336</v>
+        <v>0.626199</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.592318</v>
+        <v>0.590968</v>
       </c>
       <c r="C115" t="n">
-        <v>0.542099</v>
+        <v>0.560427</v>
       </c>
       <c r="D115" t="n">
-        <v>0.616854</v>
+        <v>0.6467270000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.595534</v>
+        <v>0.5945589999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.544916</v>
+        <v>0.561048</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6415149999999999</v>
+        <v>0.656081</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.595252</v>
+        <v>0.586614</v>
       </c>
       <c r="C117" t="n">
-        <v>0.534616</v>
+        <v>0.558708</v>
       </c>
       <c r="D117" t="n">
-        <v>0.654568</v>
+        <v>0.682053</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.598795</v>
+        <v>0.590516</v>
       </c>
       <c r="C118" t="n">
-        <v>0.547742</v>
+        <v>0.555501</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6717379999999999</v>
+        <v>0.695003</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.60792</v>
+        <v>0.606465</v>
       </c>
       <c r="C119" t="n">
-        <v>0.549916</v>
+        <v>0.570012</v>
       </c>
       <c r="D119" t="n">
-        <v>0.699636</v>
+        <v>0.706223</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.608531</v>
+        <v>0.609868</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5560659999999999</v>
+        <v>0.566101</v>
       </c>
       <c r="D120" t="n">
-        <v>0.708267</v>
+        <v>0.724184</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.613394</v>
+        <v>0.604585</v>
       </c>
       <c r="C121" t="n">
-        <v>0.561119</v>
+        <v>0.5782</v>
       </c>
       <c r="D121" t="n">
-        <v>0.638808</v>
+        <v>0.649259</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.621965</v>
+        <v>0.621934</v>
       </c>
       <c r="C122" t="n">
-        <v>0.563523</v>
+        <v>0.58085</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648648</v>
+        <v>0.66145</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.633906</v>
+        <v>0.634811</v>
       </c>
       <c r="C123" t="n">
-        <v>0.702249</v>
+        <v>0.72217</v>
       </c>
       <c r="D123" t="n">
-        <v>0.64412</v>
+        <v>0.6724290000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.735795</v>
+        <v>0.720058</v>
       </c>
       <c r="C124" t="n">
-        <v>0.703987</v>
+        <v>0.72089</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671365</v>
+        <v>0.688796</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7341</v>
+        <v>0.73667</v>
       </c>
       <c r="C125" t="n">
-        <v>0.707785</v>
+        <v>0.722585</v>
       </c>
       <c r="D125" t="n">
-        <v>0.686573</v>
+        <v>0.699533</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.73534</v>
+        <v>0.739904</v>
       </c>
       <c r="C126" t="n">
-        <v>0.70436</v>
+        <v>0.71892</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6864130000000001</v>
+        <v>0.696155</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.73177</v>
+        <v>0.741804</v>
       </c>
       <c r="C127" t="n">
-        <v>0.696368</v>
+        <v>0.7242420000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.712385</v>
+        <v>0.712998</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.745052</v>
+        <v>0.741337</v>
       </c>
       <c r="C128" t="n">
-        <v>0.709221</v>
+        <v>0.72739</v>
       </c>
       <c r="D128" t="n">
-        <v>0.706527</v>
+        <v>0.740667</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.740761</v>
+        <v>0.745169</v>
       </c>
       <c r="C129" t="n">
-        <v>0.686906</v>
+        <v>0.724495</v>
       </c>
       <c r="D129" t="n">
-        <v>0.738928</v>
+        <v>0.755873</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.73005</v>
+        <v>0.743238</v>
       </c>
       <c r="C130" t="n">
-        <v>0.708353</v>
+        <v>0.727402</v>
       </c>
       <c r="D130" t="n">
-        <v>0.743625</v>
+        <v>0.769119</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7431219999999999</v>
+        <v>0.74309</v>
       </c>
       <c r="C131" t="n">
-        <v>0.693785</v>
+        <v>0.726634</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7619939999999999</v>
+        <v>0.783065</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.741158</v>
+        <v>0.744604</v>
       </c>
       <c r="C132" t="n">
-        <v>0.709425</v>
+        <v>0.731492</v>
       </c>
       <c r="D132" t="n">
-        <v>0.788798</v>
+        <v>0.800017</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.750686</v>
+        <v>0.734054</v>
       </c>
       <c r="C133" t="n">
-        <v>0.713356</v>
+        <v>0.719749</v>
       </c>
       <c r="D133" t="n">
-        <v>0.79864</v>
+        <v>0.807995</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.75087</v>
+        <v>0.750432</v>
       </c>
       <c r="C134" t="n">
-        <v>0.708438</v>
+        <v>0.724531</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8151620000000001</v>
+        <v>0.835942</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7579360000000001</v>
+        <v>0.758077</v>
       </c>
       <c r="C135" t="n">
-        <v>0.721727</v>
+        <v>0.744903</v>
       </c>
       <c r="D135" t="n">
-        <v>0.586386</v>
+        <v>0.706075</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7644</v>
+        <v>0.770347</v>
       </c>
       <c r="C136" t="n">
-        <v>0.731294</v>
+        <v>0.750977</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6027400000000001</v>
+        <v>0.715133</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.786171</v>
+        <v>0.782647</v>
       </c>
       <c r="C137" t="n">
-        <v>0.831087</v>
+        <v>0.857504</v>
       </c>
       <c r="D137" t="n">
-        <v>0.611559</v>
+        <v>0.714983</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.868899</v>
+        <v>0.869077</v>
       </c>
       <c r="C138" t="n">
-        <v>0.841622</v>
+        <v>0.8583190000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.622437</v>
+        <v>0.726282</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.869793</v>
+        <v>0.860209</v>
       </c>
       <c r="C139" t="n">
-        <v>0.84172</v>
+        <v>0.8595739999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.633341</v>
+        <v>0.748978</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.869071</v>
+        <v>0.870564</v>
       </c>
       <c r="C140" t="n">
-        <v>0.832866</v>
+        <v>0.849644</v>
       </c>
       <c r="D140" t="n">
-        <v>0.64479</v>
+        <v>0.762371</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.869484</v>
+        <v>0.871347</v>
       </c>
       <c r="C141" t="n">
-        <v>0.844059</v>
+        <v>0.850584</v>
       </c>
       <c r="D141" t="n">
-        <v>0.657064</v>
+        <v>0.775923</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.858329</v>
+        <v>0.865554</v>
       </c>
       <c r="C142" t="n">
-        <v>0.844569</v>
+        <v>0.853723</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6708730000000001</v>
+        <v>0.7891010000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.872244</v>
+        <v>0.87105</v>
       </c>
       <c r="C143" t="n">
-        <v>0.845423</v>
+        <v>0.848602</v>
       </c>
       <c r="D143" t="n">
-        <v>0.685217</v>
+        <v>0.803326</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.125546</v>
+        <v>0.111234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132567</v>
+        <v>0.126121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.144722</v>
+        <v>0.133281</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125158</v>
+        <v>0.110945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.132469</v>
+        <v>0.126783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155586</v>
+        <v>0.138619</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123624</v>
+        <v>0.111507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.133551</v>
+        <v>0.126544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156138</v>
+        <v>0.146183</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12526</v>
+        <v>0.111482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.133933</v>
+        <v>0.127239</v>
       </c>
       <c r="D5" t="n">
-        <v>0.170173</v>
+        <v>0.153733</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124545</v>
+        <v>0.112972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.132503</v>
+        <v>0.128167</v>
       </c>
       <c r="D6" t="n">
-        <v>0.175686</v>
+        <v>0.158939</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127989</v>
+        <v>0.114094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.135995</v>
+        <v>0.129063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147444</v>
+        <v>0.131706</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.130325</v>
+        <v>0.115847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.138015</v>
+        <v>0.131142</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151235</v>
+        <v>0.133986</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.133369</v>
+        <v>0.119529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.137391</v>
+        <v>0.132449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.157609</v>
+        <v>0.138954</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.128046</v>
+        <v>0.122086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.136854</v>
+        <v>0.132641</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160261</v>
+        <v>0.143036</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127696</v>
+        <v>0.12219</v>
       </c>
       <c r="C11" t="n">
-        <v>0.137496</v>
+        <v>0.133311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.165263</v>
+        <v>0.148266</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127792</v>
+        <v>0.122411</v>
       </c>
       <c r="C12" t="n">
-        <v>0.137644</v>
+        <v>0.133748</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17008</v>
+        <v>0.153282</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128253</v>
+        <v>0.12266</v>
       </c>
       <c r="C13" t="n">
-        <v>0.137943</v>
+        <v>0.13439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175119</v>
+        <v>0.158416</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128368</v>
+        <v>0.1231</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138198</v>
+        <v>0.134437</v>
       </c>
       <c r="D14" t="n">
-        <v>0.180472</v>
+        <v>0.164749</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128442</v>
+        <v>0.123553</v>
       </c>
       <c r="C15" t="n">
-        <v>0.138518</v>
+        <v>0.135086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.187018</v>
+        <v>0.171799</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128861</v>
+        <v>0.122843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.139137</v>
+        <v>0.135221</v>
       </c>
       <c r="D16" t="n">
-        <v>0.192442</v>
+        <v>0.176471</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129289</v>
+        <v>0.124012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.139456</v>
+        <v>0.136016</v>
       </c>
       <c r="D17" t="n">
-        <v>0.192805</v>
+        <v>0.181264</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128964</v>
+        <v>0.124803</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138645</v>
+        <v>0.135725</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204191</v>
+        <v>0.188208</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130122</v>
+        <v>0.125713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139211</v>
+        <v>0.136334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20646</v>
+        <v>0.192646</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.131386</v>
+        <v>0.12699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.140274</v>
+        <v>0.13746</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209633</v>
+        <v>0.198743</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.133119</v>
+        <v>0.128925</v>
       </c>
       <c r="C21" t="n">
-        <v>0.142748</v>
+        <v>0.139356</v>
       </c>
       <c r="D21" t="n">
-        <v>0.154627</v>
+        <v>0.152781</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136099</v>
+        <v>0.132552</v>
       </c>
       <c r="C22" t="n">
-        <v>0.147601</v>
+        <v>0.143655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158345</v>
+        <v>0.157613</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144266</v>
+        <v>0.140539</v>
       </c>
       <c r="C23" t="n">
-        <v>0.141294</v>
+        <v>0.147139</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16307</v>
+        <v>0.161411</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136166</v>
+        <v>0.134407</v>
       </c>
       <c r="C24" t="n">
-        <v>0.14218</v>
+        <v>0.14493</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168195</v>
+        <v>0.166205</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132384</v>
+        <v>0.135572</v>
       </c>
       <c r="C25" t="n">
-        <v>0.141662</v>
+        <v>0.14542</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179682</v>
+        <v>0.171669</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134919</v>
+        <v>0.133889</v>
       </c>
       <c r="C26" t="n">
-        <v>0.143136</v>
+        <v>0.146014</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177097</v>
+        <v>0.176304</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135061</v>
+        <v>0.133989</v>
       </c>
       <c r="C27" t="n">
-        <v>0.143605</v>
+        <v>0.145598</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182226</v>
+        <v>0.180909</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133489</v>
+        <v>0.135348</v>
       </c>
       <c r="C28" t="n">
-        <v>0.142449</v>
+        <v>0.146672</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187007</v>
+        <v>0.186369</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136206</v>
+        <v>0.1344</v>
       </c>
       <c r="C29" t="n">
-        <v>0.14292</v>
+        <v>0.146207</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192512</v>
+        <v>0.190243</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134916</v>
+        <v>0.135469</v>
       </c>
       <c r="C30" t="n">
-        <v>0.142524</v>
+        <v>0.147301</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197808</v>
+        <v>0.19592</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134951</v>
+        <v>0.13522</v>
       </c>
       <c r="C31" t="n">
-        <v>0.142646</v>
+        <v>0.146476</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201892</v>
+        <v>0.201841</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136375</v>
+        <v>0.135972</v>
       </c>
       <c r="C32" t="n">
-        <v>0.14361</v>
+        <v>0.149153</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207851</v>
+        <v>0.206705</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136074</v>
+        <v>0.137705</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144782</v>
+        <v>0.148514</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212427</v>
+        <v>0.212008</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137722</v>
+        <v>0.140157</v>
       </c>
       <c r="C34" t="n">
-        <v>0.146514</v>
+        <v>0.149238</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217775</v>
+        <v>0.217144</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14257</v>
+        <v>0.142212</v>
       </c>
       <c r="C35" t="n">
-        <v>0.152759</v>
+        <v>0.15308</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168692</v>
+        <v>0.168528</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146925</v>
+        <v>0.147727</v>
       </c>
       <c r="C36" t="n">
-        <v>0.160106</v>
+        <v>0.16356</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171979</v>
+        <v>0.172682</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154617</v>
+        <v>0.154509</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151621</v>
+        <v>0.158943</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176865</v>
+        <v>0.176828</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147914</v>
+        <v>0.146267</v>
       </c>
       <c r="C38" t="n">
-        <v>0.15694</v>
+        <v>0.158887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181715</v>
+        <v>0.181232</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145299</v>
+        <v>0.148212</v>
       </c>
       <c r="C39" t="n">
-        <v>0.15656</v>
+        <v>0.158087</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185649</v>
+        <v>0.186229</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147548</v>
+        <v>0.146424</v>
       </c>
       <c r="C40" t="n">
-        <v>0.157005</v>
+        <v>0.15794</v>
       </c>
       <c r="D40" t="n">
-        <v>0.190123</v>
+        <v>0.190485</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150072</v>
+        <v>0.145272</v>
       </c>
       <c r="C41" t="n">
-        <v>0.159005</v>
+        <v>0.158537</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194439</v>
+        <v>0.194387</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150301</v>
+        <v>0.144892</v>
       </c>
       <c r="C42" t="n">
-        <v>0.162481</v>
+        <v>0.159992</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197379</v>
+        <v>0.19932</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.151687</v>
+        <v>0.149553</v>
       </c>
       <c r="C43" t="n">
-        <v>0.161385</v>
+        <v>0.158582</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20181</v>
+        <v>0.204649</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149327</v>
+        <v>0.149028</v>
       </c>
       <c r="C44" t="n">
-        <v>0.162585</v>
+        <v>0.162352</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207638</v>
+        <v>0.20987</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152968</v>
+        <v>0.149676</v>
       </c>
       <c r="C45" t="n">
-        <v>0.159087</v>
+        <v>0.163759</v>
       </c>
       <c r="D45" t="n">
-        <v>0.213499</v>
+        <v>0.21494</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.15182</v>
+        <v>0.149887</v>
       </c>
       <c r="C46" t="n">
-        <v>0.161305</v>
+        <v>0.163877</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219231</v>
+        <v>0.219926</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149474</v>
+        <v>0.149266</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158173</v>
+        <v>0.162964</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224521</v>
+        <v>0.225957</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153856</v>
+        <v>0.153303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.165617</v>
+        <v>0.162427</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234842</v>
+        <v>0.229724</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159929</v>
+        <v>0.156903</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168017</v>
+        <v>0.167433</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233568</v>
+        <v>0.234747</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.164358</v>
+        <v>0.161467</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174003</v>
+        <v>0.171798</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.17238</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166178</v>
+        <v>0.167631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.170471</v>
+        <v>0.17282</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175321</v>
+        <v>0.17548</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175701</v>
+        <v>0.176445</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166152</v>
+        <v>0.170493</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179311</v>
+        <v>0.179404</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159358</v>
+        <v>0.158839</v>
       </c>
       <c r="C53" t="n">
-        <v>0.168219</v>
+        <v>0.170371</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183278</v>
+        <v>0.183913</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.157724</v>
+        <v>0.159961</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1696</v>
+        <v>0.171517</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187639</v>
+        <v>0.187969</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159151</v>
+        <v>0.160182</v>
       </c>
       <c r="C55" t="n">
-        <v>0.169072</v>
+        <v>0.170562</v>
       </c>
       <c r="D55" t="n">
-        <v>0.193002</v>
+        <v>0.192919</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160856</v>
+        <v>0.161437</v>
       </c>
       <c r="C56" t="n">
-        <v>0.169355</v>
+        <v>0.172156</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197456</v>
+        <v>0.198267</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160299</v>
+        <v>0.162179</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168976</v>
+        <v>0.173727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202734</v>
+        <v>0.202979</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160923</v>
+        <v>0.160784</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169758</v>
+        <v>0.173676</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207832</v>
+        <v>0.208334</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161062</v>
+        <v>0.162081</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16976</v>
+        <v>0.172685</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212789</v>
+        <v>0.213377</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162915</v>
+        <v>0.162957</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172895</v>
+        <v>0.174025</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217867</v>
+        <v>0.218737</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166811</v>
+        <v>0.163811</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173747</v>
+        <v>0.175593</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223366</v>
+        <v>0.22495</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166703</v>
+        <v>0.166443</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178073</v>
+        <v>0.177184</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22826</v>
+        <v>0.228153</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171873</v>
+        <v>0.1691</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182356</v>
+        <v>0.180693</v>
       </c>
       <c r="D63" t="n">
-        <v>0.23423</v>
+        <v>0.232699</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172899</v>
+        <v>0.172322</v>
       </c>
       <c r="C64" t="n">
-        <v>0.183991</v>
+        <v>0.184621</v>
       </c>
       <c r="D64" t="n">
-        <v>0.178431</v>
+        <v>0.179459</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178052</v>
+        <v>0.178262</v>
       </c>
       <c r="C65" t="n">
-        <v>0.19031</v>
+        <v>0.191438</v>
       </c>
       <c r="D65" t="n">
-        <v>0.182026</v>
+        <v>0.182318</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186649</v>
+        <v>0.185786</v>
       </c>
       <c r="C66" t="n">
-        <v>0.17971</v>
+        <v>0.191134</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187967</v>
+        <v>0.188898</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185001</v>
+        <v>0.201573</v>
       </c>
       <c r="C67" t="n">
-        <v>0.18232</v>
+        <v>0.192076</v>
       </c>
       <c r="D67" t="n">
-        <v>0.193665</v>
+        <v>0.194971</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177667</v>
+        <v>0.202202</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181155</v>
+        <v>0.190743</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19903</v>
+        <v>0.199859</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181727</v>
+        <v>0.194611</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181486</v>
+        <v>0.203045</v>
       </c>
       <c r="D69" t="n">
-        <v>0.205868</v>
+        <v>0.206241</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.17844</v>
+        <v>0.188618</v>
       </c>
       <c r="C70" t="n">
-        <v>0.181341</v>
+        <v>0.200378</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21061</v>
+        <v>0.21346</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181418</v>
+        <v>0.196147</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183021</v>
+        <v>0.192659</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21975</v>
+        <v>0.220816</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186026</v>
+        <v>0.201193</v>
       </c>
       <c r="C72" t="n">
-        <v>0.183736</v>
+        <v>0.192707</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224302</v>
+        <v>0.228195</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185952</v>
+        <v>0.192052</v>
       </c>
       <c r="C73" t="n">
-        <v>0.183498</v>
+        <v>0.191201</v>
       </c>
       <c r="D73" t="n">
-        <v>0.23212</v>
+        <v>0.236036</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181893</v>
+        <v>0.193456</v>
       </c>
       <c r="C74" t="n">
-        <v>0.185137</v>
+        <v>0.195641</v>
       </c>
       <c r="D74" t="n">
-        <v>0.240551</v>
+        <v>0.247042</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184326</v>
+        <v>0.192782</v>
       </c>
       <c r="C75" t="n">
-        <v>0.185995</v>
+        <v>0.198259</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253991</v>
+        <v>0.25714</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189541</v>
+        <v>0.202584</v>
       </c>
       <c r="C76" t="n">
-        <v>0.188743</v>
+        <v>0.197415</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261284</v>
+        <v>0.269257</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191994</v>
+        <v>0.193904</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192815</v>
+        <v>0.199558</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270675</v>
+        <v>0.281914</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.198609</v>
+        <v>0.194782</v>
       </c>
       <c r="C78" t="n">
-        <v>0.197191</v>
+        <v>0.203025</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228693</v>
+        <v>0.229801</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196414</v>
+        <v>0.202279</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201337</v>
+        <v>0.209703</v>
       </c>
       <c r="D79" t="n">
-        <v>0.234126</v>
+        <v>0.238273</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204007</v>
+        <v>0.205184</v>
       </c>
       <c r="C80" t="n">
-        <v>0.25833</v>
+        <v>0.271625</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245939</v>
+        <v>0.250387</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.341322</v>
+        <v>0.342374</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256106</v>
+        <v>0.273216</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258494</v>
+        <v>0.260498</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345278</v>
+        <v>0.339066</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257338</v>
+        <v>0.275828</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269233</v>
+        <v>0.271219</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34554</v>
+        <v>0.341979</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241863</v>
+        <v>0.276127</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285967</v>
+        <v>0.28603</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342881</v>
+        <v>0.342017</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25793</v>
+        <v>0.280277</v>
       </c>
       <c r="D84" t="n">
-        <v>0.300123</v>
+        <v>0.300082</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343649</v>
+        <v>0.346789</v>
       </c>
       <c r="C85" t="n">
-        <v>0.257482</v>
+        <v>0.278832</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314231</v>
+        <v>0.314279</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.343598</v>
+        <v>0.34072</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238155</v>
+        <v>0.276488</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330286</v>
+        <v>0.329082</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.344196</v>
+        <v>0.342627</v>
       </c>
       <c r="C87" t="n">
-        <v>0.255802</v>
+        <v>0.281099</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346861</v>
+        <v>0.34741</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.353516</v>
+        <v>0.344108</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243133</v>
+        <v>0.27956</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362119</v>
+        <v>0.365701</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350103</v>
+        <v>0.347299</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246296</v>
+        <v>0.279401</v>
       </c>
       <c r="D89" t="n">
-        <v>0.381287</v>
+        <v>0.383251</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.34342</v>
+        <v>0.346505</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241339</v>
+        <v>0.277232</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39374</v>
+        <v>0.394431</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.346586</v>
+        <v>0.352454</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246146</v>
+        <v>0.280154</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411268</v>
+        <v>0.411154</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353597</v>
+        <v>0.355227</v>
       </c>
       <c r="C92" t="n">
-        <v>0.247991</v>
+        <v>0.280673</v>
       </c>
       <c r="D92" t="n">
-        <v>0.360925</v>
+        <v>0.363538</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35831</v>
+        <v>0.356979</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24521</v>
+        <v>0.281048</v>
       </c>
       <c r="D93" t="n">
-        <v>0.370555</v>
+        <v>0.373094</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363714</v>
+        <v>0.360952</v>
       </c>
       <c r="C94" t="n">
-        <v>0.419166</v>
+        <v>0.460808</v>
       </c>
       <c r="D94" t="n">
-        <v>0.377875</v>
+        <v>0.387449</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5055539999999999</v>
+        <v>0.504467</v>
       </c>
       <c r="C95" t="n">
-        <v>0.415697</v>
+        <v>0.460735</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394862</v>
+        <v>0.391583</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.504735</v>
+        <v>0.504256</v>
       </c>
       <c r="C96" t="n">
-        <v>0.418807</v>
+        <v>0.460126</v>
       </c>
       <c r="D96" t="n">
-        <v>0.407849</v>
+        <v>0.408864</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.501252</v>
+        <v>0.504815</v>
       </c>
       <c r="C97" t="n">
-        <v>0.414835</v>
+        <v>0.458566</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424761</v>
+        <v>0.420271</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50588</v>
+        <v>0.504996</v>
       </c>
       <c r="C98" t="n">
-        <v>0.402545</v>
+        <v>0.456198</v>
       </c>
       <c r="D98" t="n">
-        <v>0.432594</v>
+        <v>0.433629</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.505636</v>
+        <v>0.504995</v>
       </c>
       <c r="C99" t="n">
-        <v>0.403005</v>
+        <v>0.456201</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449998</v>
+        <v>0.449417</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.507485</v>
+        <v>0.5012760000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.402488</v>
+        <v>0.454247</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466417</v>
+        <v>0.4672</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5074959999999999</v>
+        <v>0.50668</v>
       </c>
       <c r="C101" t="n">
-        <v>0.402563</v>
+        <v>0.447993</v>
       </c>
       <c r="D101" t="n">
-        <v>0.480398</v>
+        <v>0.48439</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508961</v>
+        <v>0.5076619999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.419062</v>
+        <v>0.451888</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495054</v>
+        <v>0.498458</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.505279</v>
+        <v>0.509181</v>
       </c>
       <c r="C103" t="n">
-        <v>0.417013</v>
+        <v>0.448401</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5155960000000001</v>
+        <v>0.514246</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.511894</v>
+        <v>0.511216</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419316</v>
+        <v>0.450808</v>
       </c>
       <c r="D104" t="n">
-        <v>0.530589</v>
+        <v>0.534637</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514551</v>
+        <v>0.513186</v>
       </c>
       <c r="C105" t="n">
-        <v>0.407646</v>
+        <v>0.446875</v>
       </c>
       <c r="D105" t="n">
-        <v>0.548818</v>
+        <v>0.552461</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.51758</v>
+        <v>0.51222</v>
       </c>
       <c r="C106" t="n">
-        <v>0.426139</v>
+        <v>0.457953</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566798</v>
+        <v>0.564684</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.522496</v>
+        <v>0.52221</v>
       </c>
       <c r="C107" t="n">
-        <v>0.428692</v>
+        <v>0.457501</v>
       </c>
       <c r="D107" t="n">
-        <v>0.535869</v>
+        <v>0.534738</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.530703</v>
+        <v>0.529417</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557175</v>
+        <v>0.57912</v>
       </c>
       <c r="D108" t="n">
-        <v>0.542326</v>
+        <v>0.545233</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.540307</v>
+        <v>0.5412400000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5524</v>
+        <v>0.578136</v>
       </c>
       <c r="D109" t="n">
-        <v>0.554744</v>
+        <v>0.556478</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585811</v>
+        <v>0.588226</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5554829999999999</v>
+        <v>0.578201</v>
       </c>
       <c r="D110" t="n">
-        <v>0.568895</v>
+        <v>0.567372</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.588353</v>
+        <v>0.589078</v>
       </c>
       <c r="C111" t="n">
-        <v>0.55808</v>
+        <v>0.577853</v>
       </c>
       <c r="D111" t="n">
-        <v>0.581694</v>
+        <v>0.579059</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.592062</v>
+        <v>0.575711</v>
       </c>
       <c r="C112" t="n">
-        <v>0.552952</v>
+        <v>0.564076</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596823</v>
+        <v>0.594975</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.589166</v>
+        <v>0.591506</v>
       </c>
       <c r="C113" t="n">
-        <v>0.555978</v>
+        <v>0.577329</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6134500000000001</v>
+        <v>0.613653</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.580788</v>
+        <v>0.591995</v>
       </c>
       <c r="C114" t="n">
-        <v>0.553915</v>
+        <v>0.575812</v>
       </c>
       <c r="D114" t="n">
-        <v>0.626199</v>
+        <v>0.62625</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590968</v>
+        <v>0.594228</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560427</v>
+        <v>0.574871</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.6452909999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5945589999999999</v>
+        <v>0.592373</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561048</v>
+        <v>0.573452</v>
       </c>
       <c r="D116" t="n">
-        <v>0.656081</v>
+        <v>0.659769</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.586614</v>
+        <v>0.600072</v>
       </c>
       <c r="C117" t="n">
-        <v>0.558708</v>
+        <v>0.579643</v>
       </c>
       <c r="D117" t="n">
-        <v>0.682053</v>
+        <v>0.68263</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.590516</v>
+        <v>0.5858989999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.555501</v>
+        <v>0.567796</v>
       </c>
       <c r="D118" t="n">
-        <v>0.695003</v>
+        <v>0.694527</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.606465</v>
+        <v>0.601234</v>
       </c>
       <c r="C119" t="n">
-        <v>0.570012</v>
+        <v>0.583321</v>
       </c>
       <c r="D119" t="n">
-        <v>0.706223</v>
+        <v>0.710614</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.609868</v>
+        <v>0.603888</v>
       </c>
       <c r="C120" t="n">
-        <v>0.566101</v>
+        <v>0.589638</v>
       </c>
       <c r="D120" t="n">
-        <v>0.724184</v>
+        <v>0.726447</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.604585</v>
+        <v>0.606729</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5782</v>
+        <v>0.593587</v>
       </c>
       <c r="D121" t="n">
-        <v>0.649259</v>
+        <v>0.632154</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.621934</v>
+        <v>0.613127</v>
       </c>
       <c r="C122" t="n">
-        <v>0.58085</v>
+        <v>0.598004</v>
       </c>
       <c r="D122" t="n">
-        <v>0.66145</v>
+        <v>0.6597190000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.634811</v>
+        <v>0.632096</v>
       </c>
       <c r="C123" t="n">
-        <v>0.72217</v>
+        <v>0.729118</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6724290000000001</v>
+        <v>0.671256</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.720058</v>
+        <v>0.735151</v>
       </c>
       <c r="C124" t="n">
-        <v>0.72089</v>
+        <v>0.7316009999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.688796</v>
+        <v>0.686283</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.73667</v>
+        <v>0.734006</v>
       </c>
       <c r="C125" t="n">
-        <v>0.722585</v>
+        <v>0.726668</v>
       </c>
       <c r="D125" t="n">
-        <v>0.699533</v>
+        <v>0.696922</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.739904</v>
+        <v>0.738507</v>
       </c>
       <c r="C126" t="n">
-        <v>0.71892</v>
+        <v>0.729174</v>
       </c>
       <c r="D126" t="n">
-        <v>0.696155</v>
+        <v>0.711415</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741804</v>
+        <v>0.741147</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7242420000000001</v>
+        <v>0.7112000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.712998</v>
+        <v>0.724152</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.741337</v>
+        <v>0.748565</v>
       </c>
       <c r="C128" t="n">
-        <v>0.72739</v>
+        <v>0.727773</v>
       </c>
       <c r="D128" t="n">
-        <v>0.740667</v>
+        <v>0.738721</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.745169</v>
+        <v>0.735743</v>
       </c>
       <c r="C129" t="n">
-        <v>0.724495</v>
+        <v>0.715875</v>
       </c>
       <c r="D129" t="n">
-        <v>0.755873</v>
+        <v>0.755583</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.743238</v>
+        <v>0.742548</v>
       </c>
       <c r="C130" t="n">
-        <v>0.727402</v>
+        <v>0.736236</v>
       </c>
       <c r="D130" t="n">
-        <v>0.769119</v>
+        <v>0.769589</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.74309</v>
+        <v>0.73899</v>
       </c>
       <c r="C131" t="n">
-        <v>0.726634</v>
+        <v>0.73198</v>
       </c>
       <c r="D131" t="n">
-        <v>0.783065</v>
+        <v>0.783902</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.744604</v>
+        <v>0.750502</v>
       </c>
       <c r="C132" t="n">
-        <v>0.731492</v>
+        <v>0.731569</v>
       </c>
       <c r="D132" t="n">
-        <v>0.800017</v>
+        <v>0.800586</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734054</v>
+        <v>0.755099</v>
       </c>
       <c r="C133" t="n">
-        <v>0.719749</v>
+        <v>0.750393</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807995</v>
+        <v>0.816033</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.750432</v>
+        <v>0.751074</v>
       </c>
       <c r="C134" t="n">
-        <v>0.724531</v>
+        <v>0.742222</v>
       </c>
       <c r="D134" t="n">
-        <v>0.835942</v>
+        <v>0.831867</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.758077</v>
+        <v>0.758892</v>
       </c>
       <c r="C135" t="n">
-        <v>0.744903</v>
+        <v>0.756947</v>
       </c>
       <c r="D135" t="n">
-        <v>0.706075</v>
+        <v>0.704438</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.770347</v>
+        <v>0.767226</v>
       </c>
       <c r="C136" t="n">
-        <v>0.750977</v>
+        <v>0.752809</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715133</v>
+        <v>0.714187</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.782647</v>
+        <v>0.780867</v>
       </c>
       <c r="C137" t="n">
-        <v>0.857504</v>
+        <v>0.861286</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714983</v>
+        <v>0.724356</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869077</v>
+        <v>0.868891</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8583190000000001</v>
+        <v>0.860922</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726282</v>
+        <v>0.731561</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.860209</v>
+        <v>0.869877</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8595739999999999</v>
+        <v>0.863771</v>
       </c>
       <c r="D139" t="n">
-        <v>0.748978</v>
+        <v>0.747877</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.870564</v>
+        <v>0.864587</v>
       </c>
       <c r="C140" t="n">
-        <v>0.849644</v>
+        <v>0.8637359999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.762371</v>
+        <v>0.760976</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.871347</v>
+        <v>0.867628</v>
       </c>
       <c r="C141" t="n">
-        <v>0.850584</v>
+        <v>0.863305</v>
       </c>
       <c r="D141" t="n">
-        <v>0.775923</v>
+        <v>0.764807</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865554</v>
+        <v>0.872218</v>
       </c>
       <c r="C142" t="n">
-        <v>0.853723</v>
+        <v>0.864775</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7891010000000001</v>
+        <v>0.7880779999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.87105</v>
+        <v>0.865928</v>
       </c>
       <c r="C143" t="n">
-        <v>0.848602</v>
+        <v>0.857782</v>
       </c>
       <c r="D143" t="n">
-        <v>0.803326</v>
+        <v>0.8040890000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.125546</v>
+        <v>0.111036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132567</v>
+        <v>0.124983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.144722</v>
+        <v>0.134358</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125158</v>
+        <v>0.110666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.132469</v>
+        <v>0.125132</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155586</v>
+        <v>0.14051</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123624</v>
+        <v>0.110947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.133551</v>
+        <v>0.125612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156138</v>
+        <v>0.146578</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12526</v>
+        <v>0.113108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.133933</v>
+        <v>0.126348</v>
       </c>
       <c r="D5" t="n">
-        <v>0.170173</v>
+        <v>0.154539</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124545</v>
+        <v>0.114156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.132503</v>
+        <v>0.126952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.175686</v>
+        <v>0.16083</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127989</v>
+        <v>0.114845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.135995</v>
+        <v>0.128336</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147444</v>
+        <v>0.132832</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.130325</v>
+        <v>0.117764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.138015</v>
+        <v>0.13079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151235</v>
+        <v>0.135538</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.133369</v>
+        <v>0.120989</v>
       </c>
       <c r="C9" t="n">
-        <v>0.137391</v>
+        <v>0.130596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.157609</v>
+        <v>0.140493</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.128046</v>
+        <v>0.121908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.136854</v>
+        <v>0.131068</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160261</v>
+        <v>0.144216</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127696</v>
+        <v>0.121301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.137496</v>
+        <v>0.130477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.165263</v>
+        <v>0.14937</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127792</v>
+        <v>0.122233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.137644</v>
+        <v>0.130886</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17008</v>
+        <v>0.154111</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128253</v>
+        <v>0.121735</v>
       </c>
       <c r="C13" t="n">
-        <v>0.137943</v>
+        <v>0.131321</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175119</v>
+        <v>0.157918</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128368</v>
+        <v>0.122843</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138198</v>
+        <v>0.131939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.180472</v>
+        <v>0.164711</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128442</v>
+        <v>0.122136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.138518</v>
+        <v>0.132473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.187018</v>
+        <v>0.170937</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128861</v>
+        <v>0.122314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.139137</v>
+        <v>0.132088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.192442</v>
+        <v>0.176538</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129289</v>
+        <v>0.122524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.139456</v>
+        <v>0.132376</v>
       </c>
       <c r="D17" t="n">
-        <v>0.192805</v>
+        <v>0.181889</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128964</v>
+        <v>0.124915</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138645</v>
+        <v>0.133117</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204191</v>
+        <v>0.18759</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130122</v>
+        <v>0.125728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139211</v>
+        <v>0.134126</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20646</v>
+        <v>0.193262</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.131386</v>
+        <v>0.126</v>
       </c>
       <c r="C20" t="n">
-        <v>0.140274</v>
+        <v>0.135163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209633</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.133119</v>
+        <v>0.128975</v>
       </c>
       <c r="C21" t="n">
-        <v>0.142748</v>
+        <v>0.137789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.154627</v>
+        <v>0.152707</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136099</v>
+        <v>0.132772</v>
       </c>
       <c r="C22" t="n">
-        <v>0.147601</v>
+        <v>0.14336</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158345</v>
+        <v>0.156304</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144266</v>
+        <v>0.140691</v>
       </c>
       <c r="C23" t="n">
-        <v>0.141294</v>
+        <v>0.140223</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16307</v>
+        <v>0.16156</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136166</v>
+        <v>0.133371</v>
       </c>
       <c r="C24" t="n">
-        <v>0.14218</v>
+        <v>0.142867</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168195</v>
+        <v>0.165936</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132384</v>
+        <v>0.133221</v>
       </c>
       <c r="C25" t="n">
-        <v>0.141662</v>
+        <v>0.141068</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179682</v>
+        <v>0.170245</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134919</v>
+        <v>0.133372</v>
       </c>
       <c r="C26" t="n">
-        <v>0.143136</v>
+        <v>0.141414</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177097</v>
+        <v>0.174915</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135061</v>
+        <v>0.133731</v>
       </c>
       <c r="C27" t="n">
-        <v>0.143605</v>
+        <v>0.141668</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182226</v>
+        <v>0.179587</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133489</v>
+        <v>0.135241</v>
       </c>
       <c r="C28" t="n">
-        <v>0.142449</v>
+        <v>0.142645</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187007</v>
+        <v>0.184534</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136206</v>
+        <v>0.134777</v>
       </c>
       <c r="C29" t="n">
-        <v>0.14292</v>
+        <v>0.142187</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192512</v>
+        <v>0.190459</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134916</v>
+        <v>0.135291</v>
       </c>
       <c r="C30" t="n">
-        <v>0.142524</v>
+        <v>0.142593</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197808</v>
+        <v>0.194908</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134951</v>
+        <v>0.135509</v>
       </c>
       <c r="C31" t="n">
-        <v>0.142646</v>
+        <v>0.143538</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201892</v>
+        <v>0.201095</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136375</v>
+        <v>0.137409</v>
       </c>
       <c r="C32" t="n">
-        <v>0.14361</v>
+        <v>0.143665</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207851</v>
+        <v>0.205467</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136074</v>
+        <v>0.136831</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144782</v>
+        <v>0.144466</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212427</v>
+        <v>0.209935</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137722</v>
+        <v>0.138685</v>
       </c>
       <c r="C34" t="n">
-        <v>0.146514</v>
+        <v>0.146452</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217775</v>
+        <v>0.215392</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14257</v>
+        <v>0.143488</v>
       </c>
       <c r="C35" t="n">
-        <v>0.152759</v>
+        <v>0.151003</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168692</v>
+        <v>0.168616</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146925</v>
+        <v>0.14646</v>
       </c>
       <c r="C36" t="n">
-        <v>0.160106</v>
+        <v>0.15835</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171979</v>
+        <v>0.172706</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154617</v>
+        <v>0.156576</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151621</v>
+        <v>0.154322</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176865</v>
+        <v>0.176144</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147914</v>
+        <v>0.145057</v>
       </c>
       <c r="C38" t="n">
-        <v>0.15694</v>
+        <v>0.154068</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181715</v>
+        <v>0.18061</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145299</v>
+        <v>0.146889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.15656</v>
+        <v>0.153919</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185649</v>
+        <v>0.185189</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147548</v>
+        <v>0.147019</v>
       </c>
       <c r="C40" t="n">
-        <v>0.157005</v>
+        <v>0.154432</v>
       </c>
       <c r="D40" t="n">
-        <v>0.190123</v>
+        <v>0.190016</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150072</v>
+        <v>0.146593</v>
       </c>
       <c r="C41" t="n">
-        <v>0.159005</v>
+        <v>0.154934</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194439</v>
+        <v>0.194138</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150301</v>
+        <v>0.146711</v>
       </c>
       <c r="C42" t="n">
-        <v>0.162481</v>
+        <v>0.155142</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197379</v>
+        <v>0.199432</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.151687</v>
+        <v>0.146077</v>
       </c>
       <c r="C43" t="n">
-        <v>0.161385</v>
+        <v>0.15506</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20181</v>
+        <v>0.203958</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149327</v>
+        <v>0.146306</v>
       </c>
       <c r="C44" t="n">
-        <v>0.162585</v>
+        <v>0.155996</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207638</v>
+        <v>0.209132</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152968</v>
+        <v>0.148575</v>
       </c>
       <c r="C45" t="n">
-        <v>0.159087</v>
+        <v>0.155431</v>
       </c>
       <c r="D45" t="n">
-        <v>0.213499</v>
+        <v>0.213888</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.15182</v>
+        <v>0.148892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.161305</v>
+        <v>0.158221</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219231</v>
+        <v>0.219115</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149474</v>
+        <v>0.149265</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158173</v>
+        <v>0.158744</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224521</v>
+        <v>0.224667</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153856</v>
+        <v>0.151439</v>
       </c>
       <c r="C48" t="n">
-        <v>0.165617</v>
+        <v>0.161815</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234842</v>
+        <v>0.229286</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159929</v>
+        <v>0.158045</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168017</v>
+        <v>0.164856</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233568</v>
+        <v>0.233836</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.164358</v>
+        <v>0.161783</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174003</v>
+        <v>0.170749</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.172311</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166178</v>
+        <v>0.164812</v>
       </c>
       <c r="C51" t="n">
-        <v>0.170471</v>
+        <v>0.168191</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175321</v>
+        <v>0.175771</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175701</v>
+        <v>0.17547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166152</v>
+        <v>0.168763</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179311</v>
+        <v>0.179329</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159358</v>
+        <v>0.159796</v>
       </c>
       <c r="C53" t="n">
-        <v>0.168219</v>
+        <v>0.168508</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183278</v>
+        <v>0.183433</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.157724</v>
+        <v>0.159336</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1696</v>
+        <v>0.168512</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187639</v>
+        <v>0.187823</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159151</v>
+        <v>0.159763</v>
       </c>
       <c r="C55" t="n">
-        <v>0.169072</v>
+        <v>0.169055</v>
       </c>
       <c r="D55" t="n">
-        <v>0.193002</v>
+        <v>0.192525</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160856</v>
+        <v>0.159133</v>
       </c>
       <c r="C56" t="n">
-        <v>0.169355</v>
+        <v>0.169085</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197456</v>
+        <v>0.197714</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160299</v>
+        <v>0.159972</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168976</v>
+        <v>0.169812</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202734</v>
+        <v>0.202612</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160923</v>
+        <v>0.160314</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169758</v>
+        <v>0.170665</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207832</v>
+        <v>0.208053</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161062</v>
+        <v>0.161838</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16976</v>
+        <v>0.170784</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212789</v>
+        <v>0.213268</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162915</v>
+        <v>0.162435</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172895</v>
+        <v>0.171398</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217867</v>
+        <v>0.218129</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166811</v>
+        <v>0.165084</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173747</v>
+        <v>0.173978</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223366</v>
+        <v>0.223177</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166703</v>
+        <v>0.166172</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178073</v>
+        <v>0.175853</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22826</v>
+        <v>0.22762</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171873</v>
+        <v>0.17065</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182356</v>
+        <v>0.180605</v>
       </c>
       <c r="D63" t="n">
-        <v>0.23423</v>
+        <v>0.232253</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172899</v>
+        <v>0.17336</v>
       </c>
       <c r="C64" t="n">
-        <v>0.183991</v>
+        <v>0.18306</v>
       </c>
       <c r="D64" t="n">
-        <v>0.178431</v>
+        <v>0.177873</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178052</v>
+        <v>0.177889</v>
       </c>
       <c r="C65" t="n">
-        <v>0.19031</v>
+        <v>0.19092</v>
       </c>
       <c r="D65" t="n">
-        <v>0.182026</v>
+        <v>0.181883</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186649</v>
+        <v>0.187488</v>
       </c>
       <c r="C66" t="n">
-        <v>0.17971</v>
+        <v>0.179235</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187967</v>
+        <v>0.187214</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185001</v>
+        <v>0.17854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.18232</v>
+        <v>0.180001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.193665</v>
+        <v>0.192105</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177667</v>
+        <v>0.177381</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181155</v>
+        <v>0.1802</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19903</v>
+        <v>0.197233</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181727</v>
+        <v>0.17962</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181486</v>
+        <v>0.180698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.205868</v>
+        <v>0.20294</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.17844</v>
+        <v>0.184266</v>
       </c>
       <c r="C70" t="n">
-        <v>0.181341</v>
+        <v>0.181231</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21061</v>
+        <v>0.209162</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181418</v>
+        <v>0.186709</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183021</v>
+        <v>0.182391</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21975</v>
+        <v>0.215855</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186026</v>
+        <v>0.182405</v>
       </c>
       <c r="C72" t="n">
-        <v>0.183736</v>
+        <v>0.183863</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224302</v>
+        <v>0.224924</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185952</v>
+        <v>0.183382</v>
       </c>
       <c r="C73" t="n">
-        <v>0.183498</v>
+        <v>0.183918</v>
       </c>
       <c r="D73" t="n">
-        <v>0.23212</v>
+        <v>0.233152</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181893</v>
+        <v>0.183106</v>
       </c>
       <c r="C74" t="n">
-        <v>0.185137</v>
+        <v>0.184681</v>
       </c>
       <c r="D74" t="n">
-        <v>0.240551</v>
+        <v>0.241872</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184326</v>
+        <v>0.185008</v>
       </c>
       <c r="C75" t="n">
-        <v>0.185995</v>
+        <v>0.186147</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253991</v>
+        <v>0.251617</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189541</v>
+        <v>0.18689</v>
       </c>
       <c r="C76" t="n">
-        <v>0.188743</v>
+        <v>0.188552</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261284</v>
+        <v>0.261276</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191994</v>
+        <v>0.1905</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192815</v>
+        <v>0.191641</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270675</v>
+        <v>0.271539</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.198609</v>
+        <v>0.194661</v>
       </c>
       <c r="C78" t="n">
-        <v>0.197191</v>
+        <v>0.195806</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228693</v>
+        <v>0.226816</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196414</v>
+        <v>0.19649</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201337</v>
+        <v>0.201587</v>
       </c>
       <c r="D79" t="n">
-        <v>0.234126</v>
+        <v>0.23353</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204007</v>
+        <v>0.205592</v>
       </c>
       <c r="C80" t="n">
-        <v>0.25833</v>
+        <v>0.259946</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245939</v>
+        <v>0.247117</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.341322</v>
+        <v>0.348172</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256106</v>
+        <v>0.25941</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258494</v>
+        <v>0.257211</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345278</v>
+        <v>0.346505</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257338</v>
+        <v>0.261803</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269233</v>
+        <v>0.269299</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34554</v>
+        <v>0.347391</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241863</v>
+        <v>0.260924</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285967</v>
+        <v>0.28671</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342881</v>
+        <v>0.352082</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25793</v>
+        <v>0.262235</v>
       </c>
       <c r="D84" t="n">
-        <v>0.300123</v>
+        <v>0.299207</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343649</v>
+        <v>0.350777</v>
       </c>
       <c r="C85" t="n">
-        <v>0.257482</v>
+        <v>0.261055</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314231</v>
+        <v>0.316262</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.343598</v>
+        <v>0.352818</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238155</v>
+        <v>0.258418</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330286</v>
+        <v>0.332172</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.344196</v>
+        <v>0.353271</v>
       </c>
       <c r="C87" t="n">
-        <v>0.255802</v>
+        <v>0.260196</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346861</v>
+        <v>0.35087</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.353516</v>
+        <v>0.356479</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243133</v>
+        <v>0.261035</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362119</v>
+        <v>0.37046</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350103</v>
+        <v>0.360268</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246296</v>
+        <v>0.26048</v>
       </c>
       <c r="D89" t="n">
-        <v>0.381287</v>
+        <v>0.385986</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.34342</v>
+        <v>0.358394</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241339</v>
+        <v>0.258601</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39374</v>
+        <v>0.398932</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.346586</v>
+        <v>0.361963</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246146</v>
+        <v>0.259012</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411268</v>
+        <v>0.416721</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353597</v>
+        <v>0.364599</v>
       </c>
       <c r="C92" t="n">
-        <v>0.247991</v>
+        <v>0.259934</v>
       </c>
       <c r="D92" t="n">
-        <v>0.360925</v>
+        <v>0.371134</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35831</v>
+        <v>0.367134</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24521</v>
+        <v>0.26255</v>
       </c>
       <c r="D93" t="n">
-        <v>0.370555</v>
+        <v>0.379715</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363714</v>
+        <v>0.372821</v>
       </c>
       <c r="C94" t="n">
-        <v>0.419166</v>
+        <v>0.430809</v>
       </c>
       <c r="D94" t="n">
-        <v>0.377875</v>
+        <v>0.395379</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5055539999999999</v>
+        <v>0.524387</v>
       </c>
       <c r="C95" t="n">
-        <v>0.415697</v>
+        <v>0.429378</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394862</v>
+        <v>0.402015</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.504735</v>
+        <v>0.524321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.418807</v>
+        <v>0.429584</v>
       </c>
       <c r="D96" t="n">
-        <v>0.407849</v>
+        <v>0.416827</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.501252</v>
+        <v>0.524945</v>
       </c>
       <c r="C97" t="n">
-        <v>0.414835</v>
+        <v>0.427925</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424761</v>
+        <v>0.426347</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50588</v>
+        <v>0.524739</v>
       </c>
       <c r="C98" t="n">
-        <v>0.402545</v>
+        <v>0.427761</v>
       </c>
       <c r="D98" t="n">
-        <v>0.432594</v>
+        <v>0.443706</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.505636</v>
+        <v>0.524853</v>
       </c>
       <c r="C99" t="n">
-        <v>0.403005</v>
+        <v>0.427651</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449998</v>
+        <v>0.457865</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.507485</v>
+        <v>0.525971</v>
       </c>
       <c r="C100" t="n">
-        <v>0.402488</v>
+        <v>0.427846</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466417</v>
+        <v>0.478175</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5074959999999999</v>
+        <v>0.526567</v>
       </c>
       <c r="C101" t="n">
-        <v>0.402563</v>
+        <v>0.428315</v>
       </c>
       <c r="D101" t="n">
-        <v>0.480398</v>
+        <v>0.489984</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508961</v>
+        <v>0.527595</v>
       </c>
       <c r="C102" t="n">
-        <v>0.419062</v>
+        <v>0.429024</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495054</v>
+        <v>0.505858</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.505279</v>
+        <v>0.528622</v>
       </c>
       <c r="C103" t="n">
-        <v>0.417013</v>
+        <v>0.428663</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5155960000000001</v>
+        <v>0.524631</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.511894</v>
+        <v>0.5306920000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419316</v>
+        <v>0.429342</v>
       </c>
       <c r="D104" t="n">
-        <v>0.530589</v>
+        <v>0.541793</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514551</v>
+        <v>0.533081</v>
       </c>
       <c r="C105" t="n">
-        <v>0.407646</v>
+        <v>0.432159</v>
       </c>
       <c r="D105" t="n">
-        <v>0.548818</v>
+        <v>0.560689</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.51758</v>
+        <v>0.536482</v>
       </c>
       <c r="C106" t="n">
-        <v>0.426139</v>
+        <v>0.434485</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566798</v>
+        <v>0.577257</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.522496</v>
+        <v>0.540916</v>
       </c>
       <c r="C107" t="n">
-        <v>0.428692</v>
+        <v>0.439412</v>
       </c>
       <c r="D107" t="n">
-        <v>0.535869</v>
+        <v>0.5479309999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.530703</v>
+        <v>0.548282</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557175</v>
+        <v>0.578894</v>
       </c>
       <c r="D108" t="n">
-        <v>0.542326</v>
+        <v>0.557797</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.540307</v>
+        <v>0.559073</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5524</v>
+        <v>0.578443</v>
       </c>
       <c r="D109" t="n">
-        <v>0.554744</v>
+        <v>0.570116</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585811</v>
+        <v>0.618615</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5554829999999999</v>
+        <v>0.579045</v>
       </c>
       <c r="D110" t="n">
-        <v>0.568895</v>
+        <v>0.584035</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.588353</v>
+        <v>0.6180369999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.55808</v>
+        <v>0.580009</v>
       </c>
       <c r="D111" t="n">
-        <v>0.581694</v>
+        <v>0.596342</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.592062</v>
+        <v>0.62042</v>
       </c>
       <c r="C112" t="n">
-        <v>0.552952</v>
+        <v>0.5824510000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596823</v>
+        <v>0.6098209999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.589166</v>
+        <v>0.620181</v>
       </c>
       <c r="C113" t="n">
-        <v>0.555978</v>
+        <v>0.583306</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6134500000000001</v>
+        <v>0.6289360000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.580788</v>
+        <v>0.622869</v>
       </c>
       <c r="C114" t="n">
-        <v>0.553915</v>
+        <v>0.585499</v>
       </c>
       <c r="D114" t="n">
-        <v>0.626199</v>
+        <v>0.641571</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590968</v>
+        <v>0.622265</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560427</v>
+        <v>0.581414</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.663046</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5945589999999999</v>
+        <v>0.625424</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561048</v>
+        <v>0.58671</v>
       </c>
       <c r="D116" t="n">
-        <v>0.656081</v>
+        <v>0.679297</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.586614</v>
+        <v>0.627822</v>
       </c>
       <c r="C117" t="n">
-        <v>0.558708</v>
+        <v>0.589224</v>
       </c>
       <c r="D117" t="n">
-        <v>0.682053</v>
+        <v>0.700001</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.590516</v>
+        <v>0.629564</v>
       </c>
       <c r="C118" t="n">
-        <v>0.555501</v>
+        <v>0.589534</v>
       </c>
       <c r="D118" t="n">
-        <v>0.695003</v>
+        <v>0.715117</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.606465</v>
+        <v>0.631657</v>
       </c>
       <c r="C119" t="n">
-        <v>0.570012</v>
+        <v>0.592774</v>
       </c>
       <c r="D119" t="n">
-        <v>0.706223</v>
+        <v>0.732927</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.609868</v>
+        <v>0.636135</v>
       </c>
       <c r="C120" t="n">
-        <v>0.566101</v>
+        <v>0.597437</v>
       </c>
       <c r="D120" t="n">
-        <v>0.724184</v>
+        <v>0.745905</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.604585</v>
+        <v>0.642147</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5782</v>
+        <v>0.601916</v>
       </c>
       <c r="D121" t="n">
-        <v>0.649259</v>
+        <v>0.674173</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.621934</v>
+        <v>0.652658</v>
       </c>
       <c r="C122" t="n">
-        <v>0.58085</v>
+        <v>0.609962</v>
       </c>
       <c r="D122" t="n">
-        <v>0.66145</v>
+        <v>0.685524</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.634811</v>
+        <v>0.665068</v>
       </c>
       <c r="C123" t="n">
-        <v>0.72217</v>
+        <v>0.7502490000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6724290000000001</v>
+        <v>0.696313</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.720058</v>
+        <v>0.771209</v>
       </c>
       <c r="C124" t="n">
-        <v>0.72089</v>
+        <v>0.753579</v>
       </c>
       <c r="D124" t="n">
-        <v>0.688796</v>
+        <v>0.713452</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.73667</v>
+        <v>0.772339</v>
       </c>
       <c r="C125" t="n">
-        <v>0.722585</v>
+        <v>0.754864</v>
       </c>
       <c r="D125" t="n">
-        <v>0.699533</v>
+        <v>0.723157</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.739904</v>
+        <v>0.77028</v>
       </c>
       <c r="C126" t="n">
-        <v>0.71892</v>
+        <v>0.75378</v>
       </c>
       <c r="D126" t="n">
-        <v>0.696155</v>
+        <v>0.737594</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741804</v>
+        <v>0.774926</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7242420000000001</v>
+        <v>0.757273</v>
       </c>
       <c r="D127" t="n">
-        <v>0.712998</v>
+        <v>0.748776</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.741337</v>
+        <v>0.772883</v>
       </c>
       <c r="C128" t="n">
-        <v>0.72739</v>
+        <v>0.757622</v>
       </c>
       <c r="D128" t="n">
-        <v>0.740667</v>
+        <v>0.7652</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.745169</v>
+        <v>0.776442</v>
       </c>
       <c r="C129" t="n">
-        <v>0.724495</v>
+        <v>0.759499</v>
       </c>
       <c r="D129" t="n">
-        <v>0.755873</v>
+        <v>0.782492</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.743238</v>
+        <v>0.779105</v>
       </c>
       <c r="C130" t="n">
-        <v>0.727402</v>
+        <v>0.759819</v>
       </c>
       <c r="D130" t="n">
-        <v>0.769119</v>
+        <v>0.7921</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.74309</v>
+        <v>0.780554</v>
       </c>
       <c r="C131" t="n">
-        <v>0.726634</v>
+        <v>0.761887</v>
       </c>
       <c r="D131" t="n">
-        <v>0.783065</v>
+        <v>0.806166</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.744604</v>
+        <v>0.7835029999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.731492</v>
+        <v>0.764992</v>
       </c>
       <c r="D132" t="n">
-        <v>0.800017</v>
+        <v>0.824244</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734054</v>
+        <v>0.786042</v>
       </c>
       <c r="C133" t="n">
-        <v>0.719749</v>
+        <v>0.766692</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807995</v>
+        <v>0.841581</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.750432</v>
+        <v>0.792763</v>
       </c>
       <c r="C134" t="n">
-        <v>0.724531</v>
+        <v>0.770906</v>
       </c>
       <c r="D134" t="n">
-        <v>0.835942</v>
+        <v>0.862971</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.758077</v>
+        <v>0.797439</v>
       </c>
       <c r="C135" t="n">
-        <v>0.744903</v>
+        <v>0.776623</v>
       </c>
       <c r="D135" t="n">
-        <v>0.706075</v>
+        <v>0.73417</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.770347</v>
+        <v>0.806706</v>
       </c>
       <c r="C136" t="n">
-        <v>0.750977</v>
+        <v>0.783048</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715133</v>
+        <v>0.744501</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.782647</v>
+        <v>0.817619</v>
       </c>
       <c r="C137" t="n">
-        <v>0.857504</v>
+        <v>0.894335</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714983</v>
+        <v>0.754865</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869077</v>
+        <v>0.9095220000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8583190000000001</v>
+        <v>0.893022</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726282</v>
+        <v>0.764823</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.860209</v>
+        <v>0.911272</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8595739999999999</v>
+        <v>0.893965</v>
       </c>
       <c r="D139" t="n">
-        <v>0.748978</v>
+        <v>0.776275</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.870564</v>
+        <v>0.910629</v>
       </c>
       <c r="C140" t="n">
-        <v>0.849644</v>
+        <v>0.894802</v>
       </c>
       <c r="D140" t="n">
-        <v>0.762371</v>
+        <v>0.790181</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.871347</v>
+        <v>0.911295</v>
       </c>
       <c r="C141" t="n">
-        <v>0.850584</v>
+        <v>0.8958429999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.775923</v>
+        <v>0.804405</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865554</v>
+        <v>0.912808</v>
       </c>
       <c r="C142" t="n">
-        <v>0.853723</v>
+        <v>0.896663</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7891010000000001</v>
+        <v>0.816455</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.87105</v>
+        <v>0.912783</v>
       </c>
       <c r="C143" t="n">
-        <v>0.848602</v>
+        <v>0.8961</v>
       </c>
       <c r="D143" t="n">
-        <v>0.803326</v>
+        <v>0.828118</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.125546</v>
+        <v>0.110933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132567</v>
+        <v>0.120003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.144722</v>
+        <v>0.13488</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125158</v>
+        <v>0.111588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.132469</v>
+        <v>0.120294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155586</v>
+        <v>0.139534</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123624</v>
+        <v>0.110941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.133551</v>
+        <v>0.120465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156138</v>
+        <v>0.145199</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12526</v>
+        <v>0.111516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.133933</v>
+        <v>0.121068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.170173</v>
+        <v>0.15308</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124545</v>
+        <v>0.112809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.132503</v>
+        <v>0.121639</v>
       </c>
       <c r="D6" t="n">
-        <v>0.175686</v>
+        <v>0.159565</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127989</v>
+        <v>0.114157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.135995</v>
+        <v>0.122762</v>
       </c>
       <c r="D7" t="n">
-        <v>0.147444</v>
+        <v>0.132918</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.130325</v>
+        <v>0.116255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.138015</v>
+        <v>0.125068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151235</v>
+        <v>0.13553</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.133369</v>
+        <v>0.119597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.137391</v>
+        <v>0.126592</v>
       </c>
       <c r="D9" t="n">
-        <v>0.157609</v>
+        <v>0.139252</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.128046</v>
+        <v>0.122565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.136854</v>
+        <v>0.127164</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160261</v>
+        <v>0.144074</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127696</v>
+        <v>0.121651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.137496</v>
+        <v>0.12664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.165263</v>
+        <v>0.147779</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127792</v>
+        <v>0.122065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.137644</v>
+        <v>0.127308</v>
       </c>
       <c r="D12" t="n">
-        <v>0.17008</v>
+        <v>0.153178</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128253</v>
+        <v>0.122097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.137943</v>
+        <v>0.127293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175119</v>
+        <v>0.158176</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128368</v>
+        <v>0.122219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.138198</v>
+        <v>0.127425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.180472</v>
+        <v>0.163417</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128442</v>
+        <v>0.122465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.138518</v>
+        <v>0.127283</v>
       </c>
       <c r="D15" t="n">
-        <v>0.187018</v>
+        <v>0.169448</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128861</v>
+        <v>0.122242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.139137</v>
+        <v>0.127252</v>
       </c>
       <c r="D16" t="n">
-        <v>0.192442</v>
+        <v>0.175786</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129289</v>
+        <v>0.123039</v>
       </c>
       <c r="C17" t="n">
-        <v>0.139456</v>
+        <v>0.127617</v>
       </c>
       <c r="D17" t="n">
-        <v>0.192805</v>
+        <v>0.18155</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128964</v>
+        <v>0.123779</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138645</v>
+        <v>0.128041</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204191</v>
+        <v>0.186803</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130122</v>
+        <v>0.124976</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139211</v>
+        <v>0.128856</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20646</v>
+        <v>0.191279</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.131386</v>
+        <v>0.125732</v>
       </c>
       <c r="C20" t="n">
-        <v>0.140274</v>
+        <v>0.13028</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209633</v>
+        <v>0.197412</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.133119</v>
+        <v>0.127604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.142748</v>
+        <v>0.131598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.154627</v>
+        <v>0.153083</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136099</v>
+        <v>0.131904</v>
       </c>
       <c r="C22" t="n">
-        <v>0.147601</v>
+        <v>0.135354</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158345</v>
+        <v>0.157604</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144266</v>
+        <v>0.139205</v>
       </c>
       <c r="C23" t="n">
-        <v>0.141294</v>
+        <v>0.135938</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16307</v>
+        <v>0.161242</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136166</v>
+        <v>0.133535</v>
       </c>
       <c r="C24" t="n">
-        <v>0.14218</v>
+        <v>0.136519</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168195</v>
+        <v>0.166252</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132384</v>
+        <v>0.133277</v>
       </c>
       <c r="C25" t="n">
-        <v>0.141662</v>
+        <v>0.13645</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179682</v>
+        <v>0.170986</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134919</v>
+        <v>0.133962</v>
       </c>
       <c r="C26" t="n">
-        <v>0.143136</v>
+        <v>0.136471</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177097</v>
+        <v>0.175894</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135061</v>
+        <v>0.134373</v>
       </c>
       <c r="C27" t="n">
-        <v>0.143605</v>
+        <v>0.13685</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182226</v>
+        <v>0.18129</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133489</v>
+        <v>0.134222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.142449</v>
+        <v>0.136813</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187007</v>
+        <v>0.186399</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136206</v>
+        <v>0.134437</v>
       </c>
       <c r="C29" t="n">
-        <v>0.14292</v>
+        <v>0.137131</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192512</v>
+        <v>0.191095</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134916</v>
+        <v>0.135522</v>
       </c>
       <c r="C30" t="n">
-        <v>0.142524</v>
+        <v>0.13752</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197808</v>
+        <v>0.196046</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134951</v>
+        <v>0.136135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.142646</v>
+        <v>0.137649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201892</v>
+        <v>0.201592</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136375</v>
+        <v>0.135483</v>
       </c>
       <c r="C32" t="n">
-        <v>0.14361</v>
+        <v>0.137886</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207851</v>
+        <v>0.207381</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136074</v>
+        <v>0.136293</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144782</v>
+        <v>0.139263</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212427</v>
+        <v>0.212306</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137722</v>
+        <v>0.138733</v>
       </c>
       <c r="C34" t="n">
-        <v>0.146514</v>
+        <v>0.141438</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217775</v>
+        <v>0.216143</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14257</v>
+        <v>0.142538</v>
       </c>
       <c r="C35" t="n">
-        <v>0.152759</v>
+        <v>0.14612</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168692</v>
+        <v>0.169014</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146925</v>
+        <v>0.146924</v>
       </c>
       <c r="C36" t="n">
-        <v>0.160106</v>
+        <v>0.153087</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171979</v>
+        <v>0.17355</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154617</v>
+        <v>0.155063</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151621</v>
+        <v>0.149649</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176865</v>
+        <v>0.177203</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147914</v>
+        <v>0.147172</v>
       </c>
       <c r="C38" t="n">
-        <v>0.15694</v>
+        <v>0.151287</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181715</v>
+        <v>0.181589</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145299</v>
+        <v>0.14609</v>
       </c>
       <c r="C39" t="n">
-        <v>0.15656</v>
+        <v>0.150742</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185649</v>
+        <v>0.186369</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147548</v>
+        <v>0.146052</v>
       </c>
       <c r="C40" t="n">
-        <v>0.157005</v>
+        <v>0.150115</v>
       </c>
       <c r="D40" t="n">
-        <v>0.190123</v>
+        <v>0.190838</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150072</v>
+        <v>0.144857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.159005</v>
+        <v>0.149982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194439</v>
+        <v>0.195324</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150301</v>
+        <v>0.146466</v>
       </c>
       <c r="C42" t="n">
-        <v>0.162481</v>
+        <v>0.150249</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197379</v>
+        <v>0.198696</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.151687</v>
+        <v>0.146792</v>
       </c>
       <c r="C43" t="n">
-        <v>0.161385</v>
+        <v>0.1502</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20181</v>
+        <v>0.203052</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149327</v>
+        <v>0.148018</v>
       </c>
       <c r="C44" t="n">
-        <v>0.162585</v>
+        <v>0.151109</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207638</v>
+        <v>0.209423</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152968</v>
+        <v>0.147744</v>
       </c>
       <c r="C45" t="n">
-        <v>0.159087</v>
+        <v>0.152205</v>
       </c>
       <c r="D45" t="n">
-        <v>0.213499</v>
+        <v>0.214521</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.15182</v>
+        <v>0.149411</v>
       </c>
       <c r="C46" t="n">
-        <v>0.161305</v>
+        <v>0.151409</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219231</v>
+        <v>0.219987</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149474</v>
+        <v>0.150044</v>
       </c>
       <c r="C47" t="n">
-        <v>0.158173</v>
+        <v>0.154762</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224521</v>
+        <v>0.224688</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153856</v>
+        <v>0.15231</v>
       </c>
       <c r="C48" t="n">
-        <v>0.165617</v>
+        <v>0.156751</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234842</v>
+        <v>0.229016</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159929</v>
+        <v>0.155634</v>
       </c>
       <c r="C49" t="n">
-        <v>0.168017</v>
+        <v>0.160887</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233568</v>
+        <v>0.234445</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.164358</v>
+        <v>0.16059</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174003</v>
+        <v>0.166315</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.171957</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166178</v>
+        <v>0.166614</v>
       </c>
       <c r="C51" t="n">
-        <v>0.170471</v>
+        <v>0.161802</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175321</v>
+        <v>0.175341</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175701</v>
+        <v>0.175524</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166152</v>
+        <v>0.163366</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179311</v>
+        <v>0.179227</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159358</v>
+        <v>0.160355</v>
       </c>
       <c r="C53" t="n">
-        <v>0.168219</v>
+        <v>0.164482</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183278</v>
+        <v>0.18329</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.157724</v>
+        <v>0.160086</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1696</v>
+        <v>0.164593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187639</v>
+        <v>0.187739</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159151</v>
+        <v>0.159808</v>
       </c>
       <c r="C55" t="n">
-        <v>0.169072</v>
+        <v>0.164786</v>
       </c>
       <c r="D55" t="n">
-        <v>0.193002</v>
+        <v>0.192454</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160856</v>
+        <v>0.160724</v>
       </c>
       <c r="C56" t="n">
-        <v>0.169355</v>
+        <v>0.164737</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197456</v>
+        <v>0.197444</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160299</v>
+        <v>0.160251</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168976</v>
+        <v>0.165164</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202734</v>
+        <v>0.20276</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160923</v>
+        <v>0.160163</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169758</v>
+        <v>0.165478</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207832</v>
+        <v>0.207722</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161062</v>
+        <v>0.162016</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16976</v>
+        <v>0.166384</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212789</v>
+        <v>0.212961</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162915</v>
+        <v>0.16176</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172895</v>
+        <v>0.167676</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217867</v>
+        <v>0.218076</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166811</v>
+        <v>0.163908</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173747</v>
+        <v>0.169556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223366</v>
+        <v>0.223029</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166703</v>
+        <v>0.166636</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178073</v>
+        <v>0.172325</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22826</v>
+        <v>0.228027</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171873</v>
+        <v>0.171057</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182356</v>
+        <v>0.175252</v>
       </c>
       <c r="D63" t="n">
-        <v>0.23423</v>
+        <v>0.232404</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172899</v>
+        <v>0.172663</v>
       </c>
       <c r="C64" t="n">
-        <v>0.183991</v>
+        <v>0.179557</v>
       </c>
       <c r="D64" t="n">
-        <v>0.178431</v>
+        <v>0.177874</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178052</v>
+        <v>0.17821</v>
       </c>
       <c r="C65" t="n">
-        <v>0.19031</v>
+        <v>0.185411</v>
       </c>
       <c r="D65" t="n">
-        <v>0.182026</v>
+        <v>0.182184</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186649</v>
+        <v>0.187262</v>
       </c>
       <c r="C66" t="n">
-        <v>0.17971</v>
+        <v>0.176881</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187967</v>
+        <v>0.187462</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185001</v>
+        <v>0.180314</v>
       </c>
       <c r="C67" t="n">
-        <v>0.18232</v>
+        <v>0.179067</v>
       </c>
       <c r="D67" t="n">
-        <v>0.193665</v>
+        <v>0.192797</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177667</v>
+        <v>0.183992</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181155</v>
+        <v>0.17721</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19903</v>
+        <v>0.197965</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181727</v>
+        <v>0.180335</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181486</v>
+        <v>0.177837</v>
       </c>
       <c r="D69" t="n">
-        <v>0.205868</v>
+        <v>0.204133</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.17844</v>
+        <v>0.182992</v>
       </c>
       <c r="C70" t="n">
-        <v>0.181341</v>
+        <v>0.177328</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21061</v>
+        <v>0.211923</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181418</v>
+        <v>0.180298</v>
       </c>
       <c r="C71" t="n">
-        <v>0.183021</v>
+        <v>0.177304</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21975</v>
+        <v>0.218935</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186026</v>
+        <v>0.180634</v>
       </c>
       <c r="C72" t="n">
-        <v>0.183736</v>
+        <v>0.179402</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224302</v>
+        <v>0.227106</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185952</v>
+        <v>0.181157</v>
       </c>
       <c r="C73" t="n">
-        <v>0.183498</v>
+        <v>0.179135</v>
       </c>
       <c r="D73" t="n">
-        <v>0.23212</v>
+        <v>0.233485</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181893</v>
+        <v>0.181927</v>
       </c>
       <c r="C74" t="n">
-        <v>0.185137</v>
+        <v>0.180409</v>
       </c>
       <c r="D74" t="n">
-        <v>0.240551</v>
+        <v>0.242132</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184326</v>
+        <v>0.183116</v>
       </c>
       <c r="C75" t="n">
-        <v>0.185995</v>
+        <v>0.181497</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253991</v>
+        <v>0.251891</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189541</v>
+        <v>0.187458</v>
       </c>
       <c r="C76" t="n">
-        <v>0.188743</v>
+        <v>0.183633</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261284</v>
+        <v>0.26141</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191994</v>
+        <v>0.190375</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192815</v>
+        <v>0.18658</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270675</v>
+        <v>0.271787</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.198609</v>
+        <v>0.192912</v>
       </c>
       <c r="C78" t="n">
-        <v>0.197191</v>
+        <v>0.190175</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228693</v>
+        <v>0.224683</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196414</v>
+        <v>0.199388</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201337</v>
+        <v>0.195615</v>
       </c>
       <c r="D79" t="n">
-        <v>0.234126</v>
+        <v>0.233089</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204007</v>
+        <v>0.206656</v>
       </c>
       <c r="C80" t="n">
-        <v>0.25833</v>
+        <v>0.256663</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245939</v>
+        <v>0.247089</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.341322</v>
+        <v>0.342606</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256106</v>
+        <v>0.25458</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258494</v>
+        <v>0.258596</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345278</v>
+        <v>0.342126</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257338</v>
+        <v>0.25394</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269233</v>
+        <v>0.268899</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34554</v>
+        <v>0.342505</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241863</v>
+        <v>0.252656</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285967</v>
+        <v>0.283264</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342881</v>
+        <v>0.343541</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25793</v>
+        <v>0.253962</v>
       </c>
       <c r="D84" t="n">
-        <v>0.300123</v>
+        <v>0.296975</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343649</v>
+        <v>0.343005</v>
       </c>
       <c r="C85" t="n">
-        <v>0.257482</v>
+        <v>0.252013</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314231</v>
+        <v>0.312745</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.343598</v>
+        <v>0.344621</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238155</v>
+        <v>0.252741</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330286</v>
+        <v>0.327249</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.344196</v>
+        <v>0.343953</v>
       </c>
       <c r="C87" t="n">
-        <v>0.255802</v>
+        <v>0.252166</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346861</v>
+        <v>0.344905</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.353516</v>
+        <v>0.348569</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243133</v>
+        <v>0.252674</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362119</v>
+        <v>0.362677</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350103</v>
+        <v>0.348383</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246296</v>
+        <v>0.25074</v>
       </c>
       <c r="D89" t="n">
-        <v>0.381287</v>
+        <v>0.379062</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.34342</v>
+        <v>0.351364</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241339</v>
+        <v>0.251866</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39374</v>
+        <v>0.39145</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.346586</v>
+        <v>0.350608</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246146</v>
+        <v>0.252158</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411268</v>
+        <v>0.408536</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353597</v>
+        <v>0.355929</v>
       </c>
       <c r="C92" t="n">
-        <v>0.247991</v>
+        <v>0.253721</v>
       </c>
       <c r="D92" t="n">
-        <v>0.360925</v>
+        <v>0.360278</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35831</v>
+        <v>0.360781</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24521</v>
+        <v>0.255534</v>
       </c>
       <c r="D93" t="n">
-        <v>0.370555</v>
+        <v>0.368929</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363714</v>
+        <v>0.364252</v>
       </c>
       <c r="C94" t="n">
-        <v>0.419166</v>
+        <v>0.410286</v>
       </c>
       <c r="D94" t="n">
-        <v>0.377875</v>
+        <v>0.384869</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5055539999999999</v>
+        <v>0.497844</v>
       </c>
       <c r="C95" t="n">
-        <v>0.415697</v>
+        <v>0.410136</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394862</v>
+        <v>0.392123</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.504735</v>
+        <v>0.498028</v>
       </c>
       <c r="C96" t="n">
-        <v>0.418807</v>
+        <v>0.409437</v>
       </c>
       <c r="D96" t="n">
-        <v>0.407849</v>
+        <v>0.403172</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.501252</v>
+        <v>0.498095</v>
       </c>
       <c r="C97" t="n">
-        <v>0.414835</v>
+        <v>0.408674</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424761</v>
+        <v>0.417597</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50588</v>
+        <v>0.498938</v>
       </c>
       <c r="C98" t="n">
-        <v>0.402545</v>
+        <v>0.408983</v>
       </c>
       <c r="D98" t="n">
-        <v>0.432594</v>
+        <v>0.430771</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.505636</v>
+        <v>0.498775</v>
       </c>
       <c r="C99" t="n">
-        <v>0.403005</v>
+        <v>0.408411</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449998</v>
+        <v>0.445922</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.507485</v>
+        <v>0.500658</v>
       </c>
       <c r="C100" t="n">
-        <v>0.402488</v>
+        <v>0.409655</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466417</v>
+        <v>0.464721</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5074959999999999</v>
+        <v>0.502185</v>
       </c>
       <c r="C101" t="n">
-        <v>0.402563</v>
+        <v>0.410107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.480398</v>
+        <v>0.47777</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508961</v>
+        <v>0.502918</v>
       </c>
       <c r="C102" t="n">
-        <v>0.419062</v>
+        <v>0.4079</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495054</v>
+        <v>0.492637</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.505279</v>
+        <v>0.504251</v>
       </c>
       <c r="C103" t="n">
-        <v>0.417013</v>
+        <v>0.410446</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5155960000000001</v>
+        <v>0.508713</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.511894</v>
+        <v>0.50582</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419316</v>
+        <v>0.413694</v>
       </c>
       <c r="D104" t="n">
-        <v>0.530589</v>
+        <v>0.524842</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514551</v>
+        <v>0.507901</v>
       </c>
       <c r="C105" t="n">
-        <v>0.407646</v>
+        <v>0.415415</v>
       </c>
       <c r="D105" t="n">
-        <v>0.548818</v>
+        <v>0.542561</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.51758</v>
+        <v>0.512531</v>
       </c>
       <c r="C106" t="n">
-        <v>0.426139</v>
+        <v>0.41679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566798</v>
+        <v>0.559758</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.522496</v>
+        <v>0.51751</v>
       </c>
       <c r="C107" t="n">
-        <v>0.428692</v>
+        <v>0.421283</v>
       </c>
       <c r="D107" t="n">
-        <v>0.535869</v>
+        <v>0.528413</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.530703</v>
+        <v>0.525187</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557175</v>
+        <v>0.546006</v>
       </c>
       <c r="D108" t="n">
-        <v>0.542326</v>
+        <v>0.537879</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.540307</v>
+        <v>0.53569</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5524</v>
+        <v>0.547032</v>
       </c>
       <c r="D109" t="n">
-        <v>0.554744</v>
+        <v>0.549549</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585811</v>
+        <v>0.5823</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5554829999999999</v>
+        <v>0.547923</v>
       </c>
       <c r="D110" t="n">
-        <v>0.568895</v>
+        <v>0.561196</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.588353</v>
+        <v>0.582105</v>
       </c>
       <c r="C111" t="n">
-        <v>0.55808</v>
+        <v>0.548424</v>
       </c>
       <c r="D111" t="n">
-        <v>0.581694</v>
+        <v>0.574211</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.592062</v>
+        <v>0.583965</v>
       </c>
       <c r="C112" t="n">
-        <v>0.552952</v>
+        <v>0.549257</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596823</v>
+        <v>0.588244</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.589166</v>
+        <v>0.583195</v>
       </c>
       <c r="C113" t="n">
-        <v>0.555978</v>
+        <v>0.547908</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6134500000000001</v>
+        <v>0.605221</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.580788</v>
+        <v>0.584655</v>
       </c>
       <c r="C114" t="n">
-        <v>0.553915</v>
+        <v>0.551638</v>
       </c>
       <c r="D114" t="n">
-        <v>0.626199</v>
+        <v>0.617552</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590968</v>
+        <v>0.587244</v>
       </c>
       <c r="C115" t="n">
-        <v>0.560427</v>
+        <v>0.551133</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.636385</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5945589999999999</v>
+        <v>0.586382</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561048</v>
+        <v>0.551527</v>
       </c>
       <c r="D116" t="n">
-        <v>0.656081</v>
+        <v>0.652989</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.586614</v>
+        <v>0.588776</v>
       </c>
       <c r="C117" t="n">
-        <v>0.558708</v>
+        <v>0.554895</v>
       </c>
       <c r="D117" t="n">
-        <v>0.682053</v>
+        <v>0.669977</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.590516</v>
+        <v>0.592464</v>
       </c>
       <c r="C118" t="n">
-        <v>0.555501</v>
+        <v>0.55721</v>
       </c>
       <c r="D118" t="n">
-        <v>0.695003</v>
+        <v>0.683709</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.606465</v>
+        <v>0.595954</v>
       </c>
       <c r="C119" t="n">
-        <v>0.570012</v>
+        <v>0.557813</v>
       </c>
       <c r="D119" t="n">
-        <v>0.706223</v>
+        <v>0.703644</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.609868</v>
+        <v>0.597849</v>
       </c>
       <c r="C120" t="n">
-        <v>0.566101</v>
+        <v>0.562876</v>
       </c>
       <c r="D120" t="n">
-        <v>0.724184</v>
+        <v>0.715571</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.604585</v>
+        <v>0.605781</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5782</v>
+        <v>0.568199</v>
       </c>
       <c r="D121" t="n">
-        <v>0.649259</v>
+        <v>0.637729</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.621934</v>
+        <v>0.6142</v>
       </c>
       <c r="C122" t="n">
-        <v>0.58085</v>
+        <v>0.576327</v>
       </c>
       <c r="D122" t="n">
-        <v>0.66145</v>
+        <v>0.648983</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.634811</v>
+        <v>0.62565</v>
       </c>
       <c r="C123" t="n">
-        <v>0.72217</v>
+        <v>0.706083</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6724290000000001</v>
+        <v>0.66008</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.720058</v>
+        <v>0.725426</v>
       </c>
       <c r="C124" t="n">
-        <v>0.72089</v>
+        <v>0.708111</v>
       </c>
       <c r="D124" t="n">
-        <v>0.688796</v>
+        <v>0.675746</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.73667</v>
+        <v>0.72546</v>
       </c>
       <c r="C125" t="n">
-        <v>0.722585</v>
+        <v>0.709565</v>
       </c>
       <c r="D125" t="n">
-        <v>0.699533</v>
+        <v>0.687107</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.739904</v>
+        <v>0.727216</v>
       </c>
       <c r="C126" t="n">
-        <v>0.71892</v>
+        <v>0.710909</v>
       </c>
       <c r="D126" t="n">
-        <v>0.696155</v>
+        <v>0.700167</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741804</v>
+        <v>0.729614</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7242420000000001</v>
+        <v>0.710768</v>
       </c>
       <c r="D127" t="n">
-        <v>0.712998</v>
+        <v>0.714346</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.741337</v>
+        <v>0.7288</v>
       </c>
       <c r="C128" t="n">
-        <v>0.72739</v>
+        <v>0.710942</v>
       </c>
       <c r="D128" t="n">
-        <v>0.740667</v>
+        <v>0.728106</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.745169</v>
+        <v>0.728974</v>
       </c>
       <c r="C129" t="n">
-        <v>0.724495</v>
+        <v>0.712498</v>
       </c>
       <c r="D129" t="n">
-        <v>0.755873</v>
+        <v>0.744625</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.743238</v>
+        <v>0.730614</v>
       </c>
       <c r="C130" t="n">
-        <v>0.727402</v>
+        <v>0.715155</v>
       </c>
       <c r="D130" t="n">
-        <v>0.769119</v>
+        <v>0.755284</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.74309</v>
+        <v>0.734256</v>
       </c>
       <c r="C131" t="n">
-        <v>0.726634</v>
+        <v>0.715954</v>
       </c>
       <c r="D131" t="n">
-        <v>0.783065</v>
+        <v>0.769161</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.744604</v>
+        <v>0.73607</v>
       </c>
       <c r="C132" t="n">
-        <v>0.731492</v>
+        <v>0.7193659999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.800017</v>
+        <v>0.785791</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734054</v>
+        <v>0.740202</v>
       </c>
       <c r="C133" t="n">
-        <v>0.719749</v>
+        <v>0.721333</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807995</v>
+        <v>0.803804</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.750432</v>
+        <v>0.74794</v>
       </c>
       <c r="C134" t="n">
-        <v>0.724531</v>
+        <v>0.725474</v>
       </c>
       <c r="D134" t="n">
-        <v>0.835942</v>
+        <v>0.8237370000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.758077</v>
+        <v>0.755194</v>
       </c>
       <c r="C135" t="n">
-        <v>0.744903</v>
+        <v>0.732676</v>
       </c>
       <c r="D135" t="n">
-        <v>0.706075</v>
+        <v>0.69308</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.770347</v>
+        <v>0.759853</v>
       </c>
       <c r="C136" t="n">
-        <v>0.750977</v>
+        <v>0.738043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715133</v>
+        <v>0.703221</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.782647</v>
+        <v>0.771922</v>
       </c>
       <c r="C137" t="n">
-        <v>0.857504</v>
+        <v>0.844228</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714983</v>
+        <v>0.713323</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.869077</v>
+        <v>0.85447</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8583190000000001</v>
+        <v>0.844059</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726282</v>
+        <v>0.724699</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.860209</v>
+        <v>0.855838</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8595739999999999</v>
+        <v>0.842959</v>
       </c>
       <c r="D139" t="n">
-        <v>0.748978</v>
+        <v>0.7371259999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.870564</v>
+        <v>0.855087</v>
       </c>
       <c r="C140" t="n">
-        <v>0.849644</v>
+        <v>0.843899</v>
       </c>
       <c r="D140" t="n">
-        <v>0.762371</v>
+        <v>0.749541</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.871347</v>
+        <v>0.855571</v>
       </c>
       <c r="C141" t="n">
-        <v>0.850584</v>
+        <v>0.845591</v>
       </c>
       <c r="D141" t="n">
-        <v>0.775923</v>
+        <v>0.762741</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865554</v>
+        <v>0.856803</v>
       </c>
       <c r="C142" t="n">
-        <v>0.853723</v>
+        <v>0.846002</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7891010000000001</v>
+        <v>0.7769509999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.87105</v>
+        <v>0.845793</v>
       </c>
       <c r="C143" t="n">
-        <v>0.848602</v>
+        <v>0.835595</v>
       </c>
       <c r="D143" t="n">
-        <v>0.803326</v>
+        <v>0.790419</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110933</v>
+        <v>0.110646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.120003</v>
+        <v>0.119862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13488</v>
+        <v>0.137343</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111588</v>
+        <v>0.110953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120294</v>
+        <v>0.120288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139534</v>
+        <v>0.143413</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110941</v>
+        <v>0.111278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.120465</v>
+        <v>0.120527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145199</v>
+        <v>0.147157</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111516</v>
+        <v>0.110668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.121068</v>
+        <v>0.120687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15308</v>
+        <v>0.15442</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112809</v>
+        <v>0.111845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121639</v>
+        <v>0.121712</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159565</v>
+        <v>0.161322</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114157</v>
+        <v>0.112982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.122762</v>
+        <v>0.123012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132918</v>
+        <v>0.133667</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116255</v>
+        <v>0.115299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.125068</v>
+        <v>0.125388</v>
       </c>
       <c r="D8" t="n">
-        <v>0.13553</v>
+        <v>0.136656</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119597</v>
+        <v>0.11918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.126592</v>
+        <v>0.12624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.139252</v>
+        <v>0.140154</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122565</v>
+        <v>0.12146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.127164</v>
+        <v>0.126331</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144074</v>
+        <v>0.144465</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121651</v>
+        <v>0.121113</v>
       </c>
       <c r="C11" t="n">
-        <v>0.12664</v>
+        <v>0.125964</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147779</v>
+        <v>0.149248</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122065</v>
+        <v>0.121368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.127308</v>
+        <v>0.126237</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153178</v>
+        <v>0.154083</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122097</v>
+        <v>0.12261</v>
       </c>
       <c r="C13" t="n">
-        <v>0.127293</v>
+        <v>0.127014</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158176</v>
+        <v>0.159233</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122219</v>
+        <v>0.121669</v>
       </c>
       <c r="C14" t="n">
-        <v>0.127425</v>
+        <v>0.126943</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163417</v>
+        <v>0.162829</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122465</v>
+        <v>0.122152</v>
       </c>
       <c r="C15" t="n">
-        <v>0.127283</v>
+        <v>0.12706</v>
       </c>
       <c r="D15" t="n">
-        <v>0.169448</v>
+        <v>0.169504</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122242</v>
+        <v>0.122418</v>
       </c>
       <c r="C16" t="n">
-        <v>0.127252</v>
+        <v>0.127779</v>
       </c>
       <c r="D16" t="n">
-        <v>0.175786</v>
+        <v>0.175128</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123039</v>
+        <v>0.124049</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127617</v>
+        <v>0.127773</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18155</v>
+        <v>0.182606</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123779</v>
+        <v>0.124304</v>
       </c>
       <c r="C18" t="n">
-        <v>0.128041</v>
+        <v>0.127824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.186803</v>
+        <v>0.186663</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124976</v>
+        <v>0.124834</v>
       </c>
       <c r="C19" t="n">
-        <v>0.128856</v>
+        <v>0.128435</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191279</v>
+        <v>0.190896</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125732</v>
+        <v>0.125404</v>
       </c>
       <c r="C20" t="n">
-        <v>0.13028</v>
+        <v>0.130193</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197412</v>
+        <v>0.19707</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127604</v>
+        <v>0.127311</v>
       </c>
       <c r="C21" t="n">
-        <v>0.131598</v>
+        <v>0.131245</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153083</v>
+        <v>0.152876</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131904</v>
+        <v>0.131708</v>
       </c>
       <c r="C22" t="n">
-        <v>0.135354</v>
+        <v>0.135692</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157604</v>
+        <v>0.157223</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139205</v>
+        <v>0.139982</v>
       </c>
       <c r="C23" t="n">
-        <v>0.135938</v>
+        <v>0.135994</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161242</v>
+        <v>0.161763</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133535</v>
+        <v>0.132643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.136519</v>
+        <v>0.135913</v>
       </c>
       <c r="D24" t="n">
-        <v>0.166252</v>
+        <v>0.167196</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133277</v>
+        <v>0.133176</v>
       </c>
       <c r="C25" t="n">
-        <v>0.13645</v>
+        <v>0.135741</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170986</v>
+        <v>0.170708</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133962</v>
+        <v>0.133259</v>
       </c>
       <c r="C26" t="n">
-        <v>0.136471</v>
+        <v>0.13629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175894</v>
+        <v>0.175555</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134373</v>
+        <v>0.133674</v>
       </c>
       <c r="C27" t="n">
-        <v>0.13685</v>
+        <v>0.136651</v>
       </c>
       <c r="D27" t="n">
-        <v>0.18129</v>
+        <v>0.180844</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134222</v>
+        <v>0.133896</v>
       </c>
       <c r="C28" t="n">
-        <v>0.136813</v>
+        <v>0.136547</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186399</v>
+        <v>0.186137</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134437</v>
+        <v>0.134043</v>
       </c>
       <c r="C29" t="n">
-        <v>0.137131</v>
+        <v>0.136645</v>
       </c>
       <c r="D29" t="n">
-        <v>0.191095</v>
+        <v>0.190658</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135522</v>
+        <v>0.135049</v>
       </c>
       <c r="C30" t="n">
-        <v>0.13752</v>
+        <v>0.136725</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196046</v>
+        <v>0.195783</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136135</v>
+        <v>0.134939</v>
       </c>
       <c r="C31" t="n">
-        <v>0.137649</v>
+        <v>0.137322</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201592</v>
+        <v>0.20029</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135483</v>
+        <v>0.136178</v>
       </c>
       <c r="C32" t="n">
-        <v>0.137886</v>
+        <v>0.138262</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207381</v>
+        <v>0.207442</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136293</v>
+        <v>0.137103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.139263</v>
+        <v>0.139576</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212306</v>
+        <v>0.210775</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138733</v>
+        <v>0.13857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.141438</v>
+        <v>0.141771</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216143</v>
+        <v>0.215917</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142538</v>
+        <v>0.143118</v>
       </c>
       <c r="C35" t="n">
-        <v>0.14612</v>
+        <v>0.147299</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169014</v>
+        <v>0.17015</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146924</v>
+        <v>0.147564</v>
       </c>
       <c r="C36" t="n">
-        <v>0.153087</v>
+        <v>0.153031</v>
       </c>
       <c r="D36" t="n">
-        <v>0.17355</v>
+        <v>0.173494</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155063</v>
+        <v>0.155072</v>
       </c>
       <c r="C37" t="n">
-        <v>0.149649</v>
+        <v>0.148855</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177203</v>
+        <v>0.177244</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147172</v>
+        <v>0.147698</v>
       </c>
       <c r="C38" t="n">
-        <v>0.151287</v>
+        <v>0.150024</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181589</v>
+        <v>0.18164</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14609</v>
+        <v>0.146118</v>
       </c>
       <c r="C39" t="n">
-        <v>0.150742</v>
+        <v>0.149095</v>
       </c>
       <c r="D39" t="n">
-        <v>0.186369</v>
+        <v>0.186616</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146052</v>
+        <v>0.146949</v>
       </c>
       <c r="C40" t="n">
-        <v>0.150115</v>
+        <v>0.149494</v>
       </c>
       <c r="D40" t="n">
-        <v>0.190838</v>
+        <v>0.190375</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144857</v>
+        <v>0.146231</v>
       </c>
       <c r="C41" t="n">
-        <v>0.149982</v>
+        <v>0.149952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.195324</v>
+        <v>0.194876</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146466</v>
+        <v>0.146881</v>
       </c>
       <c r="C42" t="n">
-        <v>0.150249</v>
+        <v>0.150893</v>
       </c>
       <c r="D42" t="n">
-        <v>0.198696</v>
+        <v>0.199967</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146792</v>
+        <v>0.147096</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1502</v>
+        <v>0.151351</v>
       </c>
       <c r="D43" t="n">
-        <v>0.203052</v>
+        <v>0.204901</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148018</v>
+        <v>0.147141</v>
       </c>
       <c r="C44" t="n">
-        <v>0.151109</v>
+        <v>0.151181</v>
       </c>
       <c r="D44" t="n">
-        <v>0.209423</v>
+        <v>0.209605</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147744</v>
+        <v>0.147408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152205</v>
+        <v>0.151214</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214521</v>
+        <v>0.214615</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149411</v>
+        <v>0.149683</v>
       </c>
       <c r="C46" t="n">
-        <v>0.151409</v>
+        <v>0.152586</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219987</v>
+        <v>0.219844</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150044</v>
+        <v>0.148182</v>
       </c>
       <c r="C47" t="n">
-        <v>0.154762</v>
+        <v>0.155021</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224688</v>
+        <v>0.225141</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15231</v>
+        <v>0.152536</v>
       </c>
       <c r="C48" t="n">
-        <v>0.156751</v>
+        <v>0.15807</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229016</v>
+        <v>0.22928</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.155634</v>
+        <v>0.156209</v>
       </c>
       <c r="C49" t="n">
-        <v>0.160887</v>
+        <v>0.160942</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234445</v>
+        <v>0.233946</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.16059</v>
+        <v>0.160114</v>
       </c>
       <c r="C50" t="n">
-        <v>0.166315</v>
+        <v>0.165751</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171957</v>
+        <v>0.172231</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166614</v>
+        <v>0.166812</v>
       </c>
       <c r="C51" t="n">
-        <v>0.161802</v>
+        <v>0.162804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175341</v>
+        <v>0.17521</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175524</v>
+        <v>0.176199</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163366</v>
+        <v>0.163605</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179227</v>
+        <v>0.179311</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160355</v>
+        <v>0.158761</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164482</v>
+        <v>0.164303</v>
       </c>
       <c r="D53" t="n">
-        <v>0.18329</v>
+        <v>0.183689</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160086</v>
+        <v>0.159571</v>
       </c>
       <c r="C54" t="n">
-        <v>0.164593</v>
+        <v>0.164212</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187739</v>
+        <v>0.187601</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159808</v>
+        <v>0.160114</v>
       </c>
       <c r="C55" t="n">
-        <v>0.164786</v>
+        <v>0.164577</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192454</v>
+        <v>0.192493</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160724</v>
+        <v>0.159991</v>
       </c>
       <c r="C56" t="n">
-        <v>0.164737</v>
+        <v>0.165553</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197444</v>
+        <v>0.197805</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160251</v>
+        <v>0.160093</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165164</v>
+        <v>0.165398</v>
       </c>
       <c r="D57" t="n">
-        <v>0.20276</v>
+        <v>0.202825</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160163</v>
+        <v>0.161372</v>
       </c>
       <c r="C58" t="n">
-        <v>0.165478</v>
+        <v>0.165789</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207722</v>
+        <v>0.208139</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162016</v>
+        <v>0.160872</v>
       </c>
       <c r="C59" t="n">
-        <v>0.166384</v>
+        <v>0.166088</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212961</v>
+        <v>0.21312</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16176</v>
+        <v>0.164118</v>
       </c>
       <c r="C60" t="n">
-        <v>0.167676</v>
+        <v>0.166473</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218076</v>
+        <v>0.218333</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.163908</v>
+        <v>0.162733</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169556</v>
+        <v>0.169333</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223029</v>
+        <v>0.223164</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166636</v>
+        <v>0.167248</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172325</v>
+        <v>0.172247</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228027</v>
+        <v>0.227571</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171057</v>
+        <v>0.17014</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175252</v>
+        <v>0.175367</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232404</v>
+        <v>0.232477</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172663</v>
+        <v>0.173829</v>
       </c>
       <c r="C64" t="n">
-        <v>0.179557</v>
+        <v>0.179158</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177874</v>
+        <v>0.178154</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17821</v>
+        <v>0.178163</v>
       </c>
       <c r="C65" t="n">
-        <v>0.185411</v>
+        <v>0.186195</v>
       </c>
       <c r="D65" t="n">
-        <v>0.182184</v>
+        <v>0.182318</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187262</v>
+        <v>0.186441</v>
       </c>
       <c r="C66" t="n">
-        <v>0.176881</v>
+        <v>0.175529</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187462</v>
+        <v>0.187198</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.180314</v>
+        <v>0.178287</v>
       </c>
       <c r="C67" t="n">
-        <v>0.179067</v>
+        <v>0.175158</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192797</v>
+        <v>0.191816</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183992</v>
+        <v>0.179729</v>
       </c>
       <c r="C68" t="n">
-        <v>0.17721</v>
+        <v>0.176172</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197965</v>
+        <v>0.197534</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180335</v>
+        <v>0.178871</v>
       </c>
       <c r="C69" t="n">
-        <v>0.177837</v>
+        <v>0.176226</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204133</v>
+        <v>0.203685</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182992</v>
+        <v>0.181053</v>
       </c>
       <c r="C70" t="n">
-        <v>0.177328</v>
+        <v>0.17724</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211923</v>
+        <v>0.210521</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.180298</v>
+        <v>0.181418</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177304</v>
+        <v>0.177756</v>
       </c>
       <c r="D71" t="n">
-        <v>0.218935</v>
+        <v>0.217631</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180634</v>
+        <v>0.181526</v>
       </c>
       <c r="C72" t="n">
-        <v>0.179402</v>
+        <v>0.178342</v>
       </c>
       <c r="D72" t="n">
-        <v>0.227106</v>
+        <v>0.224642</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181157</v>
+        <v>0.182142</v>
       </c>
       <c r="C73" t="n">
-        <v>0.179135</v>
+        <v>0.179042</v>
       </c>
       <c r="D73" t="n">
-        <v>0.233485</v>
+        <v>0.23198</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181927</v>
+        <v>0.183934</v>
       </c>
       <c r="C74" t="n">
-        <v>0.180409</v>
+        <v>0.18088</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242132</v>
+        <v>0.240397</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183116</v>
+        <v>0.184715</v>
       </c>
       <c r="C75" t="n">
-        <v>0.181497</v>
+        <v>0.182648</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251891</v>
+        <v>0.250854</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187458</v>
+        <v>0.189681</v>
       </c>
       <c r="C76" t="n">
-        <v>0.183633</v>
+        <v>0.185339</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26141</v>
+        <v>0.263489</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190375</v>
+        <v>0.191485</v>
       </c>
       <c r="C77" t="n">
-        <v>0.18658</v>
+        <v>0.187339</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271787</v>
+        <v>0.273445</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.192912</v>
+        <v>0.194904</v>
       </c>
       <c r="C78" t="n">
-        <v>0.190175</v>
+        <v>0.190766</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224683</v>
+        <v>0.225552</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199388</v>
+        <v>0.20108</v>
       </c>
       <c r="C79" t="n">
-        <v>0.195615</v>
+        <v>0.197041</v>
       </c>
       <c r="D79" t="n">
-        <v>0.233089</v>
+        <v>0.235349</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206656</v>
+        <v>0.205982</v>
       </c>
       <c r="C80" t="n">
-        <v>0.256663</v>
+        <v>0.253917</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247089</v>
+        <v>0.247116</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.342606</v>
+        <v>0.347207</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25458</v>
+        <v>0.257407</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258596</v>
+        <v>0.259047</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342126</v>
+        <v>0.34228</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25394</v>
+        <v>0.254702</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268899</v>
+        <v>0.269321</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342505</v>
+        <v>0.349</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252656</v>
+        <v>0.256323</v>
       </c>
       <c r="D83" t="n">
-        <v>0.283264</v>
+        <v>0.28618</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.343541</v>
+        <v>0.345682</v>
       </c>
       <c r="C84" t="n">
-        <v>0.253962</v>
+        <v>0.257019</v>
       </c>
       <c r="D84" t="n">
-        <v>0.296975</v>
+        <v>0.298144</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343005</v>
+        <v>0.348521</v>
       </c>
       <c r="C85" t="n">
-        <v>0.252013</v>
+        <v>0.255448</v>
       </c>
       <c r="D85" t="n">
-        <v>0.312745</v>
+        <v>0.314175</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.344621</v>
+        <v>0.348096</v>
       </c>
       <c r="C86" t="n">
-        <v>0.252741</v>
+        <v>0.256458</v>
       </c>
       <c r="D86" t="n">
-        <v>0.327249</v>
+        <v>0.328716</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.343953</v>
+        <v>0.350422</v>
       </c>
       <c r="C87" t="n">
-        <v>0.252166</v>
+        <v>0.256808</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344905</v>
+        <v>0.34647</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.348569</v>
+        <v>0.349078</v>
       </c>
       <c r="C88" t="n">
-        <v>0.252674</v>
+        <v>0.253797</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362677</v>
+        <v>0.364285</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348383</v>
+        <v>0.352703</v>
       </c>
       <c r="C89" t="n">
-        <v>0.25074</v>
+        <v>0.258242</v>
       </c>
       <c r="D89" t="n">
-        <v>0.379062</v>
+        <v>0.379972</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.351364</v>
+        <v>0.352606</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251866</v>
+        <v>0.251026</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39145</v>
+        <v>0.392923</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350608</v>
+        <v>0.355579</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252158</v>
+        <v>0.255653</v>
       </c>
       <c r="D91" t="n">
-        <v>0.408536</v>
+        <v>0.409427</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355929</v>
+        <v>0.357576</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253721</v>
+        <v>0.255366</v>
       </c>
       <c r="D92" t="n">
-        <v>0.360278</v>
+        <v>0.363668</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360781</v>
+        <v>0.362465</v>
       </c>
       <c r="C93" t="n">
-        <v>0.255534</v>
+        <v>0.258949</v>
       </c>
       <c r="D93" t="n">
-        <v>0.368929</v>
+        <v>0.370973</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.364252</v>
+        <v>0.371708</v>
       </c>
       <c r="C94" t="n">
-        <v>0.410286</v>
+        <v>0.414407</v>
       </c>
       <c r="D94" t="n">
-        <v>0.384869</v>
+        <v>0.385954</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.497844</v>
+        <v>0.502013</v>
       </c>
       <c r="C95" t="n">
-        <v>0.410136</v>
+        <v>0.414447</v>
       </c>
       <c r="D95" t="n">
-        <v>0.392123</v>
+        <v>0.391574</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.498028</v>
+        <v>0.501243</v>
       </c>
       <c r="C96" t="n">
-        <v>0.409437</v>
+        <v>0.411691</v>
       </c>
       <c r="D96" t="n">
-        <v>0.403172</v>
+        <v>0.405113</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498095</v>
+        <v>0.501026</v>
       </c>
       <c r="C97" t="n">
-        <v>0.408674</v>
+        <v>0.413298</v>
       </c>
       <c r="D97" t="n">
-        <v>0.417597</v>
+        <v>0.418084</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.498938</v>
+        <v>0.501483</v>
       </c>
       <c r="C98" t="n">
-        <v>0.408983</v>
+        <v>0.412097</v>
       </c>
       <c r="D98" t="n">
-        <v>0.430771</v>
+        <v>0.433545</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.498775</v>
+        <v>0.502155</v>
       </c>
       <c r="C99" t="n">
-        <v>0.408411</v>
+        <v>0.411945</v>
       </c>
       <c r="D99" t="n">
-        <v>0.445922</v>
+        <v>0.448261</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500658</v>
+        <v>0.503434</v>
       </c>
       <c r="C100" t="n">
-        <v>0.409655</v>
+        <v>0.411821</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464721</v>
+        <v>0.464747</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.502185</v>
+        <v>0.504188</v>
       </c>
       <c r="C101" t="n">
-        <v>0.410107</v>
+        <v>0.411456</v>
       </c>
       <c r="D101" t="n">
-        <v>0.47777</v>
+        <v>0.479747</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502918</v>
+        <v>0.5050480000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4079</v>
+        <v>0.41179</v>
       </c>
       <c r="D102" t="n">
-        <v>0.492637</v>
+        <v>0.495499</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.504251</v>
+        <v>0.505727</v>
       </c>
       <c r="C103" t="n">
-        <v>0.410446</v>
+        <v>0.412221</v>
       </c>
       <c r="D103" t="n">
-        <v>0.508713</v>
+        <v>0.512336</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.50582</v>
+        <v>0.507186</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413694</v>
+        <v>0.413549</v>
       </c>
       <c r="D104" t="n">
-        <v>0.524842</v>
+        <v>0.528492</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.507901</v>
+        <v>0.509721</v>
       </c>
       <c r="C105" t="n">
-        <v>0.415415</v>
+        <v>0.415752</v>
       </c>
       <c r="D105" t="n">
-        <v>0.542561</v>
+        <v>0.546812</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.512531</v>
+        <v>0.513536</v>
       </c>
       <c r="C106" t="n">
-        <v>0.41679</v>
+        <v>0.417811</v>
       </c>
       <c r="D106" t="n">
-        <v>0.559758</v>
+        <v>0.562264</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51751</v>
+        <v>0.5184299999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.421283</v>
+        <v>0.422151</v>
       </c>
       <c r="D107" t="n">
-        <v>0.528413</v>
+        <v>0.531802</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.525187</v>
+        <v>0.526087</v>
       </c>
       <c r="C108" t="n">
-        <v>0.546006</v>
+        <v>0.548204</v>
       </c>
       <c r="D108" t="n">
-        <v>0.537879</v>
+        <v>0.541658</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.53569</v>
+        <v>0.537293</v>
       </c>
       <c r="C109" t="n">
-        <v>0.547032</v>
+        <v>0.550078</v>
       </c>
       <c r="D109" t="n">
-        <v>0.549549</v>
+        <v>0.553252</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5823</v>
+        <v>0.585763</v>
       </c>
       <c r="C110" t="n">
-        <v>0.547923</v>
+        <v>0.549489</v>
       </c>
       <c r="D110" t="n">
-        <v>0.561196</v>
+        <v>0.566496</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.582105</v>
+        <v>0.584865</v>
       </c>
       <c r="C111" t="n">
-        <v>0.548424</v>
+        <v>0.549543</v>
       </c>
       <c r="D111" t="n">
-        <v>0.574211</v>
+        <v>0.578855</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.583965</v>
+        <v>0.584487</v>
       </c>
       <c r="C112" t="n">
-        <v>0.549257</v>
+        <v>0.550809</v>
       </c>
       <c r="D112" t="n">
-        <v>0.588244</v>
+        <v>0.59229</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.583195</v>
+        <v>0.583749</v>
       </c>
       <c r="C113" t="n">
-        <v>0.547908</v>
+        <v>0.550799</v>
       </c>
       <c r="D113" t="n">
-        <v>0.605221</v>
+        <v>0.60938</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584655</v>
+        <v>0.586916</v>
       </c>
       <c r="C114" t="n">
-        <v>0.551638</v>
+        <v>0.55146</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617552</v>
+        <v>0.620897</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.587244</v>
+        <v>0.586395</v>
       </c>
       <c r="C115" t="n">
-        <v>0.551133</v>
+        <v>0.554022</v>
       </c>
       <c r="D115" t="n">
-        <v>0.636385</v>
+        <v>0.640501</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.586382</v>
+        <v>0.589514</v>
       </c>
       <c r="C116" t="n">
-        <v>0.551527</v>
+        <v>0.555182</v>
       </c>
       <c r="D116" t="n">
-        <v>0.652989</v>
+        <v>0.657936</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.588776</v>
+        <v>0.589466</v>
       </c>
       <c r="C117" t="n">
-        <v>0.554895</v>
+        <v>0.555745</v>
       </c>
       <c r="D117" t="n">
-        <v>0.669977</v>
+        <v>0.673682</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.592464</v>
+        <v>0.592139</v>
       </c>
       <c r="C118" t="n">
-        <v>0.55721</v>
+        <v>0.556189</v>
       </c>
       <c r="D118" t="n">
-        <v>0.683709</v>
+        <v>0.689326</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.595954</v>
+        <v>0.595641</v>
       </c>
       <c r="C119" t="n">
-        <v>0.557813</v>
+        <v>0.559429</v>
       </c>
       <c r="D119" t="n">
-        <v>0.703644</v>
+        <v>0.708422</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.597849</v>
+        <v>0.599743</v>
       </c>
       <c r="C120" t="n">
-        <v>0.562876</v>
+        <v>0.563877</v>
       </c>
       <c r="D120" t="n">
-        <v>0.715571</v>
+        <v>0.721262</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605781</v>
+        <v>0.606688</v>
       </c>
       <c r="C121" t="n">
-        <v>0.568199</v>
+        <v>0.568577</v>
       </c>
       <c r="D121" t="n">
-        <v>0.637729</v>
+        <v>0.640585</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6142</v>
+        <v>0.616081</v>
       </c>
       <c r="C122" t="n">
-        <v>0.576327</v>
+        <v>0.5765670000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648983</v>
+        <v>0.652271</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.62565</v>
+        <v>0.628112</v>
       </c>
       <c r="C123" t="n">
-        <v>0.706083</v>
+        <v>0.709317</v>
       </c>
       <c r="D123" t="n">
-        <v>0.66008</v>
+        <v>0.663107</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.725426</v>
+        <v>0.731016</v>
       </c>
       <c r="C124" t="n">
-        <v>0.708111</v>
+        <v>0.708876</v>
       </c>
       <c r="D124" t="n">
-        <v>0.675746</v>
+        <v>0.679194</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.72546</v>
+        <v>0.72782</v>
       </c>
       <c r="C125" t="n">
-        <v>0.709565</v>
+        <v>0.709546</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687107</v>
+        <v>0.690012</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.727216</v>
+        <v>0.72882</v>
       </c>
       <c r="C126" t="n">
-        <v>0.710909</v>
+        <v>0.713472</v>
       </c>
       <c r="D126" t="n">
-        <v>0.700167</v>
+        <v>0.703457</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.729614</v>
+        <v>0.730858</v>
       </c>
       <c r="C127" t="n">
-        <v>0.710768</v>
+        <v>0.711213</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714346</v>
+        <v>0.716841</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7288</v>
+        <v>0.729895</v>
       </c>
       <c r="C128" t="n">
-        <v>0.710942</v>
+        <v>0.714121</v>
       </c>
       <c r="D128" t="n">
-        <v>0.728106</v>
+        <v>0.730984</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.728974</v>
+        <v>0.730984</v>
       </c>
       <c r="C129" t="n">
-        <v>0.712498</v>
+        <v>0.713862</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744625</v>
+        <v>0.747444</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.730614</v>
+        <v>0.734148</v>
       </c>
       <c r="C130" t="n">
-        <v>0.715155</v>
+        <v>0.715188</v>
       </c>
       <c r="D130" t="n">
-        <v>0.755284</v>
+        <v>0.761053</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.734256</v>
+        <v>0.73527</v>
       </c>
       <c r="C131" t="n">
-        <v>0.715954</v>
+        <v>0.7164199999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.769161</v>
+        <v>0.773451</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73607</v>
+        <v>0.737909</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7193659999999999</v>
+        <v>0.7206050000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.785791</v>
+        <v>0.7901860000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.740202</v>
+        <v>0.742097</v>
       </c>
       <c r="C133" t="n">
-        <v>0.721333</v>
+        <v>0.722374</v>
       </c>
       <c r="D133" t="n">
-        <v>0.803804</v>
+        <v>0.807376</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.74794</v>
+        <v>0.747779</v>
       </c>
       <c r="C134" t="n">
-        <v>0.725474</v>
+        <v>0.726344</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8237370000000001</v>
+        <v>0.827219</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.755194</v>
+        <v>0.754601</v>
       </c>
       <c r="C135" t="n">
-        <v>0.732676</v>
+        <v>0.731911</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69308</v>
+        <v>0.695871</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.759853</v>
+        <v>0.761505</v>
       </c>
       <c r="C136" t="n">
-        <v>0.738043</v>
+        <v>0.739988</v>
       </c>
       <c r="D136" t="n">
-        <v>0.703221</v>
+        <v>0.705525</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.771922</v>
+        <v>0.773496</v>
       </c>
       <c r="C137" t="n">
-        <v>0.844228</v>
+        <v>0.844964</v>
       </c>
       <c r="D137" t="n">
-        <v>0.713323</v>
+        <v>0.716137</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85447</v>
+        <v>0.8581490000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.844059</v>
+        <v>0.84576</v>
       </c>
       <c r="D138" t="n">
-        <v>0.724699</v>
+        <v>0.727217</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.855838</v>
+        <v>0.857619</v>
       </c>
       <c r="C139" t="n">
-        <v>0.842959</v>
+        <v>0.846152</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7371259999999999</v>
+        <v>0.73961</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.855087</v>
+        <v>0.859047</v>
       </c>
       <c r="C140" t="n">
-        <v>0.843899</v>
+        <v>0.846673</v>
       </c>
       <c r="D140" t="n">
-        <v>0.749541</v>
+        <v>0.752542</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.855571</v>
+        <v>0.859043</v>
       </c>
       <c r="C141" t="n">
-        <v>0.845591</v>
+        <v>0.84892</v>
       </c>
       <c r="D141" t="n">
-        <v>0.762741</v>
+        <v>0.766229</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.856803</v>
+        <v>0.859253</v>
       </c>
       <c r="C142" t="n">
-        <v>0.846002</v>
+        <v>0.848709</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7769509999999999</v>
+        <v>0.779747</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.845793</v>
+        <v>0.861563</v>
       </c>
       <c r="C143" t="n">
-        <v>0.835595</v>
+        <v>0.850319</v>
       </c>
       <c r="D143" t="n">
-        <v>0.790419</v>
+        <v>0.795276</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110646</v>
+        <v>0.111461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119862</v>
+        <v>0.133915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.137343</v>
+        <v>0.119859</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.120777</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110953</v>
+        <v>0.111656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120288</v>
+        <v>0.139881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.143413</v>
+        <v>0.120169</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.120614</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111278</v>
+        <v>0.109818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.120527</v>
+        <v>0.145551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147157</v>
+        <v>0.12087</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.120906</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110668</v>
+        <v>0.111448</v>
       </c>
       <c r="C5" t="n">
+        <v>0.153962</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.120687</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.15442</v>
+      <c r="E5" t="n">
+        <v>0.121427</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111845</v>
+        <v>0.112792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121712</v>
+        <v>0.159457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161322</v>
+        <v>0.122206</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122178</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.112982</v>
+        <v>0.11393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.123012</v>
+        <v>0.132805</v>
       </c>
       <c r="D7" t="n">
-        <v>0.133667</v>
+        <v>0.122594</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.123081</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115299</v>
+        <v>0.116654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.125388</v>
+        <v>0.134467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.136656</v>
+        <v>0.124425</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.125998</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.11918</v>
+        <v>0.119109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.12624</v>
+        <v>0.139213</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140154</v>
+        <v>0.126124</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.12253</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12146</v>
+        <v>0.12106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.126331</v>
+        <v>0.144898</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144465</v>
+        <v>0.126567</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.123318</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121113</v>
+        <v>0.121153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.125964</v>
+        <v>0.147789</v>
       </c>
       <c r="D11" t="n">
-        <v>0.149248</v>
+        <v>0.126451</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.123396</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121368</v>
+        <v>0.121492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.126237</v>
+        <v>0.152883</v>
       </c>
       <c r="D12" t="n">
-        <v>0.154083</v>
+        <v>0.127043</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.123254</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.12261</v>
+        <v>0.122243</v>
       </c>
       <c r="C13" t="n">
-        <v>0.127014</v>
+        <v>0.158382</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159233</v>
+        <v>0.127543</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.123033</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.121669</v>
+        <v>0.122827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.126943</v>
+        <v>0.163161</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162829</v>
+        <v>0.127938</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.123477</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122152</v>
+        <v>0.123526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12706</v>
+        <v>0.169925</v>
       </c>
       <c r="D15" t="n">
-        <v>0.169504</v>
+        <v>0.128219</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.123511</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122418</v>
+        <v>0.122825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.127779</v>
+        <v>0.176035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.175128</v>
+        <v>0.128497</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.12396</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124049</v>
+        <v>0.12386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127773</v>
+        <v>0.181659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182606</v>
+        <v>0.1286</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.124134</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124304</v>
+        <v>0.123479</v>
       </c>
       <c r="C18" t="n">
-        <v>0.127824</v>
+        <v>0.186762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.186663</v>
+        <v>0.12913</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.124781</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124834</v>
+        <v>0.125222</v>
       </c>
       <c r="C19" t="n">
-        <v>0.128435</v>
+        <v>0.192404</v>
       </c>
       <c r="D19" t="n">
-        <v>0.190896</v>
+        <v>0.129815</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.125048</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125404</v>
+        <v>0.125545</v>
       </c>
       <c r="C20" t="n">
-        <v>0.130193</v>
+        <v>0.197333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19707</v>
+        <v>0.130167</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.126552</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127311</v>
+        <v>0.127466</v>
       </c>
       <c r="C21" t="n">
-        <v>0.131245</v>
+        <v>0.153588</v>
       </c>
       <c r="D21" t="n">
-        <v>0.152876</v>
+        <v>0.131963</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.127235</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131708</v>
+        <v>0.130167</v>
       </c>
       <c r="C22" t="n">
-        <v>0.135692</v>
+        <v>0.157301</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157223</v>
+        <v>0.135644</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.131572</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139982</v>
+        <v>0.137</v>
       </c>
       <c r="C23" t="n">
-        <v>0.135994</v>
+        <v>0.161985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161763</v>
+        <v>0.138489</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.132622</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132643</v>
+        <v>0.133818</v>
       </c>
       <c r="C24" t="n">
-        <v>0.135913</v>
+        <v>0.167196</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167196</v>
+        <v>0.137552</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.131342</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133176</v>
+        <v>0.133442</v>
       </c>
       <c r="C25" t="n">
-        <v>0.135741</v>
+        <v>0.172827</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170708</v>
+        <v>0.13629</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.131478</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133259</v>
+        <v>0.133556</v>
       </c>
       <c r="C26" t="n">
-        <v>0.13629</v>
+        <v>0.175122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175555</v>
+        <v>0.136929</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.132496</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133674</v>
+        <v>0.133754</v>
       </c>
       <c r="C27" t="n">
-        <v>0.136651</v>
+        <v>0.181369</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180844</v>
+        <v>0.137136</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.130734</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133896</v>
+        <v>0.133877</v>
       </c>
       <c r="C28" t="n">
-        <v>0.136547</v>
+        <v>0.186653</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186137</v>
+        <v>0.137327</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.130549</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134043</v>
+        <v>0.134445</v>
       </c>
       <c r="C29" t="n">
-        <v>0.136645</v>
+        <v>0.191587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190658</v>
+        <v>0.137905</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.130918</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135049</v>
+        <v>0.134728</v>
       </c>
       <c r="C30" t="n">
-        <v>0.136725</v>
+        <v>0.195173</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195783</v>
+        <v>0.138073</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.132154</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134939</v>
+        <v>0.134886</v>
       </c>
       <c r="C31" t="n">
-        <v>0.137322</v>
+        <v>0.201837</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20029</v>
+        <v>0.137656</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.13258</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136178</v>
+        <v>0.135788</v>
       </c>
       <c r="C32" t="n">
-        <v>0.138262</v>
+        <v>0.206667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207442</v>
+        <v>0.138372</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.133236</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137103</v>
+        <v>0.13695</v>
       </c>
       <c r="C33" t="n">
-        <v>0.139576</v>
+        <v>0.210486</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210775</v>
+        <v>0.140152</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.133602</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13857</v>
+        <v>0.138216</v>
       </c>
       <c r="C34" t="n">
-        <v>0.141771</v>
+        <v>0.215204</v>
       </c>
       <c r="D34" t="n">
-        <v>0.215917</v>
+        <v>0.141</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.136023</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143118</v>
+        <v>0.141306</v>
       </c>
       <c r="C35" t="n">
-        <v>0.147299</v>
+        <v>0.168663</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17015</v>
+        <v>0.144549</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.139004</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147564</v>
+        <v>0.147843</v>
       </c>
       <c r="C36" t="n">
-        <v>0.153031</v>
+        <v>0.172556</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173494</v>
+        <v>0.151188</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.147699</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155072</v>
+        <v>0.155067</v>
       </c>
       <c r="C37" t="n">
-        <v>0.148855</v>
+        <v>0.176247</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177244</v>
+        <v>0.149289</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.148456</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147698</v>
+        <v>0.145377</v>
       </c>
       <c r="C38" t="n">
-        <v>0.150024</v>
+        <v>0.180789</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18164</v>
+        <v>0.149708</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.148583</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146118</v>
+        <v>0.145055</v>
       </c>
       <c r="C39" t="n">
-        <v>0.149095</v>
+        <v>0.185571</v>
       </c>
       <c r="D39" t="n">
-        <v>0.186616</v>
+        <v>0.150564</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.147598</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146949</v>
+        <v>0.145963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.149494</v>
+        <v>0.189559</v>
       </c>
       <c r="D40" t="n">
-        <v>0.190375</v>
+        <v>0.150385</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.148523</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146231</v>
+        <v>0.145356</v>
       </c>
       <c r="C41" t="n">
-        <v>0.149952</v>
+        <v>0.195</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194876</v>
+        <v>0.150098</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.148208</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146881</v>
+        <v>0.146652</v>
       </c>
       <c r="C42" t="n">
-        <v>0.150893</v>
+        <v>0.199387</v>
       </c>
       <c r="D42" t="n">
-        <v>0.199967</v>
+        <v>0.149701</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.148776</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147096</v>
+        <v>0.148181</v>
       </c>
       <c r="C43" t="n">
-        <v>0.151351</v>
+        <v>0.203919</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204901</v>
+        <v>0.150442</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.148518</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147141</v>
+        <v>0.147474</v>
       </c>
       <c r="C44" t="n">
-        <v>0.151181</v>
+        <v>0.208917</v>
       </c>
       <c r="D44" t="n">
-        <v>0.209605</v>
+        <v>0.151109</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.148597</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147408</v>
+        <v>0.148485</v>
       </c>
       <c r="C45" t="n">
-        <v>0.151214</v>
+        <v>0.214252</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214615</v>
+        <v>0.152024</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.150063</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149683</v>
+        <v>0.147872</v>
       </c>
       <c r="C46" t="n">
-        <v>0.152586</v>
+        <v>0.220219</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219844</v>
+        <v>0.152717</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.149937</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.148182</v>
+        <v>0.149952</v>
       </c>
       <c r="C47" t="n">
-        <v>0.155021</v>
+        <v>0.224947</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225141</v>
+        <v>0.153192</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.151946</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152536</v>
+        <v>0.151998</v>
       </c>
       <c r="C48" t="n">
-        <v>0.15807</v>
+        <v>0.229118</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22928</v>
+        <v>0.155564</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.154801</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156209</v>
+        <v>0.15451</v>
       </c>
       <c r="C49" t="n">
-        <v>0.160942</v>
+        <v>0.23368</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233946</v>
+        <v>0.160226</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.158351</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160114</v>
+        <v>0.160755</v>
       </c>
       <c r="C50" t="n">
-        <v>0.165751</v>
+        <v>0.172225</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172231</v>
+        <v>0.164521</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.163591</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166812</v>
+        <v>0.166876</v>
       </c>
       <c r="C51" t="n">
-        <v>0.162804</v>
+        <v>0.17539</v>
       </c>
       <c r="D51" t="n">
-        <v>0.17521</v>
+        <v>0.163297</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.165154</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176199</v>
+        <v>0.175663</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163605</v>
+        <v>0.179048</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179311</v>
+        <v>0.163424</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.165108</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158761</v>
+        <v>0.159371</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164303</v>
+        <v>0.183108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183689</v>
+        <v>0.163901</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.164788</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159571</v>
+        <v>0.158185</v>
       </c>
       <c r="C54" t="n">
-        <v>0.164212</v>
+        <v>0.187825</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187601</v>
+        <v>0.164709</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.164918</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160114</v>
+        <v>0.158687</v>
       </c>
       <c r="C55" t="n">
-        <v>0.164577</v>
+        <v>0.192385</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192493</v>
+        <v>0.1642</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.165317</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159991</v>
+        <v>0.161315</v>
       </c>
       <c r="C56" t="n">
-        <v>0.165553</v>
+        <v>0.198171</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197805</v>
+        <v>0.164557</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.165731</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160093</v>
+        <v>0.159893</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165398</v>
+        <v>0.202687</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202825</v>
+        <v>0.1649</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.166426</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161372</v>
+        <v>0.161163</v>
       </c>
       <c r="C58" t="n">
-        <v>0.165789</v>
+        <v>0.207991</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208139</v>
+        <v>0.166832</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.167618</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.160872</v>
+        <v>0.161857</v>
       </c>
       <c r="C59" t="n">
-        <v>0.166088</v>
+        <v>0.212996</v>
       </c>
       <c r="D59" t="n">
-        <v>0.21312</v>
+        <v>0.166697</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.168405</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.164118</v>
+        <v>0.16254</v>
       </c>
       <c r="C60" t="n">
-        <v>0.166473</v>
+        <v>0.218242</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218333</v>
+        <v>0.167252</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.168402</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.162733</v>
+        <v>0.165153</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169333</v>
+        <v>0.222676</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223164</v>
+        <v>0.168192</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.170194</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167248</v>
+        <v>0.16727</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172247</v>
+        <v>0.227525</v>
       </c>
       <c r="D62" t="n">
-        <v>0.227571</v>
+        <v>0.170127</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.173555</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17014</v>
+        <v>0.169035</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175367</v>
+        <v>0.231983</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232477</v>
+        <v>0.173342</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.175776</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173829</v>
+        <v>0.173216</v>
       </c>
       <c r="C64" t="n">
-        <v>0.179158</v>
+        <v>0.180814</v>
       </c>
       <c r="D64" t="n">
-        <v>0.178154</v>
+        <v>0.177652</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.180422</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178163</v>
+        <v>0.178438</v>
       </c>
       <c r="C65" t="n">
-        <v>0.186195</v>
+        <v>0.182876</v>
       </c>
       <c r="D65" t="n">
-        <v>0.182318</v>
+        <v>0.183859</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.187646</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186441</v>
+        <v>0.185594</v>
       </c>
       <c r="C66" t="n">
-        <v>0.175529</v>
+        <v>0.187081</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187198</v>
+        <v>0.175233</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.176358</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178287</v>
+        <v>0.17718</v>
       </c>
       <c r="C67" t="n">
-        <v>0.175158</v>
+        <v>0.192802</v>
       </c>
       <c r="D67" t="n">
-        <v>0.191816</v>
+        <v>0.175903</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.176551</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179729</v>
+        <v>0.17792</v>
       </c>
       <c r="C68" t="n">
-        <v>0.176172</v>
+        <v>0.197799</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197534</v>
+        <v>0.175795</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.177227</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.178871</v>
+        <v>0.176975</v>
       </c>
       <c r="C69" t="n">
-        <v>0.176226</v>
+        <v>0.204206</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203685</v>
+        <v>0.17664</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.177638</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181053</v>
+        <v>0.179487</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17724</v>
+        <v>0.211623</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210521</v>
+        <v>0.176911</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.177817</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181418</v>
+        <v>0.181068</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177756</v>
+        <v>0.218702</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217631</v>
+        <v>0.177435</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.178851</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181526</v>
+        <v>0.179934</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178342</v>
+        <v>0.225218</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224642</v>
+        <v>0.178161</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.179137</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.182142</v>
+        <v>0.180549</v>
       </c>
       <c r="C73" t="n">
-        <v>0.179042</v>
+        <v>0.235243</v>
       </c>
       <c r="D73" t="n">
-        <v>0.23198</v>
+        <v>0.178883</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.180432</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.183934</v>
+        <v>0.181701</v>
       </c>
       <c r="C74" t="n">
-        <v>0.18088</v>
+        <v>0.243398</v>
       </c>
       <c r="D74" t="n">
-        <v>0.240397</v>
+        <v>0.180534</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.18161</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184715</v>
+        <v>0.183411</v>
       </c>
       <c r="C75" t="n">
-        <v>0.182648</v>
+        <v>0.253216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250854</v>
+        <v>0.182154</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.182882</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189681</v>
+        <v>0.186347</v>
       </c>
       <c r="C76" t="n">
-        <v>0.185339</v>
+        <v>0.265352</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263489</v>
+        <v>0.18348</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.185365</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191485</v>
+        <v>0.189529</v>
       </c>
       <c r="C77" t="n">
-        <v>0.187339</v>
+        <v>0.272145</v>
       </c>
       <c r="D77" t="n">
-        <v>0.273445</v>
+        <v>0.18592</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.18892</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194904</v>
+        <v>0.191166</v>
       </c>
       <c r="C78" t="n">
-        <v>0.190766</v>
+        <v>0.226548</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225552</v>
+        <v>0.188982</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.192861</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.20108</v>
+        <v>0.19762</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197041</v>
+        <v>0.237324</v>
       </c>
       <c r="D79" t="n">
-        <v>0.235349</v>
+        <v>0.195402</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.199583</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205982</v>
+        <v>0.205455</v>
       </c>
       <c r="C80" t="n">
-        <v>0.253917</v>
+        <v>0.249251</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247116</v>
+        <v>0.255185</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.187017</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347207</v>
+        <v>0.345145</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257407</v>
+        <v>0.259987</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259047</v>
+        <v>0.256518</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.187502</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34228</v>
+        <v>0.343554</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254702</v>
+        <v>0.272185</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269321</v>
+        <v>0.257826</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.188548</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.349</v>
+        <v>0.345326</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256323</v>
+        <v>0.285002</v>
       </c>
       <c r="D83" t="n">
-        <v>0.28618</v>
+        <v>0.256241</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.188778</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345682</v>
+        <v>0.34497</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257019</v>
+        <v>0.300756</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298144</v>
+        <v>0.253877</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.190479</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.348521</v>
+        <v>0.350511</v>
       </c>
       <c r="C85" t="n">
-        <v>0.255448</v>
+        <v>0.31612</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314175</v>
+        <v>0.256359</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.191102</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.348096</v>
+        <v>0.34663</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256458</v>
+        <v>0.329796</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328716</v>
+        <v>0.25522</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.19264</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.350422</v>
+        <v>0.348911</v>
       </c>
       <c r="C87" t="n">
-        <v>0.256808</v>
+        <v>0.345039</v>
       </c>
       <c r="D87" t="n">
-        <v>0.34647</v>
+        <v>0.251251</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.194413</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.349078</v>
+        <v>0.34891</v>
       </c>
       <c r="C88" t="n">
-        <v>0.253797</v>
+        <v>0.363409</v>
       </c>
       <c r="D88" t="n">
-        <v>0.364285</v>
+        <v>0.255224</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.196433</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.352703</v>
+        <v>0.353169</v>
       </c>
       <c r="C89" t="n">
-        <v>0.258242</v>
+        <v>0.380859</v>
       </c>
       <c r="D89" t="n">
-        <v>0.379972</v>
+        <v>0.250648</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.199148</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352606</v>
+        <v>0.353568</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251026</v>
+        <v>0.393773</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392923</v>
+        <v>0.25093</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.203401</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.355579</v>
+        <v>0.356017</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255653</v>
+        <v>0.413283</v>
       </c>
       <c r="D91" t="n">
-        <v>0.409427</v>
+        <v>0.251082</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.205802</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.357576</v>
+        <v>0.359335</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255366</v>
+        <v>0.360499</v>
       </c>
       <c r="D92" t="n">
-        <v>0.363668</v>
+        <v>0.253628</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.211001</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.362465</v>
+        <v>0.359688</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258949</v>
+        <v>0.373859</v>
       </c>
       <c r="D93" t="n">
-        <v>0.370973</v>
+        <v>0.258504</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.22024</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.371708</v>
+        <v>0.370616</v>
       </c>
       <c r="C94" t="n">
-        <v>0.414407</v>
+        <v>0.382854</v>
       </c>
       <c r="D94" t="n">
-        <v>0.385954</v>
+        <v>0.413464</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.277095</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502013</v>
+        <v>0.501136</v>
       </c>
       <c r="C95" t="n">
-        <v>0.414447</v>
+        <v>0.399493</v>
       </c>
       <c r="D95" t="n">
-        <v>0.391574</v>
+        <v>0.411478</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.281074</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.501243</v>
+        <v>0.5013030000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.411691</v>
+        <v>0.408559</v>
       </c>
       <c r="D96" t="n">
-        <v>0.405113</v>
+        <v>0.412016</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.286669</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.501026</v>
+        <v>0.500766</v>
       </c>
       <c r="C97" t="n">
-        <v>0.413298</v>
+        <v>0.42344</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418084</v>
+        <v>0.41273</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.278663</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.501483</v>
+        <v>0.50295</v>
       </c>
       <c r="C98" t="n">
-        <v>0.412097</v>
+        <v>0.438005</v>
       </c>
       <c r="D98" t="n">
-        <v>0.433545</v>
+        <v>0.411536</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.285014</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.502155</v>
+        <v>0.501827</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411945</v>
+        <v>0.452336</v>
       </c>
       <c r="D99" t="n">
-        <v>0.448261</v>
+        <v>0.410613</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.282445</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503434</v>
+        <v>0.502852</v>
       </c>
       <c r="C100" t="n">
-        <v>0.411821</v>
+        <v>0.466145</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464747</v>
+        <v>0.410867</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.284704</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504188</v>
+        <v>0.502288</v>
       </c>
       <c r="C101" t="n">
-        <v>0.411456</v>
+        <v>0.483933</v>
       </c>
       <c r="D101" t="n">
-        <v>0.479747</v>
+        <v>0.41155</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.284217</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5050480000000001</v>
+        <v>0.5044960000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.41179</v>
+        <v>0.501647</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495499</v>
+        <v>0.410031</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.283404</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.505727</v>
+        <v>0.506757</v>
       </c>
       <c r="C103" t="n">
-        <v>0.412221</v>
+        <v>0.517293</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512336</v>
+        <v>0.411357</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.290625</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.507186</v>
+        <v>0.5088819999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413549</v>
+        <v>0.529749</v>
       </c>
       <c r="D104" t="n">
-        <v>0.528492</v>
+        <v>0.413236</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.284468</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.509721</v>
+        <v>0.510089</v>
       </c>
       <c r="C105" t="n">
-        <v>0.415752</v>
+        <v>0.549778</v>
       </c>
       <c r="D105" t="n">
-        <v>0.546812</v>
+        <v>0.4153</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.294767</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.513536</v>
+        <v>0.513849</v>
       </c>
       <c r="C106" t="n">
-        <v>0.417811</v>
+        <v>0.564809</v>
       </c>
       <c r="D106" t="n">
-        <v>0.562264</v>
+        <v>0.416525</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.297617</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5184299999999999</v>
+        <v>0.519381</v>
       </c>
       <c r="C107" t="n">
-        <v>0.422151</v>
+        <v>0.53329</v>
       </c>
       <c r="D107" t="n">
-        <v>0.531802</v>
+        <v>0.421496</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.304236</v>
       </c>
     </row>
     <row r="108">
@@ -4733,10 +5051,13 @@
         <v>0.526087</v>
       </c>
       <c r="C108" t="n">
-        <v>0.548204</v>
+        <v>0.5437110000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.541658</v>
+        <v>0.549342</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.498662</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537293</v>
+        <v>0.536079</v>
       </c>
       <c r="C109" t="n">
-        <v>0.550078</v>
+        <v>0.557719</v>
       </c>
       <c r="D109" t="n">
-        <v>0.553252</v>
+        <v>0.547968</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.497911</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585763</v>
+        <v>0.586277</v>
       </c>
       <c r="C110" t="n">
-        <v>0.549489</v>
+        <v>0.575143</v>
       </c>
       <c r="D110" t="n">
-        <v>0.566496</v>
+        <v>0.550615</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.499628</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.584865</v>
+        <v>0.585196</v>
       </c>
       <c r="C111" t="n">
-        <v>0.549543</v>
+        <v>0.586633</v>
       </c>
       <c r="D111" t="n">
-        <v>0.578855</v>
+        <v>0.548963</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.501212</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.584487</v>
+        <v>0.585158</v>
       </c>
       <c r="C112" t="n">
-        <v>0.550809</v>
+        <v>0.597064</v>
       </c>
       <c r="D112" t="n">
-        <v>0.59229</v>
+        <v>0.551392</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5019670000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.583749</v>
+        <v>0.586286</v>
       </c>
       <c r="C113" t="n">
-        <v>0.550799</v>
+        <v>0.611273</v>
       </c>
       <c r="D113" t="n">
-        <v>0.60938</v>
+        <v>0.550851</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.503628</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.586916</v>
+        <v>0.585816</v>
       </c>
       <c r="C114" t="n">
-        <v>0.55146</v>
+        <v>0.624295</v>
       </c>
       <c r="D114" t="n">
-        <v>0.620897</v>
+        <v>0.551576</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.504789</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.586395</v>
+        <v>0.587255</v>
       </c>
       <c r="C115" t="n">
-        <v>0.554022</v>
+        <v>0.637983</v>
       </c>
       <c r="D115" t="n">
-        <v>0.640501</v>
+        <v>0.551277</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5052179999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.589514</v>
+        <v>0.589657</v>
       </c>
       <c r="C116" t="n">
-        <v>0.555182</v>
+        <v>0.654092</v>
       </c>
       <c r="D116" t="n">
-        <v>0.657936</v>
+        <v>0.5538650000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.506463</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.589466</v>
+        <v>0.591249</v>
       </c>
       <c r="C117" t="n">
-        <v>0.555745</v>
+        <v>0.670218</v>
       </c>
       <c r="D117" t="n">
-        <v>0.673682</v>
+        <v>0.556611</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.509334</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.592139</v>
+        <v>0.592758</v>
       </c>
       <c r="C118" t="n">
-        <v>0.556189</v>
+        <v>0.683885</v>
       </c>
       <c r="D118" t="n">
-        <v>0.689326</v>
+        <v>0.5563360000000001</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.511898</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.595641</v>
+        <v>0.597257</v>
       </c>
       <c r="C119" t="n">
-        <v>0.559429</v>
+        <v>0.709152</v>
       </c>
       <c r="D119" t="n">
-        <v>0.708422</v>
+        <v>0.560859</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5163219999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.599743</v>
+        <v>0.603436</v>
       </c>
       <c r="C120" t="n">
-        <v>0.563877</v>
+        <v>0.717085</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721262</v>
+        <v>0.562862</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.520216</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606688</v>
+        <v>0.606882</v>
       </c>
       <c r="C121" t="n">
-        <v>0.568577</v>
+        <v>0.644737</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640585</v>
+        <v>0.571979</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.524716</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.616081</v>
+        <v>0.615846</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5765670000000001</v>
+        <v>0.652474</v>
       </c>
       <c r="D122" t="n">
-        <v>0.652271</v>
+        <v>0.576615</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.535209</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628112</v>
+        <v>0.6288820000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.709317</v>
+        <v>0.66775</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663107</v>
+        <v>0.710419</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.717514</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.731016</v>
+        <v>0.726765</v>
       </c>
       <c r="C124" t="n">
-        <v>0.708876</v>
+        <v>0.67898</v>
       </c>
       <c r="D124" t="n">
-        <v>0.679194</v>
+        <v>0.707402</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.7183850000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.72782</v>
+        <v>0.727619</v>
       </c>
       <c r="C125" t="n">
-        <v>0.709546</v>
+        <v>0.692537</v>
       </c>
       <c r="D125" t="n">
-        <v>0.690012</v>
+        <v>0.711736</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.719355</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.72882</v>
+        <v>0.72923</v>
       </c>
       <c r="C126" t="n">
-        <v>0.713472</v>
+        <v>0.708487</v>
       </c>
       <c r="D126" t="n">
-        <v>0.703457</v>
+        <v>0.711362</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.720704</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.730858</v>
+        <v>0.730795</v>
       </c>
       <c r="C127" t="n">
-        <v>0.711213</v>
+        <v>0.720924</v>
       </c>
       <c r="D127" t="n">
-        <v>0.716841</v>
+        <v>0.711652</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.724559</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.729895</v>
+        <v>0.732165</v>
       </c>
       <c r="C128" t="n">
-        <v>0.714121</v>
+        <v>0.733029</v>
       </c>
       <c r="D128" t="n">
-        <v>0.730984</v>
+        <v>0.7107560000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.724587</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730984</v>
+        <v>0.732175</v>
       </c>
       <c r="C129" t="n">
-        <v>0.713862</v>
+        <v>0.7440870000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.747444</v>
+        <v>0.715264</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.72587</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.734148</v>
+        <v>0.733666</v>
       </c>
       <c r="C130" t="n">
-        <v>0.715188</v>
+        <v>0.760163</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761053</v>
+        <v>0.716754</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.729613</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.73527</v>
+        <v>0.735641</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7164199999999999</v>
+        <v>0.777517</v>
       </c>
       <c r="D131" t="n">
-        <v>0.773451</v>
+        <v>0.718002</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.730731</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.737909</v>
+        <v>0.7391720000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7206050000000001</v>
+        <v>0.793564</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7901860000000001</v>
+        <v>0.719367</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.733506</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.742097</v>
+        <v>0.741013</v>
       </c>
       <c r="C133" t="n">
-        <v>0.722374</v>
+        <v>0.812889</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807376</v>
+        <v>0.7226630000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.73776</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.747779</v>
+        <v>0.745767</v>
       </c>
       <c r="C134" t="n">
-        <v>0.726344</v>
+        <v>0.827606</v>
       </c>
       <c r="D134" t="n">
-        <v>0.827219</v>
+        <v>0.7260219999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.743271</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.754601</v>
+        <v>0.753728</v>
       </c>
       <c r="C135" t="n">
-        <v>0.731911</v>
+        <v>0.696058</v>
       </c>
       <c r="D135" t="n">
-        <v>0.695871</v>
+        <v>0.731134</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7505540000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.761505</v>
+        <v>0.761993</v>
       </c>
       <c r="C136" t="n">
-        <v>0.739988</v>
+        <v>0.705555</v>
       </c>
       <c r="D136" t="n">
-        <v>0.705525</v>
+        <v>0.7397590000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.759664</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.773496</v>
+        <v>0.772303</v>
       </c>
       <c r="C137" t="n">
-        <v>0.844964</v>
+        <v>0.716886</v>
       </c>
       <c r="D137" t="n">
-        <v>0.716137</v>
+        <v>0.846063</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.852586</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8581490000000001</v>
+        <v>0.857715</v>
       </c>
       <c r="C138" t="n">
-        <v>0.84576</v>
+        <v>0.727305</v>
       </c>
       <c r="D138" t="n">
-        <v>0.727217</v>
+        <v>0.846534</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.853326</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.857619</v>
+        <v>0.857932</v>
       </c>
       <c r="C139" t="n">
-        <v>0.846152</v>
+        <v>0.739626</v>
       </c>
       <c r="D139" t="n">
-        <v>0.73961</v>
+        <v>0.847608</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.854838</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.859047</v>
+        <v>0.8594580000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.846673</v>
+        <v>0.75235</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752542</v>
+        <v>0.846989</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.856245</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.859043</v>
+        <v>0.859611</v>
       </c>
       <c r="C141" t="n">
-        <v>0.84892</v>
+        <v>0.764988</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766229</v>
+        <v>0.847152</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.856779</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.859253</v>
+        <v>0.859258</v>
       </c>
       <c r="C142" t="n">
-        <v>0.848709</v>
+        <v>0.78235</v>
       </c>
       <c r="D142" t="n">
-        <v>0.779747</v>
+        <v>0.848081</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.859588</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.861563</v>
+        <v>0.861527</v>
       </c>
       <c r="C143" t="n">
-        <v>0.850319</v>
+        <v>0.796528</v>
       </c>
       <c r="D143" t="n">
-        <v>0.795276</v>
+        <v>0.849502</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.860762</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196861</v>
+                  <v>0.0194751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197442</v>
+                  <v>0.0195629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0197441</v>
+                  <v>0.019489</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0197505</v>
+                  <v>0.0195779</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0199072</v>
+                  <v>0.0196134</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020167</v>
+                  <v>0.0197913</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0201829</v>
+                  <v>0.0199155</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0205995</v>
+                  <v>0.0201101</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193044</v>
+                  <v>0.0196084</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0194655</v>
+                  <v>0.0195614</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196123</v>
+                  <v>0.0196347</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198252</v>
+                  <v>0.0198925</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198606</v>
+                  <v>0.0200039</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0200329</v>
+                  <v>0.0201837</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200361</v>
+                  <v>0.0200675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.020201</v>
+                  <v>0.0201647</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0201688</v>
+                  <v>0.0202739</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0204639</v>
+                  <v>0.0202086</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.020687</v>
+                  <v>0.0205069</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0209861</v>
+                  <v>0.0207083</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0214982</v>
+                  <v>0.0211543</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0232463</v>
+                  <v>0.0230484</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203659</v>
+                  <v>0.0206813</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204979</v>
+                  <v>0.0207405</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206548</v>
+                  <v>0.0207665</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208464</v>
+                  <v>0.0209769</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210504</v>
+                  <v>0.021056</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212226</v>
+                  <v>0.0212252</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216188</v>
+                  <v>0.0213505</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0218555</v>
+                  <v>0.0215039</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0220454</v>
+                  <v>0.0217981</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221091</v>
+                  <v>0.0221214</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0229123</v>
+                  <v>0.023275</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.023554</v>
+                  <v>0.0250124</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.025525</v>
+                  <v>0.0266118</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0295991</v>
+                  <v>0.0311996</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226652</v>
+                  <v>0.0216211</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226726</v>
+                  <v>0.0218931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0230688</v>
+                  <v>0.0219329</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0220955</v>
+                  <v>0.0221215</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221313</v>
+                  <v>0.0222904</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224242</v>
+                  <v>0.0224773</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226252</v>
+                  <v>0.0228221</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0229498</v>
+                  <v>0.0230365</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0233683</v>
+                  <v>0.0235124</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024254</v>
+                  <v>0.02408</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0251133</v>
+                  <v>0.025044</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0266522</v>
+                  <v>0.0279553</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.029904</v>
+                  <v>0.0304389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0329878</v>
+                  <v>0.0353825</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0389153</v>
+                  <v>0.0392081</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231873</v>
+                  <v>0.0230524</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233782</v>
+                  <v>0.0234244</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234553</v>
+                  <v>0.0234108</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0236761</v>
+                  <v>0.0239286</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239042</v>
+                  <v>0.0240818</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0242977</v>
+                  <v>0.024439</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0246093</v>
+                  <v>0.0247787</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252684</v>
+                  <v>0.0252449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0261573</v>
+                  <v>0.0265282</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0274839</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0293145</v>
+                  <v>0.0294202</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0323043</v>
+                  <v>0.032256</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0357062</v>
+                  <v>0.035998</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0407992</v>
+                  <v>0.0410284</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291067</v>
+                  <v>0.0292854</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0292957</v>
+                  <v>0.0293731</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294658</v>
+                  <v>0.0295223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0296458</v>
+                  <v>0.0297504</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298446</v>
+                  <v>0.0300985</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303077</v>
+                  <v>0.0302054</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0305738</v>
+                  <v>0.030751</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311089</v>
+                  <v>0.0311922</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.031958</v>
+                  <v>0.0320559</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331584</v>
+                  <v>0.0331467</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348142</v>
+                  <v>0.0348991</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0371248</v>
+                  <v>0.0373412</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0406293</v>
+                  <v>0.0409062</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0455093</v>
+                  <v>0.0457293</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.054876</v>
+                  <v>0.0555257</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0551749</v>
+                  <v>0.0577904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0552561</v>
+                  <v>0.055792</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0555251</v>
+                  <v>0.0560207</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0557353</v>
+                  <v>0.0561087</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0559444</v>
+                  <v>0.0563414</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056275</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0565668</v>
+                  <v>0.0571958</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0570285</v>
+                  <v>0.057884</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0577995</v>
+                  <v>0.0582425</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0587407</v>
+                  <v>0.0592452</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0605897</v>
+                  <v>0.0608211</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0631306</v>
+                  <v>0.0633513</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06695570000000001</v>
+                  <v>0.06725390000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.09221509999999999</v>
+                  <v>0.0858208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0858753</v>
+                  <v>0.08577170000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594309999999999</v>
+                  <v>0.08594590000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0860457</v>
+                  <v>0.08606900000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0861672</v>
+                  <v>0.08616749999999999</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0863088</v>
+                  <v>0.08662789999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0865691</v>
+                  <v>0.0864133</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0868321</v>
+                  <v>0.088181</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08713460000000001</v>
+                  <v>0.0871123</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08769159999999999</v>
+                  <v>0.0876926</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0958198</v>
+                  <v>0.0885166</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0898485</v>
+                  <v>0.0897474</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.095514</v>
+                  <v>0.09172080000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.09515</v>
+                  <v>0.0949308</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100163</v>
+                  <v>0.0997827</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.1074</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.10739</v>
+                  <v>0.108902</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.107504</v>
+                  <v>0.109017</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.107377</v>
+                  <v>0.109219</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114714</v>
+                  <v>0.109295</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108009</v>
+                  <v>0.109582</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.108717</v>
+                  <v>0.109729</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109426</v>
+                  <v>0.110229</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110397</v>
+                  <v>0.110875</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111361</v>
+                  <v>0.111655</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112842</v>
+                  <v>0.112821</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114762</v>
+                  <v>0.114619</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117867</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.124715</v>
+                  <v>0.122013</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139793</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140249</v>
+                  <v>0.139131</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139831</v>
+                  <v>0.139496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139692</v>
+                  <v>0.139621</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.139658</v>
+                  <v>0.13995</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.139443</v>
+                  <v>0.14025</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.139582</v>
+                  <v>0.140479</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.139867</v>
+                  <v>0.142087</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.14053</v>
+                  <v>0.141701</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141002</v>
+                  <v>0.142135</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.142003</v>
+                  <v>0.143369</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.143615</v>
+                  <v>0.14492</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145983</v>
+                  <v>0.147621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150084</v>
+                  <v>0.151632</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.158033</v>
+                  <v>0.157728</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157812</v>
+                  <v>0.157774</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157958</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158179</v>
+                  <v>0.158086</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158157</v>
+                  <v>0.158035</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158476</v>
+                  <v>0.178791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.021348</v>
+                  <v>0.0365145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0214877</v>
+                  <v>0.0396988</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0216247</v>
+                  <v>0.0447642</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0218795</v>
+                  <v>0.0498033</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0221566</v>
+                  <v>0.0537687</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0227802</v>
+                  <v>0.0315887</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0236896</v>
+                  <v>0.0336489</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0202692</v>
+                  <v>0.0356574</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207092</v>
+                  <v>0.0376125</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0210303</v>
+                  <v>0.0405804</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213025</v>
+                  <v>0.0447308</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0213527</v>
+                  <v>0.047286</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0218472</v>
+                  <v>0.0503759</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0222591</v>
+                  <v>0.0539423</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0226628</v>
+                  <v>0.0578276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022977</v>
+                  <v>0.0614582</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233228</v>
+                  <v>0.0653006</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0238671</v>
+                  <v>0.0680994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0246036</v>
+                  <v>0.0704849</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0252305</v>
+                  <v>0.0446121</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0277472</v>
+                  <v>0.047444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0217618</v>
+                  <v>0.0493842</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0219587</v>
+                  <v>0.0514984</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0222026</v>
+                  <v>0.0543429</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0224898</v>
+                  <v>0.0563413</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0228074</v>
+                  <v>0.0616033</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0232103</v>
+                  <v>0.0643247</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236661</v>
+                  <v>0.0662176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0240376</v>
+                  <v>0.0698588</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0245248</v>
+                  <v>0.07215820000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0252023</v>
+                  <v>0.0748846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0257564</v>
+                  <v>0.0769565</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0270565</v>
+                  <v>0.0791249</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0287934</v>
+                  <v>0.0519505</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0324096</v>
+                  <v>0.0537373</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0236684</v>
+                  <v>0.0560572</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0241302</v>
+                  <v>0.0580173</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0244332</v>
+                  <v>0.0596857</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0245736</v>
+                  <v>0.0624772</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239295</v>
+                  <v>0.06461600000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0243207</v>
+                  <v>0.0672449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0252591</v>
+                  <v>0.06969930000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0256591</v>
+                  <v>0.07249079999999999</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0259074</v>
+                  <v>0.07484499999999999</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0266036</v>
+                  <v>0.0778189</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.027689</v>
+                  <v>0.0800609</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291986</v>
+                  <v>0.0823764</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0317988</v>
+                  <v>0.0844506</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0360721</v>
+                  <v>0.0578649</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.023394</v>
+                  <v>0.0591875</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0236044</v>
+                  <v>0.0615245</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023867</v>
+                  <v>0.0639034</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0241515</v>
+                  <v>0.0656783</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0244875</v>
+                  <v>0.0679548</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0249477</v>
+                  <v>0.0705563</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253774</v>
+                  <v>0.0733139</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0259302</v>
+                  <v>0.0760695</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0265094</v>
+                  <v>0.07903490000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274929</v>
+                  <v>0.080972</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0286629</v>
+                  <v>0.08393299999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303873</v>
+                  <v>0.08583780000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0330881</v>
+                  <v>0.08868760000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0367975</v>
+                  <v>0.0634653</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0428056</v>
+                  <v>0.0660341</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0248565</v>
+                  <v>0.068684</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254945</v>
+                  <v>0.0716908</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.025829</v>
+                  <v>0.0754389</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0266013</v>
+                  <v>0.0780781</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0265404</v>
+                  <v>0.08159859999999999</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270211</v>
+                  <v>0.0866746</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.027483</v>
+                  <v>0.0889358</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281629</v>
+                  <v>0.0945853</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0291473</v>
+                  <v>0.0982999</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0302343</v>
+                  <v>0.102978</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321709</v>
+                  <v>0.106901</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0346453</v>
+                  <v>0.112317</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.038211</v>
+                  <v>0.09733840000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0437751</v>
+                  <v>0.101335</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0369618</v>
+                  <v>0.105975</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0377666</v>
+                  <v>0.110132</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385693</v>
+                  <v>0.115172</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0393414</v>
+                  <v>0.121209</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0400166</v>
+                  <v>0.126205</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0406419</v>
+                  <v>0.131141</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0415556</v>
+                  <v>0.137704</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0424017</v>
+                  <v>0.143051</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0449697</v>
+                  <v>0.149748</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0442997</v>
+                  <v>0.154568</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0456659</v>
+                  <v>0.16029</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.047738</v>
+                  <v>0.166513</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0505484</v>
+                  <v>0.145912</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0549595</v>
+                  <v>0.149301</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0715803</v>
+                  <v>0.152309</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0719887</v>
+                  <v>0.157221</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0723747</v>
+                  <v>0.160664</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0728399</v>
+                  <v>0.166029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07350520000000001</v>
+                  <v>0.170781</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0740489</v>
+                  <v>0.175608</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0746351</v>
+                  <v>0.181033</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0754398</v>
+                  <v>0.186455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07621650000000001</v>
+                  <v>0.192398</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0796057</v>
+                  <v>0.199037</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07860830000000001</v>
+                  <v>0.203931</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0804361</v>
+                  <v>0.210695</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0829439</v>
+                  <v>0.216678</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08686770000000001</v>
+                  <v>0.181859</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0889514</v>
+                  <v>0.199868</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.089729</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0904097</v>
+                  <v>0.192797</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0913191</v>
+                  <v>0.196994</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0921503</v>
+                  <v>0.201949</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0931935</v>
+                  <v>0.206787</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09714059999999999</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09524050000000001</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.096618</v>
+                  <v>0.223918</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0979674</v>
+                  <v>0.229518</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0996447</v>
+                  <v>0.23542</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.101745</v>
+                  <v>0.241207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104375</v>
+                  <v>0.247384</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108312</v>
+                  <v>0.199268</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114594</v>
+                  <v>0.202036</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106984</v>
+                  <v>0.205435</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.119349</v>
+                  <v>0.209778</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109142</v>
+                  <v>0.213788</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110214</v>
+                  <v>0.218497</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111475</v>
+                  <v>0.22327</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112737</v>
+                  <v>0.228488</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11413</v>
+                  <v>0.234375</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115719</v>
+                  <v>0.240447</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117336</v>
+                  <v>0.24599</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.119263</v>
+                  <v>0.251978</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121651</v>
+                  <v>0.257944</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.124577</v>
+                  <v>0.268641</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128814</v>
+                  <v>0.209616</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13534</v>
+                  <v>0.212749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118414</v>
+                  <v>0.216194</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119444</v>
+                  <v>0.220147</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120531</v>
+                  <v>0.224171</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121662</v>
+                  <v>0.229194</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122894</v>
+                  <v>0.234298</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.12405</v>
+                  <v>0.239466</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125504</v>
+                  <v>0.245367</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0336857</v>
+                  <v>0.0196261</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0394849</v>
+                  <v>0.0197912</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0423094</v>
+                  <v>0.0198901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0461472</v>
+                  <v>0.0199582</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0507523</v>
+                  <v>0.0201314</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.030305</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0319421</v>
+                  <v>0.0207955</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0344693</v>
+                  <v>0.0194471</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0368055</v>
+                  <v>0.0195449</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0393418</v>
+                  <v>0.019867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0427875</v>
+                  <v>0.0201596</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0475742</v>
+                  <v>0.0201363</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0488059</v>
+                  <v>0.0205715</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0525665</v>
+                  <v>0.021072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0568101</v>
+                  <v>0.0210413</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0604767</v>
+                  <v>0.0212453</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0639252</v>
+                  <v>0.0213354</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0675722</v>
+                  <v>0.0214148</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0692373</v>
+                  <v>0.0218501</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0444481</v>
+                  <v>0.0224228</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0475408</v>
+                  <v>0.0237556</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0489493</v>
+                  <v>0.0210571</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0508013</v>
+                  <v>0.0212586</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0535126</v>
+                  <v>0.0214644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0556632</v>
+                  <v>0.0215637</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0589148</v>
+                  <v>0.021764</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0614351</v>
+                  <v>0.0221105</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.06435200000000001</v>
+                  <v>0.022421</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0664998</v>
+                  <v>0.0226251</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07017470000000001</v>
+                  <v>0.0229748</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0725022</v>
+                  <v>0.02343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0762954</v>
+                  <v>0.0239333</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0772482</v>
+                  <v>0.0247176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0518274</v>
+                  <v>0.0263657</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0539981</v>
+                  <v>0.0292434</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0569381</v>
+                  <v>0.0221968</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0590617</v>
+                  <v>0.0224122</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0616864</v>
+                  <v>0.0226233</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0607154</v>
+                  <v>0.0229104</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06472219999999999</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0669053</v>
+                  <v>0.0235225</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06983350000000001</v>
+                  <v>0.0245394</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0728838</v>
+                  <v>0.0242028</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0752324</v>
+                  <v>0.0246188</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.07806680000000001</v>
+                  <v>0.0255792</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0802983</v>
+                  <v>0.0258658</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0828279</v>
+                  <v>0.0269256</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0846045</v>
+                  <v>0.029475</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0575865</v>
+                  <v>0.0328029</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0593047</v>
+                  <v>0.0229759</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0611502</v>
+                  <v>0.0231768</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0636737</v>
+                  <v>0.0234395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0657292</v>
+                  <v>0.023729</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.06833930000000001</v>
+                  <v>0.0240074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0707661</v>
+                  <v>0.024327</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.073903</v>
+                  <v>0.0247229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0761425</v>
+                  <v>0.025276</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.078791</v>
+                  <v>0.0257848</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.08170040000000001</v>
+                  <v>0.0264266</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0839515</v>
+                  <v>0.0273739</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0861381</v>
+                  <v>0.0289127</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.088853</v>
+                  <v>0.0313813</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0638098</v>
+                  <v>0.0347866</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.06650739999999999</v>
+                  <v>0.0405541</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0691383</v>
+                  <v>0.0251501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0715653</v>
+                  <v>0.0254762</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0745817</v>
+                  <v>0.0257275</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.07851610000000001</v>
+                  <v>0.0260131</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0814839</v>
+                  <v>0.0263866</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0860113</v>
+                  <v>0.0261122</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.09014419999999999</v>
+                  <v>0.0272077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0948281</v>
+                  <v>0.0281149</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0981105</v>
+                  <v>0.0283556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.101526</v>
+                  <v>0.0292696</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.107487</v>
+                  <v>0.0306653</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112807</v>
+                  <v>0.0333493</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0965601</v>
+                  <v>0.0363328</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101097</v>
+                  <v>0.0412171</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.106082</v>
+                  <v>0.0356659</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110975</v>
+                  <v>0.0363526</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.114995</v>
+                  <v>0.0371667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.120023</v>
+                  <v>0.0379171</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.125893</v>
+                  <v>0.0386585</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.130762</v>
+                  <v>0.0393656</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.136855</v>
+                  <v>0.0400877</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.142491</v>
+                  <v>0.0412195</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.148735</v>
+                  <v>0.0419461</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154806</v>
+                  <v>0.0430021</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.160276</v>
+                  <v>0.0442752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.165942</v>
+                  <v>0.046052</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145194</v>
+                  <v>0.0487434</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.148853</v>
+                  <v>0.0533016</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152457</v>
+                  <v>0.0713101</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.156847</v>
+                  <v>0.07162789999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.16093</v>
+                  <v>0.0721873</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.165502</v>
+                  <v>0.0726131</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.171025</v>
+                  <v>0.0731451</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.176145</v>
+                  <v>0.073726</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181854</v>
+                  <v>0.0743772</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.187152</v>
+                  <v>0.0751235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192849</v>
+                  <v>0.0758935</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199082</v>
+                  <v>0.07695730000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205029</v>
+                  <v>0.07818170000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.211115</v>
+                  <v>0.0798373</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217795</v>
+                  <v>0.08226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181761</v>
+                  <v>0.0859181</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.184875</v>
+                  <v>0.08945119999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18853</v>
+                  <v>0.0901479</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.193379</v>
+                  <v>0.0909215</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196792</v>
+                  <v>0.0917118</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201399</v>
+                  <v>0.09258719999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206374</v>
+                  <v>0.09357890000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.211734</v>
+                  <v>0.09464</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.218001</v>
+                  <v>0.0957011</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223144</v>
+                  <v>0.0970447</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229767</v>
+                  <v>0.0984414</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.235872</v>
+                  <v>0.101572</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.240776</v>
+                  <v>0.102157</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247637</v>
+                  <v>0.104633</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198997</v>
+                  <v>0.108505</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202385</v>
+                  <v>0.114455</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205971</v>
+                  <v>0.107135</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209681</v>
+                  <v>0.10814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213857</v>
+                  <v>0.109179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218441</v>
+                  <v>0.110339</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.223282</v>
+                  <v>0.111555</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228864</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234598</v>
+                  <v>0.11438</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240649</v>
+                  <v>0.115714</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.251617</v>
+                  <v>0.117191</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252683</v>
+                  <v>0.11914</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.258786</v>
+                  <v>0.121337</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.264415</v>
+                  <v>0.127893</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.20958</v>
+                  <v>0.128374</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21278</v>
+                  <v>0.134621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216352</v>
+                  <v>0.118436</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219749</v>
+                  <v>0.119542</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224359</v>
+                  <v>0.120555</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.228913</v>
+                  <v>0.124935</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236829</v>
+                  <v>0.12278</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239299</v>
+                  <v>0.123993</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.2453</v>
+                  <v>0.125349</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0206785</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0207813</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0208833</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0207783</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0207749</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.020897</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0212215</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0216661</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0216931</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219577</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0219969</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0221826</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225411</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0228079</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0227173</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0227772</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0230473</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0229634</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0230157</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0234205</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0244919</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.023336</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0235586</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0238225</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237382</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0238801</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0241333</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0244564</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0245499</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0247842</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0251216</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0254613</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0260233</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0270699</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0306774</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245451</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247372</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.024937</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0252111</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253094</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0255793</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0257865</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0260194</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026382</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0268562</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0274538</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0286629</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.030666</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0341753</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0248564</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0250656</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0253725</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0256172</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.025785</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0260479</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265271</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0269807</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0273609</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0280786</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0290054</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0305336</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0329544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0362898</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0419218</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.026637</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0267861</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0277745</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0273026</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0277491</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281135</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0285725</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0291539</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0301281</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315789</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.032797</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0350439</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0383708</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0434181</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335094</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.033843</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0344867</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0348016</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0352056</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0360305</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0367309</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372919</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0386863</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0396944</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0417616</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0474931</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.052939</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.06786490000000001</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.068254</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06875249999999999</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0691842</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.06990540000000001</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07045410000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0711215</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0718926</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0728032</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07412000000000001</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.07561420000000001</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0777135</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.08079749999999999</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0859578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0926965</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0931657</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.09363</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0942807</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0949342</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0956124</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09643110000000001</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0974578</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.09865409999999999</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.099985</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.101915</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.10417</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107355</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.111855</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119295</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111174</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.113436</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.112627</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113487</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114491</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.116157</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.116856</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.118562</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120523</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.121962</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124397</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.127842</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.14034</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.13989</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123322</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124097</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.124887</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126237</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.12706</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127951</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129431</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.111461</v>
+        <v>0.110925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133915</v>
+        <v>0.106977</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119859</v>
+        <v>0.120419</v>
       </c>
       <c r="E2" t="n">
-        <v>0.120777</v>
+        <v>0.121402</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111656</v>
+        <v>0.11218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139881</v>
+        <v>0.108161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.120169</v>
+        <v>0.120662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.120614</v>
+        <v>0.121569</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.109818</v>
+        <v>0.111834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145551</v>
+        <v>0.108471</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12087</v>
+        <v>0.120691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120906</v>
+        <v>0.121475</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111448</v>
+        <v>0.114042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.153962</v>
+        <v>0.108441</v>
       </c>
       <c r="D5" t="n">
-        <v>0.120687</v>
+        <v>0.121928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121427</v>
+        <v>0.121914</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112792</v>
+        <v>0.114656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159457</v>
+        <v>0.109265</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122206</v>
+        <v>0.121719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.122178</v>
+        <v>0.122604</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11393</v>
+        <v>0.115889</v>
       </c>
       <c r="C7" t="n">
-        <v>0.132805</v>
+        <v>0.110963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122594</v>
+        <v>0.123857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.123081</v>
+        <v>0.123834</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116654</v>
+        <v>0.11757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.134467</v>
+        <v>0.113134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124425</v>
+        <v>0.125458</v>
       </c>
       <c r="E8" t="n">
-        <v>0.125998</v>
+        <v>0.126158</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119109</v>
+        <v>0.121739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.139213</v>
+        <v>0.117613</v>
       </c>
       <c r="D9" t="n">
-        <v>0.126124</v>
+        <v>0.12582</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12253</v>
+        <v>0.124086</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12106</v>
+        <v>0.122355</v>
       </c>
       <c r="C10" t="n">
-        <v>0.144898</v>
+        <v>0.111843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.126567</v>
+        <v>0.126054</v>
       </c>
       <c r="E10" t="n">
-        <v>0.123318</v>
+        <v>0.123289</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121153</v>
+        <v>0.122214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.147789</v>
+        <v>0.113039</v>
       </c>
       <c r="D11" t="n">
-        <v>0.126451</v>
+        <v>0.126289</v>
       </c>
       <c r="E11" t="n">
-        <v>0.123396</v>
+        <v>0.123838</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121492</v>
+        <v>0.122224</v>
       </c>
       <c r="C12" t="n">
-        <v>0.152883</v>
+        <v>0.113987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127043</v>
+        <v>0.126993</v>
       </c>
       <c r="E12" t="n">
-        <v>0.123254</v>
+        <v>0.124108</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122243</v>
+        <v>0.123649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.158382</v>
+        <v>0.11156</v>
       </c>
       <c r="D13" t="n">
-        <v>0.127543</v>
+        <v>0.126952</v>
       </c>
       <c r="E13" t="n">
-        <v>0.123033</v>
+        <v>0.123525</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122827</v>
+        <v>0.123891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.163161</v>
+        <v>0.111487</v>
       </c>
       <c r="D14" t="n">
-        <v>0.127938</v>
+        <v>0.127606</v>
       </c>
       <c r="E14" t="n">
-        <v>0.123477</v>
+        <v>0.124318</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123526</v>
+        <v>0.123907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.169925</v>
+        <v>0.11414</v>
       </c>
       <c r="D15" t="n">
-        <v>0.128219</v>
+        <v>0.127915</v>
       </c>
       <c r="E15" t="n">
-        <v>0.123511</v>
+        <v>0.124703</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122825</v>
+        <v>0.124056</v>
       </c>
       <c r="C16" t="n">
-        <v>0.176035</v>
+        <v>0.113899</v>
       </c>
       <c r="D16" t="n">
-        <v>0.128497</v>
+        <v>0.128446</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12396</v>
+        <v>0.124332</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12386</v>
+        <v>0.123428</v>
       </c>
       <c r="C17" t="n">
-        <v>0.181659</v>
+        <v>0.114794</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1286</v>
+        <v>0.128662</v>
       </c>
       <c r="E17" t="n">
-        <v>0.124134</v>
+        <v>0.124495</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123479</v>
+        <v>0.124194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.186762</v>
+        <v>0.11613</v>
       </c>
       <c r="D18" t="n">
-        <v>0.12913</v>
+        <v>0.128893</v>
       </c>
       <c r="E18" t="n">
-        <v>0.124781</v>
+        <v>0.125511</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125222</v>
+        <v>0.12576</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192404</v>
+        <v>0.115244</v>
       </c>
       <c r="D19" t="n">
-        <v>0.129815</v>
+        <v>0.129623</v>
       </c>
       <c r="E19" t="n">
-        <v>0.125048</v>
+        <v>0.125062</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125545</v>
+        <v>0.12558</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197333</v>
+        <v>0.117485</v>
       </c>
       <c r="D20" t="n">
-        <v>0.130167</v>
+        <v>0.130075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.126552</v>
+        <v>0.126652</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127466</v>
+        <v>0.12756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.153588</v>
+        <v>0.117883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.131963</v>
+        <v>0.131662</v>
       </c>
       <c r="E21" t="n">
-        <v>0.127235</v>
+        <v>0.128255</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130167</v>
+        <v>0.131119</v>
       </c>
       <c r="C22" t="n">
-        <v>0.157301</v>
+        <v>0.121081</v>
       </c>
       <c r="D22" t="n">
-        <v>0.135644</v>
+        <v>0.135326</v>
       </c>
       <c r="E22" t="n">
-        <v>0.131572</v>
+        <v>0.131848</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.137</v>
+        <v>0.139477</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161985</v>
+        <v>0.12792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.138489</v>
+        <v>0.136657</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132622</v>
+        <v>0.130493</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133818</v>
+        <v>0.133591</v>
       </c>
       <c r="C24" t="n">
-        <v>0.167196</v>
+        <v>0.121903</v>
       </c>
       <c r="D24" t="n">
-        <v>0.137552</v>
+        <v>0.136267</v>
       </c>
       <c r="E24" t="n">
-        <v>0.131342</v>
+        <v>0.132756</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133442</v>
+        <v>0.133847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.172827</v>
+        <v>0.121479</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13629</v>
+        <v>0.136822</v>
       </c>
       <c r="E25" t="n">
-        <v>0.131478</v>
+        <v>0.131939</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133556</v>
+        <v>0.133785</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175122</v>
+        <v>0.125002</v>
       </c>
       <c r="D26" t="n">
-        <v>0.136929</v>
+        <v>0.136838</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132496</v>
+        <v>0.130735</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133754</v>
+        <v>0.133614</v>
       </c>
       <c r="C27" t="n">
-        <v>0.181369</v>
+        <v>0.122896</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137136</v>
+        <v>0.137906</v>
       </c>
       <c r="E27" t="n">
-        <v>0.130734</v>
+        <v>0.133148</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133877</v>
+        <v>0.133873</v>
       </c>
       <c r="C28" t="n">
-        <v>0.186653</v>
+        <v>0.122474</v>
       </c>
       <c r="D28" t="n">
-        <v>0.137327</v>
+        <v>0.137307</v>
       </c>
       <c r="E28" t="n">
-        <v>0.130549</v>
+        <v>0.132231</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134445</v>
+        <v>0.13413</v>
       </c>
       <c r="C29" t="n">
-        <v>0.191587</v>
+        <v>0.122503</v>
       </c>
       <c r="D29" t="n">
-        <v>0.137905</v>
+        <v>0.137523</v>
       </c>
       <c r="E29" t="n">
-        <v>0.130918</v>
+        <v>0.131664</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134728</v>
+        <v>0.134697</v>
       </c>
       <c r="C30" t="n">
-        <v>0.195173</v>
+        <v>0.123029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.138073</v>
+        <v>0.138101</v>
       </c>
       <c r="E30" t="n">
-        <v>0.132154</v>
+        <v>0.131604</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134886</v>
+        <v>0.135673</v>
       </c>
       <c r="C31" t="n">
-        <v>0.201837</v>
+        <v>0.124845</v>
       </c>
       <c r="D31" t="n">
-        <v>0.137656</v>
+        <v>0.137943</v>
       </c>
       <c r="E31" t="n">
-        <v>0.13258</v>
+        <v>0.132692</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135788</v>
+        <v>0.135816</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206667</v>
+        <v>0.124987</v>
       </c>
       <c r="D32" t="n">
-        <v>0.138372</v>
+        <v>0.139588</v>
       </c>
       <c r="E32" t="n">
-        <v>0.133236</v>
+        <v>0.134703</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13695</v>
+        <v>0.136928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210486</v>
+        <v>0.126289</v>
       </c>
       <c r="D33" t="n">
-        <v>0.140152</v>
+        <v>0.13946</v>
       </c>
       <c r="E33" t="n">
-        <v>0.133602</v>
+        <v>0.134072</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138216</v>
+        <v>0.139008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215204</v>
+        <v>0.129597</v>
       </c>
       <c r="D34" t="n">
-        <v>0.141</v>
+        <v>0.141356</v>
       </c>
       <c r="E34" t="n">
-        <v>0.136023</v>
+        <v>0.135063</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141306</v>
+        <v>0.142552</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168663</v>
+        <v>0.132573</v>
       </c>
       <c r="D35" t="n">
-        <v>0.144549</v>
+        <v>0.144274</v>
       </c>
       <c r="E35" t="n">
-        <v>0.139004</v>
+        <v>0.140454</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147843</v>
+        <v>0.147821</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172556</v>
+        <v>0.138705</v>
       </c>
       <c r="D36" t="n">
-        <v>0.151188</v>
+        <v>0.151261</v>
       </c>
       <c r="E36" t="n">
-        <v>0.147699</v>
+        <v>0.147783</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155067</v>
+        <v>0.155175</v>
       </c>
       <c r="C37" t="n">
-        <v>0.176247</v>
+        <v>0.147073</v>
       </c>
       <c r="D37" t="n">
-        <v>0.149289</v>
+        <v>0.149047</v>
       </c>
       <c r="E37" t="n">
-        <v>0.148456</v>
+        <v>0.14888</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145377</v>
+        <v>0.145145</v>
       </c>
       <c r="C38" t="n">
-        <v>0.180789</v>
+        <v>0.140473</v>
       </c>
       <c r="D38" t="n">
-        <v>0.149708</v>
+        <v>0.149334</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148583</v>
+        <v>0.149958</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145055</v>
+        <v>0.147232</v>
       </c>
       <c r="C39" t="n">
-        <v>0.185571</v>
+        <v>0.141525</v>
       </c>
       <c r="D39" t="n">
-        <v>0.150564</v>
+        <v>0.151348</v>
       </c>
       <c r="E39" t="n">
-        <v>0.147598</v>
+        <v>0.147862</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145963</v>
+        <v>0.145728</v>
       </c>
       <c r="C40" t="n">
-        <v>0.189559</v>
+        <v>0.139681</v>
       </c>
       <c r="D40" t="n">
-        <v>0.150385</v>
+        <v>0.150444</v>
       </c>
       <c r="E40" t="n">
-        <v>0.148523</v>
+        <v>0.150646</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145356</v>
+        <v>0.146771</v>
       </c>
       <c r="C41" t="n">
-        <v>0.195</v>
+        <v>0.142581</v>
       </c>
       <c r="D41" t="n">
-        <v>0.150098</v>
+        <v>0.151747</v>
       </c>
       <c r="E41" t="n">
-        <v>0.148208</v>
+        <v>0.149545</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146652</v>
+        <v>0.145817</v>
       </c>
       <c r="C42" t="n">
-        <v>0.199387</v>
+        <v>0.139563</v>
       </c>
       <c r="D42" t="n">
-        <v>0.149701</v>
+        <v>0.151205</v>
       </c>
       <c r="E42" t="n">
-        <v>0.148776</v>
+        <v>0.150805</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148181</v>
+        <v>0.148028</v>
       </c>
       <c r="C43" t="n">
-        <v>0.203919</v>
+        <v>0.140705</v>
       </c>
       <c r="D43" t="n">
-        <v>0.150442</v>
+        <v>0.152701</v>
       </c>
       <c r="E43" t="n">
-        <v>0.148518</v>
+        <v>0.149053</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147474</v>
+        <v>0.147065</v>
       </c>
       <c r="C44" t="n">
-        <v>0.208917</v>
+        <v>0.140884</v>
       </c>
       <c r="D44" t="n">
-        <v>0.151109</v>
+        <v>0.151601</v>
       </c>
       <c r="E44" t="n">
-        <v>0.148597</v>
+        <v>0.148838</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148485</v>
+        <v>0.147383</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214252</v>
+        <v>0.140172</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152024</v>
+        <v>0.151505</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150063</v>
+        <v>0.151225</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.147872</v>
+        <v>0.147952</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220219</v>
+        <v>0.14387</v>
       </c>
       <c r="D46" t="n">
-        <v>0.152717</v>
+        <v>0.152678</v>
       </c>
       <c r="E46" t="n">
-        <v>0.149937</v>
+        <v>0.154372</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149952</v>
+        <v>0.150172</v>
       </c>
       <c r="C47" t="n">
-        <v>0.224947</v>
+        <v>0.143467</v>
       </c>
       <c r="D47" t="n">
-        <v>0.153192</v>
+        <v>0.153994</v>
       </c>
       <c r="E47" t="n">
-        <v>0.151946</v>
+        <v>0.15217</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151998</v>
+        <v>0.153637</v>
       </c>
       <c r="C48" t="n">
-        <v>0.229118</v>
+        <v>0.148224</v>
       </c>
       <c r="D48" t="n">
-        <v>0.155564</v>
+        <v>0.15567</v>
       </c>
       <c r="E48" t="n">
-        <v>0.154801</v>
+        <v>0.155146</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.15451</v>
+        <v>0.155541</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23368</v>
+        <v>0.154908</v>
       </c>
       <c r="D49" t="n">
-        <v>0.160226</v>
+        <v>0.160945</v>
       </c>
       <c r="E49" t="n">
-        <v>0.158351</v>
+        <v>0.159587</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160755</v>
+        <v>0.160527</v>
       </c>
       <c r="C50" t="n">
-        <v>0.172225</v>
+        <v>0.156477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.164521</v>
+        <v>0.165429</v>
       </c>
       <c r="E50" t="n">
-        <v>0.163591</v>
+        <v>0.164992</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166876</v>
+        <v>0.166938</v>
       </c>
       <c r="C51" t="n">
-        <v>0.17539</v>
+        <v>0.165642</v>
       </c>
       <c r="D51" t="n">
-        <v>0.163297</v>
+        <v>0.163511</v>
       </c>
       <c r="E51" t="n">
-        <v>0.165154</v>
+        <v>0.165212</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175663</v>
+        <v>0.176473</v>
       </c>
       <c r="C52" t="n">
-        <v>0.179048</v>
+        <v>0.171739</v>
       </c>
       <c r="D52" t="n">
-        <v>0.163424</v>
+        <v>0.163338</v>
       </c>
       <c r="E52" t="n">
-        <v>0.165108</v>
+        <v>0.165363</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159371</v>
+        <v>0.158708</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183108</v>
+        <v>0.158826</v>
       </c>
       <c r="D53" t="n">
-        <v>0.163901</v>
+        <v>0.163605</v>
       </c>
       <c r="E53" t="n">
-        <v>0.164788</v>
+        <v>0.165549</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158185</v>
+        <v>0.159118</v>
       </c>
       <c r="C54" t="n">
-        <v>0.187825</v>
+        <v>0.158867</v>
       </c>
       <c r="D54" t="n">
-        <v>0.164709</v>
+        <v>0.163679</v>
       </c>
       <c r="E54" t="n">
-        <v>0.164918</v>
+        <v>0.165378</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.158687</v>
+        <v>0.160098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.192385</v>
+        <v>0.158644</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1642</v>
+        <v>0.1638</v>
       </c>
       <c r="E55" t="n">
-        <v>0.165317</v>
+        <v>0.165324</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161315</v>
+        <v>0.15967</v>
       </c>
       <c r="C56" t="n">
-        <v>0.198171</v>
+        <v>0.15844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.164557</v>
+        <v>0.164055</v>
       </c>
       <c r="E56" t="n">
-        <v>0.165731</v>
+        <v>0.165862</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.159893</v>
+        <v>0.160018</v>
       </c>
       <c r="C57" t="n">
-        <v>0.202687</v>
+        <v>0.159361</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1649</v>
+        <v>0.164847</v>
       </c>
       <c r="E57" t="n">
-        <v>0.166426</v>
+        <v>0.166555</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161163</v>
+        <v>0.162769</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207991</v>
+        <v>0.161448</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166832</v>
+        <v>0.165658</v>
       </c>
       <c r="E58" t="n">
-        <v>0.167618</v>
+        <v>0.168102</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161857</v>
+        <v>0.160926</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212996</v>
+        <v>0.161718</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166697</v>
+        <v>0.165843</v>
       </c>
       <c r="E59" t="n">
-        <v>0.168405</v>
+        <v>0.168788</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16254</v>
+        <v>0.162186</v>
       </c>
       <c r="C60" t="n">
-        <v>0.218242</v>
+        <v>0.16359</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167252</v>
+        <v>0.166172</v>
       </c>
       <c r="E60" t="n">
-        <v>0.168402</v>
+        <v>0.170143</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165153</v>
+        <v>0.164165</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222676</v>
+        <v>0.164843</v>
       </c>
       <c r="D61" t="n">
-        <v>0.168192</v>
+        <v>0.168343</v>
       </c>
       <c r="E61" t="n">
-        <v>0.170194</v>
+        <v>0.171333</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16727</v>
+        <v>0.166009</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227525</v>
+        <v>0.168074</v>
       </c>
       <c r="D62" t="n">
-        <v>0.170127</v>
+        <v>0.170221</v>
       </c>
       <c r="E62" t="n">
-        <v>0.173555</v>
+        <v>0.173964</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169035</v>
+        <v>0.168291</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231983</v>
+        <v>0.172285</v>
       </c>
       <c r="D63" t="n">
-        <v>0.173342</v>
+        <v>0.172847</v>
       </c>
       <c r="E63" t="n">
-        <v>0.175776</v>
+        <v>0.177417</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173216</v>
+        <v>0.172897</v>
       </c>
       <c r="C64" t="n">
-        <v>0.180814</v>
+        <v>0.175788</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177652</v>
+        <v>0.177384</v>
       </c>
       <c r="E64" t="n">
-        <v>0.180422</v>
+        <v>0.181826</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178438</v>
+        <v>0.18048</v>
       </c>
       <c r="C65" t="n">
-        <v>0.182876</v>
+        <v>0.181384</v>
       </c>
       <c r="D65" t="n">
-        <v>0.183859</v>
+        <v>0.183821</v>
       </c>
       <c r="E65" t="n">
-        <v>0.187646</v>
+        <v>0.188093</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185594</v>
+        <v>0.18804</v>
       </c>
       <c r="C66" t="n">
-        <v>0.187081</v>
+        <v>0.189455</v>
       </c>
       <c r="D66" t="n">
-        <v>0.175233</v>
+        <v>0.175098</v>
       </c>
       <c r="E66" t="n">
-        <v>0.176358</v>
+        <v>0.176549</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.17718</v>
+        <v>0.178804</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192802</v>
+        <v>0.170666</v>
       </c>
       <c r="D67" t="n">
-        <v>0.175903</v>
+        <v>0.176292</v>
       </c>
       <c r="E67" t="n">
-        <v>0.176551</v>
+        <v>0.176626</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.17792</v>
+        <v>0.17747</v>
       </c>
       <c r="C68" t="n">
-        <v>0.197799</v>
+        <v>0.170753</v>
       </c>
       <c r="D68" t="n">
-        <v>0.175795</v>
+        <v>0.176556</v>
       </c>
       <c r="E68" t="n">
-        <v>0.177227</v>
+        <v>0.17707</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.176975</v>
+        <v>0.180288</v>
       </c>
       <c r="C69" t="n">
-        <v>0.204206</v>
+        <v>0.171264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.17664</v>
+        <v>0.17655</v>
       </c>
       <c r="E69" t="n">
-        <v>0.177638</v>
+        <v>0.177262</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179487</v>
+        <v>0.181777</v>
       </c>
       <c r="C70" t="n">
-        <v>0.211623</v>
+        <v>0.171831</v>
       </c>
       <c r="D70" t="n">
-        <v>0.176911</v>
+        <v>0.176847</v>
       </c>
       <c r="E70" t="n">
-        <v>0.177817</v>
+        <v>0.177864</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181068</v>
+        <v>0.183177</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218702</v>
+        <v>0.172484</v>
       </c>
       <c r="D71" t="n">
-        <v>0.177435</v>
+        <v>0.177418</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178851</v>
+        <v>0.178383</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.179934</v>
+        <v>0.186283</v>
       </c>
       <c r="C72" t="n">
-        <v>0.225218</v>
+        <v>0.173678</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178161</v>
+        <v>0.178101</v>
       </c>
       <c r="E72" t="n">
-        <v>0.179137</v>
+        <v>0.179315</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180549</v>
+        <v>0.18406</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235243</v>
+        <v>0.173845</v>
       </c>
       <c r="D73" t="n">
-        <v>0.178883</v>
+        <v>0.179139</v>
       </c>
       <c r="E73" t="n">
-        <v>0.180432</v>
+        <v>0.180364</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181701</v>
+        <v>0.187964</v>
       </c>
       <c r="C74" t="n">
-        <v>0.243398</v>
+        <v>0.175908</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180534</v>
+        <v>0.178503</v>
       </c>
       <c r="E74" t="n">
-        <v>0.18161</v>
+        <v>0.181704</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183411</v>
+        <v>0.187267</v>
       </c>
       <c r="C75" t="n">
-        <v>0.253216</v>
+        <v>0.177373</v>
       </c>
       <c r="D75" t="n">
-        <v>0.182154</v>
+        <v>0.181014</v>
       </c>
       <c r="E75" t="n">
-        <v>0.182882</v>
+        <v>0.183096</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186347</v>
+        <v>0.186831</v>
       </c>
       <c r="C76" t="n">
-        <v>0.265352</v>
+        <v>0.180082</v>
       </c>
       <c r="D76" t="n">
-        <v>0.18348</v>
+        <v>0.182929</v>
       </c>
       <c r="E76" t="n">
-        <v>0.185365</v>
+        <v>0.185695</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189529</v>
+        <v>0.190037</v>
       </c>
       <c r="C77" t="n">
-        <v>0.272145</v>
+        <v>0.184177</v>
       </c>
       <c r="D77" t="n">
-        <v>0.18592</v>
+        <v>0.185099</v>
       </c>
       <c r="E77" t="n">
-        <v>0.18892</v>
+        <v>0.188675</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191166</v>
+        <v>0.195032</v>
       </c>
       <c r="C78" t="n">
-        <v>0.226548</v>
+        <v>0.187607</v>
       </c>
       <c r="D78" t="n">
-        <v>0.188982</v>
+        <v>0.189383</v>
       </c>
       <c r="E78" t="n">
-        <v>0.192861</v>
+        <v>0.193097</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.19762</v>
+        <v>0.199117</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237324</v>
+        <v>0.192733</v>
       </c>
       <c r="D79" t="n">
-        <v>0.195402</v>
+        <v>0.195062</v>
       </c>
       <c r="E79" t="n">
-        <v>0.199583</v>
+        <v>0.199839</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205455</v>
+        <v>0.205858</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249251</v>
+        <v>0.20124</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255185</v>
+        <v>0.25587</v>
       </c>
       <c r="E80" t="n">
-        <v>0.187017</v>
+        <v>0.187393</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.345145</v>
+        <v>0.342537</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259987</v>
+        <v>0.180442</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256518</v>
+        <v>0.254301</v>
       </c>
       <c r="E81" t="n">
-        <v>0.187502</v>
+        <v>0.187328</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343554</v>
+        <v>0.343004</v>
       </c>
       <c r="C82" t="n">
-        <v>0.272185</v>
+        <v>0.181746</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257826</v>
+        <v>0.25659</v>
       </c>
       <c r="E82" t="n">
-        <v>0.188548</v>
+        <v>0.187839</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345326</v>
+        <v>0.347135</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285002</v>
+        <v>0.183142</v>
       </c>
       <c r="D83" t="n">
-        <v>0.256241</v>
+        <v>0.257459</v>
       </c>
       <c r="E83" t="n">
-        <v>0.188778</v>
+        <v>0.18823</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.34497</v>
+        <v>0.347538</v>
       </c>
       <c r="C84" t="n">
-        <v>0.300756</v>
+        <v>0.182438</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253877</v>
+        <v>0.256716</v>
       </c>
       <c r="E84" t="n">
-        <v>0.190479</v>
+        <v>0.190815</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.350511</v>
+        <v>0.348513</v>
       </c>
       <c r="C85" t="n">
-        <v>0.31612</v>
+        <v>0.182951</v>
       </c>
       <c r="D85" t="n">
-        <v>0.256359</v>
+        <v>0.257173</v>
       </c>
       <c r="E85" t="n">
-        <v>0.191102</v>
+        <v>0.191071</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34663</v>
+        <v>0.347534</v>
       </c>
       <c r="C86" t="n">
-        <v>0.329796</v>
+        <v>0.184176</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25522</v>
+        <v>0.254642</v>
       </c>
       <c r="E86" t="n">
-        <v>0.19264</v>
+        <v>0.192807</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348911</v>
+        <v>0.35027</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345039</v>
+        <v>0.185741</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251251</v>
+        <v>0.254757</v>
       </c>
       <c r="E87" t="n">
-        <v>0.194413</v>
+        <v>0.193819</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.34891</v>
+        <v>0.350721</v>
       </c>
       <c r="C88" t="n">
-        <v>0.363409</v>
+        <v>0.187474</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255224</v>
+        <v>0.254021</v>
       </c>
       <c r="E88" t="n">
-        <v>0.196433</v>
+        <v>0.196288</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.353169</v>
+        <v>0.352488</v>
       </c>
       <c r="C89" t="n">
-        <v>0.380859</v>
+        <v>0.189396</v>
       </c>
       <c r="D89" t="n">
-        <v>0.250648</v>
+        <v>0.253544</v>
       </c>
       <c r="E89" t="n">
-        <v>0.199148</v>
+        <v>0.198632</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353568</v>
+        <v>0.350382</v>
       </c>
       <c r="C90" t="n">
-        <v>0.393773</v>
+        <v>0.193064</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25093</v>
+        <v>0.255929</v>
       </c>
       <c r="E90" t="n">
-        <v>0.203401</v>
+        <v>0.201567</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.356017</v>
+        <v>0.357793</v>
       </c>
       <c r="C91" t="n">
-        <v>0.413283</v>
+        <v>0.195131</v>
       </c>
       <c r="D91" t="n">
-        <v>0.251082</v>
+        <v>0.256397</v>
       </c>
       <c r="E91" t="n">
-        <v>0.205802</v>
+        <v>0.205172</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.359335</v>
+        <v>0.36161</v>
       </c>
       <c r="C92" t="n">
-        <v>0.360499</v>
+        <v>0.201356</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253628</v>
+        <v>0.256801</v>
       </c>
       <c r="E92" t="n">
-        <v>0.211001</v>
+        <v>0.210896</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.359688</v>
+        <v>0.357649</v>
       </c>
       <c r="C93" t="n">
-        <v>0.373859</v>
+        <v>0.208193</v>
       </c>
       <c r="D93" t="n">
-        <v>0.258504</v>
+        <v>0.25616</v>
       </c>
       <c r="E93" t="n">
-        <v>0.22024</v>
+        <v>0.219089</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.370616</v>
+        <v>0.366452</v>
       </c>
       <c r="C94" t="n">
-        <v>0.382854</v>
+        <v>0.21723</v>
       </c>
       <c r="D94" t="n">
-        <v>0.413464</v>
+        <v>0.41121</v>
       </c>
       <c r="E94" t="n">
-        <v>0.277095</v>
+        <v>0.271928</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.501136</v>
+        <v>0.499968</v>
       </c>
       <c r="C95" t="n">
-        <v>0.399493</v>
+        <v>0.278267</v>
       </c>
       <c r="D95" t="n">
-        <v>0.411478</v>
+        <v>0.410369</v>
       </c>
       <c r="E95" t="n">
-        <v>0.281074</v>
+        <v>0.273772</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5013030000000001</v>
+        <v>0.5003570000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.408559</v>
+        <v>0.278694</v>
       </c>
       <c r="D96" t="n">
-        <v>0.412016</v>
+        <v>0.409081</v>
       </c>
       <c r="E96" t="n">
-        <v>0.286669</v>
+        <v>0.277561</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.500766</v>
+        <v>0.500026</v>
       </c>
       <c r="C97" t="n">
-        <v>0.42344</v>
+        <v>0.280829</v>
       </c>
       <c r="D97" t="n">
-        <v>0.41273</v>
+        <v>0.409724</v>
       </c>
       <c r="E97" t="n">
-        <v>0.278663</v>
+        <v>0.27276</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50295</v>
+        <v>0.500057</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438005</v>
+        <v>0.283894</v>
       </c>
       <c r="D98" t="n">
-        <v>0.411536</v>
+        <v>0.409477</v>
       </c>
       <c r="E98" t="n">
-        <v>0.285014</v>
+        <v>0.274675</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.501827</v>
+        <v>0.500306</v>
       </c>
       <c r="C99" t="n">
-        <v>0.452336</v>
+        <v>0.281653</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410613</v>
+        <v>0.408424</v>
       </c>
       <c r="E99" t="n">
-        <v>0.282445</v>
+        <v>0.28096</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.502852</v>
+        <v>0.500653</v>
       </c>
       <c r="C100" t="n">
-        <v>0.466145</v>
+        <v>0.283534</v>
       </c>
       <c r="D100" t="n">
-        <v>0.410867</v>
+        <v>0.406968</v>
       </c>
       <c r="E100" t="n">
-        <v>0.284704</v>
+        <v>0.279224</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.502288</v>
+        <v>0.502353</v>
       </c>
       <c r="C101" t="n">
-        <v>0.483933</v>
+        <v>0.288373</v>
       </c>
       <c r="D101" t="n">
-        <v>0.41155</v>
+        <v>0.408054</v>
       </c>
       <c r="E101" t="n">
-        <v>0.284217</v>
+        <v>0.280007</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5044960000000001</v>
+        <v>0.502668</v>
       </c>
       <c r="C102" t="n">
-        <v>0.501647</v>
+        <v>0.290491</v>
       </c>
       <c r="D102" t="n">
-        <v>0.410031</v>
+        <v>0.407681</v>
       </c>
       <c r="E102" t="n">
-        <v>0.283404</v>
+        <v>0.286094</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506757</v>
+        <v>0.504208</v>
       </c>
       <c r="C103" t="n">
-        <v>0.517293</v>
+        <v>0.291581</v>
       </c>
       <c r="D103" t="n">
-        <v>0.411357</v>
+        <v>0.409591</v>
       </c>
       <c r="E103" t="n">
-        <v>0.290625</v>
+        <v>0.28966</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5088819999999999</v>
+        <v>0.506127</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529749</v>
+        <v>0.291182</v>
       </c>
       <c r="D104" t="n">
-        <v>0.413236</v>
+        <v>0.410029</v>
       </c>
       <c r="E104" t="n">
-        <v>0.284468</v>
+        <v>0.290897</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.510089</v>
+        <v>0.509454</v>
       </c>
       <c r="C105" t="n">
-        <v>0.549778</v>
+        <v>0.295857</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4153</v>
+        <v>0.413113</v>
       </c>
       <c r="E105" t="n">
-        <v>0.294767</v>
+        <v>0.290574</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.513849</v>
+        <v>0.511846</v>
       </c>
       <c r="C106" t="n">
-        <v>0.564809</v>
+        <v>0.299008</v>
       </c>
       <c r="D106" t="n">
-        <v>0.416525</v>
+        <v>0.414848</v>
       </c>
       <c r="E106" t="n">
-        <v>0.297617</v>
+        <v>0.296099</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519381</v>
+        <v>0.516887</v>
       </c>
       <c r="C107" t="n">
-        <v>0.53329</v>
+        <v>0.305118</v>
       </c>
       <c r="D107" t="n">
-        <v>0.421496</v>
+        <v>0.418977</v>
       </c>
       <c r="E107" t="n">
-        <v>0.304236</v>
+        <v>0.302441</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526087</v>
+        <v>0.524821</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5437110000000001</v>
+        <v>0.312632</v>
       </c>
       <c r="D108" t="n">
-        <v>0.549342</v>
+        <v>0.546443</v>
       </c>
       <c r="E108" t="n">
-        <v>0.498662</v>
+        <v>0.497061</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.536079</v>
+        <v>0.53503</v>
       </c>
       <c r="C109" t="n">
-        <v>0.557719</v>
+        <v>0.327912</v>
       </c>
       <c r="D109" t="n">
-        <v>0.547968</v>
+        <v>0.545851</v>
       </c>
       <c r="E109" t="n">
-        <v>0.497911</v>
+        <v>0.496223</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.586277</v>
+        <v>0.580578</v>
       </c>
       <c r="C110" t="n">
-        <v>0.575143</v>
+        <v>0.491248</v>
       </c>
       <c r="D110" t="n">
-        <v>0.550615</v>
+        <v>0.546331</v>
       </c>
       <c r="E110" t="n">
-        <v>0.499628</v>
+        <v>0.497171</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585196</v>
+        <v>0.581607</v>
       </c>
       <c r="C111" t="n">
-        <v>0.586633</v>
+        <v>0.49201</v>
       </c>
       <c r="D111" t="n">
-        <v>0.548963</v>
+        <v>0.547539</v>
       </c>
       <c r="E111" t="n">
-        <v>0.501212</v>
+        <v>0.49594</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.585158</v>
+        <v>0.581985</v>
       </c>
       <c r="C112" t="n">
-        <v>0.597064</v>
+        <v>0.492672</v>
       </c>
       <c r="D112" t="n">
-        <v>0.551392</v>
+        <v>0.549302</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5019670000000001</v>
+        <v>0.503986</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.586286</v>
+        <v>0.581835</v>
       </c>
       <c r="C113" t="n">
-        <v>0.611273</v>
+        <v>0.493422</v>
       </c>
       <c r="D113" t="n">
-        <v>0.550851</v>
+        <v>0.547886</v>
       </c>
       <c r="E113" t="n">
-        <v>0.503628</v>
+        <v>0.499442</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.585816</v>
+        <v>0.583784</v>
       </c>
       <c r="C114" t="n">
-        <v>0.624295</v>
+        <v>0.497388</v>
       </c>
       <c r="D114" t="n">
-        <v>0.551576</v>
+        <v>0.5479039999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.504789</v>
+        <v>0.501409</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.587255</v>
+        <v>0.58604</v>
       </c>
       <c r="C115" t="n">
-        <v>0.637983</v>
+        <v>0.498747</v>
       </c>
       <c r="D115" t="n">
-        <v>0.551277</v>
+        <v>0.5500119999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5052179999999999</v>
+        <v>0.504643</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.589657</v>
+        <v>0.586844</v>
       </c>
       <c r="C116" t="n">
-        <v>0.654092</v>
+        <v>0.502786</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5538650000000001</v>
+        <v>0.549495</v>
       </c>
       <c r="E116" t="n">
-        <v>0.506463</v>
+        <v>0.503208</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.591249</v>
+        <v>0.5895629999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.670218</v>
+        <v>0.504427</v>
       </c>
       <c r="D117" t="n">
-        <v>0.556611</v>
+        <v>0.553057</v>
       </c>
       <c r="E117" t="n">
-        <v>0.509334</v>
+        <v>0.505258</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.592758</v>
+        <v>0.590231</v>
       </c>
       <c r="C118" t="n">
-        <v>0.683885</v>
+        <v>0.5082179999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5563360000000001</v>
+        <v>0.554302</v>
       </c>
       <c r="E118" t="n">
-        <v>0.511898</v>
+        <v>0.512879</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.597257</v>
+        <v>0.597234</v>
       </c>
       <c r="C119" t="n">
-        <v>0.709152</v>
+        <v>0.511059</v>
       </c>
       <c r="D119" t="n">
-        <v>0.560859</v>
+        <v>0.557273</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5163219999999999</v>
+        <v>0.513292</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.603436</v>
+        <v>0.598869</v>
       </c>
       <c r="C120" t="n">
-        <v>0.717085</v>
+        <v>0.515111</v>
       </c>
       <c r="D120" t="n">
-        <v>0.562862</v>
+        <v>0.56274</v>
       </c>
       <c r="E120" t="n">
-        <v>0.520216</v>
+        <v>0.5208159999999999</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606882</v>
+        <v>0.605667</v>
       </c>
       <c r="C121" t="n">
-        <v>0.644737</v>
+        <v>0.522242</v>
       </c>
       <c r="D121" t="n">
-        <v>0.571979</v>
+        <v>0.566649</v>
       </c>
       <c r="E121" t="n">
-        <v>0.524716</v>
+        <v>0.527428</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.615846</v>
+        <v>0.614255</v>
       </c>
       <c r="C122" t="n">
-        <v>0.652474</v>
+        <v>0.531809</v>
       </c>
       <c r="D122" t="n">
-        <v>0.576615</v>
+        <v>0.575833</v>
       </c>
       <c r="E122" t="n">
-        <v>0.535209</v>
+        <v>0.536125</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6288820000000001</v>
+        <v>0.625601</v>
       </c>
       <c r="C123" t="n">
-        <v>0.66775</v>
+        <v>0.543692</v>
       </c>
       <c r="D123" t="n">
-        <v>0.710419</v>
+        <v>0.705931</v>
       </c>
       <c r="E123" t="n">
-        <v>0.717514</v>
+        <v>0.714636</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.726765</v>
+        <v>0.726081</v>
       </c>
       <c r="C124" t="n">
-        <v>0.67898</v>
+        <v>0.704392</v>
       </c>
       <c r="D124" t="n">
-        <v>0.707402</v>
+        <v>0.706534</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7183850000000001</v>
+        <v>0.715388</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.727619</v>
+        <v>0.728449</v>
       </c>
       <c r="C125" t="n">
-        <v>0.692537</v>
+        <v>0.705579</v>
       </c>
       <c r="D125" t="n">
-        <v>0.711736</v>
+        <v>0.709554</v>
       </c>
       <c r="E125" t="n">
-        <v>0.719355</v>
+        <v>0.717336</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.72923</v>
+        <v>0.725638</v>
       </c>
       <c r="C126" t="n">
-        <v>0.708487</v>
+        <v>0.708067</v>
       </c>
       <c r="D126" t="n">
-        <v>0.711362</v>
+        <v>0.708694</v>
       </c>
       <c r="E126" t="n">
-        <v>0.720704</v>
+        <v>0.71776</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.730795</v>
+        <v>0.727631</v>
       </c>
       <c r="C127" t="n">
-        <v>0.720924</v>
+        <v>0.707851</v>
       </c>
       <c r="D127" t="n">
-        <v>0.711652</v>
+        <v>0.7089760000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.724559</v>
+        <v>0.720906</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732165</v>
+        <v>0.727769</v>
       </c>
       <c r="C128" t="n">
-        <v>0.733029</v>
+        <v>0.711374</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7107560000000001</v>
+        <v>0.709503</v>
       </c>
       <c r="E128" t="n">
-        <v>0.724587</v>
+        <v>0.720141</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732175</v>
+        <v>0.727583</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7440870000000001</v>
+        <v>0.71105</v>
       </c>
       <c r="D129" t="n">
-        <v>0.715264</v>
+        <v>0.710819</v>
       </c>
       <c r="E129" t="n">
-        <v>0.72587</v>
+        <v>0.72383</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.733666</v>
+        <v>0.734082</v>
       </c>
       <c r="C130" t="n">
-        <v>0.760163</v>
+        <v>0.713954</v>
       </c>
       <c r="D130" t="n">
-        <v>0.716754</v>
+        <v>0.712064</v>
       </c>
       <c r="E130" t="n">
-        <v>0.729613</v>
+        <v>0.724465</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.735641</v>
+        <v>0.733799</v>
       </c>
       <c r="C131" t="n">
-        <v>0.777517</v>
+        <v>0.717913</v>
       </c>
       <c r="D131" t="n">
-        <v>0.718002</v>
+        <v>0.714017</v>
       </c>
       <c r="E131" t="n">
-        <v>0.730731</v>
+        <v>0.728057</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7391720000000001</v>
+        <v>0.7345739999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.793564</v>
+        <v>0.719299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.719367</v>
+        <v>0.71528</v>
       </c>
       <c r="E132" t="n">
-        <v>0.733506</v>
+        <v>0.729132</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.741013</v>
+        <v>0.740764</v>
       </c>
       <c r="C133" t="n">
-        <v>0.812889</v>
+        <v>0.727046</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7226630000000001</v>
+        <v>0.719268</v>
       </c>
       <c r="E133" t="n">
-        <v>0.73776</v>
+        <v>0.734809</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.745767</v>
+        <v>0.743092</v>
       </c>
       <c r="C134" t="n">
-        <v>0.827606</v>
+        <v>0.7294929999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7260219999999999</v>
+        <v>0.723768</v>
       </c>
       <c r="E134" t="n">
-        <v>0.743271</v>
+        <v>0.740182</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.753728</v>
+        <v>0.753433</v>
       </c>
       <c r="C135" t="n">
-        <v>0.696058</v>
+        <v>0.739108</v>
       </c>
       <c r="D135" t="n">
-        <v>0.731134</v>
+        <v>0.729842</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7505540000000001</v>
+        <v>0.747689</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.761993</v>
+        <v>0.7604070000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.705555</v>
+        <v>0.749435</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7397590000000001</v>
+        <v>0.736978</v>
       </c>
       <c r="E136" t="n">
-        <v>0.759664</v>
+        <v>0.756969</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.772303</v>
+        <v>0.770947</v>
       </c>
       <c r="C137" t="n">
-        <v>0.716886</v>
+        <v>0.762634</v>
       </c>
       <c r="D137" t="n">
-        <v>0.846063</v>
+        <v>0.8413350000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.852586</v>
+        <v>0.8463079999999999</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.857715</v>
+        <v>0.852375</v>
       </c>
       <c r="C138" t="n">
-        <v>0.727305</v>
+        <v>0.842831</v>
       </c>
       <c r="D138" t="n">
-        <v>0.846534</v>
+        <v>0.84428</v>
       </c>
       <c r="E138" t="n">
-        <v>0.853326</v>
+        <v>0.848202</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.857932</v>
+        <v>0.853165</v>
       </c>
       <c r="C139" t="n">
-        <v>0.739626</v>
+        <v>0.843861</v>
       </c>
       <c r="D139" t="n">
-        <v>0.847608</v>
+        <v>0.84338</v>
       </c>
       <c r="E139" t="n">
-        <v>0.854838</v>
+        <v>0.850377</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8594580000000001</v>
+        <v>0.853586</v>
       </c>
       <c r="C140" t="n">
-        <v>0.75235</v>
+        <v>0.844963</v>
       </c>
       <c r="D140" t="n">
-        <v>0.846989</v>
+        <v>0.842211</v>
       </c>
       <c r="E140" t="n">
-        <v>0.856245</v>
+        <v>0.850595</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.859611</v>
+        <v>0.8532960000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.764988</v>
+        <v>0.846396</v>
       </c>
       <c r="D141" t="n">
-        <v>0.847152</v>
+        <v>0.843533</v>
       </c>
       <c r="E141" t="n">
-        <v>0.856779</v>
+        <v>0.8524620000000001</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.859258</v>
+        <v>0.854961</v>
       </c>
       <c r="C142" t="n">
-        <v>0.78235</v>
+        <v>0.847623</v>
       </c>
       <c r="D142" t="n">
-        <v>0.848081</v>
+        <v>0.845494</v>
       </c>
       <c r="E142" t="n">
-        <v>0.859588</v>
+        <v>0.85512</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.861527</v>
+        <v>0.857035</v>
       </c>
       <c r="C143" t="n">
-        <v>0.796528</v>
+        <v>0.85103</v>
       </c>
       <c r="D143" t="n">
-        <v>0.849502</v>
+        <v>0.846264</v>
       </c>
       <c r="E143" t="n">
-        <v>0.860762</v>
+        <v>0.855819</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.111461</v>
+        <v>0.111226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133915</v>
+        <v>0.133095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119859</v>
+        <v>0.120647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.120777</v>
+        <v>0.120952</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111656</v>
+        <v>0.11112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139881</v>
+        <v>0.139146</v>
       </c>
       <c r="D3" t="n">
-        <v>0.120169</v>
+        <v>0.120711</v>
       </c>
       <c r="E3" t="n">
-        <v>0.120614</v>
+        <v>0.120717</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.109818</v>
+        <v>0.112113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145551</v>
+        <v>0.145788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12087</v>
+        <v>0.120919</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120906</v>
+        <v>0.121111</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111448</v>
+        <v>0.112355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.153962</v>
+        <v>0.154059</v>
       </c>
       <c r="D5" t="n">
-        <v>0.120687</v>
+        <v>0.121284</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121427</v>
+        <v>0.121595</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112792</v>
+        <v>0.113319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159457</v>
+        <v>0.159381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122206</v>
+        <v>0.122067</v>
       </c>
       <c r="E6" t="n">
-        <v>0.122178</v>
+        <v>0.122115</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11393</v>
+        <v>0.114664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.132805</v>
+        <v>0.132146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122594</v>
+        <v>0.123687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.123081</v>
+        <v>0.123565</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116654</v>
+        <v>0.116838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.134467</v>
+        <v>0.134715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124425</v>
+        <v>0.124926</v>
       </c>
       <c r="E8" t="n">
-        <v>0.125998</v>
+        <v>0.125606</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119109</v>
+        <v>0.119768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.139213</v>
+        <v>0.140057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.126124</v>
+        <v>0.128882</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12253</v>
+        <v>0.122836</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12106</v>
+        <v>0.123636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.144898</v>
+        <v>0.144797</v>
       </c>
       <c r="D10" t="n">
-        <v>0.126567</v>
+        <v>0.129113</v>
       </c>
       <c r="E10" t="n">
-        <v>0.123318</v>
+        <v>0.123025</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121153</v>
+        <v>0.123836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.147789</v>
+        <v>0.147374</v>
       </c>
       <c r="D11" t="n">
-        <v>0.126451</v>
+        <v>0.1289</v>
       </c>
       <c r="E11" t="n">
-        <v>0.123396</v>
+        <v>0.123254</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121492</v>
+        <v>0.124747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.152883</v>
+        <v>0.153175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127043</v>
+        <v>0.129261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.123254</v>
+        <v>0.123437</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122243</v>
+        <v>0.124701</v>
       </c>
       <c r="C13" t="n">
-        <v>0.158382</v>
+        <v>0.157969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.127543</v>
+        <v>0.129701</v>
       </c>
       <c r="E13" t="n">
-        <v>0.123033</v>
+        <v>0.123772</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122827</v>
+        <v>0.124664</v>
       </c>
       <c r="C14" t="n">
-        <v>0.163161</v>
+        <v>0.16343</v>
       </c>
       <c r="D14" t="n">
-        <v>0.127938</v>
+        <v>0.129594</v>
       </c>
       <c r="E14" t="n">
-        <v>0.123477</v>
+        <v>0.124033</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123526</v>
+        <v>0.124814</v>
       </c>
       <c r="C15" t="n">
-        <v>0.169925</v>
+        <v>0.169929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.128219</v>
+        <v>0.129853</v>
       </c>
       <c r="E15" t="n">
-        <v>0.123511</v>
+        <v>0.123728</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122825</v>
+        <v>0.126043</v>
       </c>
       <c r="C16" t="n">
-        <v>0.176035</v>
+        <v>0.17571</v>
       </c>
       <c r="D16" t="n">
-        <v>0.128497</v>
+        <v>0.130256</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12396</v>
+        <v>0.124146</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12386</v>
+        <v>0.125771</v>
       </c>
       <c r="C17" t="n">
-        <v>0.181659</v>
+        <v>0.181904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1286</v>
+        <v>0.130215</v>
       </c>
       <c r="E17" t="n">
-        <v>0.124134</v>
+        <v>0.124601</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123479</v>
+        <v>0.126414</v>
       </c>
       <c r="C18" t="n">
-        <v>0.186762</v>
+        <v>0.187494</v>
       </c>
       <c r="D18" t="n">
-        <v>0.12913</v>
+        <v>0.130772</v>
       </c>
       <c r="E18" t="n">
-        <v>0.124781</v>
+        <v>0.12537</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125222</v>
+        <v>0.126858</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192404</v>
+        <v>0.194512</v>
       </c>
       <c r="D19" t="n">
-        <v>0.129815</v>
+        <v>0.130915</v>
       </c>
       <c r="E19" t="n">
-        <v>0.125048</v>
+        <v>0.125585</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125545</v>
+        <v>0.128783</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197333</v>
+        <v>0.199376</v>
       </c>
       <c r="D20" t="n">
-        <v>0.130167</v>
+        <v>0.1313</v>
       </c>
       <c r="E20" t="n">
-        <v>0.126552</v>
+        <v>0.126329</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127466</v>
+        <v>0.130694</v>
       </c>
       <c r="C21" t="n">
-        <v>0.153588</v>
+        <v>0.15377</v>
       </c>
       <c r="D21" t="n">
-        <v>0.131963</v>
+        <v>0.134177</v>
       </c>
       <c r="E21" t="n">
-        <v>0.127235</v>
+        <v>0.128861</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130167</v>
+        <v>0.134161</v>
       </c>
       <c r="C22" t="n">
-        <v>0.157301</v>
+        <v>0.159195</v>
       </c>
       <c r="D22" t="n">
-        <v>0.135644</v>
+        <v>0.13751</v>
       </c>
       <c r="E22" t="n">
-        <v>0.131572</v>
+        <v>0.131848</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.137</v>
+        <v>0.141371</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161985</v>
+        <v>0.164365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.138489</v>
+        <v>0.136561</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132622</v>
+        <v>0.133127</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133818</v>
+        <v>0.133716</v>
       </c>
       <c r="C24" t="n">
-        <v>0.167196</v>
+        <v>0.168063</v>
       </c>
       <c r="D24" t="n">
-        <v>0.137552</v>
+        <v>0.137792</v>
       </c>
       <c r="E24" t="n">
-        <v>0.131342</v>
+        <v>0.13281</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133442</v>
+        <v>0.134617</v>
       </c>
       <c r="C25" t="n">
-        <v>0.172827</v>
+        <v>0.172003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13629</v>
+        <v>0.13918</v>
       </c>
       <c r="E25" t="n">
-        <v>0.131478</v>
+        <v>0.134034</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133556</v>
+        <v>0.134997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175122</v>
+        <v>0.175945</v>
       </c>
       <c r="D26" t="n">
-        <v>0.136929</v>
+        <v>0.138787</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132496</v>
+        <v>0.133635</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133754</v>
+        <v>0.135644</v>
       </c>
       <c r="C27" t="n">
-        <v>0.181369</v>
+        <v>0.183264</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137136</v>
+        <v>0.138528</v>
       </c>
       <c r="E27" t="n">
-        <v>0.130734</v>
+        <v>0.132752</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133877</v>
+        <v>0.134533</v>
       </c>
       <c r="C28" t="n">
-        <v>0.186653</v>
+        <v>0.188268</v>
       </c>
       <c r="D28" t="n">
-        <v>0.137327</v>
+        <v>0.13925</v>
       </c>
       <c r="E28" t="n">
-        <v>0.130549</v>
+        <v>0.134558</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134445</v>
+        <v>0.134878</v>
       </c>
       <c r="C29" t="n">
-        <v>0.191587</v>
+        <v>0.19325</v>
       </c>
       <c r="D29" t="n">
-        <v>0.137905</v>
+        <v>0.137742</v>
       </c>
       <c r="E29" t="n">
-        <v>0.130918</v>
+        <v>0.133681</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134728</v>
+        <v>0.135982</v>
       </c>
       <c r="C30" t="n">
-        <v>0.195173</v>
+        <v>0.1966</v>
       </c>
       <c r="D30" t="n">
-        <v>0.138073</v>
+        <v>0.138424</v>
       </c>
       <c r="E30" t="n">
-        <v>0.132154</v>
+        <v>0.133488</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134886</v>
+        <v>0.137878</v>
       </c>
       <c r="C31" t="n">
-        <v>0.201837</v>
+        <v>0.202692</v>
       </c>
       <c r="D31" t="n">
-        <v>0.137656</v>
+        <v>0.14102</v>
       </c>
       <c r="E31" t="n">
-        <v>0.13258</v>
+        <v>0.133856</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135788</v>
+        <v>0.137318</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206667</v>
+        <v>0.208215</v>
       </c>
       <c r="D32" t="n">
-        <v>0.138372</v>
+        <v>0.139821</v>
       </c>
       <c r="E32" t="n">
-        <v>0.133236</v>
+        <v>0.134531</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13695</v>
+        <v>0.138371</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210486</v>
+        <v>0.213034</v>
       </c>
       <c r="D33" t="n">
-        <v>0.140152</v>
+        <v>0.141701</v>
       </c>
       <c r="E33" t="n">
-        <v>0.133602</v>
+        <v>0.135858</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138216</v>
+        <v>0.141116</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215204</v>
+        <v>0.218114</v>
       </c>
       <c r="D34" t="n">
-        <v>0.141</v>
+        <v>0.143409</v>
       </c>
       <c r="E34" t="n">
-        <v>0.136023</v>
+        <v>0.137792</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141306</v>
+        <v>0.144393</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168663</v>
+        <v>0.168895</v>
       </c>
       <c r="D35" t="n">
-        <v>0.144549</v>
+        <v>0.146352</v>
       </c>
       <c r="E35" t="n">
-        <v>0.139004</v>
+        <v>0.142034</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147843</v>
+        <v>0.148297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172556</v>
+        <v>0.173557</v>
       </c>
       <c r="D36" t="n">
-        <v>0.151188</v>
+        <v>0.154197</v>
       </c>
       <c r="E36" t="n">
-        <v>0.147699</v>
+        <v>0.149902</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155067</v>
+        <v>0.155815</v>
       </c>
       <c r="C37" t="n">
-        <v>0.176247</v>
+        <v>0.17732</v>
       </c>
       <c r="D37" t="n">
-        <v>0.149289</v>
+        <v>0.152322</v>
       </c>
       <c r="E37" t="n">
-        <v>0.148456</v>
+        <v>0.149669</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145377</v>
+        <v>0.14809</v>
       </c>
       <c r="C38" t="n">
-        <v>0.180789</v>
+        <v>0.181927</v>
       </c>
       <c r="D38" t="n">
-        <v>0.149708</v>
+        <v>0.153235</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148583</v>
+        <v>0.151582</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145055</v>
+        <v>0.149185</v>
       </c>
       <c r="C39" t="n">
-        <v>0.185571</v>
+        <v>0.186814</v>
       </c>
       <c r="D39" t="n">
-        <v>0.150564</v>
+        <v>0.152215</v>
       </c>
       <c r="E39" t="n">
-        <v>0.147598</v>
+        <v>0.150278</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145963</v>
+        <v>0.147604</v>
       </c>
       <c r="C40" t="n">
-        <v>0.189559</v>
+        <v>0.191096</v>
       </c>
       <c r="D40" t="n">
-        <v>0.150385</v>
+        <v>0.153404</v>
       </c>
       <c r="E40" t="n">
-        <v>0.148523</v>
+        <v>0.151425</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145356</v>
+        <v>0.148961</v>
       </c>
       <c r="C41" t="n">
-        <v>0.195</v>
+        <v>0.19507</v>
       </c>
       <c r="D41" t="n">
-        <v>0.150098</v>
+        <v>0.151812</v>
       </c>
       <c r="E41" t="n">
-        <v>0.148208</v>
+        <v>0.149373</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146652</v>
+        <v>0.148617</v>
       </c>
       <c r="C42" t="n">
-        <v>0.199387</v>
+        <v>0.200038</v>
       </c>
       <c r="D42" t="n">
-        <v>0.149701</v>
+        <v>0.150661</v>
       </c>
       <c r="E42" t="n">
-        <v>0.148776</v>
+        <v>0.151717</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148181</v>
+        <v>0.146091</v>
       </c>
       <c r="C43" t="n">
-        <v>0.203919</v>
+        <v>0.205772</v>
       </c>
       <c r="D43" t="n">
-        <v>0.150442</v>
+        <v>0.152112</v>
       </c>
       <c r="E43" t="n">
-        <v>0.148518</v>
+        <v>0.149086</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147474</v>
+        <v>0.14747</v>
       </c>
       <c r="C44" t="n">
-        <v>0.208917</v>
+        <v>0.210002</v>
       </c>
       <c r="D44" t="n">
-        <v>0.151109</v>
+        <v>0.152168</v>
       </c>
       <c r="E44" t="n">
-        <v>0.148597</v>
+        <v>0.150433</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148485</v>
+        <v>0.150517</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214252</v>
+        <v>0.215462</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152024</v>
+        <v>0.153968</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150063</v>
+        <v>0.152481</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.147872</v>
+        <v>0.151513</v>
       </c>
       <c r="C46" t="n">
-        <v>0.220219</v>
+        <v>0.22072</v>
       </c>
       <c r="D46" t="n">
-        <v>0.152717</v>
+        <v>0.154375</v>
       </c>
       <c r="E46" t="n">
-        <v>0.149937</v>
+        <v>0.151913</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149952</v>
+        <v>0.152274</v>
       </c>
       <c r="C47" t="n">
-        <v>0.224947</v>
+        <v>0.225632</v>
       </c>
       <c r="D47" t="n">
-        <v>0.153192</v>
+        <v>0.155498</v>
       </c>
       <c r="E47" t="n">
-        <v>0.151946</v>
+        <v>0.153501</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151998</v>
+        <v>0.154742</v>
       </c>
       <c r="C48" t="n">
-        <v>0.229118</v>
+        <v>0.22944</v>
       </c>
       <c r="D48" t="n">
-        <v>0.155564</v>
+        <v>0.157896</v>
       </c>
       <c r="E48" t="n">
-        <v>0.154801</v>
+        <v>0.156424</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.15451</v>
+        <v>0.156794</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23368</v>
+        <v>0.234381</v>
       </c>
       <c r="D49" t="n">
-        <v>0.160226</v>
+        <v>0.161536</v>
       </c>
       <c r="E49" t="n">
-        <v>0.158351</v>
+        <v>0.159711</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160755</v>
+        <v>0.160402</v>
       </c>
       <c r="C50" t="n">
-        <v>0.172225</v>
+        <v>0.171939</v>
       </c>
       <c r="D50" t="n">
-        <v>0.164521</v>
+        <v>0.164935</v>
       </c>
       <c r="E50" t="n">
-        <v>0.163591</v>
+        <v>0.166635</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166876</v>
+        <v>0.167185</v>
       </c>
       <c r="C51" t="n">
-        <v>0.17539</v>
+        <v>0.175352</v>
       </c>
       <c r="D51" t="n">
-        <v>0.163297</v>
+        <v>0.163877</v>
       </c>
       <c r="E51" t="n">
-        <v>0.165154</v>
+        <v>0.165501</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175663</v>
+        <v>0.176809</v>
       </c>
       <c r="C52" t="n">
-        <v>0.179048</v>
+        <v>0.179125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.163424</v>
+        <v>0.164557</v>
       </c>
       <c r="E52" t="n">
-        <v>0.165108</v>
+        <v>0.166359</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159371</v>
+        <v>0.159991</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183108</v>
+        <v>0.183358</v>
       </c>
       <c r="D53" t="n">
-        <v>0.163901</v>
+        <v>0.164409</v>
       </c>
       <c r="E53" t="n">
-        <v>0.164788</v>
+        <v>0.164446</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158185</v>
+        <v>0.159625</v>
       </c>
       <c r="C54" t="n">
-        <v>0.187825</v>
+        <v>0.188149</v>
       </c>
       <c r="D54" t="n">
-        <v>0.164709</v>
+        <v>0.165162</v>
       </c>
       <c r="E54" t="n">
-        <v>0.164918</v>
+        <v>0.165158</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.158687</v>
+        <v>0.15999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.192385</v>
+        <v>0.192323</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1642</v>
+        <v>0.165176</v>
       </c>
       <c r="E55" t="n">
-        <v>0.165317</v>
+        <v>0.165571</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161315</v>
+        <v>0.1592</v>
       </c>
       <c r="C56" t="n">
-        <v>0.198171</v>
+        <v>0.197735</v>
       </c>
       <c r="D56" t="n">
-        <v>0.164557</v>
+        <v>0.164833</v>
       </c>
       <c r="E56" t="n">
-        <v>0.165731</v>
+        <v>0.165435</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.159893</v>
+        <v>0.16212</v>
       </c>
       <c r="C57" t="n">
-        <v>0.202687</v>
+        <v>0.203044</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1649</v>
+        <v>0.166498</v>
       </c>
       <c r="E57" t="n">
-        <v>0.166426</v>
+        <v>0.166315</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161163</v>
+        <v>0.161194</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207991</v>
+        <v>0.2081</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166832</v>
+        <v>0.166532</v>
       </c>
       <c r="E58" t="n">
-        <v>0.167618</v>
+        <v>0.166524</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161857</v>
+        <v>0.161669</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212996</v>
+        <v>0.213075</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166697</v>
+        <v>0.167336</v>
       </c>
       <c r="E59" t="n">
-        <v>0.168405</v>
+        <v>0.167601</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16254</v>
+        <v>0.162624</v>
       </c>
       <c r="C60" t="n">
-        <v>0.218242</v>
+        <v>0.218581</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167252</v>
+        <v>0.167124</v>
       </c>
       <c r="E60" t="n">
-        <v>0.168402</v>
+        <v>0.169499</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165153</v>
+        <v>0.164777</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222676</v>
+        <v>0.223235</v>
       </c>
       <c r="D61" t="n">
-        <v>0.168192</v>
+        <v>0.168605</v>
       </c>
       <c r="E61" t="n">
-        <v>0.170194</v>
+        <v>0.1714</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16727</v>
+        <v>0.168313</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227525</v>
+        <v>0.228273</v>
       </c>
       <c r="D62" t="n">
-        <v>0.170127</v>
+        <v>0.170799</v>
       </c>
       <c r="E62" t="n">
-        <v>0.173555</v>
+        <v>0.174049</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169035</v>
+        <v>0.168832</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231983</v>
+        <v>0.232506</v>
       </c>
       <c r="D63" t="n">
-        <v>0.173342</v>
+        <v>0.173804</v>
       </c>
       <c r="E63" t="n">
-        <v>0.175776</v>
+        <v>0.17707</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173216</v>
+        <v>0.177128</v>
       </c>
       <c r="C64" t="n">
-        <v>0.180814</v>
+        <v>0.182107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177652</v>
+        <v>0.179024</v>
       </c>
       <c r="E64" t="n">
-        <v>0.180422</v>
+        <v>0.181578</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178438</v>
+        <v>0.178016</v>
       </c>
       <c r="C65" t="n">
-        <v>0.182876</v>
+        <v>0.183392</v>
       </c>
       <c r="D65" t="n">
-        <v>0.183859</v>
+        <v>0.184101</v>
       </c>
       <c r="E65" t="n">
-        <v>0.187646</v>
+        <v>0.188121</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185594</v>
+        <v>0.186894</v>
       </c>
       <c r="C66" t="n">
-        <v>0.187081</v>
+        <v>0.187606</v>
       </c>
       <c r="D66" t="n">
-        <v>0.175233</v>
+        <v>0.175857</v>
       </c>
       <c r="E66" t="n">
-        <v>0.176358</v>
+        <v>0.176138</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.17718</v>
+        <v>0.177898</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192802</v>
+        <v>0.192332</v>
       </c>
       <c r="D67" t="n">
-        <v>0.175903</v>
+        <v>0.176214</v>
       </c>
       <c r="E67" t="n">
-        <v>0.176551</v>
+        <v>0.176499</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.17792</v>
+        <v>0.176988</v>
       </c>
       <c r="C68" t="n">
-        <v>0.197799</v>
+        <v>0.197883</v>
       </c>
       <c r="D68" t="n">
-        <v>0.175795</v>
+        <v>0.176439</v>
       </c>
       <c r="E68" t="n">
-        <v>0.177227</v>
+        <v>0.177311</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.176975</v>
+        <v>0.180436</v>
       </c>
       <c r="C69" t="n">
-        <v>0.204206</v>
+        <v>0.203862</v>
       </c>
       <c r="D69" t="n">
-        <v>0.17664</v>
+        <v>0.177275</v>
       </c>
       <c r="E69" t="n">
-        <v>0.177638</v>
+        <v>0.178051</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179487</v>
+        <v>0.179514</v>
       </c>
       <c r="C70" t="n">
-        <v>0.211623</v>
+        <v>0.21202</v>
       </c>
       <c r="D70" t="n">
-        <v>0.176911</v>
+        <v>0.176953</v>
       </c>
       <c r="E70" t="n">
-        <v>0.177817</v>
+        <v>0.178129</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181068</v>
+        <v>0.181608</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218702</v>
+        <v>0.217921</v>
       </c>
       <c r="D71" t="n">
-        <v>0.177435</v>
+        <v>0.177765</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178851</v>
+        <v>0.178326</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.179934</v>
+        <v>0.179794</v>
       </c>
       <c r="C72" t="n">
-        <v>0.225218</v>
+        <v>0.224874</v>
       </c>
       <c r="D72" t="n">
-        <v>0.178161</v>
+        <v>0.17842</v>
       </c>
       <c r="E72" t="n">
-        <v>0.179137</v>
+        <v>0.178806</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180549</v>
+        <v>0.18355</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235243</v>
+        <v>0.233875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.178883</v>
+        <v>0.179057</v>
       </c>
       <c r="E73" t="n">
-        <v>0.180432</v>
+        <v>0.180048</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181701</v>
+        <v>0.181507</v>
       </c>
       <c r="C74" t="n">
-        <v>0.243398</v>
+        <v>0.243714</v>
       </c>
       <c r="D74" t="n">
-        <v>0.180534</v>
+        <v>0.181559</v>
       </c>
       <c r="E74" t="n">
-        <v>0.18161</v>
+        <v>0.181343</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183411</v>
+        <v>0.195319</v>
       </c>
       <c r="C75" t="n">
-        <v>0.253216</v>
+        <v>0.254682</v>
       </c>
       <c r="D75" t="n">
-        <v>0.182154</v>
+        <v>0.180932</v>
       </c>
       <c r="E75" t="n">
-        <v>0.182882</v>
+        <v>0.182851</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186347</v>
+        <v>0.188141</v>
       </c>
       <c r="C76" t="n">
-        <v>0.265352</v>
+        <v>0.262254</v>
       </c>
       <c r="D76" t="n">
-        <v>0.18348</v>
+        <v>0.183113</v>
       </c>
       <c r="E76" t="n">
-        <v>0.185365</v>
+        <v>0.185129</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189529</v>
+        <v>0.189294</v>
       </c>
       <c r="C77" t="n">
-        <v>0.272145</v>
+        <v>0.271835</v>
       </c>
       <c r="D77" t="n">
-        <v>0.18592</v>
+        <v>0.185561</v>
       </c>
       <c r="E77" t="n">
-        <v>0.18892</v>
+        <v>0.188482</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191166</v>
+        <v>0.193583</v>
       </c>
       <c r="C78" t="n">
-        <v>0.226548</v>
+        <v>0.2254</v>
       </c>
       <c r="D78" t="n">
-        <v>0.188982</v>
+        <v>0.189618</v>
       </c>
       <c r="E78" t="n">
-        <v>0.192861</v>
+        <v>0.192479</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.19762</v>
+        <v>0.199197</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237324</v>
+        <v>0.236703</v>
       </c>
       <c r="D79" t="n">
-        <v>0.195402</v>
+        <v>0.195317</v>
       </c>
       <c r="E79" t="n">
-        <v>0.199583</v>
+        <v>0.199439</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205455</v>
+        <v>0.206975</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249251</v>
+        <v>0.248131</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255185</v>
+        <v>0.231098</v>
       </c>
       <c r="E80" t="n">
-        <v>0.187017</v>
+        <v>0.186274</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.345145</v>
+        <v>0.34374</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259987</v>
+        <v>0.260029</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256518</v>
+        <v>0.234256</v>
       </c>
       <c r="E81" t="n">
-        <v>0.187502</v>
+        <v>0.187433</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343554</v>
+        <v>0.342569</v>
       </c>
       <c r="C82" t="n">
-        <v>0.272185</v>
+        <v>0.273305</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257826</v>
+        <v>0.256629</v>
       </c>
       <c r="E82" t="n">
-        <v>0.188548</v>
+        <v>0.188622</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345326</v>
+        <v>0.34703</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285002</v>
+        <v>0.285335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.256241</v>
+        <v>0.254064</v>
       </c>
       <c r="E83" t="n">
-        <v>0.188778</v>
+        <v>0.187495</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.34497</v>
+        <v>0.347557</v>
       </c>
       <c r="C84" t="n">
-        <v>0.300756</v>
+        <v>0.301366</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253877</v>
+        <v>0.254769</v>
       </c>
       <c r="E84" t="n">
-        <v>0.190479</v>
+        <v>0.190724</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.350511</v>
+        <v>0.347155</v>
       </c>
       <c r="C85" t="n">
-        <v>0.31612</v>
+        <v>0.315746</v>
       </c>
       <c r="D85" t="n">
-        <v>0.256359</v>
+        <v>0.253832</v>
       </c>
       <c r="E85" t="n">
-        <v>0.191102</v>
+        <v>0.191516</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34663</v>
+        <v>0.346399</v>
       </c>
       <c r="C86" t="n">
-        <v>0.329796</v>
+        <v>0.328366</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25522</v>
+        <v>0.255567</v>
       </c>
       <c r="E86" t="n">
-        <v>0.19264</v>
+        <v>0.19213</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348911</v>
+        <v>0.35238</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345039</v>
+        <v>0.343832</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251251</v>
+        <v>0.254963</v>
       </c>
       <c r="E87" t="n">
-        <v>0.194413</v>
+        <v>0.194176</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.34891</v>
+        <v>0.352753</v>
       </c>
       <c r="C88" t="n">
-        <v>0.363409</v>
+        <v>0.364098</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255224</v>
+        <v>0.253369</v>
       </c>
       <c r="E88" t="n">
-        <v>0.196433</v>
+        <v>0.195498</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.353169</v>
+        <v>0.351597</v>
       </c>
       <c r="C89" t="n">
-        <v>0.380859</v>
+        <v>0.380591</v>
       </c>
       <c r="D89" t="n">
-        <v>0.250648</v>
+        <v>0.255029</v>
       </c>
       <c r="E89" t="n">
-        <v>0.199148</v>
+        <v>0.198692</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353568</v>
+        <v>0.356073</v>
       </c>
       <c r="C90" t="n">
-        <v>0.393773</v>
+        <v>0.394564</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25093</v>
+        <v>0.252866</v>
       </c>
       <c r="E90" t="n">
-        <v>0.203401</v>
+        <v>0.201642</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.356017</v>
+        <v>0.355734</v>
       </c>
       <c r="C91" t="n">
-        <v>0.413283</v>
+        <v>0.414263</v>
       </c>
       <c r="D91" t="n">
-        <v>0.251082</v>
+        <v>0.252847</v>
       </c>
       <c r="E91" t="n">
-        <v>0.205802</v>
+        <v>0.205501</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.359335</v>
+        <v>0.358443</v>
       </c>
       <c r="C92" t="n">
-        <v>0.360499</v>
+        <v>0.361644</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253628</v>
+        <v>0.258576</v>
       </c>
       <c r="E92" t="n">
-        <v>0.211001</v>
+        <v>0.210855</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.359688</v>
+        <v>0.364493</v>
       </c>
       <c r="C93" t="n">
-        <v>0.373859</v>
+        <v>0.372701</v>
       </c>
       <c r="D93" t="n">
-        <v>0.258504</v>
+        <v>0.25993</v>
       </c>
       <c r="E93" t="n">
-        <v>0.22024</v>
+        <v>0.219223</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.370616</v>
+        <v>0.366612</v>
       </c>
       <c r="C94" t="n">
-        <v>0.382854</v>
+        <v>0.381313</v>
       </c>
       <c r="D94" t="n">
-        <v>0.413464</v>
+        <v>0.39971</v>
       </c>
       <c r="E94" t="n">
-        <v>0.277095</v>
+        <v>0.26827</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.501136</v>
+        <v>0.5026659999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.399493</v>
+        <v>0.39869</v>
       </c>
       <c r="D95" t="n">
-        <v>0.411478</v>
+        <v>0.411193</v>
       </c>
       <c r="E95" t="n">
-        <v>0.281074</v>
+        <v>0.269147</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5013030000000001</v>
+        <v>0.497126</v>
       </c>
       <c r="C96" t="n">
-        <v>0.408559</v>
+        <v>0.407887</v>
       </c>
       <c r="D96" t="n">
-        <v>0.412016</v>
+        <v>0.413336</v>
       </c>
       <c r="E96" t="n">
-        <v>0.286669</v>
+        <v>0.270818</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.500766</v>
+        <v>0.50147</v>
       </c>
       <c r="C97" t="n">
-        <v>0.42344</v>
+        <v>0.425621</v>
       </c>
       <c r="D97" t="n">
-        <v>0.41273</v>
+        <v>0.411952</v>
       </c>
       <c r="E97" t="n">
-        <v>0.278663</v>
+        <v>0.283915</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50295</v>
+        <v>0.50319</v>
       </c>
       <c r="C98" t="n">
-        <v>0.438005</v>
+        <v>0.440418</v>
       </c>
       <c r="D98" t="n">
-        <v>0.411536</v>
+        <v>0.41076</v>
       </c>
       <c r="E98" t="n">
-        <v>0.285014</v>
+        <v>0.277675</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.501827</v>
+        <v>0.502048</v>
       </c>
       <c r="C99" t="n">
-        <v>0.452336</v>
+        <v>0.448894</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410613</v>
+        <v>0.378849</v>
       </c>
       <c r="E99" t="n">
-        <v>0.282445</v>
+        <v>0.28307</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.502852</v>
+        <v>0.503233</v>
       </c>
       <c r="C100" t="n">
-        <v>0.466145</v>
+        <v>0.467714</v>
       </c>
       <c r="D100" t="n">
-        <v>0.410867</v>
+        <v>0.410718</v>
       </c>
       <c r="E100" t="n">
-        <v>0.284704</v>
+        <v>0.284415</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.502288</v>
+        <v>0.502736</v>
       </c>
       <c r="C101" t="n">
-        <v>0.483933</v>
+        <v>0.480468</v>
       </c>
       <c r="D101" t="n">
-        <v>0.41155</v>
+        <v>0.410355</v>
       </c>
       <c r="E101" t="n">
-        <v>0.284217</v>
+        <v>0.282593</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5044960000000001</v>
+        <v>0.505432</v>
       </c>
       <c r="C102" t="n">
-        <v>0.501647</v>
+        <v>0.502645</v>
       </c>
       <c r="D102" t="n">
-        <v>0.410031</v>
+        <v>0.411104</v>
       </c>
       <c r="E102" t="n">
-        <v>0.283404</v>
+        <v>0.279703</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506757</v>
+        <v>0.506594</v>
       </c>
       <c r="C103" t="n">
-        <v>0.517293</v>
+        <v>0.514009</v>
       </c>
       <c r="D103" t="n">
-        <v>0.411357</v>
+        <v>0.410636</v>
       </c>
       <c r="E103" t="n">
-        <v>0.290625</v>
+        <v>0.292927</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5088819999999999</v>
+        <v>0.508633</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529749</v>
+        <v>0.533328</v>
       </c>
       <c r="D104" t="n">
-        <v>0.413236</v>
+        <v>0.41292</v>
       </c>
       <c r="E104" t="n">
-        <v>0.284468</v>
+        <v>0.291349</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.510089</v>
+        <v>0.50981</v>
       </c>
       <c r="C105" t="n">
-        <v>0.549778</v>
+        <v>0.546827</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4153</v>
+        <v>0.38679</v>
       </c>
       <c r="E105" t="n">
-        <v>0.294767</v>
+        <v>0.293611</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.513849</v>
+        <v>0.513691</v>
       </c>
       <c r="C106" t="n">
-        <v>0.564809</v>
+        <v>0.565106</v>
       </c>
       <c r="D106" t="n">
-        <v>0.416525</v>
+        <v>0.41544</v>
       </c>
       <c r="E106" t="n">
-        <v>0.297617</v>
+        <v>0.288794</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519381</v>
+        <v>0.519</v>
       </c>
       <c r="C107" t="n">
-        <v>0.53329</v>
+        <v>0.534525</v>
       </c>
       <c r="D107" t="n">
-        <v>0.421496</v>
+        <v>0.421486</v>
       </c>
       <c r="E107" t="n">
-        <v>0.304236</v>
+        <v>0.303495</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526087</v>
+        <v>0.52668</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5437110000000001</v>
+        <v>0.528416</v>
       </c>
       <c r="D108" t="n">
-        <v>0.549342</v>
+        <v>0.545486</v>
       </c>
       <c r="E108" t="n">
-        <v>0.498662</v>
+        <v>0.494889</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.536079</v>
+        <v>0.535887</v>
       </c>
       <c r="C109" t="n">
-        <v>0.557719</v>
+        <v>0.547228</v>
       </c>
       <c r="D109" t="n">
-        <v>0.547968</v>
+        <v>0.548465</v>
       </c>
       <c r="E109" t="n">
-        <v>0.497911</v>
+        <v>0.499276</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.586277</v>
+        <v>0.583054</v>
       </c>
       <c r="C110" t="n">
-        <v>0.575143</v>
+        <v>0.577759</v>
       </c>
       <c r="D110" t="n">
-        <v>0.550615</v>
+        <v>0.550134</v>
       </c>
       <c r="E110" t="n">
-        <v>0.499628</v>
+        <v>0.498743</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585196</v>
+        <v>0.573922</v>
       </c>
       <c r="C111" t="n">
-        <v>0.586633</v>
+        <v>0.586825</v>
       </c>
       <c r="D111" t="n">
-        <v>0.548963</v>
+        <v>0.545835</v>
       </c>
       <c r="E111" t="n">
-        <v>0.501212</v>
+        <v>0.502534</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.585158</v>
+        <v>0.586234</v>
       </c>
       <c r="C112" t="n">
-        <v>0.597064</v>
+        <v>0.584218</v>
       </c>
       <c r="D112" t="n">
-        <v>0.551392</v>
+        <v>0.549881</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5019670000000001</v>
+        <v>0.490715</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.586286</v>
+        <v>0.5854819999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.611273</v>
+        <v>0.611896</v>
       </c>
       <c r="D113" t="n">
-        <v>0.550851</v>
+        <v>0.55341</v>
       </c>
       <c r="E113" t="n">
-        <v>0.503628</v>
+        <v>0.496536</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.585816</v>
+        <v>0.586809</v>
       </c>
       <c r="C114" t="n">
-        <v>0.624295</v>
+        <v>0.62047</v>
       </c>
       <c r="D114" t="n">
-        <v>0.551576</v>
+        <v>0.549982</v>
       </c>
       <c r="E114" t="n">
-        <v>0.504789</v>
+        <v>0.500257</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.587255</v>
+        <v>0.5882309999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.637983</v>
+        <v>0.636584</v>
       </c>
       <c r="D115" t="n">
-        <v>0.551277</v>
+        <v>0.5525949999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5052179999999999</v>
+        <v>0.489087</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.589657</v>
+        <v>0.587735</v>
       </c>
       <c r="C116" t="n">
-        <v>0.654092</v>
+        <v>0.653626</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5538650000000001</v>
+        <v>0.554328</v>
       </c>
       <c r="E116" t="n">
-        <v>0.506463</v>
+        <v>0.508952</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.591249</v>
+        <v>0.582026</v>
       </c>
       <c r="C117" t="n">
-        <v>0.670218</v>
+        <v>0.669451</v>
       </c>
       <c r="D117" t="n">
-        <v>0.556611</v>
+        <v>0.561198</v>
       </c>
       <c r="E117" t="n">
-        <v>0.509334</v>
+        <v>0.513018</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.592758</v>
+        <v>0.594372</v>
       </c>
       <c r="C118" t="n">
-        <v>0.683885</v>
+        <v>0.6844980000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5563360000000001</v>
+        <v>0.557439</v>
       </c>
       <c r="E118" t="n">
-        <v>0.511898</v>
+        <v>0.5127890000000001</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.597257</v>
+        <v>0.600146</v>
       </c>
       <c r="C119" t="n">
-        <v>0.709152</v>
+        <v>0.708148</v>
       </c>
       <c r="D119" t="n">
-        <v>0.560859</v>
+        <v>0.546439</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5163219999999999</v>
+        <v>0.523108</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.603436</v>
+        <v>0.59702</v>
       </c>
       <c r="C120" t="n">
-        <v>0.717085</v>
+        <v>0.715432</v>
       </c>
       <c r="D120" t="n">
-        <v>0.562862</v>
+        <v>0.559701</v>
       </c>
       <c r="E120" t="n">
-        <v>0.520216</v>
+        <v>0.520717</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606882</v>
+        <v>0.605835</v>
       </c>
       <c r="C121" t="n">
-        <v>0.644737</v>
+        <v>0.644477</v>
       </c>
       <c r="D121" t="n">
-        <v>0.571979</v>
+        <v>0.550372</v>
       </c>
       <c r="E121" t="n">
-        <v>0.524716</v>
+        <v>0.521354</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.615846</v>
+        <v>0.609006</v>
       </c>
       <c r="C122" t="n">
-        <v>0.652474</v>
+        <v>0.636053</v>
       </c>
       <c r="D122" t="n">
-        <v>0.576615</v>
+        <v>0.570547</v>
       </c>
       <c r="E122" t="n">
-        <v>0.535209</v>
+        <v>0.538144</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6288820000000001</v>
+        <v>0.614214</v>
       </c>
       <c r="C123" t="n">
-        <v>0.66775</v>
+        <v>0.667886</v>
       </c>
       <c r="D123" t="n">
-        <v>0.710419</v>
+        <v>0.71212</v>
       </c>
       <c r="E123" t="n">
-        <v>0.717514</v>
+        <v>0.711351</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.726765</v>
+        <v>0.714803</v>
       </c>
       <c r="C124" t="n">
-        <v>0.67898</v>
+        <v>0.666594</v>
       </c>
       <c r="D124" t="n">
-        <v>0.707402</v>
+        <v>0.707827</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7183850000000001</v>
+        <v>0.714399</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.727619</v>
+        <v>0.7277090000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.692537</v>
+        <v>0.693891</v>
       </c>
       <c r="D125" t="n">
-        <v>0.711736</v>
+        <v>0.709907</v>
       </c>
       <c r="E125" t="n">
-        <v>0.719355</v>
+        <v>0.7105399999999999</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.72923</v>
+        <v>0.725977</v>
       </c>
       <c r="C126" t="n">
-        <v>0.708487</v>
+        <v>0.70965</v>
       </c>
       <c r="D126" t="n">
-        <v>0.711362</v>
+        <v>0.712073</v>
       </c>
       <c r="E126" t="n">
-        <v>0.720704</v>
+        <v>0.716237</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.730795</v>
+        <v>0.729206</v>
       </c>
       <c r="C127" t="n">
-        <v>0.720924</v>
+        <v>0.721735</v>
       </c>
       <c r="D127" t="n">
-        <v>0.711652</v>
+        <v>0.71031</v>
       </c>
       <c r="E127" t="n">
-        <v>0.724559</v>
+        <v>0.720534</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732165</v>
+        <v>0.731726</v>
       </c>
       <c r="C128" t="n">
-        <v>0.733029</v>
+        <v>0.733869</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7107560000000001</v>
+        <v>0.7121499999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.724587</v>
+        <v>0.71685</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732175</v>
+        <v>0.7152770000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7440870000000001</v>
+        <v>0.744824</v>
       </c>
       <c r="D129" t="n">
-        <v>0.715264</v>
+        <v>0.711825</v>
       </c>
       <c r="E129" t="n">
-        <v>0.72587</v>
+        <v>0.718682</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.733666</v>
+        <v>0.735604</v>
       </c>
       <c r="C130" t="n">
-        <v>0.760163</v>
+        <v>0.760513</v>
       </c>
       <c r="D130" t="n">
-        <v>0.716754</v>
+        <v>0.7153119999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.729613</v>
+        <v>0.725357</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.735641</v>
+        <v>0.7373459999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.777517</v>
+        <v>0.779301</v>
       </c>
       <c r="D131" t="n">
-        <v>0.718002</v>
+        <v>0.723979</v>
       </c>
       <c r="E131" t="n">
-        <v>0.730731</v>
+        <v>0.730539</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7391720000000001</v>
+        <v>0.737933</v>
       </c>
       <c r="C132" t="n">
-        <v>0.793564</v>
+        <v>0.794326</v>
       </c>
       <c r="D132" t="n">
-        <v>0.719367</v>
+        <v>0.7190260000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.733506</v>
+        <v>0.732407</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.741013</v>
+        <v>0.729886</v>
       </c>
       <c r="C133" t="n">
-        <v>0.812889</v>
+        <v>0.812208</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7226630000000001</v>
+        <v>0.7209719999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.73776</v>
+        <v>0.7395119999999999</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.745767</v>
+        <v>0.749026</v>
       </c>
       <c r="C134" t="n">
-        <v>0.827606</v>
+        <v>0.828449</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7260219999999999</v>
+        <v>0.726768</v>
       </c>
       <c r="E134" t="n">
-        <v>0.743271</v>
+        <v>0.741684</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.753728</v>
+        <v>0.756518</v>
       </c>
       <c r="C135" t="n">
-        <v>0.696058</v>
+        <v>0.685761</v>
       </c>
       <c r="D135" t="n">
-        <v>0.731134</v>
+        <v>0.733599</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7505540000000001</v>
+        <v>0.750611</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.761993</v>
+        <v>0.762625</v>
       </c>
       <c r="C136" t="n">
-        <v>0.705555</v>
+        <v>0.706853</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7397590000000001</v>
+        <v>0.7299099999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.759664</v>
+        <v>0.760468</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.772303</v>
+        <v>0.75809</v>
       </c>
       <c r="C137" t="n">
-        <v>0.716886</v>
+        <v>0.718163</v>
       </c>
       <c r="D137" t="n">
-        <v>0.846063</v>
+        <v>0.846255</v>
       </c>
       <c r="E137" t="n">
-        <v>0.852586</v>
+        <v>0.839072</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.857715</v>
+        <v>0.846175</v>
       </c>
       <c r="C138" t="n">
-        <v>0.727305</v>
+        <v>0.727545</v>
       </c>
       <c r="D138" t="n">
-        <v>0.846534</v>
+        <v>0.846262</v>
       </c>
       <c r="E138" t="n">
-        <v>0.853326</v>
+        <v>0.83624</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.857932</v>
+        <v>0.860004</v>
       </c>
       <c r="C139" t="n">
-        <v>0.739626</v>
+        <v>0.73076</v>
       </c>
       <c r="D139" t="n">
-        <v>0.847608</v>
+        <v>0.846266</v>
       </c>
       <c r="E139" t="n">
-        <v>0.854838</v>
+        <v>0.8387869999999999</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8594580000000001</v>
+        <v>0.85849</v>
       </c>
       <c r="C140" t="n">
-        <v>0.75235</v>
+        <v>0.752601</v>
       </c>
       <c r="D140" t="n">
-        <v>0.846989</v>
+        <v>0.84759</v>
       </c>
       <c r="E140" t="n">
-        <v>0.856245</v>
+        <v>0.857587</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.859611</v>
+        <v>0.847614</v>
       </c>
       <c r="C141" t="n">
-        <v>0.764988</v>
+        <v>0.7661559999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.847152</v>
+        <v>0.848189</v>
       </c>
       <c r="E141" t="n">
-        <v>0.856779</v>
+        <v>0.857004</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.859258</v>
+        <v>0.861142</v>
       </c>
       <c r="C142" t="n">
-        <v>0.78235</v>
+        <v>0.7740010000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.848081</v>
+        <v>0.84824</v>
       </c>
       <c r="E142" t="n">
-        <v>0.859588</v>
+        <v>0.846853</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.861527</v>
+        <v>0.849214</v>
       </c>
       <c r="C143" t="n">
-        <v>0.796528</v>
+        <v>0.79674</v>
       </c>
       <c r="D143" t="n">
-        <v>0.849502</v>
+        <v>0.835684</v>
       </c>
       <c r="E143" t="n">
-        <v>0.860762</v>
+        <v>0.848379</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.111226</v>
+        <v>0.110938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133095</v>
+        <v>0.108525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.120647</v>
+        <v>0.13569</v>
       </c>
       <c r="E2" t="n">
-        <v>0.120952</v>
+        <v>0.120806</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.121776</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11112</v>
+        <v>0.113006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139146</v>
+        <v>0.109069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.120711</v>
+        <v>0.142408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.120717</v>
+        <v>0.12056</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.121835</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112113</v>
+        <v>0.111729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145788</v>
+        <v>0.108291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120919</v>
+        <v>0.148148</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121111</v>
+        <v>0.121036</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.121892</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112355</v>
+        <v>0.113331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.154059</v>
+        <v>0.109662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.121284</v>
+        <v>0.156058</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121595</v>
+        <v>0.121479</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.122017</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113319</v>
+        <v>0.114333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159381</v>
+        <v>0.110609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122067</v>
+        <v>0.160585</v>
       </c>
       <c r="E6" t="n">
-        <v>0.122115</v>
+        <v>0.122051</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.123091</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114664</v>
+        <v>0.115251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.132146</v>
+        <v>0.111991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.123687</v>
+        <v>0.133714</v>
       </c>
       <c r="E7" t="n">
-        <v>0.123565</v>
+        <v>0.122924</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.124279</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116838</v>
+        <v>0.117337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.134715</v>
+        <v>0.115072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124926</v>
+        <v>0.136073</v>
       </c>
       <c r="E8" t="n">
-        <v>0.125606</v>
+        <v>0.125154</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.126226</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119768</v>
+        <v>0.122423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.140057</v>
+        <v>0.118669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.128882</v>
+        <v>0.140328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.122836</v>
+        <v>0.125329</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.124162</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123636</v>
+        <v>0.121478</v>
       </c>
       <c r="C10" t="n">
-        <v>0.144797</v>
+        <v>0.1128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.129113</v>
+        <v>0.144934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.123025</v>
+        <v>0.125798</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.124363</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123836</v>
+        <v>0.121417</v>
       </c>
       <c r="C11" t="n">
-        <v>0.147374</v>
+        <v>0.112999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1289</v>
+        <v>0.148727</v>
       </c>
       <c r="E11" t="n">
-        <v>0.123254</v>
+        <v>0.126066</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.124685</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124747</v>
+        <v>0.121866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.153175</v>
+        <v>0.111581</v>
       </c>
       <c r="D12" t="n">
-        <v>0.129261</v>
+        <v>0.154122</v>
       </c>
       <c r="E12" t="n">
-        <v>0.123437</v>
+        <v>0.126643</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.123873</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124701</v>
+        <v>0.122987</v>
       </c>
       <c r="C13" t="n">
-        <v>0.157969</v>
+        <v>0.113696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.129701</v>
+        <v>0.159792</v>
       </c>
       <c r="E13" t="n">
-        <v>0.123772</v>
+        <v>0.126867</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.124668</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.124664</v>
+        <v>0.122457</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16343</v>
+        <v>0.113128</v>
       </c>
       <c r="D14" t="n">
-        <v>0.129594</v>
+        <v>0.165656</v>
       </c>
       <c r="E14" t="n">
-        <v>0.124033</v>
+        <v>0.127182</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.124075</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124814</v>
+        <v>0.122777</v>
       </c>
       <c r="C15" t="n">
-        <v>0.169929</v>
+        <v>0.113863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.129853</v>
+        <v>0.172511</v>
       </c>
       <c r="E15" t="n">
-        <v>0.123728</v>
+        <v>0.127664</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.124323</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126043</v>
+        <v>0.124646</v>
       </c>
       <c r="C16" t="n">
-        <v>0.17571</v>
+        <v>0.114292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.130256</v>
+        <v>0.177634</v>
       </c>
       <c r="E16" t="n">
-        <v>0.124146</v>
+        <v>0.128178</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.124791</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125771</v>
+        <v>0.124713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.181904</v>
+        <v>0.113492</v>
       </c>
       <c r="D17" t="n">
-        <v>0.130215</v>
+        <v>0.182823</v>
       </c>
       <c r="E17" t="n">
-        <v>0.124601</v>
+        <v>0.128024</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.124846</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126414</v>
+        <v>0.125544</v>
       </c>
       <c r="C18" t="n">
-        <v>0.187494</v>
+        <v>0.11391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.130772</v>
+        <v>0.188947</v>
       </c>
       <c r="E18" t="n">
-        <v>0.12537</v>
+        <v>0.128802</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.125919</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126858</v>
+        <v>0.126347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.194512</v>
+        <v>0.114916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.130915</v>
+        <v>0.193747</v>
       </c>
       <c r="E19" t="n">
-        <v>0.125585</v>
+        <v>0.128897</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.126423</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128783</v>
+        <v>0.127542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.199376</v>
+        <v>0.116889</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1313</v>
+        <v>0.199927</v>
       </c>
       <c r="E20" t="n">
-        <v>0.126329</v>
+        <v>0.130295</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.127391</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130694</v>
+        <v>0.129473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.15377</v>
+        <v>0.11881</v>
       </c>
       <c r="D21" t="n">
-        <v>0.134177</v>
+        <v>0.15297</v>
       </c>
       <c r="E21" t="n">
-        <v>0.128861</v>
+        <v>0.132023</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.131662</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134161</v>
+        <v>0.133532</v>
       </c>
       <c r="C22" t="n">
-        <v>0.159195</v>
+        <v>0.122138</v>
       </c>
       <c r="D22" t="n">
-        <v>0.13751</v>
+        <v>0.156908</v>
       </c>
       <c r="E22" t="n">
-        <v>0.131848</v>
+        <v>0.136164</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.131523</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141371</v>
+        <v>0.141466</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164365</v>
+        <v>0.131408</v>
       </c>
       <c r="D23" t="n">
-        <v>0.136561</v>
+        <v>0.161952</v>
       </c>
       <c r="E23" t="n">
-        <v>0.133127</v>
+        <v>0.135464</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.130834</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133716</v>
+        <v>0.133222</v>
       </c>
       <c r="C24" t="n">
-        <v>0.168063</v>
+        <v>0.121435</v>
       </c>
       <c r="D24" t="n">
-        <v>0.137792</v>
+        <v>0.167733</v>
       </c>
       <c r="E24" t="n">
-        <v>0.13281</v>
+        <v>0.136405</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.131192</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134617</v>
+        <v>0.133909</v>
       </c>
       <c r="C25" t="n">
-        <v>0.172003</v>
+        <v>0.122519</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13918</v>
+        <v>0.172258</v>
       </c>
       <c r="E25" t="n">
-        <v>0.134034</v>
+        <v>0.136771</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.133366</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134997</v>
+        <v>0.133809</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175945</v>
+        <v>0.122795</v>
       </c>
       <c r="D26" t="n">
-        <v>0.138787</v>
+        <v>0.177144</v>
       </c>
       <c r="E26" t="n">
-        <v>0.133635</v>
+        <v>0.136459</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.131316</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135644</v>
+        <v>0.133353</v>
       </c>
       <c r="C27" t="n">
-        <v>0.183264</v>
+        <v>0.12472</v>
       </c>
       <c r="D27" t="n">
-        <v>0.138528</v>
+        <v>0.18163</v>
       </c>
       <c r="E27" t="n">
-        <v>0.132752</v>
+        <v>0.137629</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.132895</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134533</v>
+        <v>0.134687</v>
       </c>
       <c r="C28" t="n">
-        <v>0.188268</v>
+        <v>0.121822</v>
       </c>
       <c r="D28" t="n">
-        <v>0.13925</v>
+        <v>0.187001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.134558</v>
+        <v>0.13688</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.132835</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134878</v>
+        <v>0.135091</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19325</v>
+        <v>0.123488</v>
       </c>
       <c r="D29" t="n">
-        <v>0.137742</v>
+        <v>0.192799</v>
       </c>
       <c r="E29" t="n">
-        <v>0.133681</v>
+        <v>0.137319</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.134083</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135982</v>
+        <v>0.136012</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1966</v>
+        <v>0.124384</v>
       </c>
       <c r="D30" t="n">
-        <v>0.138424</v>
+        <v>0.198171</v>
       </c>
       <c r="E30" t="n">
-        <v>0.133488</v>
+        <v>0.137688</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.132949</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.137878</v>
+        <v>0.135472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.202692</v>
+        <v>0.124063</v>
       </c>
       <c r="D31" t="n">
-        <v>0.14102</v>
+        <v>0.201984</v>
       </c>
       <c r="E31" t="n">
-        <v>0.133856</v>
+        <v>0.137705</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.132806</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137318</v>
+        <v>0.135797</v>
       </c>
       <c r="C32" t="n">
-        <v>0.208215</v>
+        <v>0.12442</v>
       </c>
       <c r="D32" t="n">
-        <v>0.139821</v>
+        <v>0.207598</v>
       </c>
       <c r="E32" t="n">
-        <v>0.134531</v>
+        <v>0.13889</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.133506</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.138371</v>
+        <v>0.136718</v>
       </c>
       <c r="C33" t="n">
-        <v>0.213034</v>
+        <v>0.1282</v>
       </c>
       <c r="D33" t="n">
-        <v>0.141701</v>
+        <v>0.212866</v>
       </c>
       <c r="E33" t="n">
-        <v>0.135858</v>
+        <v>0.139671</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.135103</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.141116</v>
+        <v>0.138592</v>
       </c>
       <c r="C34" t="n">
-        <v>0.218114</v>
+        <v>0.127848</v>
       </c>
       <c r="D34" t="n">
-        <v>0.143409</v>
+        <v>0.218701</v>
       </c>
       <c r="E34" t="n">
-        <v>0.137792</v>
+        <v>0.141454</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.137383</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.144393</v>
+        <v>0.141406</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168895</v>
+        <v>0.131031</v>
       </c>
       <c r="D35" t="n">
-        <v>0.146352</v>
+        <v>0.169605</v>
       </c>
       <c r="E35" t="n">
-        <v>0.142034</v>
+        <v>0.145714</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.140363</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148297</v>
+        <v>0.146871</v>
       </c>
       <c r="C36" t="n">
-        <v>0.173557</v>
+        <v>0.137179</v>
       </c>
       <c r="D36" t="n">
-        <v>0.154197</v>
+        <v>0.173865</v>
       </c>
       <c r="E36" t="n">
-        <v>0.149902</v>
+        <v>0.152276</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.148519</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155815</v>
+        <v>0.154402</v>
       </c>
       <c r="C37" t="n">
-        <v>0.17732</v>
+        <v>0.144929</v>
       </c>
       <c r="D37" t="n">
-        <v>0.152322</v>
+        <v>0.177639</v>
       </c>
       <c r="E37" t="n">
-        <v>0.149669</v>
+        <v>0.151112</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.150681</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14809</v>
+        <v>0.145516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.181927</v>
+        <v>0.140955</v>
       </c>
       <c r="D38" t="n">
-        <v>0.153235</v>
+        <v>0.182783</v>
       </c>
       <c r="E38" t="n">
-        <v>0.151582</v>
+        <v>0.148404</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.148689</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149185</v>
+        <v>0.145275</v>
       </c>
       <c r="C39" t="n">
-        <v>0.186814</v>
+        <v>0.140176</v>
       </c>
       <c r="D39" t="n">
-        <v>0.152215</v>
+        <v>0.187219</v>
       </c>
       <c r="E39" t="n">
-        <v>0.150278</v>
+        <v>0.150054</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.149486</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147604</v>
+        <v>0.146394</v>
       </c>
       <c r="C40" t="n">
-        <v>0.191096</v>
+        <v>0.141785</v>
       </c>
       <c r="D40" t="n">
-        <v>0.153404</v>
+        <v>0.191898</v>
       </c>
       <c r="E40" t="n">
-        <v>0.151425</v>
+        <v>0.150146</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.149894</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148961</v>
+        <v>0.146411</v>
       </c>
       <c r="C41" t="n">
-        <v>0.19507</v>
+        <v>0.142181</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151812</v>
+        <v>0.196533</v>
       </c>
       <c r="E41" t="n">
-        <v>0.149373</v>
+        <v>0.150047</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.149357</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148617</v>
+        <v>0.145071</v>
       </c>
       <c r="C42" t="n">
-        <v>0.200038</v>
+        <v>0.139853</v>
       </c>
       <c r="D42" t="n">
-        <v>0.150661</v>
+        <v>0.201118</v>
       </c>
       <c r="E42" t="n">
-        <v>0.151717</v>
+        <v>0.149755</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.150072</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146091</v>
+        <v>0.144946</v>
       </c>
       <c r="C43" t="n">
-        <v>0.205772</v>
+        <v>0.141381</v>
       </c>
       <c r="D43" t="n">
-        <v>0.152112</v>
+        <v>0.207428</v>
       </c>
       <c r="E43" t="n">
-        <v>0.149086</v>
+        <v>0.151357</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.151707</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.14747</v>
+        <v>0.148113</v>
       </c>
       <c r="C44" t="n">
-        <v>0.210002</v>
+        <v>0.141282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.152168</v>
+        <v>0.211633</v>
       </c>
       <c r="E44" t="n">
-        <v>0.150433</v>
+        <v>0.15124</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.150822</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.150517</v>
+        <v>0.148565</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215462</v>
+        <v>0.14289</v>
       </c>
       <c r="D45" t="n">
-        <v>0.153968</v>
+        <v>0.216489</v>
       </c>
       <c r="E45" t="n">
-        <v>0.152481</v>
+        <v>0.151432</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.150397</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151513</v>
+        <v>0.149165</v>
       </c>
       <c r="C46" t="n">
-        <v>0.22072</v>
+        <v>0.143868</v>
       </c>
       <c r="D46" t="n">
-        <v>0.154375</v>
+        <v>0.222044</v>
       </c>
       <c r="E46" t="n">
-        <v>0.151913</v>
+        <v>0.151733</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.150616</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152274</v>
+        <v>0.150656</v>
       </c>
       <c r="C47" t="n">
-        <v>0.225632</v>
+        <v>0.143824</v>
       </c>
       <c r="D47" t="n">
-        <v>0.155498</v>
+        <v>0.227375</v>
       </c>
       <c r="E47" t="n">
-        <v>0.153501</v>
+        <v>0.153778</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.153492</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154742</v>
+        <v>0.15216</v>
       </c>
       <c r="C48" t="n">
-        <v>0.22944</v>
+        <v>0.147413</v>
       </c>
       <c r="D48" t="n">
-        <v>0.157896</v>
+        <v>0.231871</v>
       </c>
       <c r="E48" t="n">
-        <v>0.156424</v>
+        <v>0.156285</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.155153</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156794</v>
+        <v>0.156864</v>
       </c>
       <c r="C49" t="n">
-        <v>0.234381</v>
+        <v>0.152079</v>
       </c>
       <c r="D49" t="n">
-        <v>0.161536</v>
+        <v>0.236486</v>
       </c>
       <c r="E49" t="n">
-        <v>0.159711</v>
+        <v>0.160643</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.159709</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160402</v>
+        <v>0.161312</v>
       </c>
       <c r="C50" t="n">
-        <v>0.171939</v>
+        <v>0.154442</v>
       </c>
       <c r="D50" t="n">
-        <v>0.164935</v>
+        <v>0.172416</v>
       </c>
       <c r="E50" t="n">
-        <v>0.166635</v>
+        <v>0.16603</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.164307</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167185</v>
+        <v>0.166771</v>
       </c>
       <c r="C51" t="n">
-        <v>0.175352</v>
+        <v>0.164202</v>
       </c>
       <c r="D51" t="n">
-        <v>0.163877</v>
+        <v>0.175586</v>
       </c>
       <c r="E51" t="n">
-        <v>0.165501</v>
+        <v>0.162979</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.165047</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176809</v>
+        <v>0.175619</v>
       </c>
       <c r="C52" t="n">
-        <v>0.179125</v>
+        <v>0.170746</v>
       </c>
       <c r="D52" t="n">
-        <v>0.164557</v>
+        <v>0.179264</v>
       </c>
       <c r="E52" t="n">
-        <v>0.166359</v>
+        <v>0.163459</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.165061</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159991</v>
+        <v>0.158278</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183358</v>
+        <v>0.158611</v>
       </c>
       <c r="D53" t="n">
-        <v>0.164409</v>
+        <v>0.183618</v>
       </c>
       <c r="E53" t="n">
-        <v>0.164446</v>
+        <v>0.163336</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.165356</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159625</v>
+        <v>0.160023</v>
       </c>
       <c r="C54" t="n">
-        <v>0.188149</v>
+        <v>0.159221</v>
       </c>
       <c r="D54" t="n">
-        <v>0.165162</v>
+        <v>0.188048</v>
       </c>
       <c r="E54" t="n">
-        <v>0.165158</v>
+        <v>0.163574</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.165779</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.15999</v>
+        <v>0.158851</v>
       </c>
       <c r="C55" t="n">
-        <v>0.192323</v>
+        <v>0.158695</v>
       </c>
       <c r="D55" t="n">
-        <v>0.165176</v>
+        <v>0.192706</v>
       </c>
       <c r="E55" t="n">
-        <v>0.165571</v>
+        <v>0.164561</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.166053</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1592</v>
+        <v>0.160037</v>
       </c>
       <c r="C56" t="n">
-        <v>0.197735</v>
+        <v>0.159913</v>
       </c>
       <c r="D56" t="n">
-        <v>0.164833</v>
+        <v>0.197748</v>
       </c>
       <c r="E56" t="n">
-        <v>0.165435</v>
+        <v>0.164471</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.166696</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.16212</v>
+        <v>0.160493</v>
       </c>
       <c r="C57" t="n">
-        <v>0.203044</v>
+        <v>0.160314</v>
       </c>
       <c r="D57" t="n">
-        <v>0.166498</v>
+        <v>0.203174</v>
       </c>
       <c r="E57" t="n">
-        <v>0.166315</v>
+        <v>0.1645</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.167476</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161194</v>
+        <v>0.160679</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2081</v>
+        <v>0.159661</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166532</v>
+        <v>0.20846</v>
       </c>
       <c r="E58" t="n">
-        <v>0.166524</v>
+        <v>0.16512</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.167914</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161669</v>
+        <v>0.161539</v>
       </c>
       <c r="C59" t="n">
-        <v>0.213075</v>
+        <v>0.160557</v>
       </c>
       <c r="D59" t="n">
-        <v>0.167336</v>
+        <v>0.213097</v>
       </c>
       <c r="E59" t="n">
-        <v>0.167601</v>
+        <v>0.166187</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.168709</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162624</v>
+        <v>0.161968</v>
       </c>
       <c r="C60" t="n">
-        <v>0.218581</v>
+        <v>0.16332</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167124</v>
+        <v>0.218676</v>
       </c>
       <c r="E60" t="n">
-        <v>0.169499</v>
+        <v>0.167403</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.169547</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164777</v>
+        <v>0.164116</v>
       </c>
       <c r="C61" t="n">
-        <v>0.223235</v>
+        <v>0.163222</v>
       </c>
       <c r="D61" t="n">
-        <v>0.168605</v>
+        <v>0.223613</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1714</v>
+        <v>0.168817</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.173</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168313</v>
+        <v>0.166675</v>
       </c>
       <c r="C62" t="n">
-        <v>0.228273</v>
+        <v>0.168401</v>
       </c>
       <c r="D62" t="n">
-        <v>0.170799</v>
+        <v>0.228724</v>
       </c>
       <c r="E62" t="n">
-        <v>0.174049</v>
+        <v>0.171178</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.174623</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168832</v>
+        <v>0.169502</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232506</v>
+        <v>0.172012</v>
       </c>
       <c r="D63" t="n">
-        <v>0.173804</v>
+        <v>0.232676</v>
       </c>
       <c r="E63" t="n">
-        <v>0.17707</v>
+        <v>0.173887</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.176529</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177128</v>
+        <v>0.173457</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182107</v>
+        <v>0.172783</v>
       </c>
       <c r="D64" t="n">
-        <v>0.179024</v>
+        <v>0.181597</v>
       </c>
       <c r="E64" t="n">
-        <v>0.181578</v>
+        <v>0.177616</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.182324</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178016</v>
+        <v>0.178396</v>
       </c>
       <c r="C65" t="n">
-        <v>0.183392</v>
+        <v>0.180333</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184101</v>
+        <v>0.18437</v>
       </c>
       <c r="E65" t="n">
-        <v>0.188121</v>
+        <v>0.185122</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.188728</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186894</v>
+        <v>0.186829</v>
       </c>
       <c r="C66" t="n">
-        <v>0.187606</v>
+        <v>0.188703</v>
       </c>
       <c r="D66" t="n">
-        <v>0.175857</v>
+        <v>0.18892</v>
       </c>
       <c r="E66" t="n">
-        <v>0.176138</v>
+        <v>0.176504</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.176835</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.177898</v>
+        <v>0.18342</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192332</v>
+        <v>0.170521</v>
       </c>
       <c r="D67" t="n">
-        <v>0.176214</v>
+        <v>0.192667</v>
       </c>
       <c r="E67" t="n">
-        <v>0.176499</v>
+        <v>0.176441</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.177109</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.176988</v>
+        <v>0.180145</v>
       </c>
       <c r="C68" t="n">
-        <v>0.197883</v>
+        <v>0.171527</v>
       </c>
       <c r="D68" t="n">
-        <v>0.176439</v>
+        <v>0.198694</v>
       </c>
       <c r="E68" t="n">
-        <v>0.177311</v>
+        <v>0.176942</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.177224</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180436</v>
+        <v>0.181735</v>
       </c>
       <c r="C69" t="n">
-        <v>0.203862</v>
+        <v>0.172127</v>
       </c>
       <c r="D69" t="n">
-        <v>0.177275</v>
+        <v>0.205043</v>
       </c>
       <c r="E69" t="n">
-        <v>0.178051</v>
+        <v>0.178036</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.177654</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179514</v>
+        <v>0.183554</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21202</v>
+        <v>0.172103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.176953</v>
+        <v>0.21188</v>
       </c>
       <c r="E70" t="n">
-        <v>0.178129</v>
+        <v>0.178099</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.178241</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181608</v>
+        <v>0.180536</v>
       </c>
       <c r="C71" t="n">
-        <v>0.217921</v>
+        <v>0.17242</v>
       </c>
       <c r="D71" t="n">
-        <v>0.177765</v>
+        <v>0.219126</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178326</v>
+        <v>0.17845</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.178888</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.179794</v>
+        <v>0.181497</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224874</v>
+        <v>0.172541</v>
       </c>
       <c r="D72" t="n">
-        <v>0.17842</v>
+        <v>0.226158</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178806</v>
+        <v>0.178812</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.179632</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18355</v>
+        <v>0.181242</v>
       </c>
       <c r="C73" t="n">
-        <v>0.233875</v>
+        <v>0.174456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.179057</v>
+        <v>0.236496</v>
       </c>
       <c r="E73" t="n">
-        <v>0.180048</v>
+        <v>0.178839</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.180944</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181507</v>
+        <v>0.183796</v>
       </c>
       <c r="C74" t="n">
-        <v>0.243714</v>
+        <v>0.176212</v>
       </c>
       <c r="D74" t="n">
-        <v>0.181559</v>
+        <v>0.245639</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181343</v>
+        <v>0.179758</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.182095</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195319</v>
+        <v>0.186709</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254682</v>
+        <v>0.177092</v>
       </c>
       <c r="D75" t="n">
-        <v>0.180932</v>
+        <v>0.254486</v>
       </c>
       <c r="E75" t="n">
-        <v>0.182851</v>
+        <v>0.181292</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.183888</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.188141</v>
+        <v>0.190426</v>
       </c>
       <c r="C76" t="n">
-        <v>0.262254</v>
+        <v>0.17978</v>
       </c>
       <c r="D76" t="n">
-        <v>0.183113</v>
+        <v>0.263046</v>
       </c>
       <c r="E76" t="n">
-        <v>0.185129</v>
+        <v>0.182845</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.186217</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189294</v>
+        <v>0.19066</v>
       </c>
       <c r="C77" t="n">
-        <v>0.271835</v>
+        <v>0.181729</v>
       </c>
       <c r="D77" t="n">
-        <v>0.185561</v>
+        <v>0.272712</v>
       </c>
       <c r="E77" t="n">
-        <v>0.188482</v>
+        <v>0.186267</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.189116</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.193583</v>
+        <v>0.194076</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2254</v>
+        <v>0.186269</v>
       </c>
       <c r="D78" t="n">
-        <v>0.189618</v>
+        <v>0.224719</v>
       </c>
       <c r="E78" t="n">
-        <v>0.192479</v>
+        <v>0.189913</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.193567</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199197</v>
+        <v>0.196906</v>
       </c>
       <c r="C79" t="n">
-        <v>0.236703</v>
+        <v>0.191511</v>
       </c>
       <c r="D79" t="n">
-        <v>0.195317</v>
+        <v>0.230864</v>
       </c>
       <c r="E79" t="n">
-        <v>0.199439</v>
+        <v>0.195808</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.2001</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206975</v>
+        <v>0.206798</v>
       </c>
       <c r="C80" t="n">
-        <v>0.248131</v>
+        <v>0.200477</v>
       </c>
       <c r="D80" t="n">
-        <v>0.231098</v>
+        <v>0.242731</v>
       </c>
       <c r="E80" t="n">
-        <v>0.186274</v>
+        <v>0.251028</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.187474</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.34374</v>
+        <v>0.343939</v>
       </c>
       <c r="C81" t="n">
-        <v>0.260029</v>
+        <v>0.180476</v>
       </c>
       <c r="D81" t="n">
-        <v>0.234256</v>
+        <v>0.258113</v>
       </c>
       <c r="E81" t="n">
-        <v>0.187433</v>
+        <v>0.256052</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.187141</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342569</v>
+        <v>0.344081</v>
       </c>
       <c r="C82" t="n">
-        <v>0.273305</v>
+        <v>0.179792</v>
       </c>
       <c r="D82" t="n">
-        <v>0.256629</v>
+        <v>0.270821</v>
       </c>
       <c r="E82" t="n">
-        <v>0.188622</v>
+        <v>0.256359</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.188575</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34703</v>
+        <v>0.344803</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285335</v>
+        <v>0.181799</v>
       </c>
       <c r="D83" t="n">
-        <v>0.254064</v>
+        <v>0.285155</v>
       </c>
       <c r="E83" t="n">
-        <v>0.187495</v>
+        <v>0.258406</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.190993</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.347557</v>
+        <v>0.343971</v>
       </c>
       <c r="C84" t="n">
-        <v>0.301366</v>
+        <v>0.183756</v>
       </c>
       <c r="D84" t="n">
-        <v>0.254769</v>
+        <v>0.299878</v>
       </c>
       <c r="E84" t="n">
-        <v>0.190724</v>
+        <v>0.254217</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.190837</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.347155</v>
+        <v>0.344764</v>
       </c>
       <c r="C85" t="n">
-        <v>0.315746</v>
+        <v>0.184139</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253832</v>
+        <v>0.314057</v>
       </c>
       <c r="E85" t="n">
-        <v>0.191516</v>
+        <v>0.252922</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.192432</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.346399</v>
+        <v>0.341585</v>
       </c>
       <c r="C86" t="n">
-        <v>0.328366</v>
+        <v>0.183533</v>
       </c>
       <c r="D86" t="n">
-        <v>0.255567</v>
+        <v>0.330529</v>
       </c>
       <c r="E86" t="n">
-        <v>0.19213</v>
+        <v>0.253199</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.194887</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.35238</v>
+        <v>0.34618</v>
       </c>
       <c r="C87" t="n">
-        <v>0.343832</v>
+        <v>0.185128</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254963</v>
+        <v>0.345703</v>
       </c>
       <c r="E87" t="n">
-        <v>0.194176</v>
+        <v>0.2503</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.196444</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.352753</v>
+        <v>0.346398</v>
       </c>
       <c r="C88" t="n">
-        <v>0.364098</v>
+        <v>0.186957</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253369</v>
+        <v>0.362134</v>
       </c>
       <c r="E88" t="n">
-        <v>0.195498</v>
+        <v>0.249732</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.197536</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.351597</v>
+        <v>0.347996</v>
       </c>
       <c r="C89" t="n">
-        <v>0.380591</v>
+        <v>0.18918</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255029</v>
+        <v>0.379416</v>
       </c>
       <c r="E89" t="n">
-        <v>0.198692</v>
+        <v>0.25044</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.199618</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.356073</v>
+        <v>0.353146</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394564</v>
+        <v>0.191159</v>
       </c>
       <c r="D90" t="n">
-        <v>0.252866</v>
+        <v>0.393038</v>
       </c>
       <c r="E90" t="n">
-        <v>0.201642</v>
+        <v>0.253106</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.202278</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.355734</v>
+        <v>0.352511</v>
       </c>
       <c r="C91" t="n">
-        <v>0.414263</v>
+        <v>0.196132</v>
       </c>
       <c r="D91" t="n">
-        <v>0.252847</v>
+        <v>0.409916</v>
       </c>
       <c r="E91" t="n">
-        <v>0.205501</v>
+        <v>0.251907</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.206459</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.358443</v>
+        <v>0.357031</v>
       </c>
       <c r="C92" t="n">
-        <v>0.361644</v>
+        <v>0.200468</v>
       </c>
       <c r="D92" t="n">
-        <v>0.258576</v>
+        <v>0.360515</v>
       </c>
       <c r="E92" t="n">
-        <v>0.210855</v>
+        <v>0.25319</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.211614</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.364493</v>
+        <v>0.358774</v>
       </c>
       <c r="C93" t="n">
-        <v>0.372701</v>
+        <v>0.206758</v>
       </c>
       <c r="D93" t="n">
-        <v>0.25993</v>
+        <v>0.37361</v>
       </c>
       <c r="E93" t="n">
-        <v>0.219223</v>
+        <v>0.25751</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.220388</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.366612</v>
+        <v>0.363229</v>
       </c>
       <c r="C94" t="n">
-        <v>0.381313</v>
+        <v>0.215915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.39971</v>
+        <v>0.384759</v>
       </c>
       <c r="E94" t="n">
-        <v>0.26827</v>
+        <v>0.410792</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.278147</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5026659999999999</v>
+        <v>0.498153</v>
       </c>
       <c r="C95" t="n">
-        <v>0.39869</v>
+        <v>0.284355</v>
       </c>
       <c r="D95" t="n">
-        <v>0.411193</v>
+        <v>0.401251</v>
       </c>
       <c r="E95" t="n">
-        <v>0.269147</v>
+        <v>0.410548</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.280248</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.497126</v>
+        <v>0.499049</v>
       </c>
       <c r="C96" t="n">
-        <v>0.407887</v>
+        <v>0.283525</v>
       </c>
       <c r="D96" t="n">
-        <v>0.413336</v>
+        <v>0.407586</v>
       </c>
       <c r="E96" t="n">
-        <v>0.270818</v>
+        <v>0.40994</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.274609</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.50147</v>
+        <v>0.499047</v>
       </c>
       <c r="C97" t="n">
-        <v>0.425621</v>
+        <v>0.275796</v>
       </c>
       <c r="D97" t="n">
-        <v>0.411952</v>
+        <v>0.424165</v>
       </c>
       <c r="E97" t="n">
-        <v>0.283915</v>
+        <v>0.409203</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.276808</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50319</v>
+        <v>0.499821</v>
       </c>
       <c r="C98" t="n">
-        <v>0.440418</v>
+        <v>0.279613</v>
       </c>
       <c r="D98" t="n">
-        <v>0.41076</v>
+        <v>0.43538</v>
       </c>
       <c r="E98" t="n">
-        <v>0.277675</v>
+        <v>0.409907</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.275132</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.502048</v>
+        <v>0.500109</v>
       </c>
       <c r="C99" t="n">
-        <v>0.448894</v>
+        <v>0.27606</v>
       </c>
       <c r="D99" t="n">
-        <v>0.378849</v>
+        <v>0.454422</v>
       </c>
       <c r="E99" t="n">
-        <v>0.28307</v>
+        <v>0.40842</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.284102</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503233</v>
+        <v>0.50037</v>
       </c>
       <c r="C100" t="n">
-        <v>0.467714</v>
+        <v>0.281829</v>
       </c>
       <c r="D100" t="n">
-        <v>0.410718</v>
+        <v>0.466512</v>
       </c>
       <c r="E100" t="n">
-        <v>0.284415</v>
+        <v>0.403745</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.283192</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.502736</v>
+        <v>0.5015579999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.480468</v>
+        <v>0.285719</v>
       </c>
       <c r="D101" t="n">
-        <v>0.410355</v>
+        <v>0.482148</v>
       </c>
       <c r="E101" t="n">
-        <v>0.282593</v>
+        <v>0.40969</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.286163</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505432</v>
+        <v>0.502872</v>
       </c>
       <c r="C102" t="n">
-        <v>0.502645</v>
+        <v>0.283892</v>
       </c>
       <c r="D102" t="n">
-        <v>0.411104</v>
+        <v>0.498448</v>
       </c>
       <c r="E102" t="n">
-        <v>0.279703</v>
+        <v>0.409631</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.28484</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506594</v>
+        <v>0.504037</v>
       </c>
       <c r="C103" t="n">
-        <v>0.514009</v>
+        <v>0.281556</v>
       </c>
       <c r="D103" t="n">
-        <v>0.410636</v>
+        <v>0.513922</v>
       </c>
       <c r="E103" t="n">
-        <v>0.292927</v>
+        <v>0.411223</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.289727</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.508633</v>
+        <v>0.505695</v>
       </c>
       <c r="C104" t="n">
-        <v>0.533328</v>
+        <v>0.287851</v>
       </c>
       <c r="D104" t="n">
-        <v>0.41292</v>
+        <v>0.530524</v>
       </c>
       <c r="E104" t="n">
-        <v>0.291349</v>
+        <v>0.407706</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.291307</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.50981</v>
+        <v>0.508545</v>
       </c>
       <c r="C105" t="n">
-        <v>0.546827</v>
+        <v>0.293317</v>
       </c>
       <c r="D105" t="n">
-        <v>0.38679</v>
+        <v>0.543331</v>
       </c>
       <c r="E105" t="n">
-        <v>0.293611</v>
+        <v>0.414445</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.288745</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.513691</v>
+        <v>0.512099</v>
       </c>
       <c r="C106" t="n">
-        <v>0.565106</v>
+        <v>0.296976</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41544</v>
+        <v>0.562165</v>
       </c>
       <c r="E106" t="n">
-        <v>0.288794</v>
+        <v>0.402948</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.296038</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519</v>
+        <v>0.517016</v>
       </c>
       <c r="C107" t="n">
-        <v>0.534525</v>
+        <v>0.307286</v>
       </c>
       <c r="D107" t="n">
-        <v>0.421486</v>
+        <v>0.538127</v>
       </c>
       <c r="E107" t="n">
-        <v>0.303495</v>
+        <v>0.419561</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.299569</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.52668</v>
+        <v>0.524214</v>
       </c>
       <c r="C108" t="n">
-        <v>0.528416</v>
+        <v>0.308767</v>
       </c>
       <c r="D108" t="n">
-        <v>0.545486</v>
+        <v>0.549797</v>
       </c>
       <c r="E108" t="n">
-        <v>0.494889</v>
+        <v>0.5416069999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.487318</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.535887</v>
+        <v>0.535639</v>
       </c>
       <c r="C109" t="n">
-        <v>0.547228</v>
+        <v>0.329656</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548465</v>
+        <v>0.554809</v>
       </c>
       <c r="E109" t="n">
-        <v>0.499276</v>
+        <v>0.546269</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.496491</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.583054</v>
+        <v>0.582593</v>
       </c>
       <c r="C110" t="n">
-        <v>0.577759</v>
+        <v>0.494276</v>
       </c>
       <c r="D110" t="n">
-        <v>0.550134</v>
+        <v>0.569752</v>
       </c>
       <c r="E110" t="n">
-        <v>0.498743</v>
+        <v>0.52984</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.495904</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.573922</v>
+        <v>0.570024</v>
       </c>
       <c r="C111" t="n">
-        <v>0.586825</v>
+        <v>0.491248</v>
       </c>
       <c r="D111" t="n">
-        <v>0.545835</v>
+        <v>0.58397</v>
       </c>
       <c r="E111" t="n">
-        <v>0.502534</v>
+        <v>0.547923</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.495556</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.586234</v>
+        <v>0.584906</v>
       </c>
       <c r="C112" t="n">
-        <v>0.584218</v>
+        <v>0.492505</v>
       </c>
       <c r="D112" t="n">
-        <v>0.549881</v>
+        <v>0.594381</v>
       </c>
       <c r="E112" t="n">
-        <v>0.490715</v>
+        <v>0.53032</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.498391</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5854819999999999</v>
+        <v>0.584445</v>
       </c>
       <c r="C113" t="n">
-        <v>0.611896</v>
+        <v>0.49426</v>
       </c>
       <c r="D113" t="n">
-        <v>0.55341</v>
+        <v>0.609455</v>
       </c>
       <c r="E113" t="n">
-        <v>0.496536</v>
+        <v>0.546556</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.501162</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.586809</v>
+        <v>0.584345</v>
       </c>
       <c r="C114" t="n">
-        <v>0.62047</v>
+        <v>0.496751</v>
       </c>
       <c r="D114" t="n">
-        <v>0.549982</v>
+        <v>0.62104</v>
       </c>
       <c r="E114" t="n">
-        <v>0.500257</v>
+        <v>0.547062</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.499976</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5882309999999999</v>
+        <v>0.585879</v>
       </c>
       <c r="C115" t="n">
-        <v>0.636584</v>
+        <v>0.497454</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5525949999999999</v>
+        <v>0.634136</v>
       </c>
       <c r="E115" t="n">
-        <v>0.489087</v>
+        <v>0.549872</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.494623</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.587735</v>
+        <v>0.584852</v>
       </c>
       <c r="C116" t="n">
-        <v>0.653626</v>
+        <v>0.503174</v>
       </c>
       <c r="D116" t="n">
-        <v>0.554328</v>
+        <v>0.642989</v>
       </c>
       <c r="E116" t="n">
-        <v>0.508952</v>
+        <v>0.5492050000000001</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.501669</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.582026</v>
+        <v>0.589484</v>
       </c>
       <c r="C117" t="n">
-        <v>0.669451</v>
+        <v>0.503825</v>
       </c>
       <c r="D117" t="n">
-        <v>0.561198</v>
+        <v>0.670613</v>
       </c>
       <c r="E117" t="n">
-        <v>0.513018</v>
+        <v>0.554936</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.503744</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.594372</v>
+        <v>0.591938</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6844980000000001</v>
+        <v>0.507119</v>
       </c>
       <c r="D118" t="n">
-        <v>0.557439</v>
+        <v>0.677126</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5127890000000001</v>
+        <v>0.555449</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.509953</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.600146</v>
+        <v>0.593764</v>
       </c>
       <c r="C119" t="n">
-        <v>0.708148</v>
+        <v>0.514087</v>
       </c>
       <c r="D119" t="n">
-        <v>0.546439</v>
+        <v>0.695804</v>
       </c>
       <c r="E119" t="n">
-        <v>0.523108</v>
+        <v>0.5576410000000001</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.514093</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.59702</v>
+        <v>0.587485</v>
       </c>
       <c r="C120" t="n">
-        <v>0.715432</v>
+        <v>0.5152139999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.559701</v>
+        <v>0.721126</v>
       </c>
       <c r="E120" t="n">
-        <v>0.520717</v>
+        <v>0.544586</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.516209</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605835</v>
+        <v>0.594265</v>
       </c>
       <c r="C121" t="n">
-        <v>0.644477</v>
+        <v>0.52257</v>
       </c>
       <c r="D121" t="n">
-        <v>0.550372</v>
+        <v>0.640123</v>
       </c>
       <c r="E121" t="n">
-        <v>0.521354</v>
+        <v>0.546197</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.525548</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.609006</v>
+        <v>0.613683</v>
       </c>
       <c r="C122" t="n">
-        <v>0.636053</v>
+        <v>0.528771</v>
       </c>
       <c r="D122" t="n">
-        <v>0.570547</v>
+        <v>0.649811</v>
       </c>
       <c r="E122" t="n">
-        <v>0.538144</v>
+        <v>0.558611</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.535833</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.614214</v>
+        <v>0.625557</v>
       </c>
       <c r="C123" t="n">
-        <v>0.667886</v>
+        <v>0.545678</v>
       </c>
       <c r="D123" t="n">
-        <v>0.71212</v>
+        <v>0.664814</v>
       </c>
       <c r="E123" t="n">
-        <v>0.711351</v>
+        <v>0.706125</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.716398</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.714803</v>
+        <v>0.713117</v>
       </c>
       <c r="C124" t="n">
-        <v>0.666594</v>
+        <v>0.705638</v>
       </c>
       <c r="D124" t="n">
-        <v>0.707827</v>
+        <v>0.6745989999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.714399</v>
+        <v>0.689412</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.716974</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7277090000000001</v>
+        <v>0.7220839999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.693891</v>
+        <v>0.705937</v>
       </c>
       <c r="D125" t="n">
-        <v>0.709907</v>
+        <v>0.6879769999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7105399999999999</v>
+        <v>0.705489</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.716921</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.725977</v>
+        <v>0.729364</v>
       </c>
       <c r="C126" t="n">
-        <v>0.70965</v>
+        <v>0.707608</v>
       </c>
       <c r="D126" t="n">
-        <v>0.712073</v>
+        <v>0.700726</v>
       </c>
       <c r="E126" t="n">
-        <v>0.716237</v>
+        <v>0.710314</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.714534</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.729206</v>
+        <v>0.724379</v>
       </c>
       <c r="C127" t="n">
-        <v>0.721735</v>
+        <v>0.709592</v>
       </c>
       <c r="D127" t="n">
-        <v>0.71031</v>
+        <v>0.714749</v>
       </c>
       <c r="E127" t="n">
-        <v>0.720534</v>
+        <v>0.706716</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.706774</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.731726</v>
+        <v>0.715206</v>
       </c>
       <c r="C128" t="n">
-        <v>0.733869</v>
+        <v>0.710558</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7121499999999999</v>
+        <v>0.731886</v>
       </c>
       <c r="E128" t="n">
-        <v>0.71685</v>
+        <v>0.708762</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.715271</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7152770000000001</v>
+        <v>0.733873</v>
       </c>
       <c r="C129" t="n">
-        <v>0.744824</v>
+        <v>0.711508</v>
       </c>
       <c r="D129" t="n">
-        <v>0.711825</v>
+        <v>0.745739</v>
       </c>
       <c r="E129" t="n">
-        <v>0.718682</v>
+        <v>0.712531</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.723844</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.735604</v>
+        <v>0.718255</v>
       </c>
       <c r="C130" t="n">
-        <v>0.760513</v>
+        <v>0.712565</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7153119999999999</v>
+        <v>0.762348</v>
       </c>
       <c r="E130" t="n">
-        <v>0.725357</v>
+        <v>0.71296</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.717364</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7373459999999999</v>
+        <v>0.737471</v>
       </c>
       <c r="C131" t="n">
-        <v>0.779301</v>
+        <v>0.718531</v>
       </c>
       <c r="D131" t="n">
-        <v>0.723979</v>
+        <v>0.764557</v>
       </c>
       <c r="E131" t="n">
-        <v>0.730539</v>
+        <v>0.700855</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.725907</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.737933</v>
+        <v>0.736953</v>
       </c>
       <c r="C132" t="n">
-        <v>0.794326</v>
+        <v>0.72076</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7190260000000001</v>
+        <v>0.7917</v>
       </c>
       <c r="E132" t="n">
-        <v>0.732407</v>
+        <v>0.7038489999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.725711</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.729886</v>
+        <v>0.7396160000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.812208</v>
+        <v>0.724676</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7209719999999999</v>
+        <v>0.807935</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7395119999999999</v>
+        <v>0.716295</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.734581</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.749026</v>
+        <v>0.742891</v>
       </c>
       <c r="C134" t="n">
-        <v>0.828449</v>
+        <v>0.7286550000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.726768</v>
+        <v>0.812673</v>
       </c>
       <c r="E134" t="n">
-        <v>0.741684</v>
+        <v>0.721122</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.736142</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.756518</v>
+        <v>0.749212</v>
       </c>
       <c r="C135" t="n">
-        <v>0.685761</v>
+        <v>0.730059</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733599</v>
+        <v>0.693544</v>
       </c>
       <c r="E135" t="n">
-        <v>0.750611</v>
+        <v>0.728425</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.731277</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.762625</v>
+        <v>0.759578</v>
       </c>
       <c r="C136" t="n">
-        <v>0.706853</v>
+        <v>0.747861</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7299099999999999</v>
+        <v>0.702492</v>
       </c>
       <c r="E136" t="n">
-        <v>0.760468</v>
+        <v>0.737564</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.758343</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.75809</v>
+        <v>0.759011</v>
       </c>
       <c r="C137" t="n">
-        <v>0.718163</v>
+        <v>0.763</v>
       </c>
       <c r="D137" t="n">
-        <v>0.846255</v>
+        <v>0.714154</v>
       </c>
       <c r="E137" t="n">
-        <v>0.839072</v>
+        <v>0.842259</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.8454120000000001</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.846175</v>
+        <v>0.853658</v>
       </c>
       <c r="C138" t="n">
-        <v>0.727545</v>
+        <v>0.845652</v>
       </c>
       <c r="D138" t="n">
-        <v>0.846262</v>
+        <v>0.726343</v>
       </c>
       <c r="E138" t="n">
-        <v>0.83624</v>
+        <v>0.829574</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.84727</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.860004</v>
+        <v>0.853807</v>
       </c>
       <c r="C139" t="n">
-        <v>0.73076</v>
+        <v>0.844836</v>
       </c>
       <c r="D139" t="n">
-        <v>0.846266</v>
+        <v>0.728015</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8387869999999999</v>
+        <v>0.8427750000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.848778</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.85849</v>
+        <v>0.84248</v>
       </c>
       <c r="C140" t="n">
-        <v>0.752601</v>
+        <v>0.8327599999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.84759</v>
+        <v>0.752184</v>
       </c>
       <c r="E140" t="n">
-        <v>0.857587</v>
+        <v>0.842732</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.849993</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.847614</v>
+        <v>0.853885</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7661559999999999</v>
+        <v>0.833252</v>
       </c>
       <c r="D141" t="n">
-        <v>0.848189</v>
+        <v>0.766273</v>
       </c>
       <c r="E141" t="n">
-        <v>0.857004</v>
+        <v>0.843676</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.844212</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.861142</v>
+        <v>0.85547</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7740010000000001</v>
+        <v>0.849308</v>
       </c>
       <c r="D142" t="n">
-        <v>0.84824</v>
+        <v>0.778158</v>
       </c>
       <c r="E142" t="n">
-        <v>0.846853</v>
+        <v>0.830732</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.852144</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.849214</v>
+        <v>0.855121</v>
       </c>
       <c r="C143" t="n">
-        <v>0.79674</v>
+        <v>0.8492729999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.835684</v>
+        <v>0.794618</v>
       </c>
       <c r="E143" t="n">
-        <v>0.848379</v>
+        <v>0.845256</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.854803</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0194751</v>
+                  <v>0.0193848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195629</v>
+                  <v>0.0194619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.019489</v>
+                  <v>0.0193778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0195779</v>
+                  <v>0.0194707</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0196134</v>
+                  <v>0.0196489</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0197913</v>
+                  <v>0.0196529</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0199155</v>
+                  <v>0.0199483</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0201101</v>
+                  <v>0.0201947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196084</v>
+                  <v>0.0192209</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195614</v>
+                  <v>0.019424</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196347</v>
+                  <v>0.0197447</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198925</v>
+                  <v>0.0197918</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0200039</v>
+                  <v>0.0198616</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201837</v>
+                  <v>0.0200231</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200675</v>
+                  <v>0.0201789</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0201647</v>
+                  <v>0.0202069</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0202739</v>
+                  <v>0.0204096</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0202086</v>
+                  <v>0.0205851</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0205069</v>
+                  <v>0.0206359</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0207083</v>
+                  <v>0.0208679</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0211543</v>
+                  <v>0.0211078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0230484</v>
+                  <v>0.0248881</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206813</v>
+                  <v>0.0203805</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0207405</v>
+                  <v>0.0204958</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207665</v>
+                  <v>0.0206497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0209769</v>
+                  <v>0.0208718</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.021056</v>
+                  <v>0.0210186</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212252</v>
+                  <v>0.0211438</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0213505</v>
+                  <v>0.0213385</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215039</v>
+                  <v>0.021513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0217981</v>
+                  <v>0.0220629</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221214</v>
+                  <v>0.0221137</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.023275</v>
+                  <v>0.0228733</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0250124</v>
+                  <v>0.0243698</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0266118</v>
+                  <v>0.0271109</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0311996</v>
+                  <v>0.0312224</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0216211</v>
+                  <v>0.0214949</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0218931</v>
+                  <v>0.0218569</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219329</v>
+                  <v>0.0217457</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0221215</v>
+                  <v>0.0220473</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0222904</v>
+                  <v>0.0222951</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224773</v>
+                  <v>0.0224305</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0228221</v>
+                  <v>0.0226572</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230365</v>
+                  <v>0.0229888</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235124</v>
+                  <v>0.0234883</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.02408</v>
+                  <v>0.0238963</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.025044</v>
+                  <v>0.025005</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0279553</v>
+                  <v>0.0268192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0304389</v>
+                  <v>0.029844</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0353825</v>
+                  <v>0.0336676</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0392081</v>
+                  <v>0.03842</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230524</v>
+                  <v>0.0233104</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0234244</v>
+                  <v>0.023341</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234108</v>
+                  <v>0.0237441</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239286</v>
+                  <v>0.0239331</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0240818</v>
+                  <v>0.0241352</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.024439</v>
+                  <v>0.024359</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0247787</v>
+                  <v>0.0245657</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252449</v>
+                  <v>0.0251086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265282</v>
+                  <v>0.0260587</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0274839</v>
+                  <v>0.0274484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0294202</v>
+                  <v>0.0293528</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.032256</v>
+                  <v>0.0319897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.035998</v>
+                  <v>0.0356338</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0410284</v>
+                  <v>0.0409657</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292854</v>
+                  <v>0.0289145</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293731</v>
+                  <v>0.0290849</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0295223</v>
+                  <v>0.0291312</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297504</v>
+                  <v>0.0292314</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300985</v>
+                  <v>0.0295317</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302054</v>
+                  <v>0.0298013</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030751</v>
+                  <v>0.0301607</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311922</v>
+                  <v>0.030776</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0320559</v>
+                  <v>0.0317162</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331467</v>
+                  <v>0.0328879</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348991</v>
+                  <v>0.0346028</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0373412</v>
+                  <v>0.0370192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0409062</v>
+                  <v>0.0402907</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0457293</v>
+                  <v>0.0451694</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0555257</v>
+                  <v>0.0547573</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0577904</v>
+                  <v>0.0555636</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.055792</v>
+                  <v>0.055387</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0560207</v>
+                  <v>0.0554725</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0561087</v>
+                  <v>0.0557169</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0563414</v>
+                  <v>0.0559509</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056655</v>
+                  <v>0.0560586</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0571958</v>
+                  <v>0.0562625</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.057884</v>
+                  <v>0.0567185</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0582425</v>
+                  <v>0.0576972</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0592452</v>
+                  <v>0.0587159</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0608211</v>
+                  <v>0.060325</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0633513</v>
+                  <v>0.0629981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06725390000000001</v>
+                  <v>0.06682589999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0858208</v>
+                  <v>0.0858251</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.08577170000000001</v>
+                  <v>0.0857677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594590000000001</v>
+                  <v>0.085906</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08606900000000001</v>
+                  <v>0.0859969</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08616749999999999</v>
+                  <v>0.086075</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08662789999999999</v>
+                  <v>0.0861682</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0864133</v>
+                  <v>0.08647729999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.088181</v>
+                  <v>0.0867111</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0871123</v>
+                  <v>0.08710229999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876926</v>
+                  <v>0.08776050000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0885166</v>
+                  <v>0.08850959999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0897474</v>
+                  <v>0.0897652</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09172080000000001</v>
+                  <v>0.09188499999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949308</v>
+                  <v>0.0952229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0997827</v>
+                  <v>0.100016</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.109009</v>
+                  <v>0.108131</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108902</v>
+                  <v>0.108075</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.109017</v>
+                  <v>0.108184</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.109219</v>
+                  <v>0.10833</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.109295</v>
+                  <v>0.108539</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.109582</v>
+                  <v>0.108599</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109729</v>
+                  <v>0.108799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.110229</v>
+                  <v>0.109382</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110875</v>
+                  <v>0.109872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111655</v>
+                  <v>0.121679</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112821</v>
+                  <v>0.11203</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114619</v>
+                  <v>0.113814</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117464</v>
+                  <v>0.116862</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.122013</v>
+                  <v>0.121543</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139209</v>
+                  <v>0.140062</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.139131</v>
+                  <v>0.140058</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139496</v>
+                  <v>0.139603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139621</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.13995</v>
+                  <v>0.139755</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.14025</v>
+                  <v>0.139773</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.140479</v>
+                  <v>0.139973</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142087</v>
+                  <v>0.140326</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141701</v>
+                  <v>0.140658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.142135</v>
+                  <v>0.140894</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.143369</v>
+                  <v>0.1421</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14492</v>
+                  <v>0.143547</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.147621</v>
+                  <v>0.146307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.151632</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157728</v>
+                  <v>0.158166</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157774</v>
+                  <v>0.158195</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157822</v>
+                  <v>0.15855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158086</v>
+                  <v>0.158668</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158035</v>
+                  <v>0.159246</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.178791</v>
+                  <v>0.158584</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0365145</v>
+                  <v>0.0175627</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0396988</v>
+                  <v>0.0175947</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0447642</v>
+                  <v>0.0176587</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0498033</v>
+                  <v>0.0177658</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0537687</v>
+                  <v>0.0179719</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0315887</v>
+                  <v>0.018025</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0336489</v>
+                  <v>0.0181412</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0356574</v>
+                  <v>0.0187716</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0376125</v>
+                  <v>0.0181729</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0405804</v>
+                  <v>0.0183363</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0447308</v>
+                  <v>0.018272</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.047286</v>
+                  <v>0.0186146</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0503759</v>
+                  <v>0.0185738</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0539423</v>
+                  <v>0.0189054</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0578276</v>
+                  <v>0.0189311</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0614582</v>
+                  <v>0.0193473</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0653006</v>
+                  <v>0.0191405</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0680994</v>
+                  <v>0.0193073</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0704849</v>
+                  <v>0.0193</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0446121</v>
+                  <v>0.0195934</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.047444</v>
+                  <v>0.0204342</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0493842</v>
+                  <v>0.0258092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0514984</v>
+                  <v>0.0194516</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0543429</v>
+                  <v>0.0195151</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0563413</v>
+                  <v>0.019712</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0616033</v>
+                  <v>0.0198041</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0643247</v>
+                  <v>0.0200263</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0662176</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0698588</v>
+                  <v>0.0204215</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07215820000000001</v>
+                  <v>0.020546</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0748846</v>
+                  <v>0.0208661</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0769565</v>
+                  <v>0.0211468</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0791249</v>
+                  <v>0.0216524</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0519505</v>
+                  <v>0.0228986</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0537373</v>
+                  <v>0.0250296</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0560572</v>
+                  <v>0.0299358</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0580173</v>
+                  <v>0.0207518</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0596857</v>
+                  <v>0.0209239</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0624772</v>
+                  <v>0.0210062</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06461600000000001</v>
+                  <v>0.0212501</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0672449</v>
+                  <v>0.0213877</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06969930000000001</v>
+                  <v>0.0216913</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.07249079999999999</v>
+                  <v>0.0219272</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.07484499999999999</v>
+                  <v>0.022197</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0778189</v>
+                  <v>0.022681</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0800609</v>
+                  <v>0.0234421</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0823764</v>
+                  <v>0.0240753</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0844506</v>
+                  <v>0.0257732</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0578649</v>
+                  <v>0.0285813</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0591875</v>
+                  <v>0.0324607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0615245</v>
+                  <v>0.0380034</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0639034</v>
+                  <v>0.0220148</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0656783</v>
+                  <v>0.0221262</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0679548</v>
+                  <v>0.0223024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0705563</v>
+                  <v>0.022656</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0733139</v>
+                  <v>0.0228134</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0760695</v>
+                  <v>0.0231381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.07903490000000001</v>
+                  <v>0.0235722</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.080972</v>
+                  <v>0.0241989</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.08393299999999999</v>
+                  <v>0.025026</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.08583780000000001</v>
+                  <v>0.0264049</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.08868760000000001</v>
+                  <v>0.0283304</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0634653</v>
+                  <v>0.0308026</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0660341</v>
+                  <v>0.0349232</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.068684</v>
+                  <v>0.0401922</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0716908</v>
+                  <v>0.0246507</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0754389</v>
+                  <v>0.0249507</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0780781</v>
+                  <v>0.0249084</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.08159859999999999</v>
+                  <v>0.025417</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0866746</v>
+                  <v>0.025691</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0889358</v>
+                  <v>0.0262707</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0945853</v>
+                  <v>0.0268015</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0982999</v>
+                  <v>0.0274789</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.102978</v>
+                  <v>0.0288561</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.106901</v>
+                  <v>0.030155</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112317</v>
+                  <v>0.0326295</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.09733840000000001</v>
+                  <v>0.0355582</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101335</v>
+                  <v>0.0387886</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.105975</v>
+                  <v>0.0442776</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110132</v>
+                  <v>0.0354786</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.115172</v>
+                  <v>0.0356873</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.121209</v>
+                  <v>0.0359896</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.126205</v>
+                  <v>0.0361447</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.131141</v>
+                  <v>0.0365455</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.137704</v>
+                  <v>0.0370387</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.143051</v>
+                  <v>0.0374911</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.149748</v>
+                  <v>0.0382015</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154568</v>
+                  <v>0.0393225</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16029</v>
+                  <v>0.0405886</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166513</v>
+                  <v>0.0425901</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145912</v>
+                  <v>0.0454562</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.149301</v>
+                  <v>0.0496657</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152309</v>
+                  <v>0.0553023</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.157221</v>
+                  <v>0.07135279999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.160664</v>
+                  <v>0.0716075</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.166029</v>
+                  <v>0.0718963</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.170781</v>
+                  <v>0.0721396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.175608</v>
+                  <v>0.07288070000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181033</v>
+                  <v>0.07289329999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.186455</v>
+                  <v>0.073226</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192398</v>
+                  <v>0.073786</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199037</v>
+                  <v>0.0744944</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203931</v>
+                  <v>0.07550759999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210695</v>
+                  <v>0.0775174</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.216678</v>
+                  <v>0.0796972</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181859</v>
+                  <v>0.0833348</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.199868</v>
+                  <v>0.08797199999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.193515</v>
+                  <v>0.0954035</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.192797</v>
+                  <v>0.0996648</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196994</v>
+                  <v>0.0977754</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201949</v>
+                  <v>0.0978999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206787</v>
+                  <v>0.0981046</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212581</v>
+                  <v>0.0988192</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.217678</v>
+                  <v>0.0991438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223918</v>
+                  <v>0.102822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229518</v>
+                  <v>0.100287</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.23542</v>
+                  <v>0.101658</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.241207</v>
+                  <v>0.103364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247384</v>
+                  <v>0.105254</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199268</v>
+                  <v>0.108244</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202036</v>
+                  <v>0.11305</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205435</v>
+                  <v>0.119961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209778</v>
+                  <v>0.13336</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213788</v>
+                  <v>0.133718</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218497</v>
+                  <v>0.133814</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.22327</v>
+                  <v>0.133896</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228488</v>
+                  <v>0.134135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234375</v>
+                  <v>0.134577</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240447</v>
+                  <v>0.135148</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24599</v>
+                  <v>0.135817</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251978</v>
+                  <v>0.136846</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.257944</v>
+                  <v>0.13806</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.268641</v>
+                  <v>0.139958</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209616</v>
+                  <v>0.14262</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212749</v>
+                  <v>0.146392</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216194</v>
+                  <v>0.152046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.220147</v>
+                  <v>0.152616</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224171</v>
+                  <v>0.153035</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229194</v>
+                  <v>0.153122</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234298</v>
+                  <v>0.153483</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239466</v>
+                  <v>0.153843</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.245367</v>
+                  <v>0.153735</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196261</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197912</v>
+                  <v>0.0372243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198901</v>
+                  <v>0.0433747</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199582</v>
+                  <v>0.0462062</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201314</v>
+                  <v>0.0510849</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0201829</v>
+                  <v>0.0306249</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0207955</v>
+                  <v>0.0325</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0194471</v>
+                  <v>0.0346322</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0195449</v>
+                  <v>0.0364502</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.019867</v>
+                  <v>0.0397791</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0201596</v>
+                  <v>0.0431275</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0201363</v>
+                  <v>0.0471309</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205715</v>
+                  <v>0.0496454</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.021072</v>
+                  <v>0.0533765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0210413</v>
+                  <v>0.0571097</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0212453</v>
+                  <v>0.0602121</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0213354</v>
+                  <v>0.0639561</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0214148</v>
+                  <v>0.0669614</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0218501</v>
+                  <v>0.070434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0224228</v>
+                  <v>0.0451085</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0237556</v>
+                  <v>0.046578</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0210571</v>
+                  <v>0.0525073</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0212586</v>
+                  <v>0.0537413</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0214644</v>
+                  <v>0.056061</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0215637</v>
+                  <v>0.0582335</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.021764</v>
+                  <v>0.0604336</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221105</v>
+                  <v>0.063626</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.022421</v>
+                  <v>0.06649049999999999</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0226251</v>
+                  <v>0.0688616</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0229748</v>
+                  <v>0.07168040000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.02343</v>
+                  <v>0.0746487</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0239333</v>
+                  <v>0.07752729999999999</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0247176</v>
+                  <v>0.07917970000000001</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0263657</v>
+                  <v>0.0529663</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0292434</v>
+                  <v>0.0547963</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0221968</v>
+                  <v>0.0564959</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224122</v>
+                  <v>0.0580906</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226233</v>
+                  <v>0.0601554</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229104</v>
+                  <v>0.06259190000000001</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0231873</v>
+                  <v>0.0644839</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235225</v>
+                  <v>0.0672614</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0245394</v>
+                  <v>0.06977800000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242028</v>
+                  <v>0.0726223</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0246188</v>
+                  <v>0.0752708</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0255792</v>
+                  <v>0.0774999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0258658</v>
+                  <v>0.0799808</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0269256</v>
+                  <v>0.0821132</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.029475</v>
+                  <v>0.0838373</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0328029</v>
+                  <v>0.057428</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0229759</v>
+                  <v>0.0590788</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0231768</v>
+                  <v>0.0613427</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0234395</v>
+                  <v>0.06343699999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.023729</v>
+                  <v>0.06561989999999999</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240074</v>
+                  <v>0.0681055</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.024327</v>
+                  <v>0.070746</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0247229</v>
+                  <v>0.0727792</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.025276</v>
+                  <v>0.0757994</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0257848</v>
+                  <v>0.07800020000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0264266</v>
+                  <v>0.08056480000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0273739</v>
+                  <v>0.08313520000000001</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0289127</v>
+                  <v>0.0855432</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313813</v>
+                  <v>0.0898707</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0347866</v>
+                  <v>0.0657703</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0405541</v>
+                  <v>0.06761300000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0251501</v>
+                  <v>0.0706816</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254762</v>
+                  <v>0.0736002</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0257275</v>
+                  <v>0.07693999999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0260131</v>
+                  <v>0.0791196</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0263866</v>
+                  <v>0.0839456</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0261122</v>
+                  <v>0.0874417</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0272077</v>
+                  <v>0.0915048</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281149</v>
+                  <v>0.0958411</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283556</v>
+                  <v>0.100017</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0292696</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0306653</v>
+                  <v>0.107671</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0333493</v>
+                  <v>0.113168</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0363328</v>
+                  <v>0.0979264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0412171</v>
+                  <v>0.101481</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0356659</v>
+                  <v>0.105553</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0363526</v>
+                  <v>0.11045</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0371667</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0379171</v>
+                  <v>0.120141</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0386585</v>
+                  <v>0.125522</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0393656</v>
+                  <v>0.130499</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0400877</v>
+                  <v>0.135999</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0412195</v>
+                  <v>0.141492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0419461</v>
+                  <v>0.147983</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0430021</v>
+                  <v>0.153941</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0442752</v>
+                  <v>0.160131</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.046052</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0487434</v>
+                  <v>0.145305</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0533016</v>
+                  <v>0.149575</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0713101</v>
+                  <v>0.15412</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07162789999999999</v>
+                  <v>0.156752</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721873</v>
+                  <v>0.161486</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0726131</v>
+                  <v>0.165355</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0731451</v>
+                  <v>0.171084</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.073726</v>
+                  <v>0.175965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0743772</v>
+                  <v>0.181715</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0751235</v>
+                  <v>0.18689</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0758935</v>
+                  <v>0.193063</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07695730000000001</v>
+                  <v>0.198751</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07818170000000001</v>
+                  <v>0.204087</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0798373</v>
+                  <v>0.211733</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08226</v>
+                  <v>0.21659</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859181</v>
+                  <v>0.182251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08945119999999999</v>
+                  <v>0.185854</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0901479</v>
+                  <v>0.189322</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0909215</v>
+                  <v>0.193413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0917118</v>
+                  <v>0.19773</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.09258719999999999</v>
+                  <v>0.202287</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.09357890000000001</v>
+                  <v>0.208167</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09464</v>
+                  <v>0.212927</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0957011</v>
+                  <v>0.218337</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0970447</v>
+                  <v>0.224385</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0984414</v>
+                  <v>0.230112</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101572</v>
+                  <v>0.236296</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102157</v>
+                  <v>0.242636</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104633</v>
+                  <v>0.248114</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108505</v>
+                  <v>0.200198</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114455</v>
+                  <v>0.202936</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.107135</v>
+                  <v>0.206116</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.10814</v>
+                  <v>0.209939</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109179</v>
+                  <v>0.214804</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110339</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111555</v>
+                  <v>0.223485</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.117399</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11438</v>
+                  <v>0.235257</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115714</v>
+                  <v>0.24097</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117191</v>
+                  <v>0.246462</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.11914</v>
+                  <v>0.253085</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121337</v>
+                  <v>0.258205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127893</v>
+                  <v>0.265025</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128374</v>
+                  <v>0.210482</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.134621</v>
+                  <v>0.213193</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118436</v>
+                  <v>0.219024</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119542</v>
+                  <v>0.221271</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120555</v>
+                  <v>0.22573</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.124935</v>
+                  <v>0.229762</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12278</v>
+                  <v>0.23492</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123993</v>
+                  <v>0.24055</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125349</v>
+                  <v>0.245786</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0206785</v>
+                  <v>0.0197894</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0207813</v>
+                  <v>0.0201052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208833</v>
+                  <v>0.0201236</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207783</v>
+                  <v>0.0200332</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0207749</v>
+                  <v>0.0203125</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020897</v>
+                  <v>0.0206254</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212215</v>
+                  <v>0.0213259</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0216661</v>
+                  <v>0.019472</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0216931</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0219577</v>
+                  <v>0.019895</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0219969</v>
+                  <v>0.0201555</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0221826</v>
+                  <v>0.0202462</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0225411</v>
+                  <v>0.0204734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0228079</v>
+                  <v>0.0207159</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0227173</v>
+                  <v>0.0208968</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227772</v>
+                  <v>0.021277</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230473</v>
+                  <v>0.0214165</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0229634</v>
+                  <v>0.0217844</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0230157</v>
+                  <v>0.0221565</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234205</v>
+                  <v>0.0230293</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0244919</v>
+                  <v>0.02607</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.023336</v>
+                  <v>0.0209819</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0235586</v>
+                  <v>0.0211275</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0238225</v>
+                  <v>0.0213664</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0237382</v>
+                  <v>0.021552</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0238801</v>
+                  <v>0.0217889</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0241333</v>
+                  <v>0.022141</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0244564</v>
+                  <v>0.0224621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0245499</v>
+                  <v>0.0227454</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0247842</v>
+                  <v>0.0230891</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0251216</v>
+                  <v>0.0235791</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0254613</v>
+                  <v>0.0243147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0260233</v>
+                  <v>0.0254992</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0270699</v>
+                  <v>0.0276103</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0306774</v>
+                  <v>0.0319471</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0245451</v>
+                  <v>0.0222259</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0247372</v>
+                  <v>0.0224589</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.024937</v>
+                  <v>0.0225931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0252111</v>
+                  <v>0.0229286</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0253094</v>
+                  <v>0.0231774</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0255793</v>
+                  <v>0.0240694</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0257865</v>
+                  <v>0.0239096</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0260194</v>
+                  <v>0.0242348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.026382</v>
+                  <v>0.0247279</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0268562</v>
+                  <v>0.0255188</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0274538</v>
+                  <v>0.0264864</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0286629</v>
+                  <v>0.0279806</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.030666</v>
+                  <v>0.0306931</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0341753</v>
+                  <v>0.0341211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0248564</v>
+                  <v>0.0229859</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0250656</v>
+                  <v>0.0231886</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0253725</v>
+                  <v>0.0234438</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0256172</v>
+                  <v>0.0237361</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.025785</v>
+                  <v>0.0240592</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0260479</v>
+                  <v>0.0243611</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265271</v>
+                  <v>0.0247697</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0269807</v>
+                  <v>0.0252948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0273609</v>
+                  <v>0.0259223</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0280786</v>
+                  <v>0.026794</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0290054</v>
+                  <v>0.027927</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0305336</v>
+                  <v>0.0297296</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0329544</v>
+                  <v>0.0320666</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0362898</v>
+                  <v>0.0355204</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0419218</v>
+                  <v>0.040984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.026637</v>
+                  <v>0.0253889</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0267861</v>
+                  <v>0.0250649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0277745</v>
+                  <v>0.0253452</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0273026</v>
+                  <v>0.0255558</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0277491</v>
+                  <v>0.0259444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0281135</v>
+                  <v>0.0264835</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0285725</v>
+                  <v>0.0277257</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0291539</v>
+                  <v>0.0278552</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0301281</v>
+                  <v>0.0284422</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0315789</v>
+                  <v>0.0297968</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.032797</v>
+                  <v>0.0311555</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0350439</v>
+                  <v>0.033579</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0383708</v>
+                  <v>0.036514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0434181</v>
+                  <v>0.041536</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0335094</v>
+                  <v>0.0361322</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.033843</v>
+                  <v>0.0366932</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0344867</v>
+                  <v>0.0376074</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0348016</v>
+                  <v>0.0384358</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0352056</v>
+                  <v>0.0391975</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0360305</v>
+                  <v>0.0400954</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0367309</v>
+                  <v>0.0407676</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0372919</v>
+                  <v>0.0415868</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0386863</v>
+                  <v>0.0424312</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0396944</v>
+                  <v>0.0440182</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0417616</v>
+                  <v>0.0448619</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0440648</v>
+                  <v>0.0466044</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0474931</v>
+                  <v>0.0522096</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.052939</v>
+                  <v>0.0533849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06786490000000001</v>
+                  <v>0.07120079999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.068254</v>
+                  <v>0.074347</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.06875249999999999</v>
+                  <v>0.0720843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0691842</v>
+                  <v>0.0726903</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.06990540000000001</v>
+                  <v>0.0733799</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.07045410000000001</v>
+                  <v>0.0737217</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0711215</v>
+                  <v>0.0743284</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0718926</v>
+                  <v>0.07510169999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0728032</v>
+                  <v>0.0759703</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07412000000000001</v>
+                  <v>0.0768456</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07561420000000001</v>
+                  <v>0.078163</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0777135</v>
+                  <v>0.08907039999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08079749999999999</v>
+                  <v>0.0824233</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859578</v>
+                  <v>0.0859721</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0926965</v>
+                  <v>0.0888313</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0931657</v>
+                  <v>0.0893418</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.09363</v>
+                  <v>0.09014900000000001</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0942807</v>
+                  <v>0.0909683</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0949342</v>
+                  <v>0.091824</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0956124</v>
+                  <v>0.0928055</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09643110000000001</v>
+                  <v>0.0937335</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0974578</v>
+                  <v>0.0949487</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.09865409999999999</v>
+                  <v>0.0960443</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.099985</v>
+                  <v>0.1104</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101915</v>
+                  <v>0.0990668</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.10417</v>
+                  <v>0.101151</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.107355</v>
+                  <v>0.103725</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.111855</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.119295</v>
+                  <v>0.11348</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.111174</v>
+                  <v>0.107438</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.113436</v>
+                  <v>0.108556</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.112627</v>
+                  <v>0.109643</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.113487</v>
+                  <v>0.110714</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.114491</v>
+                  <v>0.111891</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.116157</v>
+                  <v>0.113163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.116856</v>
+                  <v>0.114402</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.118562</v>
+                  <v>0.119551</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.120523</v>
+                  <v>0.117449</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.121962</v>
+                  <v>0.11945</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.124397</v>
+                  <v>0.121615</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127842</v>
+                  <v>0.124506</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14034</v>
+                  <v>0.128529</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13989</v>
+                  <v>0.136396</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.123322</v>
+                  <v>0.118386</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.124097</v>
+                  <v>0.120885</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.124887</v>
+                  <v>0.121618</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.126237</v>
+                  <v>0.121781</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12706</v>
+                  <v>0.123325</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.127951</v>
+                  <v>0.123784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.129431</v>
+                  <v>0.125183</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0207038</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0209254</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0210935</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0211706</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0212118</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0213994</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0221416</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0217383</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.021984</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219441</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0222077</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0225074</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225264</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0227424</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0228512</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.022922</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0231906</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0233755</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0238266</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0248271</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0279618</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0233915</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0234442</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0236222</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237763</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0240463</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0242566</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0245442</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0247829</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0251674</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0255784</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0262318</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0271806</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0296471</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0340328</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245842</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247098</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0249816</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0251795</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253233</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0256274</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0259189</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0261494</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026656</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0272972</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0281227</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0297722</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0320114</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0359768</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0249922</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0251284</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0254049</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0255729</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0259531</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0261395</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265401</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0270227</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0276978</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0284369</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0295769</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0313434</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0337604</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0372556</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.042835</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0265858</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0269848</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0272039</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0274478</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0278812</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281991</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0287265</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0295737</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0303666</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315994</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0332608</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0355532</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.038887</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0440891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335026</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0336411</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0340919</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0347245</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0350658</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.035695</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.036408</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372398</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0382203</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0395911</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0413396</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440599</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0478185</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531663</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0674756</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0678738</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06835280000000001</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0688624</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.07131179999999999</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07247720000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0707691</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0715047</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0724716</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07365339999999999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0752357</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.07733470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0805929</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.08521570000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.09318120000000001</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0937201</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0947561</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0946718</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0954238</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0960589</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09680229999999999</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.09780510000000001</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0989189</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.100379</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.102046</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.104462</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107403</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.123425</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119466</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111747</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.112366</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.113098</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113718</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114767</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.115834</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.117009</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.11837</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120045</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.122017</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124441</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.12801</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.132847</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.140151</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123723</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124728</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.125981</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126212</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.127737</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127931</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129179</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110938</v>
+        <v>0.110755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108525</v>
+        <v>0.10827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13569</v>
+        <v>0.135686</v>
       </c>
       <c r="E2" t="n">
-        <v>0.120806</v>
+        <v>0.119803</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121776</v>
+        <v>0.121403</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113006</v>
+        <v>0.110303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.109069</v>
+        <v>0.107677</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142408</v>
+        <v>0.141381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12056</v>
+        <v>0.119773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121835</v>
+        <v>0.121607</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111729</v>
+        <v>0.110404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108291</v>
+        <v>0.108151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.148148</v>
+        <v>0.147326</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121036</v>
+        <v>0.120205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121892</v>
+        <v>0.122458</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113331</v>
+        <v>0.111453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109662</v>
+        <v>0.10954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156058</v>
+        <v>0.155411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121479</v>
+        <v>0.120887</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122017</v>
+        <v>0.122185</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.114333</v>
+        <v>0.113014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110609</v>
+        <v>0.110241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160585</v>
+        <v>0.160052</v>
       </c>
       <c r="E6" t="n">
-        <v>0.122051</v>
+        <v>0.121551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.123091</v>
+        <v>0.123035</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115251</v>
+        <v>0.114223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111991</v>
+        <v>0.111769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.133714</v>
+        <v>0.132942</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122924</v>
+        <v>0.122455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124279</v>
+        <v>0.124051</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117337</v>
+        <v>0.116273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115072</v>
+        <v>0.114509</v>
       </c>
       <c r="D8" t="n">
-        <v>0.136073</v>
+        <v>0.135527</v>
       </c>
       <c r="E8" t="n">
-        <v>0.125154</v>
+        <v>0.124991</v>
       </c>
       <c r="F8" t="n">
-        <v>0.126226</v>
+        <v>0.125942</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122423</v>
+        <v>0.122183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.118669</v>
+        <v>0.119864</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140328</v>
+        <v>0.140257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125329</v>
+        <v>0.125837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.124162</v>
+        <v>0.123252</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121478</v>
+        <v>0.121012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1128</v>
+        <v>0.110752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144934</v>
+        <v>0.144434</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125798</v>
+        <v>0.125967</v>
       </c>
       <c r="F10" t="n">
-        <v>0.124363</v>
+        <v>0.123407</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121417</v>
+        <v>0.121836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.112999</v>
+        <v>0.110907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148727</v>
+        <v>0.148437</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126066</v>
+        <v>0.126474</v>
       </c>
       <c r="F11" t="n">
-        <v>0.124685</v>
+        <v>0.123545</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121866</v>
+        <v>0.122192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111581</v>
+        <v>0.111693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.154122</v>
+        <v>0.153441</v>
       </c>
       <c r="E12" t="n">
-        <v>0.126643</v>
+        <v>0.12645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123873</v>
+        <v>0.123639</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122987</v>
+        <v>0.122846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113696</v>
+        <v>0.113079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159792</v>
+        <v>0.159149</v>
       </c>
       <c r="E13" t="n">
-        <v>0.126867</v>
+        <v>0.127118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.124668</v>
+        <v>0.123688</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122457</v>
+        <v>0.123618</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113128</v>
+        <v>0.113805</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165656</v>
+        <v>0.165195</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127182</v>
+        <v>0.127639</v>
       </c>
       <c r="F14" t="n">
-        <v>0.124075</v>
+        <v>0.12377</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122777</v>
+        <v>0.122767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113863</v>
+        <v>0.113416</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172511</v>
+        <v>0.171723</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127664</v>
+        <v>0.128048</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124323</v>
+        <v>0.124176</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124646</v>
+        <v>0.123564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114292</v>
+        <v>0.11317</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177634</v>
+        <v>0.177362</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128178</v>
+        <v>0.12787</v>
       </c>
       <c r="F16" t="n">
-        <v>0.124791</v>
+        <v>0.12443</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124713</v>
+        <v>0.124694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113492</v>
+        <v>0.113036</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182823</v>
+        <v>0.183146</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128024</v>
+        <v>0.128041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124846</v>
+        <v>0.124923</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125544</v>
+        <v>0.125158</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11391</v>
+        <v>0.113666</v>
       </c>
       <c r="D18" t="n">
-        <v>0.188947</v>
+        <v>0.18856</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128802</v>
+        <v>0.128818</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125919</v>
+        <v>0.125362</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126347</v>
+        <v>0.125665</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114916</v>
+        <v>0.11458</v>
       </c>
       <c r="D19" t="n">
-        <v>0.193747</v>
+        <v>0.1941</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128897</v>
+        <v>0.128847</v>
       </c>
       <c r="F19" t="n">
-        <v>0.126423</v>
+        <v>0.125806</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127542</v>
+        <v>0.126731</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116889</v>
+        <v>0.116237</v>
       </c>
       <c r="D20" t="n">
-        <v>0.199927</v>
+        <v>0.20001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130295</v>
+        <v>0.130329</v>
       </c>
       <c r="F20" t="n">
-        <v>0.127391</v>
+        <v>0.126534</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129473</v>
+        <v>0.128868</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11881</v>
+        <v>0.11888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15297</v>
+        <v>0.153717</v>
       </c>
       <c r="E21" t="n">
-        <v>0.132023</v>
+        <v>0.131934</v>
       </c>
       <c r="F21" t="n">
-        <v>0.131662</v>
+        <v>0.127855</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133532</v>
+        <v>0.132676</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122138</v>
+        <v>0.121973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.156908</v>
+        <v>0.157524</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136164</v>
+        <v>0.136138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131523</v>
+        <v>0.131853</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141466</v>
+        <v>0.140787</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131408</v>
+        <v>0.131292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161952</v>
+        <v>0.162788</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135464</v>
+        <v>0.135625</v>
       </c>
       <c r="F23" t="n">
-        <v>0.130834</v>
+        <v>0.131881</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133222</v>
+        <v>0.1337</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121435</v>
+        <v>0.122135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167733</v>
+        <v>0.167625</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136405</v>
+        <v>0.136283</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131192</v>
+        <v>0.131885</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133909</v>
+        <v>0.134208</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122519</v>
+        <v>0.122957</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172258</v>
+        <v>0.171834</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136771</v>
+        <v>0.136371</v>
       </c>
       <c r="F25" t="n">
-        <v>0.133366</v>
+        <v>0.132177</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133809</v>
+        <v>0.133577</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122795</v>
+        <v>0.122857</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177144</v>
+        <v>0.177008</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136459</v>
+        <v>0.136436</v>
       </c>
       <c r="F26" t="n">
-        <v>0.131316</v>
+        <v>0.131705</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133353</v>
+        <v>0.133929</v>
       </c>
       <c r="C27" t="n">
-        <v>0.12472</v>
+        <v>0.122013</v>
       </c>
       <c r="D27" t="n">
-        <v>0.18163</v>
+        <v>0.181778</v>
       </c>
       <c r="E27" t="n">
-        <v>0.137629</v>
+        <v>0.136685</v>
       </c>
       <c r="F27" t="n">
-        <v>0.132895</v>
+        <v>0.131595</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134687</v>
+        <v>0.134262</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121822</v>
+        <v>0.12368</v>
       </c>
       <c r="D28" t="n">
-        <v>0.187001</v>
+        <v>0.186568</v>
       </c>
       <c r="E28" t="n">
-        <v>0.13688</v>
+        <v>0.137245</v>
       </c>
       <c r="F28" t="n">
-        <v>0.132835</v>
+        <v>0.131578</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135091</v>
+        <v>0.134735</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123488</v>
+        <v>0.124289</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192799</v>
+        <v>0.192348</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137319</v>
+        <v>0.137671</v>
       </c>
       <c r="F29" t="n">
-        <v>0.134083</v>
+        <v>0.132818</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136012</v>
+        <v>0.135106</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124384</v>
+        <v>0.124365</v>
       </c>
       <c r="D30" t="n">
-        <v>0.198171</v>
+        <v>0.196557</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137688</v>
+        <v>0.137188</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132949</v>
+        <v>0.132166</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135472</v>
+        <v>0.134864</v>
       </c>
       <c r="C31" t="n">
-        <v>0.124063</v>
+        <v>0.123708</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201984</v>
+        <v>0.201715</v>
       </c>
       <c r="E31" t="n">
-        <v>0.137705</v>
+        <v>0.138148</v>
       </c>
       <c r="F31" t="n">
-        <v>0.132806</v>
+        <v>0.132505</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135797</v>
+        <v>0.135622</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12442</v>
+        <v>0.125448</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207598</v>
+        <v>0.207784</v>
       </c>
       <c r="E32" t="n">
-        <v>0.13889</v>
+        <v>0.139682</v>
       </c>
       <c r="F32" t="n">
-        <v>0.133506</v>
+        <v>0.13392</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136718</v>
+        <v>0.136503</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1282</v>
+        <v>0.126609</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212866</v>
+        <v>0.21287</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139671</v>
+        <v>0.139433</v>
       </c>
       <c r="F33" t="n">
-        <v>0.135103</v>
+        <v>0.134902</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138592</v>
+        <v>0.138478</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127848</v>
+        <v>0.127751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.218701</v>
+        <v>0.217725</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141454</v>
+        <v>0.141867</v>
       </c>
       <c r="F34" t="n">
-        <v>0.137383</v>
+        <v>0.135819</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141406</v>
+        <v>0.141544</v>
       </c>
       <c r="C35" t="n">
-        <v>0.131031</v>
+        <v>0.130761</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169605</v>
+        <v>0.169705</v>
       </c>
       <c r="E35" t="n">
-        <v>0.145714</v>
+        <v>0.146028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140363</v>
+        <v>0.140091</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146871</v>
+        <v>0.146818</v>
       </c>
       <c r="C36" t="n">
-        <v>0.137179</v>
+        <v>0.136774</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173865</v>
+        <v>0.173872</v>
       </c>
       <c r="E36" t="n">
-        <v>0.152276</v>
+        <v>0.153019</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148519</v>
+        <v>0.148757</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154402</v>
+        <v>0.154442</v>
       </c>
       <c r="C37" t="n">
-        <v>0.144929</v>
+        <v>0.146038</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177639</v>
+        <v>0.178323</v>
       </c>
       <c r="E37" t="n">
-        <v>0.151112</v>
+        <v>0.146334</v>
       </c>
       <c r="F37" t="n">
-        <v>0.150681</v>
+        <v>0.150822</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145516</v>
+        <v>0.14539</v>
       </c>
       <c r="C38" t="n">
-        <v>0.140955</v>
+        <v>0.14239</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182783</v>
+        <v>0.183457</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148404</v>
+        <v>0.148505</v>
       </c>
       <c r="F38" t="n">
-        <v>0.148689</v>
+        <v>0.149804</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145275</v>
+        <v>0.145687</v>
       </c>
       <c r="C39" t="n">
-        <v>0.140176</v>
+        <v>0.141516</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187219</v>
+        <v>0.187395</v>
       </c>
       <c r="E39" t="n">
-        <v>0.150054</v>
+        <v>0.150264</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149486</v>
+        <v>0.149556</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146394</v>
+        <v>0.144994</v>
       </c>
       <c r="C40" t="n">
-        <v>0.141785</v>
+        <v>0.14035</v>
       </c>
       <c r="D40" t="n">
-        <v>0.191898</v>
+        <v>0.192565</v>
       </c>
       <c r="E40" t="n">
-        <v>0.150146</v>
+        <v>0.14728</v>
       </c>
       <c r="F40" t="n">
-        <v>0.149894</v>
+        <v>0.151084</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146411</v>
+        <v>0.146554</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142181</v>
+        <v>0.142368</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196533</v>
+        <v>0.196685</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150047</v>
+        <v>0.150313</v>
       </c>
       <c r="F41" t="n">
-        <v>0.149357</v>
+        <v>0.150385</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145071</v>
+        <v>0.147259</v>
       </c>
       <c r="C42" t="n">
-        <v>0.139853</v>
+        <v>0.141225</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201118</v>
+        <v>0.20156</v>
       </c>
       <c r="E42" t="n">
-        <v>0.149755</v>
+        <v>0.150253</v>
       </c>
       <c r="F42" t="n">
-        <v>0.150072</v>
+        <v>0.149963</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.144946</v>
+        <v>0.14692</v>
       </c>
       <c r="C43" t="n">
-        <v>0.141381</v>
+        <v>0.14241</v>
       </c>
       <c r="D43" t="n">
-        <v>0.207428</v>
+        <v>0.206681</v>
       </c>
       <c r="E43" t="n">
-        <v>0.151357</v>
+        <v>0.147952</v>
       </c>
       <c r="F43" t="n">
-        <v>0.151707</v>
+        <v>0.150768</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148113</v>
+        <v>0.147508</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141282</v>
+        <v>0.141449</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211633</v>
+        <v>0.211567</v>
       </c>
       <c r="E44" t="n">
-        <v>0.15124</v>
+        <v>0.149312</v>
       </c>
       <c r="F44" t="n">
-        <v>0.150822</v>
+        <v>0.152662</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148565</v>
+        <v>0.148076</v>
       </c>
       <c r="C45" t="n">
-        <v>0.14289</v>
+        <v>0.141225</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216489</v>
+        <v>0.216798</v>
       </c>
       <c r="E45" t="n">
-        <v>0.151432</v>
+        <v>0.150009</v>
       </c>
       <c r="F45" t="n">
-        <v>0.150397</v>
+        <v>0.151464</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149165</v>
+        <v>0.148967</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143868</v>
+        <v>0.145313</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222044</v>
+        <v>0.22197</v>
       </c>
       <c r="E46" t="n">
-        <v>0.151733</v>
+        <v>0.152536</v>
       </c>
       <c r="F46" t="n">
-        <v>0.150616</v>
+        <v>0.153299</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150656</v>
+        <v>0.150633</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143824</v>
+        <v>0.146647</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227375</v>
+        <v>0.227884</v>
       </c>
       <c r="E47" t="n">
-        <v>0.153778</v>
+        <v>0.1521</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153492</v>
+        <v>0.153343</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15216</v>
+        <v>0.152978</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147413</v>
+        <v>0.148089</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231871</v>
+        <v>0.231798</v>
       </c>
       <c r="E48" t="n">
-        <v>0.156285</v>
+        <v>0.157218</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155153</v>
+        <v>0.155335</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156864</v>
+        <v>0.156967</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152079</v>
+        <v>0.152569</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236486</v>
+        <v>0.236525</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160643</v>
+        <v>0.160897</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159709</v>
+        <v>0.159115</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161312</v>
+        <v>0.161641</v>
       </c>
       <c r="C50" t="n">
-        <v>0.154442</v>
+        <v>0.157624</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172416</v>
+        <v>0.172352</v>
       </c>
       <c r="E50" t="n">
-        <v>0.16603</v>
+        <v>0.166194</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164307</v>
+        <v>0.164329</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166771</v>
+        <v>0.168551</v>
       </c>
       <c r="C51" t="n">
-        <v>0.164202</v>
+        <v>0.162368</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175586</v>
+        <v>0.175787</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162979</v>
+        <v>0.162604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165047</v>
+        <v>0.165509</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175619</v>
+        <v>0.176983</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170746</v>
+        <v>0.17246</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179264</v>
+        <v>0.178989</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163459</v>
+        <v>0.163793</v>
       </c>
       <c r="F52" t="n">
-        <v>0.165061</v>
+        <v>0.16598</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158278</v>
+        <v>0.158945</v>
       </c>
       <c r="C53" t="n">
-        <v>0.158611</v>
+        <v>0.158505</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183618</v>
+        <v>0.183644</v>
       </c>
       <c r="E53" t="n">
-        <v>0.163336</v>
+        <v>0.16299</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165356</v>
+        <v>0.165671</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160023</v>
+        <v>0.159921</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159221</v>
+        <v>0.158851</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188048</v>
+        <v>0.188202</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163574</v>
+        <v>0.163047</v>
       </c>
       <c r="F54" t="n">
-        <v>0.165779</v>
+        <v>0.166987</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.158851</v>
+        <v>0.159349</v>
       </c>
       <c r="C55" t="n">
-        <v>0.158695</v>
+        <v>0.159385</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192706</v>
+        <v>0.192959</v>
       </c>
       <c r="E55" t="n">
-        <v>0.164561</v>
+        <v>0.16419</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166053</v>
+        <v>0.166702</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160037</v>
+        <v>0.159738</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159913</v>
+        <v>0.159176</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197748</v>
+        <v>0.197929</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164471</v>
+        <v>0.164168</v>
       </c>
       <c r="F56" t="n">
-        <v>0.166696</v>
+        <v>0.167354</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160493</v>
+        <v>0.160689</v>
       </c>
       <c r="C57" t="n">
-        <v>0.160314</v>
+        <v>0.161121</v>
       </c>
       <c r="D57" t="n">
-        <v>0.203174</v>
+        <v>0.204015</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1645</v>
+        <v>0.165231</v>
       </c>
       <c r="F57" t="n">
-        <v>0.167476</v>
+        <v>0.166927</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160679</v>
+        <v>0.161065</v>
       </c>
       <c r="C58" t="n">
-        <v>0.159661</v>
+        <v>0.161126</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20846</v>
+        <v>0.208064</v>
       </c>
       <c r="E58" t="n">
-        <v>0.16512</v>
+        <v>0.164826</v>
       </c>
       <c r="F58" t="n">
-        <v>0.167914</v>
+        <v>0.16837</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161539</v>
+        <v>0.161126</v>
       </c>
       <c r="C59" t="n">
-        <v>0.160557</v>
+        <v>0.162699</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213097</v>
+        <v>0.213197</v>
       </c>
       <c r="E59" t="n">
-        <v>0.166187</v>
+        <v>0.165878</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168709</v>
+        <v>0.168685</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.161968</v>
+        <v>0.16189</v>
       </c>
       <c r="C60" t="n">
-        <v>0.16332</v>
+        <v>0.164083</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218676</v>
+        <v>0.218751</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167403</v>
+        <v>0.167209</v>
       </c>
       <c r="F60" t="n">
-        <v>0.169547</v>
+        <v>0.170605</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164116</v>
+        <v>0.165293</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163222</v>
+        <v>0.165224</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223613</v>
+        <v>0.223903</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168817</v>
+        <v>0.168619</v>
       </c>
       <c r="F61" t="n">
-        <v>0.173</v>
+        <v>0.172059</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166675</v>
+        <v>0.16624</v>
       </c>
       <c r="C62" t="n">
-        <v>0.168401</v>
+        <v>0.167544</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228724</v>
+        <v>0.228825</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171178</v>
+        <v>0.171765</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174623</v>
+        <v>0.174042</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169502</v>
+        <v>0.170134</v>
       </c>
       <c r="C63" t="n">
-        <v>0.172012</v>
+        <v>0.170943</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232676</v>
+        <v>0.232846</v>
       </c>
       <c r="E63" t="n">
-        <v>0.173887</v>
+        <v>0.174334</v>
       </c>
       <c r="F63" t="n">
-        <v>0.176529</v>
+        <v>0.17714</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173457</v>
+        <v>0.173719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.172783</v>
+        <v>0.173023</v>
       </c>
       <c r="D64" t="n">
-        <v>0.181597</v>
+        <v>0.18116</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177616</v>
+        <v>0.177953</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182324</v>
+        <v>0.181129</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178396</v>
+        <v>0.17966</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180333</v>
+        <v>0.181277</v>
       </c>
       <c r="D65" t="n">
-        <v>0.18437</v>
+        <v>0.184171</v>
       </c>
       <c r="E65" t="n">
-        <v>0.185122</v>
+        <v>0.184352</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188728</v>
+        <v>0.188928</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186829</v>
+        <v>0.1866</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188703</v>
+        <v>0.188938</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18892</v>
+        <v>0.18806</v>
       </c>
       <c r="E66" t="n">
-        <v>0.176504</v>
+        <v>0.175965</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176835</v>
+        <v>0.176676</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18342</v>
+        <v>0.178045</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170521</v>
+        <v>0.170617</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192667</v>
+        <v>0.192545</v>
       </c>
       <c r="E67" t="n">
-        <v>0.176441</v>
+        <v>0.17545</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177109</v>
+        <v>0.177436</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180145</v>
+        <v>0.177721</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171527</v>
+        <v>0.171187</v>
       </c>
       <c r="D68" t="n">
-        <v>0.198694</v>
+        <v>0.197676</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176942</v>
+        <v>0.176157</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177224</v>
+        <v>0.177664</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181735</v>
+        <v>0.180368</v>
       </c>
       <c r="C69" t="n">
-        <v>0.172127</v>
+        <v>0.171049</v>
       </c>
       <c r="D69" t="n">
-        <v>0.205043</v>
+        <v>0.204416</v>
       </c>
       <c r="E69" t="n">
-        <v>0.178036</v>
+        <v>0.176526</v>
       </c>
       <c r="F69" t="n">
-        <v>0.177654</v>
+        <v>0.178082</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183554</v>
+        <v>0.182754</v>
       </c>
       <c r="C70" t="n">
-        <v>0.172103</v>
+        <v>0.17161</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21188</v>
+        <v>0.211916</v>
       </c>
       <c r="E70" t="n">
-        <v>0.178099</v>
+        <v>0.178542</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178241</v>
+        <v>0.178443</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.180536</v>
+        <v>0.181209</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17242</v>
+        <v>0.17192</v>
       </c>
       <c r="D71" t="n">
-        <v>0.219126</v>
+        <v>0.217943</v>
       </c>
       <c r="E71" t="n">
-        <v>0.17845</v>
+        <v>0.177723</v>
       </c>
       <c r="F71" t="n">
-        <v>0.178888</v>
+        <v>0.178786</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181497</v>
+        <v>0.181542</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172541</v>
+        <v>0.172519</v>
       </c>
       <c r="D72" t="n">
-        <v>0.226158</v>
+        <v>0.224524</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178812</v>
+        <v>0.178272</v>
       </c>
       <c r="F72" t="n">
-        <v>0.179632</v>
+        <v>0.180176</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181242</v>
+        <v>0.181829</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174456</v>
+        <v>0.174176</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236496</v>
+        <v>0.236116</v>
       </c>
       <c r="E73" t="n">
-        <v>0.178839</v>
+        <v>0.178898</v>
       </c>
       <c r="F73" t="n">
-        <v>0.180944</v>
+        <v>0.181173</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.183796</v>
+        <v>0.18078</v>
       </c>
       <c r="C74" t="n">
-        <v>0.176212</v>
+        <v>0.175075</v>
       </c>
       <c r="D74" t="n">
-        <v>0.245639</v>
+        <v>0.24148</v>
       </c>
       <c r="E74" t="n">
-        <v>0.179758</v>
+        <v>0.181043</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182095</v>
+        <v>0.182205</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.186709</v>
+        <v>0.183566</v>
       </c>
       <c r="C75" t="n">
-        <v>0.177092</v>
+        <v>0.176565</v>
       </c>
       <c r="D75" t="n">
-        <v>0.254486</v>
+        <v>0.252292</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181292</v>
+        <v>0.181722</v>
       </c>
       <c r="F75" t="n">
-        <v>0.183888</v>
+        <v>0.184092</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.190426</v>
+        <v>0.185839</v>
       </c>
       <c r="C76" t="n">
-        <v>0.17978</v>
+        <v>0.179244</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263046</v>
+        <v>0.262186</v>
       </c>
       <c r="E76" t="n">
-        <v>0.182845</v>
+        <v>0.183866</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186217</v>
+        <v>0.186279</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19066</v>
+        <v>0.188123</v>
       </c>
       <c r="C77" t="n">
-        <v>0.181729</v>
+        <v>0.182967</v>
       </c>
       <c r="D77" t="n">
-        <v>0.272712</v>
+        <v>0.269465</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186267</v>
+        <v>0.186962</v>
       </c>
       <c r="F77" t="n">
-        <v>0.189116</v>
+        <v>0.18907</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194076</v>
+        <v>0.194221</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186269</v>
+        <v>0.186368</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224719</v>
+        <v>0.226555</v>
       </c>
       <c r="E78" t="n">
-        <v>0.189913</v>
+        <v>0.190058</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193567</v>
+        <v>0.193588</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196906</v>
+        <v>0.198732</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191511</v>
+        <v>0.191693</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230864</v>
+        <v>0.23363</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195808</v>
+        <v>0.195956</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2001</v>
+        <v>0.199861</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206798</v>
+        <v>0.205963</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200477</v>
+        <v>0.200451</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242731</v>
+        <v>0.243097</v>
       </c>
       <c r="E80" t="n">
-        <v>0.251028</v>
+        <v>0.255005</v>
       </c>
       <c r="F80" t="n">
-        <v>0.187474</v>
+        <v>0.187612</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.343939</v>
+        <v>0.338354</v>
       </c>
       <c r="C81" t="n">
-        <v>0.180476</v>
+        <v>0.182346</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258113</v>
+        <v>0.259289</v>
       </c>
       <c r="E81" t="n">
-        <v>0.256052</v>
+        <v>0.25373</v>
       </c>
       <c r="F81" t="n">
-        <v>0.187141</v>
+        <v>0.187597</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344081</v>
+        <v>0.342518</v>
       </c>
       <c r="C82" t="n">
-        <v>0.179792</v>
+        <v>0.18031</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270821</v>
+        <v>0.271069</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256359</v>
+        <v>0.256708</v>
       </c>
       <c r="F82" t="n">
-        <v>0.188575</v>
+        <v>0.18869</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344803</v>
+        <v>0.344702</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181799</v>
+        <v>0.181611</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285155</v>
+        <v>0.285882</v>
       </c>
       <c r="E83" t="n">
-        <v>0.258406</v>
+        <v>0.254742</v>
       </c>
       <c r="F83" t="n">
-        <v>0.190993</v>
+        <v>0.189326</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.343971</v>
+        <v>0.345485</v>
       </c>
       <c r="C84" t="n">
-        <v>0.183756</v>
+        <v>0.182163</v>
       </c>
       <c r="D84" t="n">
-        <v>0.299878</v>
+        <v>0.299916</v>
       </c>
       <c r="E84" t="n">
-        <v>0.254217</v>
+        <v>0.254323</v>
       </c>
       <c r="F84" t="n">
-        <v>0.190837</v>
+        <v>0.19094</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.344764</v>
+        <v>0.346855</v>
       </c>
       <c r="C85" t="n">
-        <v>0.184139</v>
+        <v>0.183529</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314057</v>
+        <v>0.314394</v>
       </c>
       <c r="E85" t="n">
-        <v>0.252922</v>
+        <v>0.253287</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192432</v>
+        <v>0.192992</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.341585</v>
+        <v>0.345989</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183533</v>
+        <v>0.184232</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330529</v>
+        <v>0.330424</v>
       </c>
       <c r="E86" t="n">
-        <v>0.253199</v>
+        <v>0.251972</v>
       </c>
       <c r="F86" t="n">
-        <v>0.194887</v>
+        <v>0.193118</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.34618</v>
+        <v>0.346595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.185128</v>
+        <v>0.184047</v>
       </c>
       <c r="D87" t="n">
-        <v>0.345703</v>
+        <v>0.346296</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2503</v>
+        <v>0.254897</v>
       </c>
       <c r="F87" t="n">
-        <v>0.196444</v>
+        <v>0.195305</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346398</v>
+        <v>0.347303</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186957</v>
+        <v>0.186737</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362134</v>
+        <v>0.362224</v>
       </c>
       <c r="E88" t="n">
-        <v>0.249732</v>
+        <v>0.250572</v>
       </c>
       <c r="F88" t="n">
-        <v>0.197536</v>
+        <v>0.197131</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.347996</v>
+        <v>0.350622</v>
       </c>
       <c r="C89" t="n">
-        <v>0.18918</v>
+        <v>0.188755</v>
       </c>
       <c r="D89" t="n">
-        <v>0.379416</v>
+        <v>0.378258</v>
       </c>
       <c r="E89" t="n">
-        <v>0.25044</v>
+        <v>0.251694</v>
       </c>
       <c r="F89" t="n">
-        <v>0.199618</v>
+        <v>0.199105</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353146</v>
+        <v>0.35189</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191159</v>
+        <v>0.193453</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393038</v>
+        <v>0.394593</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253106</v>
+        <v>0.252347</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202278</v>
+        <v>0.202363</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352511</v>
+        <v>0.350747</v>
       </c>
       <c r="C91" t="n">
-        <v>0.196132</v>
+        <v>0.195572</v>
       </c>
       <c r="D91" t="n">
-        <v>0.409916</v>
+        <v>0.41058</v>
       </c>
       <c r="E91" t="n">
-        <v>0.251907</v>
+        <v>0.254726</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206459</v>
+        <v>0.206267</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.357031</v>
+        <v>0.355809</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200468</v>
+        <v>0.200018</v>
       </c>
       <c r="D92" t="n">
-        <v>0.360515</v>
+        <v>0.358707</v>
       </c>
       <c r="E92" t="n">
-        <v>0.25319</v>
+        <v>0.253522</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211614</v>
+        <v>0.211549</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358774</v>
+        <v>0.360572</v>
       </c>
       <c r="C93" t="n">
-        <v>0.206758</v>
+        <v>0.207341</v>
       </c>
       <c r="D93" t="n">
-        <v>0.37361</v>
+        <v>0.374072</v>
       </c>
       <c r="E93" t="n">
-        <v>0.25751</v>
+        <v>0.257119</v>
       </c>
       <c r="F93" t="n">
-        <v>0.220388</v>
+        <v>0.219558</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363229</v>
+        <v>0.365138</v>
       </c>
       <c r="C94" t="n">
-        <v>0.215915</v>
+        <v>0.216062</v>
       </c>
       <c r="D94" t="n">
-        <v>0.384759</v>
+        <v>0.382681</v>
       </c>
       <c r="E94" t="n">
-        <v>0.410792</v>
+        <v>0.411143</v>
       </c>
       <c r="F94" t="n">
-        <v>0.278147</v>
+        <v>0.273937</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498153</v>
+        <v>0.498798</v>
       </c>
       <c r="C95" t="n">
-        <v>0.284355</v>
+        <v>0.279424</v>
       </c>
       <c r="D95" t="n">
-        <v>0.401251</v>
+        <v>0.398774</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410548</v>
+        <v>0.410612</v>
       </c>
       <c r="F95" t="n">
-        <v>0.280248</v>
+        <v>0.276742</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499049</v>
+        <v>0.499342</v>
       </c>
       <c r="C96" t="n">
-        <v>0.283525</v>
+        <v>0.278627</v>
       </c>
       <c r="D96" t="n">
-        <v>0.407586</v>
+        <v>0.408292</v>
       </c>
       <c r="E96" t="n">
-        <v>0.40994</v>
+        <v>0.411577</v>
       </c>
       <c r="F96" t="n">
-        <v>0.274609</v>
+        <v>0.279268</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.499047</v>
+        <v>0.498983</v>
       </c>
       <c r="C97" t="n">
-        <v>0.275796</v>
+        <v>0.28294</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424165</v>
+        <v>0.423401</v>
       </c>
       <c r="E97" t="n">
-        <v>0.409203</v>
+        <v>0.410824</v>
       </c>
       <c r="F97" t="n">
-        <v>0.276808</v>
+        <v>0.277067</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499821</v>
+        <v>0.499272</v>
       </c>
       <c r="C98" t="n">
-        <v>0.279613</v>
+        <v>0.283564</v>
       </c>
       <c r="D98" t="n">
-        <v>0.43538</v>
+        <v>0.437839</v>
       </c>
       <c r="E98" t="n">
-        <v>0.409907</v>
+        <v>0.410035</v>
       </c>
       <c r="F98" t="n">
-        <v>0.275132</v>
+        <v>0.282439</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.500109</v>
+        <v>0.499464</v>
       </c>
       <c r="C99" t="n">
-        <v>0.27606</v>
+        <v>0.281545</v>
       </c>
       <c r="D99" t="n">
-        <v>0.454422</v>
+        <v>0.455661</v>
       </c>
       <c r="E99" t="n">
-        <v>0.40842</v>
+        <v>0.409483</v>
       </c>
       <c r="F99" t="n">
-        <v>0.284102</v>
+        <v>0.281702</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.50037</v>
+        <v>0.500187</v>
       </c>
       <c r="C100" t="n">
-        <v>0.281829</v>
+        <v>0.283219</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466512</v>
+        <v>0.468717</v>
       </c>
       <c r="E100" t="n">
-        <v>0.403745</v>
+        <v>0.410109</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283192</v>
+        <v>0.285828</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5015579999999999</v>
+        <v>0.501636</v>
       </c>
       <c r="C101" t="n">
-        <v>0.285719</v>
+        <v>0.286465</v>
       </c>
       <c r="D101" t="n">
-        <v>0.482148</v>
+        <v>0.483977</v>
       </c>
       <c r="E101" t="n">
-        <v>0.40969</v>
+        <v>0.410193</v>
       </c>
       <c r="F101" t="n">
-        <v>0.286163</v>
+        <v>0.283764</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502872</v>
+        <v>0.502082</v>
       </c>
       <c r="C102" t="n">
-        <v>0.283892</v>
+        <v>0.288475</v>
       </c>
       <c r="D102" t="n">
-        <v>0.498448</v>
+        <v>0.497638</v>
       </c>
       <c r="E102" t="n">
-        <v>0.409631</v>
+        <v>0.408717</v>
       </c>
       <c r="F102" t="n">
-        <v>0.28484</v>
+        <v>0.28435</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.504037</v>
+        <v>0.50481</v>
       </c>
       <c r="C103" t="n">
-        <v>0.281556</v>
+        <v>0.286597</v>
       </c>
       <c r="D103" t="n">
-        <v>0.513922</v>
+        <v>0.514772</v>
       </c>
       <c r="E103" t="n">
-        <v>0.411223</v>
+        <v>0.409911</v>
       </c>
       <c r="F103" t="n">
-        <v>0.289727</v>
+        <v>0.289807</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.505695</v>
+        <v>0.504929</v>
       </c>
       <c r="C104" t="n">
-        <v>0.287851</v>
+        <v>0.289802</v>
       </c>
       <c r="D104" t="n">
-        <v>0.530524</v>
+        <v>0.531726</v>
       </c>
       <c r="E104" t="n">
-        <v>0.407706</v>
+        <v>0.412789</v>
       </c>
       <c r="F104" t="n">
-        <v>0.291307</v>
+        <v>0.289148</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508545</v>
+        <v>0.50793</v>
       </c>
       <c r="C105" t="n">
-        <v>0.293317</v>
+        <v>0.292744</v>
       </c>
       <c r="D105" t="n">
-        <v>0.543331</v>
+        <v>0.54519</v>
       </c>
       <c r="E105" t="n">
-        <v>0.414445</v>
+        <v>0.412583</v>
       </c>
       <c r="F105" t="n">
-        <v>0.288745</v>
+        <v>0.289566</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.512099</v>
+        <v>0.511608</v>
       </c>
       <c r="C106" t="n">
-        <v>0.296976</v>
+        <v>0.301163</v>
       </c>
       <c r="D106" t="n">
-        <v>0.562165</v>
+        <v>0.56286</v>
       </c>
       <c r="E106" t="n">
-        <v>0.402948</v>
+        <v>0.415474</v>
       </c>
       <c r="F106" t="n">
-        <v>0.296038</v>
+        <v>0.298328</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.517016</v>
+        <v>0.51683</v>
       </c>
       <c r="C107" t="n">
-        <v>0.307286</v>
+        <v>0.306116</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538127</v>
+        <v>0.538025</v>
       </c>
       <c r="E107" t="n">
-        <v>0.419561</v>
+        <v>0.420177</v>
       </c>
       <c r="F107" t="n">
-        <v>0.299569</v>
+        <v>0.305209</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.524214</v>
+        <v>0.523548</v>
       </c>
       <c r="C108" t="n">
-        <v>0.308767</v>
+        <v>0.31222</v>
       </c>
       <c r="D108" t="n">
-        <v>0.549797</v>
+        <v>0.5510659999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5416069999999999</v>
+        <v>0.547196</v>
       </c>
       <c r="F108" t="n">
-        <v>0.487318</v>
+        <v>0.496451</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.535639</v>
+        <v>0.5351</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329656</v>
+        <v>0.329439</v>
       </c>
       <c r="D109" t="n">
-        <v>0.554809</v>
+        <v>0.556063</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546269</v>
+        <v>0.546623</v>
       </c>
       <c r="F109" t="n">
-        <v>0.496491</v>
+        <v>0.499167</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.582593</v>
+        <v>0.58131</v>
       </c>
       <c r="C110" t="n">
-        <v>0.494276</v>
+        <v>0.492456</v>
       </c>
       <c r="D110" t="n">
-        <v>0.569752</v>
+        <v>0.56753</v>
       </c>
       <c r="E110" t="n">
-        <v>0.52984</v>
+        <v>0.548082</v>
       </c>
       <c r="F110" t="n">
-        <v>0.495904</v>
+        <v>0.500217</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.570024</v>
+        <v>0.5827830000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.491248</v>
+        <v>0.496948</v>
       </c>
       <c r="D111" t="n">
-        <v>0.58397</v>
+        <v>0.584414</v>
       </c>
       <c r="E111" t="n">
-        <v>0.547923</v>
+        <v>0.546289</v>
       </c>
       <c r="F111" t="n">
-        <v>0.495556</v>
+        <v>0.498623</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.584906</v>
+        <v>0.581865</v>
       </c>
       <c r="C112" t="n">
-        <v>0.492505</v>
+        <v>0.495512</v>
       </c>
       <c r="D112" t="n">
-        <v>0.594381</v>
+        <v>0.595035</v>
       </c>
       <c r="E112" t="n">
-        <v>0.53032</v>
+        <v>0.548196</v>
       </c>
       <c r="F112" t="n">
-        <v>0.498391</v>
+        <v>0.500676</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.584445</v>
+        <v>0.582677</v>
       </c>
       <c r="C113" t="n">
-        <v>0.49426</v>
+        <v>0.496013</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609455</v>
+        <v>0.609457</v>
       </c>
       <c r="E113" t="n">
-        <v>0.546556</v>
+        <v>0.548968</v>
       </c>
       <c r="F113" t="n">
-        <v>0.501162</v>
+        <v>0.500877</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584345</v>
+        <v>0.584036</v>
       </c>
       <c r="C114" t="n">
-        <v>0.496751</v>
+        <v>0.497525</v>
       </c>
       <c r="D114" t="n">
-        <v>0.62104</v>
+        <v>0.622203</v>
       </c>
       <c r="E114" t="n">
-        <v>0.547062</v>
+        <v>0.5485139999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.499976</v>
+        <v>0.504478</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.585879</v>
+        <v>0.584696</v>
       </c>
       <c r="C115" t="n">
-        <v>0.497454</v>
+        <v>0.498619</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634136</v>
+        <v>0.634487</v>
       </c>
       <c r="E115" t="n">
-        <v>0.549872</v>
+        <v>0.550582</v>
       </c>
       <c r="F115" t="n">
-        <v>0.494623</v>
+        <v>0.505424</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.584852</v>
+        <v>0.586062</v>
       </c>
       <c r="C116" t="n">
-        <v>0.503174</v>
+        <v>0.500449</v>
       </c>
       <c r="D116" t="n">
-        <v>0.642989</v>
+        <v>0.650303</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5492050000000001</v>
+        <v>0.550826</v>
       </c>
       <c r="F116" t="n">
-        <v>0.501669</v>
+        <v>0.507162</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.589484</v>
+        <v>0.587711</v>
       </c>
       <c r="C117" t="n">
-        <v>0.503825</v>
+        <v>0.502649</v>
       </c>
       <c r="D117" t="n">
-        <v>0.670613</v>
+        <v>0.670449</v>
       </c>
       <c r="E117" t="n">
-        <v>0.554936</v>
+        <v>0.551179</v>
       </c>
       <c r="F117" t="n">
-        <v>0.503744</v>
+        <v>0.509235</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591938</v>
+        <v>0.591249</v>
       </c>
       <c r="C118" t="n">
-        <v>0.507119</v>
+        <v>0.504107</v>
       </c>
       <c r="D118" t="n">
-        <v>0.677126</v>
+        <v>0.687852</v>
       </c>
       <c r="E118" t="n">
-        <v>0.555449</v>
+        <v>0.555291</v>
       </c>
       <c r="F118" t="n">
-        <v>0.509953</v>
+        <v>0.511747</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593764</v>
+        <v>0.593167</v>
       </c>
       <c r="C119" t="n">
-        <v>0.514087</v>
+        <v>0.513112</v>
       </c>
       <c r="D119" t="n">
-        <v>0.695804</v>
+        <v>0.705456</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5576410000000001</v>
+        <v>0.559347</v>
       </c>
       <c r="F119" t="n">
-        <v>0.514093</v>
+        <v>0.5145729999999999</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.587485</v>
+        <v>0.5983039999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5152139999999999</v>
+        <v>0.514335</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721126</v>
+        <v>0.721415</v>
       </c>
       <c r="E120" t="n">
-        <v>0.544586</v>
+        <v>0.563086</v>
       </c>
       <c r="F120" t="n">
-        <v>0.516209</v>
+        <v>0.5150940000000001</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.594265</v>
+        <v>0.606332</v>
       </c>
       <c r="C121" t="n">
-        <v>0.52257</v>
+        <v>0.520379</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640123</v>
+        <v>0.640737</v>
       </c>
       <c r="E121" t="n">
-        <v>0.546197</v>
+        <v>0.565582</v>
       </c>
       <c r="F121" t="n">
-        <v>0.525548</v>
+        <v>0.5228120000000001</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613683</v>
+        <v>0.613857</v>
       </c>
       <c r="C122" t="n">
-        <v>0.528771</v>
+        <v>0.5303</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649811</v>
+        <v>0.649933</v>
       </c>
       <c r="E122" t="n">
-        <v>0.558611</v>
+        <v>0.575607</v>
       </c>
       <c r="F122" t="n">
-        <v>0.535833</v>
+        <v>0.5329930000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.625557</v>
+        <v>0.624242</v>
       </c>
       <c r="C123" t="n">
-        <v>0.545678</v>
+        <v>0.542262</v>
       </c>
       <c r="D123" t="n">
-        <v>0.664814</v>
+        <v>0.663697</v>
       </c>
       <c r="E123" t="n">
-        <v>0.706125</v>
+        <v>0.705978</v>
       </c>
       <c r="F123" t="n">
-        <v>0.716398</v>
+        <v>0.712286</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.713117</v>
+        <v>0.7264659999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.705638</v>
+        <v>0.704891</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6745989999999999</v>
+        <v>0.673899</v>
       </c>
       <c r="E124" t="n">
-        <v>0.689412</v>
+        <v>0.707313</v>
       </c>
       <c r="F124" t="n">
-        <v>0.716974</v>
+        <v>0.714693</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7220839999999999</v>
+        <v>0.726368</v>
       </c>
       <c r="C125" t="n">
-        <v>0.705937</v>
+        <v>0.706077</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6879769999999999</v>
+        <v>0.687435</v>
       </c>
       <c r="E125" t="n">
-        <v>0.705489</v>
+        <v>0.708888</v>
       </c>
       <c r="F125" t="n">
-        <v>0.716921</v>
+        <v>0.7158369999999999</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.729364</v>
+        <v>0.726649</v>
       </c>
       <c r="C126" t="n">
-        <v>0.707608</v>
+        <v>0.7067099999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.700726</v>
+        <v>0.70062</v>
       </c>
       <c r="E126" t="n">
-        <v>0.710314</v>
+        <v>0.70961</v>
       </c>
       <c r="F126" t="n">
-        <v>0.714534</v>
+        <v>0.71757</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.724379</v>
+        <v>0.726994</v>
       </c>
       <c r="C127" t="n">
-        <v>0.709592</v>
+        <v>0.70799</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714749</v>
+        <v>0.714332</v>
       </c>
       <c r="E127" t="n">
-        <v>0.706716</v>
+        <v>0.708838</v>
       </c>
       <c r="F127" t="n">
-        <v>0.706774</v>
+        <v>0.717438</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.715206</v>
+        <v>0.72856</v>
       </c>
       <c r="C128" t="n">
-        <v>0.710558</v>
+        <v>0.708823</v>
       </c>
       <c r="D128" t="n">
-        <v>0.731886</v>
+        <v>0.729963</v>
       </c>
       <c r="E128" t="n">
-        <v>0.708762</v>
+        <v>0.710649</v>
       </c>
       <c r="F128" t="n">
-        <v>0.715271</v>
+        <v>0.720574</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.733873</v>
+        <v>0.732124</v>
       </c>
       <c r="C129" t="n">
-        <v>0.711508</v>
+        <v>0.708586</v>
       </c>
       <c r="D129" t="n">
-        <v>0.745739</v>
+        <v>0.744344</v>
       </c>
       <c r="E129" t="n">
-        <v>0.712531</v>
+        <v>0.713638</v>
       </c>
       <c r="F129" t="n">
-        <v>0.723844</v>
+        <v>0.7209410000000001</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.718255</v>
+        <v>0.730078</v>
       </c>
       <c r="C130" t="n">
-        <v>0.712565</v>
+        <v>0.713337</v>
       </c>
       <c r="D130" t="n">
-        <v>0.762348</v>
+        <v>0.761699</v>
       </c>
       <c r="E130" t="n">
-        <v>0.71296</v>
+        <v>0.715232</v>
       </c>
       <c r="F130" t="n">
-        <v>0.717364</v>
+        <v>0.725799</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.737471</v>
+        <v>0.732575</v>
       </c>
       <c r="C131" t="n">
-        <v>0.718531</v>
+        <v>0.717181</v>
       </c>
       <c r="D131" t="n">
-        <v>0.764557</v>
+        <v>0.775505</v>
       </c>
       <c r="E131" t="n">
-        <v>0.700855</v>
+        <v>0.718016</v>
       </c>
       <c r="F131" t="n">
-        <v>0.725907</v>
+        <v>0.7269060000000001</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.736953</v>
+        <v>0.73841</v>
       </c>
       <c r="C132" t="n">
-        <v>0.72076</v>
+        <v>0.718176</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7917</v>
+        <v>0.790405</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7038489999999999</v>
+        <v>0.71645</v>
       </c>
       <c r="F132" t="n">
-        <v>0.725711</v>
+        <v>0.7293770000000001</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7396160000000001</v>
+        <v>0.739803</v>
       </c>
       <c r="C133" t="n">
-        <v>0.724676</v>
+        <v>0.7227710000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807935</v>
+        <v>0.807145</v>
       </c>
       <c r="E133" t="n">
-        <v>0.716295</v>
+        <v>0.722407</v>
       </c>
       <c r="F133" t="n">
-        <v>0.734581</v>
+        <v>0.734579</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.742891</v>
+        <v>0.744437</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7286550000000001</v>
+        <v>0.728204</v>
       </c>
       <c r="D134" t="n">
-        <v>0.812673</v>
+        <v>0.824064</v>
       </c>
       <c r="E134" t="n">
-        <v>0.721122</v>
+        <v>0.725752</v>
       </c>
       <c r="F134" t="n">
-        <v>0.736142</v>
+        <v>0.73914</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749212</v>
+        <v>0.749928</v>
       </c>
       <c r="C135" t="n">
-        <v>0.730059</v>
+        <v>0.737628</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693544</v>
+        <v>0.693605</v>
       </c>
       <c r="E135" t="n">
-        <v>0.728425</v>
+        <v>0.73023</v>
       </c>
       <c r="F135" t="n">
-        <v>0.731277</v>
+        <v>0.748713</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.759578</v>
+        <v>0.760814</v>
       </c>
       <c r="C136" t="n">
-        <v>0.747861</v>
+        <v>0.746177</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702492</v>
+        <v>0.702227</v>
       </c>
       <c r="E136" t="n">
-        <v>0.737564</v>
+        <v>0.736392</v>
       </c>
       <c r="F136" t="n">
-        <v>0.758343</v>
+        <v>0.7587699999999999</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.759011</v>
+        <v>0.77232</v>
       </c>
       <c r="C137" t="n">
-        <v>0.763</v>
+        <v>0.759752</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714154</v>
+        <v>0.714024</v>
       </c>
       <c r="E137" t="n">
-        <v>0.842259</v>
+        <v>0.843116</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8454120000000001</v>
+        <v>0.849222</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.853658</v>
+        <v>0.85483</v>
       </c>
       <c r="C138" t="n">
-        <v>0.845652</v>
+        <v>0.845839</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726343</v>
+        <v>0.726641</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829574</v>
+        <v>0.84388</v>
       </c>
       <c r="F138" t="n">
-        <v>0.84727</v>
+        <v>0.850924</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.853807</v>
+        <v>0.855639</v>
       </c>
       <c r="C139" t="n">
-        <v>0.844836</v>
+        <v>0.847633</v>
       </c>
       <c r="D139" t="n">
-        <v>0.728015</v>
+        <v>0.738794</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8427750000000001</v>
+        <v>0.843373</v>
       </c>
       <c r="F139" t="n">
-        <v>0.848778</v>
+        <v>0.852064</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.84248</v>
+        <v>0.855152</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8327599999999999</v>
+        <v>0.847312</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752184</v>
+        <v>0.752517</v>
       </c>
       <c r="E140" t="n">
-        <v>0.842732</v>
+        <v>0.8446709999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>0.849993</v>
+        <v>0.853473</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.853885</v>
+        <v>0.856967</v>
       </c>
       <c r="C141" t="n">
-        <v>0.833252</v>
+        <v>0.8489409999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766273</v>
+        <v>0.766466</v>
       </c>
       <c r="E141" t="n">
-        <v>0.843676</v>
+        <v>0.84552</v>
       </c>
       <c r="F141" t="n">
-        <v>0.844212</v>
+        <v>0.856429</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.85547</v>
+        <v>0.856809</v>
       </c>
       <c r="C142" t="n">
-        <v>0.849308</v>
+        <v>0.849953</v>
       </c>
       <c r="D142" t="n">
-        <v>0.778158</v>
+        <v>0.77847</v>
       </c>
       <c r="E142" t="n">
-        <v>0.830732</v>
+        <v>0.8466089999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>0.852144</v>
+        <v>0.856754</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.855121</v>
+        <v>0.858166</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8492729999999999</v>
+        <v>0.852676</v>
       </c>
       <c r="D143" t="n">
-        <v>0.794618</v>
+        <v>0.7949889999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.845256</v>
+        <v>0.846843</v>
       </c>
       <c r="F143" t="n">
-        <v>0.854803</v>
+        <v>0.858913</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110755</v>
+        <v>0.111029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10827</v>
+        <v>0.107064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.135686</v>
+        <v>0.134037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119803</v>
+        <v>0.119982</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121403</v>
+        <v>0.121034</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110303</v>
+        <v>0.11202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107677</v>
+        <v>0.107801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141381</v>
+        <v>0.139523</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119773</v>
+        <v>0.120041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121607</v>
+        <v>0.121208</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110404</v>
+        <v>0.111951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108151</v>
+        <v>0.108369</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147326</v>
+        <v>0.146277</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120205</v>
+        <v>0.120625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.122458</v>
+        <v>0.121416</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111453</v>
+        <v>0.111939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10954</v>
+        <v>0.109305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155411</v>
+        <v>0.154755</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120887</v>
+        <v>0.120869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122185</v>
+        <v>0.122046</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113014</v>
+        <v>0.113522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110241</v>
+        <v>0.110323</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160052</v>
+        <v>0.160229</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121551</v>
+        <v>0.121786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.123035</v>
+        <v>0.122997</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114223</v>
+        <v>0.115621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111769</v>
+        <v>0.112355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132942</v>
+        <v>0.133974</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122455</v>
+        <v>0.122575</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124051</v>
+        <v>0.124015</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116273</v>
+        <v>0.11703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114509</v>
+        <v>0.114959</v>
       </c>
       <c r="D8" t="n">
-        <v>0.135527</v>
+        <v>0.13664</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124991</v>
+        <v>0.12505</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125942</v>
+        <v>0.126171</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122183</v>
+        <v>0.122371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119864</v>
+        <v>0.117967</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140257</v>
+        <v>0.141386</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125837</v>
+        <v>0.125845</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123252</v>
+        <v>0.123476</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121012</v>
+        <v>0.122344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110752</v>
+        <v>0.111031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144434</v>
+        <v>0.145266</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125967</v>
+        <v>0.12614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123407</v>
+        <v>0.123626</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121836</v>
+        <v>0.122557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110907</v>
+        <v>0.111095</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148437</v>
+        <v>0.149086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126474</v>
+        <v>0.126703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123545</v>
+        <v>0.123501</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122192</v>
+        <v>0.1229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111693</v>
+        <v>0.111332</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153441</v>
+        <v>0.153718</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12645</v>
+        <v>0.126651</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123639</v>
+        <v>0.123855</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122846</v>
+        <v>0.122485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113079</v>
+        <v>0.112095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159149</v>
+        <v>0.159501</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127118</v>
+        <v>0.126943</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123688</v>
+        <v>0.124258</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123618</v>
+        <v>0.123392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113805</v>
+        <v>0.112809</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165195</v>
+        <v>0.164985</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127639</v>
+        <v>0.128103</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12377</v>
+        <v>0.124049</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122767</v>
+        <v>0.123424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113416</v>
+        <v>0.112228</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171723</v>
+        <v>0.172986</v>
       </c>
       <c r="E15" t="n">
-        <v>0.128048</v>
+        <v>0.127826</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124176</v>
+        <v>0.124318</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123564</v>
+        <v>0.122699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11317</v>
+        <v>0.11319</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177362</v>
+        <v>0.17822</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12787</v>
+        <v>0.128039</v>
       </c>
       <c r="F16" t="n">
-        <v>0.12443</v>
+        <v>0.124484</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124694</v>
+        <v>0.124518</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113036</v>
+        <v>0.11353</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183146</v>
+        <v>0.183399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128041</v>
+        <v>0.128079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124923</v>
+        <v>0.124689</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125158</v>
+        <v>0.124587</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113666</v>
+        <v>0.113991</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18856</v>
+        <v>0.189566</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128818</v>
+        <v>0.128397</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125362</v>
+        <v>0.125184</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125665</v>
+        <v>0.126357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11458</v>
+        <v>0.115212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1941</v>
+        <v>0.194782</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128847</v>
+        <v>0.128731</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125806</v>
+        <v>0.125905</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126731</v>
+        <v>0.127001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116237</v>
+        <v>0.11645</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20001</v>
+        <v>0.200637</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130329</v>
+        <v>0.129843</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126534</v>
+        <v>0.126701</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128868</v>
+        <v>0.129609</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11888</v>
+        <v>0.118801</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153717</v>
+        <v>0.152656</v>
       </c>
       <c r="E21" t="n">
-        <v>0.131934</v>
+        <v>0.131446</v>
       </c>
       <c r="F21" t="n">
-        <v>0.127855</v>
+        <v>0.128161</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132676</v>
+        <v>0.132995</v>
       </c>
       <c r="C22" t="n">
-        <v>0.121973</v>
+        <v>0.122679</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157524</v>
+        <v>0.157785</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136138</v>
+        <v>0.135199</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131853</v>
+        <v>0.131988</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140787</v>
+        <v>0.141124</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131292</v>
+        <v>0.131381</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162788</v>
+        <v>0.161429</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135625</v>
+        <v>0.136335</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131881</v>
+        <v>0.130594</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1337</v>
+        <v>0.133737</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122135</v>
+        <v>0.121504</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167625</v>
+        <v>0.167397</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136283</v>
+        <v>0.135676</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131885</v>
+        <v>0.131864</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134208</v>
+        <v>0.133381</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122957</v>
+        <v>0.122451</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171834</v>
+        <v>0.171658</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136371</v>
+        <v>0.136804</v>
       </c>
       <c r="F25" t="n">
-        <v>0.132177</v>
+        <v>0.132139</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133577</v>
+        <v>0.13385</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122857</v>
+        <v>0.122449</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177008</v>
+        <v>0.176413</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136436</v>
+        <v>0.137593</v>
       </c>
       <c r="F26" t="n">
-        <v>0.131705</v>
+        <v>0.131951</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133929</v>
+        <v>0.133379</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122013</v>
+        <v>0.121703</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181778</v>
+        <v>0.181863</v>
       </c>
       <c r="E27" t="n">
-        <v>0.136685</v>
+        <v>0.137211</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131595</v>
+        <v>0.131881</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134262</v>
+        <v>0.134396</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12368</v>
+        <v>0.122935</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186568</v>
+        <v>0.186599</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137245</v>
+        <v>0.136498</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131578</v>
+        <v>0.131697</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134735</v>
+        <v>0.134369</v>
       </c>
       <c r="C29" t="n">
-        <v>0.124289</v>
+        <v>0.123031</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192348</v>
+        <v>0.191969</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137671</v>
+        <v>0.137121</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132818</v>
+        <v>0.132258</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135106</v>
+        <v>0.135122</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124365</v>
+        <v>0.124438</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196557</v>
+        <v>0.1973</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137188</v>
+        <v>0.137987</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132166</v>
+        <v>0.133422</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134864</v>
+        <v>0.13496</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123708</v>
+        <v>0.124346</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201715</v>
+        <v>0.202062</v>
       </c>
       <c r="E31" t="n">
-        <v>0.138148</v>
+        <v>0.137928</v>
       </c>
       <c r="F31" t="n">
-        <v>0.132505</v>
+        <v>0.134997</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135622</v>
+        <v>0.136094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125448</v>
+        <v>0.124953</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207784</v>
+        <v>0.207916</v>
       </c>
       <c r="E32" t="n">
-        <v>0.139682</v>
+        <v>0.138736</v>
       </c>
       <c r="F32" t="n">
-        <v>0.13392</v>
+        <v>0.133757</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136503</v>
+        <v>0.137328</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126609</v>
+        <v>0.126281</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21287</v>
+        <v>0.213559</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139433</v>
+        <v>0.139549</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134902</v>
+        <v>0.134995</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138478</v>
+        <v>0.138958</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127751</v>
+        <v>0.127682</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217725</v>
+        <v>0.218114</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141867</v>
+        <v>0.141634</v>
       </c>
       <c r="F34" t="n">
-        <v>0.135819</v>
+        <v>0.136596</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141544</v>
+        <v>0.141158</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130761</v>
+        <v>0.131193</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169705</v>
+        <v>0.17008</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146028</v>
+        <v>0.14545</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140091</v>
+        <v>0.140524</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146818</v>
+        <v>0.147827</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136774</v>
+        <v>0.136603</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173872</v>
+        <v>0.17436</v>
       </c>
       <c r="E36" t="n">
-        <v>0.153019</v>
+        <v>0.152706</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148757</v>
+        <v>0.149337</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154442</v>
+        <v>0.15493</v>
       </c>
       <c r="C37" t="n">
-        <v>0.146038</v>
+        <v>0.144526</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178323</v>
+        <v>0.178319</v>
       </c>
       <c r="E37" t="n">
-        <v>0.146334</v>
+        <v>0.149898</v>
       </c>
       <c r="F37" t="n">
-        <v>0.150822</v>
+        <v>0.14906</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14539</v>
+        <v>0.146204</v>
       </c>
       <c r="C38" t="n">
-        <v>0.14239</v>
+        <v>0.139693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183457</v>
+        <v>0.182715</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148505</v>
+        <v>0.149738</v>
       </c>
       <c r="F38" t="n">
-        <v>0.149804</v>
+        <v>0.148381</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145687</v>
+        <v>0.147272</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141516</v>
+        <v>0.139968</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187395</v>
+        <v>0.187442</v>
       </c>
       <c r="E39" t="n">
-        <v>0.150264</v>
+        <v>0.149987</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149556</v>
+        <v>0.150091</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144994</v>
+        <v>0.146926</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14035</v>
+        <v>0.140708</v>
       </c>
       <c r="D40" t="n">
-        <v>0.192565</v>
+        <v>0.192029</v>
       </c>
       <c r="E40" t="n">
-        <v>0.14728</v>
+        <v>0.147535</v>
       </c>
       <c r="F40" t="n">
-        <v>0.151084</v>
+        <v>0.150076</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146554</v>
+        <v>0.147313</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142368</v>
+        <v>0.140443</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196685</v>
+        <v>0.196615</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150313</v>
+        <v>0.150576</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150385</v>
+        <v>0.14997</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147259</v>
+        <v>0.14783</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141225</v>
+        <v>0.140437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20156</v>
+        <v>0.201936</v>
       </c>
       <c r="E42" t="n">
-        <v>0.150253</v>
+        <v>0.150478</v>
       </c>
       <c r="F42" t="n">
-        <v>0.149963</v>
+        <v>0.149055</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14692</v>
+        <v>0.147931</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14241</v>
+        <v>0.142176</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206681</v>
+        <v>0.206825</v>
       </c>
       <c r="E43" t="n">
-        <v>0.147952</v>
+        <v>0.150329</v>
       </c>
       <c r="F43" t="n">
-        <v>0.150768</v>
+        <v>0.150338</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147508</v>
+        <v>0.147057</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141449</v>
+        <v>0.141416</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211567</v>
+        <v>0.211728</v>
       </c>
       <c r="E44" t="n">
-        <v>0.149312</v>
+        <v>0.151563</v>
       </c>
       <c r="F44" t="n">
-        <v>0.152662</v>
+        <v>0.149865</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148076</v>
+        <v>0.148888</v>
       </c>
       <c r="C45" t="n">
-        <v>0.141225</v>
+        <v>0.14223</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216798</v>
+        <v>0.216681</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150009</v>
+        <v>0.151361</v>
       </c>
       <c r="F45" t="n">
-        <v>0.151464</v>
+        <v>0.150694</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148967</v>
+        <v>0.149997</v>
       </c>
       <c r="C46" t="n">
-        <v>0.145313</v>
+        <v>0.144255</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22197</v>
+        <v>0.222036</v>
       </c>
       <c r="E46" t="n">
-        <v>0.152536</v>
+        <v>0.152958</v>
       </c>
       <c r="F46" t="n">
-        <v>0.153299</v>
+        <v>0.152398</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150633</v>
+        <v>0.149421</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146647</v>
+        <v>0.144681</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227884</v>
+        <v>0.227538</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1521</v>
+        <v>0.153016</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153343</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152978</v>
+        <v>0.15281</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148089</v>
+        <v>0.146578</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231798</v>
+        <v>0.231896</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157218</v>
+        <v>0.157751</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155335</v>
+        <v>0.155552</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156967</v>
+        <v>0.15709</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152569</v>
+        <v>0.152785</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236525</v>
+        <v>0.237042</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160897</v>
+        <v>0.160724</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159115</v>
+        <v>0.163316</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161641</v>
+        <v>0.163663</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157624</v>
+        <v>0.157038</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.172592</v>
       </c>
       <c r="E50" t="n">
-        <v>0.166194</v>
+        <v>0.165725</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164329</v>
+        <v>0.165601</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168551</v>
+        <v>0.168481</v>
       </c>
       <c r="C51" t="n">
-        <v>0.162368</v>
+        <v>0.163052</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175787</v>
+        <v>0.175634</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162604</v>
+        <v>0.16301</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165509</v>
+        <v>0.165661</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176983</v>
+        <v>0.175291</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17246</v>
+        <v>0.170629</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178989</v>
+        <v>0.179232</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163793</v>
+        <v>0.163551</v>
       </c>
       <c r="F52" t="n">
-        <v>0.16598</v>
+        <v>0.165268</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158945</v>
+        <v>0.15932</v>
       </c>
       <c r="C53" t="n">
-        <v>0.158505</v>
+        <v>0.159123</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183644</v>
+        <v>0.183543</v>
       </c>
       <c r="E53" t="n">
-        <v>0.16299</v>
+        <v>0.163216</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165671</v>
+        <v>0.165119</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159921</v>
+        <v>0.159493</v>
       </c>
       <c r="C54" t="n">
-        <v>0.158851</v>
+        <v>0.16007</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188202</v>
+        <v>0.188123</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163047</v>
+        <v>0.163675</v>
       </c>
       <c r="F54" t="n">
-        <v>0.166987</v>
+        <v>0.166659</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159349</v>
+        <v>0.159749</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159385</v>
+        <v>0.15988</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192959</v>
+        <v>0.192945</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16419</v>
+        <v>0.164035</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166702</v>
+        <v>0.166081</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159738</v>
+        <v>0.159122</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159176</v>
+        <v>0.160551</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197929</v>
+        <v>0.198293</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164168</v>
+        <v>0.164061</v>
       </c>
       <c r="F56" t="n">
-        <v>0.167354</v>
+        <v>0.166988</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160689</v>
+        <v>0.160556</v>
       </c>
       <c r="C57" t="n">
-        <v>0.161121</v>
+        <v>0.160979</v>
       </c>
       <c r="D57" t="n">
-        <v>0.204015</v>
+        <v>0.203166</v>
       </c>
       <c r="E57" t="n">
-        <v>0.165231</v>
+        <v>0.164249</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166927</v>
+        <v>0.16796</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161065</v>
+        <v>0.160588</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161126</v>
+        <v>0.161847</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208064</v>
+        <v>0.208613</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164826</v>
+        <v>0.16513</v>
       </c>
       <c r="F58" t="n">
-        <v>0.16837</v>
+        <v>0.168531</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161126</v>
+        <v>0.163161</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162699</v>
+        <v>0.162072</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213197</v>
+        <v>0.213498</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165878</v>
+        <v>0.165161</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168685</v>
+        <v>0.168888</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16189</v>
+        <v>0.162319</v>
       </c>
       <c r="C60" t="n">
-        <v>0.164083</v>
+        <v>0.165063</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218751</v>
+        <v>0.218772</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167209</v>
+        <v>0.166876</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170605</v>
+        <v>0.170635</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165293</v>
+        <v>0.164047</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165224</v>
+        <v>0.164967</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223903</v>
+        <v>0.22394</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168619</v>
+        <v>0.16864</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172059</v>
+        <v>0.171802</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16624</v>
+        <v>0.165565</v>
       </c>
       <c r="C62" t="n">
-        <v>0.167544</v>
+        <v>0.168033</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228825</v>
+        <v>0.2291</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171765</v>
+        <v>0.171695</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174042</v>
+        <v>0.174306</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170134</v>
+        <v>0.170311</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170943</v>
+        <v>0.17111</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232846</v>
+        <v>0.23286</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174334</v>
+        <v>0.173518</v>
       </c>
       <c r="F63" t="n">
-        <v>0.17714</v>
+        <v>0.177964</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173719</v>
+        <v>0.17347</v>
       </c>
       <c r="C64" t="n">
-        <v>0.173023</v>
+        <v>0.176284</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18116</v>
+        <v>0.182002</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177953</v>
+        <v>0.17745</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181129</v>
+        <v>0.182384</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17966</v>
+        <v>0.178476</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181277</v>
+        <v>0.180783</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184171</v>
+        <v>0.184978</v>
       </c>
       <c r="E65" t="n">
-        <v>0.184352</v>
+        <v>0.184303</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188928</v>
+        <v>0.188897</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1866</v>
+        <v>0.185814</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188938</v>
+        <v>0.188468</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18806</v>
+        <v>0.188717</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175965</v>
+        <v>0.175661</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176676</v>
+        <v>0.177006</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178045</v>
+        <v>0.178092</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170617</v>
+        <v>0.170663</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192545</v>
+        <v>0.19255</v>
       </c>
       <c r="E67" t="n">
-        <v>0.17545</v>
+        <v>0.176944</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177436</v>
+        <v>0.177198</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177721</v>
+        <v>0.180962</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171187</v>
+        <v>0.171181</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197676</v>
+        <v>0.198531</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176157</v>
+        <v>0.176361</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177664</v>
+        <v>0.177553</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180368</v>
+        <v>0.178635</v>
       </c>
       <c r="C69" t="n">
-        <v>0.171049</v>
+        <v>0.17186</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204416</v>
+        <v>0.20465</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176526</v>
+        <v>0.176593</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178082</v>
+        <v>0.177825</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182754</v>
+        <v>0.185416</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17161</v>
+        <v>0.171663</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211916</v>
+        <v>0.212146</v>
       </c>
       <c r="E70" t="n">
-        <v>0.178542</v>
+        <v>0.176355</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178443</v>
+        <v>0.178557</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181209</v>
+        <v>0.179473</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17192</v>
+        <v>0.171882</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217943</v>
+        <v>0.217498</v>
       </c>
       <c r="E71" t="n">
-        <v>0.177723</v>
+        <v>0.17717</v>
       </c>
       <c r="F71" t="n">
-        <v>0.178786</v>
+        <v>0.179234</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181542</v>
+        <v>0.182915</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172519</v>
+        <v>0.17351</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224524</v>
+        <v>0.227201</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178272</v>
+        <v>0.178386</v>
       </c>
       <c r="F72" t="n">
-        <v>0.180176</v>
+        <v>0.180105</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181829</v>
+        <v>0.180288</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174176</v>
+        <v>0.17366</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236116</v>
+        <v>0.234477</v>
       </c>
       <c r="E73" t="n">
-        <v>0.178898</v>
+        <v>0.179294</v>
       </c>
       <c r="F73" t="n">
-        <v>0.181173</v>
+        <v>0.181017</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18078</v>
+        <v>0.182405</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175075</v>
+        <v>0.175963</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24148</v>
+        <v>0.243123</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181043</v>
+        <v>0.179772</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182205</v>
+        <v>0.182407</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183566</v>
+        <v>0.182976</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176565</v>
+        <v>0.176573</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252292</v>
+        <v>0.252898</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181722</v>
+        <v>0.181867</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184092</v>
+        <v>0.184167</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185839</v>
+        <v>0.185645</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179244</v>
+        <v>0.179087</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262186</v>
+        <v>0.263573</v>
       </c>
       <c r="E76" t="n">
-        <v>0.183866</v>
+        <v>0.1832</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186279</v>
+        <v>0.186145</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188123</v>
+        <v>0.189695</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182967</v>
+        <v>0.182983</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269465</v>
+        <v>0.271482</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186962</v>
+        <v>0.185939</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18907</v>
+        <v>0.189115</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194221</v>
+        <v>0.192823</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186368</v>
+        <v>0.186778</v>
       </c>
       <c r="D78" t="n">
-        <v>0.226555</v>
+        <v>0.222941</v>
       </c>
       <c r="E78" t="n">
-        <v>0.190058</v>
+        <v>0.190063</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193588</v>
+        <v>0.193675</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198732</v>
+        <v>0.196311</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191693</v>
+        <v>0.193059</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23363</v>
+        <v>0.231217</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195956</v>
+        <v>0.195894</v>
       </c>
       <c r="F79" t="n">
-        <v>0.199861</v>
+        <v>0.200254</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205963</v>
+        <v>0.208055</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200451</v>
+        <v>0.200459</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243097</v>
+        <v>0.242175</v>
       </c>
       <c r="E80" t="n">
-        <v>0.255005</v>
+        <v>0.253374</v>
       </c>
       <c r="F80" t="n">
-        <v>0.187612</v>
+        <v>0.187453</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338354</v>
+        <v>0.344653</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182346</v>
+        <v>0.17993</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259289</v>
+        <v>0.256978</v>
       </c>
       <c r="E81" t="n">
-        <v>0.25373</v>
+        <v>0.252751</v>
       </c>
       <c r="F81" t="n">
-        <v>0.187597</v>
+        <v>0.187545</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342518</v>
+        <v>0.343821</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18031</v>
+        <v>0.181085</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271069</v>
+        <v>0.268605</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256708</v>
+        <v>0.256029</v>
       </c>
       <c r="F82" t="n">
-        <v>0.18869</v>
+        <v>0.188457</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344702</v>
+        <v>0.339721</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181611</v>
+        <v>0.182959</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285882</v>
+        <v>0.284297</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254742</v>
+        <v>0.254586</v>
       </c>
       <c r="F83" t="n">
-        <v>0.189326</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345485</v>
+        <v>0.343694</v>
       </c>
       <c r="C84" t="n">
-        <v>0.182163</v>
+        <v>0.18201</v>
       </c>
       <c r="D84" t="n">
-        <v>0.299916</v>
+        <v>0.298763</v>
       </c>
       <c r="E84" t="n">
-        <v>0.254323</v>
+        <v>0.253204</v>
       </c>
       <c r="F84" t="n">
-        <v>0.19094</v>
+        <v>0.190497</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346855</v>
+        <v>0.343113</v>
       </c>
       <c r="C85" t="n">
-        <v>0.183529</v>
+        <v>0.182655</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314394</v>
+        <v>0.314187</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253287</v>
+        <v>0.256032</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192992</v>
+        <v>0.191002</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345989</v>
+        <v>0.346518</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184232</v>
+        <v>0.183632</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330424</v>
+        <v>0.330445</v>
       </c>
       <c r="E86" t="n">
-        <v>0.251972</v>
+        <v>0.254709</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193118</v>
+        <v>0.193727</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.346595</v>
+        <v>0.345145</v>
       </c>
       <c r="C87" t="n">
-        <v>0.184047</v>
+        <v>0.185108</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346296</v>
+        <v>0.345658</v>
       </c>
       <c r="E87" t="n">
-        <v>0.254897</v>
+        <v>0.253452</v>
       </c>
       <c r="F87" t="n">
-        <v>0.195305</v>
+        <v>0.195365</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347303</v>
+        <v>0.345653</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186737</v>
+        <v>0.187682</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362224</v>
+        <v>0.36169</v>
       </c>
       <c r="E88" t="n">
-        <v>0.250572</v>
+        <v>0.252305</v>
       </c>
       <c r="F88" t="n">
-        <v>0.197131</v>
+        <v>0.196864</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350622</v>
+        <v>0.346761</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188755</v>
+        <v>0.189554</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378258</v>
+        <v>0.377235</v>
       </c>
       <c r="E89" t="n">
-        <v>0.251694</v>
+        <v>0.252966</v>
       </c>
       <c r="F89" t="n">
-        <v>0.199105</v>
+        <v>0.200486</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35189</v>
+        <v>0.350858</v>
       </c>
       <c r="C90" t="n">
-        <v>0.193453</v>
+        <v>0.191432</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394593</v>
+        <v>0.39332</v>
       </c>
       <c r="E90" t="n">
-        <v>0.252347</v>
+        <v>0.253956</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202363</v>
+        <v>0.202578</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350747</v>
+        <v>0.352573</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195572</v>
+        <v>0.195132</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41058</v>
+        <v>0.408875</v>
       </c>
       <c r="E91" t="n">
-        <v>0.254726</v>
+        <v>0.251031</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206267</v>
+        <v>0.206333</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355809</v>
+        <v>0.352388</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200018</v>
+        <v>0.199988</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358707</v>
+        <v>0.358654</v>
       </c>
       <c r="E92" t="n">
-        <v>0.253522</v>
+        <v>0.254525</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211549</v>
+        <v>0.211689</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360572</v>
+        <v>0.354718</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207341</v>
+        <v>0.207486</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374072</v>
+        <v>0.372892</v>
       </c>
       <c r="E93" t="n">
-        <v>0.257119</v>
+        <v>0.256191</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219558</v>
+        <v>0.220178</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365138</v>
+        <v>0.362675</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216062</v>
+        <v>0.217193</v>
       </c>
       <c r="D94" t="n">
-        <v>0.382681</v>
+        <v>0.381637</v>
       </c>
       <c r="E94" t="n">
-        <v>0.411143</v>
+        <v>0.41095</v>
       </c>
       <c r="F94" t="n">
-        <v>0.273937</v>
+        <v>0.276337</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498798</v>
+        <v>0.498068</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279424</v>
+        <v>0.277896</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398774</v>
+        <v>0.395892</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410612</v>
+        <v>0.41006</v>
       </c>
       <c r="F95" t="n">
-        <v>0.276742</v>
+        <v>0.277423</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499342</v>
+        <v>0.499143</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278627</v>
+        <v>0.279371</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408292</v>
+        <v>0.40735</v>
       </c>
       <c r="E96" t="n">
-        <v>0.411577</v>
+        <v>0.409039</v>
       </c>
       <c r="F96" t="n">
-        <v>0.279268</v>
+        <v>0.282633</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498983</v>
+        <v>0.497957</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28294</v>
+        <v>0.281167</v>
       </c>
       <c r="D97" t="n">
-        <v>0.423401</v>
+        <v>0.42292</v>
       </c>
       <c r="E97" t="n">
-        <v>0.410824</v>
+        <v>0.410133</v>
       </c>
       <c r="F97" t="n">
-        <v>0.277067</v>
+        <v>0.277323</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499272</v>
+        <v>0.498144</v>
       </c>
       <c r="C98" t="n">
-        <v>0.283564</v>
+        <v>0.278661</v>
       </c>
       <c r="D98" t="n">
-        <v>0.437839</v>
+        <v>0.435199</v>
       </c>
       <c r="E98" t="n">
-        <v>0.410035</v>
+        <v>0.408467</v>
       </c>
       <c r="F98" t="n">
-        <v>0.282439</v>
+        <v>0.281642</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.499464</v>
+        <v>0.499355</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281545</v>
+        <v>0.281254</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455661</v>
+        <v>0.453419</v>
       </c>
       <c r="E99" t="n">
-        <v>0.409483</v>
+        <v>0.40801</v>
       </c>
       <c r="F99" t="n">
-        <v>0.281702</v>
+        <v>0.277836</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500187</v>
+        <v>0.498996</v>
       </c>
       <c r="C100" t="n">
-        <v>0.283219</v>
+        <v>0.285755</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468717</v>
+        <v>0.466888</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410109</v>
+        <v>0.40948</v>
       </c>
       <c r="F100" t="n">
-        <v>0.285828</v>
+        <v>0.281141</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501636</v>
+        <v>0.500613</v>
       </c>
       <c r="C101" t="n">
-        <v>0.286465</v>
+        <v>0.284407</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483977</v>
+        <v>0.481034</v>
       </c>
       <c r="E101" t="n">
-        <v>0.410193</v>
+        <v>0.409129</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283764</v>
+        <v>0.286229</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502082</v>
+        <v>0.501938</v>
       </c>
       <c r="C102" t="n">
-        <v>0.288475</v>
+        <v>0.28844</v>
       </c>
       <c r="D102" t="n">
-        <v>0.497638</v>
+        <v>0.498001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.408717</v>
+        <v>0.408659</v>
       </c>
       <c r="F102" t="n">
-        <v>0.28435</v>
+        <v>0.283365</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50481</v>
+        <v>0.502912</v>
       </c>
       <c r="C103" t="n">
-        <v>0.286597</v>
+        <v>0.2866</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514772</v>
+        <v>0.512749</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409911</v>
+        <v>0.410446</v>
       </c>
       <c r="F103" t="n">
-        <v>0.289807</v>
+        <v>0.28841</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.504929</v>
+        <v>0.505328</v>
       </c>
       <c r="C104" t="n">
-        <v>0.289802</v>
+        <v>0.292915</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531726</v>
+        <v>0.528762</v>
       </c>
       <c r="E104" t="n">
-        <v>0.412789</v>
+        <v>0.411543</v>
       </c>
       <c r="F104" t="n">
-        <v>0.289148</v>
+        <v>0.28917</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.50793</v>
+        <v>0.506757</v>
       </c>
       <c r="C105" t="n">
-        <v>0.292744</v>
+        <v>0.297064</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54519</v>
+        <v>0.544579</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412583</v>
+        <v>0.412855</v>
       </c>
       <c r="F105" t="n">
-        <v>0.289566</v>
+        <v>0.290829</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511608</v>
+        <v>0.510646</v>
       </c>
       <c r="C106" t="n">
-        <v>0.301163</v>
+        <v>0.300218</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56286</v>
+        <v>0.561995</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415474</v>
+        <v>0.415447</v>
       </c>
       <c r="F106" t="n">
-        <v>0.298328</v>
+        <v>0.298215</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51683</v>
+        <v>0.515356</v>
       </c>
       <c r="C107" t="n">
-        <v>0.306116</v>
+        <v>0.301335</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538025</v>
+        <v>0.535837</v>
       </c>
       <c r="E107" t="n">
-        <v>0.420177</v>
+        <v>0.418997</v>
       </c>
       <c r="F107" t="n">
-        <v>0.305209</v>
+        <v>0.302693</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523548</v>
+        <v>0.522644</v>
       </c>
       <c r="C108" t="n">
-        <v>0.31222</v>
+        <v>0.312588</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5510659999999999</v>
+        <v>0.549942</v>
       </c>
       <c r="E108" t="n">
-        <v>0.547196</v>
+        <v>0.544531</v>
       </c>
       <c r="F108" t="n">
-        <v>0.496451</v>
+        <v>0.492212</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5351</v>
+        <v>0.533411</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329439</v>
+        <v>0.332167</v>
       </c>
       <c r="D109" t="n">
-        <v>0.556063</v>
+        <v>0.5539849999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546623</v>
+        <v>0.545079</v>
       </c>
       <c r="F109" t="n">
-        <v>0.499167</v>
+        <v>0.499491</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58131</v>
+        <v>0.580878</v>
       </c>
       <c r="C110" t="n">
-        <v>0.492456</v>
+        <v>0.493388</v>
       </c>
       <c r="D110" t="n">
-        <v>0.56753</v>
+        <v>0.5673550000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.548082</v>
+        <v>0.548748</v>
       </c>
       <c r="F110" t="n">
-        <v>0.500217</v>
+        <v>0.498885</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5827830000000001</v>
+        <v>0.58578</v>
       </c>
       <c r="C111" t="n">
-        <v>0.496948</v>
+        <v>0.496273</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584414</v>
+        <v>0.581553</v>
       </c>
       <c r="E111" t="n">
-        <v>0.546289</v>
+        <v>0.546618</v>
       </c>
       <c r="F111" t="n">
-        <v>0.498623</v>
+        <v>0.497046</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581865</v>
+        <v>0.584924</v>
       </c>
       <c r="C112" t="n">
-        <v>0.495512</v>
+        <v>0.495892</v>
       </c>
       <c r="D112" t="n">
-        <v>0.595035</v>
+        <v>0.593764</v>
       </c>
       <c r="E112" t="n">
-        <v>0.548196</v>
+        <v>0.5467880000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>0.500676</v>
+        <v>0.496009</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582677</v>
+        <v>0.583741</v>
       </c>
       <c r="C113" t="n">
-        <v>0.496013</v>
+        <v>0.496457</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609457</v>
+        <v>0.608473</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548968</v>
+        <v>0.548441</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500877</v>
+        <v>0.500644</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584036</v>
+        <v>0.581704</v>
       </c>
       <c r="C114" t="n">
-        <v>0.497525</v>
+        <v>0.496864</v>
       </c>
       <c r="D114" t="n">
-        <v>0.622203</v>
+        <v>0.621732</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5485139999999999</v>
+        <v>0.5496799999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.504478</v>
+        <v>0.501109</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584696</v>
+        <v>0.584776</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498619</v>
+        <v>0.498853</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634487</v>
+        <v>0.632852</v>
       </c>
       <c r="E115" t="n">
-        <v>0.550582</v>
+        <v>0.549129</v>
       </c>
       <c r="F115" t="n">
-        <v>0.505424</v>
+        <v>0.50604</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.586062</v>
+        <v>0.584547</v>
       </c>
       <c r="C116" t="n">
-        <v>0.500449</v>
+        <v>0.498408</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650303</v>
+        <v>0.650634</v>
       </c>
       <c r="E116" t="n">
-        <v>0.550826</v>
+        <v>0.549194</v>
       </c>
       <c r="F116" t="n">
-        <v>0.507162</v>
+        <v>0.5034419999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587711</v>
+        <v>0.588206</v>
       </c>
       <c r="C117" t="n">
-        <v>0.502649</v>
+        <v>0.502171</v>
       </c>
       <c r="D117" t="n">
-        <v>0.670449</v>
+        <v>0.668671</v>
       </c>
       <c r="E117" t="n">
-        <v>0.551179</v>
+        <v>0.552109</v>
       </c>
       <c r="F117" t="n">
-        <v>0.509235</v>
+        <v>0.5091909999999999</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591249</v>
+        <v>0.588763</v>
       </c>
       <c r="C118" t="n">
-        <v>0.504107</v>
+        <v>0.505004</v>
       </c>
       <c r="D118" t="n">
-        <v>0.687852</v>
+        <v>0.685906</v>
       </c>
       <c r="E118" t="n">
-        <v>0.555291</v>
+        <v>0.55496</v>
       </c>
       <c r="F118" t="n">
-        <v>0.511747</v>
+        <v>0.510581</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593167</v>
+        <v>0.594075</v>
       </c>
       <c r="C119" t="n">
-        <v>0.513112</v>
+        <v>0.507175</v>
       </c>
       <c r="D119" t="n">
-        <v>0.705456</v>
+        <v>0.7049299999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.559347</v>
+        <v>0.556749</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5145729999999999</v>
+        <v>0.513087</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5983039999999999</v>
+        <v>0.597624</v>
       </c>
       <c r="C120" t="n">
-        <v>0.514335</v>
+        <v>0.513713</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721415</v>
+        <v>0.721089</v>
       </c>
       <c r="E120" t="n">
-        <v>0.563086</v>
+        <v>0.561315</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5150940000000001</v>
+        <v>0.517798</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606332</v>
+        <v>0.605518</v>
       </c>
       <c r="C121" t="n">
-        <v>0.520379</v>
+        <v>0.520857</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640737</v>
+        <v>0.6386230000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.565582</v>
+        <v>0.564875</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5228120000000001</v>
+        <v>0.5254450000000001</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613857</v>
+        <v>0.612669</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5303</v>
+        <v>0.528415</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649933</v>
+        <v>0.6478429999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.575607</v>
+        <v>0.572498</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5329930000000001</v>
+        <v>0.533618</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624242</v>
+        <v>0.6228129999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542262</v>
+        <v>0.54194</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663697</v>
+        <v>0.6622130000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.705978</v>
+        <v>0.705885</v>
       </c>
       <c r="F123" t="n">
-        <v>0.712286</v>
+        <v>0.713539</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7264659999999999</v>
+        <v>0.721793</v>
       </c>
       <c r="C124" t="n">
-        <v>0.704891</v>
+        <v>0.70356</v>
       </c>
       <c r="D124" t="n">
-        <v>0.673899</v>
+        <v>0.67191</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707313</v>
+        <v>0.707134</v>
       </c>
       <c r="F124" t="n">
-        <v>0.714693</v>
+        <v>0.713494</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.726368</v>
+        <v>0.724319</v>
       </c>
       <c r="C125" t="n">
-        <v>0.706077</v>
+        <v>0.705368</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687435</v>
+        <v>0.685832</v>
       </c>
       <c r="E125" t="n">
-        <v>0.708888</v>
+        <v>0.705322</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7158369999999999</v>
+        <v>0.715041</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.726649</v>
+        <v>0.722253</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7067099999999999</v>
+        <v>0.705067</v>
       </c>
       <c r="D126" t="n">
-        <v>0.70062</v>
+        <v>0.699362</v>
       </c>
       <c r="E126" t="n">
-        <v>0.70961</v>
+        <v>0.707865</v>
       </c>
       <c r="F126" t="n">
-        <v>0.71757</v>
+        <v>0.716463</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726994</v>
+        <v>0.724534</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70799</v>
+        <v>0.70591</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714332</v>
+        <v>0.712279</v>
       </c>
       <c r="E127" t="n">
-        <v>0.708838</v>
+        <v>0.706769</v>
       </c>
       <c r="F127" t="n">
-        <v>0.717438</v>
+        <v>0.7165629999999999</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.72856</v>
+        <v>0.72646</v>
       </c>
       <c r="C128" t="n">
-        <v>0.708823</v>
+        <v>0.707739</v>
       </c>
       <c r="D128" t="n">
-        <v>0.729963</v>
+        <v>0.728413</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710649</v>
+        <v>0.708268</v>
       </c>
       <c r="F128" t="n">
-        <v>0.720574</v>
+        <v>0.719268</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732124</v>
+        <v>0.726085</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708586</v>
+        <v>0.709673</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744344</v>
+        <v>0.742343</v>
       </c>
       <c r="E129" t="n">
-        <v>0.713638</v>
+        <v>0.711323</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7209410000000001</v>
+        <v>0.72168</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.730078</v>
+        <v>0.728029</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713337</v>
+        <v>0.710819</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761699</v>
+        <v>0.759908</v>
       </c>
       <c r="E130" t="n">
-        <v>0.715232</v>
+        <v>0.710973</v>
       </c>
       <c r="F130" t="n">
-        <v>0.725799</v>
+        <v>0.722624</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.732575</v>
+        <v>0.729832</v>
       </c>
       <c r="C131" t="n">
-        <v>0.717181</v>
+        <v>0.714466</v>
       </c>
       <c r="D131" t="n">
-        <v>0.775505</v>
+        <v>0.774024</v>
       </c>
       <c r="E131" t="n">
-        <v>0.718016</v>
+        <v>0.714199</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7269060000000001</v>
+        <v>0.725886</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73841</v>
+        <v>0.734311</v>
       </c>
       <c r="C132" t="n">
-        <v>0.718176</v>
+        <v>0.715884</v>
       </c>
       <c r="D132" t="n">
-        <v>0.790405</v>
+        <v>0.787895</v>
       </c>
       <c r="E132" t="n">
-        <v>0.71645</v>
+        <v>0.7155359999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.728781</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.739803</v>
+        <v>0.736852</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7227710000000001</v>
+        <v>0.721859</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807145</v>
+        <v>0.8054829999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.722407</v>
+        <v>0.717226</v>
       </c>
       <c r="F133" t="n">
-        <v>0.734579</v>
+        <v>0.732339</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.744437</v>
+        <v>0.742942</v>
       </c>
       <c r="C134" t="n">
-        <v>0.728204</v>
+        <v>0.726769</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824064</v>
+        <v>0.822477</v>
       </c>
       <c r="E134" t="n">
-        <v>0.725752</v>
+        <v>0.722045</v>
       </c>
       <c r="F134" t="n">
-        <v>0.73914</v>
+        <v>0.737725</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749928</v>
+        <v>0.749896</v>
       </c>
       <c r="C135" t="n">
-        <v>0.737628</v>
+        <v>0.73585</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693605</v>
+        <v>0.691286</v>
       </c>
       <c r="E135" t="n">
-        <v>0.73023</v>
+        <v>0.727038</v>
       </c>
       <c r="F135" t="n">
-        <v>0.748713</v>
+        <v>0.746165</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.760814</v>
+        <v>0.757188</v>
       </c>
       <c r="C136" t="n">
-        <v>0.746177</v>
+        <v>0.746368</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702227</v>
+        <v>0.700261</v>
       </c>
       <c r="E136" t="n">
-        <v>0.736392</v>
+        <v>0.7341569999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7587699999999999</v>
+        <v>0.754771</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.77232</v>
+        <v>0.768904</v>
       </c>
       <c r="C137" t="n">
-        <v>0.759752</v>
+        <v>0.7591909999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714024</v>
+        <v>0.71155</v>
       </c>
       <c r="E137" t="n">
-        <v>0.843116</v>
+        <v>0.840248</v>
       </c>
       <c r="F137" t="n">
-        <v>0.849222</v>
+        <v>0.845552</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85483</v>
+        <v>0.852254</v>
       </c>
       <c r="C138" t="n">
-        <v>0.845839</v>
+        <v>0.842244</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726641</v>
+        <v>0.724253</v>
       </c>
       <c r="E138" t="n">
-        <v>0.84388</v>
+        <v>0.84051</v>
       </c>
       <c r="F138" t="n">
-        <v>0.850924</v>
+        <v>0.847298</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.855639</v>
+        <v>0.851487</v>
       </c>
       <c r="C139" t="n">
-        <v>0.847633</v>
+        <v>0.843481</v>
       </c>
       <c r="D139" t="n">
-        <v>0.738794</v>
+        <v>0.736706</v>
       </c>
       <c r="E139" t="n">
-        <v>0.843373</v>
+        <v>0.840819</v>
       </c>
       <c r="F139" t="n">
-        <v>0.852064</v>
+        <v>0.847369</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.855152</v>
+        <v>0.852301</v>
       </c>
       <c r="C140" t="n">
-        <v>0.847312</v>
+        <v>0.84345</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752517</v>
+        <v>0.749408</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8446709999999999</v>
+        <v>0.841081</v>
       </c>
       <c r="F140" t="n">
-        <v>0.853473</v>
+        <v>0.848768</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.856967</v>
+        <v>0.852373</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8489409999999999</v>
+        <v>0.844921</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766466</v>
+        <v>0.76383</v>
       </c>
       <c r="E141" t="n">
-        <v>0.84552</v>
+        <v>0.841262</v>
       </c>
       <c r="F141" t="n">
-        <v>0.856429</v>
+        <v>0.850083</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.856809</v>
+        <v>0.853129</v>
       </c>
       <c r="C142" t="n">
-        <v>0.849953</v>
+        <v>0.846847</v>
       </c>
       <c r="D142" t="n">
-        <v>0.77847</v>
+        <v>0.775115</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8466089999999999</v>
+        <v>0.842276</v>
       </c>
       <c r="F142" t="n">
-        <v>0.856754</v>
+        <v>0.852508</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.858166</v>
+        <v>0.855393</v>
       </c>
       <c r="C143" t="n">
-        <v>0.852676</v>
+        <v>0.84832</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7949889999999999</v>
+        <v>0.791228</v>
       </c>
       <c r="E143" t="n">
-        <v>0.846843</v>
+        <v>0.846815</v>
       </c>
       <c r="F143" t="n">
-        <v>0.858913</v>
+        <v>0.854703</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.111029</v>
+        <v>0.112058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.107064</v>
+        <v>0.108608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.134037</v>
+        <v>0.135293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119982</v>
+        <v>0.119886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121034</v>
+        <v>0.12179</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11202</v>
+        <v>0.112883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107801</v>
+        <v>0.108883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139523</v>
+        <v>0.141264</v>
       </c>
       <c r="E3" t="n">
-        <v>0.120041</v>
+        <v>0.119977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121208</v>
+        <v>0.121193</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111951</v>
+        <v>0.11096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108369</v>
+        <v>0.108402</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146277</v>
+        <v>0.148016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120625</v>
+        <v>0.120595</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121416</v>
+        <v>0.122058</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111939</v>
+        <v>0.113156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109305</v>
+        <v>0.109484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.154755</v>
+        <v>0.156193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120869</v>
+        <v>0.121093</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122046</v>
+        <v>0.122485</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113522</v>
+        <v>0.114002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110323</v>
+        <v>0.110204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160229</v>
+        <v>0.160819</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121786</v>
+        <v>0.121826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122997</v>
+        <v>0.122962</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115621</v>
+        <v>0.114585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112355</v>
+        <v>0.112376</v>
       </c>
       <c r="D7" t="n">
-        <v>0.133974</v>
+        <v>0.133443</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122575</v>
+        <v>0.12297</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124015</v>
+        <v>0.12411</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11703</v>
+        <v>0.116967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114959</v>
+        <v>0.114489</v>
       </c>
       <c r="D8" t="n">
-        <v>0.13664</v>
+        <v>0.135983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12505</v>
+        <v>0.124494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.126171</v>
+        <v>0.126186</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122371</v>
+        <v>0.121605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117967</v>
+        <v>0.118081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141386</v>
+        <v>0.140831</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125845</v>
+        <v>0.126122</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123476</v>
+        <v>0.123451</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122344</v>
+        <v>0.122749</v>
       </c>
       <c r="C10" t="n">
-        <v>0.111031</v>
+        <v>0.112718</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145266</v>
+        <v>0.145252</v>
       </c>
       <c r="E10" t="n">
-        <v>0.12614</v>
+        <v>0.126336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123626</v>
+        <v>0.123925</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122557</v>
+        <v>0.122976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111095</v>
+        <v>0.111267</v>
       </c>
       <c r="D11" t="n">
-        <v>0.149086</v>
+        <v>0.149681</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126703</v>
+        <v>0.126944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123501</v>
+        <v>0.12414</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1229</v>
+        <v>0.122689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111332</v>
+        <v>0.111724</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153718</v>
+        <v>0.154073</v>
       </c>
       <c r="E12" t="n">
-        <v>0.126651</v>
+        <v>0.12689</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123855</v>
+        <v>0.123667</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122485</v>
+        <v>0.123572</v>
       </c>
       <c r="C13" t="n">
-        <v>0.112095</v>
+        <v>0.111761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159501</v>
+        <v>0.160155</v>
       </c>
       <c r="E13" t="n">
-        <v>0.126943</v>
+        <v>0.127317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.124258</v>
+        <v>0.123683</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123392</v>
+        <v>0.123946</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112809</v>
+        <v>0.113968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164985</v>
+        <v>0.165185</v>
       </c>
       <c r="E14" t="n">
-        <v>0.128103</v>
+        <v>0.12717</v>
       </c>
       <c r="F14" t="n">
-        <v>0.124049</v>
+        <v>0.124705</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123424</v>
+        <v>0.123863</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112228</v>
+        <v>0.112101</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172986</v>
+        <v>0.172455</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127826</v>
+        <v>0.127382</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124318</v>
+        <v>0.124529</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122699</v>
+        <v>0.123567</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11319</v>
+        <v>0.114138</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17822</v>
+        <v>0.1782</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128039</v>
+        <v>0.128229</v>
       </c>
       <c r="F16" t="n">
-        <v>0.124484</v>
+        <v>0.124862</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124518</v>
+        <v>0.124609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11353</v>
+        <v>0.11321</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183399</v>
+        <v>0.183509</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128079</v>
+        <v>0.128366</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124689</v>
+        <v>0.124614</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124587</v>
+        <v>0.124708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113991</v>
+        <v>0.114076</v>
       </c>
       <c r="D18" t="n">
-        <v>0.189566</v>
+        <v>0.189579</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128397</v>
+        <v>0.128908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125184</v>
+        <v>0.125591</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126357</v>
+        <v>0.126537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.115212</v>
+        <v>0.11572</v>
       </c>
       <c r="D19" t="n">
-        <v>0.194782</v>
+        <v>0.194581</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128731</v>
+        <v>0.129769</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125905</v>
+        <v>0.126568</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127001</v>
+        <v>0.127417</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11645</v>
+        <v>0.116917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200637</v>
+        <v>0.200372</v>
       </c>
       <c r="E20" t="n">
-        <v>0.129843</v>
+        <v>0.131499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126701</v>
+        <v>0.126511</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129609</v>
+        <v>0.128971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118801</v>
+        <v>0.118674</v>
       </c>
       <c r="D21" t="n">
-        <v>0.152656</v>
+        <v>0.155906</v>
       </c>
       <c r="E21" t="n">
-        <v>0.131446</v>
+        <v>0.132161</v>
       </c>
       <c r="F21" t="n">
-        <v>0.128161</v>
+        <v>0.128139</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132995</v>
+        <v>0.133898</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122679</v>
+        <v>0.122481</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157785</v>
+        <v>0.158356</v>
       </c>
       <c r="E22" t="n">
-        <v>0.135199</v>
+        <v>0.136672</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131988</v>
+        <v>0.132541</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141124</v>
+        <v>0.141738</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131381</v>
+        <v>0.132942</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161429</v>
+        <v>0.162343</v>
       </c>
       <c r="E23" t="n">
-        <v>0.136335</v>
+        <v>0.136142</v>
       </c>
       <c r="F23" t="n">
-        <v>0.130594</v>
+        <v>0.131655</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133737</v>
+        <v>0.134608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121504</v>
+        <v>0.123264</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167397</v>
+        <v>0.168084</v>
       </c>
       <c r="E24" t="n">
-        <v>0.135676</v>
+        <v>0.136353</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131864</v>
+        <v>0.13204</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133381</v>
+        <v>0.133335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122451</v>
+        <v>0.12147</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171658</v>
+        <v>0.17221</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136804</v>
+        <v>0.13612</v>
       </c>
       <c r="F25" t="n">
-        <v>0.132139</v>
+        <v>0.131764</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13385</v>
+        <v>0.133569</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122449</v>
+        <v>0.12296</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176413</v>
+        <v>0.178102</v>
       </c>
       <c r="E26" t="n">
-        <v>0.137593</v>
+        <v>0.136173</v>
       </c>
       <c r="F26" t="n">
-        <v>0.131951</v>
+        <v>0.133152</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133379</v>
+        <v>0.133687</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121703</v>
+        <v>0.123027</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181863</v>
+        <v>0.182896</v>
       </c>
       <c r="E27" t="n">
-        <v>0.137211</v>
+        <v>0.136609</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131881</v>
+        <v>0.132188</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134396</v>
+        <v>0.135903</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122935</v>
+        <v>0.122755</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186599</v>
+        <v>0.186989</v>
       </c>
       <c r="E28" t="n">
-        <v>0.136498</v>
+        <v>0.137489</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131697</v>
+        <v>0.132216</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134369</v>
+        <v>0.134473</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123031</v>
+        <v>0.123495</v>
       </c>
       <c r="D29" t="n">
-        <v>0.191969</v>
+        <v>0.192233</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137121</v>
+        <v>0.137495</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132258</v>
+        <v>0.132978</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135122</v>
+        <v>0.13544</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124438</v>
+        <v>0.124976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1973</v>
+        <v>0.197823</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137987</v>
+        <v>0.137786</v>
       </c>
       <c r="F30" t="n">
-        <v>0.133422</v>
+        <v>0.133824</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13496</v>
+        <v>0.136222</v>
       </c>
       <c r="C31" t="n">
-        <v>0.124346</v>
+        <v>0.124665</v>
       </c>
       <c r="D31" t="n">
-        <v>0.202062</v>
+        <v>0.203334</v>
       </c>
       <c r="E31" t="n">
-        <v>0.137928</v>
+        <v>0.139308</v>
       </c>
       <c r="F31" t="n">
-        <v>0.134997</v>
+        <v>0.135072</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136094</v>
+        <v>0.13642</v>
       </c>
       <c r="C32" t="n">
-        <v>0.124953</v>
+        <v>0.124707</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207916</v>
+        <v>0.209106</v>
       </c>
       <c r="E32" t="n">
-        <v>0.138736</v>
+        <v>0.13943</v>
       </c>
       <c r="F32" t="n">
-        <v>0.133757</v>
+        <v>0.135388</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137328</v>
+        <v>0.137377</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126281</v>
+        <v>0.126369</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213559</v>
+        <v>0.21386</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139549</v>
+        <v>0.139556</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134995</v>
+        <v>0.135109</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138958</v>
+        <v>0.138546</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127682</v>
+        <v>0.128709</v>
       </c>
       <c r="D34" t="n">
-        <v>0.218114</v>
+        <v>0.21777</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141634</v>
+        <v>0.141776</v>
       </c>
       <c r="F34" t="n">
-        <v>0.136596</v>
+        <v>0.136801</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141158</v>
+        <v>0.141291</v>
       </c>
       <c r="C35" t="n">
-        <v>0.131193</v>
+        <v>0.131459</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17008</v>
+        <v>0.170076</v>
       </c>
       <c r="E35" t="n">
-        <v>0.14545</v>
+        <v>0.146292</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140524</v>
+        <v>0.140165</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147827</v>
+        <v>0.146817</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136603</v>
+        <v>0.136668</v>
       </c>
       <c r="D36" t="n">
-        <v>0.17436</v>
+        <v>0.174055</v>
       </c>
       <c r="E36" t="n">
-        <v>0.152706</v>
+        <v>0.153119</v>
       </c>
       <c r="F36" t="n">
-        <v>0.149337</v>
+        <v>0.146831</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.15493</v>
+        <v>0.154992</v>
       </c>
       <c r="C37" t="n">
-        <v>0.144526</v>
+        <v>0.145423</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178319</v>
+        <v>0.177832</v>
       </c>
       <c r="E37" t="n">
-        <v>0.149898</v>
+        <v>0.148974</v>
       </c>
       <c r="F37" t="n">
-        <v>0.14906</v>
+        <v>0.149424</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.146204</v>
+        <v>0.145113</v>
       </c>
       <c r="C38" t="n">
-        <v>0.139693</v>
+        <v>0.141486</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182715</v>
+        <v>0.183225</v>
       </c>
       <c r="E38" t="n">
-        <v>0.149738</v>
+        <v>0.149378</v>
       </c>
       <c r="F38" t="n">
-        <v>0.148381</v>
+        <v>0.149439</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147272</v>
+        <v>0.145565</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139968</v>
+        <v>0.139761</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187442</v>
+        <v>0.187271</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149987</v>
+        <v>0.148266</v>
       </c>
       <c r="F39" t="n">
-        <v>0.150091</v>
+        <v>0.14947</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146926</v>
+        <v>0.14589</v>
       </c>
       <c r="C40" t="n">
-        <v>0.140708</v>
+        <v>0.140695</v>
       </c>
       <c r="D40" t="n">
-        <v>0.192029</v>
+        <v>0.191995</v>
       </c>
       <c r="E40" t="n">
-        <v>0.147535</v>
+        <v>0.1494</v>
       </c>
       <c r="F40" t="n">
-        <v>0.150076</v>
+        <v>0.151699</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147313</v>
+        <v>0.146586</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140443</v>
+        <v>0.140204</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196615</v>
+        <v>0.19651</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150576</v>
+        <v>0.151569</v>
       </c>
       <c r="F41" t="n">
-        <v>0.14997</v>
+        <v>0.150046</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14783</v>
+        <v>0.148639</v>
       </c>
       <c r="C42" t="n">
-        <v>0.140437</v>
+        <v>0.142743</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201936</v>
+        <v>0.201347</v>
       </c>
       <c r="E42" t="n">
-        <v>0.150478</v>
+        <v>0.150586</v>
       </c>
       <c r="F42" t="n">
-        <v>0.149055</v>
+        <v>0.149473</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147931</v>
+        <v>0.147084</v>
       </c>
       <c r="C43" t="n">
-        <v>0.142176</v>
+        <v>0.141446</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206825</v>
+        <v>0.207107</v>
       </c>
       <c r="E43" t="n">
-        <v>0.150329</v>
+        <v>0.150552</v>
       </c>
       <c r="F43" t="n">
-        <v>0.150338</v>
+        <v>0.149929</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147057</v>
+        <v>0.147585</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141416</v>
+        <v>0.141033</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211728</v>
+        <v>0.211787</v>
       </c>
       <c r="E44" t="n">
-        <v>0.151563</v>
+        <v>0.15071</v>
       </c>
       <c r="F44" t="n">
-        <v>0.149865</v>
+        <v>0.150927</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148888</v>
+        <v>0.149546</v>
       </c>
       <c r="C45" t="n">
-        <v>0.14223</v>
+        <v>0.143405</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216681</v>
+        <v>0.216842</v>
       </c>
       <c r="E45" t="n">
-        <v>0.151361</v>
+        <v>0.150939</v>
       </c>
       <c r="F45" t="n">
-        <v>0.150694</v>
+        <v>0.15091</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149997</v>
+        <v>0.148856</v>
       </c>
       <c r="C46" t="n">
-        <v>0.144255</v>
+        <v>0.144729</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222036</v>
+        <v>0.221852</v>
       </c>
       <c r="E46" t="n">
-        <v>0.152958</v>
+        <v>0.154017</v>
       </c>
       <c r="F46" t="n">
-        <v>0.152398</v>
+        <v>0.151431</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149421</v>
+        <v>0.150854</v>
       </c>
       <c r="C47" t="n">
-        <v>0.144681</v>
+        <v>0.145311</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227538</v>
+        <v>0.227962</v>
       </c>
       <c r="E47" t="n">
-        <v>0.153016</v>
+        <v>0.153625</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1538</v>
+        <v>0.152196</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15281</v>
+        <v>0.153725</v>
       </c>
       <c r="C48" t="n">
-        <v>0.146578</v>
+        <v>0.148177</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231896</v>
+        <v>0.232399</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157751</v>
+        <v>0.156678</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155552</v>
+        <v>0.155281</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.15709</v>
+        <v>0.157533</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152785</v>
+        <v>0.152455</v>
       </c>
       <c r="D49" t="n">
-        <v>0.237042</v>
+        <v>0.236725</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160724</v>
+        <v>0.16206</v>
       </c>
       <c r="F49" t="n">
-        <v>0.163316</v>
+        <v>0.159452</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163663</v>
+        <v>0.161159</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157038</v>
+        <v>0.156811</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172592</v>
+        <v>0.172557</v>
       </c>
       <c r="E50" t="n">
-        <v>0.165725</v>
+        <v>0.166581</v>
       </c>
       <c r="F50" t="n">
-        <v>0.165601</v>
+        <v>0.165594</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168481</v>
+        <v>0.165551</v>
       </c>
       <c r="C51" t="n">
-        <v>0.163052</v>
+        <v>0.164424</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175634</v>
+        <v>0.175811</v>
       </c>
       <c r="E51" t="n">
-        <v>0.16301</v>
+        <v>0.162721</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165661</v>
+        <v>0.167659</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175291</v>
+        <v>0.174884</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170629</v>
+        <v>0.172433</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179232</v>
+        <v>0.179191</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163551</v>
+        <v>0.164575</v>
       </c>
       <c r="F52" t="n">
-        <v>0.165268</v>
+        <v>0.164989</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15932</v>
+        <v>0.159382</v>
       </c>
       <c r="C53" t="n">
-        <v>0.159123</v>
+        <v>0.158345</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183543</v>
+        <v>0.183921</v>
       </c>
       <c r="E53" t="n">
-        <v>0.163216</v>
+        <v>0.16278</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165119</v>
+        <v>0.165967</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159493</v>
+        <v>0.159166</v>
       </c>
       <c r="C54" t="n">
-        <v>0.16007</v>
+        <v>0.158236</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188123</v>
+        <v>0.188066</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163675</v>
+        <v>0.164142</v>
       </c>
       <c r="F54" t="n">
-        <v>0.166659</v>
+        <v>0.166162</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159749</v>
+        <v>0.159095</v>
       </c>
       <c r="C55" t="n">
-        <v>0.15988</v>
+        <v>0.15997</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192945</v>
+        <v>0.193154</v>
       </c>
       <c r="E55" t="n">
-        <v>0.164035</v>
+        <v>0.164404</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166081</v>
+        <v>0.171063</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159122</v>
+        <v>0.161612</v>
       </c>
       <c r="C56" t="n">
-        <v>0.160551</v>
+        <v>0.159762</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198293</v>
+        <v>0.198093</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164061</v>
+        <v>0.167814</v>
       </c>
       <c r="F56" t="n">
-        <v>0.166988</v>
+        <v>0.167275</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160556</v>
+        <v>0.160477</v>
       </c>
       <c r="C57" t="n">
-        <v>0.160979</v>
+        <v>0.162168</v>
       </c>
       <c r="D57" t="n">
-        <v>0.203166</v>
+        <v>0.20382</v>
       </c>
       <c r="E57" t="n">
-        <v>0.164249</v>
+        <v>0.165821</v>
       </c>
       <c r="F57" t="n">
-        <v>0.16796</v>
+        <v>0.168052</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160588</v>
+        <v>0.162952</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161847</v>
+        <v>0.162747</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208613</v>
+        <v>0.208657</v>
       </c>
       <c r="E58" t="n">
-        <v>0.16513</v>
+        <v>0.1655</v>
       </c>
       <c r="F58" t="n">
-        <v>0.168531</v>
+        <v>0.168029</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.163161</v>
+        <v>0.162678</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162072</v>
+        <v>0.162522</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213498</v>
+        <v>0.213463</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165161</v>
+        <v>0.166638</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168888</v>
+        <v>0.168958</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162319</v>
+        <v>0.163653</v>
       </c>
       <c r="C60" t="n">
-        <v>0.165063</v>
+        <v>0.164548</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218772</v>
+        <v>0.21913</v>
       </c>
       <c r="E60" t="n">
-        <v>0.166876</v>
+        <v>0.166576</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170635</v>
+        <v>0.170848</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164047</v>
+        <v>0.163358</v>
       </c>
       <c r="C61" t="n">
-        <v>0.164967</v>
+        <v>0.164424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.22394</v>
+        <v>0.223588</v>
       </c>
       <c r="E61" t="n">
-        <v>0.16864</v>
+        <v>0.168543</v>
       </c>
       <c r="F61" t="n">
-        <v>0.171802</v>
+        <v>0.171735</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165565</v>
+        <v>0.166893</v>
       </c>
       <c r="C62" t="n">
-        <v>0.168033</v>
+        <v>0.167622</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2291</v>
+        <v>0.22896</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171695</v>
+        <v>0.170934</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174306</v>
+        <v>0.174641</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170311</v>
+        <v>0.169598</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17111</v>
+        <v>0.170527</v>
       </c>
       <c r="D63" t="n">
-        <v>0.23286</v>
+        <v>0.233536</v>
       </c>
       <c r="E63" t="n">
-        <v>0.173518</v>
+        <v>0.173759</v>
       </c>
       <c r="F63" t="n">
-        <v>0.177964</v>
+        <v>0.177666</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17347</v>
+        <v>0.172953</v>
       </c>
       <c r="C64" t="n">
-        <v>0.176284</v>
+        <v>0.176747</v>
       </c>
       <c r="D64" t="n">
-        <v>0.182002</v>
+        <v>0.182072</v>
       </c>
       <c r="E64" t="n">
-        <v>0.17745</v>
+        <v>0.178612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182384</v>
+        <v>0.182791</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178476</v>
+        <v>0.17962</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180783</v>
+        <v>0.181998</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184978</v>
+        <v>0.185085</v>
       </c>
       <c r="E65" t="n">
-        <v>0.184303</v>
+        <v>0.183881</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188897</v>
+        <v>0.189145</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185814</v>
+        <v>0.186722</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188468</v>
+        <v>0.189563</v>
       </c>
       <c r="D66" t="n">
-        <v>0.188717</v>
+        <v>0.188738</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175661</v>
+        <v>0.177279</v>
       </c>
       <c r="F66" t="n">
-        <v>0.177006</v>
+        <v>0.176735</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178092</v>
+        <v>0.182747</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170663</v>
+        <v>0.170387</v>
       </c>
       <c r="D67" t="n">
-        <v>0.19255</v>
+        <v>0.192921</v>
       </c>
       <c r="E67" t="n">
-        <v>0.176944</v>
+        <v>0.17655</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177198</v>
+        <v>0.17705</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180962</v>
+        <v>0.184594</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171181</v>
+        <v>0.170847</v>
       </c>
       <c r="D68" t="n">
-        <v>0.198531</v>
+        <v>0.199235</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176361</v>
+        <v>0.177074</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177553</v>
+        <v>0.177424</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.178635</v>
+        <v>0.183184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.17186</v>
+        <v>0.171166</v>
       </c>
       <c r="D69" t="n">
-        <v>0.20465</v>
+        <v>0.204801</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176593</v>
+        <v>0.17821</v>
       </c>
       <c r="F69" t="n">
-        <v>0.177825</v>
+        <v>0.177799</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.185416</v>
+        <v>0.183397</v>
       </c>
       <c r="C70" t="n">
-        <v>0.171663</v>
+        <v>0.171083</v>
       </c>
       <c r="D70" t="n">
-        <v>0.212146</v>
+        <v>0.212086</v>
       </c>
       <c r="E70" t="n">
-        <v>0.176355</v>
+        <v>0.178211</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178557</v>
+        <v>0.17853</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.179473</v>
+        <v>0.179621</v>
       </c>
       <c r="C71" t="n">
-        <v>0.171882</v>
+        <v>0.173032</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217498</v>
+        <v>0.218611</v>
       </c>
       <c r="E71" t="n">
-        <v>0.17717</v>
+        <v>0.178153</v>
       </c>
       <c r="F71" t="n">
-        <v>0.179234</v>
+        <v>0.178827</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.182915</v>
+        <v>0.184812</v>
       </c>
       <c r="C72" t="n">
-        <v>0.17351</v>
+        <v>0.17242</v>
       </c>
       <c r="D72" t="n">
-        <v>0.227201</v>
+        <v>0.228447</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178386</v>
+        <v>0.178549</v>
       </c>
       <c r="F72" t="n">
-        <v>0.180105</v>
+        <v>0.179898</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180288</v>
+        <v>0.187326</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17366</v>
+        <v>0.174096</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234477</v>
+        <v>0.238675</v>
       </c>
       <c r="E73" t="n">
-        <v>0.179294</v>
+        <v>0.179799</v>
       </c>
       <c r="F73" t="n">
-        <v>0.181017</v>
+        <v>0.180951</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.182405</v>
+        <v>0.182034</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175963</v>
+        <v>0.174949</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243123</v>
+        <v>0.244162</v>
       </c>
       <c r="E74" t="n">
-        <v>0.179772</v>
+        <v>0.181043</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182407</v>
+        <v>0.182337</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.182976</v>
+        <v>0.186076</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176573</v>
+        <v>0.176626</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252898</v>
+        <v>0.255203</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181867</v>
+        <v>0.18257</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184167</v>
+        <v>0.18424</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185645</v>
+        <v>0.18709</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179087</v>
+        <v>0.179164</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263573</v>
+        <v>0.266942</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1832</v>
+        <v>0.18312</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186145</v>
+        <v>0.186329</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189695</v>
+        <v>0.190003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182983</v>
+        <v>0.18233</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271482</v>
+        <v>0.275863</v>
       </c>
       <c r="E77" t="n">
-        <v>0.185939</v>
+        <v>0.185747</v>
       </c>
       <c r="F77" t="n">
-        <v>0.189115</v>
+        <v>0.189461</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.192823</v>
+        <v>0.192611</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186778</v>
+        <v>0.186352</v>
       </c>
       <c r="D78" t="n">
-        <v>0.222941</v>
+        <v>0.226925</v>
       </c>
       <c r="E78" t="n">
-        <v>0.190063</v>
+        <v>0.19048</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193675</v>
+        <v>0.193861</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196311</v>
+        <v>0.19928</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193059</v>
+        <v>0.191788</v>
       </c>
       <c r="D79" t="n">
-        <v>0.231217</v>
+        <v>0.237448</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195894</v>
+        <v>0.196338</v>
       </c>
       <c r="F79" t="n">
-        <v>0.200254</v>
+        <v>0.200307</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.208055</v>
+        <v>0.205683</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200459</v>
+        <v>0.200369</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242175</v>
+        <v>0.246076</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253374</v>
+        <v>0.252644</v>
       </c>
       <c r="F80" t="n">
-        <v>0.187453</v>
+        <v>0.188106</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.344653</v>
+        <v>0.336514</v>
       </c>
       <c r="C81" t="n">
-        <v>0.17993</v>
+        <v>0.181235</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256978</v>
+        <v>0.259983</v>
       </c>
       <c r="E81" t="n">
-        <v>0.252751</v>
+        <v>0.254867</v>
       </c>
       <c r="F81" t="n">
-        <v>0.187545</v>
+        <v>0.189419</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343821</v>
+        <v>0.338701</v>
       </c>
       <c r="C82" t="n">
-        <v>0.181085</v>
+        <v>0.181634</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268605</v>
+        <v>0.272397</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256029</v>
+        <v>0.253631</v>
       </c>
       <c r="F82" t="n">
-        <v>0.188457</v>
+        <v>0.188774</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339721</v>
+        <v>0.339992</v>
       </c>
       <c r="C83" t="n">
-        <v>0.182959</v>
+        <v>0.181812</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284297</v>
+        <v>0.285126</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254586</v>
+        <v>0.253464</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1897</v>
+        <v>0.190864</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.343694</v>
+        <v>0.342433</v>
       </c>
       <c r="C84" t="n">
-        <v>0.18201</v>
+        <v>0.18397</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298763</v>
+        <v>0.300839</v>
       </c>
       <c r="E84" t="n">
-        <v>0.253204</v>
+        <v>0.253257</v>
       </c>
       <c r="F84" t="n">
-        <v>0.190497</v>
+        <v>0.191501</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343113</v>
+        <v>0.341402</v>
       </c>
       <c r="C85" t="n">
-        <v>0.182655</v>
+        <v>0.18324</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314187</v>
+        <v>0.314999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.256032</v>
+        <v>0.252572</v>
       </c>
       <c r="F85" t="n">
-        <v>0.191002</v>
+        <v>0.19229</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.346518</v>
+        <v>0.347787</v>
       </c>
       <c r="C86" t="n">
-        <v>0.183632</v>
+        <v>0.183813</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330445</v>
+        <v>0.330323</v>
       </c>
       <c r="E86" t="n">
-        <v>0.254709</v>
+        <v>0.252717</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193727</v>
+        <v>0.194625</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.345145</v>
+        <v>0.342175</v>
       </c>
       <c r="C87" t="n">
-        <v>0.185108</v>
+        <v>0.185292</v>
       </c>
       <c r="D87" t="n">
-        <v>0.345658</v>
+        <v>0.347612</v>
       </c>
       <c r="E87" t="n">
-        <v>0.253452</v>
+        <v>0.254291</v>
       </c>
       <c r="F87" t="n">
-        <v>0.195365</v>
+        <v>0.196041</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.345653</v>
+        <v>0.347513</v>
       </c>
       <c r="C88" t="n">
-        <v>0.187682</v>
+        <v>0.187458</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36169</v>
+        <v>0.363198</v>
       </c>
       <c r="E88" t="n">
-        <v>0.252305</v>
+        <v>0.250812</v>
       </c>
       <c r="F88" t="n">
-        <v>0.196864</v>
+        <v>0.196521</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.346761</v>
+        <v>0.348465</v>
       </c>
       <c r="C89" t="n">
-        <v>0.189554</v>
+        <v>0.189804</v>
       </c>
       <c r="D89" t="n">
-        <v>0.377235</v>
+        <v>0.377202</v>
       </c>
       <c r="E89" t="n">
-        <v>0.252966</v>
+        <v>0.251332</v>
       </c>
       <c r="F89" t="n">
-        <v>0.200486</v>
+        <v>0.199808</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.350858</v>
+        <v>0.346572</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191432</v>
+        <v>0.191529</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39332</v>
+        <v>0.394081</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253956</v>
+        <v>0.250705</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202578</v>
+        <v>0.203792</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352573</v>
+        <v>0.353479</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195132</v>
+        <v>0.19669</v>
       </c>
       <c r="D91" t="n">
-        <v>0.408875</v>
+        <v>0.409808</v>
       </c>
       <c r="E91" t="n">
-        <v>0.251031</v>
+        <v>0.250674</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206333</v>
+        <v>0.206305</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.352388</v>
+        <v>0.35243</v>
       </c>
       <c r="C92" t="n">
-        <v>0.199988</v>
+        <v>0.200965</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358654</v>
+        <v>0.360417</v>
       </c>
       <c r="E92" t="n">
-        <v>0.254525</v>
+        <v>0.254264</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211689</v>
+        <v>0.211835</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.354718</v>
+        <v>0.357904</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207486</v>
+        <v>0.208398</v>
       </c>
       <c r="D93" t="n">
-        <v>0.372892</v>
+        <v>0.371956</v>
       </c>
       <c r="E93" t="n">
-        <v>0.256191</v>
+        <v>0.256727</v>
       </c>
       <c r="F93" t="n">
-        <v>0.220178</v>
+        <v>0.219592</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362675</v>
+        <v>0.366194</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217193</v>
+        <v>0.216692</v>
       </c>
       <c r="D94" t="n">
-        <v>0.381637</v>
+        <v>0.382407</v>
       </c>
       <c r="E94" t="n">
-        <v>0.41095</v>
+        <v>0.412638</v>
       </c>
       <c r="F94" t="n">
-        <v>0.276337</v>
+        <v>0.277882</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498068</v>
+        <v>0.497498</v>
       </c>
       <c r="C95" t="n">
-        <v>0.277896</v>
+        <v>0.282713</v>
       </c>
       <c r="D95" t="n">
-        <v>0.395892</v>
+        <v>0.400572</v>
       </c>
       <c r="E95" t="n">
-        <v>0.41006</v>
+        <v>0.410743</v>
       </c>
       <c r="F95" t="n">
-        <v>0.277423</v>
+        <v>0.275838</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499143</v>
+        <v>0.498918</v>
       </c>
       <c r="C96" t="n">
-        <v>0.279371</v>
+        <v>0.280683</v>
       </c>
       <c r="D96" t="n">
-        <v>0.40735</v>
+        <v>0.407259</v>
       </c>
       <c r="E96" t="n">
-        <v>0.409039</v>
+        <v>0.410209</v>
       </c>
       <c r="F96" t="n">
-        <v>0.282633</v>
+        <v>0.27491</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497957</v>
+        <v>0.497606</v>
       </c>
       <c r="C97" t="n">
-        <v>0.281167</v>
+        <v>0.277712</v>
       </c>
       <c r="D97" t="n">
-        <v>0.42292</v>
+        <v>0.422555</v>
       </c>
       <c r="E97" t="n">
-        <v>0.410133</v>
+        <v>0.410269</v>
       </c>
       <c r="F97" t="n">
-        <v>0.277323</v>
+        <v>0.281114</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.498144</v>
+        <v>0.497873</v>
       </c>
       <c r="C98" t="n">
-        <v>0.278661</v>
+        <v>0.281366</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435199</v>
+        <v>0.435486</v>
       </c>
       <c r="E98" t="n">
-        <v>0.408467</v>
+        <v>0.410377</v>
       </c>
       <c r="F98" t="n">
-        <v>0.281642</v>
+        <v>0.282443</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.499355</v>
+        <v>0.499081</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281254</v>
+        <v>0.28638</v>
       </c>
       <c r="D99" t="n">
-        <v>0.453419</v>
+        <v>0.456547</v>
       </c>
       <c r="E99" t="n">
-        <v>0.40801</v>
+        <v>0.408926</v>
       </c>
       <c r="F99" t="n">
-        <v>0.277836</v>
+        <v>0.281789</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498996</v>
+        <v>0.499641</v>
       </c>
       <c r="C100" t="n">
-        <v>0.285755</v>
+        <v>0.280548</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466888</v>
+        <v>0.465175</v>
       </c>
       <c r="E100" t="n">
-        <v>0.40948</v>
+        <v>0.407584</v>
       </c>
       <c r="F100" t="n">
-        <v>0.281141</v>
+        <v>0.282322</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.500613</v>
+        <v>0.50046</v>
       </c>
       <c r="C101" t="n">
-        <v>0.284407</v>
+        <v>0.285061</v>
       </c>
       <c r="D101" t="n">
-        <v>0.481034</v>
+        <v>0.481056</v>
       </c>
       <c r="E101" t="n">
-        <v>0.409129</v>
+        <v>0.409291</v>
       </c>
       <c r="F101" t="n">
-        <v>0.286229</v>
+        <v>0.28695</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.501938</v>
+        <v>0.502013</v>
       </c>
       <c r="C102" t="n">
-        <v>0.28844</v>
+        <v>0.285128</v>
       </c>
       <c r="D102" t="n">
-        <v>0.498001</v>
+        <v>0.498843</v>
       </c>
       <c r="E102" t="n">
-        <v>0.408659</v>
+        <v>0.409084</v>
       </c>
       <c r="F102" t="n">
-        <v>0.283365</v>
+        <v>0.283665</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.502912</v>
+        <v>0.502603</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2866</v>
+        <v>0.291214</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512749</v>
+        <v>0.514337</v>
       </c>
       <c r="E103" t="n">
-        <v>0.410446</v>
+        <v>0.410924</v>
       </c>
       <c r="F103" t="n">
-        <v>0.28841</v>
+        <v>0.290877</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.505328</v>
+        <v>0.504715</v>
       </c>
       <c r="C104" t="n">
-        <v>0.292915</v>
+        <v>0.285833</v>
       </c>
       <c r="D104" t="n">
-        <v>0.528762</v>
+        <v>0.527859</v>
       </c>
       <c r="E104" t="n">
-        <v>0.411543</v>
+        <v>0.411496</v>
       </c>
       <c r="F104" t="n">
-        <v>0.28917</v>
+        <v>0.295239</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.506757</v>
+        <v>0.507466</v>
       </c>
       <c r="C105" t="n">
-        <v>0.297064</v>
+        <v>0.293235</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544579</v>
+        <v>0.5445140000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412855</v>
+        <v>0.413643</v>
       </c>
       <c r="F105" t="n">
-        <v>0.290829</v>
+        <v>0.291803</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.510646</v>
+        <v>0.510497</v>
       </c>
       <c r="C106" t="n">
-        <v>0.300218</v>
+        <v>0.300494</v>
       </c>
       <c r="D106" t="n">
-        <v>0.561995</v>
+        <v>0.561602</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415447</v>
+        <v>0.41601</v>
       </c>
       <c r="F106" t="n">
-        <v>0.298215</v>
+        <v>0.295193</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.515356</v>
+        <v>0.516386</v>
       </c>
       <c r="C107" t="n">
-        <v>0.301335</v>
+        <v>0.314172</v>
       </c>
       <c r="D107" t="n">
-        <v>0.535837</v>
+        <v>0.538225</v>
       </c>
       <c r="E107" t="n">
-        <v>0.418997</v>
+        <v>0.420703</v>
       </c>
       <c r="F107" t="n">
-        <v>0.302693</v>
+        <v>0.30058</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.522644</v>
+        <v>0.52275</v>
       </c>
       <c r="C108" t="n">
-        <v>0.312588</v>
+        <v>0.310239</v>
       </c>
       <c r="D108" t="n">
-        <v>0.549942</v>
+        <v>0.5499039999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.544531</v>
+        <v>0.545553</v>
       </c>
       <c r="F108" t="n">
-        <v>0.492212</v>
+        <v>0.496867</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.533411</v>
+        <v>0.534123</v>
       </c>
       <c r="C109" t="n">
-        <v>0.332167</v>
+        <v>0.329408</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5539849999999999</v>
+        <v>0.55441</v>
       </c>
       <c r="E109" t="n">
-        <v>0.545079</v>
+        <v>0.54447</v>
       </c>
       <c r="F109" t="n">
-        <v>0.499491</v>
+        <v>0.492581</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.580878</v>
+        <v>0.58107</v>
       </c>
       <c r="C110" t="n">
-        <v>0.493388</v>
+        <v>0.492737</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5673550000000001</v>
+        <v>0.566643</v>
       </c>
       <c r="E110" t="n">
-        <v>0.548748</v>
+        <v>0.545341</v>
       </c>
       <c r="F110" t="n">
-        <v>0.498885</v>
+        <v>0.496708</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.58578</v>
+        <v>0.5804859999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.496273</v>
+        <v>0.49145</v>
       </c>
       <c r="D111" t="n">
-        <v>0.581553</v>
+        <v>0.582538</v>
       </c>
       <c r="E111" t="n">
-        <v>0.546618</v>
+        <v>0.545187</v>
       </c>
       <c r="F111" t="n">
-        <v>0.497046</v>
+        <v>0.4997</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.584924</v>
+        <v>0.581409</v>
       </c>
       <c r="C112" t="n">
-        <v>0.495892</v>
+        <v>0.492642</v>
       </c>
       <c r="D112" t="n">
-        <v>0.593764</v>
+        <v>0.593892</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5467880000000001</v>
+        <v>0.545722</v>
       </c>
       <c r="F112" t="n">
-        <v>0.496009</v>
+        <v>0.497498</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.583741</v>
+        <v>0.582056</v>
       </c>
       <c r="C113" t="n">
-        <v>0.496457</v>
+        <v>0.496056</v>
       </c>
       <c r="D113" t="n">
-        <v>0.608473</v>
+        <v>0.608695</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548441</v>
+        <v>0.544669</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500644</v>
+        <v>0.497006</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.581704</v>
+        <v>0.582036</v>
       </c>
       <c r="C114" t="n">
-        <v>0.496864</v>
+        <v>0.498208</v>
       </c>
       <c r="D114" t="n">
-        <v>0.621732</v>
+        <v>0.620849</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5496799999999999</v>
+        <v>0.546342</v>
       </c>
       <c r="F114" t="n">
-        <v>0.501109</v>
+        <v>0.498959</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584776</v>
+        <v>0.583176</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498853</v>
+        <v>0.498665</v>
       </c>
       <c r="D115" t="n">
-        <v>0.632852</v>
+        <v>0.63237</v>
       </c>
       <c r="E115" t="n">
-        <v>0.549129</v>
+        <v>0.550189</v>
       </c>
       <c r="F115" t="n">
-        <v>0.50604</v>
+        <v>0.500503</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.584547</v>
+        <v>0.585246</v>
       </c>
       <c r="C116" t="n">
-        <v>0.498408</v>
+        <v>0.499023</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650634</v>
+        <v>0.649728</v>
       </c>
       <c r="E116" t="n">
-        <v>0.549194</v>
+        <v>0.551287</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5034419999999999</v>
+        <v>0.502178</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.588206</v>
+        <v>0.585463</v>
       </c>
       <c r="C117" t="n">
-        <v>0.502171</v>
+        <v>0.503484</v>
       </c>
       <c r="D117" t="n">
-        <v>0.668671</v>
+        <v>0.668444</v>
       </c>
       <c r="E117" t="n">
-        <v>0.552109</v>
+        <v>0.552854</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5091909999999999</v>
+        <v>0.5078589999999999</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.588763</v>
+        <v>0.58997</v>
       </c>
       <c r="C118" t="n">
-        <v>0.505004</v>
+        <v>0.506053</v>
       </c>
       <c r="D118" t="n">
-        <v>0.685906</v>
+        <v>0.6858610000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.55496</v>
+        <v>0.5550349999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.510581</v>
+        <v>0.511767</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.594075</v>
+        <v>0.595598</v>
       </c>
       <c r="C119" t="n">
-        <v>0.507175</v>
+        <v>0.506834</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7049299999999999</v>
+        <v>0.703542</v>
       </c>
       <c r="E119" t="n">
-        <v>0.556749</v>
+        <v>0.5582009999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>0.513087</v>
+        <v>0.512757</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.597624</v>
+        <v>0.597645</v>
       </c>
       <c r="C120" t="n">
-        <v>0.513713</v>
+        <v>0.512302</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721089</v>
+        <v>0.719803</v>
       </c>
       <c r="E120" t="n">
-        <v>0.561315</v>
+        <v>0.560911</v>
       </c>
       <c r="F120" t="n">
-        <v>0.517798</v>
+        <v>0.516717</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605518</v>
+        <v>0.602885</v>
       </c>
       <c r="C121" t="n">
-        <v>0.520857</v>
+        <v>0.521023</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6386230000000001</v>
+        <v>0.638502</v>
       </c>
       <c r="E121" t="n">
-        <v>0.564875</v>
+        <v>0.565796</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5254450000000001</v>
+        <v>0.519188</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.612669</v>
+        <v>0.612668</v>
       </c>
       <c r="C122" t="n">
-        <v>0.528415</v>
+        <v>0.526657</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6478429999999999</v>
+        <v>0.648347</v>
       </c>
       <c r="E122" t="n">
-        <v>0.572498</v>
+        <v>0.574713</v>
       </c>
       <c r="F122" t="n">
-        <v>0.533618</v>
+        <v>0.532596</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6228129999999999</v>
+        <v>0.626081</v>
       </c>
       <c r="C123" t="n">
-        <v>0.54194</v>
+        <v>0.542222</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6622130000000001</v>
+        <v>0.661861</v>
       </c>
       <c r="E123" t="n">
-        <v>0.705885</v>
+        <v>0.703653</v>
       </c>
       <c r="F123" t="n">
-        <v>0.713539</v>
+        <v>0.712075</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.721793</v>
+        <v>0.721984</v>
       </c>
       <c r="C124" t="n">
-        <v>0.70356</v>
+        <v>0.7030380000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.67191</v>
+        <v>0.671382</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707134</v>
+        <v>0.707303</v>
       </c>
       <c r="F124" t="n">
-        <v>0.713494</v>
+        <v>0.714951</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.724319</v>
+        <v>0.723637</v>
       </c>
       <c r="C125" t="n">
-        <v>0.705368</v>
+        <v>0.702099</v>
       </c>
       <c r="D125" t="n">
-        <v>0.685832</v>
+        <v>0.68447</v>
       </c>
       <c r="E125" t="n">
-        <v>0.705322</v>
+        <v>0.704188</v>
       </c>
       <c r="F125" t="n">
-        <v>0.715041</v>
+        <v>0.714014</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.722253</v>
+        <v>0.721754</v>
       </c>
       <c r="C126" t="n">
-        <v>0.705067</v>
+        <v>0.704734</v>
       </c>
       <c r="D126" t="n">
-        <v>0.699362</v>
+        <v>0.698803</v>
       </c>
       <c r="E126" t="n">
-        <v>0.707865</v>
+        <v>0.707623</v>
       </c>
       <c r="F126" t="n">
-        <v>0.716463</v>
+        <v>0.718485</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.724534</v>
+        <v>0.722723</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70591</v>
+        <v>0.707592</v>
       </c>
       <c r="D127" t="n">
-        <v>0.712279</v>
+        <v>0.711908</v>
       </c>
       <c r="E127" t="n">
-        <v>0.706769</v>
+        <v>0.706422</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7165629999999999</v>
+        <v>0.717913</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.72646</v>
+        <v>0.723737</v>
       </c>
       <c r="C128" t="n">
-        <v>0.707739</v>
+        <v>0.707434</v>
       </c>
       <c r="D128" t="n">
-        <v>0.728413</v>
+        <v>0.728799</v>
       </c>
       <c r="E128" t="n">
-        <v>0.708268</v>
+        <v>0.708215</v>
       </c>
       <c r="F128" t="n">
-        <v>0.719268</v>
+        <v>0.7196360000000001</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.726085</v>
+        <v>0.727898</v>
       </c>
       <c r="C129" t="n">
-        <v>0.709673</v>
+        <v>0.711108</v>
       </c>
       <c r="D129" t="n">
-        <v>0.742343</v>
+        <v>0.742263</v>
       </c>
       <c r="E129" t="n">
-        <v>0.711323</v>
+        <v>0.708441</v>
       </c>
       <c r="F129" t="n">
-        <v>0.72168</v>
+        <v>0.720145</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.728029</v>
+        <v>0.728863</v>
       </c>
       <c r="C130" t="n">
-        <v>0.710819</v>
+        <v>0.710847</v>
       </c>
       <c r="D130" t="n">
-        <v>0.759908</v>
+        <v>0.759337</v>
       </c>
       <c r="E130" t="n">
-        <v>0.710973</v>
+        <v>0.708857</v>
       </c>
       <c r="F130" t="n">
-        <v>0.722624</v>
+        <v>0.721455</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.729832</v>
+        <v>0.727882</v>
       </c>
       <c r="C131" t="n">
-        <v>0.714466</v>
+        <v>0.713903</v>
       </c>
       <c r="D131" t="n">
-        <v>0.774024</v>
+        <v>0.773576</v>
       </c>
       <c r="E131" t="n">
-        <v>0.714199</v>
+        <v>0.711437</v>
       </c>
       <c r="F131" t="n">
-        <v>0.725886</v>
+        <v>0.725804</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.734311</v>
+        <v>0.7339869999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.715884</v>
+        <v>0.718812</v>
       </c>
       <c r="D132" t="n">
-        <v>0.787895</v>
+        <v>0.78817</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7155359999999999</v>
+        <v>0.71411</v>
       </c>
       <c r="F132" t="n">
-        <v>0.728781</v>
+        <v>0.727633</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.736852</v>
+        <v>0.73602</v>
       </c>
       <c r="C133" t="n">
-        <v>0.721859</v>
+        <v>0.720456</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8054829999999999</v>
+        <v>0.805245</v>
       </c>
       <c r="E133" t="n">
-        <v>0.717226</v>
+        <v>0.715602</v>
       </c>
       <c r="F133" t="n">
-        <v>0.732339</v>
+        <v>0.733581</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.742942</v>
+        <v>0.742409</v>
       </c>
       <c r="C134" t="n">
-        <v>0.726769</v>
+        <v>0.728178</v>
       </c>
       <c r="D134" t="n">
-        <v>0.822477</v>
+        <v>0.822691</v>
       </c>
       <c r="E134" t="n">
-        <v>0.722045</v>
+        <v>0.72122</v>
       </c>
       <c r="F134" t="n">
-        <v>0.737725</v>
+        <v>0.738558</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749896</v>
+        <v>0.749234</v>
       </c>
       <c r="C135" t="n">
-        <v>0.73585</v>
+        <v>0.735558</v>
       </c>
       <c r="D135" t="n">
-        <v>0.691286</v>
+        <v>0.691199</v>
       </c>
       <c r="E135" t="n">
-        <v>0.727038</v>
+        <v>0.726685</v>
       </c>
       <c r="F135" t="n">
-        <v>0.746165</v>
+        <v>0.745106</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.757188</v>
+        <v>0.755617</v>
       </c>
       <c r="C136" t="n">
-        <v>0.746368</v>
+        <v>0.746012</v>
       </c>
       <c r="D136" t="n">
-        <v>0.700261</v>
+        <v>0.699375</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7341569999999999</v>
+        <v>0.734423</v>
       </c>
       <c r="F136" t="n">
-        <v>0.754771</v>
+        <v>0.7549090000000001</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.768904</v>
+        <v>0.770792</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7591909999999999</v>
+        <v>0.758713</v>
       </c>
       <c r="D137" t="n">
-        <v>0.71155</v>
+        <v>0.711191</v>
       </c>
       <c r="E137" t="n">
-        <v>0.840248</v>
+        <v>0.83614</v>
       </c>
       <c r="F137" t="n">
-        <v>0.845552</v>
+        <v>0.843709</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.852254</v>
+        <v>0.848751</v>
       </c>
       <c r="C138" t="n">
-        <v>0.842244</v>
+        <v>0.839798</v>
       </c>
       <c r="D138" t="n">
-        <v>0.724253</v>
+        <v>0.723431</v>
       </c>
       <c r="E138" t="n">
-        <v>0.84051</v>
+        <v>0.83628</v>
       </c>
       <c r="F138" t="n">
-        <v>0.847298</v>
+        <v>0.845182</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.851487</v>
+        <v>0.849863</v>
       </c>
       <c r="C139" t="n">
-        <v>0.843481</v>
+        <v>0.8407790000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.736706</v>
+        <v>0.735027</v>
       </c>
       <c r="E139" t="n">
-        <v>0.840819</v>
+        <v>0.837898</v>
       </c>
       <c r="F139" t="n">
-        <v>0.847369</v>
+        <v>0.847645</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.852301</v>
+        <v>0.8500220000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.84345</v>
+        <v>0.841562</v>
       </c>
       <c r="D140" t="n">
-        <v>0.749408</v>
+        <v>0.748535</v>
       </c>
       <c r="E140" t="n">
-        <v>0.841081</v>
+        <v>0.838689</v>
       </c>
       <c r="F140" t="n">
-        <v>0.848768</v>
+        <v>0.847762</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.852373</v>
+        <v>0.851642</v>
       </c>
       <c r="C141" t="n">
-        <v>0.844921</v>
+        <v>0.845467</v>
       </c>
       <c r="D141" t="n">
-        <v>0.76383</v>
+        <v>0.7633</v>
       </c>
       <c r="E141" t="n">
-        <v>0.841262</v>
+        <v>0.839463</v>
       </c>
       <c r="F141" t="n">
-        <v>0.850083</v>
+        <v>0.85064</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853129</v>
+        <v>0.850525</v>
       </c>
       <c r="C142" t="n">
-        <v>0.846847</v>
+        <v>0.844437</v>
       </c>
       <c r="D142" t="n">
-        <v>0.775115</v>
+        <v>0.773624</v>
       </c>
       <c r="E142" t="n">
-        <v>0.842276</v>
+        <v>0.840199</v>
       </c>
       <c r="F142" t="n">
-        <v>0.852508</v>
+        <v>0.851187</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.855393</v>
+        <v>0.852789</v>
       </c>
       <c r="C143" t="n">
-        <v>0.84832</v>
+        <v>0.8461959999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.791228</v>
+        <v>0.790964</v>
       </c>
       <c r="E143" t="n">
-        <v>0.846815</v>
+        <v>0.841952</v>
       </c>
       <c r="F143" t="n">
-        <v>0.854703</v>
+        <v>0.852308</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110755</v>
+        <v>0.11088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10827</v>
+        <v>0.108143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.135686</v>
+        <v>0.134994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119803</v>
+        <v>0.119968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121403</v>
+        <v>0.121457</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110303</v>
+        <v>0.11217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107677</v>
+        <v>0.107646</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141381</v>
+        <v>0.141999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119773</v>
+        <v>0.119846</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121607</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110404</v>
+        <v>0.111634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108151</v>
+        <v>0.108085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147326</v>
+        <v>0.14813</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120205</v>
+        <v>0.120425</v>
       </c>
       <c r="F4" t="n">
-        <v>0.122458</v>
+        <v>0.121404</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111453</v>
+        <v>0.112001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10954</v>
+        <v>0.109174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155411</v>
+        <v>0.156179</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120887</v>
+        <v>0.121203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122185</v>
+        <v>0.121895</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113014</v>
+        <v>0.113385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110241</v>
+        <v>0.110342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160052</v>
+        <v>0.16106</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121551</v>
+        <v>0.121608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.123035</v>
+        <v>0.122708</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114223</v>
+        <v>0.115705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111769</v>
+        <v>0.112136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132942</v>
+        <v>0.132654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122455</v>
+        <v>0.122796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124051</v>
+        <v>0.123654</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116273</v>
+        <v>0.116843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114509</v>
+        <v>0.114716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.135527</v>
+        <v>0.135445</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124991</v>
+        <v>0.124551</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125942</v>
+        <v>0.125693</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122183</v>
+        <v>0.121785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119864</v>
+        <v>0.117994</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140257</v>
+        <v>0.140138</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125837</v>
+        <v>0.126074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123252</v>
+        <v>0.12334</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121012</v>
+        <v>0.12235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110752</v>
+        <v>0.110799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144434</v>
+        <v>0.144146</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125967</v>
+        <v>0.127578</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123407</v>
+        <v>0.123443</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121836</v>
+        <v>0.12156</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110907</v>
+        <v>0.112575</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148437</v>
+        <v>0.148181</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126474</v>
+        <v>0.12682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123545</v>
+        <v>0.123342</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122192</v>
+        <v>0.122493</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111693</v>
+        <v>0.112292</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153441</v>
+        <v>0.153742</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12645</v>
+        <v>0.12761</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123639</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122846</v>
+        <v>0.121719</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113079</v>
+        <v>0.113135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159149</v>
+        <v>0.159322</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127118</v>
+        <v>0.127399</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123688</v>
+        <v>0.124515</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123618</v>
+        <v>0.123205</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113805</v>
+        <v>0.114742</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165195</v>
+        <v>0.16504</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127639</v>
+        <v>0.127353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12377</v>
+        <v>0.124209</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122767</v>
+        <v>0.123873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113416</v>
+        <v>0.112538</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171723</v>
+        <v>0.172122</v>
       </c>
       <c r="E15" t="n">
-        <v>0.128048</v>
+        <v>0.127947</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124176</v>
+        <v>0.124313</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123564</v>
+        <v>0.123059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11317</v>
+        <v>0.113157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177362</v>
+        <v>0.177768</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12787</v>
+        <v>0.129477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.12443</v>
+        <v>0.124576</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124694</v>
+        <v>0.124948</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113036</v>
+        <v>0.113763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183146</v>
+        <v>0.182759</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128041</v>
+        <v>0.129194</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124923</v>
+        <v>0.125381</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125158</v>
+        <v>0.125203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113666</v>
+        <v>0.114113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18856</v>
+        <v>0.18852</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128818</v>
+        <v>0.129121</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125362</v>
+        <v>0.125709</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125665</v>
+        <v>0.126331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11458</v>
+        <v>0.11558</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1941</v>
+        <v>0.193992</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128847</v>
+        <v>0.129398</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125806</v>
+        <v>0.125573</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126731</v>
+        <v>0.127346</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116237</v>
+        <v>0.116248</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20001</v>
+        <v>0.200025</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130329</v>
+        <v>0.130735</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126534</v>
+        <v>0.126552</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128868</v>
+        <v>0.129435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11888</v>
+        <v>0.120691</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153717</v>
+        <v>0.153176</v>
       </c>
       <c r="E21" t="n">
-        <v>0.131934</v>
+        <v>0.132189</v>
       </c>
       <c r="F21" t="n">
-        <v>0.127855</v>
+        <v>0.128689</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132676</v>
+        <v>0.13276</v>
       </c>
       <c r="C22" t="n">
-        <v>0.121973</v>
+        <v>0.124664</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157524</v>
+        <v>0.157111</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136138</v>
+        <v>0.135382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131853</v>
+        <v>0.132732</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140787</v>
+        <v>0.140782</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131292</v>
+        <v>0.131644</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162788</v>
+        <v>0.161348</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135625</v>
+        <v>0.135857</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131881</v>
+        <v>0.130842</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1337</v>
+        <v>0.133408</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122135</v>
+        <v>0.122498</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167625</v>
+        <v>0.167687</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136283</v>
+        <v>0.135589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131885</v>
+        <v>0.131949</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134208</v>
+        <v>0.13391</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122957</v>
+        <v>0.121647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171834</v>
+        <v>0.171749</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136371</v>
+        <v>0.136465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.132177</v>
+        <v>0.131312</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133577</v>
+        <v>0.133575</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122857</v>
+        <v>0.123523</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177008</v>
+        <v>0.177806</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136436</v>
+        <v>0.136526</v>
       </c>
       <c r="F26" t="n">
-        <v>0.131705</v>
+        <v>0.132442</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133929</v>
+        <v>0.13427</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122013</v>
+        <v>0.12332</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181778</v>
+        <v>0.182577</v>
       </c>
       <c r="E27" t="n">
-        <v>0.136685</v>
+        <v>0.136045</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131595</v>
+        <v>0.133009</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134262</v>
+        <v>0.134259</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12368</v>
+        <v>0.12262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186568</v>
+        <v>0.18756</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137245</v>
+        <v>0.136569</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131578</v>
+        <v>0.132837</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134735</v>
+        <v>0.134357</v>
       </c>
       <c r="C29" t="n">
-        <v>0.124289</v>
+        <v>0.122828</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192348</v>
+        <v>0.191776</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137671</v>
+        <v>0.136733</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132818</v>
+        <v>0.133124</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135106</v>
+        <v>0.135516</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124365</v>
+        <v>0.123944</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196557</v>
+        <v>0.197356</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137188</v>
+        <v>0.137539</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132166</v>
+        <v>0.133745</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134864</v>
+        <v>0.13614</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123708</v>
+        <v>0.125546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201715</v>
+        <v>0.201819</v>
       </c>
       <c r="E31" t="n">
-        <v>0.138148</v>
+        <v>0.137747</v>
       </c>
       <c r="F31" t="n">
-        <v>0.132505</v>
+        <v>0.133458</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135622</v>
+        <v>0.135737</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125448</v>
+        <v>0.125529</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207784</v>
+        <v>0.207959</v>
       </c>
       <c r="E32" t="n">
-        <v>0.139682</v>
+        <v>0.138763</v>
       </c>
       <c r="F32" t="n">
-        <v>0.13392</v>
+        <v>0.133304</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136503</v>
+        <v>0.137365</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126609</v>
+        <v>0.128727</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21287</v>
+        <v>0.21324</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139433</v>
+        <v>0.139123</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134902</v>
+        <v>0.135358</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138478</v>
+        <v>0.138678</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127751</v>
+        <v>0.129157</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217725</v>
+        <v>0.21787</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141867</v>
+        <v>0.141253</v>
       </c>
       <c r="F34" t="n">
-        <v>0.135819</v>
+        <v>0.136665</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141544</v>
+        <v>0.141398</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130761</v>
+        <v>0.131974</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169705</v>
+        <v>0.171121</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146028</v>
+        <v>0.145987</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140091</v>
+        <v>0.141317</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146818</v>
+        <v>0.146597</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136774</v>
+        <v>0.138197</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173872</v>
+        <v>0.174633</v>
       </c>
       <c r="E36" t="n">
-        <v>0.153019</v>
+        <v>0.153349</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148757</v>
+        <v>0.148074</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154442</v>
+        <v>0.155649</v>
       </c>
       <c r="C37" t="n">
-        <v>0.146038</v>
+        <v>0.145072</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178323</v>
+        <v>0.178173</v>
       </c>
       <c r="E37" t="n">
-        <v>0.146334</v>
+        <v>0.149728</v>
       </c>
       <c r="F37" t="n">
-        <v>0.150822</v>
+        <v>0.149115</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14539</v>
+        <v>0.143617</v>
       </c>
       <c r="C38" t="n">
-        <v>0.14239</v>
+        <v>0.141425</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183457</v>
+        <v>0.182984</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148505</v>
+        <v>0.145975</v>
       </c>
       <c r="F38" t="n">
-        <v>0.149804</v>
+        <v>0.149553</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145687</v>
+        <v>0.145904</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141516</v>
+        <v>0.141147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187395</v>
+        <v>0.187254</v>
       </c>
       <c r="E39" t="n">
-        <v>0.150264</v>
+        <v>0.149085</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149556</v>
+        <v>0.15127</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144994</v>
+        <v>0.147027</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14035</v>
+        <v>0.140983</v>
       </c>
       <c r="D40" t="n">
-        <v>0.192565</v>
+        <v>0.192001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.14728</v>
+        <v>0.149468</v>
       </c>
       <c r="F40" t="n">
-        <v>0.151084</v>
+        <v>0.152218</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146554</v>
+        <v>0.147495</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142368</v>
+        <v>0.140801</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196685</v>
+        <v>0.19621</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150313</v>
+        <v>0.150972</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150385</v>
+        <v>0.150021</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147259</v>
+        <v>0.14711</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141225</v>
+        <v>0.140505</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20156</v>
+        <v>0.201305</v>
       </c>
       <c r="E42" t="n">
-        <v>0.150253</v>
+        <v>0.152117</v>
       </c>
       <c r="F42" t="n">
-        <v>0.149963</v>
+        <v>0.149454</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14692</v>
+        <v>0.147006</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14241</v>
+        <v>0.142805</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206681</v>
+        <v>0.206764</v>
       </c>
       <c r="E43" t="n">
-        <v>0.147952</v>
+        <v>0.148671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.150768</v>
+        <v>0.151401</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147508</v>
+        <v>0.148553</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141449</v>
+        <v>0.142014</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211567</v>
+        <v>0.212008</v>
       </c>
       <c r="E44" t="n">
-        <v>0.149312</v>
+        <v>0.151205</v>
       </c>
       <c r="F44" t="n">
-        <v>0.152662</v>
+        <v>0.15088</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148076</v>
+        <v>0.148602</v>
       </c>
       <c r="C45" t="n">
-        <v>0.141225</v>
+        <v>0.143545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216798</v>
+        <v>0.216886</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150009</v>
+        <v>0.15217</v>
       </c>
       <c r="F45" t="n">
-        <v>0.151464</v>
+        <v>0.150464</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148967</v>
+        <v>0.1496</v>
       </c>
       <c r="C46" t="n">
-        <v>0.145313</v>
+        <v>0.143853</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22197</v>
+        <v>0.222107</v>
       </c>
       <c r="E46" t="n">
-        <v>0.152536</v>
+        <v>0.15348</v>
       </c>
       <c r="F46" t="n">
-        <v>0.153299</v>
+        <v>0.152087</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150633</v>
+        <v>0.151499</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146647</v>
+        <v>0.144449</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227884</v>
+        <v>0.22788</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1521</v>
+        <v>0.153038</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153343</v>
+        <v>0.154315</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152978</v>
+        <v>0.152716</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148089</v>
+        <v>0.147301</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231798</v>
+        <v>0.231767</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157218</v>
+        <v>0.156848</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155335</v>
+        <v>0.155181</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156967</v>
+        <v>0.156418</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152569</v>
+        <v>0.151999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236525</v>
+        <v>0.236583</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160897</v>
+        <v>0.1614</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159115</v>
+        <v>0.159613</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161641</v>
+        <v>0.160381</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157624</v>
+        <v>0.156032</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.172291</v>
       </c>
       <c r="E50" t="n">
-        <v>0.166194</v>
+        <v>0.166709</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164329</v>
+        <v>0.164362</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168551</v>
+        <v>0.167131</v>
       </c>
       <c r="C51" t="n">
-        <v>0.162368</v>
+        <v>0.162946</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175787</v>
+        <v>0.175751</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162604</v>
+        <v>0.16244</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165509</v>
+        <v>0.165179</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176983</v>
+        <v>0.176383</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17246</v>
+        <v>0.17153</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178989</v>
+        <v>0.1794</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163793</v>
+        <v>0.163564</v>
       </c>
       <c r="F52" t="n">
-        <v>0.16598</v>
+        <v>0.165539</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158945</v>
+        <v>0.158452</v>
       </c>
       <c r="C53" t="n">
-        <v>0.158505</v>
+        <v>0.158106</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183644</v>
+        <v>0.183757</v>
       </c>
       <c r="E53" t="n">
-        <v>0.16299</v>
+        <v>0.163027</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165671</v>
+        <v>0.166719</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159921</v>
+        <v>0.158199</v>
       </c>
       <c r="C54" t="n">
-        <v>0.158851</v>
+        <v>0.159359</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188202</v>
+        <v>0.187995</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163047</v>
+        <v>0.163214</v>
       </c>
       <c r="F54" t="n">
-        <v>0.166987</v>
+        <v>0.166851</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159349</v>
+        <v>0.158694</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159385</v>
+        <v>0.15982</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192959</v>
+        <v>0.192857</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16419</v>
+        <v>0.163418</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166702</v>
+        <v>0.167379</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159738</v>
+        <v>0.159275</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159176</v>
+        <v>0.160157</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197929</v>
+        <v>0.197908</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164168</v>
+        <v>0.164358</v>
       </c>
       <c r="F56" t="n">
-        <v>0.167354</v>
+        <v>0.167394</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160689</v>
+        <v>0.159761</v>
       </c>
       <c r="C57" t="n">
-        <v>0.161121</v>
+        <v>0.160515</v>
       </c>
       <c r="D57" t="n">
-        <v>0.204015</v>
+        <v>0.203025</v>
       </c>
       <c r="E57" t="n">
-        <v>0.165231</v>
+        <v>0.164039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166927</v>
+        <v>0.16708</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161065</v>
+        <v>0.161048</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161126</v>
+        <v>0.161409</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208064</v>
+        <v>0.20854</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164826</v>
+        <v>0.164369</v>
       </c>
       <c r="F58" t="n">
-        <v>0.16837</v>
+        <v>0.167972</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161126</v>
+        <v>0.160792</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162699</v>
+        <v>0.160959</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213197</v>
+        <v>0.213016</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165878</v>
+        <v>0.165423</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168685</v>
+        <v>0.168495</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16189</v>
+        <v>0.162113</v>
       </c>
       <c r="C60" t="n">
-        <v>0.164083</v>
+        <v>0.163588</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218751</v>
+        <v>0.21891</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167209</v>
+        <v>0.167153</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170605</v>
+        <v>0.169508</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165293</v>
+        <v>0.164613</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165224</v>
+        <v>0.165348</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223903</v>
+        <v>0.223688</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168619</v>
+        <v>0.168478</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172059</v>
+        <v>0.171383</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16624</v>
+        <v>0.165645</v>
       </c>
       <c r="C62" t="n">
-        <v>0.167544</v>
+        <v>0.168211</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228825</v>
+        <v>0.228959</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171765</v>
+        <v>0.171485</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174042</v>
+        <v>0.174133</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170134</v>
+        <v>0.168768</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170943</v>
+        <v>0.169462</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232846</v>
+        <v>0.232865</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174334</v>
+        <v>0.174057</v>
       </c>
       <c r="F63" t="n">
-        <v>0.17714</v>
+        <v>0.177586</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173719</v>
+        <v>0.172915</v>
       </c>
       <c r="C64" t="n">
-        <v>0.173023</v>
+        <v>0.172893</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18116</v>
+        <v>0.181196</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177953</v>
+        <v>0.178587</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181129</v>
+        <v>0.182256</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17966</v>
+        <v>0.178688</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181277</v>
+        <v>0.181529</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184171</v>
+        <v>0.184244</v>
       </c>
       <c r="E65" t="n">
-        <v>0.184352</v>
+        <v>0.18524</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188928</v>
+        <v>0.188305</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1866</v>
+        <v>0.185998</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188938</v>
+        <v>0.189269</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18806</v>
+        <v>0.18824</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175965</v>
+        <v>0.175346</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176676</v>
+        <v>0.176896</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178045</v>
+        <v>0.178512</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170617</v>
+        <v>0.171551</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192545</v>
+        <v>0.192974</v>
       </c>
       <c r="E67" t="n">
-        <v>0.17545</v>
+        <v>0.176374</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177436</v>
+        <v>0.177476</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177721</v>
+        <v>0.180597</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171187</v>
+        <v>0.170691</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197676</v>
+        <v>0.198534</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176157</v>
+        <v>0.176183</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177664</v>
+        <v>0.177654</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180368</v>
+        <v>0.178367</v>
       </c>
       <c r="C69" t="n">
-        <v>0.171049</v>
+        <v>0.172003</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204416</v>
+        <v>0.20419</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176526</v>
+        <v>0.177003</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178082</v>
+        <v>0.178006</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182754</v>
+        <v>0.179116</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17161</v>
+        <v>0.172288</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211916</v>
+        <v>0.211798</v>
       </c>
       <c r="E70" t="n">
-        <v>0.178542</v>
+        <v>0.177942</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178443</v>
+        <v>0.179129</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181209</v>
+        <v>0.181198</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17192</v>
+        <v>0.172234</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217943</v>
+        <v>0.218072</v>
       </c>
       <c r="E71" t="n">
-        <v>0.177723</v>
+        <v>0.177757</v>
       </c>
       <c r="F71" t="n">
-        <v>0.178786</v>
+        <v>0.179292</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181542</v>
+        <v>0.182678</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172519</v>
+        <v>0.17243</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224524</v>
+        <v>0.22683</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178272</v>
+        <v>0.17788</v>
       </c>
       <c r="F72" t="n">
-        <v>0.180176</v>
+        <v>0.179704</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181829</v>
+        <v>0.179892</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174176</v>
+        <v>0.173352</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236116</v>
+        <v>0.234658</v>
       </c>
       <c r="E73" t="n">
-        <v>0.178898</v>
+        <v>0.1792</v>
       </c>
       <c r="F73" t="n">
-        <v>0.181173</v>
+        <v>0.180574</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18078</v>
+        <v>0.181969</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175075</v>
+        <v>0.175019</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24148</v>
+        <v>0.244046</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181043</v>
+        <v>0.180471</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182205</v>
+        <v>0.182173</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183566</v>
+        <v>0.184599</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176565</v>
+        <v>0.176601</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252292</v>
+        <v>0.252312</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181722</v>
+        <v>0.182108</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184092</v>
+        <v>0.184129</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185839</v>
+        <v>0.188928</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179244</v>
+        <v>0.178989</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262186</v>
+        <v>0.26258</v>
       </c>
       <c r="E76" t="n">
-        <v>0.183866</v>
+        <v>0.18382</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186279</v>
+        <v>0.18651</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188123</v>
+        <v>0.190849</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182967</v>
+        <v>0.182106</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269465</v>
+        <v>0.272973</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186962</v>
+        <v>0.186261</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18907</v>
+        <v>0.189446</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194221</v>
+        <v>0.194592</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186368</v>
+        <v>0.186591</v>
       </c>
       <c r="D78" t="n">
-        <v>0.226555</v>
+        <v>0.225077</v>
       </c>
       <c r="E78" t="n">
-        <v>0.190058</v>
+        <v>0.190358</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193588</v>
+        <v>0.193838</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198732</v>
+        <v>0.200059</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191693</v>
+        <v>0.191776</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23363</v>
+        <v>0.232838</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195956</v>
+        <v>0.196563</v>
       </c>
       <c r="F79" t="n">
-        <v>0.199861</v>
+        <v>0.19993</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205963</v>
+        <v>0.204374</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200451</v>
+        <v>0.199977</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243097</v>
+        <v>0.242461</v>
       </c>
       <c r="E80" t="n">
-        <v>0.255005</v>
+        <v>0.256254</v>
       </c>
       <c r="F80" t="n">
-        <v>0.187612</v>
+        <v>0.186817</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338354</v>
+        <v>0.340537</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182346</v>
+        <v>0.181207</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259289</v>
+        <v>0.257864</v>
       </c>
       <c r="E81" t="n">
-        <v>0.25373</v>
+        <v>0.256906</v>
       </c>
       <c r="F81" t="n">
-        <v>0.187597</v>
+        <v>0.188704</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342518</v>
+        <v>0.341509</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18031</v>
+        <v>0.181437</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271069</v>
+        <v>0.270309</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256708</v>
+        <v>0.255495</v>
       </c>
       <c r="F82" t="n">
-        <v>0.18869</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344702</v>
+        <v>0.343993</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181611</v>
+        <v>0.182471</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285882</v>
+        <v>0.284976</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254742</v>
+        <v>0.254893</v>
       </c>
       <c r="F83" t="n">
-        <v>0.189326</v>
+        <v>0.190672</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345485</v>
+        <v>0.342732</v>
       </c>
       <c r="C84" t="n">
-        <v>0.182163</v>
+        <v>0.181303</v>
       </c>
       <c r="D84" t="n">
-        <v>0.299916</v>
+        <v>0.29929</v>
       </c>
       <c r="E84" t="n">
-        <v>0.254323</v>
+        <v>0.253758</v>
       </c>
       <c r="F84" t="n">
-        <v>0.19094</v>
+        <v>0.190173</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346855</v>
+        <v>0.345</v>
       </c>
       <c r="C85" t="n">
-        <v>0.183529</v>
+        <v>0.182725</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314394</v>
+        <v>0.314157</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253287</v>
+        <v>0.253979</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192992</v>
+        <v>0.192604</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345989</v>
+        <v>0.34819</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184232</v>
+        <v>0.184741</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330424</v>
+        <v>0.329689</v>
       </c>
       <c r="E86" t="n">
-        <v>0.251972</v>
+        <v>0.256736</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193118</v>
+        <v>0.193198</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.346595</v>
+        <v>0.349557</v>
       </c>
       <c r="C87" t="n">
-        <v>0.184047</v>
+        <v>0.185283</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346296</v>
+        <v>0.345217</v>
       </c>
       <c r="E87" t="n">
-        <v>0.254897</v>
+        <v>0.251774</v>
       </c>
       <c r="F87" t="n">
-        <v>0.195305</v>
+        <v>0.196021</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347303</v>
+        <v>0.346992</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186737</v>
+        <v>0.18635</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362224</v>
+        <v>0.36121</v>
       </c>
       <c r="E88" t="n">
-        <v>0.250572</v>
+        <v>0.252731</v>
       </c>
       <c r="F88" t="n">
-        <v>0.197131</v>
+        <v>0.197545</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350622</v>
+        <v>0.349541</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188755</v>
+        <v>0.18994</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378258</v>
+        <v>0.378034</v>
       </c>
       <c r="E89" t="n">
-        <v>0.251694</v>
+        <v>0.254376</v>
       </c>
       <c r="F89" t="n">
-        <v>0.199105</v>
+        <v>0.198856</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35189</v>
+        <v>0.353208</v>
       </c>
       <c r="C90" t="n">
-        <v>0.193453</v>
+        <v>0.192488</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394593</v>
+        <v>0.393469</v>
       </c>
       <c r="E90" t="n">
-        <v>0.252347</v>
+        <v>0.253967</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202363</v>
+        <v>0.201733</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350747</v>
+        <v>0.35385</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195572</v>
+        <v>0.195934</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41058</v>
+        <v>0.409093</v>
       </c>
       <c r="E91" t="n">
-        <v>0.254726</v>
+        <v>0.254022</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206267</v>
+        <v>0.206388</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355809</v>
+        <v>0.35282</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200018</v>
+        <v>0.201574</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358707</v>
+        <v>0.358929</v>
       </c>
       <c r="E92" t="n">
-        <v>0.253522</v>
+        <v>0.258723</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211549</v>
+        <v>0.211592</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360572</v>
+        <v>0.360733</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207341</v>
+        <v>0.20743</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374072</v>
+        <v>0.372384</v>
       </c>
       <c r="E93" t="n">
-        <v>0.257119</v>
+        <v>0.261081</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219558</v>
+        <v>0.219466</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365138</v>
+        <v>0.365999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216062</v>
+        <v>0.21596</v>
       </c>
       <c r="D94" t="n">
-        <v>0.382681</v>
+        <v>0.382305</v>
       </c>
       <c r="E94" t="n">
-        <v>0.411143</v>
+        <v>0.410971</v>
       </c>
       <c r="F94" t="n">
-        <v>0.273937</v>
+        <v>0.280661</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498798</v>
+        <v>0.497421</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279424</v>
+        <v>0.278234</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398774</v>
+        <v>0.396913</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410612</v>
+        <v>0.410539</v>
       </c>
       <c r="F95" t="n">
-        <v>0.276742</v>
+        <v>0.277734</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499342</v>
+        <v>0.498246</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278627</v>
+        <v>0.27748</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408292</v>
+        <v>0.405948</v>
       </c>
       <c r="E96" t="n">
-        <v>0.411577</v>
+        <v>0.410985</v>
       </c>
       <c r="F96" t="n">
-        <v>0.279268</v>
+        <v>0.277715</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498983</v>
+        <v>0.498949</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28294</v>
+        <v>0.280006</v>
       </c>
       <c r="D97" t="n">
-        <v>0.423401</v>
+        <v>0.422487</v>
       </c>
       <c r="E97" t="n">
-        <v>0.410824</v>
+        <v>0.408784</v>
       </c>
       <c r="F97" t="n">
-        <v>0.277067</v>
+        <v>0.27464</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499272</v>
+        <v>0.499244</v>
       </c>
       <c r="C98" t="n">
-        <v>0.283564</v>
+        <v>0.280686</v>
       </c>
       <c r="D98" t="n">
-        <v>0.437839</v>
+        <v>0.435476</v>
       </c>
       <c r="E98" t="n">
-        <v>0.410035</v>
+        <v>0.408786</v>
       </c>
       <c r="F98" t="n">
-        <v>0.282439</v>
+        <v>0.278057</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.499464</v>
+        <v>0.499798</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281545</v>
+        <v>0.280144</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455661</v>
+        <v>0.455311</v>
       </c>
       <c r="E99" t="n">
-        <v>0.409483</v>
+        <v>0.409501</v>
       </c>
       <c r="F99" t="n">
-        <v>0.281702</v>
+        <v>0.283064</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500187</v>
+        <v>0.498807</v>
       </c>
       <c r="C100" t="n">
-        <v>0.283219</v>
+        <v>0.289179</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468717</v>
+        <v>0.466259</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410109</v>
+        <v>0.409375</v>
       </c>
       <c r="F100" t="n">
-        <v>0.285828</v>
+        <v>0.281008</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501636</v>
+        <v>0.500931</v>
       </c>
       <c r="C101" t="n">
-        <v>0.286465</v>
+        <v>0.283748</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483977</v>
+        <v>0.480077</v>
       </c>
       <c r="E101" t="n">
-        <v>0.410193</v>
+        <v>0.410905</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283764</v>
+        <v>0.283924</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502082</v>
+        <v>0.502064</v>
       </c>
       <c r="C102" t="n">
-        <v>0.288475</v>
+        <v>0.285887</v>
       </c>
       <c r="D102" t="n">
-        <v>0.497638</v>
+        <v>0.498462</v>
       </c>
       <c r="E102" t="n">
-        <v>0.408717</v>
+        <v>0.40975</v>
       </c>
       <c r="F102" t="n">
-        <v>0.28435</v>
+        <v>0.291249</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50481</v>
+        <v>0.503782</v>
       </c>
       <c r="C103" t="n">
-        <v>0.286597</v>
+        <v>0.287222</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514772</v>
+        <v>0.512981</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409911</v>
+        <v>0.409024</v>
       </c>
       <c r="F103" t="n">
-        <v>0.289807</v>
+        <v>0.285893</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.504929</v>
+        <v>0.505001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.289802</v>
+        <v>0.288952</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531726</v>
+        <v>0.52862</v>
       </c>
       <c r="E104" t="n">
-        <v>0.412789</v>
+        <v>0.412191</v>
       </c>
       <c r="F104" t="n">
-        <v>0.289148</v>
+        <v>0.28548</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.50793</v>
+        <v>0.508028</v>
       </c>
       <c r="C105" t="n">
-        <v>0.292744</v>
+        <v>0.295849</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54519</v>
+        <v>0.544183</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412583</v>
+        <v>0.413557</v>
       </c>
       <c r="F105" t="n">
-        <v>0.289566</v>
+        <v>0.286758</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511608</v>
+        <v>0.5114610000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.301163</v>
+        <v>0.296853</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56286</v>
+        <v>0.560067</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415474</v>
+        <v>0.414514</v>
       </c>
       <c r="F106" t="n">
-        <v>0.298328</v>
+        <v>0.295811</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51683</v>
+        <v>0.51549</v>
       </c>
       <c r="C107" t="n">
-        <v>0.306116</v>
+        <v>0.306109</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538025</v>
+        <v>0.537017</v>
       </c>
       <c r="E107" t="n">
-        <v>0.420177</v>
+        <v>0.41937</v>
       </c>
       <c r="F107" t="n">
-        <v>0.305209</v>
+        <v>0.299642</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523548</v>
+        <v>0.523401</v>
       </c>
       <c r="C108" t="n">
-        <v>0.31222</v>
+        <v>0.311194</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5510659999999999</v>
+        <v>0.5505139999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.547196</v>
+        <v>0.546449</v>
       </c>
       <c r="F108" t="n">
-        <v>0.496451</v>
+        <v>0.497107</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5351</v>
+        <v>0.533776</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329439</v>
+        <v>0.328665</v>
       </c>
       <c r="D109" t="n">
-        <v>0.556063</v>
+        <v>0.553667</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546623</v>
+        <v>0.544944</v>
       </c>
       <c r="F109" t="n">
-        <v>0.499167</v>
+        <v>0.497058</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58131</v>
+        <v>0.580931</v>
       </c>
       <c r="C110" t="n">
-        <v>0.492456</v>
+        <v>0.495643</v>
       </c>
       <c r="D110" t="n">
-        <v>0.56753</v>
+        <v>0.567982</v>
       </c>
       <c r="E110" t="n">
-        <v>0.548082</v>
+        <v>0.546969</v>
       </c>
       <c r="F110" t="n">
-        <v>0.500217</v>
+        <v>0.500308</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5827830000000001</v>
+        <v>0.581061</v>
       </c>
       <c r="C111" t="n">
-        <v>0.496948</v>
+        <v>0.493011</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584414</v>
+        <v>0.582159</v>
       </c>
       <c r="E111" t="n">
-        <v>0.546289</v>
+        <v>0.546743</v>
       </c>
       <c r="F111" t="n">
-        <v>0.498623</v>
+        <v>0.500327</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581865</v>
+        <v>0.582148</v>
       </c>
       <c r="C112" t="n">
-        <v>0.495512</v>
+        <v>0.494529</v>
       </c>
       <c r="D112" t="n">
-        <v>0.595035</v>
+        <v>0.5946360000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>0.548196</v>
+        <v>0.546558</v>
       </c>
       <c r="F112" t="n">
-        <v>0.500676</v>
+        <v>0.498886</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582677</v>
+        <v>0.582518</v>
       </c>
       <c r="C113" t="n">
-        <v>0.496013</v>
+        <v>0.494137</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609457</v>
+        <v>0.609066</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548968</v>
+        <v>0.547961</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500877</v>
+        <v>0.503105</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584036</v>
+        <v>0.583391</v>
       </c>
       <c r="C114" t="n">
-        <v>0.497525</v>
+        <v>0.497184</v>
       </c>
       <c r="D114" t="n">
-        <v>0.622203</v>
+        <v>0.620287</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5485139999999999</v>
+        <v>0.54757</v>
       </c>
       <c r="F114" t="n">
-        <v>0.504478</v>
+        <v>0.501068</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584696</v>
+        <v>0.584082</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498619</v>
+        <v>0.498759</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634487</v>
+        <v>0.632669</v>
       </c>
       <c r="E115" t="n">
-        <v>0.550582</v>
+        <v>0.548634</v>
       </c>
       <c r="F115" t="n">
-        <v>0.505424</v>
+        <v>0.505105</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.586062</v>
+        <v>0.585213</v>
       </c>
       <c r="C116" t="n">
-        <v>0.500449</v>
+        <v>0.496848</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650303</v>
+        <v>0.651259</v>
       </c>
       <c r="E116" t="n">
-        <v>0.550826</v>
+        <v>0.551247</v>
       </c>
       <c r="F116" t="n">
-        <v>0.507162</v>
+        <v>0.504825</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587711</v>
+        <v>0.58635</v>
       </c>
       <c r="C117" t="n">
-        <v>0.502649</v>
+        <v>0.500838</v>
       </c>
       <c r="D117" t="n">
-        <v>0.670449</v>
+        <v>0.669228</v>
       </c>
       <c r="E117" t="n">
-        <v>0.551179</v>
+        <v>0.5522049999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.509235</v>
+        <v>0.5064920000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591249</v>
+        <v>0.59</v>
       </c>
       <c r="C118" t="n">
-        <v>0.504107</v>
+        <v>0.507654</v>
       </c>
       <c r="D118" t="n">
-        <v>0.687852</v>
+        <v>0.686703</v>
       </c>
       <c r="E118" t="n">
-        <v>0.555291</v>
+        <v>0.5545679999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.511747</v>
+        <v>0.510242</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593167</v>
+        <v>0.593392</v>
       </c>
       <c r="C119" t="n">
-        <v>0.513112</v>
+        <v>0.508358</v>
       </c>
       <c r="D119" t="n">
-        <v>0.705456</v>
+        <v>0.704572</v>
       </c>
       <c r="E119" t="n">
-        <v>0.559347</v>
+        <v>0.555563</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5145729999999999</v>
+        <v>0.512995</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5983039999999999</v>
+        <v>0.598085</v>
       </c>
       <c r="C120" t="n">
-        <v>0.514335</v>
+        <v>0.513284</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721415</v>
+        <v>0.719896</v>
       </c>
       <c r="E120" t="n">
-        <v>0.563086</v>
+        <v>0.563706</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5150940000000001</v>
+        <v>0.520201</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606332</v>
+        <v>0.6035239999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.520379</v>
+        <v>0.5197310000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640737</v>
+        <v>0.638773</v>
       </c>
       <c r="E121" t="n">
-        <v>0.565582</v>
+        <v>0.566431</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5228120000000001</v>
+        <v>0.524152</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613857</v>
+        <v>0.613783</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5303</v>
+        <v>0.533056</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649933</v>
+        <v>0.648953</v>
       </c>
       <c r="E122" t="n">
-        <v>0.575607</v>
+        <v>0.573941</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5329930000000001</v>
+        <v>0.533295</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624242</v>
+        <v>0.624565</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542262</v>
+        <v>0.540754</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663697</v>
+        <v>0.662172</v>
       </c>
       <c r="E123" t="n">
-        <v>0.705978</v>
+        <v>0.703703</v>
       </c>
       <c r="F123" t="n">
-        <v>0.712286</v>
+        <v>0.713769</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7264659999999999</v>
+        <v>0.7214469999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.704891</v>
+        <v>0.702833</v>
       </c>
       <c r="D124" t="n">
-        <v>0.673899</v>
+        <v>0.671583</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707313</v>
+        <v>0.70427</v>
       </c>
       <c r="F124" t="n">
-        <v>0.714693</v>
+        <v>0.714365</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.726368</v>
+        <v>0.721296</v>
       </c>
       <c r="C125" t="n">
-        <v>0.706077</v>
+        <v>0.702667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687435</v>
+        <v>0.685308</v>
       </c>
       <c r="E125" t="n">
-        <v>0.708888</v>
+        <v>0.703333</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7158369999999999</v>
+        <v>0.713722</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.726649</v>
+        <v>0.722653</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7067099999999999</v>
+        <v>0.704406</v>
       </c>
       <c r="D126" t="n">
-        <v>0.70062</v>
+        <v>0.699165</v>
       </c>
       <c r="E126" t="n">
-        <v>0.70961</v>
+        <v>0.705499</v>
       </c>
       <c r="F126" t="n">
-        <v>0.71757</v>
+        <v>0.714929</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726994</v>
+        <v>0.723451</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70799</v>
+        <v>0.70764</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714332</v>
+        <v>0.71221</v>
       </c>
       <c r="E127" t="n">
-        <v>0.708838</v>
+        <v>0.70651</v>
       </c>
       <c r="F127" t="n">
-        <v>0.717438</v>
+        <v>0.716241</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.72856</v>
+        <v>0.726994</v>
       </c>
       <c r="C128" t="n">
-        <v>0.708823</v>
+        <v>0.706276</v>
       </c>
       <c r="D128" t="n">
-        <v>0.729963</v>
+        <v>0.728529</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710649</v>
+        <v>0.706522</v>
       </c>
       <c r="F128" t="n">
-        <v>0.720574</v>
+        <v>0.719623</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732124</v>
+        <v>0.7238520000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708586</v>
+        <v>0.709689</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744344</v>
+        <v>0.7421219999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.713638</v>
+        <v>0.707688</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7209410000000001</v>
+        <v>0.7236669999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.730078</v>
+        <v>0.7248520000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713337</v>
+        <v>0.711487</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761699</v>
+        <v>0.760374</v>
       </c>
       <c r="E130" t="n">
-        <v>0.715232</v>
+        <v>0.707921</v>
       </c>
       <c r="F130" t="n">
-        <v>0.725799</v>
+        <v>0.7238</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.732575</v>
+        <v>0.728789</v>
       </c>
       <c r="C131" t="n">
-        <v>0.717181</v>
+        <v>0.714206</v>
       </c>
       <c r="D131" t="n">
-        <v>0.775505</v>
+        <v>0.77404</v>
       </c>
       <c r="E131" t="n">
-        <v>0.718016</v>
+        <v>0.713015</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7269060000000001</v>
+        <v>0.724971</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73841</v>
+        <v>0.731348</v>
       </c>
       <c r="C132" t="n">
-        <v>0.718176</v>
+        <v>0.719008</v>
       </c>
       <c r="D132" t="n">
-        <v>0.790405</v>
+        <v>0.788621</v>
       </c>
       <c r="E132" t="n">
-        <v>0.71645</v>
+        <v>0.7162500000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.729684</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.739803</v>
+        <v>0.735715</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7227710000000001</v>
+        <v>0.722001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807145</v>
+        <v>0.80589</v>
       </c>
       <c r="E133" t="n">
-        <v>0.722407</v>
+        <v>0.717631</v>
       </c>
       <c r="F133" t="n">
-        <v>0.734579</v>
+        <v>0.731858</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.744437</v>
+        <v>0.739743</v>
       </c>
       <c r="C134" t="n">
-        <v>0.728204</v>
+        <v>0.726956</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824064</v>
+        <v>0.822423</v>
       </c>
       <c r="E134" t="n">
-        <v>0.725752</v>
+        <v>0.719848</v>
       </c>
       <c r="F134" t="n">
-        <v>0.73914</v>
+        <v>0.739816</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749928</v>
+        <v>0.747217</v>
       </c>
       <c r="C135" t="n">
-        <v>0.737628</v>
+        <v>0.734199</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693605</v>
+        <v>0.691477</v>
       </c>
       <c r="E135" t="n">
-        <v>0.73023</v>
+        <v>0.725702</v>
       </c>
       <c r="F135" t="n">
-        <v>0.748713</v>
+        <v>0.745263</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.760814</v>
+        <v>0.754793</v>
       </c>
       <c r="C136" t="n">
-        <v>0.746177</v>
+        <v>0.744578</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702227</v>
+        <v>0.698909</v>
       </c>
       <c r="E136" t="n">
-        <v>0.736392</v>
+        <v>0.73245</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7587699999999999</v>
+        <v>0.755126</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.77232</v>
+        <v>0.766267</v>
       </c>
       <c r="C137" t="n">
-        <v>0.759752</v>
+        <v>0.758149</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714024</v>
+        <v>0.710375</v>
       </c>
       <c r="E137" t="n">
-        <v>0.843116</v>
+        <v>0.838264</v>
       </c>
       <c r="F137" t="n">
-        <v>0.849222</v>
+        <v>0.842407</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85483</v>
+        <v>0.849375</v>
       </c>
       <c r="C138" t="n">
-        <v>0.845839</v>
+        <v>0.838904</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726641</v>
+        <v>0.722448</v>
       </c>
       <c r="E138" t="n">
-        <v>0.84388</v>
+        <v>0.838943</v>
       </c>
       <c r="F138" t="n">
-        <v>0.850924</v>
+        <v>0.844906</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.855639</v>
+        <v>0.849616</v>
       </c>
       <c r="C139" t="n">
-        <v>0.847633</v>
+        <v>0.839717</v>
       </c>
       <c r="D139" t="n">
-        <v>0.738794</v>
+        <v>0.7339</v>
       </c>
       <c r="E139" t="n">
-        <v>0.843373</v>
+        <v>0.839071</v>
       </c>
       <c r="F139" t="n">
-        <v>0.852064</v>
+        <v>0.845123</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.855152</v>
+        <v>0.849982</v>
       </c>
       <c r="C140" t="n">
-        <v>0.847312</v>
+        <v>0.83928</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752517</v>
+        <v>0.747967</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8446709999999999</v>
+        <v>0.8405280000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>0.853473</v>
+        <v>0.846612</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.856967</v>
+        <v>0.849206</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8489409999999999</v>
+        <v>0.841888</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766466</v>
+        <v>0.762346</v>
       </c>
       <c r="E141" t="n">
-        <v>0.84552</v>
+        <v>0.840741</v>
       </c>
       <c r="F141" t="n">
-        <v>0.856429</v>
+        <v>0.849765</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.856809</v>
+        <v>0.852214</v>
       </c>
       <c r="C142" t="n">
-        <v>0.849953</v>
+        <v>0.842792</v>
       </c>
       <c r="D142" t="n">
-        <v>0.77847</v>
+        <v>0.774045</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8466089999999999</v>
+        <v>0.844453</v>
       </c>
       <c r="F142" t="n">
-        <v>0.856754</v>
+        <v>0.849503</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.858166</v>
+        <v>0.845407</v>
       </c>
       <c r="C143" t="n">
-        <v>0.852676</v>
+        <v>0.846491</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7949889999999999</v>
+        <v>0.789685</v>
       </c>
       <c r="E143" t="n">
-        <v>0.846843</v>
+        <v>0.845099</v>
       </c>
       <c r="F143" t="n">
-        <v>0.858913</v>
+        <v>0.851509</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11088</v>
+        <v>0.110767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108143</v>
+        <v>0.108049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.134994</v>
+        <v>0.135714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119968</v>
+        <v>0.119773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121457</v>
+        <v>0.1213</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11217</v>
+        <v>0.112091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107646</v>
+        <v>0.107665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141999</v>
+        <v>0.140918</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119846</v>
+        <v>0.119774</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121</v>
+        <v>0.121071</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111634</v>
+        <v>0.110503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108085</v>
+        <v>0.108226</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14813</v>
+        <v>0.148132</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120425</v>
+        <v>0.120347</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121404</v>
+        <v>0.121401</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112001</v>
+        <v>0.112249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109174</v>
+        <v>0.109242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156179</v>
+        <v>0.155301</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121203</v>
+        <v>0.120662</v>
       </c>
       <c r="F5" t="n">
-        <v>0.121895</v>
+        <v>0.121779</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113385</v>
+        <v>0.113353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110342</v>
+        <v>0.110012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16106</v>
+        <v>0.160409</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121608</v>
+        <v>0.121739</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122708</v>
+        <v>0.122737</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115705</v>
+        <v>0.114393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112136</v>
+        <v>0.111878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132654</v>
+        <v>0.133567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122796</v>
+        <v>0.122735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123654</v>
+        <v>0.124391</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116843</v>
+        <v>0.116387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114716</v>
+        <v>0.114597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.135445</v>
+        <v>0.136462</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124551</v>
+        <v>0.124724</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125693</v>
+        <v>0.126103</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121785</v>
+        <v>0.121786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117994</v>
+        <v>0.118323</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140138</v>
+        <v>0.140894</v>
       </c>
       <c r="E9" t="n">
-        <v>0.126074</v>
+        <v>0.125808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12334</v>
+        <v>0.123337</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12235</v>
+        <v>0.120847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110799</v>
+        <v>0.112054</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144146</v>
+        <v>0.145198</v>
       </c>
       <c r="E10" t="n">
-        <v>0.127578</v>
+        <v>0.125789</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123443</v>
+        <v>0.12372</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12156</v>
+        <v>0.121079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.112575</v>
+        <v>0.112322</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148181</v>
+        <v>0.149445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12682</v>
+        <v>0.126259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123342</v>
+        <v>0.123989</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122493</v>
+        <v>0.122104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112292</v>
+        <v>0.112699</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153742</v>
+        <v>0.153836</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12761</v>
+        <v>0.126942</v>
       </c>
       <c r="F12" t="n">
-        <v>0.125</v>
+        <v>0.123815</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.121719</v>
+        <v>0.121927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113135</v>
+        <v>0.112846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159322</v>
+        <v>0.159891</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127399</v>
+        <v>0.126947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.124515</v>
+        <v>0.12355</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123205</v>
+        <v>0.122845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114742</v>
+        <v>0.11351</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16504</v>
+        <v>0.165441</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127353</v>
+        <v>0.127256</v>
       </c>
       <c r="F14" t="n">
-        <v>0.124209</v>
+        <v>0.123867</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123873</v>
+        <v>0.123901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112538</v>
+        <v>0.113468</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172122</v>
+        <v>0.171218</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127947</v>
+        <v>0.127479</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124313</v>
+        <v>0.124089</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123059</v>
+        <v>0.122856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113157</v>
+        <v>0.113042</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177768</v>
+        <v>0.178041</v>
       </c>
       <c r="E16" t="n">
-        <v>0.129477</v>
+        <v>0.127861</v>
       </c>
       <c r="F16" t="n">
-        <v>0.124576</v>
+        <v>0.124427</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124948</v>
+        <v>0.123871</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113763</v>
+        <v>0.113673</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182759</v>
+        <v>0.183767</v>
       </c>
       <c r="E17" t="n">
-        <v>0.129194</v>
+        <v>0.127793</v>
       </c>
       <c r="F17" t="n">
-        <v>0.125381</v>
+        <v>0.124806</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125203</v>
+        <v>0.124332</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114113</v>
+        <v>0.113662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18852</v>
+        <v>0.189374</v>
       </c>
       <c r="E18" t="n">
-        <v>0.129121</v>
+        <v>0.128579</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125709</v>
+        <v>0.125063</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126331</v>
+        <v>0.125121</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11558</v>
+        <v>0.116211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.193992</v>
+        <v>0.195002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.129398</v>
+        <v>0.128545</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125573</v>
+        <v>0.126191</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127346</v>
+        <v>0.127444</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116248</v>
+        <v>0.116397</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200025</v>
+        <v>0.200364</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130735</v>
+        <v>0.12949</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126552</v>
+        <v>0.127102</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129435</v>
+        <v>0.129175</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120691</v>
+        <v>0.119952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153176</v>
+        <v>0.152947</v>
       </c>
       <c r="E21" t="n">
-        <v>0.132189</v>
+        <v>0.131447</v>
       </c>
       <c r="F21" t="n">
-        <v>0.128689</v>
+        <v>0.129038</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13276</v>
+        <v>0.133039</v>
       </c>
       <c r="C22" t="n">
-        <v>0.124664</v>
+        <v>0.122229</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157111</v>
+        <v>0.157711</v>
       </c>
       <c r="E22" t="n">
-        <v>0.135382</v>
+        <v>0.134951</v>
       </c>
       <c r="F22" t="n">
-        <v>0.132732</v>
+        <v>0.132439</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140782</v>
+        <v>0.140414</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131644</v>
+        <v>0.13125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161348</v>
+        <v>0.161027</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135857</v>
+        <v>0.13589</v>
       </c>
       <c r="F23" t="n">
-        <v>0.130842</v>
+        <v>0.131806</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133408</v>
+        <v>0.133564</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122498</v>
+        <v>0.120676</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167687</v>
+        <v>0.16746</v>
       </c>
       <c r="E24" t="n">
-        <v>0.135589</v>
+        <v>0.135736</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131949</v>
+        <v>0.131669</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13391</v>
+        <v>0.133319</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121647</v>
+        <v>0.121404</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171749</v>
+        <v>0.172556</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136465</v>
+        <v>0.136161</v>
       </c>
       <c r="F25" t="n">
-        <v>0.131312</v>
+        <v>0.131621</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133575</v>
+        <v>0.13321</v>
       </c>
       <c r="C26" t="n">
-        <v>0.123523</v>
+        <v>0.12328</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177806</v>
+        <v>0.176756</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136526</v>
+        <v>0.136784</v>
       </c>
       <c r="F26" t="n">
-        <v>0.132442</v>
+        <v>0.131413</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13427</v>
+        <v>0.133383</v>
       </c>
       <c r="C27" t="n">
-        <v>0.12332</v>
+        <v>0.121659</v>
       </c>
       <c r="D27" t="n">
-        <v>0.182577</v>
+        <v>0.181837</v>
       </c>
       <c r="E27" t="n">
-        <v>0.136045</v>
+        <v>0.136784</v>
       </c>
       <c r="F27" t="n">
-        <v>0.133009</v>
+        <v>0.13098</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134259</v>
+        <v>0.134105</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12262</v>
+        <v>0.121824</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18756</v>
+        <v>0.186358</v>
       </c>
       <c r="E28" t="n">
-        <v>0.136569</v>
+        <v>0.136916</v>
       </c>
       <c r="F28" t="n">
-        <v>0.132837</v>
+        <v>0.131241</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134357</v>
+        <v>0.134193</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122828</v>
+        <v>0.123771</v>
       </c>
       <c r="D29" t="n">
-        <v>0.191776</v>
+        <v>0.191693</v>
       </c>
       <c r="E29" t="n">
-        <v>0.136733</v>
+        <v>0.137366</v>
       </c>
       <c r="F29" t="n">
-        <v>0.133124</v>
+        <v>0.131873</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135516</v>
+        <v>0.134708</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123944</v>
+        <v>0.124575</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197356</v>
+        <v>0.196952</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137539</v>
+        <v>0.137954</v>
       </c>
       <c r="F30" t="n">
-        <v>0.133745</v>
+        <v>0.132267</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13614</v>
+        <v>0.134997</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125546</v>
+        <v>0.124338</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201819</v>
+        <v>0.201836</v>
       </c>
       <c r="E31" t="n">
-        <v>0.137747</v>
+        <v>0.137738</v>
       </c>
       <c r="F31" t="n">
-        <v>0.133458</v>
+        <v>0.13231</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135737</v>
+        <v>0.135855</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125529</v>
+        <v>0.125342</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207959</v>
+        <v>0.207773</v>
       </c>
       <c r="E32" t="n">
-        <v>0.138763</v>
+        <v>0.138483</v>
       </c>
       <c r="F32" t="n">
-        <v>0.133304</v>
+        <v>0.134151</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137365</v>
+        <v>0.136464</v>
       </c>
       <c r="C33" t="n">
-        <v>0.128727</v>
+        <v>0.12712</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21324</v>
+        <v>0.212707</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139123</v>
+        <v>0.139255</v>
       </c>
       <c r="F33" t="n">
-        <v>0.135358</v>
+        <v>0.134423</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138678</v>
+        <v>0.13871</v>
       </c>
       <c r="C34" t="n">
-        <v>0.129157</v>
+        <v>0.129296</v>
       </c>
       <c r="D34" t="n">
-        <v>0.21787</v>
+        <v>0.217785</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141253</v>
+        <v>0.142246</v>
       </c>
       <c r="F34" t="n">
-        <v>0.136665</v>
+        <v>0.135905</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141398</v>
+        <v>0.141718</v>
       </c>
       <c r="C35" t="n">
-        <v>0.131974</v>
+        <v>0.131523</v>
       </c>
       <c r="D35" t="n">
-        <v>0.171121</v>
+        <v>0.170484</v>
       </c>
       <c r="E35" t="n">
-        <v>0.145987</v>
+        <v>0.146051</v>
       </c>
       <c r="F35" t="n">
-        <v>0.141317</v>
+        <v>0.140222</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146597</v>
+        <v>0.147272</v>
       </c>
       <c r="C36" t="n">
-        <v>0.138197</v>
+        <v>0.139124</v>
       </c>
       <c r="D36" t="n">
-        <v>0.174633</v>
+        <v>0.173605</v>
       </c>
       <c r="E36" t="n">
-        <v>0.153349</v>
+        <v>0.152355</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148074</v>
+        <v>0.14675</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155649</v>
+        <v>0.154575</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145072</v>
+        <v>0.145263</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178173</v>
+        <v>0.177863</v>
       </c>
       <c r="E37" t="n">
-        <v>0.149728</v>
+        <v>0.147167</v>
       </c>
       <c r="F37" t="n">
-        <v>0.149115</v>
+        <v>0.150279</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.143617</v>
+        <v>0.146215</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141425</v>
+        <v>0.14019</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182984</v>
+        <v>0.182987</v>
       </c>
       <c r="E38" t="n">
-        <v>0.145975</v>
+        <v>0.149901</v>
       </c>
       <c r="F38" t="n">
-        <v>0.149553</v>
+        <v>0.147781</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145904</v>
+        <v>0.145306</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141147</v>
+        <v>0.141374</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187254</v>
+        <v>0.187811</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149085</v>
+        <v>0.149274</v>
       </c>
       <c r="F39" t="n">
-        <v>0.15127</v>
+        <v>0.149584</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147027</v>
+        <v>0.145955</v>
       </c>
       <c r="C40" t="n">
-        <v>0.140983</v>
+        <v>0.141877</v>
       </c>
       <c r="D40" t="n">
-        <v>0.192001</v>
+        <v>0.191979</v>
       </c>
       <c r="E40" t="n">
-        <v>0.149468</v>
+        <v>0.150156</v>
       </c>
       <c r="F40" t="n">
-        <v>0.152218</v>
+        <v>0.148734</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147495</v>
+        <v>0.146321</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140801</v>
+        <v>0.13975</v>
       </c>
       <c r="D41" t="n">
-        <v>0.19621</v>
+        <v>0.196301</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150972</v>
+        <v>0.150246</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150021</v>
+        <v>0.151506</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14711</v>
+        <v>0.147246</v>
       </c>
       <c r="C42" t="n">
-        <v>0.140505</v>
+        <v>0.141378</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201305</v>
+        <v>0.201002</v>
       </c>
       <c r="E42" t="n">
-        <v>0.152117</v>
+        <v>0.151461</v>
       </c>
       <c r="F42" t="n">
-        <v>0.149454</v>
+        <v>0.149989</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147006</v>
+        <v>0.14806</v>
       </c>
       <c r="C43" t="n">
-        <v>0.142805</v>
+        <v>0.142953</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206764</v>
+        <v>0.207153</v>
       </c>
       <c r="E43" t="n">
-        <v>0.148671</v>
+        <v>0.151287</v>
       </c>
       <c r="F43" t="n">
-        <v>0.151401</v>
+        <v>0.149719</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148553</v>
+        <v>0.147133</v>
       </c>
       <c r="C44" t="n">
-        <v>0.142014</v>
+        <v>0.143419</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212008</v>
+        <v>0.211798</v>
       </c>
       <c r="E44" t="n">
-        <v>0.151205</v>
+        <v>0.151055</v>
       </c>
       <c r="F44" t="n">
-        <v>0.15088</v>
+        <v>0.1504</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148602</v>
+        <v>0.148521</v>
       </c>
       <c r="C45" t="n">
-        <v>0.143545</v>
+        <v>0.143271</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216886</v>
+        <v>0.216202</v>
       </c>
       <c r="E45" t="n">
-        <v>0.15217</v>
+        <v>0.151731</v>
       </c>
       <c r="F45" t="n">
-        <v>0.150464</v>
+        <v>0.150691</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1496</v>
+        <v>0.149546</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143853</v>
+        <v>0.143602</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222107</v>
+        <v>0.221741</v>
       </c>
       <c r="E46" t="n">
-        <v>0.15348</v>
+        <v>0.152972</v>
       </c>
       <c r="F46" t="n">
-        <v>0.152087</v>
+        <v>0.152218</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151499</v>
+        <v>0.151166</v>
       </c>
       <c r="C47" t="n">
-        <v>0.144449</v>
+        <v>0.146066</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22788</v>
+        <v>0.227476</v>
       </c>
       <c r="E47" t="n">
-        <v>0.153038</v>
+        <v>0.155026</v>
       </c>
       <c r="F47" t="n">
-        <v>0.154315</v>
+        <v>0.15437</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152716</v>
+        <v>0.152091</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147301</v>
+        <v>0.148057</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231767</v>
+        <v>0.232097</v>
       </c>
       <c r="E48" t="n">
-        <v>0.156848</v>
+        <v>0.158332</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155181</v>
+        <v>0.154725</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156418</v>
+        <v>0.156174</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151999</v>
+        <v>0.151073</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236583</v>
+        <v>0.236715</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1614</v>
+        <v>0.160101</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159613</v>
+        <v>0.159419</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160381</v>
+        <v>0.162303</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156032</v>
+        <v>0.158223</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172291</v>
+        <v>0.172491</v>
       </c>
       <c r="E50" t="n">
-        <v>0.166709</v>
+        <v>0.166062</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164362</v>
+        <v>0.164193</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167131</v>
+        <v>0.166851</v>
       </c>
       <c r="C51" t="n">
-        <v>0.162946</v>
+        <v>0.162464</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175751</v>
+        <v>0.175586</v>
       </c>
       <c r="E51" t="n">
-        <v>0.16244</v>
+        <v>0.162953</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165179</v>
+        <v>0.165106</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176383</v>
+        <v>0.177824</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17153</v>
+        <v>0.170895</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1794</v>
+        <v>0.179343</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163564</v>
+        <v>0.163214</v>
       </c>
       <c r="F52" t="n">
-        <v>0.165539</v>
+        <v>0.166132</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158452</v>
+        <v>0.158464</v>
       </c>
       <c r="C53" t="n">
-        <v>0.158106</v>
+        <v>0.15758</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183757</v>
+        <v>0.183646</v>
       </c>
       <c r="E53" t="n">
-        <v>0.163027</v>
+        <v>0.163073</v>
       </c>
       <c r="F53" t="n">
-        <v>0.166719</v>
+        <v>0.165891</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158199</v>
+        <v>0.159278</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159359</v>
+        <v>0.159183</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187995</v>
+        <v>0.187994</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163214</v>
+        <v>0.164362</v>
       </c>
       <c r="F54" t="n">
-        <v>0.166851</v>
+        <v>0.166408</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.158694</v>
+        <v>0.160747</v>
       </c>
       <c r="C55" t="n">
-        <v>0.15982</v>
+        <v>0.158964</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192857</v>
+        <v>0.192685</v>
       </c>
       <c r="E55" t="n">
-        <v>0.163418</v>
+        <v>0.163803</v>
       </c>
       <c r="F55" t="n">
-        <v>0.167379</v>
+        <v>0.166551</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159275</v>
+        <v>0.159662</v>
       </c>
       <c r="C56" t="n">
-        <v>0.160157</v>
+        <v>0.159263</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197908</v>
+        <v>0.197987</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164358</v>
+        <v>0.164066</v>
       </c>
       <c r="F56" t="n">
-        <v>0.167394</v>
+        <v>0.167152</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.159761</v>
+        <v>0.160524</v>
       </c>
       <c r="C57" t="n">
-        <v>0.160515</v>
+        <v>0.159542</v>
       </c>
       <c r="D57" t="n">
-        <v>0.203025</v>
+        <v>0.203136</v>
       </c>
       <c r="E57" t="n">
-        <v>0.164039</v>
+        <v>0.164257</v>
       </c>
       <c r="F57" t="n">
-        <v>0.16708</v>
+        <v>0.167299</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161048</v>
+        <v>0.161062</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161409</v>
+        <v>0.162042</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20854</v>
+        <v>0.208232</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164369</v>
+        <v>0.16521</v>
       </c>
       <c r="F58" t="n">
-        <v>0.167972</v>
+        <v>0.167338</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.160792</v>
+        <v>0.161328</v>
       </c>
       <c r="C59" t="n">
-        <v>0.160959</v>
+        <v>0.161316</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213016</v>
+        <v>0.213345</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165423</v>
+        <v>0.166317</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168495</v>
+        <v>0.168307</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162113</v>
+        <v>0.162088</v>
       </c>
       <c r="C60" t="n">
-        <v>0.163588</v>
+        <v>0.162394</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21891</v>
+        <v>0.21863</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167153</v>
+        <v>0.166544</v>
       </c>
       <c r="F60" t="n">
-        <v>0.169508</v>
+        <v>0.169391</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164613</v>
+        <v>0.163452</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165348</v>
+        <v>0.1646</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223688</v>
+        <v>0.223488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168478</v>
+        <v>0.168659</v>
       </c>
       <c r="F61" t="n">
-        <v>0.171383</v>
+        <v>0.172068</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165645</v>
+        <v>0.166267</v>
       </c>
       <c r="C62" t="n">
-        <v>0.168211</v>
+        <v>0.166295</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228959</v>
+        <v>0.228811</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171485</v>
+        <v>0.170963</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174133</v>
+        <v>0.173943</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168768</v>
+        <v>0.16932</v>
       </c>
       <c r="C63" t="n">
-        <v>0.169462</v>
+        <v>0.171255</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232865</v>
+        <v>0.23287</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174057</v>
+        <v>0.175072</v>
       </c>
       <c r="F63" t="n">
-        <v>0.177586</v>
+        <v>0.179311</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172915</v>
+        <v>0.173475</v>
       </c>
       <c r="C64" t="n">
-        <v>0.172893</v>
+        <v>0.175052</v>
       </c>
       <c r="D64" t="n">
-        <v>0.181196</v>
+        <v>0.181158</v>
       </c>
       <c r="E64" t="n">
-        <v>0.178587</v>
+        <v>0.17913</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182256</v>
+        <v>0.18246</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178688</v>
+        <v>0.179246</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181529</v>
+        <v>0.18039</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184244</v>
+        <v>0.184316</v>
       </c>
       <c r="E65" t="n">
-        <v>0.18524</v>
+        <v>0.184622</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188305</v>
+        <v>0.188608</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185998</v>
+        <v>0.186043</v>
       </c>
       <c r="C66" t="n">
-        <v>0.189269</v>
+        <v>0.188254</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18824</v>
+        <v>0.187853</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175346</v>
+        <v>0.175356</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176896</v>
+        <v>0.176661</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178512</v>
+        <v>0.179334</v>
       </c>
       <c r="C67" t="n">
-        <v>0.171551</v>
+        <v>0.171081</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192974</v>
+        <v>0.191889</v>
       </c>
       <c r="E67" t="n">
-        <v>0.176374</v>
+        <v>0.176241</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177476</v>
+        <v>0.177241</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180597</v>
+        <v>0.178688</v>
       </c>
       <c r="C68" t="n">
-        <v>0.170691</v>
+        <v>0.170819</v>
       </c>
       <c r="D68" t="n">
-        <v>0.198534</v>
+        <v>0.19865</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176183</v>
+        <v>0.176675</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177654</v>
+        <v>0.177474</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.178367</v>
+        <v>0.181634</v>
       </c>
       <c r="C69" t="n">
-        <v>0.172003</v>
+        <v>0.171245</v>
       </c>
       <c r="D69" t="n">
-        <v>0.20419</v>
+        <v>0.20418</v>
       </c>
       <c r="E69" t="n">
-        <v>0.177003</v>
+        <v>0.177159</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178006</v>
+        <v>0.177977</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179116</v>
+        <v>0.179535</v>
       </c>
       <c r="C70" t="n">
-        <v>0.172288</v>
+        <v>0.171748</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211798</v>
+        <v>0.210814</v>
       </c>
       <c r="E70" t="n">
-        <v>0.177942</v>
+        <v>0.176267</v>
       </c>
       <c r="F70" t="n">
-        <v>0.179129</v>
+        <v>0.179074</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181198</v>
+        <v>0.183746</v>
       </c>
       <c r="C71" t="n">
-        <v>0.172234</v>
+        <v>0.173396</v>
       </c>
       <c r="D71" t="n">
-        <v>0.218072</v>
+        <v>0.217278</v>
       </c>
       <c r="E71" t="n">
-        <v>0.177757</v>
+        <v>0.177298</v>
       </c>
       <c r="F71" t="n">
-        <v>0.179292</v>
+        <v>0.179329</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.182678</v>
+        <v>0.185271</v>
       </c>
       <c r="C72" t="n">
-        <v>0.17243</v>
+        <v>0.17271</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22683</v>
+        <v>0.223674</v>
       </c>
       <c r="E72" t="n">
-        <v>0.17788</v>
+        <v>0.177739</v>
       </c>
       <c r="F72" t="n">
-        <v>0.179704</v>
+        <v>0.179876</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.179892</v>
+        <v>0.187279</v>
       </c>
       <c r="C73" t="n">
-        <v>0.173352</v>
+        <v>0.173642</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234658</v>
+        <v>0.232727</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1792</v>
+        <v>0.179069</v>
       </c>
       <c r="F73" t="n">
-        <v>0.180574</v>
+        <v>0.181066</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181969</v>
+        <v>0.18709</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175019</v>
+        <v>0.175032</v>
       </c>
       <c r="D74" t="n">
-        <v>0.244046</v>
+        <v>0.240398</v>
       </c>
       <c r="E74" t="n">
-        <v>0.180471</v>
+        <v>0.17973</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182173</v>
+        <v>0.182437</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184599</v>
+        <v>0.185945</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176601</v>
+        <v>0.177123</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252312</v>
+        <v>0.250303</v>
       </c>
       <c r="E75" t="n">
-        <v>0.182108</v>
+        <v>0.182</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184129</v>
+        <v>0.18449</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.188928</v>
+        <v>0.188616</v>
       </c>
       <c r="C76" t="n">
-        <v>0.178989</v>
+        <v>0.179329</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26258</v>
+        <v>0.263683</v>
       </c>
       <c r="E76" t="n">
-        <v>0.18382</v>
+        <v>0.183038</v>
       </c>
       <c r="F76" t="n">
-        <v>0.18651</v>
+        <v>0.185996</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190849</v>
+        <v>0.19157</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182106</v>
+        <v>0.182996</v>
       </c>
       <c r="D77" t="n">
-        <v>0.272973</v>
+        <v>0.273968</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186261</v>
+        <v>0.186787</v>
       </c>
       <c r="F77" t="n">
-        <v>0.189446</v>
+        <v>0.188943</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194592</v>
+        <v>0.19404</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186591</v>
+        <v>0.185853</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225077</v>
+        <v>0.224425</v>
       </c>
       <c r="E78" t="n">
-        <v>0.190358</v>
+        <v>0.190225</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193838</v>
+        <v>0.193371</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200059</v>
+        <v>0.200008</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191776</v>
+        <v>0.191491</v>
       </c>
       <c r="D79" t="n">
-        <v>0.232838</v>
+        <v>0.233912</v>
       </c>
       <c r="E79" t="n">
-        <v>0.196563</v>
+        <v>0.195863</v>
       </c>
       <c r="F79" t="n">
-        <v>0.19993</v>
+        <v>0.199913</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204374</v>
+        <v>0.207113</v>
       </c>
       <c r="C80" t="n">
-        <v>0.199977</v>
+        <v>0.200157</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242461</v>
+        <v>0.242432</v>
       </c>
       <c r="E80" t="n">
-        <v>0.256254</v>
+        <v>0.254333</v>
       </c>
       <c r="F80" t="n">
-        <v>0.186817</v>
+        <v>0.187156</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.340537</v>
+        <v>0.341602</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181207</v>
+        <v>0.180791</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257864</v>
+        <v>0.257185</v>
       </c>
       <c r="E81" t="n">
-        <v>0.256906</v>
+        <v>0.254086</v>
       </c>
       <c r="F81" t="n">
-        <v>0.188704</v>
+        <v>0.187623</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341509</v>
+        <v>0.342984</v>
       </c>
       <c r="C82" t="n">
-        <v>0.181437</v>
+        <v>0.181666</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270309</v>
+        <v>0.269277</v>
       </c>
       <c r="E82" t="n">
-        <v>0.255495</v>
+        <v>0.257089</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1891</v>
+        <v>0.188005</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.343993</v>
+        <v>0.342078</v>
       </c>
       <c r="C83" t="n">
-        <v>0.182471</v>
+        <v>0.180633</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284976</v>
+        <v>0.283339</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254893</v>
+        <v>0.256835</v>
       </c>
       <c r="F83" t="n">
-        <v>0.190672</v>
+        <v>0.189388</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342732</v>
+        <v>0.346562</v>
       </c>
       <c r="C84" t="n">
-        <v>0.181303</v>
+        <v>0.181813</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29929</v>
+        <v>0.298684</v>
       </c>
       <c r="E84" t="n">
-        <v>0.253758</v>
+        <v>0.257293</v>
       </c>
       <c r="F84" t="n">
-        <v>0.190173</v>
+        <v>0.190126</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.345</v>
+        <v>0.348277</v>
       </c>
       <c r="C85" t="n">
-        <v>0.182725</v>
+        <v>0.182195</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314157</v>
+        <v>0.313293</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253979</v>
+        <v>0.257839</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192604</v>
+        <v>0.191579</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34819</v>
+        <v>0.349946</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184741</v>
+        <v>0.183035</v>
       </c>
       <c r="D86" t="n">
-        <v>0.329689</v>
+        <v>0.329371</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256736</v>
+        <v>0.256599</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193198</v>
+        <v>0.192495</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.349557</v>
+        <v>0.34576</v>
       </c>
       <c r="C87" t="n">
-        <v>0.185283</v>
+        <v>0.184646</v>
       </c>
       <c r="D87" t="n">
-        <v>0.345217</v>
+        <v>0.344946</v>
       </c>
       <c r="E87" t="n">
-        <v>0.251774</v>
+        <v>0.254063</v>
       </c>
       <c r="F87" t="n">
-        <v>0.196021</v>
+        <v>0.19417</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346992</v>
+        <v>0.350356</v>
       </c>
       <c r="C88" t="n">
-        <v>0.18635</v>
+        <v>0.18601</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36121</v>
+        <v>0.361677</v>
       </c>
       <c r="E88" t="n">
-        <v>0.252731</v>
+        <v>0.251489</v>
       </c>
       <c r="F88" t="n">
-        <v>0.197545</v>
+        <v>0.196543</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.349541</v>
+        <v>0.344639</v>
       </c>
       <c r="C89" t="n">
-        <v>0.18994</v>
+        <v>0.189569</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378034</v>
+        <v>0.377685</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254376</v>
+        <v>0.25036</v>
       </c>
       <c r="F89" t="n">
-        <v>0.198856</v>
+        <v>0.199228</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353208</v>
+        <v>0.350494</v>
       </c>
       <c r="C90" t="n">
-        <v>0.192488</v>
+        <v>0.191147</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393469</v>
+        <v>0.394088</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253967</v>
+        <v>0.249968</v>
       </c>
       <c r="F90" t="n">
-        <v>0.201733</v>
+        <v>0.202488</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.35385</v>
+        <v>0.351454</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195934</v>
+        <v>0.195761</v>
       </c>
       <c r="D91" t="n">
-        <v>0.409093</v>
+        <v>0.409427</v>
       </c>
       <c r="E91" t="n">
-        <v>0.254022</v>
+        <v>0.250161</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206388</v>
+        <v>0.206189</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.35282</v>
+        <v>0.354422</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201574</v>
+        <v>0.200699</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358929</v>
+        <v>0.36089</v>
       </c>
       <c r="E92" t="n">
-        <v>0.258723</v>
+        <v>0.250561</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211592</v>
+        <v>0.211781</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360733</v>
+        <v>0.357185</v>
       </c>
       <c r="C93" t="n">
-        <v>0.20743</v>
+        <v>0.207342</v>
       </c>
       <c r="D93" t="n">
-        <v>0.372384</v>
+        <v>0.372184</v>
       </c>
       <c r="E93" t="n">
-        <v>0.261081</v>
+        <v>0.255879</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219466</v>
+        <v>0.219469</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365999</v>
+        <v>0.366381</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21596</v>
+        <v>0.216282</v>
       </c>
       <c r="D94" t="n">
-        <v>0.382305</v>
+        <v>0.383257</v>
       </c>
       <c r="E94" t="n">
-        <v>0.410971</v>
+        <v>0.411158</v>
       </c>
       <c r="F94" t="n">
-        <v>0.280661</v>
+        <v>0.276517</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.497421</v>
+        <v>0.49778</v>
       </c>
       <c r="C95" t="n">
-        <v>0.278234</v>
+        <v>0.284397</v>
       </c>
       <c r="D95" t="n">
-        <v>0.396913</v>
+        <v>0.40122</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410539</v>
+        <v>0.41128</v>
       </c>
       <c r="F95" t="n">
-        <v>0.277734</v>
+        <v>0.280893</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.498246</v>
+        <v>0.498198</v>
       </c>
       <c r="C96" t="n">
-        <v>0.27748</v>
+        <v>0.283125</v>
       </c>
       <c r="D96" t="n">
-        <v>0.405948</v>
+        <v>0.408171</v>
       </c>
       <c r="E96" t="n">
-        <v>0.410985</v>
+        <v>0.410947</v>
       </c>
       <c r="F96" t="n">
-        <v>0.277715</v>
+        <v>0.282672</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498949</v>
+        <v>0.499089</v>
       </c>
       <c r="C97" t="n">
-        <v>0.280006</v>
+        <v>0.282742</v>
       </c>
       <c r="D97" t="n">
-        <v>0.422487</v>
+        <v>0.424185</v>
       </c>
       <c r="E97" t="n">
-        <v>0.408784</v>
+        <v>0.410595</v>
       </c>
       <c r="F97" t="n">
-        <v>0.27464</v>
+        <v>0.279798</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499244</v>
+        <v>0.498439</v>
       </c>
       <c r="C98" t="n">
-        <v>0.280686</v>
+        <v>0.283436</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435476</v>
+        <v>0.437676</v>
       </c>
       <c r="E98" t="n">
-        <v>0.408786</v>
+        <v>0.408664</v>
       </c>
       <c r="F98" t="n">
-        <v>0.278057</v>
+        <v>0.28089</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.499798</v>
+        <v>0.498903</v>
       </c>
       <c r="C99" t="n">
-        <v>0.280144</v>
+        <v>0.284727</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455311</v>
+        <v>0.45488</v>
       </c>
       <c r="E99" t="n">
-        <v>0.409501</v>
+        <v>0.409933</v>
       </c>
       <c r="F99" t="n">
-        <v>0.283064</v>
+        <v>0.283505</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498807</v>
+        <v>0.500012</v>
       </c>
       <c r="C100" t="n">
-        <v>0.289179</v>
+        <v>0.284509</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466259</v>
+        <v>0.466643</v>
       </c>
       <c r="E100" t="n">
-        <v>0.409375</v>
+        <v>0.40956</v>
       </c>
       <c r="F100" t="n">
-        <v>0.281008</v>
+        <v>0.284052</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.500931</v>
+        <v>0.500462</v>
       </c>
       <c r="C101" t="n">
-        <v>0.283748</v>
+        <v>0.284021</v>
       </c>
       <c r="D101" t="n">
-        <v>0.480077</v>
+        <v>0.48134</v>
       </c>
       <c r="E101" t="n">
-        <v>0.410905</v>
+        <v>0.410345</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283924</v>
+        <v>0.28367</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502064</v>
+        <v>0.502061</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285887</v>
+        <v>0.284836</v>
       </c>
       <c r="D102" t="n">
-        <v>0.498462</v>
+        <v>0.49806</v>
       </c>
       <c r="E102" t="n">
-        <v>0.40975</v>
+        <v>0.409588</v>
       </c>
       <c r="F102" t="n">
-        <v>0.291249</v>
+        <v>0.285929</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.503782</v>
+        <v>0.502481</v>
       </c>
       <c r="C103" t="n">
-        <v>0.287222</v>
+        <v>0.288046</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512981</v>
+        <v>0.512346</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409024</v>
+        <v>0.409449</v>
       </c>
       <c r="F103" t="n">
-        <v>0.285893</v>
+        <v>0.286033</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.505001</v>
+        <v>0.504418</v>
       </c>
       <c r="C104" t="n">
-        <v>0.288952</v>
+        <v>0.291642</v>
       </c>
       <c r="D104" t="n">
-        <v>0.52862</v>
+        <v>0.531327</v>
       </c>
       <c r="E104" t="n">
-        <v>0.412191</v>
+        <v>0.410418</v>
       </c>
       <c r="F104" t="n">
-        <v>0.28548</v>
+        <v>0.29175</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508028</v>
+        <v>0.50743</v>
       </c>
       <c r="C105" t="n">
-        <v>0.295849</v>
+        <v>0.29424</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544183</v>
+        <v>0.544853</v>
       </c>
       <c r="E105" t="n">
-        <v>0.413557</v>
+        <v>0.411879</v>
       </c>
       <c r="F105" t="n">
-        <v>0.286758</v>
+        <v>0.294193</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5114610000000001</v>
+        <v>0.511252</v>
       </c>
       <c r="C106" t="n">
-        <v>0.296853</v>
+        <v>0.301937</v>
       </c>
       <c r="D106" t="n">
-        <v>0.560067</v>
+        <v>0.563076</v>
       </c>
       <c r="E106" t="n">
-        <v>0.414514</v>
+        <v>0.41581</v>
       </c>
       <c r="F106" t="n">
-        <v>0.295811</v>
+        <v>0.296623</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51549</v>
+        <v>0.516135</v>
       </c>
       <c r="C107" t="n">
-        <v>0.306109</v>
+        <v>0.301047</v>
       </c>
       <c r="D107" t="n">
-        <v>0.537017</v>
+        <v>0.537033</v>
       </c>
       <c r="E107" t="n">
-        <v>0.41937</v>
+        <v>0.419674</v>
       </c>
       <c r="F107" t="n">
-        <v>0.299642</v>
+        <v>0.301351</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523401</v>
+        <v>0.522589</v>
       </c>
       <c r="C108" t="n">
-        <v>0.311194</v>
+        <v>0.31164</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5505139999999999</v>
+        <v>0.55074</v>
       </c>
       <c r="E108" t="n">
-        <v>0.546449</v>
+        <v>0.544381</v>
       </c>
       <c r="F108" t="n">
-        <v>0.497107</v>
+        <v>0.496696</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.533776</v>
+        <v>0.53342</v>
       </c>
       <c r="C109" t="n">
-        <v>0.328665</v>
+        <v>0.330244</v>
       </c>
       <c r="D109" t="n">
-        <v>0.553667</v>
+        <v>0.554688</v>
       </c>
       <c r="E109" t="n">
-        <v>0.544944</v>
+        <v>0.54538</v>
       </c>
       <c r="F109" t="n">
-        <v>0.497058</v>
+        <v>0.49514</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.580931</v>
+        <v>0.581554</v>
       </c>
       <c r="C110" t="n">
-        <v>0.495643</v>
+        <v>0.493482</v>
       </c>
       <c r="D110" t="n">
-        <v>0.567982</v>
+        <v>0.569186</v>
       </c>
       <c r="E110" t="n">
-        <v>0.546969</v>
+        <v>0.5454290000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.500308</v>
+        <v>0.497551</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.581061</v>
+        <v>0.5807330000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.493011</v>
+        <v>0.492574</v>
       </c>
       <c r="D111" t="n">
-        <v>0.582159</v>
+        <v>0.582708</v>
       </c>
       <c r="E111" t="n">
-        <v>0.546743</v>
+        <v>0.546096</v>
       </c>
       <c r="F111" t="n">
-        <v>0.500327</v>
+        <v>0.498452</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.582148</v>
+        <v>0.580979</v>
       </c>
       <c r="C112" t="n">
-        <v>0.494529</v>
+        <v>0.493958</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5946360000000001</v>
+        <v>0.594921</v>
       </c>
       <c r="E112" t="n">
-        <v>0.546558</v>
+        <v>0.5485449999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>0.498886</v>
+        <v>0.498325</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582518</v>
+        <v>0.582854</v>
       </c>
       <c r="C113" t="n">
-        <v>0.494137</v>
+        <v>0.493318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609066</v>
+        <v>0.608317</v>
       </c>
       <c r="E113" t="n">
-        <v>0.547961</v>
+        <v>0.545948</v>
       </c>
       <c r="F113" t="n">
-        <v>0.503105</v>
+        <v>0.498508</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.583391</v>
+        <v>0.582968</v>
       </c>
       <c r="C114" t="n">
-        <v>0.497184</v>
+        <v>0.495026</v>
       </c>
       <c r="D114" t="n">
-        <v>0.620287</v>
+        <v>0.620545</v>
       </c>
       <c r="E114" t="n">
-        <v>0.54757</v>
+        <v>0.5484599999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.501068</v>
+        <v>0.502142</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584082</v>
+        <v>0.583962</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498759</v>
+        <v>0.497161</v>
       </c>
       <c r="D115" t="n">
-        <v>0.632669</v>
+        <v>0.633754</v>
       </c>
       <c r="E115" t="n">
-        <v>0.548634</v>
+        <v>0.549597</v>
       </c>
       <c r="F115" t="n">
-        <v>0.505105</v>
+        <v>0.503663</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.585213</v>
+        <v>0.584147</v>
       </c>
       <c r="C116" t="n">
-        <v>0.496848</v>
+        <v>0.499789</v>
       </c>
       <c r="D116" t="n">
-        <v>0.651259</v>
+        <v>0.64983</v>
       </c>
       <c r="E116" t="n">
-        <v>0.551247</v>
+        <v>0.551015</v>
       </c>
       <c r="F116" t="n">
-        <v>0.504825</v>
+        <v>0.505597</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.58635</v>
+        <v>0.588946</v>
       </c>
       <c r="C117" t="n">
-        <v>0.500838</v>
+        <v>0.501179</v>
       </c>
       <c r="D117" t="n">
-        <v>0.669228</v>
+        <v>0.6685990000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5522049999999999</v>
+        <v>0.555297</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5064920000000001</v>
+        <v>0.508974</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.59</v>
+        <v>0.591611</v>
       </c>
       <c r="C118" t="n">
-        <v>0.507654</v>
+        <v>0.501455</v>
       </c>
       <c r="D118" t="n">
-        <v>0.686703</v>
+        <v>0.685675</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5545679999999999</v>
+        <v>0.555416</v>
       </c>
       <c r="F118" t="n">
-        <v>0.510242</v>
+        <v>0.509859</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593392</v>
+        <v>0.593121</v>
       </c>
       <c r="C119" t="n">
-        <v>0.508358</v>
+        <v>0.506863</v>
       </c>
       <c r="D119" t="n">
-        <v>0.704572</v>
+        <v>0.704601</v>
       </c>
       <c r="E119" t="n">
-        <v>0.555563</v>
+        <v>0.556758</v>
       </c>
       <c r="F119" t="n">
-        <v>0.512995</v>
+        <v>0.510889</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.598085</v>
+        <v>0.598216</v>
       </c>
       <c r="C120" t="n">
-        <v>0.513284</v>
+        <v>0.5120130000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.719896</v>
+        <v>0.7211070000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.563706</v>
+        <v>0.561051</v>
       </c>
       <c r="F120" t="n">
-        <v>0.520201</v>
+        <v>0.5187850000000001</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6035239999999999</v>
+        <v>0.6058750000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5197310000000001</v>
+        <v>0.520079</v>
       </c>
       <c r="D121" t="n">
-        <v>0.638773</v>
+        <v>0.639941</v>
       </c>
       <c r="E121" t="n">
-        <v>0.566431</v>
+        <v>0.566522</v>
       </c>
       <c r="F121" t="n">
-        <v>0.524152</v>
+        <v>0.52317</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613783</v>
+        <v>0.610735</v>
       </c>
       <c r="C122" t="n">
-        <v>0.533056</v>
+        <v>0.529801</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648953</v>
+        <v>0.648745</v>
       </c>
       <c r="E122" t="n">
-        <v>0.573941</v>
+        <v>0.574392</v>
       </c>
       <c r="F122" t="n">
-        <v>0.533295</v>
+        <v>0.5328270000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624565</v>
+        <v>0.627638</v>
       </c>
       <c r="C123" t="n">
-        <v>0.540754</v>
+        <v>0.542708</v>
       </c>
       <c r="D123" t="n">
-        <v>0.662172</v>
+        <v>0.663303</v>
       </c>
       <c r="E123" t="n">
-        <v>0.703703</v>
+        <v>0.706608</v>
       </c>
       <c r="F123" t="n">
-        <v>0.713769</v>
+        <v>0.7130300000000001</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7214469999999999</v>
+        <v>0.725648</v>
       </c>
       <c r="C124" t="n">
-        <v>0.702833</v>
+        <v>0.704005</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671583</v>
+        <v>0.672825</v>
       </c>
       <c r="E124" t="n">
-        <v>0.70427</v>
+        <v>0.706785</v>
       </c>
       <c r="F124" t="n">
-        <v>0.714365</v>
+        <v>0.715179</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.721296</v>
+        <v>0.723062</v>
       </c>
       <c r="C125" t="n">
-        <v>0.702667</v>
+        <v>0.70619</v>
       </c>
       <c r="D125" t="n">
-        <v>0.685308</v>
+        <v>0.686082</v>
       </c>
       <c r="E125" t="n">
-        <v>0.703333</v>
+        <v>0.706579</v>
       </c>
       <c r="F125" t="n">
-        <v>0.713722</v>
+        <v>0.716979</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.722653</v>
+        <v>0.7248790000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.704406</v>
+        <v>0.706579</v>
       </c>
       <c r="D126" t="n">
-        <v>0.699165</v>
+        <v>0.699407</v>
       </c>
       <c r="E126" t="n">
-        <v>0.705499</v>
+        <v>0.707441</v>
       </c>
       <c r="F126" t="n">
-        <v>0.714929</v>
+        <v>0.716491</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.723451</v>
+        <v>0.724101</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70764</v>
+        <v>0.708162</v>
       </c>
       <c r="D127" t="n">
-        <v>0.71221</v>
+        <v>0.712942</v>
       </c>
       <c r="E127" t="n">
-        <v>0.70651</v>
+        <v>0.708912</v>
       </c>
       <c r="F127" t="n">
-        <v>0.716241</v>
+        <v>0.721294</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.726994</v>
+        <v>0.726615</v>
       </c>
       <c r="C128" t="n">
-        <v>0.706276</v>
+        <v>0.706233</v>
       </c>
       <c r="D128" t="n">
-        <v>0.728529</v>
+        <v>0.72898</v>
       </c>
       <c r="E128" t="n">
-        <v>0.706522</v>
+        <v>0.708075</v>
       </c>
       <c r="F128" t="n">
-        <v>0.719623</v>
+        <v>0.720537</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7238520000000001</v>
+        <v>0.72656</v>
       </c>
       <c r="C129" t="n">
-        <v>0.709689</v>
+        <v>0.709248</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7421219999999999</v>
+        <v>0.743367</v>
       </c>
       <c r="E129" t="n">
-        <v>0.707688</v>
+        <v>0.710196</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7236669999999999</v>
+        <v>0.722155</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7248520000000001</v>
+        <v>0.729908</v>
       </c>
       <c r="C130" t="n">
-        <v>0.711487</v>
+        <v>0.7125</v>
       </c>
       <c r="D130" t="n">
-        <v>0.760374</v>
+        <v>0.761001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.707921</v>
+        <v>0.710734</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7238</v>
+        <v>0.722813</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.728789</v>
+        <v>0.7321569999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.714206</v>
+        <v>0.714049</v>
       </c>
       <c r="D131" t="n">
-        <v>0.77404</v>
+        <v>0.775143</v>
       </c>
       <c r="E131" t="n">
-        <v>0.713015</v>
+        <v>0.712854</v>
       </c>
       <c r="F131" t="n">
-        <v>0.724971</v>
+        <v>0.726279</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.731348</v>
+        <v>0.735205</v>
       </c>
       <c r="C132" t="n">
-        <v>0.719008</v>
+        <v>0.7193310000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.788621</v>
+        <v>0.789589</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7162500000000001</v>
+        <v>0.713252</v>
       </c>
       <c r="F132" t="n">
-        <v>0.729684</v>
+        <v>0.727325</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.735715</v>
+        <v>0.740246</v>
       </c>
       <c r="C133" t="n">
-        <v>0.722001</v>
+        <v>0.721958</v>
       </c>
       <c r="D133" t="n">
-        <v>0.80589</v>
+        <v>0.8064519999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.717631</v>
+        <v>0.720804</v>
       </c>
       <c r="F133" t="n">
-        <v>0.731858</v>
+        <v>0.73253</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.739743</v>
+        <v>0.743512</v>
       </c>
       <c r="C134" t="n">
-        <v>0.726956</v>
+        <v>0.728923</v>
       </c>
       <c r="D134" t="n">
-        <v>0.822423</v>
+        <v>0.823655</v>
       </c>
       <c r="E134" t="n">
-        <v>0.719848</v>
+        <v>0.721967</v>
       </c>
       <c r="F134" t="n">
-        <v>0.739816</v>
+        <v>0.7392609999999999</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.747217</v>
+        <v>0.750179</v>
       </c>
       <c r="C135" t="n">
-        <v>0.734199</v>
+        <v>0.736286</v>
       </c>
       <c r="D135" t="n">
-        <v>0.691477</v>
+        <v>0.692111</v>
       </c>
       <c r="E135" t="n">
-        <v>0.725702</v>
+        <v>0.726687</v>
       </c>
       <c r="F135" t="n">
-        <v>0.745263</v>
+        <v>0.746927</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.754793</v>
+        <v>0.758951</v>
       </c>
       <c r="C136" t="n">
-        <v>0.744578</v>
+        <v>0.746078</v>
       </c>
       <c r="D136" t="n">
-        <v>0.698909</v>
+        <v>0.7003200000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.73245</v>
+        <v>0.73528</v>
       </c>
       <c r="F136" t="n">
-        <v>0.755126</v>
+        <v>0.757257</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.766267</v>
+        <v>0.76902</v>
       </c>
       <c r="C137" t="n">
-        <v>0.758149</v>
+        <v>0.760744</v>
       </c>
       <c r="D137" t="n">
-        <v>0.710375</v>
+        <v>0.711828</v>
       </c>
       <c r="E137" t="n">
-        <v>0.838264</v>
+        <v>0.838762</v>
       </c>
       <c r="F137" t="n">
-        <v>0.842407</v>
+        <v>0.846417</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.849375</v>
+        <v>0.850504</v>
       </c>
       <c r="C138" t="n">
-        <v>0.838904</v>
+        <v>0.841812</v>
       </c>
       <c r="D138" t="n">
-        <v>0.722448</v>
+        <v>0.724884</v>
       </c>
       <c r="E138" t="n">
-        <v>0.838943</v>
+        <v>0.838574</v>
       </c>
       <c r="F138" t="n">
-        <v>0.844906</v>
+        <v>0.846248</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.849616</v>
+        <v>0.850878</v>
       </c>
       <c r="C139" t="n">
-        <v>0.839717</v>
+        <v>0.8418870000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7339</v>
+        <v>0.737108</v>
       </c>
       <c r="E139" t="n">
-        <v>0.839071</v>
+        <v>0.840171</v>
       </c>
       <c r="F139" t="n">
-        <v>0.845123</v>
+        <v>0.848236</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.849982</v>
+        <v>0.8506089999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.83928</v>
+        <v>0.844395</v>
       </c>
       <c r="D140" t="n">
-        <v>0.747967</v>
+        <v>0.750108</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8405280000000001</v>
+        <v>0.83973</v>
       </c>
       <c r="F140" t="n">
-        <v>0.846612</v>
+        <v>0.849343</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.849206</v>
+        <v>0.85137</v>
       </c>
       <c r="C141" t="n">
-        <v>0.841888</v>
+        <v>0.845836</v>
       </c>
       <c r="D141" t="n">
-        <v>0.762346</v>
+        <v>0.764308</v>
       </c>
       <c r="E141" t="n">
-        <v>0.840741</v>
+        <v>0.841188</v>
       </c>
       <c r="F141" t="n">
-        <v>0.849765</v>
+        <v>0.85179</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.852214</v>
+        <v>0.853386</v>
       </c>
       <c r="C142" t="n">
-        <v>0.842792</v>
+        <v>0.847405</v>
       </c>
       <c r="D142" t="n">
-        <v>0.774045</v>
+        <v>0.775361</v>
       </c>
       <c r="E142" t="n">
-        <v>0.844453</v>
+        <v>0.840255</v>
       </c>
       <c r="F142" t="n">
-        <v>0.849503</v>
+        <v>0.852153</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.845407</v>
+        <v>0.852171</v>
       </c>
       <c r="C143" t="n">
-        <v>0.846491</v>
+        <v>0.848135</v>
       </c>
       <c r="D143" t="n">
-        <v>0.789685</v>
+        <v>0.791756</v>
       </c>
       <c r="E143" t="n">
-        <v>0.845099</v>
+        <v>0.840799</v>
       </c>
       <c r="F143" t="n">
-        <v>0.851509</v>
+        <v>0.854913</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110755</v>
+        <v>0.111559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10827</v>
+        <v>0.108545</v>
       </c>
       <c r="D2" t="n">
-        <v>0.135686</v>
+        <v>0.133969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119803</v>
+        <v>0.120531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121403</v>
+        <v>0.121434</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110303</v>
+        <v>0.112258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107677</v>
+        <v>0.109023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141381</v>
+        <v>0.140012</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119773</v>
+        <v>0.120384</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121607</v>
+        <v>0.121238</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110404</v>
+        <v>0.112489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108151</v>
+        <v>0.108666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147326</v>
+        <v>0.145985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120205</v>
+        <v>0.120896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.122458</v>
+        <v>0.121543</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111453</v>
+        <v>0.112249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10954</v>
+        <v>0.109488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155411</v>
+        <v>0.154954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120887</v>
+        <v>0.121276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122185</v>
+        <v>0.122086</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113014</v>
+        <v>0.113616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110241</v>
+        <v>0.110246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160052</v>
+        <v>0.159523</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121551</v>
+        <v>0.122115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.123035</v>
+        <v>0.123034</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114223</v>
+        <v>0.116356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111769</v>
+        <v>0.111893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132942</v>
+        <v>0.13299</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122455</v>
+        <v>0.123344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124051</v>
+        <v>0.124383</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116273</v>
+        <v>0.117994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114509</v>
+        <v>0.114793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.135527</v>
+        <v>0.135701</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124991</v>
+        <v>0.125459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125942</v>
+        <v>0.126211</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122183</v>
+        <v>0.122126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119864</v>
+        <v>0.118464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140257</v>
+        <v>0.139946</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125837</v>
+        <v>0.124646</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123252</v>
+        <v>0.123571</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121012</v>
+        <v>0.121818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110752</v>
+        <v>0.113963</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144434</v>
+        <v>0.144875</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125967</v>
+        <v>0.125275</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123407</v>
+        <v>0.124045</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121836</v>
+        <v>0.12095</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110907</v>
+        <v>0.112333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148437</v>
+        <v>0.148844</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126474</v>
+        <v>0.125872</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123545</v>
+        <v>0.124161</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122192</v>
+        <v>0.121093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111693</v>
+        <v>0.112531</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153441</v>
+        <v>0.154052</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12645</v>
+        <v>0.126457</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123639</v>
+        <v>0.124715</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122846</v>
+        <v>0.121899</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113079</v>
+        <v>0.114471</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159149</v>
+        <v>0.159595</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127118</v>
+        <v>0.127508</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123688</v>
+        <v>0.124495</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123618</v>
+        <v>0.123085</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113805</v>
+        <v>0.112476</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165195</v>
+        <v>0.165053</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127639</v>
+        <v>0.127307</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12377</v>
+        <v>0.124295</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122767</v>
+        <v>0.12331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113416</v>
+        <v>0.114108</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171723</v>
+        <v>0.172864</v>
       </c>
       <c r="E15" t="n">
-        <v>0.128048</v>
+        <v>0.127458</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124176</v>
+        <v>0.124493</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123564</v>
+        <v>0.123618</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11317</v>
+        <v>0.114518</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177362</v>
+        <v>0.178131</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12787</v>
+        <v>0.127726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.12443</v>
+        <v>0.125095</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124694</v>
+        <v>0.123769</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113036</v>
+        <v>0.115418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183146</v>
+        <v>0.183522</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128041</v>
+        <v>0.127985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124923</v>
+        <v>0.124989</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125158</v>
+        <v>0.124156</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113666</v>
+        <v>0.115391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18856</v>
+        <v>0.188837</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128818</v>
+        <v>0.129375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125362</v>
+        <v>0.125179</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125665</v>
+        <v>0.125793</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11458</v>
+        <v>0.115458</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1941</v>
+        <v>0.194535</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128847</v>
+        <v>0.12916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125806</v>
+        <v>0.125685</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126731</v>
+        <v>0.127162</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116237</v>
+        <v>0.117935</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20001</v>
+        <v>0.200323</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130329</v>
+        <v>0.130208</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126534</v>
+        <v>0.126778</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128868</v>
+        <v>0.128061</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11888</v>
+        <v>0.118676</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153717</v>
+        <v>0.153354</v>
       </c>
       <c r="E21" t="n">
-        <v>0.131934</v>
+        <v>0.132061</v>
       </c>
       <c r="F21" t="n">
-        <v>0.127855</v>
+        <v>0.12844</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132676</v>
+        <v>0.132284</v>
       </c>
       <c r="C22" t="n">
-        <v>0.121973</v>
+        <v>0.124828</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157524</v>
+        <v>0.157681</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136138</v>
+        <v>0.135838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131853</v>
+        <v>0.132027</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140787</v>
+        <v>0.140015</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131292</v>
+        <v>0.131078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162788</v>
+        <v>0.162756</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135625</v>
+        <v>0.13574</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131881</v>
+        <v>0.130636</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1337</v>
+        <v>0.133711</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122135</v>
+        <v>0.122525</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167625</v>
+        <v>0.16762</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136283</v>
+        <v>0.135781</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131885</v>
+        <v>0.133055</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134208</v>
+        <v>0.13422</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122957</v>
+        <v>0.12489</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171834</v>
+        <v>0.172735</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136371</v>
+        <v>0.136078</v>
       </c>
       <c r="F25" t="n">
-        <v>0.132177</v>
+        <v>0.131208</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133577</v>
+        <v>0.133923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122857</v>
+        <v>0.121683</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177008</v>
+        <v>0.178214</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136436</v>
+        <v>0.136165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.131705</v>
+        <v>0.132467</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133929</v>
+        <v>0.134147</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122013</v>
+        <v>0.123461</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181778</v>
+        <v>0.182448</v>
       </c>
       <c r="E27" t="n">
-        <v>0.136685</v>
+        <v>0.137311</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131595</v>
+        <v>0.132059</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134262</v>
+        <v>0.135077</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12368</v>
+        <v>0.123406</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186568</v>
+        <v>0.187675</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137245</v>
+        <v>0.138372</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131578</v>
+        <v>0.132536</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134735</v>
+        <v>0.134762</v>
       </c>
       <c r="C29" t="n">
-        <v>0.124289</v>
+        <v>0.123227</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192348</v>
+        <v>0.191576</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137671</v>
+        <v>0.138045</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132818</v>
+        <v>0.133512</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135106</v>
+        <v>0.135151</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124365</v>
+        <v>0.123673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196557</v>
+        <v>0.197194</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137188</v>
+        <v>0.13747</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132166</v>
+        <v>0.133583</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134864</v>
+        <v>0.135062</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123708</v>
+        <v>0.125458</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201715</v>
+        <v>0.203093</v>
       </c>
       <c r="E31" t="n">
-        <v>0.138148</v>
+        <v>0.137685</v>
       </c>
       <c r="F31" t="n">
-        <v>0.132505</v>
+        <v>0.133555</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135622</v>
+        <v>0.136252</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125448</v>
+        <v>0.126556</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207784</v>
+        <v>0.208858</v>
       </c>
       <c r="E32" t="n">
-        <v>0.139682</v>
+        <v>0.139328</v>
       </c>
       <c r="F32" t="n">
-        <v>0.13392</v>
+        <v>0.133493</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136503</v>
+        <v>0.136682</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126609</v>
+        <v>0.12685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21287</v>
+        <v>0.212829</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139433</v>
+        <v>0.140425</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134902</v>
+        <v>0.135102</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138478</v>
+        <v>0.138128</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127751</v>
+        <v>0.128799</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217725</v>
+        <v>0.218999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141867</v>
+        <v>0.142446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.135819</v>
+        <v>0.136261</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141544</v>
+        <v>0.142863</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130761</v>
+        <v>0.131631</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169705</v>
+        <v>0.170162</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146028</v>
+        <v>0.146084</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140091</v>
+        <v>0.14078</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146818</v>
+        <v>0.146552</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136774</v>
+        <v>0.13846</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173872</v>
+        <v>0.17392</v>
       </c>
       <c r="E36" t="n">
-        <v>0.153019</v>
+        <v>0.152713</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148757</v>
+        <v>0.147854</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154442</v>
+        <v>0.155023</v>
       </c>
       <c r="C37" t="n">
-        <v>0.146038</v>
+        <v>0.14612</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178323</v>
+        <v>0.177836</v>
       </c>
       <c r="E37" t="n">
-        <v>0.146334</v>
+        <v>0.15018</v>
       </c>
       <c r="F37" t="n">
-        <v>0.150822</v>
+        <v>0.150124</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14539</v>
+        <v>0.145016</v>
       </c>
       <c r="C38" t="n">
-        <v>0.14239</v>
+        <v>0.139448</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183457</v>
+        <v>0.18329</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148505</v>
+        <v>0.151199</v>
       </c>
       <c r="F38" t="n">
-        <v>0.149804</v>
+        <v>0.148599</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145687</v>
+        <v>0.146437</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141516</v>
+        <v>0.140302</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187395</v>
+        <v>0.187451</v>
       </c>
       <c r="E39" t="n">
-        <v>0.150264</v>
+        <v>0.145887</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149556</v>
+        <v>0.149202</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144994</v>
+        <v>0.148632</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14035</v>
+        <v>0.142221</v>
       </c>
       <c r="D40" t="n">
-        <v>0.192565</v>
+        <v>0.192547</v>
       </c>
       <c r="E40" t="n">
-        <v>0.14728</v>
+        <v>0.151008</v>
       </c>
       <c r="F40" t="n">
-        <v>0.151084</v>
+        <v>0.149948</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146554</v>
+        <v>0.14636</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142368</v>
+        <v>0.141749</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196685</v>
+        <v>0.196663</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150313</v>
+        <v>0.150181</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150385</v>
+        <v>0.149519</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147259</v>
+        <v>0.146399</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141225</v>
+        <v>0.142361</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20156</v>
+        <v>0.201341</v>
       </c>
       <c r="E42" t="n">
-        <v>0.150253</v>
+        <v>0.147965</v>
       </c>
       <c r="F42" t="n">
-        <v>0.149963</v>
+        <v>0.151491</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14692</v>
+        <v>0.146862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14241</v>
+        <v>0.140471</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206681</v>
+        <v>0.206733</v>
       </c>
       <c r="E43" t="n">
-        <v>0.147952</v>
+        <v>0.151002</v>
       </c>
       <c r="F43" t="n">
-        <v>0.150768</v>
+        <v>0.150423</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147508</v>
+        <v>0.146643</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141449</v>
+        <v>0.143336</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211567</v>
+        <v>0.211473</v>
       </c>
       <c r="E44" t="n">
-        <v>0.149312</v>
+        <v>0.151827</v>
       </c>
       <c r="F44" t="n">
-        <v>0.152662</v>
+        <v>0.151786</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148076</v>
+        <v>0.148408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.141225</v>
+        <v>0.14213</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216798</v>
+        <v>0.216847</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150009</v>
+        <v>0.151713</v>
       </c>
       <c r="F45" t="n">
-        <v>0.151464</v>
+        <v>0.151241</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148967</v>
+        <v>0.148482</v>
       </c>
       <c r="C46" t="n">
-        <v>0.145313</v>
+        <v>0.142505</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22197</v>
+        <v>0.222053</v>
       </c>
       <c r="E46" t="n">
-        <v>0.152536</v>
+        <v>0.152565</v>
       </c>
       <c r="F46" t="n">
-        <v>0.153299</v>
+        <v>0.153216</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150633</v>
+        <v>0.149401</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146647</v>
+        <v>0.144574</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227884</v>
+        <v>0.227722</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1521</v>
+        <v>0.151201</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153343</v>
+        <v>0.153888</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152978</v>
+        <v>0.152106</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148089</v>
+        <v>0.147102</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231798</v>
+        <v>0.232398</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157218</v>
+        <v>0.156548</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155335</v>
+        <v>0.156478</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156967</v>
+        <v>0.156398</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152569</v>
+        <v>0.150424</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236525</v>
+        <v>0.236911</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160897</v>
+        <v>0.160299</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159115</v>
+        <v>0.160149</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161641</v>
+        <v>0.161006</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157624</v>
+        <v>0.15784</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.172671</v>
       </c>
       <c r="E50" t="n">
-        <v>0.166194</v>
+        <v>0.166026</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164329</v>
+        <v>0.165496</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168551</v>
+        <v>0.168948</v>
       </c>
       <c r="C51" t="n">
-        <v>0.162368</v>
+        <v>0.162414</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175787</v>
+        <v>0.175764</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162604</v>
+        <v>0.162939</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165509</v>
+        <v>0.165918</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176983</v>
+        <v>0.175952</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17246</v>
+        <v>0.172593</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178989</v>
+        <v>0.179064</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163793</v>
+        <v>0.162776</v>
       </c>
       <c r="F52" t="n">
-        <v>0.16598</v>
+        <v>0.165398</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158945</v>
+        <v>0.160121</v>
       </c>
       <c r="C53" t="n">
-        <v>0.158505</v>
+        <v>0.159126</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183644</v>
+        <v>0.18387</v>
       </c>
       <c r="E53" t="n">
-        <v>0.16299</v>
+        <v>0.164024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165671</v>
+        <v>0.165901</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159921</v>
+        <v>0.16017</v>
       </c>
       <c r="C54" t="n">
-        <v>0.158851</v>
+        <v>0.160462</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188202</v>
+        <v>0.187839</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163047</v>
+        <v>0.163389</v>
       </c>
       <c r="F54" t="n">
-        <v>0.166987</v>
+        <v>0.166666</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159349</v>
+        <v>0.160778</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159385</v>
+        <v>0.159911</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192959</v>
+        <v>0.192884</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16419</v>
+        <v>0.164408</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166702</v>
+        <v>0.166713</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159738</v>
+        <v>0.160122</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159176</v>
+        <v>0.160235</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197929</v>
+        <v>0.197978</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164168</v>
+        <v>0.164526</v>
       </c>
       <c r="F56" t="n">
-        <v>0.167354</v>
+        <v>0.167063</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160689</v>
+        <v>0.160258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.161121</v>
+        <v>0.161176</v>
       </c>
       <c r="D57" t="n">
-        <v>0.204015</v>
+        <v>0.202853</v>
       </c>
       <c r="E57" t="n">
-        <v>0.165231</v>
+        <v>0.165381</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166927</v>
+        <v>0.166674</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161065</v>
+        <v>0.16108</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161126</v>
+        <v>0.160984</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208064</v>
+        <v>0.208545</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164826</v>
+        <v>0.165567</v>
       </c>
       <c r="F58" t="n">
-        <v>0.16837</v>
+        <v>0.168099</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161126</v>
+        <v>0.161857</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162699</v>
+        <v>0.163009</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213197</v>
+        <v>0.213195</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165878</v>
+        <v>0.166682</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168685</v>
+        <v>0.168737</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16189</v>
+        <v>0.162445</v>
       </c>
       <c r="C60" t="n">
-        <v>0.164083</v>
+        <v>0.162945</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218751</v>
+        <v>0.218507</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167209</v>
+        <v>0.167304</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170605</v>
+        <v>0.169375</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165293</v>
+        <v>0.164501</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165224</v>
+        <v>0.164802</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223903</v>
+        <v>0.223895</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168619</v>
+        <v>0.169174</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172059</v>
+        <v>0.171667</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16624</v>
+        <v>0.168645</v>
       </c>
       <c r="C62" t="n">
-        <v>0.167544</v>
+        <v>0.168643</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228825</v>
+        <v>0.228662</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171765</v>
+        <v>0.171906</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174042</v>
+        <v>0.174859</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170134</v>
+        <v>0.169375</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170943</v>
+        <v>0.170743</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232846</v>
+        <v>0.232991</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174334</v>
+        <v>0.173997</v>
       </c>
       <c r="F63" t="n">
-        <v>0.17714</v>
+        <v>0.177809</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173719</v>
+        <v>0.174639</v>
       </c>
       <c r="C64" t="n">
-        <v>0.173023</v>
+        <v>0.17475</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18116</v>
+        <v>0.181327</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177953</v>
+        <v>0.179373</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181129</v>
+        <v>0.181977</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17966</v>
+        <v>0.180493</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181277</v>
+        <v>0.181058</v>
       </c>
       <c r="D65" t="n">
         <v>0.184171</v>
       </c>
       <c r="E65" t="n">
-        <v>0.184352</v>
+        <v>0.184622</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188928</v>
+        <v>0.18876</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1866</v>
+        <v>0.186746</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188938</v>
+        <v>0.188054</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18806</v>
+        <v>0.188037</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175965</v>
+        <v>0.176965</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176676</v>
+        <v>0.17688</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178045</v>
+        <v>0.178755</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170617</v>
+        <v>0.171364</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192545</v>
+        <v>0.192483</v>
       </c>
       <c r="E67" t="n">
-        <v>0.17545</v>
+        <v>0.17659</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177436</v>
+        <v>0.17697</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177721</v>
+        <v>0.181715</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171187</v>
+        <v>0.170314</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197676</v>
+        <v>0.198387</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176157</v>
+        <v>0.176063</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177664</v>
+        <v>0.177746</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180368</v>
+        <v>0.184265</v>
       </c>
       <c r="C69" t="n">
-        <v>0.171049</v>
+        <v>0.170979</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204416</v>
+        <v>0.204707</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176526</v>
+        <v>0.17743</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178082</v>
+        <v>0.177817</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182754</v>
+        <v>0.179863</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17161</v>
+        <v>0.170967</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211916</v>
+        <v>0.210641</v>
       </c>
       <c r="E70" t="n">
-        <v>0.178542</v>
+        <v>0.177286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178443</v>
+        <v>0.178571</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181209</v>
+        <v>0.179531</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17192</v>
+        <v>0.171987</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217943</v>
+        <v>0.217919</v>
       </c>
       <c r="E71" t="n">
-        <v>0.177723</v>
+        <v>0.178171</v>
       </c>
       <c r="F71" t="n">
-        <v>0.178786</v>
+        <v>0.179302</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181542</v>
+        <v>0.180916</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172519</v>
+        <v>0.172748</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224524</v>
+        <v>0.225317</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178272</v>
+        <v>0.177852</v>
       </c>
       <c r="F72" t="n">
-        <v>0.180176</v>
+        <v>0.179406</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181829</v>
+        <v>0.181927</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174176</v>
+        <v>0.173989</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236116</v>
+        <v>0.235978</v>
       </c>
       <c r="E73" t="n">
-        <v>0.178898</v>
+        <v>0.178614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.181173</v>
+        <v>0.181142</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18078</v>
+        <v>0.184612</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175075</v>
+        <v>0.174859</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24148</v>
+        <v>0.243487</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181043</v>
+        <v>0.180138</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182205</v>
+        <v>0.182065</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183566</v>
+        <v>0.183838</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176565</v>
+        <v>0.176415</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252292</v>
+        <v>0.251881</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181722</v>
+        <v>0.181614</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184092</v>
+        <v>0.18401</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185839</v>
+        <v>0.18575</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179244</v>
+        <v>0.178799</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262186</v>
+        <v>0.260953</v>
       </c>
       <c r="E76" t="n">
-        <v>0.183866</v>
+        <v>0.183793</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186279</v>
+        <v>0.186123</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188123</v>
+        <v>0.188345</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182967</v>
+        <v>0.181863</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269465</v>
+        <v>0.2715</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186962</v>
+        <v>0.186229</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18907</v>
+        <v>0.188911</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194221</v>
+        <v>0.196127</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186368</v>
+        <v>0.186338</v>
       </c>
       <c r="D78" t="n">
-        <v>0.226555</v>
+        <v>0.223405</v>
       </c>
       <c r="E78" t="n">
-        <v>0.190058</v>
+        <v>0.190053</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193588</v>
+        <v>0.193378</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198732</v>
+        <v>0.196886</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191693</v>
+        <v>0.191773</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23363</v>
+        <v>0.231876</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195956</v>
+        <v>0.196328</v>
       </c>
       <c r="F79" t="n">
-        <v>0.199861</v>
+        <v>0.200915</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205963</v>
+        <v>0.204912</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200451</v>
+        <v>0.200753</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243097</v>
+        <v>0.244513</v>
       </c>
       <c r="E80" t="n">
-        <v>0.255005</v>
+        <v>0.255641</v>
       </c>
       <c r="F80" t="n">
-        <v>0.187612</v>
+        <v>0.187639</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338354</v>
+        <v>0.341933</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182346</v>
+        <v>0.181366</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259289</v>
+        <v>0.257948</v>
       </c>
       <c r="E81" t="n">
-        <v>0.25373</v>
+        <v>0.255935</v>
       </c>
       <c r="F81" t="n">
-        <v>0.187597</v>
+        <v>0.188126</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342518</v>
+        <v>0.343049</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18031</v>
+        <v>0.181305</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271069</v>
+        <v>0.270441</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256708</v>
+        <v>0.255379</v>
       </c>
       <c r="F82" t="n">
-        <v>0.18869</v>
+        <v>0.188805</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344702</v>
+        <v>0.34205</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181611</v>
+        <v>0.180846</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285882</v>
+        <v>0.284237</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254742</v>
+        <v>0.255614</v>
       </c>
       <c r="F83" t="n">
-        <v>0.189326</v>
+        <v>0.190363</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345485</v>
+        <v>0.344111</v>
       </c>
       <c r="C84" t="n">
-        <v>0.182163</v>
+        <v>0.181641</v>
       </c>
       <c r="D84" t="n">
-        <v>0.299916</v>
+        <v>0.300252</v>
       </c>
       <c r="E84" t="n">
-        <v>0.254323</v>
+        <v>0.25637</v>
       </c>
       <c r="F84" t="n">
-        <v>0.19094</v>
+        <v>0.19129</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346855</v>
+        <v>0.344236</v>
       </c>
       <c r="C85" t="n">
-        <v>0.183529</v>
+        <v>0.184554</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314394</v>
+        <v>0.314584</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253287</v>
+        <v>0.257042</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192992</v>
+        <v>0.192819</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345989</v>
+        <v>0.344611</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184232</v>
+        <v>0.184088</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330424</v>
+        <v>0.330598</v>
       </c>
       <c r="E86" t="n">
-        <v>0.251972</v>
+        <v>0.256848</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193118</v>
+        <v>0.19421</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.346595</v>
+        <v>0.346373</v>
       </c>
       <c r="C87" t="n">
-        <v>0.184047</v>
+        <v>0.185015</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346296</v>
+        <v>0.34764</v>
       </c>
       <c r="E87" t="n">
-        <v>0.254897</v>
+        <v>0.254915</v>
       </c>
       <c r="F87" t="n">
-        <v>0.195305</v>
+        <v>0.194498</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347303</v>
+        <v>0.344696</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186737</v>
+        <v>0.186487</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362224</v>
+        <v>0.363166</v>
       </c>
       <c r="E88" t="n">
-        <v>0.250572</v>
+        <v>0.254546</v>
       </c>
       <c r="F88" t="n">
-        <v>0.197131</v>
+        <v>0.196674</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350622</v>
+        <v>0.354503</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188755</v>
+        <v>0.191128</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378258</v>
+        <v>0.37991</v>
       </c>
       <c r="E89" t="n">
-        <v>0.251694</v>
+        <v>0.2501</v>
       </c>
       <c r="F89" t="n">
-        <v>0.199105</v>
+        <v>0.199173</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35189</v>
+        <v>0.349907</v>
       </c>
       <c r="C90" t="n">
-        <v>0.193453</v>
+        <v>0.19342</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394593</v>
+        <v>0.395082</v>
       </c>
       <c r="E90" t="n">
-        <v>0.252347</v>
+        <v>0.252005</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202363</v>
+        <v>0.202413</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350747</v>
+        <v>0.352164</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195572</v>
+        <v>0.195291</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41058</v>
+        <v>0.41038</v>
       </c>
       <c r="E91" t="n">
-        <v>0.254726</v>
+        <v>0.254427</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206267</v>
+        <v>0.206344</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355809</v>
+        <v>0.355512</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200018</v>
+        <v>0.201056</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358707</v>
+        <v>0.361136</v>
       </c>
       <c r="E92" t="n">
-        <v>0.253522</v>
+        <v>0.253707</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211549</v>
+        <v>0.211927</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360572</v>
+        <v>0.355593</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207341</v>
+        <v>0.207219</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374072</v>
+        <v>0.371196</v>
       </c>
       <c r="E93" t="n">
-        <v>0.257119</v>
+        <v>0.255727</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219558</v>
+        <v>0.219971</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365138</v>
+        <v>0.365091</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216062</v>
+        <v>0.216284</v>
       </c>
       <c r="D94" t="n">
-        <v>0.382681</v>
+        <v>0.385595</v>
       </c>
       <c r="E94" t="n">
-        <v>0.411143</v>
+        <v>0.411587</v>
       </c>
       <c r="F94" t="n">
-        <v>0.273937</v>
+        <v>0.274586</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498798</v>
+        <v>0.498676</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279424</v>
+        <v>0.276135</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398774</v>
+        <v>0.398137</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410612</v>
+        <v>0.410211</v>
       </c>
       <c r="F95" t="n">
-        <v>0.276742</v>
+        <v>0.281311</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499342</v>
+        <v>0.499757</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278627</v>
+        <v>0.278415</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408292</v>
+        <v>0.409109</v>
       </c>
       <c r="E96" t="n">
-        <v>0.411577</v>
+        <v>0.410665</v>
       </c>
       <c r="F96" t="n">
-        <v>0.279268</v>
+        <v>0.278986</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498983</v>
+        <v>0.499585</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28294</v>
+        <v>0.285288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.423401</v>
+        <v>0.425076</v>
       </c>
       <c r="E97" t="n">
-        <v>0.410824</v>
+        <v>0.410431</v>
       </c>
       <c r="F97" t="n">
-        <v>0.277067</v>
+        <v>0.279099</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499272</v>
+        <v>0.499908</v>
       </c>
       <c r="C98" t="n">
-        <v>0.283564</v>
+        <v>0.275788</v>
       </c>
       <c r="D98" t="n">
-        <v>0.437839</v>
+        <v>0.435614</v>
       </c>
       <c r="E98" t="n">
-        <v>0.410035</v>
+        <v>0.410999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.282439</v>
+        <v>0.281961</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.499464</v>
+        <v>0.5011370000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281545</v>
+        <v>0.281811</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455661</v>
+        <v>0.455571</v>
       </c>
       <c r="E99" t="n">
-        <v>0.409483</v>
+        <v>0.410323</v>
       </c>
       <c r="F99" t="n">
-        <v>0.281702</v>
+        <v>0.279681</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500187</v>
+        <v>0.50065</v>
       </c>
       <c r="C100" t="n">
-        <v>0.283219</v>
+        <v>0.281575</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468717</v>
+        <v>0.467864</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410109</v>
+        <v>0.40981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.285828</v>
+        <v>0.279985</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501636</v>
+        <v>0.501903</v>
       </c>
       <c r="C101" t="n">
-        <v>0.286465</v>
+        <v>0.282491</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483977</v>
+        <v>0.482201</v>
       </c>
       <c r="E101" t="n">
-        <v>0.410193</v>
+        <v>0.411249</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283764</v>
+        <v>0.285198</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502082</v>
+        <v>0.503171</v>
       </c>
       <c r="C102" t="n">
-        <v>0.288475</v>
+        <v>0.28565</v>
       </c>
       <c r="D102" t="n">
-        <v>0.497638</v>
+        <v>0.5000869999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.408717</v>
+        <v>0.410651</v>
       </c>
       <c r="F102" t="n">
-        <v>0.28435</v>
+        <v>0.286343</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50481</v>
+        <v>0.505889</v>
       </c>
       <c r="C103" t="n">
-        <v>0.286597</v>
+        <v>0.288711</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514772</v>
+        <v>0.5146309999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409911</v>
+        <v>0.411914</v>
       </c>
       <c r="F103" t="n">
-        <v>0.289807</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.504929</v>
+        <v>0.507003</v>
       </c>
       <c r="C104" t="n">
-        <v>0.289802</v>
+        <v>0.297272</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531726</v>
+        <v>0.533119</v>
       </c>
       <c r="E104" t="n">
-        <v>0.412789</v>
+        <v>0.411891</v>
       </c>
       <c r="F104" t="n">
-        <v>0.289148</v>
+        <v>0.289245</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.50793</v>
+        <v>0.510115</v>
       </c>
       <c r="C105" t="n">
-        <v>0.292744</v>
+        <v>0.297395</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54519</v>
+        <v>0.547866</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412583</v>
+        <v>0.414606</v>
       </c>
       <c r="F105" t="n">
-        <v>0.289566</v>
+        <v>0.291484</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511608</v>
+        <v>0.512745</v>
       </c>
       <c r="C106" t="n">
-        <v>0.301163</v>
+        <v>0.297508</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56286</v>
+        <v>0.563574</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415474</v>
+        <v>0.417586</v>
       </c>
       <c r="F106" t="n">
-        <v>0.298328</v>
+        <v>0.29882</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51683</v>
+        <v>0.517707</v>
       </c>
       <c r="C107" t="n">
-        <v>0.306116</v>
+        <v>0.301499</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538025</v>
+        <v>0.537988</v>
       </c>
       <c r="E107" t="n">
-        <v>0.420177</v>
+        <v>0.420984</v>
       </c>
       <c r="F107" t="n">
-        <v>0.305209</v>
+        <v>0.306321</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523548</v>
+        <v>0.524123</v>
       </c>
       <c r="C108" t="n">
-        <v>0.31222</v>
+        <v>0.315194</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5510659999999999</v>
+        <v>0.552131</v>
       </c>
       <c r="E108" t="n">
-        <v>0.547196</v>
+        <v>0.54672</v>
       </c>
       <c r="F108" t="n">
-        <v>0.496451</v>
+        <v>0.49913</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5351</v>
+        <v>0.53417</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329439</v>
+        <v>0.327668</v>
       </c>
       <c r="D109" t="n">
-        <v>0.556063</v>
+        <v>0.555736</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546623</v>
+        <v>0.547251</v>
       </c>
       <c r="F109" t="n">
-        <v>0.499167</v>
+        <v>0.498927</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58131</v>
+        <v>0.582014</v>
       </c>
       <c r="C110" t="n">
-        <v>0.492456</v>
+        <v>0.497359</v>
       </c>
       <c r="D110" t="n">
-        <v>0.56753</v>
+        <v>0.5697680000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.548082</v>
+        <v>0.547879</v>
       </c>
       <c r="F110" t="n">
-        <v>0.500217</v>
+        <v>0.498677</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5827830000000001</v>
+        <v>0.582647</v>
       </c>
       <c r="C111" t="n">
-        <v>0.496948</v>
+        <v>0.495638</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584414</v>
+        <v>0.583994</v>
       </c>
       <c r="E111" t="n">
-        <v>0.546289</v>
+        <v>0.547009</v>
       </c>
       <c r="F111" t="n">
-        <v>0.498623</v>
+        <v>0.500369</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581865</v>
+        <v>0.582886</v>
       </c>
       <c r="C112" t="n">
-        <v>0.495512</v>
+        <v>0.495809</v>
       </c>
       <c r="D112" t="n">
-        <v>0.595035</v>
+        <v>0.595964</v>
       </c>
       <c r="E112" t="n">
-        <v>0.548196</v>
+        <v>0.546668</v>
       </c>
       <c r="F112" t="n">
-        <v>0.500676</v>
+        <v>0.501981</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582677</v>
+        <v>0.582951</v>
       </c>
       <c r="C113" t="n">
-        <v>0.496013</v>
+        <v>0.497468</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609457</v>
+        <v>0.611231</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548968</v>
+        <v>0.548027</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500877</v>
+        <v>0.503981</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584036</v>
+        <v>0.583798</v>
       </c>
       <c r="C114" t="n">
-        <v>0.497525</v>
+        <v>0.499329</v>
       </c>
       <c r="D114" t="n">
-        <v>0.622203</v>
+        <v>0.623026</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5485139999999999</v>
+        <v>0.547747</v>
       </c>
       <c r="F114" t="n">
-        <v>0.504478</v>
+        <v>0.50325</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584696</v>
+        <v>0.585079</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498619</v>
+        <v>0.500996</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634487</v>
+        <v>0.636199</v>
       </c>
       <c r="E115" t="n">
-        <v>0.550582</v>
+        <v>0.550449</v>
       </c>
       <c r="F115" t="n">
-        <v>0.505424</v>
+        <v>0.508489</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.586062</v>
+        <v>0.587022</v>
       </c>
       <c r="C116" t="n">
-        <v>0.500449</v>
+        <v>0.501485</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650303</v>
+        <v>0.652138</v>
       </c>
       <c r="E116" t="n">
-        <v>0.550826</v>
+        <v>0.551517</v>
       </c>
       <c r="F116" t="n">
-        <v>0.507162</v>
+        <v>0.50868</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587711</v>
+        <v>0.592121</v>
       </c>
       <c r="C117" t="n">
-        <v>0.502649</v>
+        <v>0.504254</v>
       </c>
       <c r="D117" t="n">
-        <v>0.670449</v>
+        <v>0.671351</v>
       </c>
       <c r="E117" t="n">
-        <v>0.551179</v>
+        <v>0.553354</v>
       </c>
       <c r="F117" t="n">
-        <v>0.509235</v>
+        <v>0.509359</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591249</v>
+        <v>0.592495</v>
       </c>
       <c r="C118" t="n">
-        <v>0.504107</v>
+        <v>0.50798</v>
       </c>
       <c r="D118" t="n">
-        <v>0.687852</v>
+        <v>0.689352</v>
       </c>
       <c r="E118" t="n">
-        <v>0.555291</v>
+        <v>0.554026</v>
       </c>
       <c r="F118" t="n">
-        <v>0.511747</v>
+        <v>0.514449</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593167</v>
+        <v>0.5969370000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.513112</v>
+        <v>0.508917</v>
       </c>
       <c r="D119" t="n">
-        <v>0.705456</v>
+        <v>0.7075129999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.559347</v>
+        <v>0.556885</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5145729999999999</v>
+        <v>0.514798</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5983039999999999</v>
+        <v>0.598058</v>
       </c>
       <c r="C120" t="n">
-        <v>0.514335</v>
+        <v>0.515242</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721415</v>
+        <v>0.723404</v>
       </c>
       <c r="E120" t="n">
-        <v>0.563086</v>
+        <v>0.562943</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5150940000000001</v>
+        <v>0.517961</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606332</v>
+        <v>0.608743</v>
       </c>
       <c r="C121" t="n">
-        <v>0.520379</v>
+        <v>0.52062</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640737</v>
+        <v>0.641781</v>
       </c>
       <c r="E121" t="n">
-        <v>0.565582</v>
+        <v>0.565647</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5228120000000001</v>
+        <v>0.5226189999999999</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613857</v>
+        <v>0.613792</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5303</v>
+        <v>0.531608</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649933</v>
+        <v>0.65105</v>
       </c>
       <c r="E122" t="n">
-        <v>0.575607</v>
+        <v>0.576339</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5329930000000001</v>
+        <v>0.531707</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624242</v>
+        <v>0.628087</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542262</v>
+        <v>0.542814</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663697</v>
+        <v>0.665122</v>
       </c>
       <c r="E123" t="n">
-        <v>0.705978</v>
+        <v>0.709499</v>
       </c>
       <c r="F123" t="n">
-        <v>0.712286</v>
+        <v>0.718372</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7264659999999999</v>
+        <v>0.726065</v>
       </c>
       <c r="C124" t="n">
-        <v>0.704891</v>
+        <v>0.705592</v>
       </c>
       <c r="D124" t="n">
-        <v>0.673899</v>
+        <v>0.675871</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707313</v>
+        <v>0.710422</v>
       </c>
       <c r="F124" t="n">
-        <v>0.714693</v>
+        <v>0.720905</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.726368</v>
+        <v>0.7261879999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.706077</v>
+        <v>0.705375</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687435</v>
+        <v>0.688103</v>
       </c>
       <c r="E125" t="n">
-        <v>0.708888</v>
+        <v>0.709763</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7158369999999999</v>
+        <v>0.720185</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.726649</v>
+        <v>0.726212</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7067099999999999</v>
+        <v>0.708106</v>
       </c>
       <c r="D126" t="n">
-        <v>0.70062</v>
+        <v>0.701103</v>
       </c>
       <c r="E126" t="n">
-        <v>0.70961</v>
+        <v>0.710551</v>
       </c>
       <c r="F126" t="n">
-        <v>0.71757</v>
+        <v>0.72011</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726994</v>
+        <v>0.727131</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70799</v>
+        <v>0.710171</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714332</v>
+        <v>0.715251</v>
       </c>
       <c r="E127" t="n">
-        <v>0.708838</v>
+        <v>0.709418</v>
       </c>
       <c r="F127" t="n">
-        <v>0.717438</v>
+        <v>0.718552</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.72856</v>
+        <v>0.72849</v>
       </c>
       <c r="C128" t="n">
-        <v>0.708823</v>
+        <v>0.710901</v>
       </c>
       <c r="D128" t="n">
-        <v>0.729963</v>
+        <v>0.73243</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710649</v>
+        <v>0.712443</v>
       </c>
       <c r="F128" t="n">
-        <v>0.720574</v>
+        <v>0.722792</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732124</v>
+        <v>0.730093</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708586</v>
+        <v>0.712887</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744344</v>
+        <v>0.746282</v>
       </c>
       <c r="E129" t="n">
-        <v>0.713638</v>
+        <v>0.713624</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7209410000000001</v>
+        <v>0.724741</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.730078</v>
+        <v>0.731722</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713337</v>
+        <v>0.713681</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761699</v>
+        <v>0.763245</v>
       </c>
       <c r="E130" t="n">
-        <v>0.715232</v>
+        <v>0.715215</v>
       </c>
       <c r="F130" t="n">
-        <v>0.725799</v>
+        <v>0.727218</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.732575</v>
+        <v>0.734677</v>
       </c>
       <c r="C131" t="n">
-        <v>0.717181</v>
+        <v>0.716294</v>
       </c>
       <c r="D131" t="n">
-        <v>0.775505</v>
+        <v>0.777613</v>
       </c>
       <c r="E131" t="n">
-        <v>0.718016</v>
+        <v>0.717701</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7269060000000001</v>
+        <v>0.730017</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73841</v>
+        <v>0.737039</v>
       </c>
       <c r="C132" t="n">
-        <v>0.718176</v>
+        <v>0.721012</v>
       </c>
       <c r="D132" t="n">
-        <v>0.790405</v>
+        <v>0.792454</v>
       </c>
       <c r="E132" t="n">
-        <v>0.71645</v>
+        <v>0.718737</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.732386</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.739803</v>
+        <v>0.740387</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7227710000000001</v>
+        <v>0.724455</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807145</v>
+        <v>0.809124</v>
       </c>
       <c r="E133" t="n">
-        <v>0.722407</v>
+        <v>0.7238830000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>0.734579</v>
+        <v>0.735854</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.744437</v>
+        <v>0.746013</v>
       </c>
       <c r="C134" t="n">
-        <v>0.728204</v>
+        <v>0.731426</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824064</v>
+        <v>0.826176</v>
       </c>
       <c r="E134" t="n">
-        <v>0.725752</v>
+        <v>0.726706</v>
       </c>
       <c r="F134" t="n">
-        <v>0.73914</v>
+        <v>0.742144</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749928</v>
+        <v>0.751155</v>
       </c>
       <c r="C135" t="n">
-        <v>0.737628</v>
+        <v>0.73899</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693605</v>
+        <v>0.695123</v>
       </c>
       <c r="E135" t="n">
-        <v>0.73023</v>
+        <v>0.730098</v>
       </c>
       <c r="F135" t="n">
-        <v>0.748713</v>
+        <v>0.750352</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.760814</v>
+        <v>0.761225</v>
       </c>
       <c r="C136" t="n">
-        <v>0.746177</v>
+        <v>0.749744</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702227</v>
+        <v>0.703666</v>
       </c>
       <c r="E136" t="n">
-        <v>0.736392</v>
+        <v>0.73898</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7587699999999999</v>
+        <v>0.759082</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.77232</v>
+        <v>0.772392</v>
       </c>
       <c r="C137" t="n">
-        <v>0.759752</v>
+        <v>0.763482</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714024</v>
+        <v>0.7144779999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.843116</v>
+        <v>0.847611</v>
       </c>
       <c r="F137" t="n">
-        <v>0.849222</v>
+        <v>0.850984</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85483</v>
+        <v>0.857851</v>
       </c>
       <c r="C138" t="n">
-        <v>0.845839</v>
+        <v>0.846589</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726641</v>
+        <v>0.72816</v>
       </c>
       <c r="E138" t="n">
-        <v>0.84388</v>
+        <v>0.846546</v>
       </c>
       <c r="F138" t="n">
-        <v>0.850924</v>
+        <v>0.85123</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.855639</v>
+        <v>0.857856</v>
       </c>
       <c r="C139" t="n">
-        <v>0.847633</v>
+        <v>0.847645</v>
       </c>
       <c r="D139" t="n">
-        <v>0.738794</v>
+        <v>0.739955</v>
       </c>
       <c r="E139" t="n">
-        <v>0.843373</v>
+        <v>0.834286</v>
       </c>
       <c r="F139" t="n">
-        <v>0.852064</v>
+        <v>0.85356</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.855152</v>
+        <v>0.859585</v>
       </c>
       <c r="C140" t="n">
-        <v>0.847312</v>
+        <v>0.848782</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752517</v>
+        <v>0.753058</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8446709999999999</v>
+        <v>0.848651</v>
       </c>
       <c r="F140" t="n">
-        <v>0.853473</v>
+        <v>0.855095</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.856967</v>
+        <v>0.847095</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8489409999999999</v>
+        <v>0.849847</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766466</v>
+        <v>0.767232</v>
       </c>
       <c r="E141" t="n">
-        <v>0.84552</v>
+        <v>0.849174</v>
       </c>
       <c r="F141" t="n">
-        <v>0.856429</v>
+        <v>0.856536</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.856809</v>
+        <v>0.860204</v>
       </c>
       <c r="C142" t="n">
-        <v>0.849953</v>
+        <v>0.85237</v>
       </c>
       <c r="D142" t="n">
-        <v>0.77847</v>
+        <v>0.778905</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8466089999999999</v>
+        <v>0.851689</v>
       </c>
       <c r="F142" t="n">
-        <v>0.856754</v>
+        <v>0.858873</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.858166</v>
+        <v>0.862468</v>
       </c>
       <c r="C143" t="n">
-        <v>0.852676</v>
+        <v>0.85346</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7949889999999999</v>
+        <v>0.795003</v>
       </c>
       <c r="E143" t="n">
-        <v>0.846843</v>
+        <v>0.839682</v>
       </c>
       <c r="F143" t="n">
-        <v>0.858913</v>
+        <v>0.860416</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110755</v>
+        <v>0.110737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10827</v>
+        <v>0.108546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.135686</v>
+        <v>0.134727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119803</v>
+        <v>0.120449</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121403</v>
+        <v>0.121233</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110303</v>
+        <v>0.111448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107677</v>
+        <v>0.109048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141381</v>
+        <v>0.141524</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119773</v>
+        <v>0.120869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121607</v>
+        <v>0.121103</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110404</v>
+        <v>0.110106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108151</v>
+        <v>0.108525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147326</v>
+        <v>0.146916</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120205</v>
+        <v>0.121645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.122458</v>
+        <v>0.121426</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111453</v>
+        <v>0.111817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10954</v>
+        <v>0.109536</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155411</v>
+        <v>0.154534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120887</v>
+        <v>0.122659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122185</v>
+        <v>0.121922</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113014</v>
+        <v>0.112813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110241</v>
+        <v>0.110373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160052</v>
+        <v>0.161557</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121551</v>
+        <v>0.124258</v>
       </c>
       <c r="F6" t="n">
-        <v>0.123035</v>
+        <v>0.122694</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114223</v>
+        <v>0.113764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111769</v>
+        <v>0.112256</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132942</v>
+        <v>0.134429</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122455</v>
+        <v>0.126613</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124051</v>
+        <v>0.123598</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116273</v>
+        <v>0.1169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114509</v>
+        <v>0.114596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.135527</v>
+        <v>0.137661</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124991</v>
+        <v>0.130255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125942</v>
+        <v>0.126423</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122183</v>
+        <v>0.121984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119864</v>
+        <v>0.117683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140257</v>
+        <v>0.142191</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125837</v>
+        <v>0.126396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123252</v>
+        <v>0.123279</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121012</v>
+        <v>0.123192</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110752</v>
+        <v>0.110978</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144434</v>
+        <v>0.144335</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125967</v>
+        <v>0.126446</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123407</v>
+        <v>0.123804</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121836</v>
+        <v>0.123224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110907</v>
+        <v>0.112655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148437</v>
+        <v>0.149841</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126474</v>
+        <v>0.127176</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123545</v>
+        <v>0.123292</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122192</v>
+        <v>0.123682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111693</v>
+        <v>0.111304</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153441</v>
+        <v>0.154352</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12645</v>
+        <v>0.127376</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123639</v>
+        <v>0.123536</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122846</v>
+        <v>0.124012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113079</v>
+        <v>0.111965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159149</v>
+        <v>0.160227</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127118</v>
+        <v>0.127785</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123688</v>
+        <v>0.123705</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123618</v>
+        <v>0.12347</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113805</v>
+        <v>0.113464</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165195</v>
+        <v>0.165865</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127639</v>
+        <v>0.127945</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12377</v>
+        <v>0.124222</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122767</v>
+        <v>0.123248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113416</v>
+        <v>0.112642</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171723</v>
+        <v>0.173215</v>
       </c>
       <c r="E15" t="n">
-        <v>0.128048</v>
+        <v>0.127494</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124176</v>
+        <v>0.124118</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123564</v>
+        <v>0.122918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11317</v>
+        <v>0.113224</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177362</v>
+        <v>0.17817</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12787</v>
+        <v>0.128388</v>
       </c>
       <c r="F16" t="n">
-        <v>0.12443</v>
+        <v>0.125518</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124694</v>
+        <v>0.124219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113036</v>
+        <v>0.11317</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183146</v>
+        <v>0.183525</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128041</v>
+        <v>0.129107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124923</v>
+        <v>0.124736</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125158</v>
+        <v>0.124143</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113666</v>
+        <v>0.11558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18856</v>
+        <v>0.188474</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128818</v>
+        <v>0.129964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125362</v>
+        <v>0.12531</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125665</v>
+        <v>0.126138</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11458</v>
+        <v>0.1147</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1941</v>
+        <v>0.194217</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128847</v>
+        <v>0.131362</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125806</v>
+        <v>0.125461</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126731</v>
+        <v>0.12625</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116237</v>
+        <v>0.118468</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20001</v>
+        <v>0.200477</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130329</v>
+        <v>0.132362</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126534</v>
+        <v>0.12718</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128868</v>
+        <v>0.130278</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11888</v>
+        <v>0.118645</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153717</v>
+        <v>0.153224</v>
       </c>
       <c r="E21" t="n">
-        <v>0.131934</v>
+        <v>0.135826</v>
       </c>
       <c r="F21" t="n">
-        <v>0.127855</v>
+        <v>0.12814</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132676</v>
+        <v>0.135151</v>
       </c>
       <c r="C22" t="n">
-        <v>0.121973</v>
+        <v>0.122593</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157524</v>
+        <v>0.157793</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136138</v>
+        <v>0.138751</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131853</v>
+        <v>0.13248</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140787</v>
+        <v>0.140682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131292</v>
+        <v>0.131527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162788</v>
+        <v>0.16194</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135625</v>
+        <v>0.136657</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131881</v>
+        <v>0.131447</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1337</v>
+        <v>0.133518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122135</v>
+        <v>0.124928</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167625</v>
+        <v>0.168373</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136283</v>
+        <v>0.136504</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131885</v>
+        <v>0.132847</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134208</v>
+        <v>0.133363</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122957</v>
+        <v>0.125092</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171834</v>
+        <v>0.172343</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136371</v>
+        <v>0.136482</v>
       </c>
       <c r="F25" t="n">
-        <v>0.132177</v>
+        <v>0.133901</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133577</v>
+        <v>0.134034</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122857</v>
+        <v>0.122995</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177008</v>
+        <v>0.177097</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136436</v>
+        <v>0.13705</v>
       </c>
       <c r="F26" t="n">
-        <v>0.131705</v>
+        <v>0.133665</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133929</v>
+        <v>0.133681</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122013</v>
+        <v>0.124393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181778</v>
+        <v>0.181923</v>
       </c>
       <c r="E27" t="n">
-        <v>0.136685</v>
+        <v>0.137745</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131595</v>
+        <v>0.132162</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134262</v>
+        <v>0.134558</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12368</v>
+        <v>0.123541</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186568</v>
+        <v>0.186954</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137245</v>
+        <v>0.137538</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131578</v>
+        <v>0.132805</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134735</v>
+        <v>0.134265</v>
       </c>
       <c r="C29" t="n">
-        <v>0.124289</v>
+        <v>0.122853</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192348</v>
+        <v>0.191576</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137671</v>
+        <v>0.13822</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132818</v>
+        <v>0.133051</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135106</v>
+        <v>0.136037</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124365</v>
+        <v>0.123891</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196557</v>
+        <v>0.196992</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137188</v>
+        <v>0.138639</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132166</v>
+        <v>0.133318</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134864</v>
+        <v>0.134823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123708</v>
+        <v>0.126035</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201715</v>
+        <v>0.20242</v>
       </c>
       <c r="E31" t="n">
-        <v>0.138148</v>
+        <v>0.138672</v>
       </c>
       <c r="F31" t="n">
-        <v>0.132505</v>
+        <v>0.132713</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135622</v>
+        <v>0.136172</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125448</v>
+        <v>0.125362</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207784</v>
+        <v>0.208128</v>
       </c>
       <c r="E32" t="n">
-        <v>0.139682</v>
+        <v>0.140379</v>
       </c>
       <c r="F32" t="n">
-        <v>0.13392</v>
+        <v>0.133391</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136503</v>
+        <v>0.136456</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126609</v>
+        <v>0.127123</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21287</v>
+        <v>0.213187</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139433</v>
+        <v>0.141429</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134902</v>
+        <v>0.134509</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138478</v>
+        <v>0.13856</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127751</v>
+        <v>0.128346</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217725</v>
+        <v>0.218953</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141867</v>
+        <v>0.14279</v>
       </c>
       <c r="F34" t="n">
-        <v>0.135819</v>
+        <v>0.136266</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141544</v>
+        <v>0.141666</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130761</v>
+        <v>0.131405</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169705</v>
+        <v>0.169425</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146028</v>
+        <v>0.146232</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140091</v>
+        <v>0.142254</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146818</v>
+        <v>0.146956</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136774</v>
+        <v>0.137672</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173872</v>
+        <v>0.173206</v>
       </c>
       <c r="E36" t="n">
-        <v>0.153019</v>
+        <v>0.151859</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148757</v>
+        <v>0.148195</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154442</v>
+        <v>0.154593</v>
       </c>
       <c r="C37" t="n">
-        <v>0.146038</v>
+        <v>0.145591</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178323</v>
+        <v>0.176956</v>
       </c>
       <c r="E37" t="n">
-        <v>0.146334</v>
+        <v>0.147206</v>
       </c>
       <c r="F37" t="n">
-        <v>0.150822</v>
+        <v>0.148902</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14539</v>
+        <v>0.145464</v>
       </c>
       <c r="C38" t="n">
-        <v>0.14239</v>
+        <v>0.140883</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183457</v>
+        <v>0.181917</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148505</v>
+        <v>0.148075</v>
       </c>
       <c r="F38" t="n">
-        <v>0.149804</v>
+        <v>0.148303</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145687</v>
+        <v>0.146395</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141516</v>
+        <v>0.140755</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187395</v>
+        <v>0.186653</v>
       </c>
       <c r="E39" t="n">
-        <v>0.150264</v>
+        <v>0.149676</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149556</v>
+        <v>0.149024</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144994</v>
+        <v>0.146144</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14035</v>
+        <v>0.140477</v>
       </c>
       <c r="D40" t="n">
-        <v>0.192565</v>
+        <v>0.191211</v>
       </c>
       <c r="E40" t="n">
-        <v>0.14728</v>
+        <v>0.148589</v>
       </c>
       <c r="F40" t="n">
-        <v>0.151084</v>
+        <v>0.151004</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146554</v>
+        <v>0.145747</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142368</v>
+        <v>0.14006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196685</v>
+        <v>0.195376</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150313</v>
+        <v>0.148484</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150385</v>
+        <v>0.150912</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147259</v>
+        <v>0.146283</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141225</v>
+        <v>0.14134</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20156</v>
+        <v>0.200633</v>
       </c>
       <c r="E42" t="n">
-        <v>0.150253</v>
+        <v>0.151723</v>
       </c>
       <c r="F42" t="n">
-        <v>0.149963</v>
+        <v>0.14887</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14692</v>
+        <v>0.146954</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14241</v>
+        <v>0.140226</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206681</v>
+        <v>0.205876</v>
       </c>
       <c r="E43" t="n">
-        <v>0.147952</v>
+        <v>0.151083</v>
       </c>
       <c r="F43" t="n">
-        <v>0.150768</v>
+        <v>0.149751</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147508</v>
+        <v>0.148327</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141449</v>
+        <v>0.142169</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211567</v>
+        <v>0.210456</v>
       </c>
       <c r="E44" t="n">
-        <v>0.149312</v>
+        <v>0.149293</v>
       </c>
       <c r="F44" t="n">
-        <v>0.152662</v>
+        <v>0.153008</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148076</v>
+        <v>0.148121</v>
       </c>
       <c r="C45" t="n">
-        <v>0.141225</v>
+        <v>0.142742</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216798</v>
+        <v>0.215826</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150009</v>
+        <v>0.15182</v>
       </c>
       <c r="F45" t="n">
-        <v>0.151464</v>
+        <v>0.151126</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148967</v>
+        <v>0.149133</v>
       </c>
       <c r="C46" t="n">
-        <v>0.145313</v>
+        <v>0.145065</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22197</v>
+        <v>0.22148</v>
       </c>
       <c r="E46" t="n">
-        <v>0.152536</v>
+        <v>0.153004</v>
       </c>
       <c r="F46" t="n">
-        <v>0.153299</v>
+        <v>0.151726</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150633</v>
+        <v>0.15137</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146647</v>
+        <v>0.144608</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227884</v>
+        <v>0.227259</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1521</v>
+        <v>0.153266</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153343</v>
+        <v>0.152704</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152978</v>
+        <v>0.152426</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148089</v>
+        <v>0.147354</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231798</v>
+        <v>0.231664</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157218</v>
+        <v>0.154995</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155335</v>
+        <v>0.156391</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156967</v>
+        <v>0.156604</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152569</v>
+        <v>0.152521</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236525</v>
+        <v>0.236186</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160897</v>
+        <v>0.159366</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159115</v>
+        <v>0.15919</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161641</v>
+        <v>0.160405</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157624</v>
+        <v>0.155004</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.172498</v>
       </c>
       <c r="E50" t="n">
-        <v>0.166194</v>
+        <v>0.165504</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164329</v>
+        <v>0.164714</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168551</v>
+        <v>0.168043</v>
       </c>
       <c r="C51" t="n">
-        <v>0.162368</v>
+        <v>0.16166</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175787</v>
+        <v>0.175682</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162604</v>
+        <v>0.162949</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165509</v>
+        <v>0.164579</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176983</v>
+        <v>0.173821</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17246</v>
+        <v>0.170599</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178989</v>
+        <v>0.179263</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163793</v>
+        <v>0.163694</v>
       </c>
       <c r="F52" t="n">
-        <v>0.16598</v>
+        <v>0.166078</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158945</v>
+        <v>0.159304</v>
       </c>
       <c r="C53" t="n">
-        <v>0.158505</v>
+        <v>0.157859</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183644</v>
+        <v>0.183906</v>
       </c>
       <c r="E53" t="n">
-        <v>0.16299</v>
+        <v>0.164285</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165671</v>
+        <v>0.165333</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159921</v>
+        <v>0.159416</v>
       </c>
       <c r="C54" t="n">
-        <v>0.158851</v>
+        <v>0.159911</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188202</v>
+        <v>0.188217</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163047</v>
+        <v>0.163284</v>
       </c>
       <c r="F54" t="n">
-        <v>0.166987</v>
+        <v>0.16588</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159349</v>
+        <v>0.159423</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159385</v>
+        <v>0.159046</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192959</v>
+        <v>0.192967</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16419</v>
+        <v>0.16437</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166702</v>
+        <v>0.166535</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159738</v>
+        <v>0.159972</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159176</v>
+        <v>0.159905</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197929</v>
+        <v>0.198026</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164168</v>
+        <v>0.164895</v>
       </c>
       <c r="F56" t="n">
-        <v>0.167354</v>
+        <v>0.16654</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160689</v>
+        <v>0.159935</v>
       </c>
       <c r="C57" t="n">
-        <v>0.161121</v>
+        <v>0.161112</v>
       </c>
       <c r="D57" t="n">
-        <v>0.204015</v>
+        <v>0.203035</v>
       </c>
       <c r="E57" t="n">
-        <v>0.165231</v>
+        <v>0.16441</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166927</v>
+        <v>0.167431</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161065</v>
+        <v>0.160207</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161126</v>
+        <v>0.160823</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208064</v>
+        <v>0.208104</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164826</v>
+        <v>0.165308</v>
       </c>
       <c r="F58" t="n">
-        <v>0.16837</v>
+        <v>0.16809</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161126</v>
+        <v>0.161962</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162699</v>
+        <v>0.160617</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213197</v>
+        <v>0.213666</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165878</v>
+        <v>0.166575</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168685</v>
+        <v>0.169247</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16189</v>
+        <v>0.163813</v>
       </c>
       <c r="C60" t="n">
-        <v>0.164083</v>
+        <v>0.162997</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218751</v>
+        <v>0.218476</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167209</v>
+        <v>0.167469</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170605</v>
+        <v>0.170185</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165293</v>
+        <v>0.163326</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165224</v>
+        <v>0.165744</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223903</v>
+        <v>0.223819</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168619</v>
+        <v>0.167905</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172059</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16624</v>
+        <v>0.165411</v>
       </c>
       <c r="C62" t="n">
-        <v>0.167544</v>
+        <v>0.168374</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228825</v>
+        <v>0.228823</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171765</v>
+        <v>0.170923</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174042</v>
+        <v>0.173605</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170134</v>
+        <v>0.169355</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170943</v>
+        <v>0.170431</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232846</v>
+        <v>0.232853</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174334</v>
+        <v>0.172959</v>
       </c>
       <c r="F63" t="n">
-        <v>0.17714</v>
+        <v>0.177309</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173719</v>
+        <v>0.172812</v>
       </c>
       <c r="C64" t="n">
-        <v>0.173023</v>
+        <v>0.174531</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18116</v>
+        <v>0.180948</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177953</v>
+        <v>0.17869</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181129</v>
+        <v>0.180991</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17966</v>
+        <v>0.179899</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181277</v>
+        <v>0.181066</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184171</v>
+        <v>0.184068</v>
       </c>
       <c r="E65" t="n">
-        <v>0.184352</v>
+        <v>0.18382</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188928</v>
+        <v>0.188232</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1866</v>
+        <v>0.186461</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188938</v>
+        <v>0.18785</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18806</v>
+        <v>0.188381</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175965</v>
+        <v>0.175741</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176676</v>
+        <v>0.176302</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178045</v>
+        <v>0.17611</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170617</v>
+        <v>0.171376</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192545</v>
+        <v>0.192502</v>
       </c>
       <c r="E67" t="n">
-        <v>0.17545</v>
+        <v>0.175247</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177436</v>
+        <v>0.176736</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177721</v>
+        <v>0.179072</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171187</v>
+        <v>0.170587</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197676</v>
+        <v>0.199905</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176157</v>
+        <v>0.176836</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177664</v>
+        <v>0.17706</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180368</v>
+        <v>0.18063</v>
       </c>
       <c r="C69" t="n">
-        <v>0.171049</v>
+        <v>0.171309</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204416</v>
+        <v>0.203399</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176526</v>
+        <v>0.176314</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178082</v>
+        <v>0.177521</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182754</v>
+        <v>0.181998</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17161</v>
+        <v>0.171467</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211916</v>
+        <v>0.211423</v>
       </c>
       <c r="E70" t="n">
-        <v>0.178542</v>
+        <v>0.17692</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178443</v>
+        <v>0.177847</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181209</v>
+        <v>0.178715</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17192</v>
+        <v>0.172112</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217943</v>
+        <v>0.217792</v>
       </c>
       <c r="E71" t="n">
-        <v>0.177723</v>
+        <v>0.178365</v>
       </c>
       <c r="F71" t="n">
-        <v>0.178786</v>
+        <v>0.178402</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181542</v>
+        <v>0.182419</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172519</v>
+        <v>0.172647</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224524</v>
+        <v>0.226278</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178272</v>
+        <v>0.179279</v>
       </c>
       <c r="F72" t="n">
-        <v>0.180176</v>
+        <v>0.179182</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181829</v>
+        <v>0.183263</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174176</v>
+        <v>0.173855</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236116</v>
+        <v>0.234502</v>
       </c>
       <c r="E73" t="n">
-        <v>0.178898</v>
+        <v>0.179111</v>
       </c>
       <c r="F73" t="n">
-        <v>0.181173</v>
+        <v>0.180352</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18078</v>
+        <v>0.183964</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175075</v>
+        <v>0.175315</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24148</v>
+        <v>0.243636</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181043</v>
+        <v>0.180886</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182205</v>
+        <v>0.181676</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183566</v>
+        <v>0.188409</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176565</v>
+        <v>0.176636</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252292</v>
+        <v>0.251239</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181722</v>
+        <v>0.181416</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184092</v>
+        <v>0.183415</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185839</v>
+        <v>0.186861</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179244</v>
+        <v>0.179334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262186</v>
+        <v>0.260988</v>
       </c>
       <c r="E76" t="n">
-        <v>0.183866</v>
+        <v>0.182611</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186279</v>
+        <v>0.186457</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188123</v>
+        <v>0.187565</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182967</v>
+        <v>0.181771</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269465</v>
+        <v>0.27189</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186962</v>
+        <v>0.185487</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18907</v>
+        <v>0.189434</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194221</v>
+        <v>0.191876</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186368</v>
+        <v>0.186176</v>
       </c>
       <c r="D78" t="n">
-        <v>0.226555</v>
+        <v>0.225072</v>
       </c>
       <c r="E78" t="n">
-        <v>0.190058</v>
+        <v>0.189548</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193588</v>
+        <v>0.193674</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198732</v>
+        <v>0.197177</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191693</v>
+        <v>0.191777</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23363</v>
+        <v>0.232316</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195956</v>
+        <v>0.196262</v>
       </c>
       <c r="F79" t="n">
-        <v>0.199861</v>
+        <v>0.199869</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205963</v>
+        <v>0.203173</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200451</v>
+        <v>0.200699</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243097</v>
+        <v>0.243619</v>
       </c>
       <c r="E80" t="n">
-        <v>0.255005</v>
+        <v>0.253059</v>
       </c>
       <c r="F80" t="n">
-        <v>0.187612</v>
+        <v>0.186338</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338354</v>
+        <v>0.338774</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182346</v>
+        <v>0.180208</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259289</v>
+        <v>0.258132</v>
       </c>
       <c r="E81" t="n">
-        <v>0.25373</v>
+        <v>0.25505</v>
       </c>
       <c r="F81" t="n">
-        <v>0.187597</v>
+        <v>0.18747</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342518</v>
+        <v>0.34191</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18031</v>
+        <v>0.180507</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271069</v>
+        <v>0.271718</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256708</v>
+        <v>0.25427</v>
       </c>
       <c r="F82" t="n">
-        <v>0.18869</v>
+        <v>0.189813</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344702</v>
+        <v>0.340527</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181611</v>
+        <v>0.18144</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285882</v>
+        <v>0.287676</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254742</v>
+        <v>0.254017</v>
       </c>
       <c r="F83" t="n">
-        <v>0.189326</v>
+        <v>0.18941</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345485</v>
+        <v>0.340101</v>
       </c>
       <c r="C84" t="n">
-        <v>0.182163</v>
+        <v>0.182925</v>
       </c>
       <c r="D84" t="n">
-        <v>0.299916</v>
+        <v>0.29982</v>
       </c>
       <c r="E84" t="n">
-        <v>0.254323</v>
+        <v>0.253953</v>
       </c>
       <c r="F84" t="n">
-        <v>0.19094</v>
+        <v>0.190188</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346855</v>
+        <v>0.340839</v>
       </c>
       <c r="C85" t="n">
-        <v>0.183529</v>
+        <v>0.182837</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314394</v>
+        <v>0.314867</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253287</v>
+        <v>0.253055</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192992</v>
+        <v>0.191783</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345989</v>
+        <v>0.341105</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184232</v>
+        <v>0.184208</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330424</v>
+        <v>0.330868</v>
       </c>
       <c r="E86" t="n">
-        <v>0.251972</v>
+        <v>0.250724</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193118</v>
+        <v>0.193552</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.346595</v>
+        <v>0.344683</v>
       </c>
       <c r="C87" t="n">
-        <v>0.184047</v>
+        <v>0.184661</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346296</v>
+        <v>0.346121</v>
       </c>
       <c r="E87" t="n">
-        <v>0.254897</v>
+        <v>0.250858</v>
       </c>
       <c r="F87" t="n">
-        <v>0.195305</v>
+        <v>0.194704</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347303</v>
+        <v>0.345365</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186737</v>
+        <v>0.187514</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362224</v>
+        <v>0.361541</v>
       </c>
       <c r="E88" t="n">
-        <v>0.250572</v>
+        <v>0.2515</v>
       </c>
       <c r="F88" t="n">
-        <v>0.197131</v>
+        <v>0.196295</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350622</v>
+        <v>0.352055</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188755</v>
+        <v>0.188085</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378258</v>
+        <v>0.377353</v>
       </c>
       <c r="E89" t="n">
-        <v>0.251694</v>
+        <v>0.251455</v>
       </c>
       <c r="F89" t="n">
-        <v>0.199105</v>
+        <v>0.19921</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35189</v>
+        <v>0.350434</v>
       </c>
       <c r="C90" t="n">
-        <v>0.193453</v>
+        <v>0.191439</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394593</v>
+        <v>0.394115</v>
       </c>
       <c r="E90" t="n">
-        <v>0.252347</v>
+        <v>0.249378</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202363</v>
+        <v>0.201791</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350747</v>
+        <v>0.348669</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195572</v>
+        <v>0.195698</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41058</v>
+        <v>0.408586</v>
       </c>
       <c r="E91" t="n">
-        <v>0.254726</v>
+        <v>0.251128</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206267</v>
+        <v>0.205682</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355809</v>
+        <v>0.354792</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200018</v>
+        <v>0.201187</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358707</v>
+        <v>0.35901</v>
       </c>
       <c r="E92" t="n">
-        <v>0.253522</v>
+        <v>0.253292</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211549</v>
+        <v>0.211259</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360572</v>
+        <v>0.359744</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207341</v>
+        <v>0.206296</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374072</v>
+        <v>0.374729</v>
       </c>
       <c r="E93" t="n">
-        <v>0.257119</v>
+        <v>0.257495</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219558</v>
+        <v>0.219626</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365138</v>
+        <v>0.366596</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216062</v>
+        <v>0.217011</v>
       </c>
       <c r="D94" t="n">
-        <v>0.382681</v>
+        <v>0.385599</v>
       </c>
       <c r="E94" t="n">
-        <v>0.411143</v>
+        <v>0.412122</v>
       </c>
       <c r="F94" t="n">
-        <v>0.273937</v>
+        <v>0.271483</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498798</v>
+        <v>0.497525</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279424</v>
+        <v>0.283972</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398774</v>
+        <v>0.400087</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410612</v>
+        <v>0.411074</v>
       </c>
       <c r="F95" t="n">
-        <v>0.276742</v>
+        <v>0.282997</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499342</v>
+        <v>0.498219</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278627</v>
+        <v>0.285696</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408292</v>
+        <v>0.409864</v>
       </c>
       <c r="E96" t="n">
-        <v>0.411577</v>
+        <v>0.411081</v>
       </c>
       <c r="F96" t="n">
-        <v>0.279268</v>
+        <v>0.281518</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498983</v>
+        <v>0.497714</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28294</v>
+        <v>0.282582</v>
       </c>
       <c r="D97" t="n">
-        <v>0.423401</v>
+        <v>0.423411</v>
       </c>
       <c r="E97" t="n">
-        <v>0.410824</v>
+        <v>0.410425</v>
       </c>
       <c r="F97" t="n">
-        <v>0.277067</v>
+        <v>0.278774</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499272</v>
+        <v>0.498613</v>
       </c>
       <c r="C98" t="n">
-        <v>0.283564</v>
+        <v>0.282409</v>
       </c>
       <c r="D98" t="n">
-        <v>0.437839</v>
+        <v>0.437205</v>
       </c>
       <c r="E98" t="n">
-        <v>0.410035</v>
+        <v>0.409834</v>
       </c>
       <c r="F98" t="n">
-        <v>0.282439</v>
+        <v>0.282013</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.499464</v>
+        <v>0.497927</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281545</v>
+        <v>0.282832</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455661</v>
+        <v>0.457234</v>
       </c>
       <c r="E99" t="n">
-        <v>0.409483</v>
+        <v>0.410139</v>
       </c>
       <c r="F99" t="n">
-        <v>0.281702</v>
+        <v>0.287378</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500187</v>
+        <v>0.499244</v>
       </c>
       <c r="C100" t="n">
-        <v>0.283219</v>
+        <v>0.284809</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468717</v>
+        <v>0.467365</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410109</v>
+        <v>0.410424</v>
       </c>
       <c r="F100" t="n">
-        <v>0.285828</v>
+        <v>0.287464</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501636</v>
+        <v>0.500765</v>
       </c>
       <c r="C101" t="n">
-        <v>0.286465</v>
+        <v>0.279996</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483977</v>
+        <v>0.481359</v>
       </c>
       <c r="E101" t="n">
-        <v>0.410193</v>
+        <v>0.409834</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283764</v>
+        <v>0.289192</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502082</v>
+        <v>0.5017200000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.288475</v>
+        <v>0.284464</v>
       </c>
       <c r="D102" t="n">
-        <v>0.497638</v>
+        <v>0.496969</v>
       </c>
       <c r="E102" t="n">
-        <v>0.408717</v>
+        <v>0.40937</v>
       </c>
       <c r="F102" t="n">
-        <v>0.28435</v>
+        <v>0.284575</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50481</v>
+        <v>0.502667</v>
       </c>
       <c r="C103" t="n">
-        <v>0.286597</v>
+        <v>0.287095</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514772</v>
+        <v>0.512722</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409911</v>
+        <v>0.409793</v>
       </c>
       <c r="F103" t="n">
-        <v>0.289807</v>
+        <v>0.28793</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.504929</v>
+        <v>0.505121</v>
       </c>
       <c r="C104" t="n">
-        <v>0.289802</v>
+        <v>0.293021</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531726</v>
+        <v>0.529991</v>
       </c>
       <c r="E104" t="n">
-        <v>0.412789</v>
+        <v>0.411754</v>
       </c>
       <c r="F104" t="n">
-        <v>0.289148</v>
+        <v>0.289178</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.50793</v>
+        <v>0.5070519999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.292744</v>
+        <v>0.297038</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54519</v>
+        <v>0.545484</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412583</v>
+        <v>0.412497</v>
       </c>
       <c r="F105" t="n">
-        <v>0.289566</v>
+        <v>0.292405</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511608</v>
+        <v>0.510007</v>
       </c>
       <c r="C106" t="n">
-        <v>0.301163</v>
+        <v>0.291419</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56286</v>
+        <v>0.561482</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415474</v>
+        <v>0.415941</v>
       </c>
       <c r="F106" t="n">
-        <v>0.298328</v>
+        <v>0.297081</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51683</v>
+        <v>0.516127</v>
       </c>
       <c r="C107" t="n">
-        <v>0.306116</v>
+        <v>0.303961</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538025</v>
+        <v>0.537808</v>
       </c>
       <c r="E107" t="n">
-        <v>0.420177</v>
+        <v>0.42069</v>
       </c>
       <c r="F107" t="n">
-        <v>0.305209</v>
+        <v>0.302294</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523548</v>
+        <v>0.522221</v>
       </c>
       <c r="C108" t="n">
-        <v>0.31222</v>
+        <v>0.317659</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5510659999999999</v>
+        <v>0.551308</v>
       </c>
       <c r="E108" t="n">
-        <v>0.547196</v>
+        <v>0.543955</v>
       </c>
       <c r="F108" t="n">
-        <v>0.496451</v>
+        <v>0.495156</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5351</v>
+        <v>0.5334179999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329439</v>
+        <v>0.330411</v>
       </c>
       <c r="D109" t="n">
-        <v>0.556063</v>
+        <v>0.554043</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546623</v>
+        <v>0.545445</v>
       </c>
       <c r="F109" t="n">
-        <v>0.499167</v>
+        <v>0.496889</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58131</v>
+        <v>0.5829530000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.492456</v>
+        <v>0.490451</v>
       </c>
       <c r="D110" t="n">
-        <v>0.56753</v>
+        <v>0.568424</v>
       </c>
       <c r="E110" t="n">
-        <v>0.548082</v>
+        <v>0.545937</v>
       </c>
       <c r="F110" t="n">
-        <v>0.500217</v>
+        <v>0.497735</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5827830000000001</v>
+        <v>0.580502</v>
       </c>
       <c r="C111" t="n">
-        <v>0.496948</v>
+        <v>0.494017</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584414</v>
+        <v>0.584326</v>
       </c>
       <c r="E111" t="n">
-        <v>0.546289</v>
+        <v>0.545549</v>
       </c>
       <c r="F111" t="n">
-        <v>0.498623</v>
+        <v>0.496697</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581865</v>
+        <v>0.582885</v>
       </c>
       <c r="C112" t="n">
-        <v>0.495512</v>
+        <v>0.496204</v>
       </c>
       <c r="D112" t="n">
-        <v>0.595035</v>
+        <v>0.594404</v>
       </c>
       <c r="E112" t="n">
-        <v>0.548196</v>
+        <v>0.545656</v>
       </c>
       <c r="F112" t="n">
-        <v>0.500676</v>
+        <v>0.498745</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582677</v>
+        <v>0.58257</v>
       </c>
       <c r="C113" t="n">
-        <v>0.496013</v>
+        <v>0.494402</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609457</v>
+        <v>0.609423</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548968</v>
+        <v>0.548133</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500877</v>
+        <v>0.500792</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584036</v>
+        <v>0.58222</v>
       </c>
       <c r="C114" t="n">
-        <v>0.497525</v>
+        <v>0.496422</v>
       </c>
       <c r="D114" t="n">
-        <v>0.622203</v>
+        <v>0.621272</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5485139999999999</v>
+        <v>0.548265</v>
       </c>
       <c r="F114" t="n">
-        <v>0.504478</v>
+        <v>0.502781</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584696</v>
+        <v>0.582773</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498619</v>
+        <v>0.498015</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634487</v>
+        <v>0.633018</v>
       </c>
       <c r="E115" t="n">
-        <v>0.550582</v>
+        <v>0.550673</v>
       </c>
       <c r="F115" t="n">
-        <v>0.505424</v>
+        <v>0.503375</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.586062</v>
+        <v>0.584979</v>
       </c>
       <c r="C116" t="n">
-        <v>0.500449</v>
+        <v>0.498501</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650303</v>
+        <v>0.65003</v>
       </c>
       <c r="E116" t="n">
-        <v>0.550826</v>
+        <v>0.550603</v>
       </c>
       <c r="F116" t="n">
-        <v>0.507162</v>
+        <v>0.504355</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587711</v>
+        <v>0.587632</v>
       </c>
       <c r="C117" t="n">
-        <v>0.502649</v>
+        <v>0.503282</v>
       </c>
       <c r="D117" t="n">
-        <v>0.670449</v>
+        <v>0.66906</v>
       </c>
       <c r="E117" t="n">
-        <v>0.551179</v>
+        <v>0.553829</v>
       </c>
       <c r="F117" t="n">
-        <v>0.509235</v>
+        <v>0.510644</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591249</v>
+        <v>0.590608</v>
       </c>
       <c r="C118" t="n">
-        <v>0.504107</v>
+        <v>0.504207</v>
       </c>
       <c r="D118" t="n">
-        <v>0.687852</v>
+        <v>0.687985</v>
       </c>
       <c r="E118" t="n">
-        <v>0.555291</v>
+        <v>0.55246</v>
       </c>
       <c r="F118" t="n">
-        <v>0.511747</v>
+        <v>0.509808</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593167</v>
+        <v>0.5945859999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.513112</v>
+        <v>0.511498</v>
       </c>
       <c r="D119" t="n">
-        <v>0.705456</v>
+        <v>0.705058</v>
       </c>
       <c r="E119" t="n">
-        <v>0.559347</v>
+        <v>0.557178</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5145729999999999</v>
+        <v>0.51488</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5983039999999999</v>
+        <v>0.600992</v>
       </c>
       <c r="C120" t="n">
-        <v>0.514335</v>
+        <v>0.515234</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721415</v>
+        <v>0.719889</v>
       </c>
       <c r="E120" t="n">
-        <v>0.563086</v>
+        <v>0.560362</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5150940000000001</v>
+        <v>0.519409</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606332</v>
+        <v>0.603652</v>
       </c>
       <c r="C121" t="n">
-        <v>0.520379</v>
+        <v>0.520651</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640737</v>
+        <v>0.641528</v>
       </c>
       <c r="E121" t="n">
-        <v>0.565582</v>
+        <v>0.566169</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5228120000000001</v>
+        <v>0.5258389999999999</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613857</v>
+        <v>0.611714</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5303</v>
+        <v>0.526023</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649933</v>
+        <v>0.651385</v>
       </c>
       <c r="E122" t="n">
-        <v>0.575607</v>
+        <v>0.573915</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5329930000000001</v>
+        <v>0.5327499999999999</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624242</v>
+        <v>0.627575</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542262</v>
+        <v>0.54314</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663697</v>
+        <v>0.665278</v>
       </c>
       <c r="E123" t="n">
-        <v>0.705978</v>
+        <v>0.704466</v>
       </c>
       <c r="F123" t="n">
-        <v>0.712286</v>
+        <v>0.71187</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7264659999999999</v>
+        <v>0.722847</v>
       </c>
       <c r="C124" t="n">
-        <v>0.704891</v>
+        <v>0.701785</v>
       </c>
       <c r="D124" t="n">
-        <v>0.673899</v>
+        <v>0.675027</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707313</v>
+        <v>0.705278</v>
       </c>
       <c r="F124" t="n">
-        <v>0.714693</v>
+        <v>0.712791</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.726368</v>
+        <v>0.72207</v>
       </c>
       <c r="C125" t="n">
-        <v>0.706077</v>
+        <v>0.703317</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687435</v>
+        <v>0.688535</v>
       </c>
       <c r="E125" t="n">
-        <v>0.708888</v>
+        <v>0.706936</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7158369999999999</v>
+        <v>0.714538</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.726649</v>
+        <v>0.722656</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7067099999999999</v>
+        <v>0.704137</v>
       </c>
       <c r="D126" t="n">
-        <v>0.70062</v>
+        <v>0.7018259999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.70961</v>
+        <v>0.70607</v>
       </c>
       <c r="F126" t="n">
-        <v>0.71757</v>
+        <v>0.716713</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726994</v>
+        <v>0.724437</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70799</v>
+        <v>0.705973</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714332</v>
+        <v>0.715189</v>
       </c>
       <c r="E127" t="n">
-        <v>0.708838</v>
+        <v>0.708843</v>
       </c>
       <c r="F127" t="n">
-        <v>0.717438</v>
+        <v>0.716778</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.72856</v>
+        <v>0.7257980000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.708823</v>
+        <v>0.708542</v>
       </c>
       <c r="D128" t="n">
-        <v>0.729963</v>
+        <v>0.7313269999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710649</v>
+        <v>0.7081190000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>0.720574</v>
+        <v>0.718798</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732124</v>
+        <v>0.726426</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708586</v>
+        <v>0.708556</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744344</v>
+        <v>0.745924</v>
       </c>
       <c r="E129" t="n">
-        <v>0.713638</v>
+        <v>0.710656</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7209410000000001</v>
+        <v>0.722271</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.730078</v>
+        <v>0.728656</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713337</v>
+        <v>0.71335</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761699</v>
+        <v>0.762032</v>
       </c>
       <c r="E130" t="n">
-        <v>0.715232</v>
+        <v>0.709718</v>
       </c>
       <c r="F130" t="n">
-        <v>0.725799</v>
+        <v>0.721265</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.732575</v>
+        <v>0.7305779999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.717181</v>
+        <v>0.715681</v>
       </c>
       <c r="D131" t="n">
-        <v>0.775505</v>
+        <v>0.776301</v>
       </c>
       <c r="E131" t="n">
-        <v>0.718016</v>
+        <v>0.712714</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7269060000000001</v>
+        <v>0.724981</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73841</v>
+        <v>0.733911</v>
       </c>
       <c r="C132" t="n">
-        <v>0.718176</v>
+        <v>0.717781</v>
       </c>
       <c r="D132" t="n">
-        <v>0.790405</v>
+        <v>0.790306</v>
       </c>
       <c r="E132" t="n">
-        <v>0.71645</v>
+        <v>0.715937</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.72976</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.739803</v>
+        <v>0.736401</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7227710000000001</v>
+        <v>0.720177</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807145</v>
+        <v>0.8073979999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.722407</v>
+        <v>0.718614</v>
       </c>
       <c r="F133" t="n">
-        <v>0.734579</v>
+        <v>0.731575</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.744437</v>
+        <v>0.74009</v>
       </c>
       <c r="C134" t="n">
-        <v>0.728204</v>
+        <v>0.728057</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824064</v>
+        <v>0.824754</v>
       </c>
       <c r="E134" t="n">
-        <v>0.725752</v>
+        <v>0.72149</v>
       </c>
       <c r="F134" t="n">
-        <v>0.73914</v>
+        <v>0.737826</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749928</v>
+        <v>0.747864</v>
       </c>
       <c r="C135" t="n">
-        <v>0.737628</v>
+        <v>0.737039</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693605</v>
+        <v>0.6912700000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.73023</v>
+        <v>0.72686</v>
       </c>
       <c r="F135" t="n">
-        <v>0.748713</v>
+        <v>0.747218</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.760814</v>
+        <v>0.7589900000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.746177</v>
+        <v>0.746475</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702227</v>
+        <v>0.699856</v>
       </c>
       <c r="E136" t="n">
-        <v>0.736392</v>
+        <v>0.734576</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7587699999999999</v>
+        <v>0.755158</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.77232</v>
+        <v>0.768251</v>
       </c>
       <c r="C137" t="n">
-        <v>0.759752</v>
+        <v>0.7594</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714024</v>
+        <v>0.711089</v>
       </c>
       <c r="E137" t="n">
-        <v>0.843116</v>
+        <v>0.839594</v>
       </c>
       <c r="F137" t="n">
-        <v>0.849222</v>
+        <v>0.843487</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85483</v>
+        <v>0.85248</v>
       </c>
       <c r="C138" t="n">
-        <v>0.845839</v>
+        <v>0.84297</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726641</v>
+        <v>0.723792</v>
       </c>
       <c r="E138" t="n">
-        <v>0.84388</v>
+        <v>0.839759</v>
       </c>
       <c r="F138" t="n">
-        <v>0.850924</v>
+        <v>0.84552</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.855639</v>
+        <v>0.850607</v>
       </c>
       <c r="C139" t="n">
-        <v>0.847633</v>
+        <v>0.842927</v>
       </c>
       <c r="D139" t="n">
-        <v>0.738794</v>
+        <v>0.735953</v>
       </c>
       <c r="E139" t="n">
-        <v>0.843373</v>
+        <v>0.840423</v>
       </c>
       <c r="F139" t="n">
-        <v>0.852064</v>
+        <v>0.847075</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.855152</v>
+        <v>0.851348</v>
       </c>
       <c r="C140" t="n">
-        <v>0.847312</v>
+        <v>0.8419759999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752517</v>
+        <v>0.749644</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8446709999999999</v>
+        <v>0.840241</v>
       </c>
       <c r="F140" t="n">
-        <v>0.853473</v>
+        <v>0.84828</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.856967</v>
+        <v>0.852041</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8489409999999999</v>
+        <v>0.844251</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766466</v>
+        <v>0.7633259999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.84552</v>
+        <v>0.841879</v>
       </c>
       <c r="F141" t="n">
-        <v>0.856429</v>
+        <v>0.84912</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.856809</v>
+        <v>0.852827</v>
       </c>
       <c r="C142" t="n">
-        <v>0.849953</v>
+        <v>0.844492</v>
       </c>
       <c r="D142" t="n">
-        <v>0.77847</v>
+        <v>0.77551</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8466089999999999</v>
+        <v>0.842811</v>
       </c>
       <c r="F142" t="n">
-        <v>0.856754</v>
+        <v>0.852059</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.858166</v>
+        <v>0.854179</v>
       </c>
       <c r="C143" t="n">
-        <v>0.852676</v>
+        <v>0.847679</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7949889999999999</v>
+        <v>0.792144</v>
       </c>
       <c r="E143" t="n">
-        <v>0.846843</v>
+        <v>0.842382</v>
       </c>
       <c r="F143" t="n">
-        <v>0.858913</v>
+        <v>0.853234</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110737</v>
+        <v>0.112016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108546</v>
+        <v>0.107568</v>
       </c>
       <c r="D2" t="n">
-        <v>0.134727</v>
+        <v>0.133243</v>
       </c>
       <c r="E2" t="n">
-        <v>0.120449</v>
+        <v>0.119857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121233</v>
+        <v>0.121227</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111448</v>
+        <v>0.111082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.109048</v>
+        <v>0.108113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141524</v>
+        <v>0.139548</v>
       </c>
       <c r="E3" t="n">
-        <v>0.120869</v>
+        <v>0.120081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121103</v>
+        <v>0.121307</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110106</v>
+        <v>0.110894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108525</v>
+        <v>0.108748</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146916</v>
+        <v>0.145628</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121645</v>
+        <v>0.120384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121426</v>
+        <v>0.12155</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111817</v>
+        <v>0.111908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109536</v>
+        <v>0.109867</v>
       </c>
       <c r="D5" t="n">
-        <v>0.154534</v>
+        <v>0.154339</v>
       </c>
       <c r="E5" t="n">
-        <v>0.122659</v>
+        <v>0.120905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.121922</v>
+        <v>0.122141</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112813</v>
+        <v>0.112874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110373</v>
+        <v>0.110926</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161557</v>
+        <v>0.160138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124258</v>
+        <v>0.121416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122694</v>
+        <v>0.122731</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113764</v>
+        <v>0.114604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112256</v>
+        <v>0.112578</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134429</v>
+        <v>0.132179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.126613</v>
+        <v>0.122446</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123598</v>
+        <v>0.124006</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1169</v>
+        <v>0.11597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114596</v>
+        <v>0.115975</v>
       </c>
       <c r="D8" t="n">
-        <v>0.137661</v>
+        <v>0.135951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.130255</v>
+        <v>0.125045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.126423</v>
+        <v>0.125854</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121984</v>
+        <v>0.121923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117683</v>
+        <v>0.119793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.142191</v>
+        <v>0.139707</v>
       </c>
       <c r="E9" t="n">
-        <v>0.126396</v>
+        <v>0.126344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123279</v>
+        <v>0.122804</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123192</v>
+        <v>0.122259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110978</v>
+        <v>0.110807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144335</v>
+        <v>0.14408</v>
       </c>
       <c r="E10" t="n">
-        <v>0.126446</v>
+        <v>0.126525</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123804</v>
+        <v>0.122984</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123224</v>
+        <v>0.121782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.112655</v>
+        <v>0.110967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.149841</v>
+        <v>0.148446</v>
       </c>
       <c r="E11" t="n">
-        <v>0.127176</v>
+        <v>0.126862</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123292</v>
+        <v>0.123195</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123682</v>
+        <v>0.122168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111304</v>
+        <v>0.111266</v>
       </c>
       <c r="D12" t="n">
-        <v>0.154352</v>
+        <v>0.153061</v>
       </c>
       <c r="E12" t="n">
-        <v>0.127376</v>
+        <v>0.126752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123536</v>
+        <v>0.123754</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124012</v>
+        <v>0.122736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111965</v>
+        <v>0.11151</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160227</v>
+        <v>0.159128</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127785</v>
+        <v>0.127285</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123705</v>
+        <v>0.123598</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12347</v>
+        <v>0.123713</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113464</v>
+        <v>0.11252</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165865</v>
+        <v>0.163797</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127945</v>
+        <v>0.127684</v>
       </c>
       <c r="F14" t="n">
-        <v>0.124222</v>
+        <v>0.123686</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123248</v>
+        <v>0.123442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112642</v>
+        <v>0.112171</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173215</v>
+        <v>0.170591</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127494</v>
+        <v>0.126961</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124118</v>
+        <v>0.123842</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122918</v>
+        <v>0.122864</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113224</v>
+        <v>0.113104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17817</v>
+        <v>0.176174</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128388</v>
+        <v>0.127635</v>
       </c>
       <c r="F16" t="n">
-        <v>0.125518</v>
+        <v>0.124338</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124219</v>
+        <v>0.123118</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11317</v>
+        <v>0.113161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183525</v>
+        <v>0.18245</v>
       </c>
       <c r="E17" t="n">
-        <v>0.129107</v>
+        <v>0.127636</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124736</v>
+        <v>0.124796</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124143</v>
+        <v>0.124097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11558</v>
+        <v>0.114354</v>
       </c>
       <c r="D18" t="n">
-        <v>0.188474</v>
+        <v>0.187826</v>
       </c>
       <c r="E18" t="n">
-        <v>0.129964</v>
+        <v>0.128527</v>
       </c>
       <c r="F18" t="n">
-        <v>0.12531</v>
+        <v>0.125127</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126138</v>
+        <v>0.125102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1147</v>
+        <v>0.114588</v>
       </c>
       <c r="D19" t="n">
-        <v>0.194217</v>
+        <v>0.192206</v>
       </c>
       <c r="E19" t="n">
-        <v>0.131362</v>
+        <v>0.129061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125461</v>
+        <v>0.125714</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.12625</v>
+        <v>0.126861</v>
       </c>
       <c r="C20" t="n">
-        <v>0.118468</v>
+        <v>0.116936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200477</v>
+        <v>0.198677</v>
       </c>
       <c r="E20" t="n">
-        <v>0.132362</v>
+        <v>0.130343</v>
       </c>
       <c r="F20" t="n">
-        <v>0.12718</v>
+        <v>0.126499</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130278</v>
+        <v>0.129805</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118645</v>
+        <v>0.120067</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153224</v>
+        <v>0.15227</v>
       </c>
       <c r="E21" t="n">
-        <v>0.135826</v>
+        <v>0.132131</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12814</v>
+        <v>0.127895</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.135151</v>
+        <v>0.133819</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122593</v>
+        <v>0.123621</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157793</v>
+        <v>0.156029</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138751</v>
+        <v>0.136265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.13248</v>
+        <v>0.132108</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140682</v>
+        <v>0.141214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131527</v>
+        <v>0.132736</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16194</v>
+        <v>0.161531</v>
       </c>
       <c r="E23" t="n">
-        <v>0.136657</v>
+        <v>0.1355</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131447</v>
+        <v>0.130142</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133518</v>
+        <v>0.133537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.124928</v>
+        <v>0.121238</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168373</v>
+        <v>0.166207</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136504</v>
+        <v>0.137051</v>
       </c>
       <c r="F24" t="n">
-        <v>0.132847</v>
+        <v>0.131513</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133363</v>
+        <v>0.133852</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125092</v>
+        <v>0.123424</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172343</v>
+        <v>0.171792</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136482</v>
+        <v>0.136593</v>
       </c>
       <c r="F25" t="n">
-        <v>0.133901</v>
+        <v>0.134771</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134034</v>
+        <v>0.133522</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122995</v>
+        <v>0.122361</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177097</v>
+        <v>0.176077</v>
       </c>
       <c r="E26" t="n">
-        <v>0.13705</v>
+        <v>0.136567</v>
       </c>
       <c r="F26" t="n">
-        <v>0.133665</v>
+        <v>0.13104</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133681</v>
+        <v>0.134213</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124393</v>
+        <v>0.122493</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181923</v>
+        <v>0.181077</v>
       </c>
       <c r="E27" t="n">
-        <v>0.137745</v>
+        <v>0.136825</v>
       </c>
       <c r="F27" t="n">
-        <v>0.132162</v>
+        <v>0.131753</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134558</v>
+        <v>0.134233</v>
       </c>
       <c r="C28" t="n">
-        <v>0.123541</v>
+        <v>0.122895</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186954</v>
+        <v>0.185761</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137538</v>
+        <v>0.137031</v>
       </c>
       <c r="F28" t="n">
-        <v>0.132805</v>
+        <v>0.131394</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134265</v>
+        <v>0.134189</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122853</v>
+        <v>0.123238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.191576</v>
+        <v>0.190528</v>
       </c>
       <c r="E29" t="n">
-        <v>0.13822</v>
+        <v>0.136785</v>
       </c>
       <c r="F29" t="n">
-        <v>0.133051</v>
+        <v>0.131624</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136037</v>
+        <v>0.135612</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123891</v>
+        <v>0.123474</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196992</v>
+        <v>0.196117</v>
       </c>
       <c r="E30" t="n">
-        <v>0.138639</v>
+        <v>0.137316</v>
       </c>
       <c r="F30" t="n">
-        <v>0.133318</v>
+        <v>0.13228</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134823</v>
+        <v>0.134965</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126035</v>
+        <v>0.123407</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20242</v>
+        <v>0.202188</v>
       </c>
       <c r="E31" t="n">
-        <v>0.138672</v>
+        <v>0.137745</v>
       </c>
       <c r="F31" t="n">
-        <v>0.132713</v>
+        <v>0.133865</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136172</v>
+        <v>0.135225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125362</v>
+        <v>0.124493</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208128</v>
+        <v>0.20781</v>
       </c>
       <c r="E32" t="n">
-        <v>0.140379</v>
+        <v>0.13819</v>
       </c>
       <c r="F32" t="n">
-        <v>0.133391</v>
+        <v>0.134184</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136456</v>
+        <v>0.137694</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127123</v>
+        <v>0.127796</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213187</v>
+        <v>0.213004</v>
       </c>
       <c r="E33" t="n">
-        <v>0.141429</v>
+        <v>0.139299</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134509</v>
+        <v>0.135475</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13856</v>
+        <v>0.138424</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128346</v>
+        <v>0.128372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.218953</v>
+        <v>0.216874</v>
       </c>
       <c r="E34" t="n">
-        <v>0.14279</v>
+        <v>0.141611</v>
       </c>
       <c r="F34" t="n">
-        <v>0.136266</v>
+        <v>0.136324</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141666</v>
+        <v>0.141188</v>
       </c>
       <c r="C35" t="n">
-        <v>0.131405</v>
+        <v>0.131327</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169425</v>
+        <v>0.16859</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146232</v>
+        <v>0.144816</v>
       </c>
       <c r="F35" t="n">
-        <v>0.142254</v>
+        <v>0.139982</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146956</v>
+        <v>0.147203</v>
       </c>
       <c r="C36" t="n">
-        <v>0.137672</v>
+        <v>0.137397</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173206</v>
+        <v>0.172168</v>
       </c>
       <c r="E36" t="n">
-        <v>0.151859</v>
+        <v>0.152767</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148195</v>
+        <v>0.148006</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154593</v>
+        <v>0.15518</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145591</v>
+        <v>0.145335</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176956</v>
+        <v>0.176153</v>
       </c>
       <c r="E37" t="n">
-        <v>0.147206</v>
+        <v>0.146582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.148902</v>
+        <v>0.14937</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145464</v>
+        <v>0.144809</v>
       </c>
       <c r="C38" t="n">
-        <v>0.140883</v>
+        <v>0.139715</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181917</v>
+        <v>0.180737</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148075</v>
+        <v>0.149687</v>
       </c>
       <c r="F38" t="n">
-        <v>0.148303</v>
+        <v>0.148823</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146395</v>
+        <v>0.144706</v>
       </c>
       <c r="C39" t="n">
-        <v>0.140755</v>
+        <v>0.138544</v>
       </c>
       <c r="D39" t="n">
-        <v>0.186653</v>
+        <v>0.184831</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149676</v>
+        <v>0.148247</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149024</v>
+        <v>0.147547</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146144</v>
+        <v>0.143959</v>
       </c>
       <c r="C40" t="n">
-        <v>0.140477</v>
+        <v>0.143817</v>
       </c>
       <c r="D40" t="n">
-        <v>0.191211</v>
+        <v>0.18984</v>
       </c>
       <c r="E40" t="n">
-        <v>0.148589</v>
+        <v>0.147137</v>
       </c>
       <c r="F40" t="n">
-        <v>0.151004</v>
+        <v>0.1494</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145747</v>
+        <v>0.145912</v>
       </c>
       <c r="C41" t="n">
-        <v>0.14006</v>
+        <v>0.14039</v>
       </c>
       <c r="D41" t="n">
-        <v>0.195376</v>
+        <v>0.193876</v>
       </c>
       <c r="E41" t="n">
-        <v>0.148484</v>
+        <v>0.148103</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150912</v>
+        <v>0.151142</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146283</v>
+        <v>0.144952</v>
       </c>
       <c r="C42" t="n">
-        <v>0.14134</v>
+        <v>0.143805</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200633</v>
+        <v>0.198497</v>
       </c>
       <c r="E42" t="n">
-        <v>0.151723</v>
+        <v>0.150277</v>
       </c>
       <c r="F42" t="n">
-        <v>0.14887</v>
+        <v>0.148477</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146954</v>
+        <v>0.146918</v>
       </c>
       <c r="C43" t="n">
-        <v>0.140226</v>
+        <v>0.140206</v>
       </c>
       <c r="D43" t="n">
-        <v>0.205876</v>
+        <v>0.203602</v>
       </c>
       <c r="E43" t="n">
-        <v>0.151083</v>
+        <v>0.151518</v>
       </c>
       <c r="F43" t="n">
-        <v>0.149751</v>
+        <v>0.14922</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148327</v>
+        <v>0.146522</v>
       </c>
       <c r="C44" t="n">
-        <v>0.142169</v>
+        <v>0.140041</v>
       </c>
       <c r="D44" t="n">
-        <v>0.210456</v>
+        <v>0.208351</v>
       </c>
       <c r="E44" t="n">
-        <v>0.149293</v>
+        <v>0.147845</v>
       </c>
       <c r="F44" t="n">
-        <v>0.153008</v>
+        <v>0.150854</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148121</v>
+        <v>0.147681</v>
       </c>
       <c r="C45" t="n">
-        <v>0.142742</v>
+        <v>0.141278</v>
       </c>
       <c r="D45" t="n">
-        <v>0.215826</v>
+        <v>0.213808</v>
       </c>
       <c r="E45" t="n">
-        <v>0.15182</v>
+        <v>0.149617</v>
       </c>
       <c r="F45" t="n">
-        <v>0.151126</v>
+        <v>0.150835</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149133</v>
+        <v>0.147883</v>
       </c>
       <c r="C46" t="n">
-        <v>0.145065</v>
+        <v>0.143238</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22148</v>
+        <v>0.219717</v>
       </c>
       <c r="E46" t="n">
-        <v>0.153004</v>
+        <v>0.152314</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151726</v>
+        <v>0.151658</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.15137</v>
+        <v>0.150787</v>
       </c>
       <c r="C47" t="n">
-        <v>0.144608</v>
+        <v>0.146519</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227259</v>
+        <v>0.225267</v>
       </c>
       <c r="E47" t="n">
-        <v>0.153266</v>
+        <v>0.153239</v>
       </c>
       <c r="F47" t="n">
-        <v>0.152704</v>
+        <v>0.153574</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152426</v>
+        <v>0.153168</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147354</v>
+        <v>0.149001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231664</v>
+        <v>0.229745</v>
       </c>
       <c r="E48" t="n">
-        <v>0.154995</v>
+        <v>0.158008</v>
       </c>
       <c r="F48" t="n">
-        <v>0.156391</v>
+        <v>0.154796</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156604</v>
+        <v>0.156725</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152521</v>
+        <v>0.151726</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236186</v>
+        <v>0.233889</v>
       </c>
       <c r="E49" t="n">
-        <v>0.159366</v>
+        <v>0.160863</v>
       </c>
       <c r="F49" t="n">
-        <v>0.15919</v>
+        <v>0.158865</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160405</v>
+        <v>0.160554</v>
       </c>
       <c r="C50" t="n">
-        <v>0.155004</v>
+        <v>0.156552</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172498</v>
+        <v>0.171031</v>
       </c>
       <c r="E50" t="n">
-        <v>0.165504</v>
+        <v>0.163512</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164714</v>
+        <v>0.165335</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168043</v>
+        <v>0.168474</v>
       </c>
       <c r="C51" t="n">
-        <v>0.16166</v>
+        <v>0.164607</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175682</v>
+        <v>0.173837</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162949</v>
+        <v>0.163208</v>
       </c>
       <c r="F51" t="n">
-        <v>0.164579</v>
+        <v>0.166055</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173821</v>
+        <v>0.174605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170599</v>
+        <v>0.170995</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179263</v>
+        <v>0.177681</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163694</v>
+        <v>0.163803</v>
       </c>
       <c r="F52" t="n">
-        <v>0.166078</v>
+        <v>0.165849</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159304</v>
+        <v>0.159682</v>
       </c>
       <c r="C53" t="n">
-        <v>0.157859</v>
+        <v>0.157685</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183906</v>
+        <v>0.181907</v>
       </c>
       <c r="E53" t="n">
-        <v>0.164285</v>
+        <v>0.163301</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165333</v>
+        <v>0.165751</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159416</v>
+        <v>0.159452</v>
       </c>
       <c r="C54" t="n">
-        <v>0.159911</v>
+        <v>0.158917</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188217</v>
+        <v>0.187799</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163284</v>
+        <v>0.163936</v>
       </c>
       <c r="F54" t="n">
-        <v>0.16588</v>
+        <v>0.165713</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159423</v>
+        <v>0.160623</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159046</v>
+        <v>0.159299</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192967</v>
+        <v>0.192575</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16437</v>
+        <v>0.164165</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166535</v>
+        <v>0.165923</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159972</v>
+        <v>0.160187</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159905</v>
+        <v>0.158822</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198026</v>
+        <v>0.197894</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164895</v>
+        <v>0.165439</v>
       </c>
       <c r="F56" t="n">
-        <v>0.16654</v>
+        <v>0.166171</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.159935</v>
+        <v>0.160736</v>
       </c>
       <c r="C57" t="n">
-        <v>0.161112</v>
+        <v>0.16023</v>
       </c>
       <c r="D57" t="n">
-        <v>0.203035</v>
+        <v>0.202925</v>
       </c>
       <c r="E57" t="n">
-        <v>0.16441</v>
+        <v>0.165105</v>
       </c>
       <c r="F57" t="n">
-        <v>0.167431</v>
+        <v>0.166385</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160207</v>
+        <v>0.161001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.160823</v>
+        <v>0.159958</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208104</v>
+        <v>0.207894</v>
       </c>
       <c r="E58" t="n">
-        <v>0.165308</v>
+        <v>0.165855</v>
       </c>
       <c r="F58" t="n">
-        <v>0.16809</v>
+        <v>0.167498</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161962</v>
+        <v>0.162067</v>
       </c>
       <c r="C59" t="n">
-        <v>0.160617</v>
+        <v>0.161777</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213666</v>
+        <v>0.212791</v>
       </c>
       <c r="E59" t="n">
-        <v>0.166575</v>
+        <v>0.166467</v>
       </c>
       <c r="F59" t="n">
-        <v>0.169247</v>
+        <v>0.167898</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163813</v>
+        <v>0.163303</v>
       </c>
       <c r="C60" t="n">
-        <v>0.162997</v>
+        <v>0.163902</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218476</v>
+        <v>0.218472</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167469</v>
+        <v>0.166778</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170185</v>
+        <v>0.169113</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.163326</v>
+        <v>0.163984</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165744</v>
+        <v>0.16387</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223819</v>
+        <v>0.223264</v>
       </c>
       <c r="E61" t="n">
-        <v>0.167905</v>
+        <v>0.168761</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1715</v>
+        <v>0.171413</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165411</v>
+        <v>0.165901</v>
       </c>
       <c r="C62" t="n">
-        <v>0.168374</v>
+        <v>0.167034</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228823</v>
+        <v>0.228619</v>
       </c>
       <c r="E62" t="n">
-        <v>0.170923</v>
+        <v>0.171467</v>
       </c>
       <c r="F62" t="n">
-        <v>0.173605</v>
+        <v>0.172724</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169355</v>
+        <v>0.169475</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170431</v>
+        <v>0.170121</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232853</v>
+        <v>0.233053</v>
       </c>
       <c r="E63" t="n">
-        <v>0.172959</v>
+        <v>0.174216</v>
       </c>
       <c r="F63" t="n">
-        <v>0.177309</v>
+        <v>0.177386</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172812</v>
+        <v>0.172684</v>
       </c>
       <c r="C64" t="n">
-        <v>0.174531</v>
+        <v>0.17477</v>
       </c>
       <c r="D64" t="n">
-        <v>0.180948</v>
+        <v>0.181107</v>
       </c>
       <c r="E64" t="n">
-        <v>0.17869</v>
+        <v>0.178188</v>
       </c>
       <c r="F64" t="n">
-        <v>0.180991</v>
+        <v>0.182308</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179899</v>
+        <v>0.178738</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181066</v>
+        <v>0.181254</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184068</v>
+        <v>0.184366</v>
       </c>
       <c r="E65" t="n">
-        <v>0.18382</v>
+        <v>0.183497</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188232</v>
+        <v>0.188846</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186461</v>
+        <v>0.18602</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18785</v>
+        <v>0.189374</v>
       </c>
       <c r="D66" t="n">
-        <v>0.188381</v>
+        <v>0.188295</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175741</v>
+        <v>0.17529</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176302</v>
+        <v>0.176257</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.17611</v>
+        <v>0.18175</v>
       </c>
       <c r="C67" t="n">
-        <v>0.171376</v>
+        <v>0.170579</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192502</v>
+        <v>0.192877</v>
       </c>
       <c r="E67" t="n">
-        <v>0.175247</v>
+        <v>0.175793</v>
       </c>
       <c r="F67" t="n">
-        <v>0.176736</v>
+        <v>0.176623</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179072</v>
+        <v>0.179329</v>
       </c>
       <c r="C68" t="n">
-        <v>0.170587</v>
+        <v>0.171106</v>
       </c>
       <c r="D68" t="n">
-        <v>0.199905</v>
+        <v>0.198555</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176836</v>
+        <v>0.177043</v>
       </c>
       <c r="F68" t="n">
-        <v>0.17706</v>
+        <v>0.176892</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.18063</v>
+        <v>0.17802</v>
       </c>
       <c r="C69" t="n">
-        <v>0.171309</v>
+        <v>0.171283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203399</v>
+        <v>0.203604</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176314</v>
+        <v>0.176071</v>
       </c>
       <c r="F69" t="n">
-        <v>0.177521</v>
+        <v>0.177498</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181998</v>
+        <v>0.177596</v>
       </c>
       <c r="C70" t="n">
-        <v>0.171467</v>
+        <v>0.171218</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211423</v>
+        <v>0.210635</v>
       </c>
       <c r="E70" t="n">
-        <v>0.17692</v>
+        <v>0.17657</v>
       </c>
       <c r="F70" t="n">
-        <v>0.177847</v>
+        <v>0.178264</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.178715</v>
+        <v>0.181499</v>
       </c>
       <c r="C71" t="n">
-        <v>0.172112</v>
+        <v>0.172242</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217792</v>
+        <v>0.217725</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178365</v>
+        <v>0.176903</v>
       </c>
       <c r="F71" t="n">
-        <v>0.178402</v>
+        <v>0.17878</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.182419</v>
+        <v>0.180706</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172647</v>
+        <v>0.173344</v>
       </c>
       <c r="D72" t="n">
-        <v>0.226278</v>
+        <v>0.225264</v>
       </c>
       <c r="E72" t="n">
-        <v>0.179279</v>
+        <v>0.178378</v>
       </c>
       <c r="F72" t="n">
-        <v>0.179182</v>
+        <v>0.179713</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.183263</v>
+        <v>0.180736</v>
       </c>
       <c r="C73" t="n">
-        <v>0.173855</v>
+        <v>0.173727</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234502</v>
+        <v>0.233338</v>
       </c>
       <c r="E73" t="n">
-        <v>0.179111</v>
+        <v>0.1789</v>
       </c>
       <c r="F73" t="n">
-        <v>0.180352</v>
+        <v>0.180455</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.183964</v>
+        <v>0.186151</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175315</v>
+        <v>0.175312</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243636</v>
+        <v>0.244774</v>
       </c>
       <c r="E74" t="n">
-        <v>0.180886</v>
+        <v>0.179772</v>
       </c>
       <c r="F74" t="n">
-        <v>0.181676</v>
+        <v>0.181901</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188409</v>
+        <v>0.185419</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176636</v>
+        <v>0.176704</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251239</v>
+        <v>0.253246</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181416</v>
+        <v>0.181657</v>
       </c>
       <c r="F75" t="n">
-        <v>0.183415</v>
+        <v>0.184053</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186861</v>
+        <v>0.186525</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179334</v>
+        <v>0.179381</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260988</v>
+        <v>0.264284</v>
       </c>
       <c r="E76" t="n">
-        <v>0.182611</v>
+        <v>0.183052</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186457</v>
+        <v>0.185803</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187565</v>
+        <v>0.189907</v>
       </c>
       <c r="C77" t="n">
-        <v>0.181771</v>
+        <v>0.182792</v>
       </c>
       <c r="D77" t="n">
-        <v>0.27189</v>
+        <v>0.273654</v>
       </c>
       <c r="E77" t="n">
-        <v>0.185487</v>
+        <v>0.185799</v>
       </c>
       <c r="F77" t="n">
-        <v>0.189434</v>
+        <v>0.188728</v>
       </c>
     </row>
     <row r="78">
@@ -6607,16 +6607,16 @@
         <v>0.191876</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186176</v>
+        <v>0.186398</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225072</v>
+        <v>0.223567</v>
       </c>
       <c r="E78" t="n">
-        <v>0.189548</v>
+        <v>0.189873</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193674</v>
+        <v>0.193137</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197177</v>
+        <v>0.195592</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191777</v>
+        <v>0.192041</v>
       </c>
       <c r="D79" t="n">
-        <v>0.232316</v>
+        <v>0.233143</v>
       </c>
       <c r="E79" t="n">
-        <v>0.196262</v>
+        <v>0.195186</v>
       </c>
       <c r="F79" t="n">
-        <v>0.199869</v>
+        <v>0.199832</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.203173</v>
+        <v>0.207184</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200699</v>
+        <v>0.200752</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243619</v>
+        <v>0.243314</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253059</v>
+        <v>0.252827</v>
       </c>
       <c r="F80" t="n">
-        <v>0.186338</v>
+        <v>0.186462</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338774</v>
+        <v>0.340762</v>
       </c>
       <c r="C81" t="n">
-        <v>0.180208</v>
+        <v>0.179904</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258132</v>
+        <v>0.259031</v>
       </c>
       <c r="E81" t="n">
-        <v>0.25505</v>
+        <v>0.253608</v>
       </c>
       <c r="F81" t="n">
-        <v>0.18747</v>
+        <v>0.186976</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34191</v>
+        <v>0.341183</v>
       </c>
       <c r="C82" t="n">
-        <v>0.180507</v>
+        <v>0.180785</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271718</v>
+        <v>0.270947</v>
       </c>
       <c r="E82" t="n">
-        <v>0.25427</v>
+        <v>0.253471</v>
       </c>
       <c r="F82" t="n">
-        <v>0.189813</v>
+        <v>0.188418</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.340527</v>
+        <v>0.342088</v>
       </c>
       <c r="C83" t="n">
-        <v>0.18144</v>
+        <v>0.181496</v>
       </c>
       <c r="D83" t="n">
-        <v>0.287676</v>
+        <v>0.284527</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254017</v>
+        <v>0.252759</v>
       </c>
       <c r="F83" t="n">
-        <v>0.18941</v>
+        <v>0.189134</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.340101</v>
+        <v>0.342938</v>
       </c>
       <c r="C84" t="n">
-        <v>0.182925</v>
+        <v>0.181386</v>
       </c>
       <c r="D84" t="n">
-        <v>0.29982</v>
+        <v>0.298721</v>
       </c>
       <c r="E84" t="n">
-        <v>0.253953</v>
+        <v>0.253961</v>
       </c>
       <c r="F84" t="n">
-        <v>0.190188</v>
+        <v>0.190087</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.340839</v>
+        <v>0.342237</v>
       </c>
       <c r="C85" t="n">
-        <v>0.182837</v>
+        <v>0.183244</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314867</v>
+        <v>0.314169</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253055</v>
+        <v>0.253065</v>
       </c>
       <c r="F85" t="n">
-        <v>0.191783</v>
+        <v>0.191631</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.341105</v>
+        <v>0.342018</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184208</v>
+        <v>0.184787</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330868</v>
+        <v>0.330399</v>
       </c>
       <c r="E86" t="n">
-        <v>0.250724</v>
+        <v>0.252668</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193552</v>
+        <v>0.192618</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.344683</v>
+        <v>0.346075</v>
       </c>
       <c r="C87" t="n">
-        <v>0.184661</v>
+        <v>0.18678</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346121</v>
+        <v>0.347515</v>
       </c>
       <c r="E87" t="n">
-        <v>0.250858</v>
+        <v>0.251475</v>
       </c>
       <c r="F87" t="n">
-        <v>0.194704</v>
+        <v>0.194528</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.345365</v>
+        <v>0.346741</v>
       </c>
       <c r="C88" t="n">
-        <v>0.187514</v>
+        <v>0.188491</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361541</v>
+        <v>0.363534</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2515</v>
+        <v>0.253287</v>
       </c>
       <c r="F88" t="n">
-        <v>0.196295</v>
+        <v>0.196343</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.352055</v>
+        <v>0.348437</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188085</v>
+        <v>0.188139</v>
       </c>
       <c r="D89" t="n">
-        <v>0.377353</v>
+        <v>0.378347</v>
       </c>
       <c r="E89" t="n">
-        <v>0.251455</v>
+        <v>0.251362</v>
       </c>
       <c r="F89" t="n">
-        <v>0.19921</v>
+        <v>0.199847</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.350434</v>
+        <v>0.34936</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191439</v>
+        <v>0.191464</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394115</v>
+        <v>0.395067</v>
       </c>
       <c r="E90" t="n">
-        <v>0.249378</v>
+        <v>0.251863</v>
       </c>
       <c r="F90" t="n">
-        <v>0.201791</v>
+        <v>0.202267</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.348669</v>
+        <v>0.354445</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195698</v>
+        <v>0.194982</v>
       </c>
       <c r="D91" t="n">
-        <v>0.408586</v>
+        <v>0.40986</v>
       </c>
       <c r="E91" t="n">
-        <v>0.251128</v>
+        <v>0.251018</v>
       </c>
       <c r="F91" t="n">
-        <v>0.205682</v>
+        <v>0.206195</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.354792</v>
+        <v>0.354568</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201187</v>
+        <v>0.200896</v>
       </c>
       <c r="D92" t="n">
-        <v>0.35901</v>
+        <v>0.358936</v>
       </c>
       <c r="E92" t="n">
-        <v>0.253292</v>
+        <v>0.252885</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211259</v>
+        <v>0.211568</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.359744</v>
+        <v>0.3596</v>
       </c>
       <c r="C93" t="n">
-        <v>0.206296</v>
+        <v>0.207777</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374729</v>
+        <v>0.37425</v>
       </c>
       <c r="E93" t="n">
-        <v>0.257495</v>
+        <v>0.256489</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219626</v>
+        <v>0.219501</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.366596</v>
+        <v>0.366102</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217011</v>
+        <v>0.217634</v>
       </c>
       <c r="D94" t="n">
-        <v>0.385599</v>
+        <v>0.383296</v>
       </c>
       <c r="E94" t="n">
-        <v>0.412122</v>
+        <v>0.410556</v>
       </c>
       <c r="F94" t="n">
-        <v>0.271483</v>
+        <v>0.273566</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.497525</v>
+        <v>0.498666</v>
       </c>
       <c r="C95" t="n">
-        <v>0.283972</v>
+        <v>0.279949</v>
       </c>
       <c r="D95" t="n">
-        <v>0.400087</v>
+        <v>0.400063</v>
       </c>
       <c r="E95" t="n">
-        <v>0.411074</v>
+        <v>0.410944</v>
       </c>
       <c r="F95" t="n">
-        <v>0.282997</v>
+        <v>0.274978</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.498219</v>
+        <v>0.500189</v>
       </c>
       <c r="C96" t="n">
-        <v>0.285696</v>
+        <v>0.276589</v>
       </c>
       <c r="D96" t="n">
-        <v>0.409864</v>
+        <v>0.407827</v>
       </c>
       <c r="E96" t="n">
-        <v>0.411081</v>
+        <v>0.410392</v>
       </c>
       <c r="F96" t="n">
-        <v>0.281518</v>
+        <v>0.279809</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497714</v>
+        <v>0.499647</v>
       </c>
       <c r="C97" t="n">
-        <v>0.282582</v>
+        <v>0.281583</v>
       </c>
       <c r="D97" t="n">
-        <v>0.423411</v>
+        <v>0.424662</v>
       </c>
       <c r="E97" t="n">
-        <v>0.410425</v>
+        <v>0.411025</v>
       </c>
       <c r="F97" t="n">
-        <v>0.278774</v>
+        <v>0.278865</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.498613</v>
+        <v>0.499572</v>
       </c>
       <c r="C98" t="n">
-        <v>0.282409</v>
+        <v>0.279617</v>
       </c>
       <c r="D98" t="n">
-        <v>0.437205</v>
+        <v>0.435101</v>
       </c>
       <c r="E98" t="n">
-        <v>0.409834</v>
+        <v>0.409479</v>
       </c>
       <c r="F98" t="n">
-        <v>0.282013</v>
+        <v>0.281836</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.497927</v>
+        <v>0.500708</v>
       </c>
       <c r="C99" t="n">
-        <v>0.282832</v>
+        <v>0.282522</v>
       </c>
       <c r="D99" t="n">
-        <v>0.457234</v>
+        <v>0.454093</v>
       </c>
       <c r="E99" t="n">
-        <v>0.410139</v>
+        <v>0.40998</v>
       </c>
       <c r="F99" t="n">
-        <v>0.287378</v>
+        <v>0.28328</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.499244</v>
+        <v>0.500126</v>
       </c>
       <c r="C100" t="n">
-        <v>0.284809</v>
+        <v>0.284161</v>
       </c>
       <c r="D100" t="n">
-        <v>0.467365</v>
+        <v>0.466567</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410424</v>
+        <v>0.409813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.287464</v>
+        <v>0.279947</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.500765</v>
+        <v>0.501242</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279996</v>
+        <v>0.288204</v>
       </c>
       <c r="D101" t="n">
-        <v>0.481359</v>
+        <v>0.481408</v>
       </c>
       <c r="E101" t="n">
-        <v>0.409834</v>
+        <v>0.409645</v>
       </c>
       <c r="F101" t="n">
-        <v>0.289192</v>
+        <v>0.28358</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5017200000000001</v>
+        <v>0.502043</v>
       </c>
       <c r="C102" t="n">
-        <v>0.284464</v>
+        <v>0.284763</v>
       </c>
       <c r="D102" t="n">
-        <v>0.496969</v>
+        <v>0.498507</v>
       </c>
       <c r="E102" t="n">
-        <v>0.40937</v>
+        <v>0.410194</v>
       </c>
       <c r="F102" t="n">
-        <v>0.284575</v>
+        <v>0.282927</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.502667</v>
+        <v>0.503679</v>
       </c>
       <c r="C103" t="n">
-        <v>0.287095</v>
+        <v>0.289323</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512722</v>
+        <v>0.514035</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409793</v>
+        <v>0.409809</v>
       </c>
       <c r="F103" t="n">
-        <v>0.28793</v>
+        <v>0.287253</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.505121</v>
+        <v>0.505395</v>
       </c>
       <c r="C104" t="n">
-        <v>0.293021</v>
+        <v>0.290781</v>
       </c>
       <c r="D104" t="n">
-        <v>0.529991</v>
+        <v>0.529639</v>
       </c>
       <c r="E104" t="n">
-        <v>0.411754</v>
+        <v>0.410591</v>
       </c>
       <c r="F104" t="n">
-        <v>0.289178</v>
+        <v>0.288805</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5070519999999999</v>
+        <v>0.508815</v>
       </c>
       <c r="C105" t="n">
-        <v>0.297038</v>
+        <v>0.294424</v>
       </c>
       <c r="D105" t="n">
-        <v>0.545484</v>
+        <v>0.546737</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412497</v>
+        <v>0.412699</v>
       </c>
       <c r="F105" t="n">
-        <v>0.292405</v>
+        <v>0.293784</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.510007</v>
+        <v>0.511854</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291419</v>
+        <v>0.296254</v>
       </c>
       <c r="D106" t="n">
-        <v>0.561482</v>
+        <v>0.56216</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415941</v>
+        <v>0.41538</v>
       </c>
       <c r="F106" t="n">
-        <v>0.297081</v>
+        <v>0.299607</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.516127</v>
+        <v>0.5165920000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.303961</v>
+        <v>0.303502</v>
       </c>
       <c r="D107" t="n">
-        <v>0.537808</v>
+        <v>0.537629</v>
       </c>
       <c r="E107" t="n">
-        <v>0.42069</v>
+        <v>0.41991</v>
       </c>
       <c r="F107" t="n">
-        <v>0.302294</v>
+        <v>0.305009</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.522221</v>
+        <v>0.5240320000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.317659</v>
+        <v>0.313193</v>
       </c>
       <c r="D108" t="n">
-        <v>0.551308</v>
+        <v>0.550512</v>
       </c>
       <c r="E108" t="n">
-        <v>0.543955</v>
+        <v>0.546513</v>
       </c>
       <c r="F108" t="n">
-        <v>0.495156</v>
+        <v>0.495795</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5334179999999999</v>
+        <v>0.535918</v>
       </c>
       <c r="C109" t="n">
-        <v>0.330411</v>
+        <v>0.326417</v>
       </c>
       <c r="D109" t="n">
-        <v>0.554043</v>
+        <v>0.555662</v>
       </c>
       <c r="E109" t="n">
-        <v>0.545445</v>
+        <v>0.546017</v>
       </c>
       <c r="F109" t="n">
-        <v>0.496889</v>
+        <v>0.498093</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5829530000000001</v>
+        <v>0.580681</v>
       </c>
       <c r="C110" t="n">
-        <v>0.490451</v>
+        <v>0.496016</v>
       </c>
       <c r="D110" t="n">
-        <v>0.568424</v>
+        <v>0.569076</v>
       </c>
       <c r="E110" t="n">
-        <v>0.545937</v>
+        <v>0.547506</v>
       </c>
       <c r="F110" t="n">
-        <v>0.497735</v>
+        <v>0.4988</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.580502</v>
+        <v>0.581458</v>
       </c>
       <c r="C111" t="n">
-        <v>0.494017</v>
+        <v>0.493835</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584326</v>
+        <v>0.584973</v>
       </c>
       <c r="E111" t="n">
-        <v>0.545549</v>
+        <v>0.548695</v>
       </c>
       <c r="F111" t="n">
-        <v>0.496697</v>
+        <v>0.499805</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.582885</v>
+        <v>0.582219</v>
       </c>
       <c r="C112" t="n">
-        <v>0.496204</v>
+        <v>0.493367</v>
       </c>
       <c r="D112" t="n">
-        <v>0.594404</v>
+        <v>0.594436</v>
       </c>
       <c r="E112" t="n">
-        <v>0.545656</v>
+        <v>0.549394</v>
       </c>
       <c r="F112" t="n">
-        <v>0.498745</v>
+        <v>0.500995</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.58257</v>
+        <v>0.584181</v>
       </c>
       <c r="C113" t="n">
-        <v>0.494402</v>
+        <v>0.495211</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609423</v>
+        <v>0.611074</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548133</v>
+        <v>0.548962</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500792</v>
+        <v>0.503259</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.58222</v>
+        <v>0.585707</v>
       </c>
       <c r="C114" t="n">
-        <v>0.496422</v>
+        <v>0.498981</v>
       </c>
       <c r="D114" t="n">
-        <v>0.621272</v>
+        <v>0.621929</v>
       </c>
       <c r="E114" t="n">
-        <v>0.548265</v>
+        <v>0.550627</v>
       </c>
       <c r="F114" t="n">
-        <v>0.502781</v>
+        <v>0.5027199999999999</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.582773</v>
+        <v>0.586908</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498015</v>
+        <v>0.49866</v>
       </c>
       <c r="D115" t="n">
-        <v>0.633018</v>
+        <v>0.633973</v>
       </c>
       <c r="E115" t="n">
-        <v>0.550673</v>
+        <v>0.551905</v>
       </c>
       <c r="F115" t="n">
-        <v>0.503375</v>
+        <v>0.503887</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.584979</v>
+        <v>0.587263</v>
       </c>
       <c r="C116" t="n">
-        <v>0.498501</v>
+        <v>0.497996</v>
       </c>
       <c r="D116" t="n">
-        <v>0.65003</v>
+        <v>0.6522250000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.550603</v>
+        <v>0.551872</v>
       </c>
       <c r="F116" t="n">
-        <v>0.504355</v>
+        <v>0.504923</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587632</v>
+        <v>0.587548</v>
       </c>
       <c r="C117" t="n">
-        <v>0.503282</v>
+        <v>0.503813</v>
       </c>
       <c r="D117" t="n">
-        <v>0.66906</v>
+        <v>0.67036</v>
       </c>
       <c r="E117" t="n">
-        <v>0.553829</v>
+        <v>0.554958</v>
       </c>
       <c r="F117" t="n">
-        <v>0.510644</v>
+        <v>0.507388</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.590608</v>
+        <v>0.592266</v>
       </c>
       <c r="C118" t="n">
-        <v>0.504207</v>
+        <v>0.505368</v>
       </c>
       <c r="D118" t="n">
-        <v>0.687985</v>
+        <v>0.687554</v>
       </c>
       <c r="E118" t="n">
-        <v>0.55246</v>
+        <v>0.554982</v>
       </c>
       <c r="F118" t="n">
-        <v>0.509808</v>
+        <v>0.509713</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5945859999999999</v>
+        <v>0.594147</v>
       </c>
       <c r="C119" t="n">
-        <v>0.511498</v>
+        <v>0.507984</v>
       </c>
       <c r="D119" t="n">
-        <v>0.705058</v>
+        <v>0.704585</v>
       </c>
       <c r="E119" t="n">
-        <v>0.557178</v>
+        <v>0.557745</v>
       </c>
       <c r="F119" t="n">
-        <v>0.51488</v>
+        <v>0.514188</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.600992</v>
+        <v>0.5994660000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.515234</v>
+        <v>0.517954</v>
       </c>
       <c r="D120" t="n">
-        <v>0.719889</v>
+        <v>0.720646</v>
       </c>
       <c r="E120" t="n">
-        <v>0.560362</v>
+        <v>0.560798</v>
       </c>
       <c r="F120" t="n">
-        <v>0.519409</v>
+        <v>0.519435</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.603652</v>
+        <v>0.6065390000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.520651</v>
+        <v>0.5235880000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.641528</v>
+        <v>0.640792</v>
       </c>
       <c r="E121" t="n">
-        <v>0.566169</v>
+        <v>0.5680269999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5258389999999999</v>
+        <v>0.524663</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.611714</v>
+        <v>0.6130060000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.526023</v>
+        <v>0.532115</v>
       </c>
       <c r="D122" t="n">
-        <v>0.651385</v>
+        <v>0.650601</v>
       </c>
       <c r="E122" t="n">
-        <v>0.573915</v>
+        <v>0.574796</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5327499999999999</v>
+        <v>0.533683</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.627575</v>
+        <v>0.625703</v>
       </c>
       <c r="C123" t="n">
-        <v>0.54314</v>
+        <v>0.545502</v>
       </c>
       <c r="D123" t="n">
-        <v>0.665278</v>
+        <v>0.6644679999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.704466</v>
+        <v>0.707751</v>
       </c>
       <c r="F123" t="n">
-        <v>0.71187</v>
+        <v>0.714855</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.722847</v>
+        <v>0.726399</v>
       </c>
       <c r="C124" t="n">
-        <v>0.701785</v>
+        <v>0.705671</v>
       </c>
       <c r="D124" t="n">
-        <v>0.675027</v>
+        <v>0.674168</v>
       </c>
       <c r="E124" t="n">
-        <v>0.705278</v>
+        <v>0.707062</v>
       </c>
       <c r="F124" t="n">
-        <v>0.712791</v>
+        <v>0.7147</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.72207</v>
+        <v>0.7257439999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.703317</v>
+        <v>0.708048</v>
       </c>
       <c r="D125" t="n">
-        <v>0.688535</v>
+        <v>0.68849</v>
       </c>
       <c r="E125" t="n">
-        <v>0.706936</v>
+        <v>0.708362</v>
       </c>
       <c r="F125" t="n">
-        <v>0.714538</v>
+        <v>0.718882</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.722656</v>
+        <v>0.724417</v>
       </c>
       <c r="C126" t="n">
-        <v>0.704137</v>
+        <v>0.710323</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7018259999999999</v>
+        <v>0.700645</v>
       </c>
       <c r="E126" t="n">
-        <v>0.70607</v>
+        <v>0.709023</v>
       </c>
       <c r="F126" t="n">
-        <v>0.716713</v>
+        <v>0.717506</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.724437</v>
+        <v>0.725904</v>
       </c>
       <c r="C127" t="n">
-        <v>0.705973</v>
+        <v>0.708133</v>
       </c>
       <c r="D127" t="n">
-        <v>0.715189</v>
+        <v>0.714878</v>
       </c>
       <c r="E127" t="n">
-        <v>0.708843</v>
+        <v>0.707892</v>
       </c>
       <c r="F127" t="n">
-        <v>0.716778</v>
+        <v>0.7202539999999999</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7257980000000001</v>
+        <v>0.730051</v>
       </c>
       <c r="C128" t="n">
-        <v>0.708542</v>
+        <v>0.7104510000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7313269999999999</v>
+        <v>0.731838</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7081190000000001</v>
+        <v>0.71358</v>
       </c>
       <c r="F128" t="n">
-        <v>0.718798</v>
+        <v>0.722162</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.726426</v>
+        <v>0.730741</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708556</v>
+        <v>0.710766</v>
       </c>
       <c r="D129" t="n">
-        <v>0.745924</v>
+        <v>0.744475</v>
       </c>
       <c r="E129" t="n">
-        <v>0.710656</v>
+        <v>0.710325</v>
       </c>
       <c r="F129" t="n">
-        <v>0.722271</v>
+        <v>0.721064</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.728656</v>
+        <v>0.730714</v>
       </c>
       <c r="C130" t="n">
-        <v>0.71335</v>
+        <v>0.7150919999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.762032</v>
+        <v>0.762189</v>
       </c>
       <c r="E130" t="n">
-        <v>0.709718</v>
+        <v>0.713014</v>
       </c>
       <c r="F130" t="n">
-        <v>0.721265</v>
+        <v>0.726396</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7305779999999999</v>
+        <v>0.731542</v>
       </c>
       <c r="C131" t="n">
-        <v>0.715681</v>
+        <v>0.715745</v>
       </c>
       <c r="D131" t="n">
-        <v>0.776301</v>
+        <v>0.775834</v>
       </c>
       <c r="E131" t="n">
-        <v>0.712714</v>
+        <v>0.716728</v>
       </c>
       <c r="F131" t="n">
-        <v>0.724981</v>
+        <v>0.7279679999999999</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.733911</v>
+        <v>0.73595</v>
       </c>
       <c r="C132" t="n">
-        <v>0.717781</v>
+        <v>0.71966</v>
       </c>
       <c r="D132" t="n">
-        <v>0.790306</v>
+        <v>0.790177</v>
       </c>
       <c r="E132" t="n">
-        <v>0.715937</v>
+        <v>0.718597</v>
       </c>
       <c r="F132" t="n">
-        <v>0.72976</v>
+        <v>0.732936</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.736401</v>
+        <v>0.738287</v>
       </c>
       <c r="C133" t="n">
-        <v>0.720177</v>
+        <v>0.725252</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8073979999999999</v>
+        <v>0.807194</v>
       </c>
       <c r="E133" t="n">
-        <v>0.718614</v>
+        <v>0.720202</v>
       </c>
       <c r="F133" t="n">
-        <v>0.731575</v>
+        <v>0.733863</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.74009</v>
+        <v>0.74476</v>
       </c>
       <c r="C134" t="n">
-        <v>0.728057</v>
+        <v>0.729185</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824754</v>
+        <v>0.824464</v>
       </c>
       <c r="E134" t="n">
-        <v>0.72149</v>
+        <v>0.724869</v>
       </c>
       <c r="F134" t="n">
-        <v>0.737826</v>
+        <v>0.741188</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.747864</v>
+        <v>0.751142</v>
       </c>
       <c r="C135" t="n">
-        <v>0.737039</v>
+        <v>0.738724</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6912700000000001</v>
+        <v>0.69333</v>
       </c>
       <c r="E135" t="n">
-        <v>0.72686</v>
+        <v>0.7296550000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>0.747218</v>
+        <v>0.748152</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7589900000000001</v>
+        <v>0.760265</v>
       </c>
       <c r="C136" t="n">
-        <v>0.746475</v>
+        <v>0.744512</v>
       </c>
       <c r="D136" t="n">
-        <v>0.699856</v>
+        <v>0.702043</v>
       </c>
       <c r="E136" t="n">
-        <v>0.734576</v>
+        <v>0.737769</v>
       </c>
       <c r="F136" t="n">
-        <v>0.755158</v>
+        <v>0.758848</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.768251</v>
+        <v>0.7712909999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7594</v>
+        <v>0.763049</v>
       </c>
       <c r="D137" t="n">
-        <v>0.711089</v>
+        <v>0.713066</v>
       </c>
       <c r="E137" t="n">
-        <v>0.839594</v>
+        <v>0.843594</v>
       </c>
       <c r="F137" t="n">
-        <v>0.843487</v>
+        <v>0.84833</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85248</v>
+        <v>0.856808</v>
       </c>
       <c r="C138" t="n">
-        <v>0.84297</v>
+        <v>0.84532</v>
       </c>
       <c r="D138" t="n">
-        <v>0.723792</v>
+        <v>0.726529</v>
       </c>
       <c r="E138" t="n">
-        <v>0.839759</v>
+        <v>0.844628</v>
       </c>
       <c r="F138" t="n">
-        <v>0.84552</v>
+        <v>0.849319</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.850607</v>
+        <v>0.858746</v>
       </c>
       <c r="C139" t="n">
-        <v>0.842927</v>
+        <v>0.847332</v>
       </c>
       <c r="D139" t="n">
-        <v>0.735953</v>
+        <v>0.738456</v>
       </c>
       <c r="E139" t="n">
-        <v>0.840423</v>
+        <v>0.846011</v>
       </c>
       <c r="F139" t="n">
-        <v>0.847075</v>
+        <v>0.852866</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.851348</v>
+        <v>0.856861</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8419759999999999</v>
+        <v>0.846654</v>
       </c>
       <c r="D140" t="n">
-        <v>0.749644</v>
+        <v>0.751432</v>
       </c>
       <c r="E140" t="n">
-        <v>0.840241</v>
+        <v>0.845908</v>
       </c>
       <c r="F140" t="n">
-        <v>0.84828</v>
+        <v>0.853379</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.852041</v>
+        <v>0.857986</v>
       </c>
       <c r="C141" t="n">
-        <v>0.844251</v>
+        <v>0.848649</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7633259999999999</v>
+        <v>0.766236</v>
       </c>
       <c r="E141" t="n">
-        <v>0.841879</v>
+        <v>0.84689</v>
       </c>
       <c r="F141" t="n">
-        <v>0.84912</v>
+        <v>0.853998</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.852827</v>
+        <v>0.8589560000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.844492</v>
+        <v>0.850903</v>
       </c>
       <c r="D142" t="n">
-        <v>0.77551</v>
+        <v>0.777609</v>
       </c>
       <c r="E142" t="n">
-        <v>0.842811</v>
+        <v>0.849948</v>
       </c>
       <c r="F142" t="n">
-        <v>0.852059</v>
+        <v>0.85726</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854179</v>
+        <v>0.861144</v>
       </c>
       <c r="C143" t="n">
-        <v>0.847679</v>
+        <v>0.853186</v>
       </c>
       <c r="D143" t="n">
-        <v>0.792144</v>
+        <v>0.794089</v>
       </c>
       <c r="E143" t="n">
-        <v>0.842382</v>
+        <v>0.8502110000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>0.853234</v>
+        <v>0.8589059999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112016</v>
+        <v>0.112246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.107568</v>
+        <v>0.107036</v>
       </c>
       <c r="D2" t="n">
-        <v>0.133243</v>
+        <v>0.134216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119857</v>
+        <v>0.121669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121227</v>
+        <v>0.12109</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111082</v>
+        <v>0.114652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.108113</v>
+        <v>0.107705</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139548</v>
+        <v>0.140504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.120081</v>
+        <v>0.121936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121307</v>
+        <v>0.121236</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110894</v>
+        <v>0.115113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108748</v>
+        <v>0.108222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145628</v>
+        <v>0.146001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120384</v>
+        <v>0.121791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12155</v>
+        <v>0.121546</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111908</v>
+        <v>0.116162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109867</v>
+        <v>0.108982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.154339</v>
+        <v>0.155712</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120905</v>
+        <v>0.122011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122141</v>
+        <v>0.121948</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112874</v>
+        <v>0.117447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110926</v>
+        <v>0.110361</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160138</v>
+        <v>0.162357</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121416</v>
+        <v>0.1228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122731</v>
+        <v>0.122686</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114604</v>
+        <v>0.118714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112578</v>
+        <v>0.111704</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132179</v>
+        <v>0.135037</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122446</v>
+        <v>0.124238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124006</v>
+        <v>0.124155</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11597</v>
+        <v>0.120717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115975</v>
+        <v>0.114686</v>
       </c>
       <c r="D8" t="n">
-        <v>0.135951</v>
+        <v>0.138151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.125045</v>
+        <v>0.126493</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125854</v>
+        <v>0.125836</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121923</v>
+        <v>0.12671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119793</v>
+        <v>0.118188</v>
       </c>
       <c r="D9" t="n">
-        <v>0.139707</v>
+        <v>0.143911</v>
       </c>
       <c r="E9" t="n">
-        <v>0.126344</v>
+        <v>0.129288</v>
       </c>
       <c r="F9" t="n">
-        <v>0.122804</v>
+        <v>0.124402</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122259</v>
+        <v>0.124775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110807</v>
+        <v>0.11548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.14408</v>
+        <v>0.146395</v>
       </c>
       <c r="E10" t="n">
-        <v>0.126525</v>
+        <v>0.128615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.122984</v>
+        <v>0.124819</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121782</v>
+        <v>0.124746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110967</v>
+        <v>0.113244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148446</v>
+        <v>0.151204</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126862</v>
+        <v>0.129445</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123195</v>
+        <v>0.125003</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122168</v>
+        <v>0.124952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111266</v>
+        <v>0.115775</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153061</v>
+        <v>0.158554</v>
       </c>
       <c r="E12" t="n">
-        <v>0.126752</v>
+        <v>0.129194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123754</v>
+        <v>0.127493</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122736</v>
+        <v>0.125855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11151</v>
+        <v>0.116135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159128</v>
+        <v>0.163902</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127285</v>
+        <v>0.129567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123598</v>
+        <v>0.126204</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123713</v>
+        <v>0.125525</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11252</v>
+        <v>0.11441</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163797</v>
+        <v>0.166023</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127684</v>
+        <v>0.129358</v>
       </c>
       <c r="F14" t="n">
-        <v>0.123686</v>
+        <v>0.125364</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123442</v>
+        <v>0.126095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112171</v>
+        <v>0.114394</v>
       </c>
       <c r="D15" t="n">
-        <v>0.170591</v>
+        <v>0.172364</v>
       </c>
       <c r="E15" t="n">
-        <v>0.126961</v>
+        <v>0.129344</v>
       </c>
       <c r="F15" t="n">
-        <v>0.123842</v>
+        <v>0.12656</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122864</v>
+        <v>0.126214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113104</v>
+        <v>0.114337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.176174</v>
+        <v>0.180334</v>
       </c>
       <c r="E16" t="n">
-        <v>0.127635</v>
+        <v>0.130594</v>
       </c>
       <c r="F16" t="n">
-        <v>0.124338</v>
+        <v>0.126833</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123118</v>
+        <v>0.127277</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113161</v>
+        <v>0.117868</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18245</v>
+        <v>0.18724</v>
       </c>
       <c r="E17" t="n">
-        <v>0.127636</v>
+        <v>0.13182</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124796</v>
+        <v>0.128589</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124097</v>
+        <v>0.127661</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114354</v>
+        <v>0.117308</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187826</v>
+        <v>0.19059</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128527</v>
+        <v>0.130775</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125127</v>
+        <v>0.127082</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125102</v>
+        <v>0.12807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114588</v>
+        <v>0.116821</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192206</v>
+        <v>0.195454</v>
       </c>
       <c r="E19" t="n">
-        <v>0.129061</v>
+        <v>0.130257</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125714</v>
+        <v>0.127014</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126861</v>
+        <v>0.12864</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116936</v>
+        <v>0.117518</v>
       </c>
       <c r="D20" t="n">
-        <v>0.198677</v>
+        <v>0.200592</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130343</v>
+        <v>0.131056</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126499</v>
+        <v>0.129834</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129805</v>
+        <v>0.131044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120067</v>
+        <v>0.122586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15227</v>
+        <v>0.155164</v>
       </c>
       <c r="E21" t="n">
-        <v>0.132131</v>
+        <v>0.132865</v>
       </c>
       <c r="F21" t="n">
-        <v>0.127895</v>
+        <v>0.130188</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133819</v>
+        <v>0.134251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.123621</v>
+        <v>0.125746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.156029</v>
+        <v>0.159609</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136265</v>
+        <v>0.137099</v>
       </c>
       <c r="F22" t="n">
-        <v>0.132108</v>
+        <v>0.136118</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141214</v>
+        <v>0.143632</v>
       </c>
       <c r="C23" t="n">
-        <v>0.132736</v>
+        <v>0.134429</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161531</v>
+        <v>0.163031</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1355</v>
+        <v>0.137553</v>
       </c>
       <c r="F23" t="n">
-        <v>0.130142</v>
+        <v>0.135607</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133537</v>
+        <v>0.133824</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121238</v>
+        <v>0.124124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.166207</v>
+        <v>0.167202</v>
       </c>
       <c r="E24" t="n">
-        <v>0.137051</v>
+        <v>0.137469</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131513</v>
+        <v>0.134129</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133852</v>
+        <v>0.132949</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123424</v>
+        <v>0.124374</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171792</v>
+        <v>0.172415</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136593</v>
+        <v>0.137535</v>
       </c>
       <c r="F25" t="n">
-        <v>0.134771</v>
+        <v>0.133207</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133522</v>
+        <v>0.133842</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122361</v>
+        <v>0.126013</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176077</v>
+        <v>0.177237</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136567</v>
+        <v>0.137285</v>
       </c>
       <c r="F26" t="n">
-        <v>0.13104</v>
+        <v>0.136779</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134213</v>
+        <v>0.133941</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122493</v>
+        <v>0.124083</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181077</v>
+        <v>0.180679</v>
       </c>
       <c r="E27" t="n">
-        <v>0.136825</v>
+        <v>0.137366</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131753</v>
+        <v>0.132462</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134233</v>
+        <v>0.134319</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122895</v>
+        <v>0.124954</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185761</v>
+        <v>0.184671</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137031</v>
+        <v>0.137245</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131394</v>
+        <v>0.133849</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134189</v>
+        <v>0.134436</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123238</v>
+        <v>0.123659</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190528</v>
+        <v>0.193431</v>
       </c>
       <c r="E29" t="n">
-        <v>0.136785</v>
+        <v>0.137702</v>
       </c>
       <c r="F29" t="n">
-        <v>0.131624</v>
+        <v>0.132732</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135612</v>
+        <v>0.135146</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123474</v>
+        <v>0.128723</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196117</v>
+        <v>0.195348</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137316</v>
+        <v>0.138771</v>
       </c>
       <c r="F30" t="n">
-        <v>0.13228</v>
+        <v>0.134059</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134965</v>
+        <v>0.135661</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123407</v>
+        <v>0.124639</v>
       </c>
       <c r="D31" t="n">
-        <v>0.202188</v>
+        <v>0.201703</v>
       </c>
       <c r="E31" t="n">
-        <v>0.137745</v>
+        <v>0.13959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.133865</v>
+        <v>0.135844</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135225</v>
+        <v>0.136439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.124493</v>
+        <v>0.127237</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20781</v>
+        <v>0.207258</v>
       </c>
       <c r="E32" t="n">
-        <v>0.13819</v>
+        <v>0.139525</v>
       </c>
       <c r="F32" t="n">
-        <v>0.134184</v>
+        <v>0.137955</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137694</v>
+        <v>0.137974</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127796</v>
+        <v>0.127239</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213004</v>
+        <v>0.211753</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139299</v>
+        <v>0.13975</v>
       </c>
       <c r="F33" t="n">
-        <v>0.135475</v>
+        <v>0.137643</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138424</v>
+        <v>0.137998</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128372</v>
+        <v>0.130788</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216874</v>
+        <v>0.218432</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141611</v>
+        <v>0.141694</v>
       </c>
       <c r="F34" t="n">
-        <v>0.136324</v>
+        <v>0.138063</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141188</v>
+        <v>0.140963</v>
       </c>
       <c r="C35" t="n">
-        <v>0.131327</v>
+        <v>0.133077</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16859</v>
+        <v>0.170457</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144816</v>
+        <v>0.146678</v>
       </c>
       <c r="F35" t="n">
-        <v>0.139982</v>
+        <v>0.141828</v>
       </c>
     </row>
     <row r="36">
@@ -5764,16 +5764,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147203</v>
+        <v>0.149197</v>
       </c>
       <c r="C36" t="n">
-        <v>0.137397</v>
+        <v>0.138878</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172168</v>
+        <v>0.173015</v>
       </c>
       <c r="E36" t="n">
-        <v>0.152767</v>
+        <v>0.152416</v>
       </c>
       <c r="F36" t="n">
         <v>0.148006</v>
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.15518</v>
+        <v>0.155093</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145335</v>
+        <v>0.14592</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176153</v>
+        <v>0.177522</v>
       </c>
       <c r="E37" t="n">
-        <v>0.146582</v>
+        <v>0.14881</v>
       </c>
       <c r="F37" t="n">
-        <v>0.14937</v>
+        <v>0.151374</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144809</v>
+        <v>0.146895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.139715</v>
+        <v>0.141114</v>
       </c>
       <c r="D38" t="n">
-        <v>0.180737</v>
+        <v>0.181039</v>
       </c>
       <c r="E38" t="n">
-        <v>0.149687</v>
+        <v>0.148813</v>
       </c>
       <c r="F38" t="n">
-        <v>0.148823</v>
+        <v>0.150852</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.144706</v>
+        <v>0.146584</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138544</v>
+        <v>0.14221</v>
       </c>
       <c r="D39" t="n">
-        <v>0.184831</v>
+        <v>0.185899</v>
       </c>
       <c r="E39" t="n">
-        <v>0.148247</v>
+        <v>0.14863</v>
       </c>
       <c r="F39" t="n">
-        <v>0.147547</v>
+        <v>0.151794</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.143959</v>
+        <v>0.145684</v>
       </c>
       <c r="C40" t="n">
-        <v>0.143817</v>
+        <v>0.14476</v>
       </c>
       <c r="D40" t="n">
-        <v>0.18984</v>
+        <v>0.190398</v>
       </c>
       <c r="E40" t="n">
-        <v>0.147137</v>
+        <v>0.150401</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1494</v>
+        <v>0.154657</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145912</v>
+        <v>0.147577</v>
       </c>
       <c r="C41" t="n">
-        <v>0.14039</v>
+        <v>0.140348</v>
       </c>
       <c r="D41" t="n">
-        <v>0.193876</v>
+        <v>0.194513</v>
       </c>
       <c r="E41" t="n">
-        <v>0.148103</v>
+        <v>0.151832</v>
       </c>
       <c r="F41" t="n">
-        <v>0.151142</v>
+        <v>0.150646</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.144952</v>
+        <v>0.14672</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143805</v>
+        <v>0.14217</v>
       </c>
       <c r="D42" t="n">
-        <v>0.198497</v>
+        <v>0.198178</v>
       </c>
       <c r="E42" t="n">
-        <v>0.150277</v>
+        <v>0.148767</v>
       </c>
       <c r="F42" t="n">
-        <v>0.148477</v>
+        <v>0.152888</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146918</v>
+        <v>0.148233</v>
       </c>
       <c r="C43" t="n">
-        <v>0.140206</v>
+        <v>0.140958</v>
       </c>
       <c r="D43" t="n">
-        <v>0.203602</v>
+        <v>0.204482</v>
       </c>
       <c r="E43" t="n">
-        <v>0.151518</v>
+        <v>0.148895</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14922</v>
+        <v>0.149894</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.146522</v>
+        <v>0.147377</v>
       </c>
       <c r="C44" t="n">
-        <v>0.140041</v>
+        <v>0.143698</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208351</v>
+        <v>0.209544</v>
       </c>
       <c r="E44" t="n">
-        <v>0.147845</v>
+        <v>0.15094</v>
       </c>
       <c r="F44" t="n">
-        <v>0.150854</v>
+        <v>0.154656</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147681</v>
+        <v>0.149608</v>
       </c>
       <c r="C45" t="n">
-        <v>0.141278</v>
+        <v>0.143123</v>
       </c>
       <c r="D45" t="n">
-        <v>0.213808</v>
+        <v>0.21574</v>
       </c>
       <c r="E45" t="n">
-        <v>0.149617</v>
+        <v>0.15341</v>
       </c>
       <c r="F45" t="n">
-        <v>0.150835</v>
+        <v>0.153867</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.147883</v>
+        <v>0.150845</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143238</v>
+        <v>0.143576</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219717</v>
+        <v>0.220308</v>
       </c>
       <c r="E46" t="n">
-        <v>0.152314</v>
+        <v>0.15345</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151658</v>
+        <v>0.15344</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150787</v>
+        <v>0.1518</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146519</v>
+        <v>0.145164</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225267</v>
+        <v>0.225767</v>
       </c>
       <c r="E47" t="n">
-        <v>0.153239</v>
+        <v>0.154937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153574</v>
+        <v>0.152678</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153168</v>
+        <v>0.154673</v>
       </c>
       <c r="C48" t="n">
-        <v>0.149001</v>
+        <v>0.148648</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229745</v>
+        <v>0.230129</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158008</v>
+        <v>0.157113</v>
       </c>
       <c r="F48" t="n">
-        <v>0.154796</v>
+        <v>0.157197</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156725</v>
+        <v>0.157391</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151726</v>
+        <v>0.152676</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233889</v>
+        <v>0.234676</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160863</v>
+        <v>0.158154</v>
       </c>
       <c r="F49" t="n">
-        <v>0.158865</v>
+        <v>0.159016</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160554</v>
+        <v>0.162577</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156552</v>
+        <v>0.157783</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171031</v>
+        <v>0.172376</v>
       </c>
       <c r="E50" t="n">
-        <v>0.163512</v>
+        <v>0.165356</v>
       </c>
       <c r="F50" t="n">
-        <v>0.165335</v>
+        <v>0.168682</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168474</v>
+        <v>0.166709</v>
       </c>
       <c r="C51" t="n">
-        <v>0.164607</v>
+        <v>0.164331</v>
       </c>
       <c r="D51" t="n">
-        <v>0.173837</v>
+        <v>0.17553</v>
       </c>
       <c r="E51" t="n">
-        <v>0.163208</v>
+        <v>0.163409</v>
       </c>
       <c r="F51" t="n">
-        <v>0.166055</v>
+        <v>0.16598</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174605</v>
+        <v>0.179462</v>
       </c>
       <c r="C52" t="n">
-        <v>0.170995</v>
+        <v>0.171783</v>
       </c>
       <c r="D52" t="n">
-        <v>0.177681</v>
+        <v>0.179215</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163803</v>
+        <v>0.164212</v>
       </c>
       <c r="F52" t="n">
-        <v>0.165849</v>
+        <v>0.165004</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159682</v>
+        <v>0.158925</v>
       </c>
       <c r="C53" t="n">
-        <v>0.157685</v>
+        <v>0.158329</v>
       </c>
       <c r="D53" t="n">
-        <v>0.181907</v>
+        <v>0.183565</v>
       </c>
       <c r="E53" t="n">
-        <v>0.163301</v>
+        <v>0.164625</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165751</v>
+        <v>0.165208</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159452</v>
+        <v>0.160516</v>
       </c>
       <c r="C54" t="n">
-        <v>0.158917</v>
+        <v>0.157523</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187799</v>
+        <v>0.187908</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163936</v>
+        <v>0.164026</v>
       </c>
       <c r="F54" t="n">
-        <v>0.165713</v>
+        <v>0.165807</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160623</v>
+        <v>0.159707</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159299</v>
+        <v>0.159254</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192575</v>
+        <v>0.192685</v>
       </c>
       <c r="E55" t="n">
-        <v>0.164165</v>
+        <v>0.164953</v>
       </c>
       <c r="F55" t="n">
-        <v>0.165923</v>
+        <v>0.1662</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160187</v>
+        <v>0.16042</v>
       </c>
       <c r="C56" t="n">
-        <v>0.158822</v>
+        <v>0.158938</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197894</v>
+        <v>0.197876</v>
       </c>
       <c r="E56" t="n">
-        <v>0.165439</v>
+        <v>0.164799</v>
       </c>
       <c r="F56" t="n">
-        <v>0.166171</v>
+        <v>0.166358</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160736</v>
+        <v>0.16087</v>
       </c>
       <c r="C57" t="n">
-        <v>0.16023</v>
+        <v>0.159041</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202925</v>
+        <v>0.202997</v>
       </c>
       <c r="E57" t="n">
-        <v>0.165105</v>
+        <v>0.165184</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166385</v>
+        <v>0.166984</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161001</v>
+        <v>0.161587</v>
       </c>
       <c r="C58" t="n">
-        <v>0.159958</v>
+        <v>0.161853</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207894</v>
+        <v>0.20809</v>
       </c>
       <c r="E58" t="n">
-        <v>0.165855</v>
+        <v>0.165608</v>
       </c>
       <c r="F58" t="n">
-        <v>0.167498</v>
+        <v>0.16693</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162067</v>
+        <v>0.161665</v>
       </c>
       <c r="C59" t="n">
-        <v>0.161777</v>
+        <v>0.1612</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212791</v>
+        <v>0.212926</v>
       </c>
       <c r="E59" t="n">
-        <v>0.166467</v>
+        <v>0.167813</v>
       </c>
       <c r="F59" t="n">
-        <v>0.167898</v>
+        <v>0.167792</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163303</v>
+        <v>0.16207</v>
       </c>
       <c r="C60" t="n">
-        <v>0.163902</v>
+        <v>0.161686</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218472</v>
+        <v>0.21827</v>
       </c>
       <c r="E60" t="n">
-        <v>0.166778</v>
+        <v>0.166783</v>
       </c>
       <c r="F60" t="n">
-        <v>0.169113</v>
+        <v>0.168515</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.163984</v>
+        <v>0.164237</v>
       </c>
       <c r="C61" t="n">
-        <v>0.16387</v>
+        <v>0.164442</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223264</v>
+        <v>0.222989</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168761</v>
+        <v>0.168494</v>
       </c>
       <c r="F61" t="n">
-        <v>0.171413</v>
+        <v>0.171306</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165901</v>
+        <v>0.16692</v>
       </c>
       <c r="C62" t="n">
-        <v>0.167034</v>
+        <v>0.167258</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228619</v>
+        <v>0.228368</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171467</v>
+        <v>0.171141</v>
       </c>
       <c r="F62" t="n">
-        <v>0.172724</v>
+        <v>0.172745</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169475</v>
+        <v>0.169012</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170121</v>
+        <v>0.171746</v>
       </c>
       <c r="D63" t="n">
-        <v>0.233053</v>
+        <v>0.232513</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174216</v>
+        <v>0.17359</v>
       </c>
       <c r="F63" t="n">
-        <v>0.177386</v>
+        <v>0.17718</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172684</v>
+        <v>0.173321</v>
       </c>
       <c r="C64" t="n">
-        <v>0.17477</v>
+        <v>0.175153</v>
       </c>
       <c r="D64" t="n">
-        <v>0.181107</v>
+        <v>0.18206</v>
       </c>
       <c r="E64" t="n">
-        <v>0.178188</v>
+        <v>0.178108</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182308</v>
+        <v>0.182511</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178738</v>
+        <v>0.178656</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181254</v>
+        <v>0.181223</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184366</v>
+        <v>0.184516</v>
       </c>
       <c r="E65" t="n">
-        <v>0.183497</v>
+        <v>0.184529</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188846</v>
+        <v>0.188707</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18602</v>
+        <v>0.186084</v>
       </c>
       <c r="C66" t="n">
-        <v>0.189374</v>
+        <v>0.18996</v>
       </c>
       <c r="D66" t="n">
-        <v>0.188295</v>
+        <v>0.189052</v>
       </c>
       <c r="E66" t="n">
-        <v>0.17529</v>
+        <v>0.174915</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176257</v>
+        <v>0.176963</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18175</v>
+        <v>0.18023</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170579</v>
+        <v>0.170789</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192877</v>
+        <v>0.192551</v>
       </c>
       <c r="E67" t="n">
-        <v>0.175793</v>
+        <v>0.175318</v>
       </c>
       <c r="F67" t="n">
-        <v>0.176623</v>
+        <v>0.176881</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179329</v>
+        <v>0.176454</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171106</v>
+        <v>0.170795</v>
       </c>
       <c r="D68" t="n">
-        <v>0.198555</v>
+        <v>0.198629</v>
       </c>
       <c r="E68" t="n">
-        <v>0.177043</v>
+        <v>0.175959</v>
       </c>
       <c r="F68" t="n">
-        <v>0.176892</v>
+        <v>0.177174</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.17802</v>
+        <v>0.179551</v>
       </c>
       <c r="C69" t="n">
-        <v>0.171283</v>
+        <v>0.171264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203604</v>
+        <v>0.205261</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176071</v>
+        <v>0.179816</v>
       </c>
       <c r="F69" t="n">
-        <v>0.177498</v>
+        <v>0.177866</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.177596</v>
+        <v>0.178716</v>
       </c>
       <c r="C70" t="n">
-        <v>0.171218</v>
+        <v>0.17175</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210635</v>
+        <v>0.212091</v>
       </c>
       <c r="E70" t="n">
-        <v>0.17657</v>
+        <v>0.177594</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178264</v>
+        <v>0.177928</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181499</v>
+        <v>0.180068</v>
       </c>
       <c r="C71" t="n">
-        <v>0.172242</v>
+        <v>0.171847</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217725</v>
+        <v>0.218508</v>
       </c>
       <c r="E71" t="n">
-        <v>0.176903</v>
+        <v>0.17813</v>
       </c>
       <c r="F71" t="n">
-        <v>0.17878</v>
+        <v>0.178931</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180706</v>
+        <v>0.184141</v>
       </c>
       <c r="C72" t="n">
-        <v>0.173344</v>
+        <v>0.172462</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225264</v>
+        <v>0.227079</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178378</v>
+        <v>0.177926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.179713</v>
+        <v>0.179133</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180736</v>
+        <v>0.180221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.173727</v>
+        <v>0.173859</v>
       </c>
       <c r="D73" t="n">
-        <v>0.233338</v>
+        <v>0.236941</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1789</v>
+        <v>0.178524</v>
       </c>
       <c r="F73" t="n">
-        <v>0.180455</v>
+        <v>0.18081</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186151</v>
+        <v>0.181816</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175312</v>
+        <v>0.175037</v>
       </c>
       <c r="D74" t="n">
-        <v>0.244774</v>
+        <v>0.243205</v>
       </c>
       <c r="E74" t="n">
-        <v>0.179772</v>
+        <v>0.179818</v>
       </c>
       <c r="F74" t="n">
-        <v>0.181901</v>
+        <v>0.181835</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.185419</v>
+        <v>0.182742</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176704</v>
+        <v>0.176828</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253246</v>
+        <v>0.254965</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181657</v>
+        <v>0.181726</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184053</v>
+        <v>0.183141</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186525</v>
+        <v>0.184598</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179381</v>
+        <v>0.179884</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264284</v>
+        <v>0.266735</v>
       </c>
       <c r="E76" t="n">
-        <v>0.183052</v>
+        <v>0.183394</v>
       </c>
       <c r="F76" t="n">
-        <v>0.185803</v>
+        <v>0.185953</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189907</v>
+        <v>0.193211</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182792</v>
+        <v>0.182721</v>
       </c>
       <c r="D77" t="n">
-        <v>0.273654</v>
+        <v>0.27593</v>
       </c>
       <c r="E77" t="n">
-        <v>0.185799</v>
+        <v>0.185842</v>
       </c>
       <c r="F77" t="n">
-        <v>0.188728</v>
+        <v>0.189004</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191876</v>
+        <v>0.194648</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186398</v>
+        <v>0.187365</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223567</v>
+        <v>0.226231</v>
       </c>
       <c r="E78" t="n">
-        <v>0.189873</v>
+        <v>0.189871</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193137</v>
+        <v>0.19332</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.195592</v>
+        <v>0.19667</v>
       </c>
       <c r="C79" t="n">
-        <v>0.192041</v>
+        <v>0.193174</v>
       </c>
       <c r="D79" t="n">
-        <v>0.233143</v>
+        <v>0.236919</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195186</v>
+        <v>0.196381</v>
       </c>
       <c r="F79" t="n">
-        <v>0.199832</v>
+        <v>0.199885</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.207184</v>
+        <v>0.202108</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200752</v>
+        <v>0.200912</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243314</v>
+        <v>0.246027</v>
       </c>
       <c r="E80" t="n">
-        <v>0.252827</v>
+        <v>0.254531</v>
       </c>
       <c r="F80" t="n">
-        <v>0.186462</v>
+        <v>0.187605</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.340762</v>
+        <v>0.343536</v>
       </c>
       <c r="C81" t="n">
-        <v>0.179904</v>
+        <v>0.180247</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259031</v>
+        <v>0.25822</v>
       </c>
       <c r="E81" t="n">
-        <v>0.253608</v>
+        <v>0.254041</v>
       </c>
       <c r="F81" t="n">
-        <v>0.186976</v>
+        <v>0.187513</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341183</v>
+        <v>0.346671</v>
       </c>
       <c r="C82" t="n">
-        <v>0.180785</v>
+        <v>0.181117</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270947</v>
+        <v>0.270762</v>
       </c>
       <c r="E82" t="n">
-        <v>0.253471</v>
+        <v>0.255508</v>
       </c>
       <c r="F82" t="n">
-        <v>0.188418</v>
+        <v>0.188287</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342088</v>
+        <v>0.343558</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181496</v>
+        <v>0.181042</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284527</v>
+        <v>0.285928</v>
       </c>
       <c r="E83" t="n">
-        <v>0.252759</v>
+        <v>0.255453</v>
       </c>
       <c r="F83" t="n">
-        <v>0.189134</v>
+        <v>0.188595</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342938</v>
+        <v>0.343567</v>
       </c>
       <c r="C84" t="n">
-        <v>0.181386</v>
+        <v>0.181971</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298721</v>
+        <v>0.300091</v>
       </c>
       <c r="E84" t="n">
-        <v>0.253961</v>
+        <v>0.254271</v>
       </c>
       <c r="F84" t="n">
-        <v>0.190087</v>
+        <v>0.190246</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.342237</v>
+        <v>0.347387</v>
       </c>
       <c r="C85" t="n">
-        <v>0.183244</v>
+        <v>0.183343</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314169</v>
+        <v>0.314108</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253065</v>
+        <v>0.254184</v>
       </c>
       <c r="F85" t="n">
-        <v>0.191631</v>
+        <v>0.19157</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.342018</v>
+        <v>0.343449</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184787</v>
+        <v>0.18404</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330399</v>
+        <v>0.330356</v>
       </c>
       <c r="E86" t="n">
-        <v>0.252668</v>
+        <v>0.254283</v>
       </c>
       <c r="F86" t="n">
-        <v>0.192618</v>
+        <v>0.192436</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.346075</v>
+        <v>0.341761</v>
       </c>
       <c r="C87" t="n">
-        <v>0.18678</v>
+        <v>0.185116</v>
       </c>
       <c r="D87" t="n">
-        <v>0.347515</v>
+        <v>0.344946</v>
       </c>
       <c r="E87" t="n">
-        <v>0.251475</v>
+        <v>0.255008</v>
       </c>
       <c r="F87" t="n">
-        <v>0.194528</v>
+        <v>0.194589</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346741</v>
+        <v>0.349801</v>
       </c>
       <c r="C88" t="n">
-        <v>0.188491</v>
+        <v>0.187866</v>
       </c>
       <c r="D88" t="n">
-        <v>0.363534</v>
+        <v>0.362123</v>
       </c>
       <c r="E88" t="n">
-        <v>0.253287</v>
+        <v>0.251343</v>
       </c>
       <c r="F88" t="n">
-        <v>0.196343</v>
+        <v>0.196577</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348437</v>
+        <v>0.348959</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188139</v>
+        <v>0.189318</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378347</v>
+        <v>0.376757</v>
       </c>
       <c r="E89" t="n">
-        <v>0.251362</v>
+        <v>0.248946</v>
       </c>
       <c r="F89" t="n">
-        <v>0.199847</v>
+        <v>0.198744</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.34936</v>
+        <v>0.346275</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191464</v>
+        <v>0.191678</v>
       </c>
       <c r="D90" t="n">
-        <v>0.395067</v>
+        <v>0.393849</v>
       </c>
       <c r="E90" t="n">
-        <v>0.251863</v>
+        <v>0.249924</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202267</v>
+        <v>0.202338</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.354445</v>
+        <v>0.346905</v>
       </c>
       <c r="C91" t="n">
-        <v>0.194982</v>
+        <v>0.196851</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40986</v>
+        <v>0.40836</v>
       </c>
       <c r="E91" t="n">
-        <v>0.251018</v>
+        <v>0.251617</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206195</v>
+        <v>0.20595</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.354568</v>
+        <v>0.35381</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200896</v>
+        <v>0.20227</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358936</v>
+        <v>0.358889</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252885</v>
+        <v>0.251762</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211568</v>
+        <v>0.211097</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3596</v>
+        <v>0.356702</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207777</v>
+        <v>0.207188</v>
       </c>
       <c r="D93" t="n">
-        <v>0.37425</v>
+        <v>0.373268</v>
       </c>
       <c r="E93" t="n">
-        <v>0.256489</v>
+        <v>0.255058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219501</v>
+        <v>0.21882</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.366102</v>
+        <v>0.363244</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217634</v>
+        <v>0.216645</v>
       </c>
       <c r="D94" t="n">
-        <v>0.383296</v>
+        <v>0.381295</v>
       </c>
       <c r="E94" t="n">
-        <v>0.410556</v>
+        <v>0.410302</v>
       </c>
       <c r="F94" t="n">
-        <v>0.273566</v>
+        <v>0.273494</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498666</v>
+        <v>0.497208</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279949</v>
+        <v>0.283385</v>
       </c>
       <c r="D95" t="n">
-        <v>0.400063</v>
+        <v>0.399953</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410944</v>
+        <v>0.409368</v>
       </c>
       <c r="F95" t="n">
-        <v>0.274978</v>
+        <v>0.27445</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.500189</v>
+        <v>0.498551</v>
       </c>
       <c r="C96" t="n">
-        <v>0.276589</v>
+        <v>0.282071</v>
       </c>
       <c r="D96" t="n">
-        <v>0.407827</v>
+        <v>0.407042</v>
       </c>
       <c r="E96" t="n">
-        <v>0.410392</v>
+        <v>0.40906</v>
       </c>
       <c r="F96" t="n">
-        <v>0.279809</v>
+        <v>0.274776</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.499647</v>
+        <v>0.497846</v>
       </c>
       <c r="C97" t="n">
-        <v>0.281583</v>
+        <v>0.279708</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424662</v>
+        <v>0.424394</v>
       </c>
       <c r="E97" t="n">
-        <v>0.411025</v>
+        <v>0.410237</v>
       </c>
       <c r="F97" t="n">
-        <v>0.278865</v>
+        <v>0.281914</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499572</v>
+        <v>0.498016</v>
       </c>
       <c r="C98" t="n">
-        <v>0.279617</v>
+        <v>0.282565</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435101</v>
+        <v>0.433632</v>
       </c>
       <c r="E98" t="n">
-        <v>0.409479</v>
+        <v>0.408487</v>
       </c>
       <c r="F98" t="n">
-        <v>0.281836</v>
+        <v>0.285209</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.500708</v>
+        <v>0.499121</v>
       </c>
       <c r="C99" t="n">
-        <v>0.282522</v>
+        <v>0.28132</v>
       </c>
       <c r="D99" t="n">
-        <v>0.454093</v>
+        <v>0.454825</v>
       </c>
       <c r="E99" t="n">
-        <v>0.40998</v>
+        <v>0.408674</v>
       </c>
       <c r="F99" t="n">
-        <v>0.28328</v>
+        <v>0.281736</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500126</v>
+        <v>0.499297</v>
       </c>
       <c r="C100" t="n">
-        <v>0.284161</v>
+        <v>0.286412</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466567</v>
+        <v>0.466428</v>
       </c>
       <c r="E100" t="n">
-        <v>0.409813</v>
+        <v>0.40899</v>
       </c>
       <c r="F100" t="n">
-        <v>0.279947</v>
+        <v>0.282858</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501242</v>
+        <v>0.500287</v>
       </c>
       <c r="C101" t="n">
-        <v>0.288204</v>
+        <v>0.286959</v>
       </c>
       <c r="D101" t="n">
-        <v>0.481408</v>
+        <v>0.482328</v>
       </c>
       <c r="E101" t="n">
-        <v>0.409645</v>
+        <v>0.409369</v>
       </c>
       <c r="F101" t="n">
-        <v>0.28358</v>
+        <v>0.284098</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502043</v>
+        <v>0.501433</v>
       </c>
       <c r="C102" t="n">
-        <v>0.284763</v>
+        <v>0.286359</v>
       </c>
       <c r="D102" t="n">
-        <v>0.498507</v>
+        <v>0.496831</v>
       </c>
       <c r="E102" t="n">
-        <v>0.410194</v>
+        <v>0.409008</v>
       </c>
       <c r="F102" t="n">
-        <v>0.282927</v>
+        <v>0.289739</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.503679</v>
+        <v>0.502533</v>
       </c>
       <c r="C103" t="n">
-        <v>0.289323</v>
+        <v>0.28909</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514035</v>
+        <v>0.512307</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409809</v>
+        <v>0.409959</v>
       </c>
       <c r="F103" t="n">
-        <v>0.287253</v>
+        <v>0.282021</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.505395</v>
+        <v>0.504703</v>
       </c>
       <c r="C104" t="n">
-        <v>0.290781</v>
+        <v>0.291456</v>
       </c>
       <c r="D104" t="n">
-        <v>0.529639</v>
+        <v>0.530128</v>
       </c>
       <c r="E104" t="n">
-        <v>0.410591</v>
+        <v>0.410412</v>
       </c>
       <c r="F104" t="n">
-        <v>0.288805</v>
+        <v>0.289329</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508815</v>
+        <v>0.507441</v>
       </c>
       <c r="C105" t="n">
-        <v>0.294424</v>
+        <v>0.295265</v>
       </c>
       <c r="D105" t="n">
-        <v>0.546737</v>
+        <v>0.543247</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412699</v>
+        <v>0.41278</v>
       </c>
       <c r="F105" t="n">
-        <v>0.293784</v>
+        <v>0.294718</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511854</v>
+        <v>0.509611</v>
       </c>
       <c r="C106" t="n">
-        <v>0.296254</v>
+        <v>0.300849</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56216</v>
+        <v>0.561328</v>
       </c>
       <c r="E106" t="n">
-        <v>0.41538</v>
+        <v>0.415026</v>
       </c>
       <c r="F106" t="n">
-        <v>0.299607</v>
+        <v>0.292191</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5165920000000001</v>
+        <v>0.515099</v>
       </c>
       <c r="C107" t="n">
-        <v>0.303502</v>
+        <v>0.305836</v>
       </c>
       <c r="D107" t="n">
-        <v>0.537629</v>
+        <v>0.538614</v>
       </c>
       <c r="E107" t="n">
-        <v>0.41991</v>
+        <v>0.419789</v>
       </c>
       <c r="F107" t="n">
-        <v>0.305009</v>
+        <v>0.299815</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5240320000000001</v>
+        <v>0.522666</v>
       </c>
       <c r="C108" t="n">
-        <v>0.313193</v>
+        <v>0.309663</v>
       </c>
       <c r="D108" t="n">
-        <v>0.550512</v>
+        <v>0.550934</v>
       </c>
       <c r="E108" t="n">
-        <v>0.546513</v>
+        <v>0.544937</v>
       </c>
       <c r="F108" t="n">
-        <v>0.495795</v>
+        <v>0.494407</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.535918</v>
+        <v>0.532983</v>
       </c>
       <c r="C109" t="n">
-        <v>0.326417</v>
+        <v>0.327945</v>
       </c>
       <c r="D109" t="n">
-        <v>0.555662</v>
+        <v>0.5560040000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546017</v>
+        <v>0.544633</v>
       </c>
       <c r="F109" t="n">
-        <v>0.498093</v>
+        <v>0.495766</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.580681</v>
+        <v>0.581518</v>
       </c>
       <c r="C110" t="n">
-        <v>0.496016</v>
+        <v>0.491615</v>
       </c>
       <c r="D110" t="n">
-        <v>0.569076</v>
+        <v>0.569055</v>
       </c>
       <c r="E110" t="n">
-        <v>0.547506</v>
+        <v>0.547525</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4988</v>
+        <v>0.499316</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.581458</v>
+        <v>0.579468</v>
       </c>
       <c r="C111" t="n">
-        <v>0.493835</v>
+        <v>0.496224</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584973</v>
+        <v>0.585157</v>
       </c>
       <c r="E111" t="n">
-        <v>0.548695</v>
+        <v>0.545867</v>
       </c>
       <c r="F111" t="n">
-        <v>0.499805</v>
+        <v>0.497573</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.582219</v>
+        <v>0.5803469999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.493367</v>
+        <v>0.493743</v>
       </c>
       <c r="D112" t="n">
-        <v>0.594436</v>
+        <v>0.594981</v>
       </c>
       <c r="E112" t="n">
-        <v>0.549394</v>
+        <v>0.546557</v>
       </c>
       <c r="F112" t="n">
-        <v>0.500995</v>
+        <v>0.49902</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.584181</v>
+        <v>0.579766</v>
       </c>
       <c r="C113" t="n">
-        <v>0.495211</v>
+        <v>0.494098</v>
       </c>
       <c r="D113" t="n">
-        <v>0.611074</v>
+        <v>0.6094079999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548962</v>
+        <v>0.546336</v>
       </c>
       <c r="F113" t="n">
-        <v>0.503259</v>
+        <v>0.499149</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.585707</v>
+        <v>0.582317</v>
       </c>
       <c r="C114" t="n">
-        <v>0.498981</v>
+        <v>0.498018</v>
       </c>
       <c r="D114" t="n">
-        <v>0.621929</v>
+        <v>0.619899</v>
       </c>
       <c r="E114" t="n">
-        <v>0.550627</v>
+        <v>0.548731</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5027199999999999</v>
+        <v>0.503964</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.586908</v>
+        <v>0.587164</v>
       </c>
       <c r="C115" t="n">
-        <v>0.49866</v>
+        <v>0.498563</v>
       </c>
       <c r="D115" t="n">
-        <v>0.633973</v>
+        <v>0.634037</v>
       </c>
       <c r="E115" t="n">
-        <v>0.551905</v>
+        <v>0.550346</v>
       </c>
       <c r="F115" t="n">
-        <v>0.503887</v>
+        <v>0.502779</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.587263</v>
+        <v>0.58599</v>
       </c>
       <c r="C116" t="n">
-        <v>0.497996</v>
+        <v>0.499381</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6522250000000001</v>
+        <v>0.65142</v>
       </c>
       <c r="E116" t="n">
-        <v>0.551872</v>
+        <v>0.553635</v>
       </c>
       <c r="F116" t="n">
-        <v>0.504923</v>
+        <v>0.506279</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587548</v>
+        <v>0.588212</v>
       </c>
       <c r="C117" t="n">
-        <v>0.503813</v>
+        <v>0.501175</v>
       </c>
       <c r="D117" t="n">
-        <v>0.67036</v>
+        <v>0.669579</v>
       </c>
       <c r="E117" t="n">
-        <v>0.554958</v>
+        <v>0.551477</v>
       </c>
       <c r="F117" t="n">
-        <v>0.507388</v>
+        <v>0.507633</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.592266</v>
+        <v>0.5900570000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.505368</v>
+        <v>0.509601</v>
       </c>
       <c r="D118" t="n">
-        <v>0.687554</v>
+        <v>0.686042</v>
       </c>
       <c r="E118" t="n">
-        <v>0.554982</v>
+        <v>0.553957</v>
       </c>
       <c r="F118" t="n">
-        <v>0.509713</v>
+        <v>0.507924</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.594147</v>
+        <v>0.591781</v>
       </c>
       <c r="C119" t="n">
-        <v>0.507984</v>
+        <v>0.511181</v>
       </c>
       <c r="D119" t="n">
-        <v>0.704585</v>
+        <v>0.7033779999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.557745</v>
+        <v>0.556571</v>
       </c>
       <c r="F119" t="n">
-        <v>0.514188</v>
+        <v>0.514825</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5994660000000001</v>
+        <v>0.597054</v>
       </c>
       <c r="C120" t="n">
-        <v>0.517954</v>
+        <v>0.513079</v>
       </c>
       <c r="D120" t="n">
-        <v>0.720646</v>
+        <v>0.718452</v>
       </c>
       <c r="E120" t="n">
-        <v>0.560798</v>
+        <v>0.561272</v>
       </c>
       <c r="F120" t="n">
-        <v>0.519435</v>
+        <v>0.518791</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6065390000000001</v>
+        <v>0.6029</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5235880000000001</v>
+        <v>0.5192</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640792</v>
+        <v>0.640043</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5680269999999999</v>
+        <v>0.565338</v>
       </c>
       <c r="F121" t="n">
-        <v>0.524663</v>
+        <v>0.524367</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6130060000000001</v>
+        <v>0.613695</v>
       </c>
       <c r="C122" t="n">
-        <v>0.532115</v>
+        <v>0.528859</v>
       </c>
       <c r="D122" t="n">
-        <v>0.650601</v>
+        <v>0.650087</v>
       </c>
       <c r="E122" t="n">
-        <v>0.574796</v>
+        <v>0.574037</v>
       </c>
       <c r="F122" t="n">
-        <v>0.533683</v>
+        <v>0.530982</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.625703</v>
+        <v>0.625175</v>
       </c>
       <c r="C123" t="n">
-        <v>0.545502</v>
+        <v>0.542539</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6644679999999999</v>
+        <v>0.66389</v>
       </c>
       <c r="E123" t="n">
-        <v>0.707751</v>
+        <v>0.703695</v>
       </c>
       <c r="F123" t="n">
-        <v>0.714855</v>
+        <v>0.713545</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.726399</v>
+        <v>0.722932</v>
       </c>
       <c r="C124" t="n">
-        <v>0.705671</v>
+        <v>0.702888</v>
       </c>
       <c r="D124" t="n">
-        <v>0.674168</v>
+        <v>0.673249</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707062</v>
+        <v>0.705134</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7147</v>
+        <v>0.712584</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7257439999999999</v>
+        <v>0.722591</v>
       </c>
       <c r="C125" t="n">
-        <v>0.708048</v>
+        <v>0.703335</v>
       </c>
       <c r="D125" t="n">
-        <v>0.68849</v>
+        <v>0.6868840000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.708362</v>
+        <v>0.7071460000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>0.718882</v>
+        <v>0.714596</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.724417</v>
+        <v>0.726176</v>
       </c>
       <c r="C126" t="n">
-        <v>0.710323</v>
+        <v>0.7039339999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.700645</v>
+        <v>0.699412</v>
       </c>
       <c r="E126" t="n">
-        <v>0.709023</v>
+        <v>0.705958</v>
       </c>
       <c r="F126" t="n">
-        <v>0.717506</v>
+        <v>0.713975</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.725904</v>
+        <v>0.723225</v>
       </c>
       <c r="C127" t="n">
-        <v>0.708133</v>
+        <v>0.707591</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714878</v>
+        <v>0.713512</v>
       </c>
       <c r="E127" t="n">
-        <v>0.707892</v>
+        <v>0.706489</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7202539999999999</v>
+        <v>0.716089</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.730051</v>
+        <v>0.72494</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7104510000000001</v>
+        <v>0.707908</v>
       </c>
       <c r="D128" t="n">
-        <v>0.731838</v>
+        <v>0.729571</v>
       </c>
       <c r="E128" t="n">
-        <v>0.71358</v>
+        <v>0.709689</v>
       </c>
       <c r="F128" t="n">
-        <v>0.722162</v>
+        <v>0.719086</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730741</v>
+        <v>0.727787</v>
       </c>
       <c r="C129" t="n">
-        <v>0.710766</v>
+        <v>0.708732</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744475</v>
+        <v>0.742868</v>
       </c>
       <c r="E129" t="n">
-        <v>0.710325</v>
+        <v>0.710359</v>
       </c>
       <c r="F129" t="n">
-        <v>0.721064</v>
+        <v>0.720642</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.730714</v>
+        <v>0.727863</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7150919999999999</v>
+        <v>0.712425</v>
       </c>
       <c r="D130" t="n">
-        <v>0.762189</v>
+        <v>0.760053</v>
       </c>
       <c r="E130" t="n">
-        <v>0.713014</v>
+        <v>0.712021</v>
       </c>
       <c r="F130" t="n">
-        <v>0.726396</v>
+        <v>0.7229</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.731542</v>
+        <v>0.731338</v>
       </c>
       <c r="C131" t="n">
-        <v>0.715745</v>
+        <v>0.7135359999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.775834</v>
+        <v>0.774393</v>
       </c>
       <c r="E131" t="n">
-        <v>0.716728</v>
+        <v>0.713114</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7279679999999999</v>
+        <v>0.724522</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73595</v>
+        <v>0.734761</v>
       </c>
       <c r="C132" t="n">
-        <v>0.71966</v>
+        <v>0.718954</v>
       </c>
       <c r="D132" t="n">
-        <v>0.790177</v>
+        <v>0.787923</v>
       </c>
       <c r="E132" t="n">
-        <v>0.718597</v>
+        <v>0.713838</v>
       </c>
       <c r="F132" t="n">
-        <v>0.732936</v>
+        <v>0.727299</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.738287</v>
+        <v>0.736222</v>
       </c>
       <c r="C133" t="n">
-        <v>0.725252</v>
+        <v>0.721274</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807194</v>
+        <v>0.8054559999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.720202</v>
+        <v>0.718953</v>
       </c>
       <c r="F133" t="n">
-        <v>0.733863</v>
+        <v>0.731696</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.74476</v>
+        <v>0.741702</v>
       </c>
       <c r="C134" t="n">
-        <v>0.729185</v>
+        <v>0.728945</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824464</v>
+        <v>0.821515</v>
       </c>
       <c r="E134" t="n">
-        <v>0.724869</v>
+        <v>0.722807</v>
       </c>
       <c r="F134" t="n">
-        <v>0.741188</v>
+        <v>0.738613</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.751142</v>
+        <v>0.746905</v>
       </c>
       <c r="C135" t="n">
-        <v>0.738724</v>
+        <v>0.736075</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69333</v>
+        <v>0.691662</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7296550000000001</v>
+        <v>0.72756</v>
       </c>
       <c r="F135" t="n">
-        <v>0.748152</v>
+        <v>0.744266</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.760265</v>
+        <v>0.758289</v>
       </c>
       <c r="C136" t="n">
-        <v>0.744512</v>
+        <v>0.7458090000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702043</v>
+        <v>0.7005130000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.737769</v>
+        <v>0.733838</v>
       </c>
       <c r="F136" t="n">
-        <v>0.758848</v>
+        <v>0.7561369999999999</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7712909999999999</v>
+        <v>0.767802</v>
       </c>
       <c r="C137" t="n">
-        <v>0.763049</v>
+        <v>0.76127</v>
       </c>
       <c r="D137" t="n">
-        <v>0.713066</v>
+        <v>0.7117560000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.843594</v>
+        <v>0.840427</v>
       </c>
       <c r="F137" t="n">
-        <v>0.84833</v>
+        <v>0.843432</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.856808</v>
+        <v>0.851322</v>
       </c>
       <c r="C138" t="n">
-        <v>0.84532</v>
+        <v>0.84116</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726529</v>
+        <v>0.724336</v>
       </c>
       <c r="E138" t="n">
-        <v>0.844628</v>
+        <v>0.840377</v>
       </c>
       <c r="F138" t="n">
-        <v>0.849319</v>
+        <v>0.845672</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.858746</v>
+        <v>0.853178</v>
       </c>
       <c r="C139" t="n">
-        <v>0.847332</v>
+        <v>0.840925</v>
       </c>
       <c r="D139" t="n">
-        <v>0.738456</v>
+        <v>0.73629</v>
       </c>
       <c r="E139" t="n">
-        <v>0.846011</v>
+        <v>0.8416090000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>0.852866</v>
+        <v>0.846788</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.856861</v>
+        <v>0.853197</v>
       </c>
       <c r="C140" t="n">
-        <v>0.846654</v>
+        <v>0.842383</v>
       </c>
       <c r="D140" t="n">
-        <v>0.751432</v>
+        <v>0.749573</v>
       </c>
       <c r="E140" t="n">
-        <v>0.845908</v>
+        <v>0.841815</v>
       </c>
       <c r="F140" t="n">
-        <v>0.853379</v>
+        <v>0.848832</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.857986</v>
+        <v>0.852866</v>
       </c>
       <c r="C141" t="n">
-        <v>0.848649</v>
+        <v>0.842839</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766236</v>
+        <v>0.763713</v>
       </c>
       <c r="E141" t="n">
-        <v>0.84689</v>
+        <v>0.842417</v>
       </c>
       <c r="F141" t="n">
-        <v>0.853998</v>
+        <v>0.848905</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8589560000000001</v>
+        <v>0.85377</v>
       </c>
       <c r="C142" t="n">
-        <v>0.850903</v>
+        <v>0.844988</v>
       </c>
       <c r="D142" t="n">
-        <v>0.777609</v>
+        <v>0.775746</v>
       </c>
       <c r="E142" t="n">
-        <v>0.849948</v>
+        <v>0.844184</v>
       </c>
       <c r="F142" t="n">
-        <v>0.85726</v>
+        <v>0.852194</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.861144</v>
+        <v>0.855945</v>
       </c>
       <c r="C143" t="n">
-        <v>0.853186</v>
+        <v>0.847397</v>
       </c>
       <c r="D143" t="n">
-        <v>0.794089</v>
+        <v>0.7920779999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.8502110000000001</v>
+        <v>0.8448329999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8589059999999999</v>
+        <v>0.853347</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110755</v>
+        <v>0.110872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10827</v>
+        <v>0.10801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.135686</v>
+        <v>0.128768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.119803</v>
+        <v>0.123999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.121403</v>
+        <v>0.126371</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110303</v>
+        <v>0.111136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107677</v>
+        <v>0.107753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141381</v>
+        <v>0.138675</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119773</v>
+        <v>0.124255</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121607</v>
+        <v>0.126308</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110404</v>
+        <v>0.111504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108151</v>
+        <v>0.107726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147326</v>
+        <v>0.145541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.120205</v>
+        <v>0.124484</v>
       </c>
       <c r="F4" t="n">
-        <v>0.122458</v>
+        <v>0.126969</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111453</v>
+        <v>0.112098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10954</v>
+        <v>0.108352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155411</v>
+        <v>0.153852</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120887</v>
+        <v>0.124918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122185</v>
+        <v>0.127043</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113014</v>
+        <v>0.112579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110241</v>
+        <v>0.109372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160052</v>
+        <v>0.160551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121551</v>
+        <v>0.125621</v>
       </c>
       <c r="F6" t="n">
-        <v>0.123035</v>
+        <v>0.128018</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114223</v>
+        <v>0.114188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111769</v>
+        <v>0.11056</v>
       </c>
       <c r="D7" t="n">
-        <v>0.132942</v>
+        <v>0.128058</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122455</v>
+        <v>0.126979</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124051</v>
+        <v>0.128907</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116273</v>
+        <v>0.115382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114509</v>
+        <v>0.113587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.135527</v>
+        <v>0.132207</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124991</v>
+        <v>0.128341</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125942</v>
+        <v>0.131348</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122183</v>
+        <v>0.120208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119864</v>
+        <v>0.116448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.140257</v>
+        <v>0.135381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.125837</v>
+        <v>0.131785</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123252</v>
+        <v>0.127549</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121012</v>
+        <v>0.12283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110752</v>
+        <v>0.110722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.144434</v>
+        <v>0.140324</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125967</v>
+        <v>0.131037</v>
       </c>
       <c r="F10" t="n">
-        <v>0.123407</v>
+        <v>0.127831</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121836</v>
+        <v>0.122283</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110907</v>
+        <v>0.110987</v>
       </c>
       <c r="D11" t="n">
-        <v>0.148437</v>
+        <v>0.145397</v>
       </c>
       <c r="E11" t="n">
-        <v>0.126474</v>
+        <v>0.131388</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123545</v>
+        <v>0.128031</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122192</v>
+        <v>0.123206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111693</v>
+        <v>0.111265</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153441</v>
+        <v>0.150977</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12645</v>
+        <v>0.13138</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123639</v>
+        <v>0.128146</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122846</v>
+        <v>0.123817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113079</v>
+        <v>0.1133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159149</v>
+        <v>0.15617</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127118</v>
+        <v>0.132111</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123688</v>
+        <v>0.129714</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123618</v>
+        <v>0.12385</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113805</v>
+        <v>0.111946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165195</v>
+        <v>0.163211</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127639</v>
+        <v>0.13232</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12377</v>
+        <v>0.129998</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122767</v>
+        <v>0.124016</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113416</v>
+        <v>0.112803</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171723</v>
+        <v>0.171861</v>
       </c>
       <c r="E15" t="n">
-        <v>0.128048</v>
+        <v>0.13245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124176</v>
+        <v>0.128673</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123564</v>
+        <v>0.124107</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11317</v>
+        <v>0.112753</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177362</v>
+        <v>0.176985</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12787</v>
+        <v>0.132561</v>
       </c>
       <c r="F16" t="n">
-        <v>0.12443</v>
+        <v>0.129639</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124694</v>
+        <v>0.124574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113036</v>
+        <v>0.114773</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183146</v>
+        <v>0.183808</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128041</v>
+        <v>0.132436</v>
       </c>
       <c r="F17" t="n">
-        <v>0.124923</v>
+        <v>0.129206</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125158</v>
+        <v>0.124014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113666</v>
+        <v>0.113421</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18856</v>
+        <v>0.188947</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128818</v>
+        <v>0.133031</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125362</v>
+        <v>0.131119</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125665</v>
+        <v>0.125751</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11458</v>
+        <v>0.115906</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1941</v>
+        <v>0.195913</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128847</v>
+        <v>0.133778</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125806</v>
+        <v>0.130073</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126731</v>
+        <v>0.126607</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116237</v>
+        <v>0.116029</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20001</v>
+        <v>0.200892</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130329</v>
+        <v>0.134021</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126534</v>
+        <v>0.132611</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128868</v>
+        <v>0.128386</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11888</v>
+        <v>0.120349</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153717</v>
+        <v>0.15238</v>
       </c>
       <c r="E21" t="n">
-        <v>0.131934</v>
+        <v>0.135699</v>
       </c>
       <c r="F21" t="n">
-        <v>0.127855</v>
+        <v>0.132624</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132676</v>
+        <v>0.132861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.121973</v>
+        <v>0.122977</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157524</v>
+        <v>0.155777</v>
       </c>
       <c r="E22" t="n">
-        <v>0.136138</v>
+        <v>0.139419</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131853</v>
+        <v>0.136998</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140787</v>
+        <v>0.139824</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131292</v>
+        <v>0.132606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162788</v>
+        <v>0.159765</v>
       </c>
       <c r="E23" t="n">
-        <v>0.135625</v>
+        <v>0.140214</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131881</v>
+        <v>0.135642</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1337</v>
+        <v>0.133109</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122135</v>
+        <v>0.121385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167625</v>
+        <v>0.168133</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136283</v>
+        <v>0.139871</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131885</v>
+        <v>0.135908</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134208</v>
+        <v>0.135829</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122957</v>
+        <v>0.121831</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171834</v>
+        <v>0.172385</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136371</v>
+        <v>0.14018</v>
       </c>
       <c r="F25" t="n">
-        <v>0.132177</v>
+        <v>0.136291</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133577</v>
+        <v>0.134052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122857</v>
+        <v>0.122178</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177008</v>
+        <v>0.176731</v>
       </c>
       <c r="E26" t="n">
-        <v>0.136436</v>
+        <v>0.140257</v>
       </c>
       <c r="F26" t="n">
-        <v>0.131705</v>
+        <v>0.13597</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133929</v>
+        <v>0.134235</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122013</v>
+        <v>0.120979</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181778</v>
+        <v>0.180954</v>
       </c>
       <c r="E27" t="n">
-        <v>0.136685</v>
+        <v>0.141219</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131595</v>
+        <v>0.136961</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134262</v>
+        <v>0.135581</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12368</v>
+        <v>0.122548</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186568</v>
+        <v>0.185605</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137245</v>
+        <v>0.141719</v>
       </c>
       <c r="F28" t="n">
-        <v>0.131578</v>
+        <v>0.136779</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134735</v>
+        <v>0.134531</v>
       </c>
       <c r="C29" t="n">
-        <v>0.124289</v>
+        <v>0.123496</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192348</v>
+        <v>0.192031</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137671</v>
+        <v>0.141161</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132818</v>
+        <v>0.137721</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135106</v>
+        <v>0.135182</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124365</v>
+        <v>0.123167</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196557</v>
+        <v>0.196869</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137188</v>
+        <v>0.141405</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132166</v>
+        <v>0.137108</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134864</v>
+        <v>0.135436</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123708</v>
+        <v>0.123112</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201715</v>
+        <v>0.202611</v>
       </c>
       <c r="E31" t="n">
-        <v>0.138148</v>
+        <v>0.142192</v>
       </c>
       <c r="F31" t="n">
-        <v>0.132505</v>
+        <v>0.13987</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135622</v>
+        <v>0.136268</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125448</v>
+        <v>0.125398</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207784</v>
+        <v>0.20777</v>
       </c>
       <c r="E32" t="n">
-        <v>0.139682</v>
+        <v>0.142554</v>
       </c>
       <c r="F32" t="n">
-        <v>0.13392</v>
+        <v>0.140362</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136503</v>
+        <v>0.136763</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126609</v>
+        <v>0.126723</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21287</v>
+        <v>0.212614</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139433</v>
+        <v>0.143562</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134902</v>
+        <v>0.13996</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138478</v>
+        <v>0.138972</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127751</v>
+        <v>0.127871</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217725</v>
+        <v>0.217567</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141867</v>
+        <v>0.144903</v>
       </c>
       <c r="F34" t="n">
-        <v>0.135819</v>
+        <v>0.141621</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141544</v>
+        <v>0.142147</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130761</v>
+        <v>0.13126</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169705</v>
+        <v>0.168287</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146028</v>
+        <v>0.148587</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140091</v>
+        <v>0.145833</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146818</v>
+        <v>0.147564</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136774</v>
+        <v>0.137607</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173872</v>
+        <v>0.171633</v>
       </c>
       <c r="E36" t="n">
-        <v>0.153019</v>
+        <v>0.155862</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148757</v>
+        <v>0.153684</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154442</v>
+        <v>0.155769</v>
       </c>
       <c r="C37" t="n">
-        <v>0.146038</v>
+        <v>0.145899</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178323</v>
+        <v>0.176055</v>
       </c>
       <c r="E37" t="n">
-        <v>0.146334</v>
+        <v>0.154155</v>
       </c>
       <c r="F37" t="n">
-        <v>0.150822</v>
+        <v>0.152476</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14539</v>
+        <v>0.146598</v>
       </c>
       <c r="C38" t="n">
-        <v>0.14239</v>
+        <v>0.140212</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183457</v>
+        <v>0.181191</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148505</v>
+        <v>0.154418</v>
       </c>
       <c r="F38" t="n">
-        <v>0.149804</v>
+        <v>0.151929</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145687</v>
+        <v>0.147398</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141516</v>
+        <v>0.139426</v>
       </c>
       <c r="D39" t="n">
-        <v>0.187395</v>
+        <v>0.185054</v>
       </c>
       <c r="E39" t="n">
-        <v>0.150264</v>
+        <v>0.153565</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149556</v>
+        <v>0.153985</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144994</v>
+        <v>0.145633</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14035</v>
+        <v>0.14061</v>
       </c>
       <c r="D40" t="n">
-        <v>0.192565</v>
+        <v>0.189076</v>
       </c>
       <c r="E40" t="n">
-        <v>0.14728</v>
+        <v>0.152624</v>
       </c>
       <c r="F40" t="n">
-        <v>0.151084</v>
+        <v>0.154212</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146554</v>
+        <v>0.145778</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142368</v>
+        <v>0.139863</v>
       </c>
       <c r="D41" t="n">
-        <v>0.196685</v>
+        <v>0.193835</v>
       </c>
       <c r="E41" t="n">
-        <v>0.150313</v>
+        <v>0.153848</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150385</v>
+        <v>0.153027</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147259</v>
+        <v>0.1458</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141225</v>
+        <v>0.139805</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20156</v>
+        <v>0.198679</v>
       </c>
       <c r="E42" t="n">
-        <v>0.150253</v>
+        <v>0.155208</v>
       </c>
       <c r="F42" t="n">
-        <v>0.149963</v>
+        <v>0.154359</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14692</v>
+        <v>0.148099</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14241</v>
+        <v>0.139133</v>
       </c>
       <c r="D43" t="n">
-        <v>0.206681</v>
+        <v>0.203701</v>
       </c>
       <c r="E43" t="n">
-        <v>0.147952</v>
+        <v>0.155142</v>
       </c>
       <c r="F43" t="n">
-        <v>0.150768</v>
+        <v>0.154269</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147508</v>
+        <v>0.150249</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141449</v>
+        <v>0.139484</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211567</v>
+        <v>0.208422</v>
       </c>
       <c r="E44" t="n">
-        <v>0.149312</v>
+        <v>0.155183</v>
       </c>
       <c r="F44" t="n">
-        <v>0.152662</v>
+        <v>0.154743</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148076</v>
+        <v>0.146873</v>
       </c>
       <c r="C45" t="n">
-        <v>0.141225</v>
+        <v>0.142104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216798</v>
+        <v>0.213546</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150009</v>
+        <v>0.155688</v>
       </c>
       <c r="F45" t="n">
-        <v>0.151464</v>
+        <v>0.154449</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148967</v>
+        <v>0.149831</v>
       </c>
       <c r="C46" t="n">
-        <v>0.145313</v>
+        <v>0.142624</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22197</v>
+        <v>0.219431</v>
       </c>
       <c r="E46" t="n">
-        <v>0.152536</v>
+        <v>0.155674</v>
       </c>
       <c r="F46" t="n">
-        <v>0.153299</v>
+        <v>0.157622</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150633</v>
+        <v>0.150996</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146647</v>
+        <v>0.144398</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227884</v>
+        <v>0.224853</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1521</v>
+        <v>0.156474</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153343</v>
+        <v>0.156288</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152978</v>
+        <v>0.153962</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148089</v>
+        <v>0.149224</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231798</v>
+        <v>0.229276</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157218</v>
+        <v>0.160165</v>
       </c>
       <c r="F48" t="n">
-        <v>0.155335</v>
+        <v>0.159988</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156967</v>
+        <v>0.156617</v>
       </c>
       <c r="C49" t="n">
-        <v>0.152569</v>
+        <v>0.150314</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236525</v>
+        <v>0.233828</v>
       </c>
       <c r="E49" t="n">
-        <v>0.160897</v>
+        <v>0.163886</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159115</v>
+        <v>0.163821</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161641</v>
+        <v>0.160674</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157624</v>
+        <v>0.157293</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172352</v>
+        <v>0.170931</v>
       </c>
       <c r="E50" t="n">
-        <v>0.166194</v>
+        <v>0.16935</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164329</v>
+        <v>0.170594</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168551</v>
+        <v>0.167254</v>
       </c>
       <c r="C51" t="n">
-        <v>0.162368</v>
+        <v>0.163339</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175787</v>
+        <v>0.174395</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162604</v>
+        <v>0.166511</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165509</v>
+        <v>0.169256</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176983</v>
+        <v>0.179081</v>
       </c>
       <c r="C52" t="n">
-        <v>0.17246</v>
+        <v>0.171395</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178989</v>
+        <v>0.177839</v>
       </c>
       <c r="E52" t="n">
-        <v>0.163793</v>
+        <v>0.167893</v>
       </c>
       <c r="F52" t="n">
-        <v>0.16598</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158945</v>
+        <v>0.163007</v>
       </c>
       <c r="C53" t="n">
-        <v>0.158505</v>
+        <v>0.157047</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183644</v>
+        <v>0.182072</v>
       </c>
       <c r="E53" t="n">
-        <v>0.16299</v>
+        <v>0.170084</v>
       </c>
       <c r="F53" t="n">
-        <v>0.165671</v>
+        <v>0.171727</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159921</v>
+        <v>0.158394</v>
       </c>
       <c r="C54" t="n">
-        <v>0.158851</v>
+        <v>0.157256</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188202</v>
+        <v>0.186117</v>
       </c>
       <c r="E54" t="n">
-        <v>0.163047</v>
+        <v>0.169225</v>
       </c>
       <c r="F54" t="n">
-        <v>0.166987</v>
+        <v>0.171624</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159349</v>
+        <v>0.158034</v>
       </c>
       <c r="C55" t="n">
-        <v>0.159385</v>
+        <v>0.157643</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192959</v>
+        <v>0.190186</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16419</v>
+        <v>0.169128</v>
       </c>
       <c r="F55" t="n">
-        <v>0.166702</v>
+        <v>0.170206</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159738</v>
+        <v>0.159086</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159176</v>
+        <v>0.158044</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197929</v>
+        <v>0.195502</v>
       </c>
       <c r="E56" t="n">
-        <v>0.164168</v>
+        <v>0.168235</v>
       </c>
       <c r="F56" t="n">
-        <v>0.167354</v>
+        <v>0.170092</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160689</v>
+        <v>0.160901</v>
       </c>
       <c r="C57" t="n">
-        <v>0.161121</v>
+        <v>0.158822</v>
       </c>
       <c r="D57" t="n">
-        <v>0.204015</v>
+        <v>0.200007</v>
       </c>
       <c r="E57" t="n">
-        <v>0.165231</v>
+        <v>0.170099</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166927</v>
+        <v>0.172338</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161065</v>
+        <v>0.161121</v>
       </c>
       <c r="C58" t="n">
-        <v>0.161126</v>
+        <v>0.158724</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208064</v>
+        <v>0.205129</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164826</v>
+        <v>0.170072</v>
       </c>
       <c r="F58" t="n">
-        <v>0.16837</v>
+        <v>0.171202</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161126</v>
+        <v>0.161486</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162699</v>
+        <v>0.15938</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213197</v>
+        <v>0.211058</v>
       </c>
       <c r="E59" t="n">
-        <v>0.165878</v>
+        <v>0.170495</v>
       </c>
       <c r="F59" t="n">
-        <v>0.168685</v>
+        <v>0.171181</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16189</v>
+        <v>0.161644</v>
       </c>
       <c r="C60" t="n">
-        <v>0.164083</v>
+        <v>0.161253</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218751</v>
+        <v>0.215786</v>
       </c>
       <c r="E60" t="n">
-        <v>0.167209</v>
+        <v>0.171964</v>
       </c>
       <c r="F60" t="n">
-        <v>0.170605</v>
+        <v>0.173856</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165293</v>
+        <v>0.163187</v>
       </c>
       <c r="C61" t="n">
-        <v>0.165224</v>
+        <v>0.162602</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223903</v>
+        <v>0.220945</v>
       </c>
       <c r="E61" t="n">
-        <v>0.168619</v>
+        <v>0.172654</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172059</v>
+        <v>0.175566</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16624</v>
+        <v>0.166338</v>
       </c>
       <c r="C62" t="n">
-        <v>0.167544</v>
+        <v>0.16538</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228825</v>
+        <v>0.225915</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171765</v>
+        <v>0.174565</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174042</v>
+        <v>0.177443</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170134</v>
+        <v>0.169938</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170943</v>
+        <v>0.169228</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232846</v>
+        <v>0.230522</v>
       </c>
       <c r="E63" t="n">
-        <v>0.174334</v>
+        <v>0.177686</v>
       </c>
       <c r="F63" t="n">
-        <v>0.17714</v>
+        <v>0.180537</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173719</v>
+        <v>0.173202</v>
       </c>
       <c r="C64" t="n">
-        <v>0.173023</v>
+        <v>0.172761</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18116</v>
+        <v>0.177076</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177953</v>
+        <v>0.181779</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181129</v>
+        <v>0.185406</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17966</v>
+        <v>0.178068</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181277</v>
+        <v>0.177993</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184171</v>
+        <v>0.179577</v>
       </c>
       <c r="E65" t="n">
-        <v>0.184352</v>
+        <v>0.188289</v>
       </c>
       <c r="F65" t="n">
-        <v>0.188928</v>
+        <v>0.192563</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1866</v>
+        <v>0.18728</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188938</v>
+        <v>0.187238</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18806</v>
+        <v>0.184341</v>
       </c>
       <c r="E66" t="n">
-        <v>0.175965</v>
+        <v>0.179825</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176676</v>
+        <v>0.176907</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178045</v>
+        <v>0.176163</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170617</v>
+        <v>0.168538</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192545</v>
+        <v>0.189307</v>
       </c>
       <c r="E67" t="n">
-        <v>0.17545</v>
+        <v>0.181139</v>
       </c>
       <c r="F67" t="n">
-        <v>0.177436</v>
+        <v>0.176593</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177721</v>
+        <v>0.177583</v>
       </c>
       <c r="C68" t="n">
-        <v>0.171187</v>
+        <v>0.168819</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197676</v>
+        <v>0.195146</v>
       </c>
       <c r="E68" t="n">
-        <v>0.176157</v>
+        <v>0.179788</v>
       </c>
       <c r="F68" t="n">
-        <v>0.177664</v>
+        <v>0.18063</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180368</v>
+        <v>0.176384</v>
       </c>
       <c r="C69" t="n">
-        <v>0.171049</v>
+        <v>0.169083</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204416</v>
+        <v>0.200743</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176526</v>
+        <v>0.179979</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178082</v>
+        <v>0.180908</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182754</v>
+        <v>0.179277</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17161</v>
+        <v>0.169673</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211916</v>
+        <v>0.208102</v>
       </c>
       <c r="E70" t="n">
-        <v>0.178542</v>
+        <v>0.181496</v>
       </c>
       <c r="F70" t="n">
-        <v>0.178443</v>
+        <v>0.181829</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181209</v>
+        <v>0.178934</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17192</v>
+        <v>0.170423</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217943</v>
+        <v>0.214525</v>
       </c>
       <c r="E71" t="n">
-        <v>0.177723</v>
+        <v>0.18059</v>
       </c>
       <c r="F71" t="n">
-        <v>0.178786</v>
+        <v>0.182484</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181542</v>
+        <v>0.179942</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172519</v>
+        <v>0.170804</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224524</v>
+        <v>0.222752</v>
       </c>
       <c r="E72" t="n">
-        <v>0.178272</v>
+        <v>0.181306</v>
       </c>
       <c r="F72" t="n">
-        <v>0.180176</v>
+        <v>0.182826</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181829</v>
+        <v>0.18056</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174176</v>
+        <v>0.172155</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236116</v>
+        <v>0.23175</v>
       </c>
       <c r="E73" t="n">
-        <v>0.178898</v>
+        <v>0.182744</v>
       </c>
       <c r="F73" t="n">
-        <v>0.181173</v>
+        <v>0.184549</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18078</v>
+        <v>0.183063</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175075</v>
+        <v>0.173942</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24148</v>
+        <v>0.240997</v>
       </c>
       <c r="E74" t="n">
-        <v>0.181043</v>
+        <v>0.183767</v>
       </c>
       <c r="F74" t="n">
-        <v>0.182205</v>
+        <v>0.18597</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183566</v>
+        <v>0.18813</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176565</v>
+        <v>0.175466</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252292</v>
+        <v>0.252019</v>
       </c>
       <c r="E75" t="n">
-        <v>0.181722</v>
+        <v>0.186461</v>
       </c>
       <c r="F75" t="n">
-        <v>0.184092</v>
+        <v>0.187494</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185839</v>
+        <v>0.187793</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179244</v>
+        <v>0.177589</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262186</v>
+        <v>0.260375</v>
       </c>
       <c r="E76" t="n">
-        <v>0.183866</v>
+        <v>0.188922</v>
       </c>
       <c r="F76" t="n">
-        <v>0.186279</v>
+        <v>0.189364</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188123</v>
+        <v>0.190803</v>
       </c>
       <c r="C77" t="n">
-        <v>0.182967</v>
+        <v>0.181549</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269465</v>
+        <v>0.270423</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186962</v>
+        <v>0.188905</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18907</v>
+        <v>0.192756</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194221</v>
+        <v>0.194492</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186368</v>
+        <v>0.185933</v>
       </c>
       <c r="D78" t="n">
-        <v>0.226555</v>
+        <v>0.221631</v>
       </c>
       <c r="E78" t="n">
-        <v>0.190058</v>
+        <v>0.193279</v>
       </c>
       <c r="F78" t="n">
-        <v>0.193588</v>
+        <v>0.196985</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198732</v>
+        <v>0.199497</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191693</v>
+        <v>0.191645</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23363</v>
+        <v>0.22931</v>
       </c>
       <c r="E79" t="n">
-        <v>0.195956</v>
+        <v>0.198456</v>
       </c>
       <c r="F79" t="n">
-        <v>0.199861</v>
+        <v>0.204349</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205963</v>
+        <v>0.205098</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200451</v>
+        <v>0.20108</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243097</v>
+        <v>0.24063</v>
       </c>
       <c r="E80" t="n">
-        <v>0.255005</v>
+        <v>0.264128</v>
       </c>
       <c r="F80" t="n">
-        <v>0.187612</v>
+        <v>0.191924</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338354</v>
+        <v>0.350238</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182346</v>
+        <v>0.178832</v>
       </c>
       <c r="D81" t="n">
-        <v>0.259289</v>
+        <v>0.249666</v>
       </c>
       <c r="E81" t="n">
-        <v>0.25373</v>
+        <v>0.261303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.187597</v>
+        <v>0.191737</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342518</v>
+        <v>0.345822</v>
       </c>
       <c r="C82" t="n">
-        <v>0.18031</v>
+        <v>0.179308</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271069</v>
+        <v>0.26276</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256708</v>
+        <v>0.265489</v>
       </c>
       <c r="F82" t="n">
-        <v>0.18869</v>
+        <v>0.190924</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344702</v>
+        <v>0.34796</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181611</v>
+        <v>0.180657</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285882</v>
+        <v>0.275802</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254742</v>
+        <v>0.262335</v>
       </c>
       <c r="F83" t="n">
-        <v>0.189326</v>
+        <v>0.193496</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345485</v>
+        <v>0.346807</v>
       </c>
       <c r="C84" t="n">
-        <v>0.182163</v>
+        <v>0.181319</v>
       </c>
       <c r="D84" t="n">
-        <v>0.299916</v>
+        <v>0.290955</v>
       </c>
       <c r="E84" t="n">
-        <v>0.254323</v>
+        <v>0.263115</v>
       </c>
       <c r="F84" t="n">
-        <v>0.19094</v>
+        <v>0.197304</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346855</v>
+        <v>0.347542</v>
       </c>
       <c r="C85" t="n">
-        <v>0.183529</v>
+        <v>0.181167</v>
       </c>
       <c r="D85" t="n">
-        <v>0.314394</v>
+        <v>0.305951</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253287</v>
+        <v>0.258276</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192992</v>
+        <v>0.192884</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345989</v>
+        <v>0.347716</v>
       </c>
       <c r="C86" t="n">
-        <v>0.184232</v>
+        <v>0.182006</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330424</v>
+        <v>0.320765</v>
       </c>
       <c r="E86" t="n">
-        <v>0.251972</v>
+        <v>0.259187</v>
       </c>
       <c r="F86" t="n">
-        <v>0.193118</v>
+        <v>0.196614</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.346595</v>
+        <v>0.349613</v>
       </c>
       <c r="C87" t="n">
-        <v>0.184047</v>
+        <v>0.184301</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346296</v>
+        <v>0.336997</v>
       </c>
       <c r="E87" t="n">
-        <v>0.254897</v>
+        <v>0.255946</v>
       </c>
       <c r="F87" t="n">
-        <v>0.195305</v>
+        <v>0.197779</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347303</v>
+        <v>0.350025</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186737</v>
+        <v>0.186195</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362224</v>
+        <v>0.353808</v>
       </c>
       <c r="E88" t="n">
-        <v>0.250572</v>
+        <v>0.259131</v>
       </c>
       <c r="F88" t="n">
-        <v>0.197131</v>
+        <v>0.199132</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350622</v>
+        <v>0.352445</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188755</v>
+        <v>0.188206</v>
       </c>
       <c r="D89" t="n">
-        <v>0.378258</v>
+        <v>0.371318</v>
       </c>
       <c r="E89" t="n">
-        <v>0.251694</v>
+        <v>0.238433</v>
       </c>
       <c r="F89" t="n">
-        <v>0.199105</v>
+        <v>0.203772</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35189</v>
+        <v>0.352744</v>
       </c>
       <c r="C90" t="n">
-        <v>0.193453</v>
+        <v>0.191842</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394593</v>
+        <v>0.386344</v>
       </c>
       <c r="E90" t="n">
-        <v>0.252347</v>
+        <v>0.256013</v>
       </c>
       <c r="F90" t="n">
-        <v>0.202363</v>
+        <v>0.205209</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350747</v>
+        <v>0.352645</v>
       </c>
       <c r="C91" t="n">
-        <v>0.195572</v>
+        <v>0.193977</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41058</v>
+        <v>0.402235</v>
       </c>
       <c r="E91" t="n">
-        <v>0.254726</v>
+        <v>0.242944</v>
       </c>
       <c r="F91" t="n">
-        <v>0.206267</v>
+        <v>0.210843</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355809</v>
+        <v>0.353217</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200018</v>
+        <v>0.19994</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358707</v>
+        <v>0.343396</v>
       </c>
       <c r="E92" t="n">
-        <v>0.253522</v>
+        <v>0.256575</v>
       </c>
       <c r="F92" t="n">
-        <v>0.211549</v>
+        <v>0.216424</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360572</v>
+        <v>0.359784</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207341</v>
+        <v>0.207853</v>
       </c>
       <c r="D93" t="n">
-        <v>0.374072</v>
+        <v>0.355559</v>
       </c>
       <c r="E93" t="n">
-        <v>0.257119</v>
+        <v>0.261616</v>
       </c>
       <c r="F93" t="n">
-        <v>0.219558</v>
+        <v>0.224205</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365138</v>
+        <v>0.365587</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216062</v>
+        <v>0.216875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.382681</v>
+        <v>0.367337</v>
       </c>
       <c r="E94" t="n">
-        <v>0.411143</v>
+        <v>0.42103</v>
       </c>
       <c r="F94" t="n">
-        <v>0.273937</v>
+        <v>0.28336</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.498798</v>
+        <v>0.505454</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279424</v>
+        <v>0.28037</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398774</v>
+        <v>0.376765</v>
       </c>
       <c r="E95" t="n">
-        <v>0.410612</v>
+        <v>0.421301</v>
       </c>
       <c r="F95" t="n">
-        <v>0.276742</v>
+        <v>0.284533</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499342</v>
+        <v>0.506227</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278627</v>
+        <v>0.282569</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408292</v>
+        <v>0.391202</v>
       </c>
       <c r="E96" t="n">
-        <v>0.411577</v>
+        <v>0.420468</v>
       </c>
       <c r="F96" t="n">
-        <v>0.279268</v>
+        <v>0.284007</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498983</v>
+        <v>0.505649</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28294</v>
+        <v>0.276971</v>
       </c>
       <c r="D97" t="n">
-        <v>0.423401</v>
+        <v>0.402603</v>
       </c>
       <c r="E97" t="n">
-        <v>0.410824</v>
+        <v>0.417795</v>
       </c>
       <c r="F97" t="n">
-        <v>0.277067</v>
+        <v>0.285207</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.499272</v>
+        <v>0.505995</v>
       </c>
       <c r="C98" t="n">
-        <v>0.283564</v>
+        <v>0.282901</v>
       </c>
       <c r="D98" t="n">
-        <v>0.437839</v>
+        <v>0.419039</v>
       </c>
       <c r="E98" t="n">
-        <v>0.410035</v>
+        <v>0.385868</v>
       </c>
       <c r="F98" t="n">
-        <v>0.282439</v>
+        <v>0.283119</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.499464</v>
+        <v>0.50671</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281545</v>
+        <v>0.281834</v>
       </c>
       <c r="D99" t="n">
-        <v>0.455661</v>
+        <v>0.43254</v>
       </c>
       <c r="E99" t="n">
-        <v>0.409483</v>
+        <v>0.418144</v>
       </c>
       <c r="F99" t="n">
-        <v>0.281702</v>
+        <v>0.281401</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500187</v>
+        <v>0.506361</v>
       </c>
       <c r="C100" t="n">
-        <v>0.283219</v>
+        <v>0.282318</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468717</v>
+        <v>0.446273</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410109</v>
+        <v>0.417385</v>
       </c>
       <c r="F100" t="n">
-        <v>0.285828</v>
+        <v>0.2832</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.501636</v>
+        <v>0.508274</v>
       </c>
       <c r="C101" t="n">
-        <v>0.286465</v>
+        <v>0.287872</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483977</v>
+        <v>0.457325</v>
       </c>
       <c r="E101" t="n">
-        <v>0.410193</v>
+        <v>0.386403</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283764</v>
+        <v>0.295972</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.502082</v>
+        <v>0.508011</v>
       </c>
       <c r="C102" t="n">
-        <v>0.288475</v>
+        <v>0.287807</v>
       </c>
       <c r="D102" t="n">
-        <v>0.497638</v>
+        <v>0.47758</v>
       </c>
       <c r="E102" t="n">
-        <v>0.408717</v>
+        <v>0.420895</v>
       </c>
       <c r="F102" t="n">
-        <v>0.28435</v>
+        <v>0.292108</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50481</v>
+        <v>0.508504</v>
       </c>
       <c r="C103" t="n">
-        <v>0.286597</v>
+        <v>0.291822</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514772</v>
+        <v>0.4975</v>
       </c>
       <c r="E103" t="n">
-        <v>0.409911</v>
+        <v>0.420459</v>
       </c>
       <c r="F103" t="n">
-        <v>0.289807</v>
+        <v>0.292711</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.504929</v>
+        <v>0.5070440000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.289802</v>
+        <v>0.290169</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531726</v>
+        <v>0.509206</v>
       </c>
       <c r="E104" t="n">
-        <v>0.412789</v>
+        <v>0.421331</v>
       </c>
       <c r="F104" t="n">
-        <v>0.289148</v>
+        <v>0.298973</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.50793</v>
+        <v>0.513899</v>
       </c>
       <c r="C105" t="n">
-        <v>0.292744</v>
+        <v>0.294133</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54519</v>
+        <v>0.526823</v>
       </c>
       <c r="E105" t="n">
-        <v>0.412583</v>
+        <v>0.424269</v>
       </c>
       <c r="F105" t="n">
-        <v>0.289566</v>
+        <v>0.304787</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511608</v>
+        <v>0.516355</v>
       </c>
       <c r="C106" t="n">
-        <v>0.301163</v>
+        <v>0.299953</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56286</v>
+        <v>0.550732</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415474</v>
+        <v>0.415796</v>
       </c>
       <c r="F106" t="n">
-        <v>0.298328</v>
+        <v>0.308239</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51683</v>
+        <v>0.522548</v>
       </c>
       <c r="C107" t="n">
-        <v>0.306116</v>
+        <v>0.308062</v>
       </c>
       <c r="D107" t="n">
-        <v>0.538025</v>
+        <v>0.526992</v>
       </c>
       <c r="E107" t="n">
-        <v>0.420177</v>
+        <v>0.417101</v>
       </c>
       <c r="F107" t="n">
-        <v>0.305209</v>
+        <v>0.31177</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523548</v>
+        <v>0.529382</v>
       </c>
       <c r="C108" t="n">
-        <v>0.31222</v>
+        <v>0.316482</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5510659999999999</v>
+        <v>0.560787</v>
       </c>
       <c r="E108" t="n">
-        <v>0.547196</v>
+        <v>0.558219</v>
       </c>
       <c r="F108" t="n">
-        <v>0.496451</v>
+        <v>0.508359</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5351</v>
+        <v>0.5391319999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329439</v>
+        <v>0.33061</v>
       </c>
       <c r="D109" t="n">
-        <v>0.556063</v>
+        <v>0.561491</v>
       </c>
       <c r="E109" t="n">
-        <v>0.546623</v>
+        <v>0.558628</v>
       </c>
       <c r="F109" t="n">
-        <v>0.499167</v>
+        <v>0.503853</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58131</v>
+        <v>0.5781500000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.492456</v>
+        <v>0.502824</v>
       </c>
       <c r="D110" t="n">
-        <v>0.56753</v>
+        <v>0.559333</v>
       </c>
       <c r="E110" t="n">
-        <v>0.548082</v>
+        <v>0.559774</v>
       </c>
       <c r="F110" t="n">
-        <v>0.500217</v>
+        <v>0.5009130000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5827830000000001</v>
+        <v>0.591871</v>
       </c>
       <c r="C111" t="n">
-        <v>0.496948</v>
+        <v>0.500391</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584414</v>
+        <v>0.5715249999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.546289</v>
+        <v>0.55803</v>
       </c>
       <c r="F111" t="n">
-        <v>0.498623</v>
+        <v>0.505958</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581865</v>
+        <v>0.589237</v>
       </c>
       <c r="C112" t="n">
-        <v>0.495512</v>
+        <v>0.499804</v>
       </c>
       <c r="D112" t="n">
-        <v>0.595035</v>
+        <v>0.60219</v>
       </c>
       <c r="E112" t="n">
-        <v>0.548196</v>
+        <v>0.54536</v>
       </c>
       <c r="F112" t="n">
-        <v>0.500676</v>
+        <v>0.511679</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582677</v>
+        <v>0.591398</v>
       </c>
       <c r="C113" t="n">
-        <v>0.496013</v>
+        <v>0.503422</v>
       </c>
       <c r="D113" t="n">
-        <v>0.609457</v>
+        <v>0.611953</v>
       </c>
       <c r="E113" t="n">
-        <v>0.548968</v>
+        <v>0.561505</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500877</v>
+        <v>0.512115</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584036</v>
+        <v>0.586741</v>
       </c>
       <c r="C114" t="n">
-        <v>0.497525</v>
+        <v>0.502884</v>
       </c>
       <c r="D114" t="n">
-        <v>0.622203</v>
+        <v>0.633657</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5485139999999999</v>
+        <v>0.548611</v>
       </c>
       <c r="F114" t="n">
-        <v>0.504478</v>
+        <v>0.514452</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584696</v>
+        <v>0.583117</v>
       </c>
       <c r="C115" t="n">
-        <v>0.498619</v>
+        <v>0.506466</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634487</v>
+        <v>0.6445070000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.550582</v>
+        <v>0.563669</v>
       </c>
       <c r="F115" t="n">
-        <v>0.505424</v>
+        <v>0.512236</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.586062</v>
+        <v>0.595842</v>
       </c>
       <c r="C116" t="n">
-        <v>0.500449</v>
+        <v>0.508567</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650303</v>
+        <v>0.658602</v>
       </c>
       <c r="E116" t="n">
-        <v>0.550826</v>
+        <v>0.545397</v>
       </c>
       <c r="F116" t="n">
-        <v>0.507162</v>
+        <v>0.512777</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.587711</v>
+        <v>0.597648</v>
       </c>
       <c r="C117" t="n">
-        <v>0.502649</v>
+        <v>0.509219</v>
       </c>
       <c r="D117" t="n">
-        <v>0.670449</v>
+        <v>0.681132</v>
       </c>
       <c r="E117" t="n">
-        <v>0.551179</v>
+        <v>0.564713</v>
       </c>
       <c r="F117" t="n">
-        <v>0.509235</v>
+        <v>0.521488</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591249</v>
+        <v>0.6026319999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.504107</v>
+        <v>0.515839</v>
       </c>
       <c r="D118" t="n">
-        <v>0.687852</v>
+        <v>0.695842</v>
       </c>
       <c r="E118" t="n">
-        <v>0.555291</v>
+        <v>0.565768</v>
       </c>
       <c r="F118" t="n">
-        <v>0.511747</v>
+        <v>0.5267539999999999</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593167</v>
+        <v>0.593792</v>
       </c>
       <c r="C119" t="n">
-        <v>0.513112</v>
+        <v>0.518425</v>
       </c>
       <c r="D119" t="n">
-        <v>0.705456</v>
+        <v>0.71258</v>
       </c>
       <c r="E119" t="n">
-        <v>0.559347</v>
+        <v>0.568113</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5145729999999999</v>
+        <v>0.523471</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5983039999999999</v>
+        <v>0.605973</v>
       </c>
       <c r="C120" t="n">
-        <v>0.514335</v>
+        <v>0.525023</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721415</v>
+        <v>0.725593</v>
       </c>
       <c r="E120" t="n">
-        <v>0.563086</v>
+        <v>0.569967</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5150940000000001</v>
+        <v>0.533348</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606332</v>
+        <v>0.612544</v>
       </c>
       <c r="C121" t="n">
-        <v>0.520379</v>
+        <v>0.530718</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640737</v>
+        <v>0.65027</v>
       </c>
       <c r="E121" t="n">
-        <v>0.565582</v>
+        <v>0.57353</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5228120000000001</v>
+        <v>0.535947</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613857</v>
+        <v>0.617992</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5303</v>
+        <v>0.538322</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649933</v>
+        <v>0.66475</v>
       </c>
       <c r="E122" t="n">
-        <v>0.575607</v>
+        <v>0.584469</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5329930000000001</v>
+        <v>0.5485950000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624242</v>
+        <v>0.630648</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542262</v>
+        <v>0.549785</v>
       </c>
       <c r="D123" t="n">
-        <v>0.663697</v>
+        <v>0.677115</v>
       </c>
       <c r="E123" t="n">
-        <v>0.705978</v>
+        <v>0.7245239999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>0.712286</v>
+        <v>0.7241300000000001</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7264659999999999</v>
+        <v>0.740478</v>
       </c>
       <c r="C124" t="n">
-        <v>0.704891</v>
+        <v>0.719742</v>
       </c>
       <c r="D124" t="n">
-        <v>0.673899</v>
+        <v>0.686964</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707313</v>
+        <v>0.7262380000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>0.714693</v>
+        <v>0.730304</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.726368</v>
+        <v>0.742851</v>
       </c>
       <c r="C125" t="n">
-        <v>0.706077</v>
+        <v>0.701591</v>
       </c>
       <c r="D125" t="n">
-        <v>0.687435</v>
+        <v>0.698066</v>
       </c>
       <c r="E125" t="n">
-        <v>0.708888</v>
+        <v>0.727644</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7158369999999999</v>
+        <v>0.73171</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.726649</v>
+        <v>0.739636</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7067099999999999</v>
+        <v>0.727896</v>
       </c>
       <c r="D126" t="n">
-        <v>0.70062</v>
+        <v>0.714706</v>
       </c>
       <c r="E126" t="n">
-        <v>0.70961</v>
+        <v>0.710636</v>
       </c>
       <c r="F126" t="n">
-        <v>0.71757</v>
+        <v>0.735846</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726994</v>
+        <v>0.740698</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70799</v>
+        <v>0.725598</v>
       </c>
       <c r="D127" t="n">
-        <v>0.714332</v>
+        <v>0.7283230000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.708838</v>
+        <v>0.7104009999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.717438</v>
+        <v>0.732199</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.72856</v>
+        <v>0.743666</v>
       </c>
       <c r="C128" t="n">
-        <v>0.708823</v>
+        <v>0.725126</v>
       </c>
       <c r="D128" t="n">
-        <v>0.729963</v>
+        <v>0.742182</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710649</v>
+        <v>0.729087</v>
       </c>
       <c r="F128" t="n">
-        <v>0.720574</v>
+        <v>0.73791</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732124</v>
+        <v>0.728463</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708586</v>
+        <v>0.727456</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744344</v>
+        <v>0.760606</v>
       </c>
       <c r="E129" t="n">
-        <v>0.713638</v>
+        <v>0.723759</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7209410000000001</v>
+        <v>0.738772</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.730078</v>
+        <v>0.742474</v>
       </c>
       <c r="C130" t="n">
-        <v>0.713337</v>
+        <v>0.727736</v>
       </c>
       <c r="D130" t="n">
-        <v>0.761699</v>
+        <v>0.760332</v>
       </c>
       <c r="E130" t="n">
-        <v>0.715232</v>
+        <v>0.725499</v>
       </c>
       <c r="F130" t="n">
-        <v>0.725799</v>
+        <v>0.74503</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.732575</v>
+        <v>0.734785</v>
       </c>
       <c r="C131" t="n">
-        <v>0.717181</v>
+        <v>0.7304310000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.775505</v>
+        <v>0.787447</v>
       </c>
       <c r="E131" t="n">
-        <v>0.718016</v>
+        <v>0.730919</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7269060000000001</v>
+        <v>0.750216</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73841</v>
+        <v>0.745574</v>
       </c>
       <c r="C132" t="n">
-        <v>0.718176</v>
+        <v>0.738895</v>
       </c>
       <c r="D132" t="n">
-        <v>0.790405</v>
+        <v>0.792178</v>
       </c>
       <c r="E132" t="n">
-        <v>0.71645</v>
+        <v>0.731727</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.745572</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.739803</v>
+        <v>0.734587</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7227710000000001</v>
+        <v>0.730488</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807145</v>
+        <v>0.819903</v>
       </c>
       <c r="E133" t="n">
-        <v>0.722407</v>
+        <v>0.732594</v>
       </c>
       <c r="F133" t="n">
-        <v>0.734579</v>
+        <v>0.755155</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.744437</v>
+        <v>0.756352</v>
       </c>
       <c r="C134" t="n">
-        <v>0.728204</v>
+        <v>0.739917</v>
       </c>
       <c r="D134" t="n">
-        <v>0.824064</v>
+        <v>0.837875</v>
       </c>
       <c r="E134" t="n">
-        <v>0.725752</v>
+        <v>0.725364</v>
       </c>
       <c r="F134" t="n">
-        <v>0.73914</v>
+        <v>0.762899</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749928</v>
+        <v>0.741329</v>
       </c>
       <c r="C135" t="n">
-        <v>0.737628</v>
+        <v>0.75271</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693605</v>
+        <v>0.636275</v>
       </c>
       <c r="E135" t="n">
-        <v>0.73023</v>
+        <v>0.739323</v>
       </c>
       <c r="F135" t="n">
-        <v>0.748713</v>
+        <v>0.758978</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.760814</v>
+        <v>0.77252</v>
       </c>
       <c r="C136" t="n">
-        <v>0.746177</v>
+        <v>0.762265</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702227</v>
+        <v>0.655429</v>
       </c>
       <c r="E136" t="n">
-        <v>0.736392</v>
+        <v>0.75422</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7587699999999999</v>
+        <v>0.762945</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.77232</v>
+        <v>0.774126</v>
       </c>
       <c r="C137" t="n">
-        <v>0.759752</v>
+        <v>0.766767</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714024</v>
+        <v>0.652792</v>
       </c>
       <c r="E137" t="n">
-        <v>0.843116</v>
+        <v>0.863069</v>
       </c>
       <c r="F137" t="n">
-        <v>0.849222</v>
+        <v>0.876754</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85483</v>
+        <v>0.861446</v>
       </c>
       <c r="C138" t="n">
-        <v>0.845839</v>
+        <v>0.868318</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726641</v>
+        <v>0.673843</v>
       </c>
       <c r="E138" t="n">
-        <v>0.84388</v>
+        <v>0.862702</v>
       </c>
       <c r="F138" t="n">
-        <v>0.850924</v>
+        <v>0.878814</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.855639</v>
+        <v>0.875301</v>
       </c>
       <c r="C139" t="n">
-        <v>0.847633</v>
+        <v>0.868803</v>
       </c>
       <c r="D139" t="n">
-        <v>0.738794</v>
+        <v>0.6861350000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.843373</v>
+        <v>0.864278</v>
       </c>
       <c r="F139" t="n">
-        <v>0.852064</v>
+        <v>0.877376</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.855152</v>
+        <v>0.863828</v>
       </c>
       <c r="C140" t="n">
-        <v>0.847312</v>
+        <v>0.872373</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752517</v>
+        <v>0.698605</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8446709999999999</v>
+        <v>0.864082</v>
       </c>
       <c r="F140" t="n">
-        <v>0.853473</v>
+        <v>0.879888</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.856967</v>
+        <v>0.862686</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8489409999999999</v>
+        <v>0.8708090000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766466</v>
+        <v>0.7024049999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.84552</v>
+        <v>0.864355</v>
       </c>
       <c r="F141" t="n">
-        <v>0.856429</v>
+        <v>0.879413</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.856809</v>
+        <v>0.87754</v>
       </c>
       <c r="C142" t="n">
-        <v>0.849953</v>
+        <v>0.871761</v>
       </c>
       <c r="D142" t="n">
-        <v>0.77847</v>
+        <v>0.717686</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8466089999999999</v>
+        <v>0.865003</v>
       </c>
       <c r="F142" t="n">
-        <v>0.856754</v>
+        <v>0.884249</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.858166</v>
+        <v>0.864391</v>
       </c>
       <c r="C143" t="n">
-        <v>0.852676</v>
+        <v>0.865684</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7949889999999999</v>
+        <v>0.7413149999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.846843</v>
+        <v>0.869184</v>
       </c>
       <c r="F143" t="n">
-        <v>0.858913</v>
+        <v>0.877049</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110872</v>
+        <v>0.11147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10801</v>
+        <v>0.10846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.128768</v>
+        <v>0.130065</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123999</v>
+        <v>0.125434</v>
       </c>
       <c r="F2" t="n">
-        <v>0.126371</v>
+        <v>0.126489</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111136</v>
+        <v>0.114309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107753</v>
+        <v>0.109152</v>
       </c>
       <c r="D3" t="n">
-        <v>0.138675</v>
+        <v>0.140628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.124255</v>
+        <v>0.125727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.126308</v>
+        <v>0.126922</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111504</v>
+        <v>0.11187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.107726</v>
+        <v>0.109078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145541</v>
+        <v>0.146693</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124484</v>
+        <v>0.125962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.126969</v>
+        <v>0.126953</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112098</v>
+        <v>0.115296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108352</v>
+        <v>0.109654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.153852</v>
+        <v>0.154957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.124918</v>
+        <v>0.125008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.127043</v>
+        <v>0.128077</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112579</v>
+        <v>0.113026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.109372</v>
+        <v>0.110883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160551</v>
+        <v>0.161589</v>
       </c>
       <c r="E6" t="n">
-        <v>0.125621</v>
+        <v>0.127196</v>
       </c>
       <c r="F6" t="n">
-        <v>0.128018</v>
+        <v>0.128654</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114188</v>
+        <v>0.117574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.11056</v>
+        <v>0.1122</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128058</v>
+        <v>0.129557</v>
       </c>
       <c r="E7" t="n">
-        <v>0.126979</v>
+        <v>0.129277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.128907</v>
+        <v>0.130429</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115382</v>
+        <v>0.116877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113587</v>
+        <v>0.114679</v>
       </c>
       <c r="D8" t="n">
-        <v>0.132207</v>
+        <v>0.1336</v>
       </c>
       <c r="E8" t="n">
-        <v>0.128341</v>
+        <v>0.128597</v>
       </c>
       <c r="F8" t="n">
-        <v>0.131348</v>
+        <v>0.131426</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120208</v>
+        <v>0.123479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116448</v>
+        <v>0.118154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.135381</v>
+        <v>0.135836</v>
       </c>
       <c r="E9" t="n">
-        <v>0.131785</v>
+        <v>0.130679</v>
       </c>
       <c r="F9" t="n">
-        <v>0.127549</v>
+        <v>0.128017</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12283</v>
+        <v>0.123056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110722</v>
+        <v>0.113203</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140324</v>
+        <v>0.141886</v>
       </c>
       <c r="E10" t="n">
-        <v>0.131037</v>
+        <v>0.130796</v>
       </c>
       <c r="F10" t="n">
-        <v>0.127831</v>
+        <v>0.128279</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122283</v>
+        <v>0.123232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110987</v>
+        <v>0.113578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145397</v>
+        <v>0.147012</v>
       </c>
       <c r="E11" t="n">
-        <v>0.131388</v>
+        <v>0.131246</v>
       </c>
       <c r="F11" t="n">
-        <v>0.128031</v>
+        <v>0.12852</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123206</v>
+        <v>0.123419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111265</v>
+        <v>0.113906</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150977</v>
+        <v>0.153239</v>
       </c>
       <c r="E12" t="n">
-        <v>0.13138</v>
+        <v>0.131618</v>
       </c>
       <c r="F12" t="n">
-        <v>0.128146</v>
+        <v>0.12869</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123817</v>
+        <v>0.122946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1133</v>
+        <v>0.117543</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15617</v>
+        <v>0.157775</v>
       </c>
       <c r="E13" t="n">
-        <v>0.132111</v>
+        <v>0.130895</v>
       </c>
       <c r="F13" t="n">
-        <v>0.129714</v>
+        <v>0.131788</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12385</v>
+        <v>0.123102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.111946</v>
+        <v>0.115608</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163211</v>
+        <v>0.164891</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13232</v>
+        <v>0.131469</v>
       </c>
       <c r="F14" t="n">
-        <v>0.129998</v>
+        <v>0.130142</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124016</v>
+        <v>0.123343</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112803</v>
+        <v>0.115748</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171861</v>
+        <v>0.171542</v>
       </c>
       <c r="E15" t="n">
-        <v>0.13245</v>
+        <v>0.131901</v>
       </c>
       <c r="F15" t="n">
-        <v>0.128673</v>
+        <v>0.131287</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124107</v>
+        <v>0.124062</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112753</v>
+        <v>0.116855</v>
       </c>
       <c r="D16" t="n">
-        <v>0.176985</v>
+        <v>0.17939</v>
       </c>
       <c r="E16" t="n">
-        <v>0.132561</v>
+        <v>0.132156</v>
       </c>
       <c r="F16" t="n">
-        <v>0.129639</v>
+        <v>0.130753</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124574</v>
+        <v>0.124505</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114773</v>
+        <v>0.1165</v>
       </c>
       <c r="D17" t="n">
-        <v>0.183808</v>
+        <v>0.185828</v>
       </c>
       <c r="E17" t="n">
-        <v>0.132436</v>
+        <v>0.132663</v>
       </c>
       <c r="F17" t="n">
-        <v>0.129206</v>
+        <v>0.129997</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124014</v>
+        <v>0.125244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113421</v>
+        <v>0.117878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.188947</v>
+        <v>0.192419</v>
       </c>
       <c r="E18" t="n">
-        <v>0.133031</v>
+        <v>0.132758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.131119</v>
+        <v>0.131934</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125751</v>
+        <v>0.12579</v>
       </c>
       <c r="C19" t="n">
-        <v>0.115906</v>
+        <v>0.117417</v>
       </c>
       <c r="D19" t="n">
-        <v>0.195913</v>
+        <v>0.198521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.133778</v>
+        <v>0.133107</v>
       </c>
       <c r="F19" t="n">
-        <v>0.130073</v>
+        <v>0.130647</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126607</v>
+        <v>0.126495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116029</v>
+        <v>0.118689</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200892</v>
+        <v>0.202817</v>
       </c>
       <c r="E20" t="n">
-        <v>0.134021</v>
+        <v>0.133967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.132611</v>
+        <v>0.132456</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128386</v>
+        <v>0.127525</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120349</v>
+        <v>0.120445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15238</v>
+        <v>0.152343</v>
       </c>
       <c r="E21" t="n">
-        <v>0.135699</v>
+        <v>0.135318</v>
       </c>
       <c r="F21" t="n">
-        <v>0.132624</v>
+        <v>0.132756</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132861</v>
+        <v>0.131557</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122977</v>
+        <v>0.122947</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155777</v>
+        <v>0.156792</v>
       </c>
       <c r="E22" t="n">
-        <v>0.139419</v>
+        <v>0.140084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.136998</v>
+        <v>0.139842</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139824</v>
+        <v>0.140521</v>
       </c>
       <c r="C23" t="n">
-        <v>0.132606</v>
+        <v>0.134034</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159765</v>
+        <v>0.16214</v>
       </c>
       <c r="E23" t="n">
-        <v>0.140214</v>
+        <v>0.140659</v>
       </c>
       <c r="F23" t="n">
-        <v>0.135642</v>
+        <v>0.139461</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133109</v>
+        <v>0.132854</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121385</v>
+        <v>0.124884</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168133</v>
+        <v>0.169264</v>
       </c>
       <c r="E24" t="n">
-        <v>0.139871</v>
+        <v>0.140608</v>
       </c>
       <c r="F24" t="n">
-        <v>0.135908</v>
+        <v>0.138061</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135829</v>
+        <v>0.135952</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121831</v>
+        <v>0.123594</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172385</v>
+        <v>0.172929</v>
       </c>
       <c r="E25" t="n">
-        <v>0.14018</v>
+        <v>0.140644</v>
       </c>
       <c r="F25" t="n">
-        <v>0.136291</v>
+        <v>0.136739</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134052</v>
+        <v>0.135761</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122178</v>
+        <v>0.123999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176731</v>
+        <v>0.177543</v>
       </c>
       <c r="E26" t="n">
-        <v>0.140257</v>
+        <v>0.144075</v>
       </c>
       <c r="F26" t="n">
-        <v>0.13597</v>
+        <v>0.137885</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134235</v>
+        <v>0.136112</v>
       </c>
       <c r="C27" t="n">
-        <v>0.120979</v>
+        <v>0.123881</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180954</v>
+        <v>0.181723</v>
       </c>
       <c r="E27" t="n">
-        <v>0.141219</v>
+        <v>0.141994</v>
       </c>
       <c r="F27" t="n">
-        <v>0.136961</v>
+        <v>0.138124</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135581</v>
+        <v>0.134262</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122548</v>
+        <v>0.122573</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185605</v>
+        <v>0.186465</v>
       </c>
       <c r="E28" t="n">
-        <v>0.141719</v>
+        <v>0.141908</v>
       </c>
       <c r="F28" t="n">
-        <v>0.136779</v>
+        <v>0.138993</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134531</v>
+        <v>0.134369</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123496</v>
+        <v>0.125001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192031</v>
+        <v>0.191551</v>
       </c>
       <c r="E29" t="n">
-        <v>0.141161</v>
+        <v>0.142103</v>
       </c>
       <c r="F29" t="n">
-        <v>0.137721</v>
+        <v>0.139065</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135182</v>
+        <v>0.134036</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123167</v>
+        <v>0.126797</v>
       </c>
       <c r="D30" t="n">
-        <v>0.196869</v>
+        <v>0.196418</v>
       </c>
       <c r="E30" t="n">
-        <v>0.141405</v>
+        <v>0.142358</v>
       </c>
       <c r="F30" t="n">
-        <v>0.137108</v>
+        <v>0.137221</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135436</v>
+        <v>0.13478</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123112</v>
+        <v>0.125694</v>
       </c>
       <c r="D31" t="n">
-        <v>0.202611</v>
+        <v>0.202514</v>
       </c>
       <c r="E31" t="n">
-        <v>0.142192</v>
+        <v>0.142865</v>
       </c>
       <c r="F31" t="n">
-        <v>0.13987</v>
+        <v>0.139422</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136268</v>
+        <v>0.135333</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125398</v>
+        <v>0.125793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20777</v>
+        <v>0.207146</v>
       </c>
       <c r="E32" t="n">
-        <v>0.142554</v>
+        <v>0.142641</v>
       </c>
       <c r="F32" t="n">
-        <v>0.140362</v>
+        <v>0.138812</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136763</v>
+        <v>0.136995</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126723</v>
+        <v>0.127375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212614</v>
+        <v>0.215032</v>
       </c>
       <c r="E33" t="n">
-        <v>0.143562</v>
+        <v>0.144404</v>
       </c>
       <c r="F33" t="n">
-        <v>0.13996</v>
+        <v>0.143179</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138972</v>
+        <v>0.139558</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127871</v>
+        <v>0.13081</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217567</v>
+        <v>0.219151</v>
       </c>
       <c r="E34" t="n">
-        <v>0.144903</v>
+        <v>0.145452</v>
       </c>
       <c r="F34" t="n">
-        <v>0.141621</v>
+        <v>0.14247</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142147</v>
+        <v>0.141993</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13126</v>
+        <v>0.135587</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168287</v>
+        <v>0.168537</v>
       </c>
       <c r="E35" t="n">
-        <v>0.148587</v>
+        <v>0.149317</v>
       </c>
       <c r="F35" t="n">
-        <v>0.145833</v>
+        <v>0.148592</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147564</v>
+        <v>0.147621</v>
       </c>
       <c r="C36" t="n">
-        <v>0.137607</v>
+        <v>0.141852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171633</v>
+        <v>0.172764</v>
       </c>
       <c r="E36" t="n">
-        <v>0.155862</v>
+        <v>0.156306</v>
       </c>
       <c r="F36" t="n">
-        <v>0.153684</v>
+        <v>0.155207</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155769</v>
+        <v>0.153965</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145899</v>
+        <v>0.146975</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176055</v>
+        <v>0.176197</v>
       </c>
       <c r="E37" t="n">
-        <v>0.154155</v>
+        <v>0.154495</v>
       </c>
       <c r="F37" t="n">
-        <v>0.152476</v>
+        <v>0.156477</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.146598</v>
+        <v>0.146708</v>
       </c>
       <c r="C38" t="n">
-        <v>0.140212</v>
+        <v>0.140936</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181191</v>
+        <v>0.181181</v>
       </c>
       <c r="E38" t="n">
-        <v>0.154418</v>
+        <v>0.158673</v>
       </c>
       <c r="F38" t="n">
-        <v>0.151929</v>
+        <v>0.154432</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147398</v>
+        <v>0.143888</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139426</v>
+        <v>0.139052</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185054</v>
+        <v>0.184301</v>
       </c>
       <c r="E39" t="n">
-        <v>0.153565</v>
+        <v>0.152798</v>
       </c>
       <c r="F39" t="n">
-        <v>0.153985</v>
+        <v>0.155112</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145633</v>
+        <v>0.146136</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14061</v>
+        <v>0.141342</v>
       </c>
       <c r="D40" t="n">
-        <v>0.189076</v>
+        <v>0.189407</v>
       </c>
       <c r="E40" t="n">
-        <v>0.152624</v>
+        <v>0.153993</v>
       </c>
       <c r="F40" t="n">
-        <v>0.154212</v>
+        <v>0.152607</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145778</v>
+        <v>0.144927</v>
       </c>
       <c r="C41" t="n">
-        <v>0.139863</v>
+        <v>0.140072</v>
       </c>
       <c r="D41" t="n">
-        <v>0.193835</v>
+        <v>0.193561</v>
       </c>
       <c r="E41" t="n">
-        <v>0.153848</v>
+        <v>0.152915</v>
       </c>
       <c r="F41" t="n">
-        <v>0.153027</v>
+        <v>0.154989</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1458</v>
+        <v>0.14472</v>
       </c>
       <c r="C42" t="n">
-        <v>0.139805</v>
+        <v>0.139749</v>
       </c>
       <c r="D42" t="n">
-        <v>0.198679</v>
+        <v>0.198514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.155208</v>
+        <v>0.154368</v>
       </c>
       <c r="F42" t="n">
-        <v>0.154359</v>
+        <v>0.154182</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148099</v>
+        <v>0.145571</v>
       </c>
       <c r="C43" t="n">
-        <v>0.139133</v>
+        <v>0.139961</v>
       </c>
       <c r="D43" t="n">
-        <v>0.203701</v>
+        <v>0.203727</v>
       </c>
       <c r="E43" t="n">
-        <v>0.155142</v>
+        <v>0.153778</v>
       </c>
       <c r="F43" t="n">
-        <v>0.154269</v>
+        <v>0.154615</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150249</v>
+        <v>0.145257</v>
       </c>
       <c r="C44" t="n">
-        <v>0.139484</v>
+        <v>0.140378</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208422</v>
+        <v>0.208848</v>
       </c>
       <c r="E44" t="n">
-        <v>0.155183</v>
+        <v>0.153455</v>
       </c>
       <c r="F44" t="n">
-        <v>0.154743</v>
+        <v>0.156515</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.146873</v>
+        <v>0.147249</v>
       </c>
       <c r="C45" t="n">
-        <v>0.142104</v>
+        <v>0.142097</v>
       </c>
       <c r="D45" t="n">
-        <v>0.213546</v>
+        <v>0.214306</v>
       </c>
       <c r="E45" t="n">
-        <v>0.155688</v>
+        <v>0.154623</v>
       </c>
       <c r="F45" t="n">
-        <v>0.154449</v>
+        <v>0.157565</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149831</v>
+        <v>0.15206</v>
       </c>
       <c r="C46" t="n">
-        <v>0.142624</v>
+        <v>0.142966</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219431</v>
+        <v>0.219028</v>
       </c>
       <c r="E46" t="n">
-        <v>0.155674</v>
+        <v>0.157311</v>
       </c>
       <c r="F46" t="n">
-        <v>0.157622</v>
+        <v>0.158411</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150996</v>
+        <v>0.151554</v>
       </c>
       <c r="C47" t="n">
-        <v>0.144398</v>
+        <v>0.147235</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224853</v>
+        <v>0.225223</v>
       </c>
       <c r="E47" t="n">
-        <v>0.156474</v>
+        <v>0.158613</v>
       </c>
       <c r="F47" t="n">
-        <v>0.156288</v>
+        <v>0.157951</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153962</v>
+        <v>0.150951</v>
       </c>
       <c r="C48" t="n">
-        <v>0.149224</v>
+        <v>0.148276</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229276</v>
+        <v>0.229571</v>
       </c>
       <c r="E48" t="n">
-        <v>0.160165</v>
+        <v>0.160198</v>
       </c>
       <c r="F48" t="n">
-        <v>0.159988</v>
+        <v>0.164524</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156617</v>
+        <v>0.156732</v>
       </c>
       <c r="C49" t="n">
-        <v>0.150314</v>
+        <v>0.15301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233828</v>
+        <v>0.234319</v>
       </c>
       <c r="E49" t="n">
-        <v>0.163886</v>
+        <v>0.165371</v>
       </c>
       <c r="F49" t="n">
-        <v>0.163821</v>
+        <v>0.166841</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160674</v>
+        <v>0.163943</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157293</v>
+        <v>0.158032</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170931</v>
+        <v>0.170734</v>
       </c>
       <c r="E50" t="n">
-        <v>0.16935</v>
+        <v>0.170499</v>
       </c>
       <c r="F50" t="n">
-        <v>0.170594</v>
+        <v>0.170465</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167254</v>
+        <v>0.170219</v>
       </c>
       <c r="C51" t="n">
-        <v>0.163339</v>
+        <v>0.161455</v>
       </c>
       <c r="D51" t="n">
-        <v>0.174395</v>
+        <v>0.174222</v>
       </c>
       <c r="E51" t="n">
-        <v>0.166511</v>
+        <v>0.168561</v>
       </c>
       <c r="F51" t="n">
-        <v>0.169256</v>
+        <v>0.168673</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.179081</v>
+        <v>0.176097</v>
       </c>
       <c r="C52" t="n">
-        <v>0.171395</v>
+        <v>0.172774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.177839</v>
+        <v>0.177854</v>
       </c>
       <c r="E52" t="n">
-        <v>0.167893</v>
+        <v>0.168034</v>
       </c>
       <c r="F52" t="n">
-        <v>0.175964</v>
+        <v>0.170465</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.163007</v>
+        <v>0.159</v>
       </c>
       <c r="C53" t="n">
-        <v>0.157047</v>
+        <v>0.157357</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182072</v>
+        <v>0.181777</v>
       </c>
       <c r="E53" t="n">
-        <v>0.170084</v>
+        <v>0.167906</v>
       </c>
       <c r="F53" t="n">
-        <v>0.171727</v>
+        <v>0.169715</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158394</v>
+        <v>0.159276</v>
       </c>
       <c r="C54" t="n">
-        <v>0.157256</v>
+        <v>0.1573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.186117</v>
+        <v>0.185888</v>
       </c>
       <c r="E54" t="n">
-        <v>0.169225</v>
+        <v>0.168322</v>
       </c>
       <c r="F54" t="n">
-        <v>0.171624</v>
+        <v>0.169883</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.158034</v>
+        <v>0.159431</v>
       </c>
       <c r="C55" t="n">
-        <v>0.157643</v>
+        <v>0.156554</v>
       </c>
       <c r="D55" t="n">
-        <v>0.190186</v>
+        <v>0.190026</v>
       </c>
       <c r="E55" t="n">
-        <v>0.169128</v>
+        <v>0.1694</v>
       </c>
       <c r="F55" t="n">
-        <v>0.170206</v>
+        <v>0.169546</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159086</v>
+        <v>0.159165</v>
       </c>
       <c r="C56" t="n">
-        <v>0.158044</v>
+        <v>0.157432</v>
       </c>
       <c r="D56" t="n">
-        <v>0.195502</v>
+        <v>0.195578</v>
       </c>
       <c r="E56" t="n">
-        <v>0.168235</v>
+        <v>0.168603</v>
       </c>
       <c r="F56" t="n">
-        <v>0.170092</v>
+        <v>0.170169</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160901</v>
+        <v>0.160402</v>
       </c>
       <c r="C57" t="n">
-        <v>0.158822</v>
+        <v>0.160165</v>
       </c>
       <c r="D57" t="n">
-        <v>0.200007</v>
+        <v>0.200272</v>
       </c>
       <c r="E57" t="n">
-        <v>0.170099</v>
+        <v>0.169024</v>
       </c>
       <c r="F57" t="n">
-        <v>0.172338</v>
+        <v>0.167466</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161121</v>
+        <v>0.162949</v>
       </c>
       <c r="C58" t="n">
-        <v>0.158724</v>
+        <v>0.158599</v>
       </c>
       <c r="D58" t="n">
-        <v>0.205129</v>
+        <v>0.20519</v>
       </c>
       <c r="E58" t="n">
-        <v>0.170072</v>
+        <v>0.168758</v>
       </c>
       <c r="F58" t="n">
-        <v>0.171202</v>
+        <v>0.171387</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161486</v>
+        <v>0.161205</v>
       </c>
       <c r="C59" t="n">
-        <v>0.15938</v>
+        <v>0.16067</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211058</v>
+        <v>0.211037</v>
       </c>
       <c r="E59" t="n">
-        <v>0.170495</v>
+        <v>0.170466</v>
       </c>
       <c r="F59" t="n">
-        <v>0.171181</v>
+        <v>0.172737</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.161644</v>
+        <v>0.162367</v>
       </c>
       <c r="C60" t="n">
-        <v>0.161253</v>
+        <v>0.160998</v>
       </c>
       <c r="D60" t="n">
-        <v>0.215786</v>
+        <v>0.21603</v>
       </c>
       <c r="E60" t="n">
-        <v>0.171964</v>
+        <v>0.171239</v>
       </c>
       <c r="F60" t="n">
-        <v>0.173856</v>
+        <v>0.174485</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.163187</v>
+        <v>0.163415</v>
       </c>
       <c r="C61" t="n">
-        <v>0.162602</v>
+        <v>0.164047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.220945</v>
+        <v>0.221553</v>
       </c>
       <c r="E61" t="n">
-        <v>0.172654</v>
+        <v>0.172773</v>
       </c>
       <c r="F61" t="n">
-        <v>0.175566</v>
+        <v>0.176897</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166338</v>
+        <v>0.166821</v>
       </c>
       <c r="C62" t="n">
-        <v>0.16538</v>
+        <v>0.166472</v>
       </c>
       <c r="D62" t="n">
-        <v>0.225915</v>
+        <v>0.226749</v>
       </c>
       <c r="E62" t="n">
-        <v>0.174565</v>
+        <v>0.175618</v>
       </c>
       <c r="F62" t="n">
-        <v>0.177443</v>
+        <v>0.178581</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169938</v>
+        <v>0.169833</v>
       </c>
       <c r="C63" t="n">
-        <v>0.169228</v>
+        <v>0.168566</v>
       </c>
       <c r="D63" t="n">
-        <v>0.230522</v>
+        <v>0.23153</v>
       </c>
       <c r="E63" t="n">
-        <v>0.177686</v>
+        <v>0.178886</v>
       </c>
       <c r="F63" t="n">
-        <v>0.180537</v>
+        <v>0.180774</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173202</v>
+        <v>0.174185</v>
       </c>
       <c r="C64" t="n">
-        <v>0.172761</v>
+        <v>0.173139</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177076</v>
+        <v>0.178464</v>
       </c>
       <c r="E64" t="n">
-        <v>0.181779</v>
+        <v>0.180958</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185406</v>
+        <v>0.186868</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178068</v>
+        <v>0.179078</v>
       </c>
       <c r="C65" t="n">
-        <v>0.177993</v>
+        <v>0.179091</v>
       </c>
       <c r="D65" t="n">
-        <v>0.179577</v>
+        <v>0.18153</v>
       </c>
       <c r="E65" t="n">
-        <v>0.188289</v>
+        <v>0.188907</v>
       </c>
       <c r="F65" t="n">
-        <v>0.192563</v>
+        <v>0.193153</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18728</v>
+        <v>0.186299</v>
       </c>
       <c r="C66" t="n">
-        <v>0.187238</v>
+        <v>0.187436</v>
       </c>
       <c r="D66" t="n">
-        <v>0.184341</v>
+        <v>0.186374</v>
       </c>
       <c r="E66" t="n">
-        <v>0.179825</v>
+        <v>0.181436</v>
       </c>
       <c r="F66" t="n">
-        <v>0.176907</v>
+        <v>0.180388</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.176163</v>
+        <v>0.181908</v>
       </c>
       <c r="C67" t="n">
-        <v>0.168538</v>
+        <v>0.168482</v>
       </c>
       <c r="D67" t="n">
-        <v>0.189307</v>
+        <v>0.190331</v>
       </c>
       <c r="E67" t="n">
-        <v>0.181139</v>
+        <v>0.181241</v>
       </c>
       <c r="F67" t="n">
-        <v>0.176593</v>
+        <v>0.181617</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177583</v>
+        <v>0.185132</v>
       </c>
       <c r="C68" t="n">
-        <v>0.168819</v>
+        <v>0.168881</v>
       </c>
       <c r="D68" t="n">
-        <v>0.195146</v>
+        <v>0.19658</v>
       </c>
       <c r="E68" t="n">
-        <v>0.179788</v>
+        <v>0.181523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.18063</v>
+        <v>0.18086</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.176384</v>
+        <v>0.183951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.169083</v>
+        <v>0.169429</v>
       </c>
       <c r="D69" t="n">
-        <v>0.200743</v>
+        <v>0.202302</v>
       </c>
       <c r="E69" t="n">
-        <v>0.179979</v>
+        <v>0.181772</v>
       </c>
       <c r="F69" t="n">
-        <v>0.180908</v>
+        <v>0.181506</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179277</v>
+        <v>0.183057</v>
       </c>
       <c r="C70" t="n">
-        <v>0.169673</v>
+        <v>0.169768</v>
       </c>
       <c r="D70" t="n">
-        <v>0.208102</v>
+        <v>0.207958</v>
       </c>
       <c r="E70" t="n">
-        <v>0.181496</v>
+        <v>0.181681</v>
       </c>
       <c r="F70" t="n">
-        <v>0.181829</v>
+        <v>0.181906</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.178934</v>
+        <v>0.186344</v>
       </c>
       <c r="C71" t="n">
-        <v>0.170423</v>
+        <v>0.170517</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214525</v>
+        <v>0.216873</v>
       </c>
       <c r="E71" t="n">
-        <v>0.18059</v>
+        <v>0.18186</v>
       </c>
       <c r="F71" t="n">
-        <v>0.182484</v>
+        <v>0.183077</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.179942</v>
+        <v>0.186301</v>
       </c>
       <c r="C72" t="n">
-        <v>0.170804</v>
+        <v>0.170682</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222752</v>
+        <v>0.225558</v>
       </c>
       <c r="E72" t="n">
-        <v>0.181306</v>
+        <v>0.182768</v>
       </c>
       <c r="F72" t="n">
-        <v>0.182826</v>
+        <v>0.183303</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18056</v>
+        <v>0.186533</v>
       </c>
       <c r="C73" t="n">
-        <v>0.172155</v>
+        <v>0.171676</v>
       </c>
       <c r="D73" t="n">
-        <v>0.23175</v>
+        <v>0.235976</v>
       </c>
       <c r="E73" t="n">
-        <v>0.182744</v>
+        <v>0.183758</v>
       </c>
       <c r="F73" t="n">
-        <v>0.184549</v>
+        <v>0.18145</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.183063</v>
+        <v>0.189427</v>
       </c>
       <c r="C74" t="n">
-        <v>0.173942</v>
+        <v>0.173677</v>
       </c>
       <c r="D74" t="n">
-        <v>0.240997</v>
+        <v>0.245625</v>
       </c>
       <c r="E74" t="n">
-        <v>0.183767</v>
+        <v>0.186297</v>
       </c>
       <c r="F74" t="n">
-        <v>0.18597</v>
+        <v>0.182167</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18813</v>
+        <v>0.185962</v>
       </c>
       <c r="C75" t="n">
-        <v>0.175466</v>
+        <v>0.175234</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252019</v>
+        <v>0.257104</v>
       </c>
       <c r="E75" t="n">
-        <v>0.186461</v>
+        <v>0.187458</v>
       </c>
       <c r="F75" t="n">
-        <v>0.187494</v>
+        <v>0.187022</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187793</v>
+        <v>0.191247</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177589</v>
+        <v>0.177826</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260375</v>
+        <v>0.268476</v>
       </c>
       <c r="E76" t="n">
-        <v>0.188922</v>
+        <v>0.187597</v>
       </c>
       <c r="F76" t="n">
-        <v>0.189364</v>
+        <v>0.189956</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190803</v>
+        <v>0.19325</v>
       </c>
       <c r="C77" t="n">
-        <v>0.181549</v>
+        <v>0.181281</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270423</v>
+        <v>0.277145</v>
       </c>
       <c r="E77" t="n">
-        <v>0.188905</v>
+        <v>0.189441</v>
       </c>
       <c r="F77" t="n">
-        <v>0.192756</v>
+        <v>0.192638</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194492</v>
+        <v>0.194484</v>
       </c>
       <c r="C78" t="n">
-        <v>0.185933</v>
+        <v>0.185635</v>
       </c>
       <c r="D78" t="n">
-        <v>0.221631</v>
+        <v>0.224016</v>
       </c>
       <c r="E78" t="n">
-        <v>0.193279</v>
+        <v>0.193146</v>
       </c>
       <c r="F78" t="n">
-        <v>0.196985</v>
+        <v>0.197046</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199497</v>
+        <v>0.201673</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191645</v>
+        <v>0.19184</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22931</v>
+        <v>0.233203</v>
       </c>
       <c r="E79" t="n">
-        <v>0.198456</v>
+        <v>0.199133</v>
       </c>
       <c r="F79" t="n">
-        <v>0.204349</v>
+        <v>0.205318</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205098</v>
+        <v>0.20699</v>
       </c>
       <c r="C80" t="n">
-        <v>0.20108</v>
+        <v>0.201113</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24063</v>
+        <v>0.245821</v>
       </c>
       <c r="E80" t="n">
-        <v>0.264128</v>
+        <v>0.26044</v>
       </c>
       <c r="F80" t="n">
-        <v>0.191924</v>
+        <v>0.19119</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350238</v>
+        <v>0.344924</v>
       </c>
       <c r="C81" t="n">
-        <v>0.178832</v>
+        <v>0.179653</v>
       </c>
       <c r="D81" t="n">
-        <v>0.249666</v>
+        <v>0.256253</v>
       </c>
       <c r="E81" t="n">
-        <v>0.261303</v>
+        <v>0.238087</v>
       </c>
       <c r="F81" t="n">
-        <v>0.191737</v>
+        <v>0.191872</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345822</v>
+        <v>0.343618</v>
       </c>
       <c r="C82" t="n">
-        <v>0.179308</v>
+        <v>0.179622</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26276</v>
+        <v>0.266124</v>
       </c>
       <c r="E82" t="n">
-        <v>0.265489</v>
+        <v>0.235597</v>
       </c>
       <c r="F82" t="n">
-        <v>0.190924</v>
+        <v>0.192537</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34796</v>
+        <v>0.344225</v>
       </c>
       <c r="C83" t="n">
-        <v>0.180657</v>
+        <v>0.180791</v>
       </c>
       <c r="D83" t="n">
-        <v>0.275802</v>
+        <v>0.279669</v>
       </c>
       <c r="E83" t="n">
-        <v>0.262335</v>
+        <v>0.260929</v>
       </c>
       <c r="F83" t="n">
-        <v>0.193496</v>
+        <v>0.193843</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.346807</v>
+        <v>0.345042</v>
       </c>
       <c r="C84" t="n">
-        <v>0.181319</v>
+        <v>0.182585</v>
       </c>
       <c r="D84" t="n">
-        <v>0.290955</v>
+        <v>0.294215</v>
       </c>
       <c r="E84" t="n">
-        <v>0.263115</v>
+        <v>0.257399</v>
       </c>
       <c r="F84" t="n">
-        <v>0.197304</v>
+        <v>0.195283</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.347542</v>
+        <v>0.34466</v>
       </c>
       <c r="C85" t="n">
-        <v>0.181167</v>
+        <v>0.18364</v>
       </c>
       <c r="D85" t="n">
-        <v>0.305951</v>
+        <v>0.308515</v>
       </c>
       <c r="E85" t="n">
-        <v>0.258276</v>
+        <v>0.25925</v>
       </c>
       <c r="F85" t="n">
-        <v>0.192884</v>
+        <v>0.195561</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.347716</v>
+        <v>0.345303</v>
       </c>
       <c r="C86" t="n">
-        <v>0.182006</v>
+        <v>0.18424</v>
       </c>
       <c r="D86" t="n">
-        <v>0.320765</v>
+        <v>0.322322</v>
       </c>
       <c r="E86" t="n">
-        <v>0.259187</v>
+        <v>0.258743</v>
       </c>
       <c r="F86" t="n">
-        <v>0.196614</v>
+        <v>0.197569</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.349613</v>
+        <v>0.347962</v>
       </c>
       <c r="C87" t="n">
-        <v>0.184301</v>
+        <v>0.184104</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336997</v>
+        <v>0.337243</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255946</v>
+        <v>0.26068</v>
       </c>
       <c r="F87" t="n">
-        <v>0.197779</v>
+        <v>0.198863</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.350025</v>
+        <v>0.345741</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186195</v>
+        <v>0.184713</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353808</v>
+        <v>0.35322</v>
       </c>
       <c r="E88" t="n">
-        <v>0.259131</v>
+        <v>0.259396</v>
       </c>
       <c r="F88" t="n">
-        <v>0.199132</v>
+        <v>0.20059</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.352445</v>
+        <v>0.353332</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188206</v>
+        <v>0.189404</v>
       </c>
       <c r="D89" t="n">
-        <v>0.371318</v>
+        <v>0.371302</v>
       </c>
       <c r="E89" t="n">
-        <v>0.238433</v>
+        <v>0.237856</v>
       </c>
       <c r="F89" t="n">
-        <v>0.203772</v>
+        <v>0.204699</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352744</v>
+        <v>0.350411</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191842</v>
+        <v>0.190691</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386344</v>
+        <v>0.386281</v>
       </c>
       <c r="E90" t="n">
-        <v>0.256013</v>
+        <v>0.247529</v>
       </c>
       <c r="F90" t="n">
-        <v>0.205209</v>
+        <v>0.206764</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352645</v>
+        <v>0.351375</v>
       </c>
       <c r="C91" t="n">
-        <v>0.193977</v>
+        <v>0.194547</v>
       </c>
       <c r="D91" t="n">
-        <v>0.402235</v>
+        <v>0.402465</v>
       </c>
       <c r="E91" t="n">
-        <v>0.242944</v>
+        <v>0.260684</v>
       </c>
       <c r="F91" t="n">
-        <v>0.210843</v>
+        <v>0.210995</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353217</v>
+        <v>0.356927</v>
       </c>
       <c r="C92" t="n">
-        <v>0.19994</v>
+        <v>0.200014</v>
       </c>
       <c r="D92" t="n">
-        <v>0.343396</v>
+        <v>0.346394</v>
       </c>
       <c r="E92" t="n">
-        <v>0.256575</v>
+        <v>0.257123</v>
       </c>
       <c r="F92" t="n">
-        <v>0.216424</v>
+        <v>0.215204</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.359784</v>
+        <v>0.360998</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207853</v>
+        <v>0.207655</v>
       </c>
       <c r="D93" t="n">
-        <v>0.355559</v>
+        <v>0.356225</v>
       </c>
       <c r="E93" t="n">
-        <v>0.261616</v>
+        <v>0.260587</v>
       </c>
       <c r="F93" t="n">
-        <v>0.224205</v>
+        <v>0.225902</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365587</v>
+        <v>0.367715</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216875</v>
+        <v>0.218367</v>
       </c>
       <c r="D94" t="n">
-        <v>0.367337</v>
+        <v>0.368657</v>
       </c>
       <c r="E94" t="n">
-        <v>0.42103</v>
+        <v>0.408566</v>
       </c>
       <c r="F94" t="n">
-        <v>0.28336</v>
+        <v>0.296299</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.505454</v>
+        <v>0.506069</v>
       </c>
       <c r="C95" t="n">
-        <v>0.28037</v>
+        <v>0.280711</v>
       </c>
       <c r="D95" t="n">
-        <v>0.376765</v>
+        <v>0.375556</v>
       </c>
       <c r="E95" t="n">
-        <v>0.421301</v>
+        <v>0.390002</v>
       </c>
       <c r="F95" t="n">
-        <v>0.284533</v>
+        <v>0.286328</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.506227</v>
+        <v>0.505636</v>
       </c>
       <c r="C96" t="n">
-        <v>0.282569</v>
+        <v>0.284508</v>
       </c>
       <c r="D96" t="n">
-        <v>0.391202</v>
+        <v>0.390498</v>
       </c>
       <c r="E96" t="n">
-        <v>0.420468</v>
+        <v>0.421641</v>
       </c>
       <c r="F96" t="n">
-        <v>0.284007</v>
+        <v>0.28958</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.505649</v>
+        <v>0.505911</v>
       </c>
       <c r="C97" t="n">
-        <v>0.276971</v>
+        <v>0.284994</v>
       </c>
       <c r="D97" t="n">
-        <v>0.402603</v>
+        <v>0.406468</v>
       </c>
       <c r="E97" t="n">
-        <v>0.417795</v>
+        <v>0.404579</v>
       </c>
       <c r="F97" t="n">
-        <v>0.285207</v>
+        <v>0.295617</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505995</v>
+        <v>0.506171</v>
       </c>
       <c r="C98" t="n">
-        <v>0.282901</v>
+        <v>0.289374</v>
       </c>
       <c r="D98" t="n">
-        <v>0.419039</v>
+        <v>0.419546</v>
       </c>
       <c r="E98" t="n">
-        <v>0.385868</v>
+        <v>0.418741</v>
       </c>
       <c r="F98" t="n">
-        <v>0.283119</v>
+        <v>0.293369</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.50671</v>
+        <v>0.506304</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281834</v>
+        <v>0.284666</v>
       </c>
       <c r="D99" t="n">
-        <v>0.43254</v>
+        <v>0.434982</v>
       </c>
       <c r="E99" t="n">
-        <v>0.418144</v>
+        <v>0.408477</v>
       </c>
       <c r="F99" t="n">
-        <v>0.281401</v>
+        <v>0.29494</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506361</v>
+        <v>0.506508</v>
       </c>
       <c r="C100" t="n">
-        <v>0.282318</v>
+        <v>0.288111</v>
       </c>
       <c r="D100" t="n">
-        <v>0.446273</v>
+        <v>0.447614</v>
       </c>
       <c r="E100" t="n">
-        <v>0.417385</v>
+        <v>0.418442</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2832</v>
+        <v>0.293122</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.508274</v>
+        <v>0.508351</v>
       </c>
       <c r="C101" t="n">
-        <v>0.287872</v>
+        <v>0.291338</v>
       </c>
       <c r="D101" t="n">
-        <v>0.457325</v>
+        <v>0.460104</v>
       </c>
       <c r="E101" t="n">
-        <v>0.386403</v>
+        <v>0.418007</v>
       </c>
       <c r="F101" t="n">
-        <v>0.295972</v>
+        <v>0.292915</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508011</v>
+        <v>0.5086079999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.287807</v>
+        <v>0.294357</v>
       </c>
       <c r="D102" t="n">
-        <v>0.47758</v>
+        <v>0.480126</v>
       </c>
       <c r="E102" t="n">
-        <v>0.420895</v>
+        <v>0.417778</v>
       </c>
       <c r="F102" t="n">
-        <v>0.292108</v>
+        <v>0.298925</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508504</v>
+        <v>0.508559</v>
       </c>
       <c r="C103" t="n">
-        <v>0.291822</v>
+        <v>0.293698</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4975</v>
+        <v>0.496315</v>
       </c>
       <c r="E103" t="n">
-        <v>0.420459</v>
+        <v>0.392154</v>
       </c>
       <c r="F103" t="n">
-        <v>0.292711</v>
+        <v>0.295758</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5070440000000001</v>
+        <v>0.508709</v>
       </c>
       <c r="C104" t="n">
-        <v>0.290169</v>
+        <v>0.298154</v>
       </c>
       <c r="D104" t="n">
-        <v>0.509206</v>
+        <v>0.511852</v>
       </c>
       <c r="E104" t="n">
-        <v>0.421331</v>
+        <v>0.388462</v>
       </c>
       <c r="F104" t="n">
-        <v>0.298973</v>
+        <v>0.299431</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.513899</v>
+        <v>0.509369</v>
       </c>
       <c r="C105" t="n">
-        <v>0.294133</v>
+        <v>0.29871</v>
       </c>
       <c r="D105" t="n">
-        <v>0.526823</v>
+        <v>0.527101</v>
       </c>
       <c r="E105" t="n">
-        <v>0.424269</v>
+        <v>0.391696</v>
       </c>
       <c r="F105" t="n">
-        <v>0.304787</v>
+        <v>0.314064</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.516355</v>
+        <v>0.516466</v>
       </c>
       <c r="C106" t="n">
-        <v>0.299953</v>
+        <v>0.304183</v>
       </c>
       <c r="D106" t="n">
-        <v>0.550732</v>
+        <v>0.550067</v>
       </c>
       <c r="E106" t="n">
-        <v>0.415796</v>
+        <v>0.425278</v>
       </c>
       <c r="F106" t="n">
-        <v>0.308239</v>
+        <v>0.307491</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.522548</v>
+        <v>0.522343</v>
       </c>
       <c r="C107" t="n">
-        <v>0.308062</v>
+        <v>0.312722</v>
       </c>
       <c r="D107" t="n">
-        <v>0.526992</v>
+        <v>0.536815</v>
       </c>
       <c r="E107" t="n">
-        <v>0.417101</v>
+        <v>0.417565</v>
       </c>
       <c r="F107" t="n">
-        <v>0.31177</v>
+        <v>0.316144</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.529382</v>
+        <v>0.52902</v>
       </c>
       <c r="C108" t="n">
-        <v>0.316482</v>
+        <v>0.317859</v>
       </c>
       <c r="D108" t="n">
-        <v>0.560787</v>
+        <v>0.5523439999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.558219</v>
+        <v>0.556301</v>
       </c>
       <c r="F108" t="n">
-        <v>0.508359</v>
+        <v>0.501024</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5391319999999999</v>
+        <v>0.538723</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33061</v>
+        <v>0.334701</v>
       </c>
       <c r="D109" t="n">
-        <v>0.561491</v>
+        <v>0.5607799999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.558628</v>
+        <v>0.554803</v>
       </c>
       <c r="F109" t="n">
-        <v>0.503853</v>
+        <v>0.495959</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5781500000000001</v>
+        <v>0.577781</v>
       </c>
       <c r="C110" t="n">
-        <v>0.502824</v>
+        <v>0.502627</v>
       </c>
       <c r="D110" t="n">
-        <v>0.559333</v>
+        <v>0.57384</v>
       </c>
       <c r="E110" t="n">
-        <v>0.559774</v>
+        <v>0.5406</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5009130000000001</v>
+        <v>0.505906</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591871</v>
+        <v>0.59254</v>
       </c>
       <c r="C111" t="n">
-        <v>0.500391</v>
+        <v>0.50358</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5715249999999999</v>
+        <v>0.586018</v>
       </c>
       <c r="E111" t="n">
-        <v>0.55803</v>
+        <v>0.559951</v>
       </c>
       <c r="F111" t="n">
-        <v>0.505958</v>
+        <v>0.501043</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.589237</v>
+        <v>0.580211</v>
       </c>
       <c r="C112" t="n">
-        <v>0.499804</v>
+        <v>0.494204</v>
       </c>
       <c r="D112" t="n">
-        <v>0.60219</v>
+        <v>0.603575</v>
       </c>
       <c r="E112" t="n">
-        <v>0.54536</v>
+        <v>0.5434020000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>0.511679</v>
+        <v>0.513118</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.591398</v>
+        <v>0.591372</v>
       </c>
       <c r="C113" t="n">
-        <v>0.503422</v>
+        <v>0.497373</v>
       </c>
       <c r="D113" t="n">
-        <v>0.611953</v>
+        <v>0.609514</v>
       </c>
       <c r="E113" t="n">
-        <v>0.561505</v>
+        <v>0.561939</v>
       </c>
       <c r="F113" t="n">
-        <v>0.512115</v>
+        <v>0.50597</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.586741</v>
+        <v>0.585323</v>
       </c>
       <c r="C114" t="n">
-        <v>0.502884</v>
+        <v>0.513508</v>
       </c>
       <c r="D114" t="n">
-        <v>0.633657</v>
+        <v>0.630924</v>
       </c>
       <c r="E114" t="n">
-        <v>0.548611</v>
+        <v>0.542086</v>
       </c>
       <c r="F114" t="n">
-        <v>0.514452</v>
+        <v>0.5164339999999999</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.583117</v>
+        <v>0.585184</v>
       </c>
       <c r="C115" t="n">
-        <v>0.506466</v>
+        <v>0.509327</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6445070000000001</v>
+        <v>0.644813</v>
       </c>
       <c r="E115" t="n">
-        <v>0.563669</v>
+        <v>0.562122</v>
       </c>
       <c r="F115" t="n">
-        <v>0.512236</v>
+        <v>0.517043</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.595842</v>
+        <v>0.59746</v>
       </c>
       <c r="C116" t="n">
-        <v>0.508567</v>
+        <v>0.515904</v>
       </c>
       <c r="D116" t="n">
-        <v>0.658602</v>
+        <v>0.648742</v>
       </c>
       <c r="E116" t="n">
-        <v>0.545397</v>
+        <v>0.565906</v>
       </c>
       <c r="F116" t="n">
-        <v>0.512777</v>
+        <v>0.52295</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.597648</v>
+        <v>0.595844</v>
       </c>
       <c r="C117" t="n">
-        <v>0.509219</v>
+        <v>0.509313</v>
       </c>
       <c r="D117" t="n">
-        <v>0.681132</v>
+        <v>0.680814</v>
       </c>
       <c r="E117" t="n">
-        <v>0.564713</v>
+        <v>0.565211</v>
       </c>
       <c r="F117" t="n">
-        <v>0.521488</v>
+        <v>0.51725</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6026319999999999</v>
+        <v>0.592036</v>
       </c>
       <c r="C118" t="n">
-        <v>0.515839</v>
+        <v>0.515228</v>
       </c>
       <c r="D118" t="n">
-        <v>0.695842</v>
+        <v>0.689539</v>
       </c>
       <c r="E118" t="n">
-        <v>0.565768</v>
+        <v>0.5628570000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5267539999999999</v>
+        <v>0.526315</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593792</v>
+        <v>0.599494</v>
       </c>
       <c r="C119" t="n">
-        <v>0.518425</v>
+        <v>0.515748</v>
       </c>
       <c r="D119" t="n">
-        <v>0.71258</v>
+        <v>0.714229</v>
       </c>
       <c r="E119" t="n">
-        <v>0.568113</v>
+        <v>0.571495</v>
       </c>
       <c r="F119" t="n">
-        <v>0.523471</v>
+        <v>0.528149</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.605973</v>
+        <v>0.605109</v>
       </c>
       <c r="C120" t="n">
-        <v>0.525023</v>
+        <v>0.521795</v>
       </c>
       <c r="D120" t="n">
-        <v>0.725593</v>
+        <v>0.73156</v>
       </c>
       <c r="E120" t="n">
-        <v>0.569967</v>
+        <v>0.572366</v>
       </c>
       <c r="F120" t="n">
-        <v>0.533348</v>
+        <v>0.519093</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.612544</v>
+        <v>0.615119</v>
       </c>
       <c r="C121" t="n">
-        <v>0.530718</v>
+        <v>0.529381</v>
       </c>
       <c r="D121" t="n">
-        <v>0.65027</v>
+        <v>0.650376</v>
       </c>
       <c r="E121" t="n">
-        <v>0.57353</v>
+        <v>0.5770420000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>0.535947</v>
+        <v>0.536913</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.617992</v>
+        <v>0.619982</v>
       </c>
       <c r="C122" t="n">
-        <v>0.538322</v>
+        <v>0.538369</v>
       </c>
       <c r="D122" t="n">
-        <v>0.66475</v>
+        <v>0.6650430000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.584469</v>
+        <v>0.568617</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5485950000000001</v>
+        <v>0.548641</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.630648</v>
+        <v>0.627177</v>
       </c>
       <c r="C123" t="n">
-        <v>0.549785</v>
+        <v>0.550308</v>
       </c>
       <c r="D123" t="n">
-        <v>0.677115</v>
+        <v>0.678186</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7245239999999999</v>
+        <v>0.722045</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7241300000000001</v>
+        <v>0.722341</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.740478</v>
+        <v>0.739255</v>
       </c>
       <c r="C124" t="n">
-        <v>0.719742</v>
+        <v>0.72162</v>
       </c>
       <c r="D124" t="n">
-        <v>0.686964</v>
+        <v>0.6884980000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7262380000000001</v>
+        <v>0.725166</v>
       </c>
       <c r="F124" t="n">
-        <v>0.730304</v>
+        <v>0.737242</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.742851</v>
+        <v>0.739313</v>
       </c>
       <c r="C125" t="n">
-        <v>0.701591</v>
+        <v>0.705904</v>
       </c>
       <c r="D125" t="n">
-        <v>0.698066</v>
+        <v>0.698224</v>
       </c>
       <c r="E125" t="n">
-        <v>0.727644</v>
+        <v>0.725844</v>
       </c>
       <c r="F125" t="n">
-        <v>0.73171</v>
+        <v>0.731789</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.739636</v>
+        <v>0.722683</v>
       </c>
       <c r="C126" t="n">
-        <v>0.727896</v>
+        <v>0.706656</v>
       </c>
       <c r="D126" t="n">
-        <v>0.714706</v>
+        <v>0.715457</v>
       </c>
       <c r="E126" t="n">
-        <v>0.710636</v>
+        <v>0.710079</v>
       </c>
       <c r="F126" t="n">
-        <v>0.735846</v>
+        <v>0.72537</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740698</v>
+        <v>0.741515</v>
       </c>
       <c r="C127" t="n">
-        <v>0.725598</v>
+        <v>0.724792</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7283230000000001</v>
+        <v>0.718072</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7104009999999999</v>
+        <v>0.726882</v>
       </c>
       <c r="F127" t="n">
-        <v>0.732199</v>
+        <v>0.735627</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743666</v>
+        <v>0.739559</v>
       </c>
       <c r="C128" t="n">
-        <v>0.725126</v>
+        <v>0.726428</v>
       </c>
       <c r="D128" t="n">
-        <v>0.742182</v>
+        <v>0.741887</v>
       </c>
       <c r="E128" t="n">
-        <v>0.729087</v>
+        <v>0.73111</v>
       </c>
       <c r="F128" t="n">
-        <v>0.73791</v>
+        <v>0.739819</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.728463</v>
+        <v>0.728745</v>
       </c>
       <c r="C129" t="n">
-        <v>0.727456</v>
+        <v>0.725893</v>
       </c>
       <c r="D129" t="n">
-        <v>0.760606</v>
+        <v>0.759467</v>
       </c>
       <c r="E129" t="n">
-        <v>0.723759</v>
+        <v>0.7285199999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.738772</v>
+        <v>0.731758</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.742474</v>
+        <v>0.74475</v>
       </c>
       <c r="C130" t="n">
-        <v>0.727736</v>
+        <v>0.728245</v>
       </c>
       <c r="D130" t="n">
-        <v>0.760332</v>
+        <v>0.760122</v>
       </c>
       <c r="E130" t="n">
-        <v>0.725499</v>
+        <v>0.729443</v>
       </c>
       <c r="F130" t="n">
-        <v>0.74503</v>
+        <v>0.74111</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.734785</v>
+        <v>0.741436</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7304310000000001</v>
+        <v>0.721504</v>
       </c>
       <c r="D131" t="n">
-        <v>0.787447</v>
+        <v>0.789037</v>
       </c>
       <c r="E131" t="n">
-        <v>0.730919</v>
+        <v>0.736946</v>
       </c>
       <c r="F131" t="n">
-        <v>0.750216</v>
+        <v>0.748622</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.745574</v>
+        <v>0.748854</v>
       </c>
       <c r="C132" t="n">
-        <v>0.738895</v>
+        <v>0.733249</v>
       </c>
       <c r="D132" t="n">
-        <v>0.792178</v>
+        <v>0.803973</v>
       </c>
       <c r="E132" t="n">
-        <v>0.731727</v>
+        <v>0.736547</v>
       </c>
       <c r="F132" t="n">
-        <v>0.745572</v>
+        <v>0.746394</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734587</v>
+        <v>0.753956</v>
       </c>
       <c r="C133" t="n">
-        <v>0.730488</v>
+        <v>0.741727</v>
       </c>
       <c r="D133" t="n">
-        <v>0.819903</v>
+        <v>0.821775</v>
       </c>
       <c r="E133" t="n">
-        <v>0.732594</v>
+        <v>0.735548</v>
       </c>
       <c r="F133" t="n">
-        <v>0.755155</v>
+        <v>0.756054</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.756352</v>
+        <v>0.753382</v>
       </c>
       <c r="C134" t="n">
-        <v>0.739917</v>
+        <v>0.743951</v>
       </c>
       <c r="D134" t="n">
-        <v>0.837875</v>
+        <v>0.836051</v>
       </c>
       <c r="E134" t="n">
-        <v>0.725364</v>
+        <v>0.741618</v>
       </c>
       <c r="F134" t="n">
-        <v>0.762899</v>
+        <v>0.759336</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.741329</v>
+        <v>0.761834</v>
       </c>
       <c r="C135" t="n">
-        <v>0.75271</v>
+        <v>0.735383</v>
       </c>
       <c r="D135" t="n">
-        <v>0.636275</v>
+        <v>0.646104</v>
       </c>
       <c r="E135" t="n">
-        <v>0.739323</v>
+        <v>0.747022</v>
       </c>
       <c r="F135" t="n">
-        <v>0.758978</v>
+        <v>0.770224</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.77252</v>
+        <v>0.767356</v>
       </c>
       <c r="C136" t="n">
-        <v>0.762265</v>
+        <v>0.761539</v>
       </c>
       <c r="D136" t="n">
-        <v>0.655429</v>
+        <v>0.655018</v>
       </c>
       <c r="E136" t="n">
-        <v>0.75422</v>
+        <v>0.752358</v>
       </c>
       <c r="F136" t="n">
-        <v>0.762945</v>
+        <v>0.776876</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.774126</v>
+        <v>0.769288</v>
       </c>
       <c r="C137" t="n">
-        <v>0.766767</v>
+        <v>0.7721980000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.652792</v>
+        <v>0.662216</v>
       </c>
       <c r="E137" t="n">
-        <v>0.863069</v>
+        <v>0.861882</v>
       </c>
       <c r="F137" t="n">
-        <v>0.876754</v>
+        <v>0.860107</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.861446</v>
+        <v>0.875969</v>
       </c>
       <c r="C138" t="n">
-        <v>0.868318</v>
+        <v>0.869911</v>
       </c>
       <c r="D138" t="n">
-        <v>0.673843</v>
+        <v>0.674436</v>
       </c>
       <c r="E138" t="n">
-        <v>0.862702</v>
+        <v>0.862982</v>
       </c>
       <c r="F138" t="n">
-        <v>0.878814</v>
+        <v>0.878567</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.875301</v>
+        <v>0.87626</v>
       </c>
       <c r="C139" t="n">
-        <v>0.868803</v>
+        <v>0.868375</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6861350000000001</v>
+        <v>0.685801</v>
       </c>
       <c r="E139" t="n">
-        <v>0.864278</v>
+        <v>0.863467</v>
       </c>
       <c r="F139" t="n">
-        <v>0.877376</v>
+        <v>0.8770019999999999</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863828</v>
+        <v>0.860955</v>
       </c>
       <c r="C140" t="n">
-        <v>0.872373</v>
+        <v>0.8690099999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.698605</v>
+        <v>0.697873</v>
       </c>
       <c r="E140" t="n">
-        <v>0.864082</v>
+        <v>0.864195</v>
       </c>
       <c r="F140" t="n">
-        <v>0.879888</v>
+        <v>0.879885</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.862686</v>
+        <v>0.876692</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8708090000000001</v>
+        <v>0.871945</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7024049999999999</v>
+        <v>0.710185</v>
       </c>
       <c r="E141" t="n">
-        <v>0.864355</v>
+        <v>0.852967</v>
       </c>
       <c r="F141" t="n">
-        <v>0.879413</v>
+        <v>0.882426</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.87754</v>
+        <v>0.869747</v>
       </c>
       <c r="C142" t="n">
-        <v>0.871761</v>
+        <v>0.857439</v>
       </c>
       <c r="D142" t="n">
-        <v>0.717686</v>
+        <v>0.725696</v>
       </c>
       <c r="E142" t="n">
-        <v>0.865003</v>
+        <v>0.86466</v>
       </c>
       <c r="F142" t="n">
-        <v>0.884249</v>
+        <v>0.8717240000000001</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.864391</v>
+        <v>0.862998</v>
       </c>
       <c r="C143" t="n">
-        <v>0.865684</v>
+        <v>0.874575</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7413149999999999</v>
+        <v>0.740685</v>
       </c>
       <c r="E143" t="n">
-        <v>0.869184</v>
+        <v>0.86572</v>
       </c>
       <c r="F143" t="n">
-        <v>0.877049</v>
+        <v>0.887493</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112246</v>
+        <v>0.111908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.107036</v>
+        <v>0.107934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.134216</v>
+        <v>0.130853</v>
       </c>
       <c r="E2" t="n">
-        <v>0.121669</v>
+        <v>0.123786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12109</v>
+        <v>0.126831</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.114652</v>
+        <v>0.111868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107705</v>
+        <v>0.108114</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140504</v>
+        <v>0.138138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.121936</v>
+        <v>0.123936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121236</v>
+        <v>0.126995</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.115113</v>
+        <v>0.112102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108222</v>
+        <v>0.107585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146001</v>
+        <v>0.145733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121791</v>
+        <v>0.124149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121546</v>
+        <v>0.127081</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116162</v>
+        <v>0.111917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108982</v>
+        <v>0.108376</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155712</v>
+        <v>0.152612</v>
       </c>
       <c r="E5" t="n">
-        <v>0.122011</v>
+        <v>0.124684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.121948</v>
+        <v>0.127705</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117447</v>
+        <v>0.113574</v>
       </c>
       <c r="C6" t="n">
-        <v>0.110361</v>
+        <v>0.109454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162357</v>
+        <v>0.160341</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1228</v>
+        <v>0.125172</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122686</v>
+        <v>0.128139</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118714</v>
+        <v>0.114277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111704</v>
+        <v>0.110759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.135037</v>
+        <v>0.128995</v>
       </c>
       <c r="E7" t="n">
-        <v>0.124238</v>
+        <v>0.126584</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124155</v>
+        <v>0.129583</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120717</v>
+        <v>0.116905</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114686</v>
+        <v>0.11302</v>
       </c>
       <c r="D8" t="n">
-        <v>0.138151</v>
+        <v>0.132463</v>
       </c>
       <c r="E8" t="n">
-        <v>0.126493</v>
+        <v>0.128299</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125836</v>
+        <v>0.132348</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12671</v>
+        <v>0.120156</v>
       </c>
       <c r="C9" t="n">
-        <v>0.118188</v>
+        <v>0.116629</v>
       </c>
       <c r="D9" t="n">
-        <v>0.143911</v>
+        <v>0.136725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.129288</v>
+        <v>0.131395</v>
       </c>
       <c r="F9" t="n">
-        <v>0.124402</v>
+        <v>0.12768</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124775</v>
+        <v>0.124212</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11548</v>
+        <v>0.110672</v>
       </c>
       <c r="D10" t="n">
-        <v>0.146395</v>
+        <v>0.14087</v>
       </c>
       <c r="E10" t="n">
-        <v>0.128615</v>
+        <v>0.131903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.124819</v>
+        <v>0.128039</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124746</v>
+        <v>0.124702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.113244</v>
+        <v>0.110816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.151204</v>
+        <v>0.145942</v>
       </c>
       <c r="E11" t="n">
-        <v>0.129445</v>
+        <v>0.131865</v>
       </c>
       <c r="F11" t="n">
-        <v>0.125003</v>
+        <v>0.128267</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124952</v>
+        <v>0.124462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.115775</v>
+        <v>0.111192</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158554</v>
+        <v>0.151008</v>
       </c>
       <c r="E12" t="n">
-        <v>0.129194</v>
+        <v>0.132452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.127493</v>
+        <v>0.128514</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125855</v>
+        <v>0.125352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.116135</v>
+        <v>0.111318</v>
       </c>
       <c r="D13" t="n">
-        <v>0.163902</v>
+        <v>0.156371</v>
       </c>
       <c r="E13" t="n">
-        <v>0.129567</v>
+        <v>0.132595</v>
       </c>
       <c r="F13" t="n">
-        <v>0.126204</v>
+        <v>0.128574</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125525</v>
+        <v>0.125895</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11441</v>
+        <v>0.112342</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166023</v>
+        <v>0.162619</v>
       </c>
       <c r="E14" t="n">
-        <v>0.129358</v>
+        <v>0.13285</v>
       </c>
       <c r="F14" t="n">
-        <v>0.125364</v>
+        <v>0.129213</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126095</v>
+        <v>0.125654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.114394</v>
+        <v>0.112604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172364</v>
+        <v>0.1684</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129344</v>
+        <v>0.13264</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12656</v>
+        <v>0.129718</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126214</v>
+        <v>0.125709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114337</v>
+        <v>0.113392</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180334</v>
+        <v>0.175359</v>
       </c>
       <c r="E16" t="n">
-        <v>0.130594</v>
+        <v>0.132649</v>
       </c>
       <c r="F16" t="n">
-        <v>0.126833</v>
+        <v>0.130828</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127277</v>
+        <v>0.126283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117868</v>
+        <v>0.113283</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18724</v>
+        <v>0.182694</v>
       </c>
       <c r="E17" t="n">
-        <v>0.13182</v>
+        <v>0.132814</v>
       </c>
       <c r="F17" t="n">
-        <v>0.128589</v>
+        <v>0.130073</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.127661</v>
+        <v>0.126932</v>
       </c>
       <c r="C18" t="n">
-        <v>0.117308</v>
+        <v>0.114324</v>
       </c>
       <c r="D18" t="n">
-        <v>0.19059</v>
+        <v>0.189441</v>
       </c>
       <c r="E18" t="n">
-        <v>0.130775</v>
+        <v>0.132972</v>
       </c>
       <c r="F18" t="n">
-        <v>0.127082</v>
+        <v>0.130657</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.12807</v>
+        <v>0.126667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.116821</v>
+        <v>0.114505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.195454</v>
+        <v>0.19512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130257</v>
+        <v>0.133466</v>
       </c>
       <c r="F19" t="n">
-        <v>0.127014</v>
+        <v>0.131597</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.12864</v>
+        <v>0.129165</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117518</v>
+        <v>0.115861</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200592</v>
+        <v>0.200958</v>
       </c>
       <c r="E20" t="n">
-        <v>0.131056</v>
+        <v>0.134702</v>
       </c>
       <c r="F20" t="n">
-        <v>0.129834</v>
+        <v>0.13208</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131044</v>
+        <v>0.130737</v>
       </c>
       <c r="C21" t="n">
-        <v>0.122586</v>
+        <v>0.118881</v>
       </c>
       <c r="D21" t="n">
-        <v>0.155164</v>
+        <v>0.151198</v>
       </c>
       <c r="E21" t="n">
-        <v>0.132865</v>
+        <v>0.136131</v>
       </c>
       <c r="F21" t="n">
-        <v>0.130188</v>
+        <v>0.134799</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134251</v>
+        <v>0.134337</v>
       </c>
       <c r="C22" t="n">
-        <v>0.125746</v>
+        <v>0.123528</v>
       </c>
       <c r="D22" t="n">
-        <v>0.159609</v>
+        <v>0.155208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137099</v>
+        <v>0.139865</v>
       </c>
       <c r="F22" t="n">
-        <v>0.136118</v>
+        <v>0.139558</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.143632</v>
+        <v>0.141378</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134429</v>
+        <v>0.131452</v>
       </c>
       <c r="D23" t="n">
-        <v>0.163031</v>
+        <v>0.158843</v>
       </c>
       <c r="E23" t="n">
-        <v>0.137553</v>
+        <v>0.141634</v>
       </c>
       <c r="F23" t="n">
-        <v>0.135607</v>
+        <v>0.138657</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133824</v>
+        <v>0.137128</v>
       </c>
       <c r="C24" t="n">
-        <v>0.124124</v>
+        <v>0.124327</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167202</v>
+        <v>0.165779</v>
       </c>
       <c r="E24" t="n">
-        <v>0.137469</v>
+        <v>0.142313</v>
       </c>
       <c r="F24" t="n">
-        <v>0.134129</v>
+        <v>0.13668</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132949</v>
+        <v>0.135683</v>
       </c>
       <c r="C25" t="n">
-        <v>0.124374</v>
+        <v>0.120958</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172415</v>
+        <v>0.168862</v>
       </c>
       <c r="E25" t="n">
-        <v>0.137535</v>
+        <v>0.142192</v>
       </c>
       <c r="F25" t="n">
-        <v>0.133207</v>
+        <v>0.136625</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133842</v>
+        <v>0.136204</v>
       </c>
       <c r="C26" t="n">
-        <v>0.126013</v>
+        <v>0.121323</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177237</v>
+        <v>0.173955</v>
       </c>
       <c r="E26" t="n">
-        <v>0.137285</v>
+        <v>0.144846</v>
       </c>
       <c r="F26" t="n">
-        <v>0.136779</v>
+        <v>0.136621</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133941</v>
+        <v>0.137721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124083</v>
+        <v>0.123115</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180679</v>
+        <v>0.178938</v>
       </c>
       <c r="E27" t="n">
-        <v>0.137366</v>
+        <v>0.143427</v>
       </c>
       <c r="F27" t="n">
-        <v>0.132462</v>
+        <v>0.137256</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134319</v>
+        <v>0.136904</v>
       </c>
       <c r="C28" t="n">
-        <v>0.124954</v>
+        <v>0.122925</v>
       </c>
       <c r="D28" t="n">
-        <v>0.184671</v>
+        <v>0.183976</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137245</v>
+        <v>0.144291</v>
       </c>
       <c r="F28" t="n">
-        <v>0.133849</v>
+        <v>0.137518</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134436</v>
+        <v>0.136513</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123659</v>
+        <v>0.124575</v>
       </c>
       <c r="D29" t="n">
-        <v>0.193431</v>
+        <v>0.19095</v>
       </c>
       <c r="E29" t="n">
-        <v>0.137702</v>
+        <v>0.143421</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132732</v>
+        <v>0.138194</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135146</v>
+        <v>0.138211</v>
       </c>
       <c r="C30" t="n">
-        <v>0.128723</v>
+        <v>0.125031</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195348</v>
+        <v>0.194474</v>
       </c>
       <c r="E30" t="n">
-        <v>0.138771</v>
+        <v>0.143072</v>
       </c>
       <c r="F30" t="n">
-        <v>0.134059</v>
+        <v>0.138938</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135661</v>
+        <v>0.139091</v>
       </c>
       <c r="C31" t="n">
-        <v>0.124639</v>
+        <v>0.124867</v>
       </c>
       <c r="D31" t="n">
-        <v>0.201703</v>
+        <v>0.200797</v>
       </c>
       <c r="E31" t="n">
-        <v>0.13959</v>
+        <v>0.14319</v>
       </c>
       <c r="F31" t="n">
-        <v>0.135844</v>
+        <v>0.141959</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136439</v>
+        <v>0.138928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127237</v>
+        <v>0.128441</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207258</v>
+        <v>0.207223</v>
       </c>
       <c r="E32" t="n">
-        <v>0.139525</v>
+        <v>0.14389</v>
       </c>
       <c r="F32" t="n">
-        <v>0.137955</v>
+        <v>0.139876</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137974</v>
+        <v>0.14014</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127239</v>
+        <v>0.126115</v>
       </c>
       <c r="D33" t="n">
-        <v>0.211753</v>
+        <v>0.211896</v>
       </c>
       <c r="E33" t="n">
-        <v>0.13975</v>
+        <v>0.144951</v>
       </c>
       <c r="F33" t="n">
-        <v>0.137643</v>
+        <v>0.142363</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137998</v>
+        <v>0.142419</v>
       </c>
       <c r="C34" t="n">
-        <v>0.130788</v>
+        <v>0.12888</v>
       </c>
       <c r="D34" t="n">
-        <v>0.218432</v>
+        <v>0.217933</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141694</v>
+        <v>0.146899</v>
       </c>
       <c r="F34" t="n">
-        <v>0.138063</v>
+        <v>0.14307</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140963</v>
+        <v>0.145125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.133077</v>
+        <v>0.132279</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170457</v>
+        <v>0.167775</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146678</v>
+        <v>0.150799</v>
       </c>
       <c r="F35" t="n">
-        <v>0.141828</v>
+        <v>0.148041</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.149197</v>
+        <v>0.148806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.138878</v>
+        <v>0.138629</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173015</v>
+        <v>0.171573</v>
       </c>
       <c r="E36" t="n">
-        <v>0.152416</v>
+        <v>0.15729</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148006</v>
+        <v>0.155017</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155093</v>
+        <v>0.157734</v>
       </c>
       <c r="C37" t="n">
-        <v>0.14592</v>
+        <v>0.147028</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177522</v>
+        <v>0.175447</v>
       </c>
       <c r="E37" t="n">
-        <v>0.14881</v>
+        <v>0.161732</v>
       </c>
       <c r="F37" t="n">
-        <v>0.151374</v>
+        <v>0.166111</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.146895</v>
+        <v>0.152127</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141114</v>
+        <v>0.141192</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181039</v>
+        <v>0.180573</v>
       </c>
       <c r="E38" t="n">
-        <v>0.148813</v>
+        <v>0.162721</v>
       </c>
       <c r="F38" t="n">
-        <v>0.150852</v>
+        <v>0.158401</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146584</v>
+        <v>0.155445</v>
       </c>
       <c r="C39" t="n">
-        <v>0.14221</v>
+        <v>0.14455</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185899</v>
+        <v>0.184248</v>
       </c>
       <c r="E39" t="n">
-        <v>0.14863</v>
+        <v>0.156091</v>
       </c>
       <c r="F39" t="n">
-        <v>0.151794</v>
+        <v>0.156623</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145684</v>
+        <v>0.14812</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14476</v>
+        <v>0.14255</v>
       </c>
       <c r="D40" t="n">
-        <v>0.190398</v>
+        <v>0.189091</v>
       </c>
       <c r="E40" t="n">
-        <v>0.150401</v>
+        <v>0.159331</v>
       </c>
       <c r="F40" t="n">
-        <v>0.154657</v>
+        <v>0.156006</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147577</v>
+        <v>0.149478</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140348</v>
+        <v>0.143096</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194513</v>
+        <v>0.192894</v>
       </c>
       <c r="E41" t="n">
-        <v>0.151832</v>
+        <v>0.158505</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150646</v>
+        <v>0.157085</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14672</v>
+        <v>0.150366</v>
       </c>
       <c r="C42" t="n">
-        <v>0.14217</v>
+        <v>0.143162</v>
       </c>
       <c r="D42" t="n">
-        <v>0.198178</v>
+        <v>0.197914</v>
       </c>
       <c r="E42" t="n">
-        <v>0.148767</v>
+        <v>0.159672</v>
       </c>
       <c r="F42" t="n">
-        <v>0.152888</v>
+        <v>0.159477</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148233</v>
+        <v>0.15315</v>
       </c>
       <c r="C43" t="n">
-        <v>0.140958</v>
+        <v>0.144119</v>
       </c>
       <c r="D43" t="n">
-        <v>0.204482</v>
+        <v>0.202671</v>
       </c>
       <c r="E43" t="n">
-        <v>0.148895</v>
+        <v>0.160003</v>
       </c>
       <c r="F43" t="n">
-        <v>0.149894</v>
+        <v>0.158704</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147377</v>
+        <v>0.151935</v>
       </c>
       <c r="C44" t="n">
-        <v>0.143698</v>
+        <v>0.144099</v>
       </c>
       <c r="D44" t="n">
-        <v>0.209544</v>
+        <v>0.207964</v>
       </c>
       <c r="E44" t="n">
-        <v>0.15094</v>
+        <v>0.159636</v>
       </c>
       <c r="F44" t="n">
-        <v>0.154656</v>
+        <v>0.161337</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.149608</v>
+        <v>0.1513</v>
       </c>
       <c r="C45" t="n">
-  